--- a/products/Exported Data.xlsx
+++ b/products/Exported Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5618" uniqueCount="3284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6896" uniqueCount="4041">
   <si>
     <t>Study</t>
   </si>
@@ -8642,6 +8642,2277 @@
   </si>
   <si>
     <t>Data Extraction Errors</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Study</t>
+  </si>
+  <si>
+    <t>Attal 2019 (ICARIA-MM): IsPd vs Pd</t>
+  </si>
+  <si>
+    <t>Bahlis 2020 (POLLUX): DRd vs Rd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2013 (VANTAGE 088): VorV vs V</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2016 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-3): EPd vs Pd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2020 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2021 (APOLLO): DPd vs Pd</t>
+  </si>
+  <si>
+    <t>Grosicki 2020 (BOSTON): SeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Hou 2017 (China Cont.): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>Jakubowiak 2016 (NCT01478048): EVd vs Vd</t>
+  </si>
+  <si>
+    <t>Kumar 2020 (BELLINI): VeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Lu 2021 (LEPUS): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Mateos 2020 (CASTOR): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Moreau 2021 (IKEMA): IsKd vs Kd</t>
+  </si>
+  <si>
+    <t>Orlowski 2019 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2019 (OPTIMISMM): PVd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2021 (TOURMALINE-MM1): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2014 (PANORAMA-1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2016 (PANORAMA 1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2013 (MM-003): Pd vs GC</t>
+  </si>
+  <si>
+    <t>Siegel 2018 (ASPIRE): KRd vs Rd</t>
+  </si>
+  <si>
+    <t>Usamani 2022 (CANDOR): DKd vs Kd</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;=3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;=2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Lower 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>Upper 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t>Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      AT 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t>Data Extraction Errors</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Study</t>
+  </si>
+  <si>
+    <t>Attal 2019 (ICARIA-MM): IsPd vs Pd</t>
+  </si>
+  <si>
+    <t>Bahlis 2020 (POLLUX): DRd vs Rd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2013 (VANTAGE 088): VorV vs V</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2016 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-3): EPd vs Pd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2021 (APOLLO): DPd vs Pd</t>
+  </si>
+  <si>
+    <t>Hou 2017 (China Cont.): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>Jakubowiak 2016 (NCT01478048): EVd vs Vd</t>
+  </si>
+  <si>
+    <t>Kumar 2020 (BELLINI): VeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Lonial 2015 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Lu 2021 (LEPUS): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Mateos 2020 (CASTOR): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Moreau 2021 (IKEMA): IsKd vs Kd</t>
+  </si>
+  <si>
+    <t>Orlowski 2007 (NCT00103506): V vs DoxV</t>
+  </si>
+  <si>
+    <t>Orlowski 2016 (NCT00103506): V vs DoxV</t>
+  </si>
+  <si>
+    <t>Orlowski 2019 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2019 (OPTIMISMM): PVd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2021 (TOURMALINE-MM1): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2016 (PANORAMA 1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>Stewart 2015 (ASPIRE): KRd vs Rd</t>
+  </si>
+  <si>
+    <t>Usmani 2022 (CANDOR): DKd vs Kd</t>
+  </si>
+  <si>
+    <t>refract</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Ref. to R and a PI</t>
+  </si>
+  <si>
+    <t>Not ref. to R and a PI</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous R or T use</t>
+  </si>
+  <si>
+    <t>No previous R or T use</t>
+  </si>
+  <si>
+    <t>Previous R or T use</t>
+  </si>
+  <si>
+    <t>No previous R or T use</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Refractory to T</t>
+  </si>
+  <si>
+    <t>Not refractory to T</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No previous IMiD use</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Lower 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>Upper 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0230</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .       Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t>Data Extraction Errors</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Study</t>
+  </si>
+  <si>
+    <t>Attal 2019 (ICARIA-MM): IsPd vs Pd</t>
+  </si>
+  <si>
+    <t>Bahlis 2020 (POLLUX): DRd vs Rd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2013 (VANTAGE 088): VorV vs V</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2016 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-3): EPd vs Pd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2020 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2021 (APOLLO): DPd vs Pd</t>
+  </si>
+  <si>
+    <t>Grosicki 2020 (BOSTON): SeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Hou 2017 (China Cont.): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>Jakubowiak 2016 (NCT01478048): EVd vs Vd</t>
+  </si>
+  <si>
+    <t>Kumar 2020 (BELLINI): VeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Lu 2021 (LEPUS): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Mateos 2020 (CASTOR): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Moreau 2021 (IKEMA): IsKd vs Kd</t>
+  </si>
+  <si>
+    <t>Orlowski 2019 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2019 (OPTIMISMM): PVd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2021 (TOURMALINE-MM1): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2014 (PANORAMA-1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2016 (PANORAMA 1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2013 (MM-003): Pd vs GC</t>
+  </si>
+  <si>
+    <t>Siegel 2018 (ASPIRE): KRd vs Rd</t>
+  </si>
+  <si>
+    <t>Usamani 2022 (CANDOR): DKd vs Kd</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;=3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;=2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Lower 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>Upper 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t>Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      AT 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t>Data Extraction Errors</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Study</t>
+  </si>
+  <si>
+    <t>Attal 2019 (ICARIA-MM): IsPd vs Pd</t>
+  </si>
+  <si>
+    <t>Bahlis 2020 (POLLUX): DRd vs Rd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2013 (VANTAGE 088): VorV vs V</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2016 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-3): EPd vs Pd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2020 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2021 (APOLLO): DPd vs Pd</t>
+  </si>
+  <si>
+    <t>Grosicki 2020 (BOSTON): SeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Hou 2017 (China Cont.): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>Jakubowiak 2016 (NCT01478048): EVd vs Vd</t>
+  </si>
+  <si>
+    <t>Kumar 2020 (BELLINI): VeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Lu 2021 (LEPUS): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Mateos 2020 (CASTOR): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Moreau 2021 (IKEMA): IsKd vs Kd</t>
+  </si>
+  <si>
+    <t>Orlowski 2019 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2019 (OPTIMISMM): PVd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2021 (TOURMALINE-MM1): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2014 (PANORAMA-1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2016 (PANORAMA 1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2013 (MM-003): Pd vs GC</t>
+  </si>
+  <si>
+    <t>Siegel 2018 (ASPIRE): KRd vs Rd</t>
+  </si>
+  <si>
+    <t>Usamani 2022 (CANDOR): DKd vs Kd</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;=3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;=2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Lower 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>Upper 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t>Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      AT 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t>Data Extraction Errors</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t/>
@@ -9916,42 +12187,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>2923</v>
+        <v>3680</v>
       </c>
       <c r="B1" t="s">
-        <v>2947</v>
+        <v>3704</v>
       </c>
       <c r="C1" t="s">
-        <v>3011</v>
+        <v>3768</v>
       </c>
       <c r="D1" t="s">
-        <v>3027</v>
+        <v>3784</v>
       </c>
       <c r="E1" t="s">
-        <v>3028</v>
+        <v>3785</v>
       </c>
       <c r="F1" t="s">
-        <v>3029</v>
+        <v>3786</v>
       </c>
       <c r="G1" t="s">
-        <v>3030</v>
+        <v>3787</v>
       </c>
       <c r="H1" t="s">
-        <v>3031</v>
+        <v>3788</v>
       </c>
       <c r="I1" t="s">
-        <v>3056</v>
+        <v>3813</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2924</v>
+        <v>3681</v>
       </c>
       <c r="B2" t="s">
-        <v>2948</v>
+        <v>3705</v>
       </c>
       <c r="C2" t="s">
-        <v>3012</v>
+        <v>3769</v>
       </c>
       <c r="D2" s="1">
         <v>0.5899999737739563</v>
@@ -9964,21 +12235,21 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" t="s">
-        <v>3032</v>
+        <v>3789</v>
       </c>
       <c r="I2" t="s">
-        <v>3057</v>
+        <v>3814</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2924</v>
+        <v>3681</v>
       </c>
       <c r="B3" t="s">
-        <v>2949</v>
+        <v>3706</v>
       </c>
       <c r="C3" t="s">
-        <v>3012</v>
+        <v>3769</v>
       </c>
       <c r="D3" s="1">
         <v>0.5899999737739563</v>
@@ -9991,21 +12262,21 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" t="s">
-        <v>3032</v>
+        <v>3789</v>
       </c>
       <c r="I3" t="s">
-        <v>3058</v>
+        <v>3815</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>2925</v>
+        <v>3682</v>
       </c>
       <c r="B4" t="s">
-        <v>2950</v>
+        <v>3707</v>
       </c>
       <c r="C4" t="s">
-        <v>3012</v>
+        <v>3769</v>
       </c>
       <c r="D4" s="1">
         <v>0.41999998688697815</v>
@@ -10018,21 +12289,21 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" t="s">
-        <v>3033</v>
+        <v>3790</v>
       </c>
       <c r="I4" t="s">
-        <v>3059</v>
+        <v>3816</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>2925</v>
+        <v>3682</v>
       </c>
       <c r="B5" t="s">
-        <v>2951</v>
+        <v>3708</v>
       </c>
       <c r="C5" t="s">
-        <v>3012</v>
+        <v>3769</v>
       </c>
       <c r="D5" s="1">
         <v>0.38999998569488525</v>
@@ -10045,21 +12316,21 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" t="s">
-        <v>3033</v>
+        <v>3790</v>
       </c>
       <c r="I5" t="s">
-        <v>3060</v>
+        <v>3817</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>2925</v>
+        <v>3682</v>
       </c>
       <c r="B6" t="s">
-        <v>2952</v>
+        <v>3709</v>
       </c>
       <c r="C6" t="s">
-        <v>3012</v>
+        <v>3769</v>
       </c>
       <c r="D6" s="1">
         <v>0.47999998927116394</v>
@@ -10072,21 +12343,21 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" t="s">
-        <v>3033</v>
+        <v>3790</v>
       </c>
       <c r="I6" t="s">
-        <v>3061</v>
+        <v>3818</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>2925</v>
+        <v>3682</v>
       </c>
       <c r="B7" t="s">
-        <v>2953</v>
+        <v>3710</v>
       </c>
       <c r="C7" t="s">
-        <v>3012</v>
+        <v>3769</v>
       </c>
       <c r="D7" s="1">
         <v>0.74000000953674316</v>
@@ -10099,21 +12370,21 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" t="s">
-        <v>3033</v>
+        <v>3790</v>
       </c>
       <c r="I7" t="s">
-        <v>3062</v>
+        <v>3819</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>2926</v>
+        <v>3683</v>
       </c>
       <c r="B8" t="s">
-        <v>2954</v>
+        <v>3711</v>
       </c>
       <c r="C8" t="s">
-        <v>3012</v>
+        <v>3769</v>
       </c>
       <c r="D8" s="1">
         <v>0.68699997663497925</v>
@@ -10128,21 +12399,21 @@
         <v>0.015200000256299973</v>
       </c>
       <c r="H8" t="s">
-        <v>3034</v>
+        <v>3791</v>
       </c>
       <c r="I8" t="s">
-        <v>3063</v>
+        <v>3820</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>2926</v>
+        <v>3683</v>
       </c>
       <c r="B9" t="s">
-        <v>2955</v>
+        <v>3712</v>
       </c>
       <c r="C9" t="s">
-        <v>3012</v>
+        <v>3769</v>
       </c>
       <c r="D9" s="1">
         <v>0.91600000858306885</v>
@@ -10157,21 +12428,21 @@
         <v>0.48710000514984131</v>
       </c>
       <c r="H9" t="s">
-        <v>3035</v>
+        <v>3792</v>
       </c>
       <c r="I9" t="s">
-        <v>3064</v>
+        <v>3821</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>2927</v>
+        <v>3684</v>
       </c>
       <c r="B10" t="s">
-        <v>2956</v>
+        <v>3713</v>
       </c>
       <c r="C10" t="s">
-        <v>3012</v>
+        <v>3769</v>
       </c>
       <c r="D10" s="1">
         <v>0.44999998807907104</v>
@@ -10184,21 +12455,21 @@
       </c>
       <c r="G10" s="1"/>
       <c r="H10" t="s">
-        <v>3036</v>
+        <v>3793</v>
       </c>
       <c r="I10" t="s">
-        <v>3065</v>
+        <v>3822</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>2927</v>
+        <v>3684</v>
       </c>
       <c r="B11" t="s">
-        <v>2957</v>
+        <v>3714</v>
       </c>
       <c r="C11" t="s">
-        <v>3012</v>
+        <v>3769</v>
       </c>
       <c r="D11" s="1">
         <v>0.60000002384185791</v>
@@ -10211,21 +12482,21 @@
       </c>
       <c r="G11" s="1"/>
       <c r="H11" t="s">
-        <v>3036</v>
+        <v>3793</v>
       </c>
       <c r="I11" t="s">
-        <v>3066</v>
+        <v>3823</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>2928</v>
+        <v>3685</v>
       </c>
       <c r="B12" t="s">
-        <v>2957</v>
+        <v>3714</v>
       </c>
       <c r="C12" t="s">
-        <v>3012</v>
+        <v>3769</v>
       </c>
       <c r="D12" s="1">
         <v>0.55000001192092896</v>
@@ -10238,21 +12509,21 @@
       </c>
       <c r="G12" s="1"/>
       <c r="H12" t="s">
-        <v>3037</v>
+        <v>3794</v>
       </c>
       <c r="I12" t="s">
-        <v>3067</v>
+        <v>3824</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>2928</v>
+        <v>3685</v>
       </c>
       <c r="B13" t="s">
-        <v>2958</v>
+        <v>3715</v>
       </c>
       <c r="C13" t="s">
-        <v>3012</v>
+        <v>3769</v>
       </c>
       <c r="D13" s="1">
         <v>0.50999999046325684</v>
@@ -10265,21 +12536,21 @@
       </c>
       <c r="G13" s="1"/>
       <c r="H13" t="s">
-        <v>3037</v>
+        <v>3794</v>
       </c>
       <c r="I13" t="s">
-        <v>3068</v>
+        <v>3825</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>2929</v>
+        <v>3686</v>
       </c>
       <c r="B14" t="s">
-        <v>2959</v>
+        <v>3716</v>
       </c>
       <c r="C14" t="s">
-        <v>3012</v>
+        <v>3769</v>
       </c>
       <c r="D14" s="1">
         <v>0.76999998092651367</v>
@@ -10292,21 +12563,21 @@
       </c>
       <c r="G14" s="1"/>
       <c r="H14" t="s">
-        <v>3038</v>
+        <v>3795</v>
       </c>
       <c r="I14" t="s">
-        <v>3069</v>
+        <v>3826</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>2929</v>
+        <v>3686</v>
       </c>
       <c r="B15" t="s">
-        <v>2960</v>
+        <v>3717</v>
       </c>
       <c r="C15" t="s">
-        <v>3012</v>
+        <v>3769</v>
       </c>
       <c r="D15" s="1">
         <v>0.68000000715255737</v>
@@ -10319,21 +12590,21 @@
       </c>
       <c r="G15" s="1"/>
       <c r="H15" t="s">
-        <v>3038</v>
+        <v>3795</v>
       </c>
       <c r="I15" t="s">
-        <v>3070</v>
+        <v>3827</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>2930</v>
+        <v>3687</v>
       </c>
       <c r="B16" t="s">
-        <v>2961</v>
+        <v>3718</v>
       </c>
       <c r="C16" t="s">
-        <v>3013</v>
+        <v>3770</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -10346,21 +12617,21 @@
       </c>
       <c r="G16" s="1"/>
       <c r="H16" t="s">
-        <v>3038</v>
+        <v>3795</v>
       </c>
       <c r="I16" t="s">
-        <v>3071</v>
+        <v>3828</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>2930</v>
+        <v>3687</v>
       </c>
       <c r="B17" t="s">
-        <v>2962</v>
+        <v>3719</v>
       </c>
       <c r="C17" t="s">
-        <v>3013</v>
+        <v>3770</v>
       </c>
       <c r="D17" s="1">
         <v>0.70999997854232788</v>
@@ -10373,21 +12644,21 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" t="s">
-        <v>3038</v>
+        <v>3795</v>
       </c>
       <c r="I17" t="s">
-        <v>3072</v>
+        <v>3829</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>2931</v>
+        <v>3688</v>
       </c>
       <c r="B18" t="s">
-        <v>2963</v>
+        <v>3720</v>
       </c>
       <c r="C18" t="s">
-        <v>3014</v>
+        <v>3771</v>
       </c>
       <c r="D18" s="1">
         <v>0.69999998807907104</v>
@@ -10400,21 +12671,21 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18" t="s">
-        <v>3039</v>
+        <v>3796</v>
       </c>
       <c r="I18" t="s">
-        <v>3073</v>
+        <v>3830</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>2931</v>
+        <v>3688</v>
       </c>
       <c r="B19" t="s">
-        <v>2964</v>
+        <v>3721</v>
       </c>
       <c r="C19" t="s">
-        <v>3014</v>
+        <v>3771</v>
       </c>
       <c r="D19" s="1">
         <v>0.6600000262260437</v>
@@ -10427,21 +12698,21 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" t="s">
-        <v>3039</v>
+        <v>3796</v>
       </c>
       <c r="I19" t="s">
-        <v>3074</v>
+        <v>3831</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>2931</v>
+        <v>3688</v>
       </c>
       <c r="B20" t="s">
-        <v>2965</v>
+        <v>3722</v>
       </c>
       <c r="C20" t="s">
-        <v>3014</v>
+        <v>3771</v>
       </c>
       <c r="D20" s="1">
         <v>0.40000000596046448</v>
@@ -10454,21 +12725,21 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" t="s">
-        <v>3039</v>
+        <v>3796</v>
       </c>
       <c r="I20" t="s">
-        <v>3075</v>
+        <v>3832</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>2932</v>
+        <v>3689</v>
       </c>
       <c r="B21" t="s">
-        <v>2966</v>
+        <v>3723</v>
       </c>
       <c r="C21" t="s">
-        <v>3014</v>
+        <v>3771</v>
       </c>
       <c r="D21" s="1">
         <v>0.62999999523162842</v>
@@ -10481,21 +12752,21 @@
       </c>
       <c r="G21" s="1"/>
       <c r="H21" t="s">
-        <v>3040</v>
+        <v>3797</v>
       </c>
       <c r="I21" t="s">
-        <v>3076</v>
+        <v>3833</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>2932</v>
+        <v>3689</v>
       </c>
       <c r="B22" t="s">
-        <v>2967</v>
+        <v>3724</v>
       </c>
       <c r="C22" t="s">
-        <v>3014</v>
+        <v>3771</v>
       </c>
       <c r="D22" s="1">
         <v>0.64999997615814209</v>
@@ -10508,21 +12779,21 @@
       </c>
       <c r="G22" s="1"/>
       <c r="H22" t="s">
-        <v>3040</v>
+        <v>3797</v>
       </c>
       <c r="I22" t="s">
-        <v>3077</v>
+        <v>3834</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>2932</v>
+        <v>3689</v>
       </c>
       <c r="B23" t="s">
-        <v>2968</v>
+        <v>3725</v>
       </c>
       <c r="C23" t="s">
-        <v>3014</v>
+        <v>3771</v>
       </c>
       <c r="D23" s="1">
         <v>0.81999999284744263</v>
@@ -10535,21 +12806,21 @@
       </c>
       <c r="G23" s="1"/>
       <c r="H23" t="s">
-        <v>3040</v>
+        <v>3797</v>
       </c>
       <c r="I23" t="s">
-        <v>3078</v>
+        <v>3835</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>2933</v>
+        <v>3690</v>
       </c>
       <c r="B24" t="s">
-        <v>2969</v>
+        <v>3726</v>
       </c>
       <c r="C24" t="s">
-        <v>3014</v>
+        <v>3771</v>
       </c>
       <c r="D24" s="1">
         <v>0.84700000286102295</v>
@@ -10562,21 +12833,21 @@
       </c>
       <c r="G24" s="1"/>
       <c r="H24" t="s">
-        <v>3041</v>
+        <v>3798</v>
       </c>
       <c r="I24" t="s">
-        <v>3079</v>
+        <v>3836</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>2933</v>
+        <v>3690</v>
       </c>
       <c r="B25" t="s">
-        <v>2970</v>
+        <v>3727</v>
       </c>
       <c r="C25" t="s">
-        <v>3014</v>
+        <v>3771</v>
       </c>
       <c r="D25" s="1">
         <v>0.37000000476837158</v>
@@ -10589,21 +12860,21 @@
       </c>
       <c r="G25" s="1"/>
       <c r="H25" t="s">
-        <v>3041</v>
+        <v>3798</v>
       </c>
       <c r="I25" t="s">
-        <v>3080</v>
+        <v>3837</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>2933</v>
+        <v>3690</v>
       </c>
       <c r="B26" t="s">
-        <v>2971</v>
+        <v>3728</v>
       </c>
       <c r="C26" t="s">
-        <v>3014</v>
+        <v>3771</v>
       </c>
       <c r="D26" s="1">
         <v>0.70200002193450928</v>
@@ -10616,21 +12887,21 @@
       </c>
       <c r="G26" s="1"/>
       <c r="H26" t="s">
-        <v>3041</v>
+        <v>3798</v>
       </c>
       <c r="I26" t="s">
-        <v>3081</v>
+        <v>3838</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>2933</v>
+        <v>3690</v>
       </c>
       <c r="B27" t="s">
-        <v>2972</v>
+        <v>3729</v>
       </c>
       <c r="C27" t="s">
-        <v>3015</v>
+        <v>3772</v>
       </c>
       <c r="D27" s="1">
         <v>0.52100002765655518</v>
@@ -10643,21 +12914,21 @@
       </c>
       <c r="G27" s="1"/>
       <c r="H27" t="s">
-        <v>3042</v>
+        <v>3799</v>
       </c>
       <c r="I27" t="s">
-        <v>3082</v>
+        <v>3839</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>2933</v>
+        <v>3690</v>
       </c>
       <c r="B28" t="s">
-        <v>2973</v>
+        <v>3730</v>
       </c>
       <c r="C28" t="s">
-        <v>3015</v>
+        <v>3772</v>
       </c>
       <c r="D28" s="1">
         <v>0.38600000739097595</v>
@@ -10670,21 +12941,21 @@
       </c>
       <c r="G28" s="1"/>
       <c r="H28" t="s">
-        <v>3042</v>
+        <v>3799</v>
       </c>
       <c r="I28" t="s">
-        <v>3083</v>
+        <v>3840</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>2933</v>
+        <v>3690</v>
       </c>
       <c r="B29" t="s">
-        <v>2974</v>
+        <v>3731</v>
       </c>
       <c r="C29" t="s">
-        <v>3015</v>
+        <v>3772</v>
       </c>
       <c r="D29" s="1">
         <v>0.335999995470047</v>
@@ -10697,21 +12968,21 @@
       </c>
       <c r="G29" s="1"/>
       <c r="H29" t="s">
-        <v>3042</v>
+        <v>3799</v>
       </c>
       <c r="I29" t="s">
-        <v>3084</v>
+        <v>3841</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>2934</v>
+        <v>3691</v>
       </c>
       <c r="B30" t="s">
-        <v>2975</v>
+        <v>3732</v>
       </c>
       <c r="C30" t="s">
-        <v>3016</v>
+        <v>3773</v>
       </c>
       <c r="D30" s="1">
         <v>0.74000000953674316</v>
@@ -10724,21 +12995,21 @@
       </c>
       <c r="G30" s="1"/>
       <c r="H30" t="s">
-        <v>3043</v>
+        <v>3800</v>
       </c>
       <c r="I30" t="s">
-        <v>3085</v>
+        <v>3842</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>2934</v>
+        <v>3691</v>
       </c>
       <c r="B31" t="s">
-        <v>2976</v>
+        <v>3733</v>
       </c>
       <c r="C31" t="s">
-        <v>3016</v>
+        <v>3773</v>
       </c>
       <c r="D31" s="1">
         <v>0.75999999046325684</v>
@@ -10751,21 +13022,21 @@
       </c>
       <c r="G31" s="1"/>
       <c r="H31" t="s">
-        <v>3043</v>
+        <v>3800</v>
       </c>
       <c r="I31" t="s">
-        <v>3086</v>
+        <v>3843</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>2935</v>
+        <v>3692</v>
       </c>
       <c r="B32" t="s">
-        <v>2977</v>
+        <v>3734</v>
       </c>
       <c r="C32" t="s">
-        <v>3016</v>
+        <v>3773</v>
       </c>
       <c r="D32" s="1">
         <v>0.75</v>
@@ -10778,21 +13049,21 @@
       </c>
       <c r="G32" s="1"/>
       <c r="H32" t="s">
-        <v>3044</v>
+        <v>3801</v>
       </c>
       <c r="I32" t="s">
-        <v>3087</v>
+        <v>3844</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>2935</v>
+        <v>3692</v>
       </c>
       <c r="B33" t="s">
-        <v>2978</v>
+        <v>3735</v>
       </c>
       <c r="C33" t="s">
-        <v>3016</v>
+        <v>3773</v>
       </c>
       <c r="D33" s="1">
         <v>0.54000002145767212</v>
@@ -10805,21 +13076,21 @@
       </c>
       <c r="G33" s="1"/>
       <c r="H33" t="s">
-        <v>3044</v>
+        <v>3801</v>
       </c>
       <c r="I33" t="s">
-        <v>3088</v>
+        <v>3845</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>2935</v>
+        <v>3692</v>
       </c>
       <c r="B34" t="s">
-        <v>2979</v>
+        <v>3736</v>
       </c>
       <c r="C34" t="s">
-        <v>3017</v>
+        <v>3774</v>
       </c>
       <c r="D34" s="1">
         <v>1.6699999570846558</v>
@@ -10832,21 +13103,21 @@
       </c>
       <c r="G34" s="1"/>
       <c r="H34" t="s">
-        <v>3045</v>
+        <v>3802</v>
       </c>
       <c r="I34" t="s">
-        <v>3089</v>
+        <v>3846</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>2935</v>
+        <v>3692</v>
       </c>
       <c r="B35" t="s">
-        <v>2980</v>
+        <v>3737</v>
       </c>
       <c r="C35" t="s">
-        <v>3017</v>
+        <v>3774</v>
       </c>
       <c r="D35" s="1">
         <v>2.3299999237060547</v>
@@ -10859,21 +13130,21 @@
       </c>
       <c r="G35" s="1"/>
       <c r="H35" t="s">
-        <v>3045</v>
+        <v>3802</v>
       </c>
       <c r="I35" t="s">
-        <v>3090</v>
+        <v>3847</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>2936</v>
+        <v>3693</v>
       </c>
       <c r="B36" t="s">
-        <v>2981</v>
+        <v>3738</v>
       </c>
       <c r="C36" t="s">
-        <v>3018</v>
+        <v>3775</v>
       </c>
       <c r="D36" s="1">
         <v>0.15999999642372131</v>
@@ -10886,21 +13157,21 @@
       </c>
       <c r="G36" s="1"/>
       <c r="H36" t="s">
-        <v>3046</v>
+        <v>3803</v>
       </c>
       <c r="I36" t="s">
-        <v>3091</v>
+        <v>3848</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>2936</v>
+        <v>3693</v>
       </c>
       <c r="B37" t="s">
-        <v>2982</v>
+        <v>3739</v>
       </c>
       <c r="C37" t="s">
-        <v>3018</v>
+        <v>3775</v>
       </c>
       <c r="D37" s="1">
         <v>0.51999998092651367</v>
@@ -10913,21 +13184,21 @@
       </c>
       <c r="G37" s="1"/>
       <c r="H37" t="s">
-        <v>3046</v>
+        <v>3803</v>
       </c>
       <c r="I37" t="s">
-        <v>3092</v>
+        <v>3849</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>2936</v>
+        <v>3693</v>
       </c>
       <c r="B38" t="s">
-        <v>2983</v>
+        <v>3740</v>
       </c>
       <c r="C38" t="s">
-        <v>3018</v>
+        <v>3775</v>
       </c>
       <c r="D38" s="1">
         <v>0.62999999523162842</v>
@@ -10940,21 +13211,21 @@
       </c>
       <c r="G38" s="1"/>
       <c r="H38" t="s">
-        <v>3046</v>
+        <v>3803</v>
       </c>
       <c r="I38" t="s">
-        <v>3093</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>2936</v>
+        <v>3693</v>
       </c>
       <c r="B39" t="s">
-        <v>2984</v>
+        <v>3741</v>
       </c>
       <c r="C39" t="s">
-        <v>3018</v>
+        <v>3775</v>
       </c>
       <c r="D39" s="1">
         <v>0.25999999046325684</v>
@@ -10967,21 +13238,21 @@
       </c>
       <c r="G39" s="1"/>
       <c r="H39" t="s">
-        <v>3046</v>
+        <v>3803</v>
       </c>
       <c r="I39" t="s">
-        <v>3094</v>
+        <v>3851</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>2937</v>
+        <v>3694</v>
       </c>
       <c r="B40" t="s">
-        <v>2985</v>
+        <v>3742</v>
       </c>
       <c r="C40" t="s">
-        <v>3018</v>
+        <v>3775</v>
       </c>
       <c r="D40" s="1">
         <v>0.2199999988079071</v>
@@ -10994,21 +13265,21 @@
       </c>
       <c r="G40" s="1"/>
       <c r="H40" t="s">
-        <v>3046</v>
+        <v>3803</v>
       </c>
       <c r="I40" t="s">
-        <v>3095</v>
+        <v>3852</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>2937</v>
+        <v>3694</v>
       </c>
       <c r="B41" t="s">
-        <v>2986</v>
+        <v>3743</v>
       </c>
       <c r="C41" t="s">
-        <v>3018</v>
+        <v>3775</v>
       </c>
       <c r="D41" s="1">
         <v>0.46000000834465027</v>
@@ -11021,21 +13292,21 @@
       </c>
       <c r="G41" s="1"/>
       <c r="H41" t="s">
-        <v>3046</v>
+        <v>3803</v>
       </c>
       <c r="I41" t="s">
-        <v>3096</v>
+        <v>3853</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>2937</v>
+        <v>3694</v>
       </c>
       <c r="B42" t="s">
-        <v>2987</v>
+        <v>3744</v>
       </c>
       <c r="C42" t="s">
-        <v>3018</v>
+        <v>3775</v>
       </c>
       <c r="D42" s="1">
         <v>0.60000002384185791</v>
@@ -11048,21 +13319,21 @@
       </c>
       <c r="G42" s="1"/>
       <c r="H42" t="s">
-        <v>3046</v>
+        <v>3803</v>
       </c>
       <c r="I42" t="s">
-        <v>3097</v>
+        <v>3854</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>2937</v>
+        <v>3694</v>
       </c>
       <c r="B43" t="s">
-        <v>2988</v>
+        <v>3745</v>
       </c>
       <c r="C43" t="s">
-        <v>3018</v>
+        <v>3775</v>
       </c>
       <c r="D43" s="1">
         <v>0.37000000476837158</v>
@@ -11075,21 +13346,21 @@
       </c>
       <c r="G43" s="1"/>
       <c r="H43" t="s">
-        <v>3046</v>
+        <v>3803</v>
       </c>
       <c r="I43" t="s">
-        <v>3098</v>
+        <v>3855</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>2938</v>
+        <v>3695</v>
       </c>
       <c r="B44" t="s">
-        <v>2989</v>
+        <v>3746</v>
       </c>
       <c r="C44" t="s">
-        <v>3018</v>
+        <v>3775</v>
       </c>
       <c r="D44" s="1">
         <v>0.5899999737739563</v>
@@ -11102,21 +13373,21 @@
       </c>
       <c r="G44" s="1"/>
       <c r="H44" t="s">
-        <v>3047</v>
+        <v>3804</v>
       </c>
       <c r="I44" t="s">
-        <v>3099</v>
+        <v>3856</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>2938</v>
+        <v>3695</v>
       </c>
       <c r="B45" t="s">
-        <v>2990</v>
+        <v>3747</v>
       </c>
       <c r="C45" t="s">
-        <v>3018</v>
+        <v>3775</v>
       </c>
       <c r="D45" s="1">
         <v>0.47999998927116394</v>
@@ -11129,21 +13400,21 @@
       </c>
       <c r="G45" s="1"/>
       <c r="H45" t="s">
-        <v>3047</v>
+        <v>3804</v>
       </c>
       <c r="I45" t="s">
-        <v>3100</v>
+        <v>3857</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>2939</v>
+        <v>3696</v>
       </c>
       <c r="B46" t="s">
-        <v>2991</v>
+        <v>3748</v>
       </c>
       <c r="C46" t="s">
-        <v>3019</v>
+        <v>3776</v>
       </c>
       <c r="D46" s="1">
         <v>0.77100002765655518</v>
@@ -11156,21 +13427,21 @@
       </c>
       <c r="G46" s="1"/>
       <c r="H46" t="s">
-        <v>3047</v>
+        <v>3804</v>
       </c>
       <c r="I46" t="s">
-        <v>3101</v>
+        <v>3858</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>2939</v>
+        <v>3696</v>
       </c>
       <c r="B47" t="s">
-        <v>2992</v>
+        <v>3749</v>
       </c>
       <c r="C47" t="s">
-        <v>3019</v>
+        <v>3776</v>
       </c>
       <c r="D47" s="1">
         <v>0.75199997425079346</v>
@@ -11183,21 +13454,21 @@
       </c>
       <c r="G47" s="1"/>
       <c r="H47" t="s">
-        <v>3047</v>
+        <v>3804</v>
       </c>
       <c r="I47" t="s">
-        <v>3102</v>
+        <v>3859</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>2940</v>
+        <v>3697</v>
       </c>
       <c r="B48" t="s">
-        <v>2993</v>
+        <v>3750</v>
       </c>
       <c r="C48" t="s">
-        <v>3020</v>
+        <v>3777</v>
       </c>
       <c r="D48" s="1">
         <v>0.54000002145767212</v>
@@ -11210,21 +13481,21 @@
       </c>
       <c r="G48" s="1"/>
       <c r="H48" t="s">
-        <v>3047</v>
+        <v>3804</v>
       </c>
       <c r="I48" t="s">
-        <v>3103</v>
+        <v>3860</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>2940</v>
+        <v>3697</v>
       </c>
       <c r="B49" t="s">
-        <v>2994</v>
+        <v>3751</v>
       </c>
       <c r="C49" t="s">
-        <v>3020</v>
+        <v>3777</v>
       </c>
       <c r="D49" s="1">
         <v>0.67000001668930054</v>
@@ -11237,21 +13508,21 @@
       </c>
       <c r="G49" s="1"/>
       <c r="H49" t="s">
-        <v>3047</v>
+        <v>3804</v>
       </c>
       <c r="I49" t="s">
-        <v>3104</v>
+        <v>3861</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>2940</v>
+        <v>3697</v>
       </c>
       <c r="B50" t="s">
-        <v>2995</v>
+        <v>3752</v>
       </c>
       <c r="C50" t="s">
-        <v>3020</v>
+        <v>3777</v>
       </c>
       <c r="D50" s="1">
         <v>0.60000002384185791</v>
@@ -11264,21 +13535,21 @@
       </c>
       <c r="G50" s="1"/>
       <c r="H50" t="s">
-        <v>3047</v>
+        <v>3804</v>
       </c>
       <c r="I50" t="s">
-        <v>3105</v>
+        <v>3862</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>2941</v>
+        <v>3698</v>
       </c>
       <c r="B51" t="s">
-        <v>2996</v>
+        <v>3753</v>
       </c>
       <c r="C51" t="s">
-        <v>3021</v>
+        <v>3778</v>
       </c>
       <c r="D51" s="1">
         <v>0.97600001096725464</v>
@@ -11291,21 +13562,21 @@
       </c>
       <c r="G51" s="1"/>
       <c r="H51" t="s">
-        <v>3048</v>
+        <v>3805</v>
       </c>
       <c r="I51" t="s">
-        <v>3106</v>
+        <v>3863</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>2941</v>
+        <v>3698</v>
       </c>
       <c r="B52" t="s">
-        <v>2997</v>
+        <v>3754</v>
       </c>
       <c r="C52" t="s">
-        <v>3021</v>
+        <v>3778</v>
       </c>
       <c r="D52" s="1">
         <v>0.92599999904632568</v>
@@ -11318,21 +13589,21 @@
       </c>
       <c r="G52" s="1"/>
       <c r="H52" t="s">
-        <v>3048</v>
+        <v>3805</v>
       </c>
       <c r="I52" t="s">
-        <v>3107</v>
+        <v>3864</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>2941</v>
+        <v>3698</v>
       </c>
       <c r="B53" t="s">
-        <v>2998</v>
+        <v>3755</v>
       </c>
       <c r="C53" t="s">
-        <v>3021</v>
+        <v>3778</v>
       </c>
       <c r="D53" s="1">
         <v>0.88300001621246338</v>
@@ -11345,21 +13616,21 @@
       </c>
       <c r="G53" s="1"/>
       <c r="H53" t="s">
-        <v>3048</v>
+        <v>3805</v>
       </c>
       <c r="I53" t="s">
-        <v>3108</v>
+        <v>3865</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>2942</v>
+        <v>3699</v>
       </c>
       <c r="B54" t="s">
-        <v>2999</v>
+        <v>3756</v>
       </c>
       <c r="C54" t="s">
-        <v>3022</v>
+        <v>3779</v>
       </c>
       <c r="D54" s="1">
         <v>0.6600000262260437</v>
@@ -11372,21 +13643,21 @@
       </c>
       <c r="G54" s="1"/>
       <c r="H54" t="s">
-        <v>3049</v>
+        <v>3806</v>
       </c>
       <c r="I54" t="s">
-        <v>3109</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>2942</v>
+        <v>3699</v>
       </c>
       <c r="B55" t="s">
-        <v>3000</v>
+        <v>3757</v>
       </c>
       <c r="C55" t="s">
-        <v>3022</v>
+        <v>3779</v>
       </c>
       <c r="D55" s="1">
         <v>0.63999998569488525</v>
@@ -11399,21 +13670,21 @@
       </c>
       <c r="G55" s="1"/>
       <c r="H55" t="s">
-        <v>3049</v>
+        <v>3806</v>
       </c>
       <c r="I55" t="s">
-        <v>3110</v>
+        <v>3867</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>2943</v>
+        <v>3700</v>
       </c>
       <c r="B56" t="s">
-        <v>3001</v>
+        <v>3758</v>
       </c>
       <c r="C56" t="s">
-        <v>3023</v>
+        <v>3780</v>
       </c>
       <c r="D56" s="1">
         <v>0.89999997615814209</v>
@@ -11426,21 +13697,21 @@
       </c>
       <c r="G56" s="1"/>
       <c r="H56" t="s">
-        <v>3050</v>
+        <v>3807</v>
       </c>
       <c r="I56" t="s">
-        <v>3111</v>
+        <v>3868</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>2943</v>
+        <v>3700</v>
       </c>
       <c r="B57" t="s">
-        <v>3002</v>
+        <v>3759</v>
       </c>
       <c r="C57" t="s">
-        <v>3023</v>
+        <v>3780</v>
       </c>
       <c r="D57" s="1">
         <v>0.95999997854232788</v>
@@ -11453,21 +13724,21 @@
       </c>
       <c r="G57" s="1"/>
       <c r="H57" t="s">
-        <v>3050</v>
+        <v>3807</v>
       </c>
       <c r="I57" t="s">
-        <v>3112</v>
+        <v>3869</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>2944</v>
+        <v>3701</v>
       </c>
       <c r="B58" t="s">
-        <v>3003</v>
+        <v>3760</v>
       </c>
       <c r="C58" t="s">
-        <v>3024</v>
+        <v>3781</v>
       </c>
       <c r="D58" s="1">
         <v>0.4699999988079071</v>
@@ -11480,21 +13751,21 @@
       </c>
       <c r="G58" s="1"/>
       <c r="H58" t="s">
-        <v>3051</v>
+        <v>3808</v>
       </c>
       <c r="I58" t="s">
-        <v>3113</v>
+        <v>3870</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>2944</v>
+        <v>3701</v>
       </c>
       <c r="B59" t="s">
-        <v>3004</v>
+        <v>3761</v>
       </c>
       <c r="C59" t="s">
-        <v>3024</v>
+        <v>3781</v>
       </c>
       <c r="D59" s="1">
         <v>0.47999998927116394</v>
@@ -11507,21 +13778,21 @@
       </c>
       <c r="G59" s="1"/>
       <c r="H59" t="s">
-        <v>3052</v>
+        <v>3809</v>
       </c>
       <c r="I59" t="s">
-        <v>3114</v>
+        <v>3871</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>2944</v>
+        <v>3701</v>
       </c>
       <c r="B60" t="s">
-        <v>3005</v>
+        <v>3762</v>
       </c>
       <c r="C60" t="s">
-        <v>3025</v>
+        <v>3782</v>
       </c>
       <c r="D60" s="1">
         <v>0.43999999761581421</v>
@@ -11534,21 +13805,21 @@
       </c>
       <c r="G60" s="1"/>
       <c r="H60" t="s">
-        <v>3052</v>
+        <v>3809</v>
       </c>
       <c r="I60" t="s">
-        <v>3115</v>
+        <v>3872</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>2944</v>
+        <v>3701</v>
       </c>
       <c r="B61" t="s">
-        <v>3006</v>
+        <v>3763</v>
       </c>
       <c r="C61" t="s">
-        <v>3025</v>
+        <v>3782</v>
       </c>
       <c r="D61" s="1">
         <v>0.75999999046325684</v>
@@ -11561,21 +13832,21 @@
       </c>
       <c r="G61" s="1"/>
       <c r="H61" t="s">
-        <v>3053</v>
+        <v>3810</v>
       </c>
       <c r="I61" t="s">
-        <v>3116</v>
+        <v>3873</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>2945</v>
+        <v>3702</v>
       </c>
       <c r="B62" t="s">
-        <v>3007</v>
+        <v>3764</v>
       </c>
       <c r="C62" t="s">
-        <v>3025</v>
+        <v>3782</v>
       </c>
       <c r="D62" s="1">
         <v>0.81000000238418579</v>
@@ -11588,21 +13859,21 @@
       </c>
       <c r="G62" s="1"/>
       <c r="H62" t="s">
-        <v>3054</v>
+        <v>3811</v>
       </c>
       <c r="I62" t="s">
-        <v>3117</v>
+        <v>3874</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>2945</v>
+        <v>3702</v>
       </c>
       <c r="B63" t="s">
-        <v>3008</v>
+        <v>3765</v>
       </c>
       <c r="C63" t="s">
-        <v>3025</v>
+        <v>3782</v>
       </c>
       <c r="D63" s="1">
         <v>0.79000002145767212</v>
@@ -11615,21 +13886,21 @@
       </c>
       <c r="G63" s="1"/>
       <c r="H63" t="s">
-        <v>3054</v>
+        <v>3811</v>
       </c>
       <c r="I63" t="s">
-        <v>3118</v>
+        <v>3875</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>2946</v>
+        <v>3703</v>
       </c>
       <c r="B64" t="s">
-        <v>3009</v>
+        <v>3766</v>
       </c>
       <c r="C64" t="s">
-        <v>3026</v>
+        <v>3783</v>
       </c>
       <c r="D64" s="1">
         <v>0.6600000262260437</v>
@@ -11642,21 +13913,21 @@
       </c>
       <c r="G64" s="1"/>
       <c r="H64" t="s">
-        <v>3055</v>
+        <v>3812</v>
       </c>
       <c r="I64" t="s">
-        <v>3119</v>
+        <v>3876</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>2946</v>
+        <v>3703</v>
       </c>
       <c r="B65" t="s">
-        <v>3010</v>
+        <v>3767</v>
       </c>
       <c r="C65" t="s">
-        <v>3026</v>
+        <v>3783</v>
       </c>
       <c r="D65" s="1">
         <v>0.55000001192092896</v>
@@ -11669,10 +13940,10 @@
       </c>
       <c r="G65" s="1"/>
       <c r="H65" t="s">
-        <v>3055</v>
+        <v>3812</v>
       </c>
       <c r="I65" t="s">
-        <v>3120</v>
+        <v>3877</v>
       </c>
     </row>
   </sheetData>
@@ -11686,42 +13957,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>3121</v>
+        <v>3878</v>
       </c>
       <c r="B1" t="s">
-        <v>3143</v>
+        <v>3900</v>
       </c>
       <c r="C1" t="s">
-        <v>3190</v>
+        <v>3947</v>
       </c>
       <c r="D1" t="s">
-        <v>3200</v>
+        <v>3957</v>
       </c>
       <c r="E1" t="s">
-        <v>3201</v>
+        <v>3958</v>
       </c>
       <c r="F1" t="s">
-        <v>3202</v>
+        <v>3959</v>
       </c>
       <c r="G1" t="s">
-        <v>3203</v>
+        <v>3960</v>
       </c>
       <c r="H1" t="s">
-        <v>3215</v>
+        <v>3972</v>
       </c>
       <c r="I1" t="s">
-        <v>3236</v>
+        <v>3993</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3122</v>
+        <v>3879</v>
       </c>
       <c r="B2" t="s">
-        <v>3144</v>
+        <v>3901</v>
       </c>
       <c r="C2" t="s">
-        <v>3191</v>
+        <v>3948</v>
       </c>
       <c r="D2" s="1">
         <v>0.5899999737739563</v>
@@ -11733,24 +14004,24 @@
         <v>0.81999999284744263</v>
       </c>
       <c r="G2" t="s">
-        <v>3204</v>
+        <v>3961</v>
       </c>
       <c r="H2" t="s">
-        <v>3216</v>
+        <v>3973</v>
       </c>
       <c r="I2" t="s">
-        <v>3237</v>
+        <v>3994</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3122</v>
+        <v>3879</v>
       </c>
       <c r="B3" t="s">
-        <v>3145</v>
+        <v>3902</v>
       </c>
       <c r="C3" t="s">
-        <v>3191</v>
+        <v>3948</v>
       </c>
       <c r="D3" s="1">
         <v>0.18000000715255737</v>
@@ -11762,24 +14033,24 @@
         <v>1.4900000095367432</v>
       </c>
       <c r="G3" t="s">
-        <v>3204</v>
+        <v>3961</v>
       </c>
       <c r="H3" t="s">
-        <v>3216</v>
+        <v>3973</v>
       </c>
       <c r="I3" t="s">
-        <v>3238</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>3123</v>
+        <v>3880</v>
       </c>
       <c r="B4" t="s">
-        <v>3146</v>
+        <v>3903</v>
       </c>
       <c r="C4" t="s">
-        <v>3191</v>
+        <v>3948</v>
       </c>
       <c r="D4" s="1">
         <v>0.37999999523162842</v>
@@ -11791,24 +14062,24 @@
         <v>0.6600000262260437</v>
       </c>
       <c r="G4" t="s">
-        <v>3204</v>
+        <v>3961</v>
       </c>
       <c r="H4" t="s">
-        <v>3217</v>
+        <v>3974</v>
       </c>
       <c r="I4" t="s">
-        <v>3239</v>
+        <v>3996</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>3123</v>
+        <v>3880</v>
       </c>
       <c r="B5" t="s">
-        <v>3147</v>
+        <v>3904</v>
       </c>
       <c r="C5" t="s">
-        <v>3191</v>
+        <v>3948</v>
       </c>
       <c r="D5" s="1">
         <v>0.44999998807907104</v>
@@ -11820,24 +14091,24 @@
         <v>0.57999998331069946</v>
       </c>
       <c r="G5" t="s">
-        <v>3204</v>
+        <v>3961</v>
       </c>
       <c r="H5" t="s">
-        <v>3217</v>
+        <v>3974</v>
       </c>
       <c r="I5" t="s">
-        <v>3240</v>
+        <v>3997</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>3124</v>
+        <v>3881</v>
       </c>
       <c r="B6" t="s">
-        <v>3148</v>
+        <v>3905</v>
       </c>
       <c r="C6" t="s">
-        <v>3191</v>
+        <v>3948</v>
       </c>
       <c r="D6" s="1">
         <v>0.75700002908706665</v>
@@ -11849,24 +14120,24 @@
         <v>0.96299999952316284</v>
       </c>
       <c r="G6" t="s">
-        <v>3205</v>
+        <v>3962</v>
       </c>
       <c r="H6" t="s">
-        <v>3218</v>
+        <v>3975</v>
       </c>
       <c r="I6" t="s">
-        <v>3241</v>
+        <v>3998</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>3124</v>
+        <v>3881</v>
       </c>
       <c r="B7" t="s">
-        <v>3149</v>
+        <v>3906</v>
       </c>
       <c r="C7" t="s">
-        <v>3191</v>
+        <v>3948</v>
       </c>
       <c r="D7" s="1">
         <v>0.92599999904632568</v>
@@ -11878,24 +14149,24 @@
         <v>1.2790000438690186</v>
       </c>
       <c r="G7" t="s">
-        <v>3206</v>
+        <v>3963</v>
       </c>
       <c r="H7" t="s">
-        <v>3218</v>
+        <v>3975</v>
       </c>
       <c r="I7" t="s">
-        <v>3242</v>
+        <v>3999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>3125</v>
+        <v>3882</v>
       </c>
       <c r="B8" t="s">
-        <v>3150</v>
+        <v>3907</v>
       </c>
       <c r="C8" t="s">
-        <v>3191</v>
+        <v>3948</v>
       </c>
       <c r="D8" s="1">
         <v>0.43999999761581421</v>
@@ -11907,24 +14178,24 @@
         <v>0.56000000238418579</v>
       </c>
       <c r="G8" t="s">
-        <v>3207</v>
+        <v>3964</v>
       </c>
       <c r="H8" t="s">
-        <v>3219</v>
+        <v>3976</v>
       </c>
       <c r="I8" t="s">
-        <v>3243</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>3125</v>
+        <v>3882</v>
       </c>
       <c r="B9" t="s">
-        <v>3151</v>
+        <v>3908</v>
       </c>
       <c r="C9" t="s">
-        <v>3191</v>
+        <v>3948</v>
       </c>
       <c r="D9" s="1">
         <v>0.80000001192092896</v>
@@ -11936,24 +14207,24 @@
         <v>1.1100000143051147</v>
       </c>
       <c r="G9" t="s">
-        <v>3207</v>
+        <v>3964</v>
       </c>
       <c r="H9" t="s">
-        <v>3219</v>
+        <v>3976</v>
       </c>
       <c r="I9" t="s">
-        <v>3244</v>
+        <v>4001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>3126</v>
+        <v>3883</v>
       </c>
       <c r="B10" t="s">
-        <v>3152</v>
+        <v>3909</v>
       </c>
       <c r="C10" t="s">
-        <v>3191</v>
+        <v>3948</v>
       </c>
       <c r="D10" s="1">
         <v>0.56000000238418579</v>
@@ -11965,24 +14236,24 @@
         <v>0.97000002861022949</v>
       </c>
       <c r="G10" t="s">
-        <v>3207</v>
+        <v>3964</v>
       </c>
       <c r="H10" t="s">
-        <v>3220</v>
+        <v>3977</v>
       </c>
       <c r="I10" t="s">
-        <v>3245</v>
+        <v>4002</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>3126</v>
+        <v>3883</v>
       </c>
       <c r="B11" t="s">
-        <v>3153</v>
+        <v>3910</v>
       </c>
       <c r="C11" t="s">
-        <v>3191</v>
+        <v>3948</v>
       </c>
       <c r="D11" s="1">
         <v>0.50999999046325684</v>
@@ -11994,24 +14265,24 @@
         <v>1.190000057220459</v>
       </c>
       <c r="G11" t="s">
-        <v>3207</v>
+        <v>3964</v>
       </c>
       <c r="H11" t="s">
-        <v>3220</v>
+        <v>3977</v>
       </c>
       <c r="I11" t="s">
-        <v>3246</v>
+        <v>4003</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>3127</v>
+        <v>3884</v>
       </c>
       <c r="B12" t="s">
-        <v>3154</v>
+        <v>3911</v>
       </c>
       <c r="C12" t="s">
-        <v>3191</v>
+        <v>3948</v>
       </c>
       <c r="D12" s="1">
         <v>0.36000001430511475</v>
@@ -12023,24 +14294,24 @@
         <v>0.82999998331069946</v>
       </c>
       <c r="G12" t="s">
-        <v>3207</v>
+        <v>3964</v>
       </c>
       <c r="H12" t="s">
-        <v>3221</v>
+        <v>3978</v>
       </c>
       <c r="I12" t="s">
-        <v>3247</v>
+        <v>4004</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>3127</v>
+        <v>3884</v>
       </c>
       <c r="B13" t="s">
-        <v>3155</v>
+        <v>3912</v>
       </c>
       <c r="C13" t="s">
-        <v>3191</v>
+        <v>3948</v>
       </c>
       <c r="D13" s="1">
         <v>0.6600000262260437</v>
@@ -12052,24 +14323,24 @@
         <v>0.89999997615814209</v>
       </c>
       <c r="G13" t="s">
-        <v>3207</v>
+        <v>3964</v>
       </c>
       <c r="H13" t="s">
-        <v>3221</v>
+        <v>3978</v>
       </c>
       <c r="I13" t="s">
-        <v>3248</v>
+        <v>4005</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>3128</v>
+        <v>3885</v>
       </c>
       <c r="B14" t="s">
-        <v>3156</v>
+        <v>3913</v>
       </c>
       <c r="C14" t="s">
-        <v>3191</v>
+        <v>3948</v>
       </c>
       <c r="D14" s="1">
         <v>0.55299997329711914</v>
@@ -12081,24 +14352,24 @@
         <v>0.9309999942779541</v>
       </c>
       <c r="G14" t="s">
-        <v>3208</v>
+        <v>3965</v>
       </c>
       <c r="H14" t="s">
-        <v>3222</v>
+        <v>3979</v>
       </c>
       <c r="I14" t="s">
-        <v>3249</v>
+        <v>4006</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>3128</v>
+        <v>3885</v>
       </c>
       <c r="B15" t="s">
-        <v>3157</v>
+        <v>3914</v>
       </c>
       <c r="C15" t="s">
-        <v>3191</v>
+        <v>3948</v>
       </c>
       <c r="D15" s="1">
         <v>0.76599997282028198</v>
@@ -12110,24 +14381,24 @@
         <v>3.9639999866485596</v>
       </c>
       <c r="G15" t="s">
-        <v>3208</v>
+        <v>3965</v>
       </c>
       <c r="H15" t="s">
-        <v>3222</v>
+        <v>3979</v>
       </c>
       <c r="I15" t="s">
-        <v>3250</v>
+        <v>4007</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>3128</v>
+        <v>3885</v>
       </c>
       <c r="B16" t="s">
-        <v>3158</v>
+        <v>3915</v>
       </c>
       <c r="C16" t="s">
-        <v>3192</v>
+        <v>3949</v>
       </c>
       <c r="D16" s="1">
         <v>0.39800000190734863</v>
@@ -12139,24 +14410,24 @@
         <v>0.71899998188018799</v>
       </c>
       <c r="G16" t="s">
-        <v>3208</v>
+        <v>3965</v>
       </c>
       <c r="H16" t="s">
-        <v>3223</v>
+        <v>3980</v>
       </c>
       <c r="I16" t="s">
-        <v>3251</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>3128</v>
+        <v>3885</v>
       </c>
       <c r="B17" t="s">
-        <v>3159</v>
+        <v>3916</v>
       </c>
       <c r="C17" t="s">
-        <v>3192</v>
+        <v>3949</v>
       </c>
       <c r="D17" s="1">
         <v>0.49799999594688416</v>
@@ -12168,24 +14439,24 @@
         <v>2.4030001163482666</v>
       </c>
       <c r="G17" t="s">
-        <v>3208</v>
+        <v>3965</v>
       </c>
       <c r="H17" t="s">
-        <v>3223</v>
+        <v>3980</v>
       </c>
       <c r="I17" t="s">
-        <v>3252</v>
+        <v>4009</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>3129</v>
+        <v>3886</v>
       </c>
       <c r="B18" t="s">
-        <v>3160</v>
+        <v>3917</v>
       </c>
       <c r="C18" t="s">
-        <v>3193</v>
+        <v>3950</v>
       </c>
       <c r="D18" s="1">
         <v>0.87000000476837158</v>
@@ -12197,24 +14468,24 @@
         <v>1.2899999618530273</v>
       </c>
       <c r="G18" t="s">
-        <v>3209</v>
+        <v>3966</v>
       </c>
       <c r="H18" t="s">
-        <v>3224</v>
+        <v>3981</v>
       </c>
       <c r="I18" t="s">
-        <v>3253</v>
+        <v>4010</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>3129</v>
+        <v>3886</v>
       </c>
       <c r="B19" t="s">
-        <v>3161</v>
+        <v>3918</v>
       </c>
       <c r="C19" t="s">
-        <v>3193</v>
+        <v>3950</v>
       </c>
       <c r="D19" s="1">
         <v>0.38999998569488525</v>
@@ -12226,24 +14497,24 @@
         <v>0.80000001192092896</v>
       </c>
       <c r="G19" t="s">
-        <v>3209</v>
+        <v>3966</v>
       </c>
       <c r="H19" t="s">
-        <v>3224</v>
+        <v>3981</v>
       </c>
       <c r="I19" t="s">
-        <v>3254</v>
+        <v>4011</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>3130</v>
+        <v>3887</v>
       </c>
       <c r="B20" t="s">
-        <v>3162</v>
+        <v>3919</v>
       </c>
       <c r="C20" t="s">
-        <v>3193</v>
+        <v>3950</v>
       </c>
       <c r="D20" s="1">
         <v>0.61000001430511475</v>
@@ -12255,24 +14526,24 @@
         <v>1.1699999570846558</v>
       </c>
       <c r="G20" t="s">
-        <v>3209</v>
+        <v>3966</v>
       </c>
       <c r="H20" t="s">
-        <v>3225</v>
+        <v>3982</v>
       </c>
       <c r="I20" t="s">
-        <v>3255</v>
+        <v>4012</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>3130</v>
+        <v>3887</v>
       </c>
       <c r="B21" t="s">
-        <v>3163</v>
+        <v>3920</v>
       </c>
       <c r="C21" t="s">
-        <v>3193</v>
+        <v>3950</v>
       </c>
       <c r="D21" s="1">
         <v>0.75</v>
@@ -12284,24 +14555,24 @@
         <v>1.3600000143051147</v>
       </c>
       <c r="G21" t="s">
-        <v>3209</v>
+        <v>3966</v>
       </c>
       <c r="H21" t="s">
-        <v>3225</v>
+        <v>3982</v>
       </c>
       <c r="I21" t="s">
-        <v>3256</v>
+        <v>4013</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>3130</v>
+        <v>3887</v>
       </c>
       <c r="B22" t="s">
-        <v>3164</v>
+        <v>3921</v>
       </c>
       <c r="C22" t="s">
-        <v>3194</v>
+        <v>3951</v>
       </c>
       <c r="D22" s="1">
         <v>5.9000000953674316</v>
@@ -12313,24 +14584,24 @@
         <v>46.099998474121094</v>
       </c>
       <c r="G22" t="s">
-        <v>3209</v>
+        <v>3966</v>
       </c>
       <c r="H22" t="s">
-        <v>3226</v>
+        <v>3983</v>
       </c>
       <c r="I22" t="s">
-        <v>3257</v>
+        <v>4014</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>3130</v>
+        <v>3887</v>
       </c>
       <c r="B23" t="s">
-        <v>3165</v>
+        <v>3922</v>
       </c>
       <c r="C23" t="s">
-        <v>3194</v>
+        <v>3951</v>
       </c>
       <c r="D23" s="1">
         <v>1.8200000524520874</v>
@@ -12342,24 +14613,24 @@
         <v>5.1399998664855957</v>
       </c>
       <c r="G23" t="s">
-        <v>3209</v>
+        <v>3966</v>
       </c>
       <c r="H23" t="s">
-        <v>3226</v>
+        <v>3983</v>
       </c>
       <c r="I23" t="s">
-        <v>3258</v>
+        <v>4015</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>3131</v>
+        <v>3888</v>
       </c>
       <c r="B24" t="s">
-        <v>3166</v>
+        <v>3923</v>
       </c>
       <c r="C24" t="s">
-        <v>3195</v>
+        <v>3952</v>
       </c>
       <c r="D24" s="1">
         <v>0.5899999737739563</v>
@@ -12371,24 +14642,24 @@
         <v>1.3999999761581421</v>
       </c>
       <c r="G24" t="s">
-        <v>3209</v>
+        <v>3966</v>
       </c>
       <c r="H24" t="s">
-        <v>3227</v>
+        <v>3984</v>
       </c>
       <c r="I24" t="s">
-        <v>3259</v>
+        <v>4016</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>3131</v>
+        <v>3888</v>
       </c>
       <c r="B25" t="s">
-        <v>3167</v>
+        <v>3924</v>
       </c>
       <c r="C25" t="s">
-        <v>3195</v>
+        <v>3952</v>
       </c>
       <c r="D25" s="1">
         <v>0.69999998807907104</v>
@@ -12400,24 +14671,24 @@
         <v>0.87000000476837158</v>
       </c>
       <c r="G25" t="s">
-        <v>3209</v>
+        <v>3966</v>
       </c>
       <c r="H25" t="s">
-        <v>3227</v>
+        <v>3984</v>
       </c>
       <c r="I25" t="s">
-        <v>3260</v>
+        <v>4017</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>3132</v>
+        <v>3889</v>
       </c>
       <c r="B26" t="s">
-        <v>3168</v>
+        <v>3925</v>
       </c>
       <c r="C26" t="s">
-        <v>3195</v>
+        <v>3952</v>
       </c>
       <c r="D26" s="1">
         <v>0.38999998569488525</v>
@@ -12429,24 +14700,24 @@
         <v>0.68999999761581421</v>
       </c>
       <c r="G26" t="s">
-        <v>3209</v>
+        <v>3966</v>
       </c>
       <c r="H26" t="s">
-        <v>3228</v>
+        <v>3985</v>
       </c>
       <c r="I26" t="s">
-        <v>3261</v>
+        <v>4018</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>3132</v>
+        <v>3889</v>
       </c>
       <c r="B27" t="s">
-        <v>3169</v>
+        <v>3926</v>
       </c>
       <c r="C27" t="s">
-        <v>3195</v>
+        <v>3952</v>
       </c>
       <c r="D27" s="1">
         <v>0.15999999642372131</v>
@@ -12458,24 +14729,24 @@
         <v>0.40000000596046448</v>
       </c>
       <c r="G27" t="s">
-        <v>3209</v>
+        <v>3966</v>
       </c>
       <c r="H27" t="s">
-        <v>3228</v>
+        <v>3985</v>
       </c>
       <c r="I27" t="s">
-        <v>3262</v>
+        <v>4019</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>3133</v>
+        <v>3890</v>
       </c>
       <c r="B28" t="s">
-        <v>3170</v>
+        <v>3927</v>
       </c>
       <c r="C28" t="s">
-        <v>3195</v>
+        <v>3952</v>
       </c>
       <c r="D28" s="1">
         <v>0.46000000834465027</v>
@@ -12487,24 +14758,24 @@
         <v>0.6600000262260437</v>
       </c>
       <c r="G28" t="s">
-        <v>3209</v>
+        <v>3966</v>
       </c>
       <c r="H28" t="s">
-        <v>3228</v>
+        <v>3985</v>
       </c>
       <c r="I28" t="s">
-        <v>3263</v>
+        <v>4020</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>3133</v>
+        <v>3890</v>
       </c>
       <c r="B29" t="s">
-        <v>3171</v>
+        <v>3928</v>
       </c>
       <c r="C29" t="s">
-        <v>3195</v>
+        <v>3952</v>
       </c>
       <c r="D29" s="1">
         <v>0.30000001192092896</v>
@@ -12516,24 +14787,24 @@
         <v>0.44999998807907104</v>
       </c>
       <c r="G29" t="s">
-        <v>3209</v>
+        <v>3966</v>
       </c>
       <c r="H29" t="s">
-        <v>3228</v>
+        <v>3985</v>
       </c>
       <c r="I29" t="s">
-        <v>3264</v>
+        <v>4021</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>3134</v>
+        <v>3891</v>
       </c>
       <c r="B30" t="s">
-        <v>3172</v>
+        <v>3929</v>
       </c>
       <c r="C30" t="s">
-        <v>3195</v>
+        <v>3952</v>
       </c>
       <c r="D30" s="1">
         <v>0.5</v>
@@ -12545,24 +14816,24 @@
         <v>1.059999942779541</v>
       </c>
       <c r="G30" t="s">
-        <v>3209</v>
+        <v>3966</v>
       </c>
       <c r="H30" t="s">
-        <v>3229</v>
+        <v>3986</v>
       </c>
       <c r="I30" t="s">
-        <v>3265</v>
+        <v>4022</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>3134</v>
+        <v>3891</v>
       </c>
       <c r="B31" t="s">
-        <v>3173</v>
+        <v>3930</v>
       </c>
       <c r="C31" t="s">
-        <v>3195</v>
+        <v>3952</v>
       </c>
       <c r="D31" s="1">
         <v>0.47999998927116394</v>
@@ -12574,24 +14845,24 @@
         <v>0.76999998092651367</v>
       </c>
       <c r="G31" t="s">
-        <v>3209</v>
+        <v>3966</v>
       </c>
       <c r="H31" t="s">
-        <v>3229</v>
+        <v>3986</v>
       </c>
       <c r="I31" t="s">
-        <v>3266</v>
+        <v>4023</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>3135</v>
+        <v>3892</v>
       </c>
       <c r="B32" t="s">
-        <v>3174</v>
+        <v>3931</v>
       </c>
       <c r="C32" t="s">
-        <v>3195</v>
+        <v>3952</v>
       </c>
       <c r="D32" s="1">
         <v>1.6200000047683716</v>
@@ -12603,24 +14874,24 @@
         <v>2.4100000858306885</v>
       </c>
       <c r="G32" t="s">
-        <v>3209</v>
+        <v>3966</v>
       </c>
       <c r="H32" t="s">
-        <v>3229</v>
+        <v>3986</v>
       </c>
       <c r="I32" t="s">
-        <v>3267</v>
+        <v>4024</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>3135</v>
+        <v>3892</v>
       </c>
       <c r="B33" t="s">
-        <v>3175</v>
+        <v>3932</v>
       </c>
       <c r="C33" t="s">
-        <v>3195</v>
+        <v>3952</v>
       </c>
       <c r="D33" s="1">
         <v>2.0099999904632568</v>
@@ -12632,24 +14903,24 @@
         <v>2.8399999141693115</v>
       </c>
       <c r="G33" t="s">
-        <v>3209</v>
+        <v>3966</v>
       </c>
       <c r="H33" t="s">
-        <v>3229</v>
+        <v>3986</v>
       </c>
       <c r="I33" t="s">
-        <v>3268</v>
+        <v>4025</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>3136</v>
+        <v>3893</v>
       </c>
       <c r="B34" t="s">
-        <v>3176</v>
+        <v>3933</v>
       </c>
       <c r="C34" t="s">
-        <v>3196</v>
+        <v>3953</v>
       </c>
       <c r="D34" s="1">
         <v>0.95999997854232788</v>
@@ -12661,24 +14932,24 @@
         <v>1.2560000419616699</v>
       </c>
       <c r="G34" t="s">
-        <v>3210</v>
+        <v>3967</v>
       </c>
       <c r="H34" t="s">
-        <v>3230</v>
+        <v>3987</v>
       </c>
       <c r="I34" t="s">
-        <v>3269</v>
+        <v>4026</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>3136</v>
+        <v>3893</v>
       </c>
       <c r="B35" t="s">
-        <v>3177</v>
+        <v>3934</v>
       </c>
       <c r="C35" t="s">
-        <v>3196</v>
+        <v>3953</v>
       </c>
       <c r="D35" s="1">
         <v>1.0800000429153442</v>
@@ -12690,24 +14961,24 @@
         <v>1.3609999418258667</v>
       </c>
       <c r="G35" t="s">
-        <v>3210</v>
+        <v>3967</v>
       </c>
       <c r="H35" t="s">
-        <v>3230</v>
+        <v>3987</v>
       </c>
       <c r="I35" t="s">
-        <v>3270</v>
+        <v>4027</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>3137</v>
+        <v>3894</v>
       </c>
       <c r="B36" t="s">
-        <v>3178</v>
+        <v>3935</v>
       </c>
       <c r="C36" t="s">
-        <v>3196</v>
+        <v>3953</v>
       </c>
       <c r="D36" s="1">
         <v>0.87699997425079346</v>
@@ -12719,24 +14990,24 @@
         <v>1.156000018119812</v>
       </c>
       <c r="G36" t="s">
-        <v>3211</v>
+        <v>3968</v>
       </c>
       <c r="H36" t="s">
-        <v>3231</v>
+        <v>3988</v>
       </c>
       <c r="I36" t="s">
-        <v>3271</v>
+        <v>4028</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>3137</v>
+        <v>3894</v>
       </c>
       <c r="B37" t="s">
-        <v>3179</v>
+        <v>3936</v>
       </c>
       <c r="C37" t="s">
-        <v>3196</v>
+        <v>3953</v>
       </c>
       <c r="D37" s="1">
         <v>0.68400001525878906</v>
@@ -12748,24 +15019,24 @@
         <v>0.875</v>
       </c>
       <c r="G37" t="s">
-        <v>3211</v>
+        <v>3968</v>
       </c>
       <c r="H37" t="s">
-        <v>3231</v>
+        <v>3988</v>
       </c>
       <c r="I37" t="s">
-        <v>3272</v>
+        <v>4029</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>3137</v>
+        <v>3894</v>
       </c>
       <c r="B38" t="s">
-        <v>3180</v>
+        <v>3937</v>
       </c>
       <c r="C38" t="s">
-        <v>3196</v>
+        <v>3953</v>
       </c>
       <c r="D38" s="1">
         <v>0.85699999332427979</v>
@@ -12777,24 +15048,24 @@
         <v>1.1779999732971191</v>
       </c>
       <c r="G38" t="s">
-        <v>3211</v>
+        <v>3968</v>
       </c>
       <c r="H38" t="s">
-        <v>3231</v>
+        <v>3988</v>
       </c>
       <c r="I38" t="s">
-        <v>3273</v>
+        <v>4030</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>3138</v>
+        <v>3895</v>
       </c>
       <c r="B39" t="s">
-        <v>3180</v>
+        <v>3937</v>
       </c>
       <c r="C39" t="s">
-        <v>3197</v>
+        <v>3954</v>
       </c>
       <c r="D39" s="1">
         <v>0.64999997615814209</v>
@@ -12806,24 +15077,24 @@
         <v>0.8399999737739563</v>
       </c>
       <c r="G39" t="s">
-        <v>3212</v>
+        <v>3969</v>
       </c>
       <c r="H39" t="s">
-        <v>3231</v>
+        <v>3988</v>
       </c>
       <c r="I39" t="s">
-        <v>3274</v>
+        <v>4031</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>3138</v>
+        <v>3895</v>
       </c>
       <c r="B40" t="s">
-        <v>3181</v>
+        <v>3938</v>
       </c>
       <c r="C40" t="s">
-        <v>3197</v>
+        <v>3954</v>
       </c>
       <c r="D40" s="1">
         <v>0.47999998927116394</v>
@@ -12835,24 +15106,24 @@
         <v>0.75</v>
       </c>
       <c r="G40" t="s">
-        <v>3212</v>
+        <v>3969</v>
       </c>
       <c r="H40" t="s">
-        <v>3231</v>
+        <v>3988</v>
       </c>
       <c r="I40" t="s">
-        <v>3275</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>3139</v>
+        <v>3896</v>
       </c>
       <c r="B41" t="s">
-        <v>3182</v>
+        <v>3939</v>
       </c>
       <c r="C41" t="s">
-        <v>3198</v>
+        <v>3955</v>
       </c>
       <c r="D41" s="1">
         <v>0.78100001811981201</v>
@@ -12864,24 +15135,24 @@
         <v>1.3220000267028809</v>
       </c>
       <c r="G41" t="s">
-        <v>3213</v>
+        <v>3970</v>
       </c>
       <c r="H41" t="s">
-        <v>3232</v>
+        <v>3989</v>
       </c>
       <c r="I41" t="s">
-        <v>3276</v>
+        <v>4033</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>3139</v>
+        <v>3896</v>
       </c>
       <c r="B42" t="s">
-        <v>3183</v>
+        <v>3940</v>
       </c>
       <c r="C42" t="s">
-        <v>3198</v>
+        <v>3955</v>
       </c>
       <c r="D42" s="1">
         <v>0.97500002384185791</v>
@@ -12893,24 +15164,24 @@
         <v>1.1829999685287476</v>
       </c>
       <c r="G42" t="s">
-        <v>3213</v>
+        <v>3970</v>
       </c>
       <c r="H42" t="s">
-        <v>3232</v>
+        <v>3989</v>
       </c>
       <c r="I42" t="s">
-        <v>3277</v>
+        <v>4034</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>3140</v>
+        <v>3897</v>
       </c>
       <c r="B43" t="s">
-        <v>3184</v>
+        <v>3941</v>
       </c>
       <c r="C43" t="s">
-        <v>3198</v>
+        <v>3955</v>
       </c>
       <c r="D43" s="1">
         <v>0.93000000715255737</v>
@@ -12922,24 +15193,24 @@
         <v>1.309999942779541</v>
       </c>
       <c r="G43" t="s">
-        <v>3214</v>
+        <v>3971</v>
       </c>
       <c r="H43" t="s">
-        <v>3233</v>
+        <v>3990</v>
       </c>
       <c r="I43" t="s">
-        <v>3278</v>
+        <v>4035</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>3140</v>
+        <v>3897</v>
       </c>
       <c r="B44" t="s">
-        <v>3185</v>
+        <v>3942</v>
       </c>
       <c r="C44" t="s">
-        <v>3198</v>
+        <v>3955</v>
       </c>
       <c r="D44" s="1">
         <v>0.93999999761581421</v>
@@ -12951,24 +15222,24 @@
         <v>1.190000057220459</v>
       </c>
       <c r="G44" t="s">
-        <v>3214</v>
+        <v>3971</v>
       </c>
       <c r="H44" t="s">
-        <v>3233</v>
+        <v>3990</v>
       </c>
       <c r="I44" t="s">
-        <v>3279</v>
+        <v>4036</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>3141</v>
+        <v>3898</v>
       </c>
       <c r="B45" t="s">
-        <v>3186</v>
+        <v>3943</v>
       </c>
       <c r="C45" t="s">
-        <v>3199</v>
+        <v>3956</v>
       </c>
       <c r="D45" s="1">
         <v>0.63999998569488525</v>
@@ -12980,24 +15251,24 @@
         <v>0.9100000262260437</v>
       </c>
       <c r="G45" t="s">
-        <v>3214</v>
+        <v>3971</v>
       </c>
       <c r="H45" t="s">
-        <v>3234</v>
+        <v>3991</v>
       </c>
       <c r="I45" t="s">
-        <v>3280</v>
+        <v>4037</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>3141</v>
+        <v>3898</v>
       </c>
       <c r="B46" t="s">
-        <v>3187</v>
+        <v>3944</v>
       </c>
       <c r="C46" t="s">
-        <v>3199</v>
+        <v>3956</v>
       </c>
       <c r="D46" s="1">
         <v>0.72000002861022949</v>
@@ -13009,24 +15280,24 @@
         <v>0.89999997615814209</v>
       </c>
       <c r="G46" t="s">
-        <v>3214</v>
+        <v>3971</v>
       </c>
       <c r="H46" t="s">
-        <v>3234</v>
+        <v>3991</v>
       </c>
       <c r="I46" t="s">
-        <v>3281</v>
+        <v>4038</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>3142</v>
+        <v>3899</v>
       </c>
       <c r="B47" t="s">
-        <v>3188</v>
+        <v>3945</v>
       </c>
       <c r="C47" t="s">
-        <v>3199</v>
+        <v>3956</v>
       </c>
       <c r="D47" s="1">
         <v>0.46000000834465027</v>
@@ -13038,24 +15309,24 @@
         <v>0.73000001907348633</v>
       </c>
       <c r="G47" t="s">
-        <v>3214</v>
+        <v>3971</v>
       </c>
       <c r="H47" t="s">
-        <v>3235</v>
+        <v>3992</v>
       </c>
       <c r="I47" t="s">
-        <v>3282</v>
+        <v>4039</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>3142</v>
+        <v>3899</v>
       </c>
       <c r="B48" t="s">
-        <v>3189</v>
+        <v>3946</v>
       </c>
       <c r="C48" t="s">
-        <v>3199</v>
+        <v>3956</v>
       </c>
       <c r="D48" s="1">
         <v>0.62999999523162842</v>
@@ -13067,13 +15338,13 @@
         <v>0.89999997615814209</v>
       </c>
       <c r="G48" t="s">
-        <v>3214</v>
+        <v>3971</v>
       </c>
       <c r="H48" t="s">
-        <v>3235</v>
+        <v>3992</v>
       </c>
       <c r="I48" t="s">
-        <v>3283</v>
+        <v>4040</v>
       </c>
     </row>
   </sheetData>

--- a/products/Exported Data.xlsx
+++ b/products/Exported Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14994" uniqueCount="8755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15614" uniqueCount="9115">
   <si>
     <t>Study</t>
   </si>
@@ -19313,6 +19313,1086 @@
   </si>
   <si>
     <t>Study</t>
+  </si>
+  <si>
+    <t>Attal 2019 (ICARIA-MM): IsPd vs Pd</t>
+  </si>
+  <si>
+    <t>Bahlis 2020 (POLLUX): DRd vs Rd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2013 (VANTAGE 088): VorV vs V</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2016 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-3): EPd vs Pd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2021 (APOLLO): DPd vs Pd</t>
+  </si>
+  <si>
+    <t>Hou 2017 (China Cont.): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>Jakubowiak 2016 (NCT01478048): EVd vs Vd</t>
+  </si>
+  <si>
+    <t>Kumar 2020 (BELLINI): VeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Lonial 2015 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Lu 2021 (LEPUS): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Mateos 2020 (CASTOR): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Moreau 2021 (IKEMA): IsKd vs Kd</t>
+  </si>
+  <si>
+    <t>Orlowski 2007 (NCT00103506): V vs DoxV</t>
+  </si>
+  <si>
+    <t>Orlowski 2016 (NCT00103506): V vs DoxV</t>
+  </si>
+  <si>
+    <t>Orlowski 2019 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2019 (OPTIMISMM): PVd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2021 (TOURMALINE-MM1): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2016 (PANORAMA 1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>Stewart 2015 (ASPIRE): KRd vs Rd</t>
+  </si>
+  <si>
+    <t>Usmani 2022 (CANDOR): DKd vs Kd</t>
+  </si>
+  <si>
+    <t>refract</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Ref. to R and a PI</t>
+  </si>
+  <si>
+    <t>Not ref. to R and a PI</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous R or T use</t>
+  </si>
+  <si>
+    <t>No previous R or T use</t>
+  </si>
+  <si>
+    <t>Previous R or T use</t>
+  </si>
+  <si>
+    <t>No previous R or T use</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Refractory to T</t>
+  </si>
+  <si>
+    <t>Not refractory to T</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No previous IMiD use</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Lower 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>Upper 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0230</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .       Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t>Data Extraction Errors</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Study: Treatment 1 vs Treatment 2</t>
+  </si>
+  <si>
+    <t>Attal 2019 (ICARIA-MM): IsPd vs Pd</t>
+  </si>
+  <si>
+    <t>Bahlis 2020 (POLLUX): DRd vs Rd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2013 (VANTAGE 088): VorV vs V</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2016 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-3): EPd vs Pd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2020 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2021 (APOLLO): DPd vs Pd</t>
+  </si>
+  <si>
+    <t>Grosicki 2020 (BOSTON): SeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Hou 2017 (China Cont.): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>Jakubowiak 2016 (NCT01478048): EVd vs Vd</t>
+  </si>
+  <si>
+    <t>Kumar 2020 (BELLINI): VeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Lu 2021 (LEPUS): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Mateos 2020 (CASTOR): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Moreau 2021 (IKEMA): IsKd vs Kd</t>
+  </si>
+  <si>
+    <t>Orlowski 2019 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2019 (OPTIMISMM): PVd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2021 (TOURMALINE-MM1): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2014 (PANORAMA-1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2016 (PANORAMA 1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2013 (MM-003): Pd vs GC</t>
+  </si>
+  <si>
+    <t>Siegel 2018 (ASPIRE): KRd vs Rd</t>
+  </si>
+  <si>
+    <t>Usamani 2022 (CANDOR): DKd vs Kd</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;=3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;=2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Lower 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>Upper 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t>Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      AT 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t>Data Extraction Errors</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Study: Treatment 1 vs Treatment 2</t>
   </si>
   <si>
     <t>Attal 2019 (ICARIA-MM): IsPd vs Pd</t>
@@ -26329,42 +27409,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>8395</v>
+        <v>8755</v>
       </c>
       <c r="B1" t="s">
-        <v>8419</v>
+        <v>8779</v>
       </c>
       <c r="C1" t="s">
-        <v>8483</v>
+        <v>8843</v>
       </c>
       <c r="D1" t="s">
-        <v>8499</v>
+        <v>8859</v>
       </c>
       <c r="E1" t="s">
-        <v>8500</v>
+        <v>8860</v>
       </c>
       <c r="F1" t="s">
-        <v>8501</v>
+        <v>8861</v>
       </c>
       <c r="G1" t="s">
-        <v>8502</v>
+        <v>8862</v>
       </c>
       <c r="H1" t="s">
-        <v>8503</v>
+        <v>8863</v>
       </c>
       <c r="I1" t="s">
-        <v>8527</v>
+        <v>8887</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>8396</v>
+        <v>8756</v>
       </c>
       <c r="B2" t="s">
-        <v>8420</v>
+        <v>8780</v>
       </c>
       <c r="C2" t="s">
-        <v>8484</v>
+        <v>8844</v>
       </c>
       <c r="D2" s="1">
         <v>0.5899999737739563</v>
@@ -26377,21 +27457,21 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" t="s">
-        <v>8504</v>
+        <v>8864</v>
       </c>
       <c r="I2" t="s">
-        <v>8528</v>
+        <v>8888</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>8396</v>
+        <v>8756</v>
       </c>
       <c r="B3" t="s">
-        <v>8421</v>
+        <v>8781</v>
       </c>
       <c r="C3" t="s">
-        <v>8484</v>
+        <v>8844</v>
       </c>
       <c r="D3" s="1">
         <v>0.5899999737739563</v>
@@ -26404,21 +27484,21 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" t="s">
-        <v>8504</v>
+        <v>8864</v>
       </c>
       <c r="I3" t="s">
-        <v>8529</v>
+        <v>8889</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8397</v>
+        <v>8757</v>
       </c>
       <c r="B4" t="s">
-        <v>8422</v>
+        <v>8782</v>
       </c>
       <c r="C4" t="s">
-        <v>8484</v>
+        <v>8844</v>
       </c>
       <c r="D4" s="1">
         <v>0.41999998688697815</v>
@@ -26431,21 +27511,21 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" t="s">
-        <v>8505</v>
+        <v>8865</v>
       </c>
       <c r="I4" t="s">
-        <v>8530</v>
+        <v>8890</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8397</v>
+        <v>8757</v>
       </c>
       <c r="B5" t="s">
-        <v>8423</v>
+        <v>8783</v>
       </c>
       <c r="C5" t="s">
-        <v>8484</v>
+        <v>8844</v>
       </c>
       <c r="D5" s="1">
         <v>0.38999998569488525</v>
@@ -26458,21 +27538,21 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" t="s">
-        <v>8505</v>
+        <v>8865</v>
       </c>
       <c r="I5" t="s">
-        <v>8531</v>
+        <v>8891</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8397</v>
+        <v>8757</v>
       </c>
       <c r="B6" t="s">
-        <v>8424</v>
+        <v>8784</v>
       </c>
       <c r="C6" t="s">
-        <v>8484</v>
+        <v>8844</v>
       </c>
       <c r="D6" s="1">
         <v>0.47999998927116394</v>
@@ -26485,21 +27565,21 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" t="s">
-        <v>8505</v>
+        <v>8865</v>
       </c>
       <c r="I6" t="s">
-        <v>8532</v>
+        <v>8892</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>8397</v>
+        <v>8757</v>
       </c>
       <c r="B7" t="s">
-        <v>8425</v>
+        <v>8785</v>
       </c>
       <c r="C7" t="s">
-        <v>8484</v>
+        <v>8844</v>
       </c>
       <c r="D7" s="1">
         <v>0.74000000953674316</v>
@@ -26512,21 +27592,21 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" t="s">
-        <v>8505</v>
+        <v>8865</v>
       </c>
       <c r="I7" t="s">
-        <v>8533</v>
+        <v>8893</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8398</v>
+        <v>8758</v>
       </c>
       <c r="B8" t="s">
-        <v>8426</v>
+        <v>8786</v>
       </c>
       <c r="C8" t="s">
-        <v>8484</v>
+        <v>8844</v>
       </c>
       <c r="D8" s="1">
         <v>0.68699997663497925</v>
@@ -26541,21 +27621,21 @@
         <v>0.015200000256299973</v>
       </c>
       <c r="H8" t="s">
-        <v>8506</v>
+        <v>8866</v>
       </c>
       <c r="I8" t="s">
-        <v>8534</v>
+        <v>8894</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8398</v>
+        <v>8758</v>
       </c>
       <c r="B9" t="s">
-        <v>8427</v>
+        <v>8787</v>
       </c>
       <c r="C9" t="s">
-        <v>8484</v>
+        <v>8844</v>
       </c>
       <c r="D9" s="1">
         <v>0.91600000858306885</v>
@@ -26570,21 +27650,21 @@
         <v>0.48710000514984131</v>
       </c>
       <c r="H9" t="s">
-        <v>8507</v>
+        <v>8867</v>
       </c>
       <c r="I9" t="s">
-        <v>8535</v>
+        <v>8895</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>8399</v>
+        <v>8759</v>
       </c>
       <c r="B10" t="s">
-        <v>8428</v>
+        <v>8788</v>
       </c>
       <c r="C10" t="s">
-        <v>8484</v>
+        <v>8844</v>
       </c>
       <c r="D10" s="1">
         <v>0.44999998807907104</v>
@@ -26597,21 +27677,21 @@
       </c>
       <c r="G10" s="1"/>
       <c r="H10" t="s">
-        <v>8508</v>
+        <v>8868</v>
       </c>
       <c r="I10" t="s">
-        <v>8536</v>
+        <v>8896</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>8399</v>
+        <v>8759</v>
       </c>
       <c r="B11" t="s">
-        <v>8429</v>
+        <v>8789</v>
       </c>
       <c r="C11" t="s">
-        <v>8484</v>
+        <v>8844</v>
       </c>
       <c r="D11" s="1">
         <v>0.60000002384185791</v>
@@ -26624,21 +27704,21 @@
       </c>
       <c r="G11" s="1"/>
       <c r="H11" t="s">
-        <v>8508</v>
+        <v>8868</v>
       </c>
       <c r="I11" t="s">
-        <v>8537</v>
+        <v>8897</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>8400</v>
+        <v>8760</v>
       </c>
       <c r="B12" t="s">
-        <v>8429</v>
+        <v>8789</v>
       </c>
       <c r="C12" t="s">
-        <v>8484</v>
+        <v>8844</v>
       </c>
       <c r="D12" s="1">
         <v>0.55000001192092896</v>
@@ -26651,21 +27731,21 @@
       </c>
       <c r="G12" s="1"/>
       <c r="H12" t="s">
-        <v>8509</v>
+        <v>8869</v>
       </c>
       <c r="I12" t="s">
-        <v>8538</v>
+        <v>8898</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>8400</v>
+        <v>8760</v>
       </c>
       <c r="B13" t="s">
-        <v>8430</v>
+        <v>8790</v>
       </c>
       <c r="C13" t="s">
-        <v>8484</v>
+        <v>8844</v>
       </c>
       <c r="D13" s="1">
         <v>0.50999999046325684</v>
@@ -26678,21 +27758,21 @@
       </c>
       <c r="G13" s="1"/>
       <c r="H13" t="s">
-        <v>8509</v>
+        <v>8869</v>
       </c>
       <c r="I13" t="s">
-        <v>8539</v>
+        <v>8899</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>8401</v>
+        <v>8761</v>
       </c>
       <c r="B14" t="s">
-        <v>8431</v>
+        <v>8791</v>
       </c>
       <c r="C14" t="s">
-        <v>8484</v>
+        <v>8844</v>
       </c>
       <c r="D14" s="1">
         <v>0.76999998092651367</v>
@@ -26705,21 +27785,21 @@
       </c>
       <c r="G14" s="1"/>
       <c r="H14" t="s">
-        <v>8510</v>
+        <v>8870</v>
       </c>
       <c r="I14" t="s">
-        <v>8540</v>
+        <v>8900</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>8401</v>
+        <v>8761</v>
       </c>
       <c r="B15" t="s">
-        <v>8432</v>
+        <v>8792</v>
       </c>
       <c r="C15" t="s">
-        <v>8484</v>
+        <v>8844</v>
       </c>
       <c r="D15" s="1">
         <v>0.68000000715255737</v>
@@ -26732,21 +27812,21 @@
       </c>
       <c r="G15" s="1"/>
       <c r="H15" t="s">
-        <v>8510</v>
+        <v>8870</v>
       </c>
       <c r="I15" t="s">
-        <v>8541</v>
+        <v>8901</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>8402</v>
+        <v>8762</v>
       </c>
       <c r="B16" t="s">
-        <v>8433</v>
+        <v>8793</v>
       </c>
       <c r="C16" t="s">
-        <v>8485</v>
+        <v>8845</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -26759,21 +27839,21 @@
       </c>
       <c r="G16" s="1"/>
       <c r="H16" t="s">
-        <v>8510</v>
+        <v>8870</v>
       </c>
       <c r="I16" t="s">
-        <v>8542</v>
+        <v>8902</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>8402</v>
+        <v>8762</v>
       </c>
       <c r="B17" t="s">
-        <v>8434</v>
+        <v>8794</v>
       </c>
       <c r="C17" t="s">
-        <v>8485</v>
+        <v>8845</v>
       </c>
       <c r="D17" s="1">
         <v>0.70999997854232788</v>
@@ -26786,21 +27866,21 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" t="s">
-        <v>8510</v>
+        <v>8870</v>
       </c>
       <c r="I17" t="s">
-        <v>8543</v>
+        <v>8903</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>8403</v>
+        <v>8763</v>
       </c>
       <c r="B18" t="s">
-        <v>8435</v>
+        <v>8795</v>
       </c>
       <c r="C18" t="s">
-        <v>8486</v>
+        <v>8846</v>
       </c>
       <c r="D18" s="1">
         <v>0.69999998807907104</v>
@@ -26813,21 +27893,21 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18" t="s">
-        <v>8511</v>
+        <v>8871</v>
       </c>
       <c r="I18" t="s">
-        <v>8544</v>
+        <v>8904</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>8403</v>
+        <v>8763</v>
       </c>
       <c r="B19" t="s">
-        <v>8436</v>
+        <v>8796</v>
       </c>
       <c r="C19" t="s">
-        <v>8486</v>
+        <v>8846</v>
       </c>
       <c r="D19" s="1">
         <v>0.6600000262260437</v>
@@ -26840,21 +27920,21 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" t="s">
-        <v>8511</v>
+        <v>8871</v>
       </c>
       <c r="I19" t="s">
-        <v>8545</v>
+        <v>8905</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>8403</v>
+        <v>8763</v>
       </c>
       <c r="B20" t="s">
-        <v>8437</v>
+        <v>8797</v>
       </c>
       <c r="C20" t="s">
-        <v>8486</v>
+        <v>8846</v>
       </c>
       <c r="D20" s="1">
         <v>0.40000000596046448</v>
@@ -26867,21 +27947,21 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" t="s">
-        <v>8511</v>
+        <v>8871</v>
       </c>
       <c r="I20" t="s">
-        <v>8546</v>
+        <v>8906</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>8404</v>
+        <v>8764</v>
       </c>
       <c r="B21" t="s">
-        <v>8438</v>
+        <v>8798</v>
       </c>
       <c r="C21" t="s">
-        <v>8486</v>
+        <v>8846</v>
       </c>
       <c r="D21" s="1">
         <v>0.62999999523162842</v>
@@ -26894,21 +27974,21 @@
       </c>
       <c r="G21" s="1"/>
       <c r="H21" t="s">
-        <v>8512</v>
+        <v>8872</v>
       </c>
       <c r="I21" t="s">
-        <v>8547</v>
+        <v>8907</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>8404</v>
+        <v>8764</v>
       </c>
       <c r="B22" t="s">
-        <v>8439</v>
+        <v>8799</v>
       </c>
       <c r="C22" t="s">
-        <v>8486</v>
+        <v>8846</v>
       </c>
       <c r="D22" s="1">
         <v>0.64999997615814209</v>
@@ -26921,21 +28001,21 @@
       </c>
       <c r="G22" s="1"/>
       <c r="H22" t="s">
-        <v>8512</v>
+        <v>8872</v>
       </c>
       <c r="I22" t="s">
-        <v>8548</v>
+        <v>8908</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>8404</v>
+        <v>8764</v>
       </c>
       <c r="B23" t="s">
-        <v>8440</v>
+        <v>8800</v>
       </c>
       <c r="C23" t="s">
-        <v>8486</v>
+        <v>8846</v>
       </c>
       <c r="D23" s="1">
         <v>0.81999999284744263</v>
@@ -26948,21 +28028,21 @@
       </c>
       <c r="G23" s="1"/>
       <c r="H23" t="s">
-        <v>8512</v>
+        <v>8872</v>
       </c>
       <c r="I23" t="s">
-        <v>8549</v>
+        <v>8909</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>8405</v>
+        <v>8765</v>
       </c>
       <c r="B24" t="s">
-        <v>8441</v>
+        <v>8801</v>
       </c>
       <c r="C24" t="s">
-        <v>8486</v>
+        <v>8846</v>
       </c>
       <c r="D24" s="1">
         <v>0.84700000286102295</v>
@@ -26975,21 +28055,21 @@
       </c>
       <c r="G24" s="1"/>
       <c r="H24" t="s">
-        <v>8513</v>
+        <v>8873</v>
       </c>
       <c r="I24" t="s">
-        <v>8550</v>
+        <v>8910</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>8405</v>
+        <v>8765</v>
       </c>
       <c r="B25" t="s">
-        <v>8442</v>
+        <v>8802</v>
       </c>
       <c r="C25" t="s">
-        <v>8486</v>
+        <v>8846</v>
       </c>
       <c r="D25" s="1">
         <v>0.37000000476837158</v>
@@ -27002,21 +28082,21 @@
       </c>
       <c r="G25" s="1"/>
       <c r="H25" t="s">
-        <v>8513</v>
+        <v>8873</v>
       </c>
       <c r="I25" t="s">
-        <v>8551</v>
+        <v>8911</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>8405</v>
+        <v>8765</v>
       </c>
       <c r="B26" t="s">
-        <v>8443</v>
+        <v>8803</v>
       </c>
       <c r="C26" t="s">
-        <v>8486</v>
+        <v>8846</v>
       </c>
       <c r="D26" s="1">
         <v>0.70200002193450928</v>
@@ -27029,21 +28109,21 @@
       </c>
       <c r="G26" s="1"/>
       <c r="H26" t="s">
-        <v>8513</v>
+        <v>8873</v>
       </c>
       <c r="I26" t="s">
-        <v>8552</v>
+        <v>8912</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>8405</v>
+        <v>8765</v>
       </c>
       <c r="B27" t="s">
-        <v>8444</v>
+        <v>8804</v>
       </c>
       <c r="C27" t="s">
-        <v>8487</v>
+        <v>8847</v>
       </c>
       <c r="D27" s="1">
         <v>0.52100002765655518</v>
@@ -27056,21 +28136,21 @@
       </c>
       <c r="G27" s="1"/>
       <c r="H27" t="s">
-        <v>8514</v>
+        <v>8874</v>
       </c>
       <c r="I27" t="s">
-        <v>8553</v>
+        <v>8913</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>8405</v>
+        <v>8765</v>
       </c>
       <c r="B28" t="s">
-        <v>8445</v>
+        <v>8805</v>
       </c>
       <c r="C28" t="s">
-        <v>8487</v>
+        <v>8847</v>
       </c>
       <c r="D28" s="1">
         <v>0.38600000739097595</v>
@@ -27083,21 +28163,21 @@
       </c>
       <c r="G28" s="1"/>
       <c r="H28" t="s">
-        <v>8514</v>
+        <v>8874</v>
       </c>
       <c r="I28" t="s">
-        <v>8554</v>
+        <v>8914</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>8405</v>
+        <v>8765</v>
       </c>
       <c r="B29" t="s">
-        <v>8446</v>
+        <v>8806</v>
       </c>
       <c r="C29" t="s">
-        <v>8487</v>
+        <v>8847</v>
       </c>
       <c r="D29" s="1">
         <v>0.335999995470047</v>
@@ -27110,21 +28190,21 @@
       </c>
       <c r="G29" s="1"/>
       <c r="H29" t="s">
-        <v>8514</v>
+        <v>8874</v>
       </c>
       <c r="I29" t="s">
-        <v>8555</v>
+        <v>8915</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>8406</v>
+        <v>8766</v>
       </c>
       <c r="B30" t="s">
-        <v>8447</v>
+        <v>8807</v>
       </c>
       <c r="C30" t="s">
-        <v>8488</v>
+        <v>8848</v>
       </c>
       <c r="D30" s="1">
         <v>0.74000000953674316</v>
@@ -27137,21 +28217,21 @@
       </c>
       <c r="G30" s="1"/>
       <c r="H30" t="s">
-        <v>8515</v>
+        <v>8875</v>
       </c>
       <c r="I30" t="s">
-        <v>8556</v>
+        <v>8916</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>8406</v>
+        <v>8766</v>
       </c>
       <c r="B31" t="s">
-        <v>8448</v>
+        <v>8808</v>
       </c>
       <c r="C31" t="s">
-        <v>8488</v>
+        <v>8848</v>
       </c>
       <c r="D31" s="1">
         <v>0.75999999046325684</v>
@@ -27164,21 +28244,21 @@
       </c>
       <c r="G31" s="1"/>
       <c r="H31" t="s">
-        <v>8515</v>
+        <v>8875</v>
       </c>
       <c r="I31" t="s">
-        <v>8557</v>
+        <v>8917</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>8407</v>
+        <v>8767</v>
       </c>
       <c r="B32" t="s">
-        <v>8449</v>
+        <v>8809</v>
       </c>
       <c r="C32" t="s">
-        <v>8488</v>
+        <v>8848</v>
       </c>
       <c r="D32" s="1">
         <v>0.75</v>
@@ -27191,21 +28271,21 @@
       </c>
       <c r="G32" s="1"/>
       <c r="H32" t="s">
-        <v>8516</v>
+        <v>8876</v>
       </c>
       <c r="I32" t="s">
-        <v>8558</v>
+        <v>8918</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>8407</v>
+        <v>8767</v>
       </c>
       <c r="B33" t="s">
-        <v>8450</v>
+        <v>8810</v>
       </c>
       <c r="C33" t="s">
-        <v>8488</v>
+        <v>8848</v>
       </c>
       <c r="D33" s="1">
         <v>0.54000002145767212</v>
@@ -27218,21 +28298,21 @@
       </c>
       <c r="G33" s="1"/>
       <c r="H33" t="s">
-        <v>8516</v>
+        <v>8876</v>
       </c>
       <c r="I33" t="s">
-        <v>8559</v>
+        <v>8919</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>8407</v>
+        <v>8767</v>
       </c>
       <c r="B34" t="s">
-        <v>8451</v>
+        <v>8811</v>
       </c>
       <c r="C34" t="s">
-        <v>8489</v>
+        <v>8849</v>
       </c>
       <c r="D34" s="1">
         <v>1.6699999570846558</v>
@@ -27245,21 +28325,21 @@
       </c>
       <c r="G34" s="1"/>
       <c r="H34" t="s">
-        <v>8517</v>
+        <v>8877</v>
       </c>
       <c r="I34" t="s">
-        <v>8560</v>
+        <v>8920</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>8407</v>
+        <v>8767</v>
       </c>
       <c r="B35" t="s">
-        <v>8452</v>
+        <v>8812</v>
       </c>
       <c r="C35" t="s">
-        <v>8489</v>
+        <v>8849</v>
       </c>
       <c r="D35" s="1">
         <v>2.3299999237060547</v>
@@ -27272,21 +28352,21 @@
       </c>
       <c r="G35" s="1"/>
       <c r="H35" t="s">
-        <v>8517</v>
+        <v>8877</v>
       </c>
       <c r="I35" t="s">
-        <v>8561</v>
+        <v>8921</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>8408</v>
+        <v>8768</v>
       </c>
       <c r="B36" t="s">
-        <v>8453</v>
+        <v>8813</v>
       </c>
       <c r="C36" t="s">
-        <v>8490</v>
+        <v>8850</v>
       </c>
       <c r="D36" s="1">
         <v>0.15999999642372131</v>
@@ -27299,21 +28379,21 @@
       </c>
       <c r="G36" s="1"/>
       <c r="H36" t="s">
-        <v>8518</v>
+        <v>8878</v>
       </c>
       <c r="I36" t="s">
-        <v>8562</v>
+        <v>8922</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>8408</v>
+        <v>8768</v>
       </c>
       <c r="B37" t="s">
-        <v>8454</v>
+        <v>8814</v>
       </c>
       <c r="C37" t="s">
-        <v>8490</v>
+        <v>8850</v>
       </c>
       <c r="D37" s="1">
         <v>0.51999998092651367</v>
@@ -27326,21 +28406,21 @@
       </c>
       <c r="G37" s="1"/>
       <c r="H37" t="s">
-        <v>8518</v>
+        <v>8878</v>
       </c>
       <c r="I37" t="s">
-        <v>8563</v>
+        <v>8923</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>8408</v>
+        <v>8768</v>
       </c>
       <c r="B38" t="s">
-        <v>8455</v>
+        <v>8815</v>
       </c>
       <c r="C38" t="s">
-        <v>8490</v>
+        <v>8850</v>
       </c>
       <c r="D38" s="1">
         <v>0.62999999523162842</v>
@@ -27353,21 +28433,21 @@
       </c>
       <c r="G38" s="1"/>
       <c r="H38" t="s">
-        <v>8518</v>
+        <v>8878</v>
       </c>
       <c r="I38" t="s">
-        <v>8564</v>
+        <v>8924</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>8408</v>
+        <v>8768</v>
       </c>
       <c r="B39" t="s">
-        <v>8456</v>
+        <v>8816</v>
       </c>
       <c r="C39" t="s">
-        <v>8490</v>
+        <v>8850</v>
       </c>
       <c r="D39" s="1">
         <v>0.25999999046325684</v>
@@ -27380,21 +28460,21 @@
       </c>
       <c r="G39" s="1"/>
       <c r="H39" t="s">
-        <v>8518</v>
+        <v>8878</v>
       </c>
       <c r="I39" t="s">
-        <v>8565</v>
+        <v>8925</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>8409</v>
+        <v>8769</v>
       </c>
       <c r="B40" t="s">
-        <v>8457</v>
+        <v>8817</v>
       </c>
       <c r="C40" t="s">
-        <v>8490</v>
+        <v>8850</v>
       </c>
       <c r="D40" s="1">
         <v>0.2199999988079071</v>
@@ -27407,21 +28487,21 @@
       </c>
       <c r="G40" s="1"/>
       <c r="H40" t="s">
-        <v>8518</v>
+        <v>8878</v>
       </c>
       <c r="I40" t="s">
-        <v>8566</v>
+        <v>8926</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>8409</v>
+        <v>8769</v>
       </c>
       <c r="B41" t="s">
-        <v>8458</v>
+        <v>8818</v>
       </c>
       <c r="C41" t="s">
-        <v>8490</v>
+        <v>8850</v>
       </c>
       <c r="D41" s="1">
         <v>0.46000000834465027</v>
@@ -27434,21 +28514,21 @@
       </c>
       <c r="G41" s="1"/>
       <c r="H41" t="s">
-        <v>8518</v>
+        <v>8878</v>
       </c>
       <c r="I41" t="s">
-        <v>8567</v>
+        <v>8927</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>8409</v>
+        <v>8769</v>
       </c>
       <c r="B42" t="s">
-        <v>8459</v>
+        <v>8819</v>
       </c>
       <c r="C42" t="s">
-        <v>8490</v>
+        <v>8850</v>
       </c>
       <c r="D42" s="1">
         <v>0.60000002384185791</v>
@@ -27461,21 +28541,21 @@
       </c>
       <c r="G42" s="1"/>
       <c r="H42" t="s">
-        <v>8518</v>
+        <v>8878</v>
       </c>
       <c r="I42" t="s">
-        <v>8568</v>
+        <v>8928</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>8409</v>
+        <v>8769</v>
       </c>
       <c r="B43" t="s">
-        <v>8460</v>
+        <v>8820</v>
       </c>
       <c r="C43" t="s">
-        <v>8490</v>
+        <v>8850</v>
       </c>
       <c r="D43" s="1">
         <v>0.37000000476837158</v>
@@ -27488,21 +28568,21 @@
       </c>
       <c r="G43" s="1"/>
       <c r="H43" t="s">
-        <v>8518</v>
+        <v>8878</v>
       </c>
       <c r="I43" t="s">
-        <v>8569</v>
+        <v>8929</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>8410</v>
+        <v>8770</v>
       </c>
       <c r="B44" t="s">
-        <v>8461</v>
+        <v>8821</v>
       </c>
       <c r="C44" t="s">
-        <v>8490</v>
+        <v>8850</v>
       </c>
       <c r="D44" s="1">
         <v>0.5899999737739563</v>
@@ -27515,21 +28595,21 @@
       </c>
       <c r="G44" s="1"/>
       <c r="H44" t="s">
-        <v>8519</v>
+        <v>8879</v>
       </c>
       <c r="I44" t="s">
-        <v>8570</v>
+        <v>8930</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>8410</v>
+        <v>8770</v>
       </c>
       <c r="B45" t="s">
-        <v>8462</v>
+        <v>8822</v>
       </c>
       <c r="C45" t="s">
-        <v>8490</v>
+        <v>8850</v>
       </c>
       <c r="D45" s="1">
         <v>0.47999998927116394</v>
@@ -27542,21 +28622,21 @@
       </c>
       <c r="G45" s="1"/>
       <c r="H45" t="s">
-        <v>8519</v>
+        <v>8879</v>
       </c>
       <c r="I45" t="s">
-        <v>8571</v>
+        <v>8931</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>8411</v>
+        <v>8771</v>
       </c>
       <c r="B46" t="s">
-        <v>8463</v>
+        <v>8823</v>
       </c>
       <c r="C46" t="s">
-        <v>8491</v>
+        <v>8851</v>
       </c>
       <c r="D46" s="1">
         <v>0.77100002765655518</v>
@@ -27569,21 +28649,21 @@
       </c>
       <c r="G46" s="1"/>
       <c r="H46" t="s">
-        <v>8519</v>
+        <v>8879</v>
       </c>
       <c r="I46" t="s">
-        <v>8572</v>
+        <v>8932</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>8411</v>
+        <v>8771</v>
       </c>
       <c r="B47" t="s">
-        <v>8464</v>
+        <v>8824</v>
       </c>
       <c r="C47" t="s">
-        <v>8491</v>
+        <v>8851</v>
       </c>
       <c r="D47" s="1">
         <v>0.75199997425079346</v>
@@ -27596,21 +28676,21 @@
       </c>
       <c r="G47" s="1"/>
       <c r="H47" t="s">
-        <v>8519</v>
+        <v>8879</v>
       </c>
       <c r="I47" t="s">
-        <v>8573</v>
+        <v>8933</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>8412</v>
+        <v>8772</v>
       </c>
       <c r="B48" t="s">
-        <v>8465</v>
+        <v>8825</v>
       </c>
       <c r="C48" t="s">
-        <v>8492</v>
+        <v>8852</v>
       </c>
       <c r="D48" s="1">
         <v>0.54000002145767212</v>
@@ -27623,21 +28703,21 @@
       </c>
       <c r="G48" s="1"/>
       <c r="H48" t="s">
-        <v>8519</v>
+        <v>8879</v>
       </c>
       <c r="I48" t="s">
-        <v>8574</v>
+        <v>8934</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>8412</v>
+        <v>8772</v>
       </c>
       <c r="B49" t="s">
-        <v>8466</v>
+        <v>8826</v>
       </c>
       <c r="C49" t="s">
-        <v>8492</v>
+        <v>8852</v>
       </c>
       <c r="D49" s="1">
         <v>0.67000001668930054</v>
@@ -27650,21 +28730,21 @@
       </c>
       <c r="G49" s="1"/>
       <c r="H49" t="s">
-        <v>8519</v>
+        <v>8879</v>
       </c>
       <c r="I49" t="s">
-        <v>8575</v>
+        <v>8935</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>8412</v>
+        <v>8772</v>
       </c>
       <c r="B50" t="s">
-        <v>8467</v>
+        <v>8827</v>
       </c>
       <c r="C50" t="s">
-        <v>8492</v>
+        <v>8852</v>
       </c>
       <c r="D50" s="1">
         <v>0.60000002384185791</v>
@@ -27677,21 +28757,21 @@
       </c>
       <c r="G50" s="1"/>
       <c r="H50" t="s">
-        <v>8519</v>
+        <v>8879</v>
       </c>
       <c r="I50" t="s">
-        <v>8576</v>
+        <v>8936</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>8413</v>
+        <v>8773</v>
       </c>
       <c r="B51" t="s">
-        <v>8468</v>
+        <v>8828</v>
       </c>
       <c r="C51" t="s">
-        <v>8493</v>
+        <v>8853</v>
       </c>
       <c r="D51" s="1">
         <v>0.97600001096725464</v>
@@ -27704,21 +28784,21 @@
       </c>
       <c r="G51" s="1"/>
       <c r="H51" t="s">
-        <v>8520</v>
+        <v>8880</v>
       </c>
       <c r="I51" t="s">
-        <v>8577</v>
+        <v>8937</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>8413</v>
+        <v>8773</v>
       </c>
       <c r="B52" t="s">
-        <v>8469</v>
+        <v>8829</v>
       </c>
       <c r="C52" t="s">
-        <v>8493</v>
+        <v>8853</v>
       </c>
       <c r="D52" s="1">
         <v>0.92599999904632568</v>
@@ -27731,21 +28811,21 @@
       </c>
       <c r="G52" s="1"/>
       <c r="H52" t="s">
-        <v>8520</v>
+        <v>8880</v>
       </c>
       <c r="I52" t="s">
-        <v>8578</v>
+        <v>8938</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>8413</v>
+        <v>8773</v>
       </c>
       <c r="B53" t="s">
-        <v>8470</v>
+        <v>8830</v>
       </c>
       <c r="C53" t="s">
-        <v>8493</v>
+        <v>8853</v>
       </c>
       <c r="D53" s="1">
         <v>0.88300001621246338</v>
@@ -27758,21 +28838,21 @@
       </c>
       <c r="G53" s="1"/>
       <c r="H53" t="s">
-        <v>8520</v>
+        <v>8880</v>
       </c>
       <c r="I53" t="s">
-        <v>8579</v>
+        <v>8939</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>8414</v>
+        <v>8774</v>
       </c>
       <c r="B54" t="s">
-        <v>8471</v>
+        <v>8831</v>
       </c>
       <c r="C54" t="s">
-        <v>8494</v>
+        <v>8854</v>
       </c>
       <c r="D54" s="1">
         <v>0.6600000262260437</v>
@@ -27785,21 +28865,21 @@
       </c>
       <c r="G54" s="1"/>
       <c r="H54" t="s">
-        <v>8521</v>
+        <v>8881</v>
       </c>
       <c r="I54" t="s">
-        <v>8580</v>
+        <v>8940</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>8414</v>
+        <v>8774</v>
       </c>
       <c r="B55" t="s">
-        <v>8472</v>
+        <v>8832</v>
       </c>
       <c r="C55" t="s">
-        <v>8494</v>
+        <v>8854</v>
       </c>
       <c r="D55" s="1">
         <v>0.63999998569488525</v>
@@ -27812,21 +28892,21 @@
       </c>
       <c r="G55" s="1"/>
       <c r="H55" t="s">
-        <v>8521</v>
+        <v>8881</v>
       </c>
       <c r="I55" t="s">
-        <v>8581</v>
+        <v>8941</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>8415</v>
+        <v>8775</v>
       </c>
       <c r="B56" t="s">
-        <v>8473</v>
+        <v>8833</v>
       </c>
       <c r="C56" t="s">
-        <v>8495</v>
+        <v>8855</v>
       </c>
       <c r="D56" s="1">
         <v>0.89999997615814209</v>
@@ -27839,21 +28919,21 @@
       </c>
       <c r="G56" s="1"/>
       <c r="H56" t="s">
-        <v>8522</v>
+        <v>8882</v>
       </c>
       <c r="I56" t="s">
-        <v>8582</v>
+        <v>8942</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>8415</v>
+        <v>8775</v>
       </c>
       <c r="B57" t="s">
-        <v>8474</v>
+        <v>8834</v>
       </c>
       <c r="C57" t="s">
-        <v>8495</v>
+        <v>8855</v>
       </c>
       <c r="D57" s="1">
         <v>0.95999997854232788</v>
@@ -27866,21 +28946,21 @@
       </c>
       <c r="G57" s="1"/>
       <c r="H57" t="s">
-        <v>8522</v>
+        <v>8882</v>
       </c>
       <c r="I57" t="s">
-        <v>8583</v>
+        <v>8943</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>8416</v>
+        <v>8776</v>
       </c>
       <c r="B58" t="s">
-        <v>8475</v>
+        <v>8835</v>
       </c>
       <c r="C58" t="s">
-        <v>8496</v>
+        <v>8856</v>
       </c>
       <c r="D58" s="1">
         <v>0.4699999988079071</v>
@@ -27893,21 +28973,21 @@
       </c>
       <c r="G58" s="1"/>
       <c r="H58" t="s">
-        <v>8523</v>
+        <v>8883</v>
       </c>
       <c r="I58" t="s">
-        <v>8584</v>
+        <v>8944</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>8416</v>
+        <v>8776</v>
       </c>
       <c r="B59" t="s">
-        <v>8476</v>
+        <v>8836</v>
       </c>
       <c r="C59" t="s">
-        <v>8496</v>
+        <v>8856</v>
       </c>
       <c r="D59" s="1">
         <v>0.47999998927116394</v>
@@ -27920,21 +29000,21 @@
       </c>
       <c r="G59" s="1"/>
       <c r="H59" t="s">
-        <v>8523</v>
+        <v>8883</v>
       </c>
       <c r="I59" t="s">
-        <v>8585</v>
+        <v>8945</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>8416</v>
+        <v>8776</v>
       </c>
       <c r="B60" t="s">
-        <v>8477</v>
+        <v>8837</v>
       </c>
       <c r="C60" t="s">
-        <v>8497</v>
+        <v>8857</v>
       </c>
       <c r="D60" s="1">
         <v>0.43999999761581421</v>
@@ -27947,21 +29027,21 @@
       </c>
       <c r="G60" s="1"/>
       <c r="H60" t="s">
-        <v>8524</v>
+        <v>8884</v>
       </c>
       <c r="I60" t="s">
-        <v>8586</v>
+        <v>8946</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>8416</v>
+        <v>8776</v>
       </c>
       <c r="B61" t="s">
-        <v>8478</v>
+        <v>8838</v>
       </c>
       <c r="C61" t="s">
-        <v>8497</v>
+        <v>8857</v>
       </c>
       <c r="D61" s="1">
         <v>0.75999999046325684</v>
@@ -27974,21 +29054,21 @@
       </c>
       <c r="G61" s="1"/>
       <c r="H61" t="s">
-        <v>8524</v>
+        <v>8884</v>
       </c>
       <c r="I61" t="s">
-        <v>8587</v>
+        <v>8947</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>8417</v>
+        <v>8777</v>
       </c>
       <c r="B62" t="s">
-        <v>8479</v>
+        <v>8839</v>
       </c>
       <c r="C62" t="s">
-        <v>8497</v>
+        <v>8857</v>
       </c>
       <c r="D62" s="1">
         <v>0.81000000238418579</v>
@@ -28001,21 +29081,21 @@
       </c>
       <c r="G62" s="1"/>
       <c r="H62" t="s">
-        <v>8525</v>
+        <v>8885</v>
       </c>
       <c r="I62" t="s">
-        <v>8588</v>
+        <v>8948</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>8417</v>
+        <v>8777</v>
       </c>
       <c r="B63" t="s">
-        <v>8480</v>
+        <v>8840</v>
       </c>
       <c r="C63" t="s">
-        <v>8497</v>
+        <v>8857</v>
       </c>
       <c r="D63" s="1">
         <v>0.79000002145767212</v>
@@ -28028,21 +29108,21 @@
       </c>
       <c r="G63" s="1"/>
       <c r="H63" t="s">
-        <v>8525</v>
+        <v>8885</v>
       </c>
       <c r="I63" t="s">
-        <v>8589</v>
+        <v>8949</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>8418</v>
+        <v>8778</v>
       </c>
       <c r="B64" t="s">
-        <v>8481</v>
+        <v>8841</v>
       </c>
       <c r="C64" t="s">
-        <v>8498</v>
+        <v>8858</v>
       </c>
       <c r="D64" s="1">
         <v>0.6600000262260437</v>
@@ -28055,21 +29135,21 @@
       </c>
       <c r="G64" s="1"/>
       <c r="H64" t="s">
-        <v>8526</v>
+        <v>8886</v>
       </c>
       <c r="I64" t="s">
-        <v>8590</v>
+        <v>8950</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>8418</v>
+        <v>8778</v>
       </c>
       <c r="B65" t="s">
-        <v>8482</v>
+        <v>8842</v>
       </c>
       <c r="C65" t="s">
-        <v>8498</v>
+        <v>8858</v>
       </c>
       <c r="D65" s="1">
         <v>0.55000001192092896</v>
@@ -28082,10 +29162,10 @@
       </c>
       <c r="G65" s="1"/>
       <c r="H65" t="s">
-        <v>8526</v>
+        <v>8886</v>
       </c>
       <c r="I65" t="s">
-        <v>8591</v>
+        <v>8951</v>
       </c>
     </row>
   </sheetData>
@@ -28099,42 +29179,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>8592</v>
+        <v>8952</v>
       </c>
       <c r="B1" t="s">
-        <v>8614</v>
+        <v>8974</v>
       </c>
       <c r="C1" t="s">
-        <v>8661</v>
+        <v>9021</v>
       </c>
       <c r="D1" t="s">
-        <v>8671</v>
+        <v>9031</v>
       </c>
       <c r="E1" t="s">
-        <v>8672</v>
+        <v>9032</v>
       </c>
       <c r="F1" t="s">
-        <v>8673</v>
+        <v>9033</v>
       </c>
       <c r="G1" t="s">
-        <v>8674</v>
+        <v>9034</v>
       </c>
       <c r="H1" t="s">
-        <v>8686</v>
+        <v>9046</v>
       </c>
       <c r="I1" t="s">
-        <v>8707</v>
+        <v>9067</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>8593</v>
+        <v>8953</v>
       </c>
       <c r="B2" t="s">
-        <v>8615</v>
+        <v>8975</v>
       </c>
       <c r="C2" t="s">
-        <v>8662</v>
+        <v>9022</v>
       </c>
       <c r="D2" s="1">
         <v>0.5899999737739563</v>
@@ -28146,24 +29226,24 @@
         <v>0.81999999284744263</v>
       </c>
       <c r="G2" t="s">
-        <v>8675</v>
+        <v>9035</v>
       </c>
       <c r="H2" t="s">
-        <v>8687</v>
+        <v>9047</v>
       </c>
       <c r="I2" t="s">
-        <v>8708</v>
+        <v>9068</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>8593</v>
+        <v>8953</v>
       </c>
       <c r="B3" t="s">
-        <v>8616</v>
+        <v>8976</v>
       </c>
       <c r="C3" t="s">
-        <v>8662</v>
+        <v>9022</v>
       </c>
       <c r="D3" s="1">
         <v>0.18000000715255737</v>
@@ -28175,24 +29255,24 @@
         <v>1.4900000095367432</v>
       </c>
       <c r="G3" t="s">
-        <v>8675</v>
+        <v>9035</v>
       </c>
       <c r="H3" t="s">
-        <v>8687</v>
+        <v>9047</v>
       </c>
       <c r="I3" t="s">
-        <v>8709</v>
+        <v>9069</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8594</v>
+        <v>8954</v>
       </c>
       <c r="B4" t="s">
-        <v>8617</v>
+        <v>8977</v>
       </c>
       <c r="C4" t="s">
-        <v>8662</v>
+        <v>9022</v>
       </c>
       <c r="D4" s="1">
         <v>0.37999999523162842</v>
@@ -28204,24 +29284,24 @@
         <v>0.6600000262260437</v>
       </c>
       <c r="G4" t="s">
-        <v>8675</v>
+        <v>9035</v>
       </c>
       <c r="H4" t="s">
-        <v>8688</v>
+        <v>9048</v>
       </c>
       <c r="I4" t="s">
-        <v>8710</v>
+        <v>9070</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8594</v>
+        <v>8954</v>
       </c>
       <c r="B5" t="s">
-        <v>8618</v>
+        <v>8978</v>
       </c>
       <c r="C5" t="s">
-        <v>8662</v>
+        <v>9022</v>
       </c>
       <c r="D5" s="1">
         <v>0.44999998807907104</v>
@@ -28233,24 +29313,24 @@
         <v>0.57999998331069946</v>
       </c>
       <c r="G5" t="s">
-        <v>8675</v>
+        <v>9035</v>
       </c>
       <c r="H5" t="s">
-        <v>8688</v>
+        <v>9048</v>
       </c>
       <c r="I5" t="s">
-        <v>8711</v>
+        <v>9071</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8595</v>
+        <v>8955</v>
       </c>
       <c r="B6" t="s">
-        <v>8619</v>
+        <v>8979</v>
       </c>
       <c r="C6" t="s">
-        <v>8662</v>
+        <v>9022</v>
       </c>
       <c r="D6" s="1">
         <v>0.75700002908706665</v>
@@ -28262,24 +29342,24 @@
         <v>0.96299999952316284</v>
       </c>
       <c r="G6" t="s">
-        <v>8676</v>
+        <v>9036</v>
       </c>
       <c r="H6" t="s">
-        <v>8689</v>
+        <v>9049</v>
       </c>
       <c r="I6" t="s">
-        <v>8712</v>
+        <v>9072</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>8595</v>
+        <v>8955</v>
       </c>
       <c r="B7" t="s">
-        <v>8620</v>
+        <v>8980</v>
       </c>
       <c r="C7" t="s">
-        <v>8662</v>
+        <v>9022</v>
       </c>
       <c r="D7" s="1">
         <v>0.92599999904632568</v>
@@ -28291,24 +29371,24 @@
         <v>1.2790000438690186</v>
       </c>
       <c r="G7" t="s">
-        <v>8677</v>
+        <v>9037</v>
       </c>
       <c r="H7" t="s">
-        <v>8689</v>
+        <v>9049</v>
       </c>
       <c r="I7" t="s">
-        <v>8713</v>
+        <v>9073</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8596</v>
+        <v>8956</v>
       </c>
       <c r="B8" t="s">
-        <v>8621</v>
+        <v>8981</v>
       </c>
       <c r="C8" t="s">
-        <v>8662</v>
+        <v>9022</v>
       </c>
       <c r="D8" s="1">
         <v>0.43999999761581421</v>
@@ -28320,24 +29400,24 @@
         <v>0.56000000238418579</v>
       </c>
       <c r="G8" t="s">
-        <v>8678</v>
+        <v>9038</v>
       </c>
       <c r="H8" t="s">
-        <v>8690</v>
+        <v>9050</v>
       </c>
       <c r="I8" t="s">
-        <v>8714</v>
+        <v>9074</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8596</v>
+        <v>8956</v>
       </c>
       <c r="B9" t="s">
-        <v>8622</v>
+        <v>8982</v>
       </c>
       <c r="C9" t="s">
-        <v>8662</v>
+        <v>9022</v>
       </c>
       <c r="D9" s="1">
         <v>0.80000001192092896</v>
@@ -28349,24 +29429,24 @@
         <v>1.1100000143051147</v>
       </c>
       <c r="G9" t="s">
-        <v>8678</v>
+        <v>9038</v>
       </c>
       <c r="H9" t="s">
-        <v>8690</v>
+        <v>9050</v>
       </c>
       <c r="I9" t="s">
-        <v>8715</v>
+        <v>9075</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>8597</v>
+        <v>8957</v>
       </c>
       <c r="B10" t="s">
-        <v>8623</v>
+        <v>8983</v>
       </c>
       <c r="C10" t="s">
-        <v>8662</v>
+        <v>9022</v>
       </c>
       <c r="D10" s="1">
         <v>0.56000000238418579</v>
@@ -28378,24 +29458,24 @@
         <v>0.97000002861022949</v>
       </c>
       <c r="G10" t="s">
-        <v>8678</v>
+        <v>9038</v>
       </c>
       <c r="H10" t="s">
-        <v>8691</v>
+        <v>9051</v>
       </c>
       <c r="I10" t="s">
-        <v>8716</v>
+        <v>9076</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>8597</v>
+        <v>8957</v>
       </c>
       <c r="B11" t="s">
-        <v>8624</v>
+        <v>8984</v>
       </c>
       <c r="C11" t="s">
-        <v>8662</v>
+        <v>9022</v>
       </c>
       <c r="D11" s="1">
         <v>0.50999999046325684</v>
@@ -28407,24 +29487,24 @@
         <v>1.190000057220459</v>
       </c>
       <c r="G11" t="s">
-        <v>8678</v>
+        <v>9038</v>
       </c>
       <c r="H11" t="s">
-        <v>8691</v>
+        <v>9051</v>
       </c>
       <c r="I11" t="s">
-        <v>8717</v>
+        <v>9077</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>8598</v>
+        <v>8958</v>
       </c>
       <c r="B12" t="s">
-        <v>8625</v>
+        <v>8985</v>
       </c>
       <c r="C12" t="s">
-        <v>8662</v>
+        <v>9022</v>
       </c>
       <c r="D12" s="1">
         <v>0.36000001430511475</v>
@@ -28436,24 +29516,24 @@
         <v>0.82999998331069946</v>
       </c>
       <c r="G12" t="s">
-        <v>8678</v>
+        <v>9038</v>
       </c>
       <c r="H12" t="s">
-        <v>8692</v>
+        <v>9052</v>
       </c>
       <c r="I12" t="s">
-        <v>8718</v>
+        <v>9078</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>8598</v>
+        <v>8958</v>
       </c>
       <c r="B13" t="s">
-        <v>8626</v>
+        <v>8986</v>
       </c>
       <c r="C13" t="s">
-        <v>8662</v>
+        <v>9022</v>
       </c>
       <c r="D13" s="1">
         <v>0.6600000262260437</v>
@@ -28465,24 +29545,24 @@
         <v>0.89999997615814209</v>
       </c>
       <c r="G13" t="s">
-        <v>8678</v>
+        <v>9038</v>
       </c>
       <c r="H13" t="s">
-        <v>8692</v>
+        <v>9052</v>
       </c>
       <c r="I13" t="s">
-        <v>8719</v>
+        <v>9079</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>8599</v>
+        <v>8959</v>
       </c>
       <c r="B14" t="s">
-        <v>8627</v>
+        <v>8987</v>
       </c>
       <c r="C14" t="s">
-        <v>8662</v>
+        <v>9022</v>
       </c>
       <c r="D14" s="1">
         <v>0.55299997329711914</v>
@@ -28494,24 +29574,24 @@
         <v>0.9309999942779541</v>
       </c>
       <c r="G14" t="s">
-        <v>8679</v>
+        <v>9039</v>
       </c>
       <c r="H14" t="s">
-        <v>8693</v>
+        <v>9053</v>
       </c>
       <c r="I14" t="s">
-        <v>8720</v>
+        <v>9080</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>8599</v>
+        <v>8959</v>
       </c>
       <c r="B15" t="s">
-        <v>8628</v>
+        <v>8988</v>
       </c>
       <c r="C15" t="s">
-        <v>8662</v>
+        <v>9022</v>
       </c>
       <c r="D15" s="1">
         <v>0.76599997282028198</v>
@@ -28523,24 +29603,24 @@
         <v>3.9639999866485596</v>
       </c>
       <c r="G15" t="s">
-        <v>8679</v>
+        <v>9039</v>
       </c>
       <c r="H15" t="s">
-        <v>8693</v>
+        <v>9053</v>
       </c>
       <c r="I15" t="s">
-        <v>8721</v>
+        <v>9081</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>8599</v>
+        <v>8959</v>
       </c>
       <c r="B16" t="s">
-        <v>8629</v>
+        <v>8989</v>
       </c>
       <c r="C16" t="s">
-        <v>8663</v>
+        <v>9023</v>
       </c>
       <c r="D16" s="1">
         <v>0.39800000190734863</v>
@@ -28552,24 +29632,24 @@
         <v>0.71899998188018799</v>
       </c>
       <c r="G16" t="s">
-        <v>8679</v>
+        <v>9039</v>
       </c>
       <c r="H16" t="s">
-        <v>8694</v>
+        <v>9054</v>
       </c>
       <c r="I16" t="s">
-        <v>8722</v>
+        <v>9082</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>8599</v>
+        <v>8959</v>
       </c>
       <c r="B17" t="s">
-        <v>8630</v>
+        <v>8990</v>
       </c>
       <c r="C17" t="s">
-        <v>8663</v>
+        <v>9023</v>
       </c>
       <c r="D17" s="1">
         <v>0.49799999594688416</v>
@@ -28581,24 +29661,24 @@
         <v>2.4030001163482666</v>
       </c>
       <c r="G17" t="s">
-        <v>8679</v>
+        <v>9039</v>
       </c>
       <c r="H17" t="s">
-        <v>8694</v>
+        <v>9054</v>
       </c>
       <c r="I17" t="s">
-        <v>8723</v>
+        <v>9083</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>8600</v>
+        <v>8960</v>
       </c>
       <c r="B18" t="s">
-        <v>8631</v>
+        <v>8991</v>
       </c>
       <c r="C18" t="s">
-        <v>8664</v>
+        <v>9024</v>
       </c>
       <c r="D18" s="1">
         <v>0.87000000476837158</v>
@@ -28610,24 +29690,24 @@
         <v>1.2899999618530273</v>
       </c>
       <c r="G18" t="s">
-        <v>8680</v>
+        <v>9040</v>
       </c>
       <c r="H18" t="s">
-        <v>8695</v>
+        <v>9055</v>
       </c>
       <c r="I18" t="s">
-        <v>8724</v>
+        <v>9084</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>8600</v>
+        <v>8960</v>
       </c>
       <c r="B19" t="s">
-        <v>8632</v>
+        <v>8992</v>
       </c>
       <c r="C19" t="s">
-        <v>8664</v>
+        <v>9024</v>
       </c>
       <c r="D19" s="1">
         <v>0.38999998569488525</v>
@@ -28639,24 +29719,24 @@
         <v>0.80000001192092896</v>
       </c>
       <c r="G19" t="s">
-        <v>8680</v>
+        <v>9040</v>
       </c>
       <c r="H19" t="s">
-        <v>8695</v>
+        <v>9055</v>
       </c>
       <c r="I19" t="s">
-        <v>8725</v>
+        <v>9085</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>8601</v>
+        <v>8961</v>
       </c>
       <c r="B20" t="s">
-        <v>8633</v>
+        <v>8993</v>
       </c>
       <c r="C20" t="s">
-        <v>8664</v>
+        <v>9024</v>
       </c>
       <c r="D20" s="1">
         <v>0.61000001430511475</v>
@@ -28668,24 +29748,24 @@
         <v>1.1699999570846558</v>
       </c>
       <c r="G20" t="s">
-        <v>8680</v>
+        <v>9040</v>
       </c>
       <c r="H20" t="s">
-        <v>8696</v>
+        <v>9056</v>
       </c>
       <c r="I20" t="s">
-        <v>8726</v>
+        <v>9086</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>8601</v>
+        <v>8961</v>
       </c>
       <c r="B21" t="s">
-        <v>8634</v>
+        <v>8994</v>
       </c>
       <c r="C21" t="s">
-        <v>8664</v>
+        <v>9024</v>
       </c>
       <c r="D21" s="1">
         <v>0.75</v>
@@ -28697,24 +29777,24 @@
         <v>1.3600000143051147</v>
       </c>
       <c r="G21" t="s">
-        <v>8680</v>
+        <v>9040</v>
       </c>
       <c r="H21" t="s">
-        <v>8696</v>
+        <v>9056</v>
       </c>
       <c r="I21" t="s">
-        <v>8727</v>
+        <v>9087</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>8601</v>
+        <v>8961</v>
       </c>
       <c r="B22" t="s">
-        <v>8635</v>
+        <v>8995</v>
       </c>
       <c r="C22" t="s">
-        <v>8665</v>
+        <v>9025</v>
       </c>
       <c r="D22" s="1">
         <v>5.9000000953674316</v>
@@ -28726,24 +29806,24 @@
         <v>46.099998474121094</v>
       </c>
       <c r="G22" t="s">
-        <v>8680</v>
+        <v>9040</v>
       </c>
       <c r="H22" t="s">
-        <v>8697</v>
+        <v>9057</v>
       </c>
       <c r="I22" t="s">
-        <v>8728</v>
+        <v>9088</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>8601</v>
+        <v>8961</v>
       </c>
       <c r="B23" t="s">
-        <v>8636</v>
+        <v>8996</v>
       </c>
       <c r="C23" t="s">
-        <v>8665</v>
+        <v>9025</v>
       </c>
       <c r="D23" s="1">
         <v>1.8200000524520874</v>
@@ -28755,24 +29835,24 @@
         <v>5.1399998664855957</v>
       </c>
       <c r="G23" t="s">
-        <v>8680</v>
+        <v>9040</v>
       </c>
       <c r="H23" t="s">
-        <v>8697</v>
+        <v>9057</v>
       </c>
       <c r="I23" t="s">
-        <v>8729</v>
+        <v>9089</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>8602</v>
+        <v>8962</v>
       </c>
       <c r="B24" t="s">
-        <v>8637</v>
+        <v>8997</v>
       </c>
       <c r="C24" t="s">
-        <v>8666</v>
+        <v>9026</v>
       </c>
       <c r="D24" s="1">
         <v>0.5899999737739563</v>
@@ -28784,24 +29864,24 @@
         <v>1.3999999761581421</v>
       </c>
       <c r="G24" t="s">
-        <v>8680</v>
+        <v>9040</v>
       </c>
       <c r="H24" t="s">
-        <v>8698</v>
+        <v>9058</v>
       </c>
       <c r="I24" t="s">
-        <v>8730</v>
+        <v>9090</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>8602</v>
+        <v>8962</v>
       </c>
       <c r="B25" t="s">
-        <v>8638</v>
+        <v>8998</v>
       </c>
       <c r="C25" t="s">
-        <v>8666</v>
+        <v>9026</v>
       </c>
       <c r="D25" s="1">
         <v>0.69999998807907104</v>
@@ -28813,24 +29893,24 @@
         <v>0.87000000476837158</v>
       </c>
       <c r="G25" t="s">
-        <v>8680</v>
+        <v>9040</v>
       </c>
       <c r="H25" t="s">
-        <v>8698</v>
+        <v>9058</v>
       </c>
       <c r="I25" t="s">
-        <v>8731</v>
+        <v>9091</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>8603</v>
+        <v>8963</v>
       </c>
       <c r="B26" t="s">
-        <v>8639</v>
+        <v>8999</v>
       </c>
       <c r="C26" t="s">
-        <v>8666</v>
+        <v>9026</v>
       </c>
       <c r="D26" s="1">
         <v>0.38999998569488525</v>
@@ -28842,24 +29922,24 @@
         <v>0.68999999761581421</v>
       </c>
       <c r="G26" t="s">
-        <v>8680</v>
+        <v>9040</v>
       </c>
       <c r="H26" t="s">
-        <v>8699</v>
+        <v>9059</v>
       </c>
       <c r="I26" t="s">
-        <v>8732</v>
+        <v>9092</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>8603</v>
+        <v>8963</v>
       </c>
       <c r="B27" t="s">
-        <v>8640</v>
+        <v>9000</v>
       </c>
       <c r="C27" t="s">
-        <v>8666</v>
+        <v>9026</v>
       </c>
       <c r="D27" s="1">
         <v>0.15999999642372131</v>
@@ -28871,24 +29951,24 @@
         <v>0.40000000596046448</v>
       </c>
       <c r="G27" t="s">
-        <v>8680</v>
+        <v>9040</v>
       </c>
       <c r="H27" t="s">
-        <v>8699</v>
+        <v>9059</v>
       </c>
       <c r="I27" t="s">
-        <v>8733</v>
+        <v>9093</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>8604</v>
+        <v>8964</v>
       </c>
       <c r="B28" t="s">
-        <v>8641</v>
+        <v>9001</v>
       </c>
       <c r="C28" t="s">
-        <v>8666</v>
+        <v>9026</v>
       </c>
       <c r="D28" s="1">
         <v>0.46000000834465027</v>
@@ -28900,24 +29980,24 @@
         <v>0.6600000262260437</v>
       </c>
       <c r="G28" t="s">
-        <v>8680</v>
+        <v>9040</v>
       </c>
       <c r="H28" t="s">
-        <v>8699</v>
+        <v>9059</v>
       </c>
       <c r="I28" t="s">
-        <v>8734</v>
+        <v>9094</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>8604</v>
+        <v>8964</v>
       </c>
       <c r="B29" t="s">
-        <v>8642</v>
+        <v>9002</v>
       </c>
       <c r="C29" t="s">
-        <v>8666</v>
+        <v>9026</v>
       </c>
       <c r="D29" s="1">
         <v>0.30000001192092896</v>
@@ -28929,24 +30009,24 @@
         <v>0.44999998807907104</v>
       </c>
       <c r="G29" t="s">
-        <v>8680</v>
+        <v>9040</v>
       </c>
       <c r="H29" t="s">
-        <v>8699</v>
+        <v>9059</v>
       </c>
       <c r="I29" t="s">
-        <v>8735</v>
+        <v>9095</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>8605</v>
+        <v>8965</v>
       </c>
       <c r="B30" t="s">
-        <v>8643</v>
+        <v>9003</v>
       </c>
       <c r="C30" t="s">
-        <v>8666</v>
+        <v>9026</v>
       </c>
       <c r="D30" s="1">
         <v>0.5</v>
@@ -28958,24 +30038,24 @@
         <v>1.059999942779541</v>
       </c>
       <c r="G30" t="s">
-        <v>8680</v>
+        <v>9040</v>
       </c>
       <c r="H30" t="s">
-        <v>8700</v>
+        <v>9060</v>
       </c>
       <c r="I30" t="s">
-        <v>8736</v>
+        <v>9096</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>8605</v>
+        <v>8965</v>
       </c>
       <c r="B31" t="s">
-        <v>8644</v>
+        <v>9004</v>
       </c>
       <c r="C31" t="s">
-        <v>8666</v>
+        <v>9026</v>
       </c>
       <c r="D31" s="1">
         <v>0.47999998927116394</v>
@@ -28987,24 +30067,24 @@
         <v>0.76999998092651367</v>
       </c>
       <c r="G31" t="s">
-        <v>8680</v>
+        <v>9040</v>
       </c>
       <c r="H31" t="s">
-        <v>8700</v>
+        <v>9060</v>
       </c>
       <c r="I31" t="s">
-        <v>8737</v>
+        <v>9097</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>8606</v>
+        <v>8966</v>
       </c>
       <c r="B32" t="s">
-        <v>8645</v>
+        <v>9005</v>
       </c>
       <c r="C32" t="s">
-        <v>8666</v>
+        <v>9026</v>
       </c>
       <c r="D32" s="1">
         <v>1.6200000047683716</v>
@@ -29016,24 +30096,24 @@
         <v>2.4100000858306885</v>
       </c>
       <c r="G32" t="s">
-        <v>8680</v>
+        <v>9040</v>
       </c>
       <c r="H32" t="s">
-        <v>8700</v>
+        <v>9060</v>
       </c>
       <c r="I32" t="s">
-        <v>8738</v>
+        <v>9098</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>8606</v>
+        <v>8966</v>
       </c>
       <c r="B33" t="s">
-        <v>8646</v>
+        <v>9006</v>
       </c>
       <c r="C33" t="s">
-        <v>8666</v>
+        <v>9026</v>
       </c>
       <c r="D33" s="1">
         <v>2.0099999904632568</v>
@@ -29045,24 +30125,24 @@
         <v>2.8399999141693115</v>
       </c>
       <c r="G33" t="s">
-        <v>8680</v>
+        <v>9040</v>
       </c>
       <c r="H33" t="s">
-        <v>8700</v>
+        <v>9060</v>
       </c>
       <c r="I33" t="s">
-        <v>8739</v>
+        <v>9099</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>8607</v>
+        <v>8967</v>
       </c>
       <c r="B34" t="s">
-        <v>8647</v>
+        <v>9007</v>
       </c>
       <c r="C34" t="s">
-        <v>8667</v>
+        <v>9027</v>
       </c>
       <c r="D34" s="1">
         <v>0.95999997854232788</v>
@@ -29074,24 +30154,24 @@
         <v>1.2560000419616699</v>
       </c>
       <c r="G34" t="s">
-        <v>8681</v>
+        <v>9041</v>
       </c>
       <c r="H34" t="s">
-        <v>8701</v>
+        <v>9061</v>
       </c>
       <c r="I34" t="s">
-        <v>8740</v>
+        <v>9100</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>8607</v>
+        <v>8967</v>
       </c>
       <c r="B35" t="s">
-        <v>8648</v>
+        <v>9008</v>
       </c>
       <c r="C35" t="s">
-        <v>8667</v>
+        <v>9027</v>
       </c>
       <c r="D35" s="1">
         <v>1.0800000429153442</v>
@@ -29103,24 +30183,24 @@
         <v>1.3609999418258667</v>
       </c>
       <c r="G35" t="s">
-        <v>8681</v>
+        <v>9041</v>
       </c>
       <c r="H35" t="s">
-        <v>8701</v>
+        <v>9061</v>
       </c>
       <c r="I35" t="s">
-        <v>8741</v>
+        <v>9101</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>8608</v>
+        <v>8968</v>
       </c>
       <c r="B36" t="s">
-        <v>8649</v>
+        <v>9009</v>
       </c>
       <c r="C36" t="s">
-        <v>8667</v>
+        <v>9027</v>
       </c>
       <c r="D36" s="1">
         <v>0.87699997425079346</v>
@@ -29132,24 +30212,24 @@
         <v>1.156000018119812</v>
       </c>
       <c r="G36" t="s">
-        <v>8682</v>
+        <v>9042</v>
       </c>
       <c r="H36" t="s">
-        <v>8702</v>
+        <v>9062</v>
       </c>
       <c r="I36" t="s">
-        <v>8742</v>
+        <v>9102</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>8608</v>
+        <v>8968</v>
       </c>
       <c r="B37" t="s">
-        <v>8650</v>
+        <v>9010</v>
       </c>
       <c r="C37" t="s">
-        <v>8667</v>
+        <v>9027</v>
       </c>
       <c r="D37" s="1">
         <v>0.68400001525878906</v>
@@ -29161,24 +30241,24 @@
         <v>0.875</v>
       </c>
       <c r="G37" t="s">
-        <v>8682</v>
+        <v>9042</v>
       </c>
       <c r="H37" t="s">
-        <v>8702</v>
+        <v>9062</v>
       </c>
       <c r="I37" t="s">
-        <v>8743</v>
+        <v>9103</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>8608</v>
+        <v>8968</v>
       </c>
       <c r="B38" t="s">
-        <v>8651</v>
+        <v>9011</v>
       </c>
       <c r="C38" t="s">
-        <v>8667</v>
+        <v>9027</v>
       </c>
       <c r="D38" s="1">
         <v>0.85699999332427979</v>
@@ -29190,24 +30270,24 @@
         <v>1.1779999732971191</v>
       </c>
       <c r="G38" t="s">
-        <v>8682</v>
+        <v>9042</v>
       </c>
       <c r="H38" t="s">
-        <v>8702</v>
+        <v>9062</v>
       </c>
       <c r="I38" t="s">
-        <v>8744</v>
+        <v>9104</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>8609</v>
+        <v>8969</v>
       </c>
       <c r="B39" t="s">
-        <v>8651</v>
+        <v>9011</v>
       </c>
       <c r="C39" t="s">
-        <v>8668</v>
+        <v>9028</v>
       </c>
       <c r="D39" s="1">
         <v>0.64999997615814209</v>
@@ -29219,24 +30299,24 @@
         <v>0.8399999737739563</v>
       </c>
       <c r="G39" t="s">
-        <v>8683</v>
+        <v>9043</v>
       </c>
       <c r="H39" t="s">
-        <v>8702</v>
+        <v>9062</v>
       </c>
       <c r="I39" t="s">
-        <v>8745</v>
+        <v>9105</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>8609</v>
+        <v>8969</v>
       </c>
       <c r="B40" t="s">
-        <v>8652</v>
+        <v>9012</v>
       </c>
       <c r="C40" t="s">
-        <v>8668</v>
+        <v>9028</v>
       </c>
       <c r="D40" s="1">
         <v>0.47999998927116394</v>
@@ -29248,24 +30328,24 @@
         <v>0.75</v>
       </c>
       <c r="G40" t="s">
-        <v>8683</v>
+        <v>9043</v>
       </c>
       <c r="H40" t="s">
-        <v>8702</v>
+        <v>9062</v>
       </c>
       <c r="I40" t="s">
-        <v>8746</v>
+        <v>9106</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>8610</v>
+        <v>8970</v>
       </c>
       <c r="B41" t="s">
-        <v>8653</v>
+        <v>9013</v>
       </c>
       <c r="C41" t="s">
-        <v>8669</v>
+        <v>9029</v>
       </c>
       <c r="D41" s="1">
         <v>0.78100001811981201</v>
@@ -29277,24 +30357,24 @@
         <v>1.3220000267028809</v>
       </c>
       <c r="G41" t="s">
-        <v>8684</v>
+        <v>9044</v>
       </c>
       <c r="H41" t="s">
-        <v>8703</v>
+        <v>9063</v>
       </c>
       <c r="I41" t="s">
-        <v>8747</v>
+        <v>9107</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>8610</v>
+        <v>8970</v>
       </c>
       <c r="B42" t="s">
-        <v>8654</v>
+        <v>9014</v>
       </c>
       <c r="C42" t="s">
-        <v>8669</v>
+        <v>9029</v>
       </c>
       <c r="D42" s="1">
         <v>0.97500002384185791</v>
@@ -29306,24 +30386,24 @@
         <v>1.1829999685287476</v>
       </c>
       <c r="G42" t="s">
-        <v>8684</v>
+        <v>9044</v>
       </c>
       <c r="H42" t="s">
-        <v>8703</v>
+        <v>9063</v>
       </c>
       <c r="I42" t="s">
-        <v>8748</v>
+        <v>9108</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>8611</v>
+        <v>8971</v>
       </c>
       <c r="B43" t="s">
-        <v>8655</v>
+        <v>9015</v>
       </c>
       <c r="C43" t="s">
-        <v>8669</v>
+        <v>9029</v>
       </c>
       <c r="D43" s="1">
         <v>0.93000000715255737</v>
@@ -29335,24 +30415,24 @@
         <v>1.309999942779541</v>
       </c>
       <c r="G43" t="s">
-        <v>8685</v>
+        <v>9045</v>
       </c>
       <c r="H43" t="s">
-        <v>8704</v>
+        <v>9064</v>
       </c>
       <c r="I43" t="s">
-        <v>8749</v>
+        <v>9109</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>8611</v>
+        <v>8971</v>
       </c>
       <c r="B44" t="s">
-        <v>8656</v>
+        <v>9016</v>
       </c>
       <c r="C44" t="s">
-        <v>8669</v>
+        <v>9029</v>
       </c>
       <c r="D44" s="1">
         <v>0.93999999761581421</v>
@@ -29364,24 +30444,24 @@
         <v>1.190000057220459</v>
       </c>
       <c r="G44" t="s">
-        <v>8685</v>
+        <v>9045</v>
       </c>
       <c r="H44" t="s">
-        <v>8704</v>
+        <v>9064</v>
       </c>
       <c r="I44" t="s">
-        <v>8750</v>
+        <v>9110</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>8612</v>
+        <v>8972</v>
       </c>
       <c r="B45" t="s">
-        <v>8657</v>
+        <v>9017</v>
       </c>
       <c r="C45" t="s">
-        <v>8670</v>
+        <v>9030</v>
       </c>
       <c r="D45" s="1">
         <v>0.63999998569488525</v>
@@ -29393,24 +30473,24 @@
         <v>0.9100000262260437</v>
       </c>
       <c r="G45" t="s">
-        <v>8685</v>
+        <v>9045</v>
       </c>
       <c r="H45" t="s">
-        <v>8705</v>
+        <v>9065</v>
       </c>
       <c r="I45" t="s">
-        <v>8751</v>
+        <v>9111</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>8612</v>
+        <v>8972</v>
       </c>
       <c r="B46" t="s">
-        <v>8658</v>
+        <v>9018</v>
       </c>
       <c r="C46" t="s">
-        <v>8670</v>
+        <v>9030</v>
       </c>
       <c r="D46" s="1">
         <v>0.72000002861022949</v>
@@ -29422,24 +30502,24 @@
         <v>0.89999997615814209</v>
       </c>
       <c r="G46" t="s">
-        <v>8685</v>
+        <v>9045</v>
       </c>
       <c r="H46" t="s">
-        <v>8705</v>
+        <v>9065</v>
       </c>
       <c r="I46" t="s">
-        <v>8752</v>
+        <v>9112</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>8613</v>
+        <v>8973</v>
       </c>
       <c r="B47" t="s">
-        <v>8659</v>
+        <v>9019</v>
       </c>
       <c r="C47" t="s">
-        <v>8670</v>
+        <v>9030</v>
       </c>
       <c r="D47" s="1">
         <v>0.46000000834465027</v>
@@ -29451,24 +30531,24 @@
         <v>0.73000001907348633</v>
       </c>
       <c r="G47" t="s">
-        <v>8685</v>
+        <v>9045</v>
       </c>
       <c r="H47" t="s">
-        <v>8706</v>
+        <v>9066</v>
       </c>
       <c r="I47" t="s">
-        <v>8753</v>
+        <v>9113</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>8613</v>
+        <v>8973</v>
       </c>
       <c r="B48" t="s">
-        <v>8660</v>
+        <v>9020</v>
       </c>
       <c r="C48" t="s">
-        <v>8670</v>
+        <v>9030</v>
       </c>
       <c r="D48" s="1">
         <v>0.62999999523162842</v>
@@ -29480,13 +30560,13 @@
         <v>0.89999997615814209</v>
       </c>
       <c r="G48" t="s">
-        <v>8685</v>
+        <v>9045</v>
       </c>
       <c r="H48" t="s">
-        <v>8706</v>
+        <v>9066</v>
       </c>
       <c r="I48" t="s">
-        <v>8754</v>
+        <v>9114</v>
       </c>
     </row>
   </sheetData>

--- a/products/Exported Data.xlsx
+++ b/products/Exported Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54637" uniqueCount="32054">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57117" uniqueCount="33494">
   <si>
     <t>Study</t>
   </si>
@@ -93875,6 +93875,4326 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Study: Treatment 1 vs Treatment 2</t>
+  </si>
+  <si>
+    <t>Attal 2019 (ICARIA-MM): IsPd vs Pd</t>
+  </si>
+  <si>
+    <t>Bahlis 2020 (POLLUX): DRd vs Rd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2013 (VANTAGE 088): VorV vs V</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2016 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-3): EPd vs Pd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2020 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2021 (APOLLO): DPd vs Pd</t>
+  </si>
+  <si>
+    <t>Grosicki 2020 (BOSTON): SeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Hou 2017 (China Cont.): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>Jakubowiak 2016 (NCT01478048): EVd vs Vd</t>
+  </si>
+  <si>
+    <t>Kumar 2020 (BELLINI): VeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Lu 2021 (LEPUS): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Mateos 2020 (CASTOR): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Moreau 2021 (IKEMA): IsKd vs Kd</t>
+  </si>
+  <si>
+    <t>Orlowski 2019 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2019 (OPTIMISMM): PVd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2021 (TOURMALINE-MM1): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2014 (PANORAMA-1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2016 (PANORAMA 1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2013 (MM-003): Pd vs GC</t>
+  </si>
+  <si>
+    <t>Siegel 2018 (ASPIRE): KRd vs Rd</t>
+  </si>
+  <si>
+    <t>Usamani 2022 (CANDOR): DKd vs Kd</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;=3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;=2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Lower 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>Upper 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t>Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      AT 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t>Data Extraction Errors</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Study: Treatment 1 vs Treatment 2</t>
+  </si>
+  <si>
+    <t>Attal 2019 (ICARIA-MM): IsPd vs Pd</t>
+  </si>
+  <si>
+    <t>Bahlis 2020 (POLLUX): DRd vs Rd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2013 (VANTAGE 088): VorV vs V</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2016 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-3): EPd vs Pd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2021 (APOLLO): DPd vs Pd</t>
+  </si>
+  <si>
+    <t>Hou 2017 (China Cont.): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>Jakubowiak 2016 (NCT01478048): EVd vs Vd</t>
+  </si>
+  <si>
+    <t>Kumar 2020 (BELLINI): VeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Lonial 2015 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Lu 2021 (LEPUS): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Mateos 2020 (CASTOR): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Moreau 2021 (IKEMA): IsKd vs Kd</t>
+  </si>
+  <si>
+    <t>Orlowski 2007 (NCT00103506): V vs DoxV</t>
+  </si>
+  <si>
+    <t>Orlowski 2016 (NCT00103506): V vs DoxV</t>
+  </si>
+  <si>
+    <t>Orlowski 2019 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2019 (OPTIMISMM): PVd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2021 (TOURMALINE-MM1): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2016 (PANORAMA 1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>Stewart 2015 (ASPIRE): KRd vs Rd</t>
+  </si>
+  <si>
+    <t>Usmani 2022 (CANDOR): DKd vs Kd</t>
+  </si>
+  <si>
+    <t>refract</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Ref. to R and a PI</t>
+  </si>
+  <si>
+    <t>Not ref. to R and a PI</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous R or T use</t>
+  </si>
+  <si>
+    <t>No previous R or T use</t>
+  </si>
+  <si>
+    <t>Previous R or T use</t>
+  </si>
+  <si>
+    <t>No previous R or T use</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Refractory to T</t>
+  </si>
+  <si>
+    <t>Not refractory to T</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No previous IMiD use</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Lower 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>Upper 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0230</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .       Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t>Data Extraction Errors</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Study: Treatment 1 vs Treatment 2</t>
+  </si>
+  <si>
+    <t>Attal 2019 (ICARIA-MM): IsPd vs Pd</t>
+  </si>
+  <si>
+    <t>Bahlis 2020 (POLLUX): DRd vs Rd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2013 (VANTAGE 088): VorV vs V</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2016 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-3): EPd vs Pd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2020 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2021 (APOLLO): DPd vs Pd</t>
+  </si>
+  <si>
+    <t>Grosicki 2020 (BOSTON): SeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Hou 2017 (China Cont.): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>Jakubowiak 2016 (NCT01478048): EVd vs Vd</t>
+  </si>
+  <si>
+    <t>Kumar 2020 (BELLINI): VeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Lu 2021 (LEPUS): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Mateos 2020 (CASTOR): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Moreau 2021 (IKEMA): IsKd vs Kd</t>
+  </si>
+  <si>
+    <t>Orlowski 2019 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2019 (OPTIMISMM): PVd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2021 (TOURMALINE-MM1): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2014 (PANORAMA-1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2016 (PANORAMA 1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2013 (MM-003): Pd vs GC</t>
+  </si>
+  <si>
+    <t>Siegel 2018 (ASPIRE): KRd vs Rd</t>
+  </si>
+  <si>
+    <t>Usamani 2022 (CANDOR): DKd vs Kd</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;=3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;=2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Lower 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>Upper 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t>Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      AT 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t>Data Extraction Errors</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Study: Treatment 1 vs Treatment 2</t>
+  </si>
+  <si>
+    <t>Attal 2019 (ICARIA-MM): IsPd vs Pd</t>
+  </si>
+  <si>
+    <t>Bahlis 2020 (POLLUX): DRd vs Rd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2013 (VANTAGE 088): VorV vs V</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2016 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-3): EPd vs Pd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2021 (APOLLO): DPd vs Pd</t>
+  </si>
+  <si>
+    <t>Hou 2017 (China Cont.): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>Jakubowiak 2016 (NCT01478048): EVd vs Vd</t>
+  </si>
+  <si>
+    <t>Kumar 2020 (BELLINI): VeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Lonial 2015 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Lu 2021 (LEPUS): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Mateos 2020 (CASTOR): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Moreau 2021 (IKEMA): IsKd vs Kd</t>
+  </si>
+  <si>
+    <t>Orlowski 2007 (NCT00103506): V vs DoxV</t>
+  </si>
+  <si>
+    <t>Orlowski 2016 (NCT00103506): V vs DoxV</t>
+  </si>
+  <si>
+    <t>Orlowski 2019 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2019 (OPTIMISMM): PVd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2021 (TOURMALINE-MM1): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2016 (PANORAMA 1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>Stewart 2015 (ASPIRE): KRd vs Rd</t>
+  </si>
+  <si>
+    <t>Usmani 2022 (CANDOR): DKd vs Kd</t>
+  </si>
+  <si>
+    <t>refract</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Ref. to R and a PI</t>
+  </si>
+  <si>
+    <t>Not ref. to R and a PI</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous R or T use</t>
+  </si>
+  <si>
+    <t>No previous R or T use</t>
+  </si>
+  <si>
+    <t>Previous R or T use</t>
+  </si>
+  <si>
+    <t>No previous R or T use</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Refractory to T</t>
+  </si>
+  <si>
+    <t>Not refractory to T</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No previous IMiD use</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Lower 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>Upper 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0230</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .       Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t>Data Extraction Errors</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Study: Treatment 1 vs Treatment 2</t>
+  </si>
+  <si>
+    <t>Attal 2019 (ICARIA-MM): IsPd vs Pd</t>
+  </si>
+  <si>
+    <t>Bahlis 2020 (POLLUX): DRd vs Rd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2013 (VANTAGE 088): VorV vs V</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2016 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-3): EPd vs Pd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2020 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2021 (APOLLO): DPd vs Pd</t>
+  </si>
+  <si>
+    <t>Grosicki 2020 (BOSTON): SeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Hou 2017 (China Cont.): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>Jakubowiak 2016 (NCT01478048): EVd vs Vd</t>
+  </si>
+  <si>
+    <t>Kumar 2020 (BELLINI): VeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Lu 2021 (LEPUS): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Mateos 2020 (CASTOR): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Moreau 2021 (IKEMA): IsKd vs Kd</t>
+  </si>
+  <si>
+    <t>Orlowski 2019 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2019 (OPTIMISMM): PVd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2021 (TOURMALINE-MM1): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2014 (PANORAMA-1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2016 (PANORAMA 1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2013 (MM-003): Pd vs GC</t>
+  </si>
+  <si>
+    <t>Siegel 2018 (ASPIRE): KRd vs Rd</t>
+  </si>
+  <si>
+    <t>Usamani 2022 (CANDOR): DKd vs Kd</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;=3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;=2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Lower 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>Upper 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t>Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      AT 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t>Data Extraction Errors</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Study: Treatment 1 vs Treatment 2</t>
+  </si>
+  <si>
+    <t>Attal 2019 (ICARIA-MM): IsPd vs Pd</t>
+  </si>
+  <si>
+    <t>Bahlis 2020 (POLLUX): DRd vs Rd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2013 (VANTAGE 088): VorV vs V</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2016 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-3): EPd vs Pd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2021 (APOLLO): DPd vs Pd</t>
+  </si>
+  <si>
+    <t>Hou 2017 (China Cont.): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>Jakubowiak 2016 (NCT01478048): EVd vs Vd</t>
+  </si>
+  <si>
+    <t>Kumar 2020 (BELLINI): VeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Lonial 2015 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Lu 2021 (LEPUS): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Mateos 2020 (CASTOR): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Moreau 2021 (IKEMA): IsKd vs Kd</t>
+  </si>
+  <si>
+    <t>Orlowski 2007 (NCT00103506): V vs DoxV</t>
+  </si>
+  <si>
+    <t>Orlowski 2016 (NCT00103506): V vs DoxV</t>
+  </si>
+  <si>
+    <t>Orlowski 2019 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2019 (OPTIMISMM): PVd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2021 (TOURMALINE-MM1): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2016 (PANORAMA 1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>Stewart 2015 (ASPIRE): KRd vs Rd</t>
+  </si>
+  <si>
+    <t>Usmani 2022 (CANDOR): DKd vs Kd</t>
+  </si>
+  <si>
+    <t>refract</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Ref. to R and a PI</t>
+  </si>
+  <si>
+    <t>Not ref. to R and a PI</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous R or T use</t>
+  </si>
+  <si>
+    <t>No previous R or T use</t>
+  </si>
+  <si>
+    <t>Previous R or T use</t>
+  </si>
+  <si>
+    <t>No previous R or T use</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Refractory to T</t>
+  </si>
+  <si>
+    <t>Not refractory to T</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No previous IMiD use</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Lower 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>Upper 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0230</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .       Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t>Data Extraction Errors</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Study: Treatment 1 vs Treatment 2</t>
+  </si>
+  <si>
+    <t>Attal 2019 (ICARIA-MM): IsPd vs Pd</t>
+  </si>
+  <si>
+    <t>Bahlis 2020 (POLLUX): DRd vs Rd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2013 (VANTAGE 088): VorV vs V</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2016 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-3): EPd vs Pd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2020 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2021 (APOLLO): DPd vs Pd</t>
+  </si>
+  <si>
+    <t>Grosicki 2020 (BOSTON): SeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Hou 2017 (China Cont.): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>Jakubowiak 2016 (NCT01478048): EVd vs Vd</t>
+  </si>
+  <si>
+    <t>Kumar 2020 (BELLINI): VeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Lu 2021 (LEPUS): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Mateos 2020 (CASTOR): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Moreau 2021 (IKEMA): IsKd vs Kd</t>
+  </si>
+  <si>
+    <t>Orlowski 2019 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2019 (OPTIMISMM): PVd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2021 (TOURMALINE-MM1): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2014 (PANORAMA-1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2016 (PANORAMA 1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2013 (MM-003): Pd vs GC</t>
+  </si>
+  <si>
+    <t>Siegel 2018 (ASPIRE): KRd vs Rd</t>
+  </si>
+  <si>
+    <t>Usamani 2022 (CANDOR): DKd vs Kd</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;=3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;=2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Lower 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>Upper 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t>Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      AT 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t>Data Extraction Errors</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Study: Treatment 1 vs Treatment 2</t>
+  </si>
+  <si>
+    <t>Attal 2019 (ICARIA-MM): IsPd vs Pd</t>
+  </si>
+  <si>
+    <t>Bahlis 2020 (POLLUX): DRd vs Rd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2013 (VANTAGE 088): VorV vs V</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2016 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-3): EPd vs Pd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2021 (APOLLO): DPd vs Pd</t>
+  </si>
+  <si>
+    <t>Hou 2017 (China Cont.): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>Jakubowiak 2016 (NCT01478048): EVd vs Vd</t>
+  </si>
+  <si>
+    <t>Kumar 2020 (BELLINI): VeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Lonial 2015 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Lu 2021 (LEPUS): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Mateos 2020 (CASTOR): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Moreau 2021 (IKEMA): IsKd vs Kd</t>
+  </si>
+  <si>
+    <t>Orlowski 2007 (NCT00103506): V vs DoxV</t>
+  </si>
+  <si>
+    <t>Orlowski 2016 (NCT00103506): V vs DoxV</t>
+  </si>
+  <si>
+    <t>Orlowski 2019 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2019 (OPTIMISMM): PVd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2021 (TOURMALINE-MM1): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2016 (PANORAMA 1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>Stewart 2015 (ASPIRE): KRd vs Rd</t>
+  </si>
+  <si>
+    <t>Usmani 2022 (CANDOR): DKd vs Kd</t>
+  </si>
+  <si>
+    <t>refract</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Ref. to R and a PI</t>
+  </si>
+  <si>
+    <t>Not ref. to R and a PI</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous R or T use</t>
+  </si>
+  <si>
+    <t>No previous R or T use</t>
+  </si>
+  <si>
+    <t>Previous R or T use</t>
+  </si>
+  <si>
+    <t>No previous R or T use</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Refractory to T</t>
+  </si>
+  <si>
+    <t>Not refractory to T</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No previous IMiD use</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Lower 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>Upper 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0230</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .       Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t>Data Extraction Errors</t>
   </si>
   <si>
     <t/>
@@ -96226,42 +100546,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>31694</v>
+        <v>33134</v>
       </c>
       <c r="B1" t="s">
-        <v>31718</v>
+        <v>33158</v>
       </c>
       <c r="C1" t="s">
-        <v>31782</v>
+        <v>33222</v>
       </c>
       <c r="D1" t="s">
-        <v>31798</v>
+        <v>33238</v>
       </c>
       <c r="E1" t="s">
-        <v>31799</v>
+        <v>33239</v>
       </c>
       <c r="F1" t="s">
-        <v>31800</v>
+        <v>33240</v>
       </c>
       <c r="G1" t="s">
-        <v>31801</v>
+        <v>33241</v>
       </c>
       <c r="H1" t="s">
-        <v>31802</v>
+        <v>33242</v>
       </c>
       <c r="I1" t="s">
-        <v>31826</v>
+        <v>33266</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>31695</v>
+        <v>33135</v>
       </c>
       <c r="B2" t="s">
-        <v>31719</v>
+        <v>33159</v>
       </c>
       <c r="C2" t="s">
-        <v>31783</v>
+        <v>33223</v>
       </c>
       <c r="D2" s="1">
         <v>0.5899999737739563</v>
@@ -96274,21 +100594,21 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" t="s">
-        <v>31803</v>
+        <v>33243</v>
       </c>
       <c r="I2" t="s">
-        <v>31827</v>
+        <v>33267</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>31695</v>
+        <v>33135</v>
       </c>
       <c r="B3" t="s">
-        <v>31720</v>
+        <v>33160</v>
       </c>
       <c r="C3" t="s">
-        <v>31783</v>
+        <v>33223</v>
       </c>
       <c r="D3" s="1">
         <v>0.5899999737739563</v>
@@ -96301,21 +100621,21 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" t="s">
-        <v>31803</v>
+        <v>33243</v>
       </c>
       <c r="I3" t="s">
-        <v>31828</v>
+        <v>33268</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>31696</v>
+        <v>33136</v>
       </c>
       <c r="B4" t="s">
-        <v>31721</v>
+        <v>33161</v>
       </c>
       <c r="C4" t="s">
-        <v>31783</v>
+        <v>33223</v>
       </c>
       <c r="D4" s="1">
         <v>0.41999998688697815</v>
@@ -96328,21 +100648,21 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" t="s">
-        <v>31804</v>
+        <v>33244</v>
       </c>
       <c r="I4" t="s">
-        <v>31829</v>
+        <v>33269</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>31696</v>
+        <v>33136</v>
       </c>
       <c r="B5" t="s">
-        <v>31722</v>
+        <v>33162</v>
       </c>
       <c r="C5" t="s">
-        <v>31783</v>
+        <v>33223</v>
       </c>
       <c r="D5" s="1">
         <v>0.38999998569488525</v>
@@ -96355,21 +100675,21 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" t="s">
-        <v>31804</v>
+        <v>33244</v>
       </c>
       <c r="I5" t="s">
-        <v>31830</v>
+        <v>33270</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>31696</v>
+        <v>33136</v>
       </c>
       <c r="B6" t="s">
-        <v>31723</v>
+        <v>33163</v>
       </c>
       <c r="C6" t="s">
-        <v>31783</v>
+        <v>33223</v>
       </c>
       <c r="D6" s="1">
         <v>0.47999998927116394</v>
@@ -96382,21 +100702,21 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" t="s">
-        <v>31804</v>
+        <v>33244</v>
       </c>
       <c r="I6" t="s">
-        <v>31831</v>
+        <v>33271</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>31696</v>
+        <v>33136</v>
       </c>
       <c r="B7" t="s">
-        <v>31724</v>
+        <v>33164</v>
       </c>
       <c r="C7" t="s">
-        <v>31783</v>
+        <v>33223</v>
       </c>
       <c r="D7" s="1">
         <v>0.74000000953674316</v>
@@ -96409,21 +100729,21 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" t="s">
-        <v>31804</v>
+        <v>33244</v>
       </c>
       <c r="I7" t="s">
-        <v>31832</v>
+        <v>33272</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31697</v>
+        <v>33137</v>
       </c>
       <c r="B8" t="s">
-        <v>31725</v>
+        <v>33165</v>
       </c>
       <c r="C8" t="s">
-        <v>31783</v>
+        <v>33223</v>
       </c>
       <c r="D8" s="1">
         <v>0.68699997663497925</v>
@@ -96438,21 +100758,21 @@
         <v>0.015200000256299973</v>
       </c>
       <c r="H8" t="s">
-        <v>31805</v>
+        <v>33245</v>
       </c>
       <c r="I8" t="s">
-        <v>31833</v>
+        <v>33273</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31697</v>
+        <v>33137</v>
       </c>
       <c r="B9" t="s">
-        <v>31726</v>
+        <v>33166</v>
       </c>
       <c r="C9" t="s">
-        <v>31783</v>
+        <v>33223</v>
       </c>
       <c r="D9" s="1">
         <v>0.91600000858306885</v>
@@ -96467,21 +100787,21 @@
         <v>0.48710000514984131</v>
       </c>
       <c r="H9" t="s">
-        <v>31806</v>
+        <v>33246</v>
       </c>
       <c r="I9" t="s">
-        <v>31834</v>
+        <v>33274</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>31698</v>
+        <v>33138</v>
       </c>
       <c r="B10" t="s">
-        <v>31727</v>
+        <v>33167</v>
       </c>
       <c r="C10" t="s">
-        <v>31783</v>
+        <v>33223</v>
       </c>
       <c r="D10" s="1">
         <v>0.44999998807907104</v>
@@ -96494,21 +100814,21 @@
       </c>
       <c r="G10" s="1"/>
       <c r="H10" t="s">
-        <v>31807</v>
+        <v>33247</v>
       </c>
       <c r="I10" t="s">
-        <v>31835</v>
+        <v>33275</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>31698</v>
+        <v>33138</v>
       </c>
       <c r="B11" t="s">
-        <v>31728</v>
+        <v>33168</v>
       </c>
       <c r="C11" t="s">
-        <v>31783</v>
+        <v>33223</v>
       </c>
       <c r="D11" s="1">
         <v>0.60000002384185791</v>
@@ -96521,21 +100841,21 @@
       </c>
       <c r="G11" s="1"/>
       <c r="H11" t="s">
-        <v>31807</v>
+        <v>33247</v>
       </c>
       <c r="I11" t="s">
-        <v>31836</v>
+        <v>33276</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>31699</v>
+        <v>33139</v>
       </c>
       <c r="B12" t="s">
-        <v>31728</v>
+        <v>33168</v>
       </c>
       <c r="C12" t="s">
-        <v>31783</v>
+        <v>33223</v>
       </c>
       <c r="D12" s="1">
         <v>0.55000001192092896</v>
@@ -96548,21 +100868,21 @@
       </c>
       <c r="G12" s="1"/>
       <c r="H12" t="s">
-        <v>31808</v>
+        <v>33248</v>
       </c>
       <c r="I12" t="s">
-        <v>31837</v>
+        <v>33277</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>31699</v>
+        <v>33139</v>
       </c>
       <c r="B13" t="s">
-        <v>31729</v>
+        <v>33169</v>
       </c>
       <c r="C13" t="s">
-        <v>31783</v>
+        <v>33223</v>
       </c>
       <c r="D13" s="1">
         <v>0.50999999046325684</v>
@@ -96575,21 +100895,21 @@
       </c>
       <c r="G13" s="1"/>
       <c r="H13" t="s">
-        <v>31808</v>
+        <v>33248</v>
       </c>
       <c r="I13" t="s">
-        <v>31838</v>
+        <v>33278</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>31700</v>
+        <v>33140</v>
       </c>
       <c r="B14" t="s">
-        <v>31730</v>
+        <v>33170</v>
       </c>
       <c r="C14" t="s">
-        <v>31783</v>
+        <v>33223</v>
       </c>
       <c r="D14" s="1">
         <v>0.76999998092651367</v>
@@ -96602,21 +100922,21 @@
       </c>
       <c r="G14" s="1"/>
       <c r="H14" t="s">
-        <v>31809</v>
+        <v>33249</v>
       </c>
       <c r="I14" t="s">
-        <v>31839</v>
+        <v>33279</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>31700</v>
+        <v>33140</v>
       </c>
       <c r="B15" t="s">
-        <v>31731</v>
+        <v>33171</v>
       </c>
       <c r="C15" t="s">
-        <v>31783</v>
+        <v>33223</v>
       </c>
       <c r="D15" s="1">
         <v>0.68000000715255737</v>
@@ -96629,21 +100949,21 @@
       </c>
       <c r="G15" s="1"/>
       <c r="H15" t="s">
-        <v>31809</v>
+        <v>33249</v>
       </c>
       <c r="I15" t="s">
-        <v>31840</v>
+        <v>33280</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>31701</v>
+        <v>33141</v>
       </c>
       <c r="B16" t="s">
-        <v>31732</v>
+        <v>33172</v>
       </c>
       <c r="C16" t="s">
-        <v>31784</v>
+        <v>33224</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -96656,21 +100976,21 @@
       </c>
       <c r="G16" s="1"/>
       <c r="H16" t="s">
-        <v>31809</v>
+        <v>33249</v>
       </c>
       <c r="I16" t="s">
-        <v>31841</v>
+        <v>33281</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31701</v>
+        <v>33141</v>
       </c>
       <c r="B17" t="s">
-        <v>31733</v>
+        <v>33173</v>
       </c>
       <c r="C17" t="s">
-        <v>31784</v>
+        <v>33224</v>
       </c>
       <c r="D17" s="1">
         <v>0.70999997854232788</v>
@@ -96683,21 +101003,21 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" t="s">
-        <v>31809</v>
+        <v>33249</v>
       </c>
       <c r="I17" t="s">
-        <v>31842</v>
+        <v>33282</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>31702</v>
+        <v>33142</v>
       </c>
       <c r="B18" t="s">
-        <v>31734</v>
+        <v>33174</v>
       </c>
       <c r="C18" t="s">
-        <v>31785</v>
+        <v>33225</v>
       </c>
       <c r="D18" s="1">
         <v>0.69999998807907104</v>
@@ -96710,21 +101030,21 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18" t="s">
-        <v>31810</v>
+        <v>33250</v>
       </c>
       <c r="I18" t="s">
-        <v>31843</v>
+        <v>33283</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>31702</v>
+        <v>33142</v>
       </c>
       <c r="B19" t="s">
-        <v>31735</v>
+        <v>33175</v>
       </c>
       <c r="C19" t="s">
-        <v>31785</v>
+        <v>33225</v>
       </c>
       <c r="D19" s="1">
         <v>0.6600000262260437</v>
@@ -96737,21 +101057,21 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" t="s">
-        <v>31810</v>
+        <v>33250</v>
       </c>
       <c r="I19" t="s">
-        <v>31844</v>
+        <v>33284</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>31702</v>
+        <v>33142</v>
       </c>
       <c r="B20" t="s">
-        <v>31736</v>
+        <v>33176</v>
       </c>
       <c r="C20" t="s">
-        <v>31785</v>
+        <v>33225</v>
       </c>
       <c r="D20" s="1">
         <v>0.40000000596046448</v>
@@ -96764,21 +101084,21 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" t="s">
-        <v>31810</v>
+        <v>33250</v>
       </c>
       <c r="I20" t="s">
-        <v>31845</v>
+        <v>33285</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>31703</v>
+        <v>33143</v>
       </c>
       <c r="B21" t="s">
-        <v>31737</v>
+        <v>33177</v>
       </c>
       <c r="C21" t="s">
-        <v>31785</v>
+        <v>33225</v>
       </c>
       <c r="D21" s="1">
         <v>0.62999999523162842</v>
@@ -96791,21 +101111,21 @@
       </c>
       <c r="G21" s="1"/>
       <c r="H21" t="s">
-        <v>31811</v>
+        <v>33251</v>
       </c>
       <c r="I21" t="s">
-        <v>31846</v>
+        <v>33286</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>31703</v>
+        <v>33143</v>
       </c>
       <c r="B22" t="s">
-        <v>31738</v>
+        <v>33178</v>
       </c>
       <c r="C22" t="s">
-        <v>31785</v>
+        <v>33225</v>
       </c>
       <c r="D22" s="1">
         <v>0.64999997615814209</v>
@@ -96818,21 +101138,21 @@
       </c>
       <c r="G22" s="1"/>
       <c r="H22" t="s">
-        <v>31811</v>
+        <v>33251</v>
       </c>
       <c r="I22" t="s">
-        <v>31847</v>
+        <v>33287</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>31703</v>
+        <v>33143</v>
       </c>
       <c r="B23" t="s">
-        <v>31739</v>
+        <v>33179</v>
       </c>
       <c r="C23" t="s">
-        <v>31785</v>
+        <v>33225</v>
       </c>
       <c r="D23" s="1">
         <v>0.81999999284744263</v>
@@ -96845,21 +101165,21 @@
       </c>
       <c r="G23" s="1"/>
       <c r="H23" t="s">
-        <v>31811</v>
+        <v>33251</v>
       </c>
       <c r="I23" t="s">
-        <v>31848</v>
+        <v>33288</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31704</v>
+        <v>33144</v>
       </c>
       <c r="B24" t="s">
-        <v>31740</v>
+        <v>33180</v>
       </c>
       <c r="C24" t="s">
-        <v>31785</v>
+        <v>33225</v>
       </c>
       <c r="D24" s="1">
         <v>0.84700000286102295</v>
@@ -96872,21 +101192,21 @@
       </c>
       <c r="G24" s="1"/>
       <c r="H24" t="s">
-        <v>31812</v>
+        <v>33252</v>
       </c>
       <c r="I24" t="s">
-        <v>31849</v>
+        <v>33289</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>31704</v>
+        <v>33144</v>
       </c>
       <c r="B25" t="s">
-        <v>31741</v>
+        <v>33181</v>
       </c>
       <c r="C25" t="s">
-        <v>31785</v>
+        <v>33225</v>
       </c>
       <c r="D25" s="1">
         <v>0.37000000476837158</v>
@@ -96899,21 +101219,21 @@
       </c>
       <c r="G25" s="1"/>
       <c r="H25" t="s">
-        <v>31812</v>
+        <v>33252</v>
       </c>
       <c r="I25" t="s">
-        <v>31850</v>
+        <v>33290</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>31704</v>
+        <v>33144</v>
       </c>
       <c r="B26" t="s">
-        <v>31742</v>
+        <v>33182</v>
       </c>
       <c r="C26" t="s">
-        <v>31785</v>
+        <v>33225</v>
       </c>
       <c r="D26" s="1">
         <v>0.70200002193450928</v>
@@ -96926,21 +101246,21 @@
       </c>
       <c r="G26" s="1"/>
       <c r="H26" t="s">
-        <v>31812</v>
+        <v>33252</v>
       </c>
       <c r="I26" t="s">
-        <v>31851</v>
+        <v>33291</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>31704</v>
+        <v>33144</v>
       </c>
       <c r="B27" t="s">
-        <v>31743</v>
+        <v>33183</v>
       </c>
       <c r="C27" t="s">
-        <v>31786</v>
+        <v>33226</v>
       </c>
       <c r="D27" s="1">
         <v>0.52100002765655518</v>
@@ -96953,21 +101273,21 @@
       </c>
       <c r="G27" s="1"/>
       <c r="H27" t="s">
-        <v>31813</v>
+        <v>33253</v>
       </c>
       <c r="I27" t="s">
-        <v>31852</v>
+        <v>33292</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>31704</v>
+        <v>33144</v>
       </c>
       <c r="B28" t="s">
-        <v>31744</v>
+        <v>33184</v>
       </c>
       <c r="C28" t="s">
-        <v>31786</v>
+        <v>33226</v>
       </c>
       <c r="D28" s="1">
         <v>0.38600000739097595</v>
@@ -96980,21 +101300,21 @@
       </c>
       <c r="G28" s="1"/>
       <c r="H28" t="s">
-        <v>31813</v>
+        <v>33253</v>
       </c>
       <c r="I28" t="s">
-        <v>31853</v>
+        <v>33293</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>31704</v>
+        <v>33144</v>
       </c>
       <c r="B29" t="s">
-        <v>31745</v>
+        <v>33185</v>
       </c>
       <c r="C29" t="s">
-        <v>31786</v>
+        <v>33226</v>
       </c>
       <c r="D29" s="1">
         <v>0.335999995470047</v>
@@ -97007,21 +101327,21 @@
       </c>
       <c r="G29" s="1"/>
       <c r="H29" t="s">
-        <v>31813</v>
+        <v>33253</v>
       </c>
       <c r="I29" t="s">
-        <v>31854</v>
+        <v>33294</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>31705</v>
+        <v>33145</v>
       </c>
       <c r="B30" t="s">
-        <v>31746</v>
+        <v>33186</v>
       </c>
       <c r="C30" t="s">
-        <v>31787</v>
+        <v>33227</v>
       </c>
       <c r="D30" s="1">
         <v>0.74000000953674316</v>
@@ -97034,21 +101354,21 @@
       </c>
       <c r="G30" s="1"/>
       <c r="H30" t="s">
-        <v>31814</v>
+        <v>33254</v>
       </c>
       <c r="I30" t="s">
-        <v>31855</v>
+        <v>33295</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>31705</v>
+        <v>33145</v>
       </c>
       <c r="B31" t="s">
-        <v>31747</v>
+        <v>33187</v>
       </c>
       <c r="C31" t="s">
-        <v>31787</v>
+        <v>33227</v>
       </c>
       <c r="D31" s="1">
         <v>0.75999999046325684</v>
@@ -97061,21 +101381,21 @@
       </c>
       <c r="G31" s="1"/>
       <c r="H31" t="s">
-        <v>31814</v>
+        <v>33254</v>
       </c>
       <c r="I31" t="s">
-        <v>31856</v>
+        <v>33296</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>31706</v>
+        <v>33146</v>
       </c>
       <c r="B32" t="s">
-        <v>31748</v>
+        <v>33188</v>
       </c>
       <c r="C32" t="s">
-        <v>31787</v>
+        <v>33227</v>
       </c>
       <c r="D32" s="1">
         <v>0.75</v>
@@ -97088,21 +101408,21 @@
       </c>
       <c r="G32" s="1"/>
       <c r="H32" t="s">
-        <v>31815</v>
+        <v>33255</v>
       </c>
       <c r="I32" t="s">
-        <v>31857</v>
+        <v>33297</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>31706</v>
+        <v>33146</v>
       </c>
       <c r="B33" t="s">
-        <v>31749</v>
+        <v>33189</v>
       </c>
       <c r="C33" t="s">
-        <v>31787</v>
+        <v>33227</v>
       </c>
       <c r="D33" s="1">
         <v>0.54000002145767212</v>
@@ -97115,21 +101435,21 @@
       </c>
       <c r="G33" s="1"/>
       <c r="H33" t="s">
-        <v>31815</v>
+        <v>33255</v>
       </c>
       <c r="I33" t="s">
-        <v>31858</v>
+        <v>33298</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>31706</v>
+        <v>33146</v>
       </c>
       <c r="B34" t="s">
-        <v>31750</v>
+        <v>33190</v>
       </c>
       <c r="C34" t="s">
-        <v>31788</v>
+        <v>33228</v>
       </c>
       <c r="D34" s="1">
         <v>1.6699999570846558</v>
@@ -97142,21 +101462,21 @@
       </c>
       <c r="G34" s="1"/>
       <c r="H34" t="s">
-        <v>31816</v>
+        <v>33256</v>
       </c>
       <c r="I34" t="s">
-        <v>31859</v>
+        <v>33299</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>31706</v>
+        <v>33146</v>
       </c>
       <c r="B35" t="s">
-        <v>31751</v>
+        <v>33191</v>
       </c>
       <c r="C35" t="s">
-        <v>31788</v>
+        <v>33228</v>
       </c>
       <c r="D35" s="1">
         <v>2.3299999237060547</v>
@@ -97169,21 +101489,21 @@
       </c>
       <c r="G35" s="1"/>
       <c r="H35" t="s">
-        <v>31816</v>
+        <v>33256</v>
       </c>
       <c r="I35" t="s">
-        <v>31860</v>
+        <v>33300</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>31707</v>
+        <v>33147</v>
       </c>
       <c r="B36" t="s">
-        <v>31752</v>
+        <v>33192</v>
       </c>
       <c r="C36" t="s">
-        <v>31789</v>
+        <v>33229</v>
       </c>
       <c r="D36" s="1">
         <v>0.15999999642372131</v>
@@ -97196,21 +101516,21 @@
       </c>
       <c r="G36" s="1"/>
       <c r="H36" t="s">
-        <v>31817</v>
+        <v>33257</v>
       </c>
       <c r="I36" t="s">
-        <v>31861</v>
+        <v>33301</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>31707</v>
+        <v>33147</v>
       </c>
       <c r="B37" t="s">
-        <v>31753</v>
+        <v>33193</v>
       </c>
       <c r="C37" t="s">
-        <v>31789</v>
+        <v>33229</v>
       </c>
       <c r="D37" s="1">
         <v>0.51999998092651367</v>
@@ -97223,21 +101543,21 @@
       </c>
       <c r="G37" s="1"/>
       <c r="H37" t="s">
-        <v>31817</v>
+        <v>33257</v>
       </c>
       <c r="I37" t="s">
-        <v>31862</v>
+        <v>33302</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>31707</v>
+        <v>33147</v>
       </c>
       <c r="B38" t="s">
-        <v>31754</v>
+        <v>33194</v>
       </c>
       <c r="C38" t="s">
-        <v>31789</v>
+        <v>33229</v>
       </c>
       <c r="D38" s="1">
         <v>0.62999999523162842</v>
@@ -97250,21 +101570,21 @@
       </c>
       <c r="G38" s="1"/>
       <c r="H38" t="s">
-        <v>31817</v>
+        <v>33257</v>
       </c>
       <c r="I38" t="s">
-        <v>31863</v>
+        <v>33303</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>31707</v>
+        <v>33147</v>
       </c>
       <c r="B39" t="s">
-        <v>31755</v>
+        <v>33195</v>
       </c>
       <c r="C39" t="s">
-        <v>31789</v>
+        <v>33229</v>
       </c>
       <c r="D39" s="1">
         <v>0.25999999046325684</v>
@@ -97277,21 +101597,21 @@
       </c>
       <c r="G39" s="1"/>
       <c r="H39" t="s">
-        <v>31817</v>
+        <v>33257</v>
       </c>
       <c r="I39" t="s">
-        <v>31864</v>
+        <v>33304</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>31708</v>
+        <v>33148</v>
       </c>
       <c r="B40" t="s">
-        <v>31756</v>
+        <v>33196</v>
       </c>
       <c r="C40" t="s">
-        <v>31789</v>
+        <v>33229</v>
       </c>
       <c r="D40" s="1">
         <v>0.2199999988079071</v>
@@ -97304,21 +101624,21 @@
       </c>
       <c r="G40" s="1"/>
       <c r="H40" t="s">
-        <v>31817</v>
+        <v>33257</v>
       </c>
       <c r="I40" t="s">
-        <v>31865</v>
+        <v>33305</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>31708</v>
+        <v>33148</v>
       </c>
       <c r="B41" t="s">
-        <v>31757</v>
+        <v>33197</v>
       </c>
       <c r="C41" t="s">
-        <v>31789</v>
+        <v>33229</v>
       </c>
       <c r="D41" s="1">
         <v>0.46000000834465027</v>
@@ -97331,21 +101651,21 @@
       </c>
       <c r="G41" s="1"/>
       <c r="H41" t="s">
-        <v>31817</v>
+        <v>33257</v>
       </c>
       <c r="I41" t="s">
-        <v>31866</v>
+        <v>33306</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>31708</v>
+        <v>33148</v>
       </c>
       <c r="B42" t="s">
-        <v>31758</v>
+        <v>33198</v>
       </c>
       <c r="C42" t="s">
-        <v>31789</v>
+        <v>33229</v>
       </c>
       <c r="D42" s="1">
         <v>0.60000002384185791</v>
@@ -97358,21 +101678,21 @@
       </c>
       <c r="G42" s="1"/>
       <c r="H42" t="s">
-        <v>31817</v>
+        <v>33257</v>
       </c>
       <c r="I42" t="s">
-        <v>31867</v>
+        <v>33307</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>31708</v>
+        <v>33148</v>
       </c>
       <c r="B43" t="s">
-        <v>31759</v>
+        <v>33199</v>
       </c>
       <c r="C43" t="s">
-        <v>31789</v>
+        <v>33229</v>
       </c>
       <c r="D43" s="1">
         <v>0.37000000476837158</v>
@@ -97385,21 +101705,21 @@
       </c>
       <c r="G43" s="1"/>
       <c r="H43" t="s">
-        <v>31817</v>
+        <v>33257</v>
       </c>
       <c r="I43" t="s">
-        <v>31868</v>
+        <v>33308</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>31709</v>
+        <v>33149</v>
       </c>
       <c r="B44" t="s">
-        <v>31760</v>
+        <v>33200</v>
       </c>
       <c r="C44" t="s">
-        <v>31789</v>
+        <v>33229</v>
       </c>
       <c r="D44" s="1">
         <v>0.5899999737739563</v>
@@ -97412,21 +101732,21 @@
       </c>
       <c r="G44" s="1"/>
       <c r="H44" t="s">
-        <v>31818</v>
+        <v>33258</v>
       </c>
       <c r="I44" t="s">
-        <v>31869</v>
+        <v>33309</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>31709</v>
+        <v>33149</v>
       </c>
       <c r="B45" t="s">
-        <v>31761</v>
+        <v>33201</v>
       </c>
       <c r="C45" t="s">
-        <v>31789</v>
+        <v>33229</v>
       </c>
       <c r="D45" s="1">
         <v>0.47999998927116394</v>
@@ -97439,21 +101759,21 @@
       </c>
       <c r="G45" s="1"/>
       <c r="H45" t="s">
-        <v>31818</v>
+        <v>33258</v>
       </c>
       <c r="I45" t="s">
-        <v>31870</v>
+        <v>33310</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>31710</v>
+        <v>33150</v>
       </c>
       <c r="B46" t="s">
-        <v>31762</v>
+        <v>33202</v>
       </c>
       <c r="C46" t="s">
-        <v>31790</v>
+        <v>33230</v>
       </c>
       <c r="D46" s="1">
         <v>0.77100002765655518</v>
@@ -97466,21 +101786,21 @@
       </c>
       <c r="G46" s="1"/>
       <c r="H46" t="s">
-        <v>31818</v>
+        <v>33258</v>
       </c>
       <c r="I46" t="s">
-        <v>31871</v>
+        <v>33311</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>31710</v>
+        <v>33150</v>
       </c>
       <c r="B47" t="s">
-        <v>31763</v>
+        <v>33203</v>
       </c>
       <c r="C47" t="s">
-        <v>31790</v>
+        <v>33230</v>
       </c>
       <c r="D47" s="1">
         <v>0.75199997425079346</v>
@@ -97493,21 +101813,21 @@
       </c>
       <c r="G47" s="1"/>
       <c r="H47" t="s">
-        <v>31818</v>
+        <v>33258</v>
       </c>
       <c r="I47" t="s">
-        <v>31872</v>
+        <v>33312</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>31711</v>
+        <v>33151</v>
       </c>
       <c r="B48" t="s">
-        <v>31764</v>
+        <v>33204</v>
       </c>
       <c r="C48" t="s">
-        <v>31791</v>
+        <v>33231</v>
       </c>
       <c r="D48" s="1">
         <v>0.54000002145767212</v>
@@ -97520,21 +101840,21 @@
       </c>
       <c r="G48" s="1"/>
       <c r="H48" t="s">
-        <v>31818</v>
+        <v>33258</v>
       </c>
       <c r="I48" t="s">
-        <v>31873</v>
+        <v>33313</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>31711</v>
+        <v>33151</v>
       </c>
       <c r="B49" t="s">
-        <v>31765</v>
+        <v>33205</v>
       </c>
       <c r="C49" t="s">
-        <v>31791</v>
+        <v>33231</v>
       </c>
       <c r="D49" s="1">
         <v>0.67000001668930054</v>
@@ -97547,21 +101867,21 @@
       </c>
       <c r="G49" s="1"/>
       <c r="H49" t="s">
-        <v>31818</v>
+        <v>33258</v>
       </c>
       <c r="I49" t="s">
-        <v>31874</v>
+        <v>33314</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>31711</v>
+        <v>33151</v>
       </c>
       <c r="B50" t="s">
-        <v>31766</v>
+        <v>33206</v>
       </c>
       <c r="C50" t="s">
-        <v>31791</v>
+        <v>33231</v>
       </c>
       <c r="D50" s="1">
         <v>0.60000002384185791</v>
@@ -97574,21 +101894,21 @@
       </c>
       <c r="G50" s="1"/>
       <c r="H50" t="s">
-        <v>31818</v>
+        <v>33258</v>
       </c>
       <c r="I50" t="s">
-        <v>31875</v>
+        <v>33315</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>31712</v>
+        <v>33152</v>
       </c>
       <c r="B51" t="s">
-        <v>31767</v>
+        <v>33207</v>
       </c>
       <c r="C51" t="s">
-        <v>31792</v>
+        <v>33232</v>
       </c>
       <c r="D51" s="1">
         <v>0.97600001096725464</v>
@@ -97601,21 +101921,21 @@
       </c>
       <c r="G51" s="1"/>
       <c r="H51" t="s">
-        <v>31819</v>
+        <v>33259</v>
       </c>
       <c r="I51" t="s">
-        <v>31876</v>
+        <v>33316</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>31712</v>
+        <v>33152</v>
       </c>
       <c r="B52" t="s">
-        <v>31768</v>
+        <v>33208</v>
       </c>
       <c r="C52" t="s">
-        <v>31792</v>
+        <v>33232</v>
       </c>
       <c r="D52" s="1">
         <v>0.92599999904632568</v>
@@ -97628,21 +101948,21 @@
       </c>
       <c r="G52" s="1"/>
       <c r="H52" t="s">
-        <v>31819</v>
+        <v>33259</v>
       </c>
       <c r="I52" t="s">
-        <v>31877</v>
+        <v>33317</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>31712</v>
+        <v>33152</v>
       </c>
       <c r="B53" t="s">
-        <v>31769</v>
+        <v>33209</v>
       </c>
       <c r="C53" t="s">
-        <v>31792</v>
+        <v>33232</v>
       </c>
       <c r="D53" s="1">
         <v>0.88300001621246338</v>
@@ -97655,21 +101975,21 @@
       </c>
       <c r="G53" s="1"/>
       <c r="H53" t="s">
-        <v>31819</v>
+        <v>33259</v>
       </c>
       <c r="I53" t="s">
-        <v>31878</v>
+        <v>33318</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>31713</v>
+        <v>33153</v>
       </c>
       <c r="B54" t="s">
-        <v>31770</v>
+        <v>33210</v>
       </c>
       <c r="C54" t="s">
-        <v>31793</v>
+        <v>33233</v>
       </c>
       <c r="D54" s="1">
         <v>0.6600000262260437</v>
@@ -97682,21 +102002,21 @@
       </c>
       <c r="G54" s="1"/>
       <c r="H54" t="s">
-        <v>31820</v>
+        <v>33260</v>
       </c>
       <c r="I54" t="s">
-        <v>31879</v>
+        <v>33319</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>31713</v>
+        <v>33153</v>
       </c>
       <c r="B55" t="s">
-        <v>31771</v>
+        <v>33211</v>
       </c>
       <c r="C55" t="s">
-        <v>31793</v>
+        <v>33233</v>
       </c>
       <c r="D55" s="1">
         <v>0.63999998569488525</v>
@@ -97709,21 +102029,21 @@
       </c>
       <c r="G55" s="1"/>
       <c r="H55" t="s">
-        <v>31820</v>
+        <v>33260</v>
       </c>
       <c r="I55" t="s">
-        <v>31880</v>
+        <v>33320</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>31714</v>
+        <v>33154</v>
       </c>
       <c r="B56" t="s">
-        <v>31772</v>
+        <v>33212</v>
       </c>
       <c r="C56" t="s">
-        <v>31794</v>
+        <v>33234</v>
       </c>
       <c r="D56" s="1">
         <v>0.89999997615814209</v>
@@ -97736,21 +102056,21 @@
       </c>
       <c r="G56" s="1"/>
       <c r="H56" t="s">
-        <v>31821</v>
+        <v>33261</v>
       </c>
       <c r="I56" t="s">
-        <v>31881</v>
+        <v>33321</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>31714</v>
+        <v>33154</v>
       </c>
       <c r="B57" t="s">
-        <v>31773</v>
+        <v>33213</v>
       </c>
       <c r="C57" t="s">
-        <v>31794</v>
+        <v>33234</v>
       </c>
       <c r="D57" s="1">
         <v>0.95999997854232788</v>
@@ -97763,21 +102083,21 @@
       </c>
       <c r="G57" s="1"/>
       <c r="H57" t="s">
-        <v>31821</v>
+        <v>33261</v>
       </c>
       <c r="I57" t="s">
-        <v>31882</v>
+        <v>33322</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>31715</v>
+        <v>33155</v>
       </c>
       <c r="B58" t="s">
-        <v>31774</v>
+        <v>33214</v>
       </c>
       <c r="C58" t="s">
-        <v>31795</v>
+        <v>33235</v>
       </c>
       <c r="D58" s="1">
         <v>0.4699999988079071</v>
@@ -97790,21 +102110,21 @@
       </c>
       <c r="G58" s="1"/>
       <c r="H58" t="s">
-        <v>31822</v>
+        <v>33262</v>
       </c>
       <c r="I58" t="s">
-        <v>31883</v>
+        <v>33323</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>31715</v>
+        <v>33155</v>
       </c>
       <c r="B59" t="s">
-        <v>31775</v>
+        <v>33215</v>
       </c>
       <c r="C59" t="s">
-        <v>31795</v>
+        <v>33235</v>
       </c>
       <c r="D59" s="1">
         <v>0.47999998927116394</v>
@@ -97817,21 +102137,21 @@
       </c>
       <c r="G59" s="1"/>
       <c r="H59" t="s">
-        <v>31822</v>
+        <v>33262</v>
       </c>
       <c r="I59" t="s">
-        <v>31884</v>
+        <v>33324</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>31715</v>
+        <v>33155</v>
       </c>
       <c r="B60" t="s">
-        <v>31776</v>
+        <v>33216</v>
       </c>
       <c r="C60" t="s">
-        <v>31796</v>
+        <v>33236</v>
       </c>
       <c r="D60" s="1">
         <v>0.43999999761581421</v>
@@ -97844,21 +102164,21 @@
       </c>
       <c r="G60" s="1"/>
       <c r="H60" t="s">
-        <v>31823</v>
+        <v>33263</v>
       </c>
       <c r="I60" t="s">
-        <v>31885</v>
+        <v>33325</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>31715</v>
+        <v>33155</v>
       </c>
       <c r="B61" t="s">
-        <v>31777</v>
+        <v>33217</v>
       </c>
       <c r="C61" t="s">
-        <v>31796</v>
+        <v>33236</v>
       </c>
       <c r="D61" s="1">
         <v>0.75999999046325684</v>
@@ -97871,21 +102191,21 @@
       </c>
       <c r="G61" s="1"/>
       <c r="H61" t="s">
-        <v>31823</v>
+        <v>33263</v>
       </c>
       <c r="I61" t="s">
-        <v>31886</v>
+        <v>33326</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>31716</v>
+        <v>33156</v>
       </c>
       <c r="B62" t="s">
-        <v>31778</v>
+        <v>33218</v>
       </c>
       <c r="C62" t="s">
-        <v>31796</v>
+        <v>33236</v>
       </c>
       <c r="D62" s="1">
         <v>0.81000000238418579</v>
@@ -97898,21 +102218,21 @@
       </c>
       <c r="G62" s="1"/>
       <c r="H62" t="s">
-        <v>31824</v>
+        <v>33264</v>
       </c>
       <c r="I62" t="s">
-        <v>31887</v>
+        <v>33327</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>31716</v>
+        <v>33156</v>
       </c>
       <c r="B63" t="s">
-        <v>31779</v>
+        <v>33219</v>
       </c>
       <c r="C63" t="s">
-        <v>31796</v>
+        <v>33236</v>
       </c>
       <c r="D63" s="1">
         <v>0.79000002145767212</v>
@@ -97925,21 +102245,21 @@
       </c>
       <c r="G63" s="1"/>
       <c r="H63" t="s">
-        <v>31824</v>
+        <v>33264</v>
       </c>
       <c r="I63" t="s">
-        <v>31888</v>
+        <v>33328</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>31717</v>
+        <v>33157</v>
       </c>
       <c r="B64" t="s">
-        <v>31780</v>
+        <v>33220</v>
       </c>
       <c r="C64" t="s">
-        <v>31797</v>
+        <v>33237</v>
       </c>
       <c r="D64" s="1">
         <v>0.6600000262260437</v>
@@ -97952,21 +102272,21 @@
       </c>
       <c r="G64" s="1"/>
       <c r="H64" t="s">
-        <v>31825</v>
+        <v>33265</v>
       </c>
       <c r="I64" t="s">
-        <v>31889</v>
+        <v>33329</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>31717</v>
+        <v>33157</v>
       </c>
       <c r="B65" t="s">
-        <v>31781</v>
+        <v>33221</v>
       </c>
       <c r="C65" t="s">
-        <v>31797</v>
+        <v>33237</v>
       </c>
       <c r="D65" s="1">
         <v>0.55000001192092896</v>
@@ -97979,10 +102299,10 @@
       </c>
       <c r="G65" s="1"/>
       <c r="H65" t="s">
-        <v>31825</v>
+        <v>33265</v>
       </c>
       <c r="I65" t="s">
-        <v>31890</v>
+        <v>33330</v>
       </c>
     </row>
   </sheetData>
@@ -97996,42 +102316,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>31891</v>
+        <v>33331</v>
       </c>
       <c r="B1" t="s">
-        <v>31913</v>
+        <v>33353</v>
       </c>
       <c r="C1" t="s">
-        <v>31960</v>
+        <v>33400</v>
       </c>
       <c r="D1" t="s">
-        <v>31970</v>
+        <v>33410</v>
       </c>
       <c r="E1" t="s">
-        <v>31971</v>
+        <v>33411</v>
       </c>
       <c r="F1" t="s">
-        <v>31972</v>
+        <v>33412</v>
       </c>
       <c r="G1" t="s">
-        <v>31973</v>
+        <v>33413</v>
       </c>
       <c r="H1" t="s">
-        <v>31985</v>
+        <v>33425</v>
       </c>
       <c r="I1" t="s">
-        <v>32006</v>
+        <v>33446</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>31892</v>
+        <v>33332</v>
       </c>
       <c r="B2" t="s">
-        <v>31914</v>
+        <v>33354</v>
       </c>
       <c r="C2" t="s">
-        <v>31961</v>
+        <v>33401</v>
       </c>
       <c r="D2" s="1">
         <v>0.5899999737739563</v>
@@ -98043,24 +102363,24 @@
         <v>0.81999999284744263</v>
       </c>
       <c r="G2" t="s">
-        <v>31974</v>
+        <v>33414</v>
       </c>
       <c r="H2" t="s">
-        <v>31986</v>
+        <v>33426</v>
       </c>
       <c r="I2" t="s">
-        <v>32007</v>
+        <v>33447</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>31892</v>
+        <v>33332</v>
       </c>
       <c r="B3" t="s">
-        <v>31915</v>
+        <v>33355</v>
       </c>
       <c r="C3" t="s">
-        <v>31961</v>
+        <v>33401</v>
       </c>
       <c r="D3" s="1">
         <v>0.18000000715255737</v>
@@ -98072,24 +102392,24 @@
         <v>1.4900000095367432</v>
       </c>
       <c r="G3" t="s">
-        <v>31974</v>
+        <v>33414</v>
       </c>
       <c r="H3" t="s">
-        <v>31986</v>
+        <v>33426</v>
       </c>
       <c r="I3" t="s">
-        <v>32008</v>
+        <v>33448</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>31893</v>
+        <v>33333</v>
       </c>
       <c r="B4" t="s">
-        <v>31916</v>
+        <v>33356</v>
       </c>
       <c r="C4" t="s">
-        <v>31961</v>
+        <v>33401</v>
       </c>
       <c r="D4" s="1">
         <v>0.37999999523162842</v>
@@ -98101,24 +102421,24 @@
         <v>0.6600000262260437</v>
       </c>
       <c r="G4" t="s">
-        <v>31974</v>
+        <v>33414</v>
       </c>
       <c r="H4" t="s">
-        <v>31987</v>
+        <v>33427</v>
       </c>
       <c r="I4" t="s">
-        <v>32009</v>
+        <v>33449</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>31893</v>
+        <v>33333</v>
       </c>
       <c r="B5" t="s">
-        <v>31917</v>
+        <v>33357</v>
       </c>
       <c r="C5" t="s">
-        <v>31961</v>
+        <v>33401</v>
       </c>
       <c r="D5" s="1">
         <v>0.44999998807907104</v>
@@ -98130,24 +102450,24 @@
         <v>0.57999998331069946</v>
       </c>
       <c r="G5" t="s">
-        <v>31974</v>
+        <v>33414</v>
       </c>
       <c r="H5" t="s">
-        <v>31987</v>
+        <v>33427</v>
       </c>
       <c r="I5" t="s">
-        <v>32010</v>
+        <v>33450</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>31894</v>
+        <v>33334</v>
       </c>
       <c r="B6" t="s">
-        <v>31918</v>
+        <v>33358</v>
       </c>
       <c r="C6" t="s">
-        <v>31961</v>
+        <v>33401</v>
       </c>
       <c r="D6" s="1">
         <v>0.75700002908706665</v>
@@ -98159,24 +102479,24 @@
         <v>0.96299999952316284</v>
       </c>
       <c r="G6" t="s">
-        <v>31975</v>
+        <v>33415</v>
       </c>
       <c r="H6" t="s">
-        <v>31988</v>
+        <v>33428</v>
       </c>
       <c r="I6" t="s">
-        <v>32011</v>
+        <v>33451</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>31894</v>
+        <v>33334</v>
       </c>
       <c r="B7" t="s">
-        <v>31919</v>
+        <v>33359</v>
       </c>
       <c r="C7" t="s">
-        <v>31961</v>
+        <v>33401</v>
       </c>
       <c r="D7" s="1">
         <v>0.92599999904632568</v>
@@ -98188,24 +102508,24 @@
         <v>1.2790000438690186</v>
       </c>
       <c r="G7" t="s">
-        <v>31976</v>
+        <v>33416</v>
       </c>
       <c r="H7" t="s">
-        <v>31988</v>
+        <v>33428</v>
       </c>
       <c r="I7" t="s">
-        <v>32012</v>
+        <v>33452</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31895</v>
+        <v>33335</v>
       </c>
       <c r="B8" t="s">
-        <v>31920</v>
+        <v>33360</v>
       </c>
       <c r="C8" t="s">
-        <v>31961</v>
+        <v>33401</v>
       </c>
       <c r="D8" s="1">
         <v>0.43999999761581421</v>
@@ -98217,24 +102537,24 @@
         <v>0.56000000238418579</v>
       </c>
       <c r="G8" t="s">
-        <v>31977</v>
+        <v>33417</v>
       </c>
       <c r="H8" t="s">
-        <v>31989</v>
+        <v>33429</v>
       </c>
       <c r="I8" t="s">
-        <v>32013</v>
+        <v>33453</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31895</v>
+        <v>33335</v>
       </c>
       <c r="B9" t="s">
-        <v>31921</v>
+        <v>33361</v>
       </c>
       <c r="C9" t="s">
-        <v>31961</v>
+        <v>33401</v>
       </c>
       <c r="D9" s="1">
         <v>0.80000001192092896</v>
@@ -98246,24 +102566,24 @@
         <v>1.1100000143051147</v>
       </c>
       <c r="G9" t="s">
-        <v>31977</v>
+        <v>33417</v>
       </c>
       <c r="H9" t="s">
-        <v>31989</v>
+        <v>33429</v>
       </c>
       <c r="I9" t="s">
-        <v>32014</v>
+        <v>33454</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>31896</v>
+        <v>33336</v>
       </c>
       <c r="B10" t="s">
-        <v>31922</v>
+        <v>33362</v>
       </c>
       <c r="C10" t="s">
-        <v>31961</v>
+        <v>33401</v>
       </c>
       <c r="D10" s="1">
         <v>0.56000000238418579</v>
@@ -98275,24 +102595,24 @@
         <v>0.97000002861022949</v>
       </c>
       <c r="G10" t="s">
-        <v>31977</v>
+        <v>33417</v>
       </c>
       <c r="H10" t="s">
-        <v>31990</v>
+        <v>33430</v>
       </c>
       <c r="I10" t="s">
-        <v>32015</v>
+        <v>33455</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>31896</v>
+        <v>33336</v>
       </c>
       <c r="B11" t="s">
-        <v>31923</v>
+        <v>33363</v>
       </c>
       <c r="C11" t="s">
-        <v>31961</v>
+        <v>33401</v>
       </c>
       <c r="D11" s="1">
         <v>0.50999999046325684</v>
@@ -98304,24 +102624,24 @@
         <v>1.190000057220459</v>
       </c>
       <c r="G11" t="s">
-        <v>31977</v>
+        <v>33417</v>
       </c>
       <c r="H11" t="s">
-        <v>31990</v>
+        <v>33430</v>
       </c>
       <c r="I11" t="s">
-        <v>32016</v>
+        <v>33456</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>31897</v>
+        <v>33337</v>
       </c>
       <c r="B12" t="s">
-        <v>31924</v>
+        <v>33364</v>
       </c>
       <c r="C12" t="s">
-        <v>31961</v>
+        <v>33401</v>
       </c>
       <c r="D12" s="1">
         <v>0.36000001430511475</v>
@@ -98333,24 +102653,24 @@
         <v>0.82999998331069946</v>
       </c>
       <c r="G12" t="s">
-        <v>31977</v>
+        <v>33417</v>
       </c>
       <c r="H12" t="s">
-        <v>31991</v>
+        <v>33431</v>
       </c>
       <c r="I12" t="s">
-        <v>32017</v>
+        <v>33457</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>31897</v>
+        <v>33337</v>
       </c>
       <c r="B13" t="s">
-        <v>31925</v>
+        <v>33365</v>
       </c>
       <c r="C13" t="s">
-        <v>31961</v>
+        <v>33401</v>
       </c>
       <c r="D13" s="1">
         <v>0.6600000262260437</v>
@@ -98362,24 +102682,24 @@
         <v>0.89999997615814209</v>
       </c>
       <c r="G13" t="s">
-        <v>31977</v>
+        <v>33417</v>
       </c>
       <c r="H13" t="s">
-        <v>31991</v>
+        <v>33431</v>
       </c>
       <c r="I13" t="s">
-        <v>32018</v>
+        <v>33458</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>31898</v>
+        <v>33338</v>
       </c>
       <c r="B14" t="s">
-        <v>31926</v>
+        <v>33366</v>
       </c>
       <c r="C14" t="s">
-        <v>31961</v>
+        <v>33401</v>
       </c>
       <c r="D14" s="1">
         <v>0.55299997329711914</v>
@@ -98391,24 +102711,24 @@
         <v>0.9309999942779541</v>
       </c>
       <c r="G14" t="s">
-        <v>31978</v>
+        <v>33418</v>
       </c>
       <c r="H14" t="s">
-        <v>31992</v>
+        <v>33432</v>
       </c>
       <c r="I14" t="s">
-        <v>32019</v>
+        <v>33459</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>31898</v>
+        <v>33338</v>
       </c>
       <c r="B15" t="s">
-        <v>31927</v>
+        <v>33367</v>
       </c>
       <c r="C15" t="s">
-        <v>31961</v>
+        <v>33401</v>
       </c>
       <c r="D15" s="1">
         <v>0.76599997282028198</v>
@@ -98420,24 +102740,24 @@
         <v>3.9639999866485596</v>
       </c>
       <c r="G15" t="s">
-        <v>31978</v>
+        <v>33418</v>
       </c>
       <c r="H15" t="s">
-        <v>31992</v>
+        <v>33432</v>
       </c>
       <c r="I15" t="s">
-        <v>32020</v>
+        <v>33460</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>31898</v>
+        <v>33338</v>
       </c>
       <c r="B16" t="s">
-        <v>31928</v>
+        <v>33368</v>
       </c>
       <c r="C16" t="s">
-        <v>31962</v>
+        <v>33402</v>
       </c>
       <c r="D16" s="1">
         <v>0.39800000190734863</v>
@@ -98449,24 +102769,24 @@
         <v>0.71899998188018799</v>
       </c>
       <c r="G16" t="s">
-        <v>31978</v>
+        <v>33418</v>
       </c>
       <c r="H16" t="s">
-        <v>31993</v>
+        <v>33433</v>
       </c>
       <c r="I16" t="s">
-        <v>32021</v>
+        <v>33461</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31898</v>
+        <v>33338</v>
       </c>
       <c r="B17" t="s">
-        <v>31929</v>
+        <v>33369</v>
       </c>
       <c r="C17" t="s">
-        <v>31962</v>
+        <v>33402</v>
       </c>
       <c r="D17" s="1">
         <v>0.49799999594688416</v>
@@ -98478,24 +102798,24 @@
         <v>2.4030001163482666</v>
       </c>
       <c r="G17" t="s">
-        <v>31978</v>
+        <v>33418</v>
       </c>
       <c r="H17" t="s">
-        <v>31993</v>
+        <v>33433</v>
       </c>
       <c r="I17" t="s">
-        <v>32022</v>
+        <v>33462</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>31899</v>
+        <v>33339</v>
       </c>
       <c r="B18" t="s">
-        <v>31930</v>
+        <v>33370</v>
       </c>
       <c r="C18" t="s">
-        <v>31963</v>
+        <v>33403</v>
       </c>
       <c r="D18" s="1">
         <v>0.87000000476837158</v>
@@ -98507,24 +102827,24 @@
         <v>1.2899999618530273</v>
       </c>
       <c r="G18" t="s">
-        <v>31979</v>
+        <v>33419</v>
       </c>
       <c r="H18" t="s">
-        <v>31994</v>
+        <v>33434</v>
       </c>
       <c r="I18" t="s">
-        <v>32023</v>
+        <v>33463</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>31899</v>
+        <v>33339</v>
       </c>
       <c r="B19" t="s">
-        <v>31931</v>
+        <v>33371</v>
       </c>
       <c r="C19" t="s">
-        <v>31963</v>
+        <v>33403</v>
       </c>
       <c r="D19" s="1">
         <v>0.38999998569488525</v>
@@ -98536,24 +102856,24 @@
         <v>0.80000001192092896</v>
       </c>
       <c r="G19" t="s">
-        <v>31979</v>
+        <v>33419</v>
       </c>
       <c r="H19" t="s">
-        <v>31994</v>
+        <v>33434</v>
       </c>
       <c r="I19" t="s">
-        <v>32024</v>
+        <v>33464</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>31900</v>
+        <v>33340</v>
       </c>
       <c r="B20" t="s">
-        <v>31932</v>
+        <v>33372</v>
       </c>
       <c r="C20" t="s">
-        <v>31963</v>
+        <v>33403</v>
       </c>
       <c r="D20" s="1">
         <v>0.61000001430511475</v>
@@ -98565,24 +102885,24 @@
         <v>1.1699999570846558</v>
       </c>
       <c r="G20" t="s">
-        <v>31979</v>
+        <v>33419</v>
       </c>
       <c r="H20" t="s">
-        <v>31995</v>
+        <v>33435</v>
       </c>
       <c r="I20" t="s">
-        <v>32025</v>
+        <v>33465</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>31900</v>
+        <v>33340</v>
       </c>
       <c r="B21" t="s">
-        <v>31933</v>
+        <v>33373</v>
       </c>
       <c r="C21" t="s">
-        <v>31963</v>
+        <v>33403</v>
       </c>
       <c r="D21" s="1">
         <v>0.75</v>
@@ -98594,24 +102914,24 @@
         <v>1.3600000143051147</v>
       </c>
       <c r="G21" t="s">
-        <v>31979</v>
+        <v>33419</v>
       </c>
       <c r="H21" t="s">
-        <v>31995</v>
+        <v>33435</v>
       </c>
       <c r="I21" t="s">
-        <v>32026</v>
+        <v>33466</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>31900</v>
+        <v>33340</v>
       </c>
       <c r="B22" t="s">
-        <v>31934</v>
+        <v>33374</v>
       </c>
       <c r="C22" t="s">
-        <v>31964</v>
+        <v>33404</v>
       </c>
       <c r="D22" s="1">
         <v>5.9000000953674316</v>
@@ -98623,24 +102943,24 @@
         <v>46.099998474121094</v>
       </c>
       <c r="G22" t="s">
-        <v>31979</v>
+        <v>33419</v>
       </c>
       <c r="H22" t="s">
-        <v>31996</v>
+        <v>33436</v>
       </c>
       <c r="I22" t="s">
-        <v>32027</v>
+        <v>33467</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>31900</v>
+        <v>33340</v>
       </c>
       <c r="B23" t="s">
-        <v>31935</v>
+        <v>33375</v>
       </c>
       <c r="C23" t="s">
-        <v>31964</v>
+        <v>33404</v>
       </c>
       <c r="D23" s="1">
         <v>1.8200000524520874</v>
@@ -98652,24 +102972,24 @@
         <v>5.1399998664855957</v>
       </c>
       <c r="G23" t="s">
-        <v>31979</v>
+        <v>33419</v>
       </c>
       <c r="H23" t="s">
-        <v>31996</v>
+        <v>33436</v>
       </c>
       <c r="I23" t="s">
-        <v>32028</v>
+        <v>33468</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31901</v>
+        <v>33341</v>
       </c>
       <c r="B24" t="s">
-        <v>31936</v>
+        <v>33376</v>
       </c>
       <c r="C24" t="s">
-        <v>31965</v>
+        <v>33405</v>
       </c>
       <c r="D24" s="1">
         <v>0.5899999737739563</v>
@@ -98681,24 +103001,24 @@
         <v>1.3999999761581421</v>
       </c>
       <c r="G24" t="s">
-        <v>31979</v>
+        <v>33419</v>
       </c>
       <c r="H24" t="s">
-        <v>31997</v>
+        <v>33437</v>
       </c>
       <c r="I24" t="s">
-        <v>32029</v>
+        <v>33469</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>31901</v>
+        <v>33341</v>
       </c>
       <c r="B25" t="s">
-        <v>31937</v>
+        <v>33377</v>
       </c>
       <c r="C25" t="s">
-        <v>31965</v>
+        <v>33405</v>
       </c>
       <c r="D25" s="1">
         <v>0.69999998807907104</v>
@@ -98710,24 +103030,24 @@
         <v>0.87000000476837158</v>
       </c>
       <c r="G25" t="s">
-        <v>31979</v>
+        <v>33419</v>
       </c>
       <c r="H25" t="s">
-        <v>31997</v>
+        <v>33437</v>
       </c>
       <c r="I25" t="s">
-        <v>32030</v>
+        <v>33470</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>31902</v>
+        <v>33342</v>
       </c>
       <c r="B26" t="s">
-        <v>31938</v>
+        <v>33378</v>
       </c>
       <c r="C26" t="s">
-        <v>31965</v>
+        <v>33405</v>
       </c>
       <c r="D26" s="1">
         <v>0.38999998569488525</v>
@@ -98739,24 +103059,24 @@
         <v>0.68999999761581421</v>
       </c>
       <c r="G26" t="s">
-        <v>31979</v>
+        <v>33419</v>
       </c>
       <c r="H26" t="s">
-        <v>31998</v>
+        <v>33438</v>
       </c>
       <c r="I26" t="s">
-        <v>32031</v>
+        <v>33471</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>31902</v>
+        <v>33342</v>
       </c>
       <c r="B27" t="s">
-        <v>31939</v>
+        <v>33379</v>
       </c>
       <c r="C27" t="s">
-        <v>31965</v>
+        <v>33405</v>
       </c>
       <c r="D27" s="1">
         <v>0.15999999642372131</v>
@@ -98768,24 +103088,24 @@
         <v>0.40000000596046448</v>
       </c>
       <c r="G27" t="s">
-        <v>31979</v>
+        <v>33419</v>
       </c>
       <c r="H27" t="s">
-        <v>31998</v>
+        <v>33438</v>
       </c>
       <c r="I27" t="s">
-        <v>32032</v>
+        <v>33472</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>31903</v>
+        <v>33343</v>
       </c>
       <c r="B28" t="s">
-        <v>31940</v>
+        <v>33380</v>
       </c>
       <c r="C28" t="s">
-        <v>31965</v>
+        <v>33405</v>
       </c>
       <c r="D28" s="1">
         <v>0.46000000834465027</v>
@@ -98797,24 +103117,24 @@
         <v>0.6600000262260437</v>
       </c>
       <c r="G28" t="s">
-        <v>31979</v>
+        <v>33419</v>
       </c>
       <c r="H28" t="s">
-        <v>31998</v>
+        <v>33438</v>
       </c>
       <c r="I28" t="s">
-        <v>32033</v>
+        <v>33473</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>31903</v>
+        <v>33343</v>
       </c>
       <c r="B29" t="s">
-        <v>31941</v>
+        <v>33381</v>
       </c>
       <c r="C29" t="s">
-        <v>31965</v>
+        <v>33405</v>
       </c>
       <c r="D29" s="1">
         <v>0.30000001192092896</v>
@@ -98826,24 +103146,24 @@
         <v>0.44999998807907104</v>
       </c>
       <c r="G29" t="s">
-        <v>31979</v>
+        <v>33419</v>
       </c>
       <c r="H29" t="s">
-        <v>31998</v>
+        <v>33438</v>
       </c>
       <c r="I29" t="s">
-        <v>32034</v>
+        <v>33474</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>31904</v>
+        <v>33344</v>
       </c>
       <c r="B30" t="s">
-        <v>31942</v>
+        <v>33382</v>
       </c>
       <c r="C30" t="s">
-        <v>31965</v>
+        <v>33405</v>
       </c>
       <c r="D30" s="1">
         <v>0.5</v>
@@ -98855,24 +103175,24 @@
         <v>1.059999942779541</v>
       </c>
       <c r="G30" t="s">
-        <v>31979</v>
+        <v>33419</v>
       </c>
       <c r="H30" t="s">
-        <v>31999</v>
+        <v>33439</v>
       </c>
       <c r="I30" t="s">
-        <v>32035</v>
+        <v>33475</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>31904</v>
+        <v>33344</v>
       </c>
       <c r="B31" t="s">
-        <v>31943</v>
+        <v>33383</v>
       </c>
       <c r="C31" t="s">
-        <v>31965</v>
+        <v>33405</v>
       </c>
       <c r="D31" s="1">
         <v>0.47999998927116394</v>
@@ -98884,24 +103204,24 @@
         <v>0.76999998092651367</v>
       </c>
       <c r="G31" t="s">
-        <v>31979</v>
+        <v>33419</v>
       </c>
       <c r="H31" t="s">
-        <v>31999</v>
+        <v>33439</v>
       </c>
       <c r="I31" t="s">
-        <v>32036</v>
+        <v>33476</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>31905</v>
+        <v>33345</v>
       </c>
       <c r="B32" t="s">
-        <v>31944</v>
+        <v>33384</v>
       </c>
       <c r="C32" t="s">
-        <v>31965</v>
+        <v>33405</v>
       </c>
       <c r="D32" s="1">
         <v>1.6200000047683716</v>
@@ -98913,24 +103233,24 @@
         <v>2.4100000858306885</v>
       </c>
       <c r="G32" t="s">
-        <v>31979</v>
+        <v>33419</v>
       </c>
       <c r="H32" t="s">
-        <v>31999</v>
+        <v>33439</v>
       </c>
       <c r="I32" t="s">
-        <v>32037</v>
+        <v>33477</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>31905</v>
+        <v>33345</v>
       </c>
       <c r="B33" t="s">
-        <v>31945</v>
+        <v>33385</v>
       </c>
       <c r="C33" t="s">
-        <v>31965</v>
+        <v>33405</v>
       </c>
       <c r="D33" s="1">
         <v>2.0099999904632568</v>
@@ -98942,24 +103262,24 @@
         <v>2.8399999141693115</v>
       </c>
       <c r="G33" t="s">
-        <v>31979</v>
+        <v>33419</v>
       </c>
       <c r="H33" t="s">
-        <v>31999</v>
+        <v>33439</v>
       </c>
       <c r="I33" t="s">
-        <v>32038</v>
+        <v>33478</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>31906</v>
+        <v>33346</v>
       </c>
       <c r="B34" t="s">
-        <v>31946</v>
+        <v>33386</v>
       </c>
       <c r="C34" t="s">
-        <v>31966</v>
+        <v>33406</v>
       </c>
       <c r="D34" s="1">
         <v>0.95999997854232788</v>
@@ -98971,24 +103291,24 @@
         <v>1.2560000419616699</v>
       </c>
       <c r="G34" t="s">
-        <v>31980</v>
+        <v>33420</v>
       </c>
       <c r="H34" t="s">
-        <v>32000</v>
+        <v>33440</v>
       </c>
       <c r="I34" t="s">
-        <v>32039</v>
+        <v>33479</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>31906</v>
+        <v>33346</v>
       </c>
       <c r="B35" t="s">
-        <v>31947</v>
+        <v>33387</v>
       </c>
       <c r="C35" t="s">
-        <v>31966</v>
+        <v>33406</v>
       </c>
       <c r="D35" s="1">
         <v>1.0800000429153442</v>
@@ -99000,24 +103320,24 @@
         <v>1.3609999418258667</v>
       </c>
       <c r="G35" t="s">
-        <v>31980</v>
+        <v>33420</v>
       </c>
       <c r="H35" t="s">
-        <v>32000</v>
+        <v>33440</v>
       </c>
       <c r="I35" t="s">
-        <v>32040</v>
+        <v>33480</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>31907</v>
+        <v>33347</v>
       </c>
       <c r="B36" t="s">
-        <v>31948</v>
+        <v>33388</v>
       </c>
       <c r="C36" t="s">
-        <v>31966</v>
+        <v>33406</v>
       </c>
       <c r="D36" s="1">
         <v>0.87699997425079346</v>
@@ -99029,24 +103349,24 @@
         <v>1.156000018119812</v>
       </c>
       <c r="G36" t="s">
-        <v>31981</v>
+        <v>33421</v>
       </c>
       <c r="H36" t="s">
-        <v>32001</v>
+        <v>33441</v>
       </c>
       <c r="I36" t="s">
-        <v>32041</v>
+        <v>33481</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>31907</v>
+        <v>33347</v>
       </c>
       <c r="B37" t="s">
-        <v>31949</v>
+        <v>33389</v>
       </c>
       <c r="C37" t="s">
-        <v>31966</v>
+        <v>33406</v>
       </c>
       <c r="D37" s="1">
         <v>0.68400001525878906</v>
@@ -99058,24 +103378,24 @@
         <v>0.875</v>
       </c>
       <c r="G37" t="s">
-        <v>31981</v>
+        <v>33421</v>
       </c>
       <c r="H37" t="s">
-        <v>32001</v>
+        <v>33441</v>
       </c>
       <c r="I37" t="s">
-        <v>32042</v>
+        <v>33482</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>31907</v>
+        <v>33347</v>
       </c>
       <c r="B38" t="s">
-        <v>31950</v>
+        <v>33390</v>
       </c>
       <c r="C38" t="s">
-        <v>31966</v>
+        <v>33406</v>
       </c>
       <c r="D38" s="1">
         <v>0.85699999332427979</v>
@@ -99087,24 +103407,24 @@
         <v>1.1779999732971191</v>
       </c>
       <c r="G38" t="s">
-        <v>31981</v>
+        <v>33421</v>
       </c>
       <c r="H38" t="s">
-        <v>32001</v>
+        <v>33441</v>
       </c>
       <c r="I38" t="s">
-        <v>32043</v>
+        <v>33483</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>31908</v>
+        <v>33348</v>
       </c>
       <c r="B39" t="s">
-        <v>31950</v>
+        <v>33390</v>
       </c>
       <c r="C39" t="s">
-        <v>31967</v>
+        <v>33407</v>
       </c>
       <c r="D39" s="1">
         <v>0.64999997615814209</v>
@@ -99116,24 +103436,24 @@
         <v>0.8399999737739563</v>
       </c>
       <c r="G39" t="s">
-        <v>31982</v>
+        <v>33422</v>
       </c>
       <c r="H39" t="s">
-        <v>32001</v>
+        <v>33441</v>
       </c>
       <c r="I39" t="s">
-        <v>32044</v>
+        <v>33484</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>31908</v>
+        <v>33348</v>
       </c>
       <c r="B40" t="s">
-        <v>31951</v>
+        <v>33391</v>
       </c>
       <c r="C40" t="s">
-        <v>31967</v>
+        <v>33407</v>
       </c>
       <c r="D40" s="1">
         <v>0.47999998927116394</v>
@@ -99145,24 +103465,24 @@
         <v>0.75</v>
       </c>
       <c r="G40" t="s">
-        <v>31982</v>
+        <v>33422</v>
       </c>
       <c r="H40" t="s">
-        <v>32001</v>
+        <v>33441</v>
       </c>
       <c r="I40" t="s">
-        <v>32045</v>
+        <v>33485</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>31909</v>
+        <v>33349</v>
       </c>
       <c r="B41" t="s">
-        <v>31952</v>
+        <v>33392</v>
       </c>
       <c r="C41" t="s">
-        <v>31968</v>
+        <v>33408</v>
       </c>
       <c r="D41" s="1">
         <v>0.78100001811981201</v>
@@ -99174,24 +103494,24 @@
         <v>1.3220000267028809</v>
       </c>
       <c r="G41" t="s">
-        <v>31983</v>
+        <v>33423</v>
       </c>
       <c r="H41" t="s">
-        <v>32002</v>
+        <v>33442</v>
       </c>
       <c r="I41" t="s">
-        <v>32046</v>
+        <v>33486</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>31909</v>
+        <v>33349</v>
       </c>
       <c r="B42" t="s">
-        <v>31953</v>
+        <v>33393</v>
       </c>
       <c r="C42" t="s">
-        <v>31968</v>
+        <v>33408</v>
       </c>
       <c r="D42" s="1">
         <v>0.97500002384185791</v>
@@ -99203,24 +103523,24 @@
         <v>1.1829999685287476</v>
       </c>
       <c r="G42" t="s">
-        <v>31983</v>
+        <v>33423</v>
       </c>
       <c r="H42" t="s">
-        <v>32002</v>
+        <v>33442</v>
       </c>
       <c r="I42" t="s">
-        <v>32047</v>
+        <v>33487</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>31910</v>
+        <v>33350</v>
       </c>
       <c r="B43" t="s">
-        <v>31954</v>
+        <v>33394</v>
       </c>
       <c r="C43" t="s">
-        <v>31968</v>
+        <v>33408</v>
       </c>
       <c r="D43" s="1">
         <v>0.93000000715255737</v>
@@ -99232,24 +103552,24 @@
         <v>1.309999942779541</v>
       </c>
       <c r="G43" t="s">
-        <v>31984</v>
+        <v>33424</v>
       </c>
       <c r="H43" t="s">
-        <v>32003</v>
+        <v>33443</v>
       </c>
       <c r="I43" t="s">
-        <v>32048</v>
+        <v>33488</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>31910</v>
+        <v>33350</v>
       </c>
       <c r="B44" t="s">
-        <v>31955</v>
+        <v>33395</v>
       </c>
       <c r="C44" t="s">
-        <v>31968</v>
+        <v>33408</v>
       </c>
       <c r="D44" s="1">
         <v>0.93999999761581421</v>
@@ -99261,24 +103581,24 @@
         <v>1.190000057220459</v>
       </c>
       <c r="G44" t="s">
-        <v>31984</v>
+        <v>33424</v>
       </c>
       <c r="H44" t="s">
-        <v>32003</v>
+        <v>33443</v>
       </c>
       <c r="I44" t="s">
-        <v>32049</v>
+        <v>33489</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>31911</v>
+        <v>33351</v>
       </c>
       <c r="B45" t="s">
-        <v>31956</v>
+        <v>33396</v>
       </c>
       <c r="C45" t="s">
-        <v>31969</v>
+        <v>33409</v>
       </c>
       <c r="D45" s="1">
         <v>0.63999998569488525</v>
@@ -99290,24 +103610,24 @@
         <v>0.9100000262260437</v>
       </c>
       <c r="G45" t="s">
-        <v>31984</v>
+        <v>33424</v>
       </c>
       <c r="H45" t="s">
-        <v>32004</v>
+        <v>33444</v>
       </c>
       <c r="I45" t="s">
-        <v>32050</v>
+        <v>33490</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>31911</v>
+        <v>33351</v>
       </c>
       <c r="B46" t="s">
-        <v>31957</v>
+        <v>33397</v>
       </c>
       <c r="C46" t="s">
-        <v>31969</v>
+        <v>33409</v>
       </c>
       <c r="D46" s="1">
         <v>0.72000002861022949</v>
@@ -99319,24 +103639,24 @@
         <v>0.89999997615814209</v>
       </c>
       <c r="G46" t="s">
-        <v>31984</v>
+        <v>33424</v>
       </c>
       <c r="H46" t="s">
-        <v>32004</v>
+        <v>33444</v>
       </c>
       <c r="I46" t="s">
-        <v>32051</v>
+        <v>33491</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>31912</v>
+        <v>33352</v>
       </c>
       <c r="B47" t="s">
-        <v>31958</v>
+        <v>33398</v>
       </c>
       <c r="C47" t="s">
-        <v>31969</v>
+        <v>33409</v>
       </c>
       <c r="D47" s="1">
         <v>0.46000000834465027</v>
@@ -99348,24 +103668,24 @@
         <v>0.73000001907348633</v>
       </c>
       <c r="G47" t="s">
-        <v>31984</v>
+        <v>33424</v>
       </c>
       <c r="H47" t="s">
-        <v>32005</v>
+        <v>33445</v>
       </c>
       <c r="I47" t="s">
-        <v>32052</v>
+        <v>33492</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>31912</v>
+        <v>33352</v>
       </c>
       <c r="B48" t="s">
-        <v>31959</v>
+        <v>33399</v>
       </c>
       <c r="C48" t="s">
-        <v>31969</v>
+        <v>33409</v>
       </c>
       <c r="D48" s="1">
         <v>0.62999999523162842</v>
@@ -99377,13 +103697,13 @@
         <v>0.89999997615814209</v>
       </c>
       <c r="G48" t="s">
-        <v>31984</v>
+        <v>33424</v>
       </c>
       <c r="H48" t="s">
-        <v>32005</v>
+        <v>33445</v>
       </c>
       <c r="I48" t="s">
-        <v>32053</v>
+        <v>33493</v>
       </c>
     </row>
   </sheetData>

--- a/products/Exported Data.xlsx
+++ b/products/Exported Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57117" uniqueCount="33494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60875" uniqueCount="35688">
   <si>
     <t>Study</t>
   </si>
@@ -94955,6 +94955,6588 @@
   </si>
   <si>
     <t>Data Extraction Errors</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Study: Treatment 1 vs Treatment 2</t>
+  </si>
+  <si>
+    <t>Attal 2019 (ICARIA-MM): IsPd vs Pd</t>
+  </si>
+  <si>
+    <t>Bahlis 2020 (POLLUX): DRd vs Rd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2013 (VANTAGE 088): VorV vs V</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2016 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-3): EPd vs Pd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2020 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2021 (APOLLO): DPd vs Pd</t>
+  </si>
+  <si>
+    <t>Grosicki 2020 (BOSTON): SeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Hou 2017 (China Cont.): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>Jakubowiak 2016 (NCT01478048): EVd vs Vd</t>
+  </si>
+  <si>
+    <t>Kumar 2020 (BELLINI): VeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Lu 2021 (LEPUS): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Mateos 2020 (CASTOR): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Moreau 2021 (IKEMA): IsKd vs Kd</t>
+  </si>
+  <si>
+    <t>Orlowski 2019 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2019 (OPTIMISMM): PVd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2021 (TOURMALINE-MM1): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2014 (PANORAMA-1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2016 (PANORAMA 1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2013 (MM-003): Pd vs GC</t>
+  </si>
+  <si>
+    <t>Siegel 2018 (ASPIRE): KRd vs Rd</t>
+  </si>
+  <si>
+    <t>Usamani 2022 (CANDOR): DKd vs Kd</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;=3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;=2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Lower 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>Upper 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t>Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      AT 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t>Data Extraction Errors</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Study: Treatment 1 vs Treatment 2</t>
+  </si>
+  <si>
+    <t>Attal 2019 (ICARIA-MM): IsPd vs Pd</t>
+  </si>
+  <si>
+    <t>Bahlis 2020 (POLLUX): DRd vs Rd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2013 (VANTAGE 088): VorV vs V</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2016 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-3): EPd vs Pd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2021 (APOLLO): DPd vs Pd</t>
+  </si>
+  <si>
+    <t>Hou 2017 (China Cont.): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>Jakubowiak 2016 (NCT01478048): EVd vs Vd</t>
+  </si>
+  <si>
+    <t>Kumar 2020 (BELLINI): VeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Lonial 2015 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Lu 2021 (LEPUS): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Mateos 2020 (CASTOR): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Moreau 2021 (IKEMA): IsKd vs Kd</t>
+  </si>
+  <si>
+    <t>Orlowski 2007 (NCT00103506): V vs DoxV</t>
+  </si>
+  <si>
+    <t>Orlowski 2016 (NCT00103506): V vs DoxV</t>
+  </si>
+  <si>
+    <t>Orlowski 2019 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2019 (OPTIMISMM): PVd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2021 (TOURMALINE-MM1): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2016 (PANORAMA 1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>Stewart 2015 (ASPIRE): KRd vs Rd</t>
+  </si>
+  <si>
+    <t>Usmani 2022 (CANDOR): DKd vs Kd</t>
+  </si>
+  <si>
+    <t>refract</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Ref. to R and a PI</t>
+  </si>
+  <si>
+    <t>Not ref. to R and a PI</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous R or T use</t>
+  </si>
+  <si>
+    <t>No previous R or T use</t>
+  </si>
+  <si>
+    <t>Previous R or T use</t>
+  </si>
+  <si>
+    <t>No previous R or T use</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Refractory to T</t>
+  </si>
+  <si>
+    <t>Not refractory to T</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No previous IMiD use</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Lower 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>Upper 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0230</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .       Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t>Data Extraction Errors</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Study: Treatment 1 vs Treatment 2</t>
+  </si>
+  <si>
+    <t>Attal 2019 (ICARIA-MM): IsPd vs Pd</t>
+  </si>
+  <si>
+    <t>Bahlis 2020 (POLLUX): DRd vs Rd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2013 (VANTAGE 088): VorV vs V</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2016 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-3): EPd vs Pd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2020 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2021 (APOLLO): DPd vs Pd</t>
+  </si>
+  <si>
+    <t>Grosicki 2020 (BOSTON): SeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Hou 2017 (China Cont.): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>Jakubowiak 2016 (NCT01478048): EVd vs Vd</t>
+  </si>
+  <si>
+    <t>Kumar 2020 (BELLINI): VeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Lu 2021 (LEPUS): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Mateos 2020 (CASTOR): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Moreau 2021 (IKEMA): IsKd vs Kd</t>
+  </si>
+  <si>
+    <t>Orlowski 2019 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2019 (OPTIMISMM): PVd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2021 (TOURMALINE-MM1): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2014 (PANORAMA-1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2016 (PANORAMA 1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2013 (MM-003): Pd vs GC</t>
+  </si>
+  <si>
+    <t>Siegel 2018 (ASPIRE): KRd vs Rd</t>
+  </si>
+  <si>
+    <t>Usamani 2022 (CANDOR): DKd vs Kd</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;=3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;=2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Lower 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>Upper 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t>Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      AT 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t>Data Extraction Errors</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Study: Treatment 1 vs Treatment 2</t>
+  </si>
+  <si>
+    <t>Attal 2019 (ICARIA-MM): IsPd vs Pd</t>
+  </si>
+  <si>
+    <t>Bahlis 2020 (POLLUX): DRd vs Rd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2013 (VANTAGE 088): VorV vs V</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2016 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-3): EPd vs Pd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2021 (APOLLO): DPd vs Pd</t>
+  </si>
+  <si>
+    <t>Hou 2017 (China Cont.): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>Jakubowiak 2016 (NCT01478048): EVd vs Vd</t>
+  </si>
+  <si>
+    <t>Kumar 2020 (BELLINI): VeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Lonial 2015 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Lu 2021 (LEPUS): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Mateos 2020 (CASTOR): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Moreau 2021 (IKEMA): IsKd vs Kd</t>
+  </si>
+  <si>
+    <t>Orlowski 2007 (NCT00103506): V vs DoxV</t>
+  </si>
+  <si>
+    <t>Orlowski 2016 (NCT00103506): V vs DoxV</t>
+  </si>
+  <si>
+    <t>Orlowski 2019 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2019 (OPTIMISMM): PVd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2021 (TOURMALINE-MM1): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2016 (PANORAMA 1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>Stewart 2015 (ASPIRE): KRd vs Rd</t>
+  </si>
+  <si>
+    <t>Usmani 2022 (CANDOR): DKd vs Kd</t>
+  </si>
+  <si>
+    <t>refract</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Ref. to R and a PI</t>
+  </si>
+  <si>
+    <t>Not ref. to R and a PI</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous R or T use</t>
+  </si>
+  <si>
+    <t>No previous R or T use</t>
+  </si>
+  <si>
+    <t>Previous R or T use</t>
+  </si>
+  <si>
+    <t>No previous R or T use</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Refractory to T</t>
+  </si>
+  <si>
+    <t>Not refractory to T</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No previous IMiD use</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Lower 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>Upper 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0230</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .       Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t>Data Extraction Errors</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Study: Treatment 1 vs Treatment 2</t>
+  </si>
+  <si>
+    <t>Attal 2019 (ICARIA-MM): IsPd vs Pd</t>
+  </si>
+  <si>
+    <t>Bahlis 2020 (POLLUX): DRd vs Rd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2013 (VANTAGE 088): VorV vs V</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2016 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-3): EPd vs Pd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2020 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2021 (APOLLO): DPd vs Pd</t>
+  </si>
+  <si>
+    <t>Grosicki 2020 (BOSTON): SeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Hou 2017 (China Cont.): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>Jakubowiak 2016 (NCT01478048): EVd vs Vd</t>
+  </si>
+  <si>
+    <t>Kumar 2020 (BELLINI): VeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Lu 2021 (LEPUS): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Mateos 2020 (CASTOR): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Moreau 2021 (IKEMA): IsKd vs Kd</t>
+  </si>
+  <si>
+    <t>Orlowski 2019 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2019 (OPTIMISMM): PVd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2021 (TOURMALINE-MM1): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2014 (PANORAMA-1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2016 (PANORAMA 1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2013 (MM-003): Pd vs GC</t>
+  </si>
+  <si>
+    <t>Siegel 2018 (ASPIRE): KRd vs Rd</t>
+  </si>
+  <si>
+    <t>Usamani 2022 (CANDOR): DKd vs Kd</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;=3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;=2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Lower 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>Upper 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t>Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      AT 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t>Data Extraction Errors</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Study: Treatment 1 vs Treatment 2</t>
+  </si>
+  <si>
+    <t>Attal 2019 (ICARIA-MM): IsPd vs Pd</t>
+  </si>
+  <si>
+    <t>Bahlis 2020 (POLLUX): DRd vs Rd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2013 (VANTAGE 088): VorV vs V</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2016 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-3): EPd vs Pd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2021 (APOLLO): DPd vs Pd</t>
+  </si>
+  <si>
+    <t>Hou 2017 (China Cont.): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>Jakubowiak 2016 (NCT01478048): EVd vs Vd</t>
+  </si>
+  <si>
+    <t>Kumar 2020 (BELLINI): VeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Lonial 2015 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Lu 2021 (LEPUS): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Mateos 2020 (CASTOR): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Moreau 2021 (IKEMA): IsKd vs Kd</t>
+  </si>
+  <si>
+    <t>Orlowski 2007 (NCT00103506): V vs DoxV</t>
+  </si>
+  <si>
+    <t>Orlowski 2016 (NCT00103506): V vs DoxV</t>
+  </si>
+  <si>
+    <t>Orlowski 2019 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2019 (OPTIMISMM): PVd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2021 (TOURMALINE-MM1): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2016 (PANORAMA 1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>Stewart 2015 (ASPIRE): KRd vs Rd</t>
+  </si>
+  <si>
+    <t>Usmani 2022 (CANDOR): DKd vs Kd</t>
+  </si>
+  <si>
+    <t>refract</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Ref. to R and a PI</t>
+  </si>
+  <si>
+    <t>Not ref. to R and a PI</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous R or T use</t>
+  </si>
+  <si>
+    <t>No previous R or T use</t>
+  </si>
+  <si>
+    <t>Previous R or T use</t>
+  </si>
+  <si>
+    <t>No previous R or T use</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Refractory to T</t>
+  </si>
+  <si>
+    <t>Not refractory to T</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No previous IMiD use</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Lower 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>Upper 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0230</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .       Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t>Data Extraction Errors</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Study: Treatment 1 vs Treatment 2</t>
+  </si>
+  <si>
+    <t>Attal 2019 (ICARIA-MM): IsPd vs Pd</t>
+  </si>
+  <si>
+    <t>Bahlis 2020 (POLLUX): DRd vs Rd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2013 (VANTAGE 088): VorV vs V</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2016 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-3): EPd vs Pd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2020 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2021 (APOLLO): DPd vs Pd</t>
+  </si>
+  <si>
+    <t>Grosicki 2020 (BOSTON): SeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Hou 2017 (China Cont.): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>Jakubowiak 2016 (NCT01478048): EVd vs Vd</t>
+  </si>
+  <si>
+    <t>Kumar 2020 (BELLINI): VeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Lu 2021 (LEPUS): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Mateos 2020 (CASTOR): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Moreau 2021 (IKEMA): IsKd vs Kd</t>
+  </si>
+  <si>
+    <t>Orlowski 2019 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2019 (OPTIMISMM): PVd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2021 (TOURMALINE-MM1): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2014 (PANORAMA-1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2016 (PANORAMA 1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2013 (MM-003): Pd vs GC</t>
+  </si>
+  <si>
+    <t>Siegel 2018 (ASPIRE): KRd vs Rd</t>
+  </si>
+  <si>
+    <t>Usamani 2022 (CANDOR): DKd vs Kd</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;=3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;=2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Lower 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>Upper 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t>Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      AT 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t>Data Extraction Errors</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Study: Treatment 1 vs Treatment 2</t>
+  </si>
+  <si>
+    <t>Attal 2019 (ICARIA-MM): IsPd vs Pd</t>
+  </si>
+  <si>
+    <t>Bahlis 2020 (POLLUX): DRd vs Rd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2013 (VANTAGE 088): VorV vs V</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2016 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-3): EPd vs Pd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2021 (APOLLO): DPd vs Pd</t>
+  </si>
+  <si>
+    <t>Hou 2017 (China Cont.): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>Jakubowiak 2016 (NCT01478048): EVd vs Vd</t>
+  </si>
+  <si>
+    <t>Kumar 2020 (BELLINI): VeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Lonial 2015 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Lu 2021 (LEPUS): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Mateos 2020 (CASTOR): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Moreau 2021 (IKEMA): IsKd vs Kd</t>
+  </si>
+  <si>
+    <t>Orlowski 2007 (NCT00103506): V vs DoxV</t>
+  </si>
+  <si>
+    <t>Orlowski 2016 (NCT00103506): V vs DoxV</t>
+  </si>
+  <si>
+    <t>Orlowski 2019 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2019 (OPTIMISMM): PVd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2021 (TOURMALINE-MM1): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2016 (PANORAMA 1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>Stewart 2015 (ASPIRE): KRd vs Rd</t>
+  </si>
+  <si>
+    <t>Usmani 2022 (CANDOR): DKd vs Kd</t>
+  </si>
+  <si>
+    <t>refract</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Ref. to R and a PI</t>
+  </si>
+  <si>
+    <t>Not ref. to R and a PI</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous R or T use</t>
+  </si>
+  <si>
+    <t>No previous R or T use</t>
+  </si>
+  <si>
+    <t>Previous R or T use</t>
+  </si>
+  <si>
+    <t>No previous R or T use</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Refractory to T</t>
+  </si>
+  <si>
+    <t>Not refractory to T</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No previous IMiD use</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Lower 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>Upper 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0230</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .       Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t>Data Extraction Errors</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Study: Treatment 1 vs Treatment 2</t>
+  </si>
+  <si>
+    <t>Attal 2019 (ICARIA-MM): IsPd vs Pd</t>
+  </si>
+  <si>
+    <t>Bahlis 2020 (POLLUX): DRd vs Rd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2013 (VANTAGE 088): VorV vs V</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2016 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-3): EPd vs Pd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2020 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2021 (APOLLO): DPd vs Pd</t>
+  </si>
+  <si>
+    <t>Grosicki 2020 (BOSTON): SeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Hou 2017 (China Cont.): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>Jakubowiak 2016 (NCT01478048): EVd vs Vd</t>
+  </si>
+  <si>
+    <t>Kumar 2020 (BELLINI): VeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Lu 2021 (LEPUS): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Mateos 2020 (CASTOR): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Moreau 2021 (IKEMA): IsKd vs Kd</t>
+  </si>
+  <si>
+    <t>Orlowski 2019 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2019 (OPTIMISMM): PVd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2021 (TOURMALINE-MM1): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2014 (PANORAMA-1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2016 (PANORAMA 1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2013 (MM-003): Pd vs GC</t>
+  </si>
+  <si>
+    <t>Siegel 2018 (ASPIRE): KRd vs Rd</t>
+  </si>
+  <si>
+    <t>Usamani 2022 (CANDOR): DKd vs Kd</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;=3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;=2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Lower 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>Upper 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t>Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      AT 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t>Data Extraction Errors</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Study: Treatment 1 vs Treatment 2</t>
+  </si>
+  <si>
+    <t>Attal 2019 (ICARIA-MM): IsPd vs Pd</t>
+  </si>
+  <si>
+    <t>Bahlis 2020 (POLLUX): DRd vs Rd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2013 (VANTAGE 088): VorV vs V</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2016 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-3): EPd vs Pd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2021 (APOLLO): DPd vs Pd</t>
+  </si>
+  <si>
+    <t>Hou 2017 (China Cont.): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>Jakubowiak 2016 (NCT01478048): EVd vs Vd</t>
+  </si>
+  <si>
+    <t>Kumar 2020 (BELLINI): VeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Lonial 2015 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Lu 2021 (LEPUS): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Mateos 2020 (CASTOR): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Moreau 2021 (IKEMA): IsKd vs Kd</t>
+  </si>
+  <si>
+    <t>Orlowski 2007 (NCT00103506): V vs DoxV</t>
+  </si>
+  <si>
+    <t>Orlowski 2016 (NCT00103506): V vs DoxV</t>
+  </si>
+  <si>
+    <t>Orlowski 2019 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2019 (OPTIMISMM): PVd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2021 (TOURMALINE-MM1): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2016 (PANORAMA 1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>Stewart 2015 (ASPIRE): KRd vs Rd</t>
+  </si>
+  <si>
+    <t>Usmani 2022 (CANDOR): DKd vs Kd</t>
+  </si>
+  <si>
+    <t>refract</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Ref. to R and a PI</t>
+  </si>
+  <si>
+    <t>Not ref. to R and a PI</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous R or T use</t>
+  </si>
+  <si>
+    <t>No previous R or T use</t>
+  </si>
+  <si>
+    <t>Previous R or T use</t>
+  </si>
+  <si>
+    <t>No previous R or T use</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Refractory to T</t>
+  </si>
+  <si>
+    <t>Not refractory to T</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No previous IMiD use</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Lower 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>Upper 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0230</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .       Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t>Data Extraction Errors</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Study: Treatment 1 vs Treatment 2</t>
+  </si>
+  <si>
+    <t>Attal 2019 (ICARIA-MM): IsPd vs Pd</t>
+  </si>
+  <si>
+    <t>Bahlis 2020 (POLLUX): DRd vs Rd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2013 (VANTAGE 088): VorV vs V</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2016 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-3): EPd vs Pd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2020 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2021 (APOLLO): DPd vs Pd</t>
+  </si>
+  <si>
+    <t>Grosicki 2020 (BOSTON): SeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Hou 2017 (China Cont.): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>Jakubowiak 2016 (NCT01478048): EVd vs Vd</t>
+  </si>
+  <si>
+    <t>Kumar 2020 (BELLINI): VeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Lu 2021 (LEPUS): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Mateos 2020 (CASTOR): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Moreau 2021 (IKEMA): IsKd vs Kd</t>
+  </si>
+  <si>
+    <t>Orlowski 2019 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2019 (OPTIMISMM): PVd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2021 (TOURMALINE-MM1): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2014 (PANORAMA-1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2016 (PANORAMA 1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2013 (MM-003): Pd vs GC</t>
+  </si>
+  <si>
+    <t>Siegel 2018 (ASPIRE): KRd vs Rd</t>
+  </si>
+  <si>
+    <t>Usamani 2022 (CANDOR): DKd vs Kd</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;=3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;=2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Lower 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>Upper 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t>Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      AT 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t>Data Extraction Errors</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Study: Treatment 1 vs Treatment 2</t>
+  </si>
+  <si>
+    <t>Attal 2019 (ICARIA-MM): IsPd vs Pd</t>
+  </si>
+  <si>
+    <t>Bahlis 2020 (POLLUX): DRd vs Rd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2013 (VANTAGE 088): VorV vs V</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2016 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-3): EPd vs Pd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2020 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2021 (APOLLO): DPd vs Pd</t>
+  </si>
+  <si>
+    <t>Grosicki 2020 (BOSTON): SeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Hou 2017 (China Cont.): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>Jakubowiak 2016 (NCT01478048): EVd vs Vd</t>
+  </si>
+  <si>
+    <t>Kumar 2020 (BELLINI): VeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Lu 2021 (LEPUS): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Mateos 2020 (CASTOR): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Moreau 2021 (IKEMA): IsKd vs Kd</t>
+  </si>
+  <si>
+    <t>Orlowski 2019 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2019 (OPTIMISMM): PVd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2021 (TOURMALINE-MM1): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2014 (PANORAMA-1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2016 (PANORAMA 1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2013 (MM-003): Pd vs GC</t>
+  </si>
+  <si>
+    <t>Siegel 2018 (ASPIRE): KRd vs Rd</t>
+  </si>
+  <si>
+    <t>Usamani 2022 (CANDOR): DKd vs Kd</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;=3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;=2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Lower 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>Upper 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t>Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      AT 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t>Data Extraction Errors</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t/>
@@ -100546,42 +107128,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>33134</v>
+        <v>35328</v>
       </c>
       <c r="B1" t="s">
-        <v>33158</v>
+        <v>35352</v>
       </c>
       <c r="C1" t="s">
-        <v>33222</v>
+        <v>35416</v>
       </c>
       <c r="D1" t="s">
-        <v>33238</v>
+        <v>35432</v>
       </c>
       <c r="E1" t="s">
-        <v>33239</v>
+        <v>35433</v>
       </c>
       <c r="F1" t="s">
-        <v>33240</v>
+        <v>35434</v>
       </c>
       <c r="G1" t="s">
-        <v>33241</v>
+        <v>35435</v>
       </c>
       <c r="H1" t="s">
-        <v>33242</v>
+        <v>35436</v>
       </c>
       <c r="I1" t="s">
-        <v>33266</v>
+        <v>35460</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>33135</v>
+        <v>35329</v>
       </c>
       <c r="B2" t="s">
-        <v>33159</v>
+        <v>35353</v>
       </c>
       <c r="C2" t="s">
-        <v>33223</v>
+        <v>35417</v>
       </c>
       <c r="D2" s="1">
         <v>0.5899999737739563</v>
@@ -100594,21 +107176,21 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" t="s">
-        <v>33243</v>
+        <v>35437</v>
       </c>
       <c r="I2" t="s">
-        <v>33267</v>
+        <v>35461</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>33135</v>
+        <v>35329</v>
       </c>
       <c r="B3" t="s">
-        <v>33160</v>
+        <v>35354</v>
       </c>
       <c r="C3" t="s">
-        <v>33223</v>
+        <v>35417</v>
       </c>
       <c r="D3" s="1">
         <v>0.5899999737739563</v>
@@ -100621,21 +107203,21 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" t="s">
-        <v>33243</v>
+        <v>35437</v>
       </c>
       <c r="I3" t="s">
-        <v>33268</v>
+        <v>35462</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>33136</v>
+        <v>35330</v>
       </c>
       <c r="B4" t="s">
-        <v>33161</v>
+        <v>35355</v>
       </c>
       <c r="C4" t="s">
-        <v>33223</v>
+        <v>35417</v>
       </c>
       <c r="D4" s="1">
         <v>0.41999998688697815</v>
@@ -100648,21 +107230,21 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" t="s">
-        <v>33244</v>
+        <v>35438</v>
       </c>
       <c r="I4" t="s">
-        <v>33269</v>
+        <v>35463</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>33136</v>
+        <v>35330</v>
       </c>
       <c r="B5" t="s">
-        <v>33162</v>
+        <v>35356</v>
       </c>
       <c r="C5" t="s">
-        <v>33223</v>
+        <v>35417</v>
       </c>
       <c r="D5" s="1">
         <v>0.38999998569488525</v>
@@ -100675,21 +107257,21 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" t="s">
-        <v>33244</v>
+        <v>35438</v>
       </c>
       <c r="I5" t="s">
-        <v>33270</v>
+        <v>35464</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>33136</v>
+        <v>35330</v>
       </c>
       <c r="B6" t="s">
-        <v>33163</v>
+        <v>35357</v>
       </c>
       <c r="C6" t="s">
-        <v>33223</v>
+        <v>35417</v>
       </c>
       <c r="D6" s="1">
         <v>0.47999998927116394</v>
@@ -100702,21 +107284,21 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" t="s">
-        <v>33244</v>
+        <v>35438</v>
       </c>
       <c r="I6" t="s">
-        <v>33271</v>
+        <v>35465</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>33136</v>
+        <v>35330</v>
       </c>
       <c r="B7" t="s">
-        <v>33164</v>
+        <v>35358</v>
       </c>
       <c r="C7" t="s">
-        <v>33223</v>
+        <v>35417</v>
       </c>
       <c r="D7" s="1">
         <v>0.74000000953674316</v>
@@ -100729,21 +107311,21 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" t="s">
-        <v>33244</v>
+        <v>35438</v>
       </c>
       <c r="I7" t="s">
-        <v>33272</v>
+        <v>35466</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>33137</v>
+        <v>35331</v>
       </c>
       <c r="B8" t="s">
-        <v>33165</v>
+        <v>35359</v>
       </c>
       <c r="C8" t="s">
-        <v>33223</v>
+        <v>35417</v>
       </c>
       <c r="D8" s="1">
         <v>0.68699997663497925</v>
@@ -100758,21 +107340,21 @@
         <v>0.015200000256299973</v>
       </c>
       <c r="H8" t="s">
-        <v>33245</v>
+        <v>35439</v>
       </c>
       <c r="I8" t="s">
-        <v>33273</v>
+        <v>35467</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>33137</v>
+        <v>35331</v>
       </c>
       <c r="B9" t="s">
-        <v>33166</v>
+        <v>35360</v>
       </c>
       <c r="C9" t="s">
-        <v>33223</v>
+        <v>35417</v>
       </c>
       <c r="D9" s="1">
         <v>0.91600000858306885</v>
@@ -100787,21 +107369,21 @@
         <v>0.48710000514984131</v>
       </c>
       <c r="H9" t="s">
-        <v>33246</v>
+        <v>35440</v>
       </c>
       <c r="I9" t="s">
-        <v>33274</v>
+        <v>35468</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>33138</v>
+        <v>35332</v>
       </c>
       <c r="B10" t="s">
-        <v>33167</v>
+        <v>35361</v>
       </c>
       <c r="C10" t="s">
-        <v>33223</v>
+        <v>35417</v>
       </c>
       <c r="D10" s="1">
         <v>0.44999998807907104</v>
@@ -100814,21 +107396,21 @@
       </c>
       <c r="G10" s="1"/>
       <c r="H10" t="s">
-        <v>33247</v>
+        <v>35441</v>
       </c>
       <c r="I10" t="s">
-        <v>33275</v>
+        <v>35469</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>33138</v>
+        <v>35332</v>
       </c>
       <c r="B11" t="s">
-        <v>33168</v>
+        <v>35362</v>
       </c>
       <c r="C11" t="s">
-        <v>33223</v>
+        <v>35417</v>
       </c>
       <c r="D11" s="1">
         <v>0.60000002384185791</v>
@@ -100841,21 +107423,21 @@
       </c>
       <c r="G11" s="1"/>
       <c r="H11" t="s">
-        <v>33247</v>
+        <v>35441</v>
       </c>
       <c r="I11" t="s">
-        <v>33276</v>
+        <v>35470</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>33139</v>
+        <v>35333</v>
       </c>
       <c r="B12" t="s">
-        <v>33168</v>
+        <v>35362</v>
       </c>
       <c r="C12" t="s">
-        <v>33223</v>
+        <v>35417</v>
       </c>
       <c r="D12" s="1">
         <v>0.55000001192092896</v>
@@ -100868,21 +107450,21 @@
       </c>
       <c r="G12" s="1"/>
       <c r="H12" t="s">
-        <v>33248</v>
+        <v>35442</v>
       </c>
       <c r="I12" t="s">
-        <v>33277</v>
+        <v>35471</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>33139</v>
+        <v>35333</v>
       </c>
       <c r="B13" t="s">
-        <v>33169</v>
+        <v>35363</v>
       </c>
       <c r="C13" t="s">
-        <v>33223</v>
+        <v>35417</v>
       </c>
       <c r="D13" s="1">
         <v>0.50999999046325684</v>
@@ -100895,21 +107477,21 @@
       </c>
       <c r="G13" s="1"/>
       <c r="H13" t="s">
-        <v>33248</v>
+        <v>35442</v>
       </c>
       <c r="I13" t="s">
-        <v>33278</v>
+        <v>35472</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>33140</v>
+        <v>35334</v>
       </c>
       <c r="B14" t="s">
-        <v>33170</v>
+        <v>35364</v>
       </c>
       <c r="C14" t="s">
-        <v>33223</v>
+        <v>35417</v>
       </c>
       <c r="D14" s="1">
         <v>0.76999998092651367</v>
@@ -100922,21 +107504,21 @@
       </c>
       <c r="G14" s="1"/>
       <c r="H14" t="s">
-        <v>33249</v>
+        <v>35443</v>
       </c>
       <c r="I14" t="s">
-        <v>33279</v>
+        <v>35473</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>33140</v>
+        <v>35334</v>
       </c>
       <c r="B15" t="s">
-        <v>33171</v>
+        <v>35365</v>
       </c>
       <c r="C15" t="s">
-        <v>33223</v>
+        <v>35417</v>
       </c>
       <c r="D15" s="1">
         <v>0.68000000715255737</v>
@@ -100949,21 +107531,21 @@
       </c>
       <c r="G15" s="1"/>
       <c r="H15" t="s">
-        <v>33249</v>
+        <v>35443</v>
       </c>
       <c r="I15" t="s">
-        <v>33280</v>
+        <v>35474</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>33141</v>
+        <v>35335</v>
       </c>
       <c r="B16" t="s">
-        <v>33172</v>
+        <v>35366</v>
       </c>
       <c r="C16" t="s">
-        <v>33224</v>
+        <v>35418</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -100976,21 +107558,21 @@
       </c>
       <c r="G16" s="1"/>
       <c r="H16" t="s">
-        <v>33249</v>
+        <v>35443</v>
       </c>
       <c r="I16" t="s">
-        <v>33281</v>
+        <v>35475</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>33141</v>
+        <v>35335</v>
       </c>
       <c r="B17" t="s">
-        <v>33173</v>
+        <v>35367</v>
       </c>
       <c r="C17" t="s">
-        <v>33224</v>
+        <v>35418</v>
       </c>
       <c r="D17" s="1">
         <v>0.70999997854232788</v>
@@ -101003,21 +107585,21 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" t="s">
-        <v>33249</v>
+        <v>35443</v>
       </c>
       <c r="I17" t="s">
-        <v>33282</v>
+        <v>35476</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>33142</v>
+        <v>35336</v>
       </c>
       <c r="B18" t="s">
-        <v>33174</v>
+        <v>35368</v>
       </c>
       <c r="C18" t="s">
-        <v>33225</v>
+        <v>35419</v>
       </c>
       <c r="D18" s="1">
         <v>0.69999998807907104</v>
@@ -101030,21 +107612,21 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18" t="s">
-        <v>33250</v>
+        <v>35444</v>
       </c>
       <c r="I18" t="s">
-        <v>33283</v>
+        <v>35477</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>33142</v>
+        <v>35336</v>
       </c>
       <c r="B19" t="s">
-        <v>33175</v>
+        <v>35369</v>
       </c>
       <c r="C19" t="s">
-        <v>33225</v>
+        <v>35419</v>
       </c>
       <c r="D19" s="1">
         <v>0.6600000262260437</v>
@@ -101057,21 +107639,21 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" t="s">
-        <v>33250</v>
+        <v>35444</v>
       </c>
       <c r="I19" t="s">
-        <v>33284</v>
+        <v>35478</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>33142</v>
+        <v>35336</v>
       </c>
       <c r="B20" t="s">
-        <v>33176</v>
+        <v>35370</v>
       </c>
       <c r="C20" t="s">
-        <v>33225</v>
+        <v>35419</v>
       </c>
       <c r="D20" s="1">
         <v>0.40000000596046448</v>
@@ -101084,21 +107666,21 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" t="s">
-        <v>33250</v>
+        <v>35444</v>
       </c>
       <c r="I20" t="s">
-        <v>33285</v>
+        <v>35479</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>33143</v>
+        <v>35337</v>
       </c>
       <c r="B21" t="s">
-        <v>33177</v>
+        <v>35371</v>
       </c>
       <c r="C21" t="s">
-        <v>33225</v>
+        <v>35419</v>
       </c>
       <c r="D21" s="1">
         <v>0.62999999523162842</v>
@@ -101111,21 +107693,21 @@
       </c>
       <c r="G21" s="1"/>
       <c r="H21" t="s">
-        <v>33251</v>
+        <v>35445</v>
       </c>
       <c r="I21" t="s">
-        <v>33286</v>
+        <v>35480</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>33143</v>
+        <v>35337</v>
       </c>
       <c r="B22" t="s">
-        <v>33178</v>
+        <v>35372</v>
       </c>
       <c r="C22" t="s">
-        <v>33225</v>
+        <v>35419</v>
       </c>
       <c r="D22" s="1">
         <v>0.64999997615814209</v>
@@ -101138,21 +107720,21 @@
       </c>
       <c r="G22" s="1"/>
       <c r="H22" t="s">
-        <v>33251</v>
+        <v>35445</v>
       </c>
       <c r="I22" t="s">
-        <v>33287</v>
+        <v>35481</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>33143</v>
+        <v>35337</v>
       </c>
       <c r="B23" t="s">
-        <v>33179</v>
+        <v>35373</v>
       </c>
       <c r="C23" t="s">
-        <v>33225</v>
+        <v>35419</v>
       </c>
       <c r="D23" s="1">
         <v>0.81999999284744263</v>
@@ -101165,21 +107747,21 @@
       </c>
       <c r="G23" s="1"/>
       <c r="H23" t="s">
-        <v>33251</v>
+        <v>35445</v>
       </c>
       <c r="I23" t="s">
-        <v>33288</v>
+        <v>35482</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>33144</v>
+        <v>35338</v>
       </c>
       <c r="B24" t="s">
-        <v>33180</v>
+        <v>35374</v>
       </c>
       <c r="C24" t="s">
-        <v>33225</v>
+        <v>35419</v>
       </c>
       <c r="D24" s="1">
         <v>0.84700000286102295</v>
@@ -101192,21 +107774,21 @@
       </c>
       <c r="G24" s="1"/>
       <c r="H24" t="s">
-        <v>33252</v>
+        <v>35446</v>
       </c>
       <c r="I24" t="s">
-        <v>33289</v>
+        <v>35483</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>33144</v>
+        <v>35338</v>
       </c>
       <c r="B25" t="s">
-        <v>33181</v>
+        <v>35375</v>
       </c>
       <c r="C25" t="s">
-        <v>33225</v>
+        <v>35419</v>
       </c>
       <c r="D25" s="1">
         <v>0.37000000476837158</v>
@@ -101219,21 +107801,21 @@
       </c>
       <c r="G25" s="1"/>
       <c r="H25" t="s">
-        <v>33252</v>
+        <v>35446</v>
       </c>
       <c r="I25" t="s">
-        <v>33290</v>
+        <v>35484</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>33144</v>
+        <v>35338</v>
       </c>
       <c r="B26" t="s">
-        <v>33182</v>
+        <v>35376</v>
       </c>
       <c r="C26" t="s">
-        <v>33225</v>
+        <v>35419</v>
       </c>
       <c r="D26" s="1">
         <v>0.70200002193450928</v>
@@ -101246,21 +107828,21 @@
       </c>
       <c r="G26" s="1"/>
       <c r="H26" t="s">
-        <v>33252</v>
+        <v>35446</v>
       </c>
       <c r="I26" t="s">
-        <v>33291</v>
+        <v>35485</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>33144</v>
+        <v>35338</v>
       </c>
       <c r="B27" t="s">
-        <v>33183</v>
+        <v>35377</v>
       </c>
       <c r="C27" t="s">
-        <v>33226</v>
+        <v>35420</v>
       </c>
       <c r="D27" s="1">
         <v>0.52100002765655518</v>
@@ -101273,21 +107855,21 @@
       </c>
       <c r="G27" s="1"/>
       <c r="H27" t="s">
-        <v>33253</v>
+        <v>35447</v>
       </c>
       <c r="I27" t="s">
-        <v>33292</v>
+        <v>35486</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>33144</v>
+        <v>35338</v>
       </c>
       <c r="B28" t="s">
-        <v>33184</v>
+        <v>35378</v>
       </c>
       <c r="C28" t="s">
-        <v>33226</v>
+        <v>35420</v>
       </c>
       <c r="D28" s="1">
         <v>0.38600000739097595</v>
@@ -101300,21 +107882,21 @@
       </c>
       <c r="G28" s="1"/>
       <c r="H28" t="s">
-        <v>33253</v>
+        <v>35447</v>
       </c>
       <c r="I28" t="s">
-        <v>33293</v>
+        <v>35487</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>33144</v>
+        <v>35338</v>
       </c>
       <c r="B29" t="s">
-        <v>33185</v>
+        <v>35379</v>
       </c>
       <c r="C29" t="s">
-        <v>33226</v>
+        <v>35420</v>
       </c>
       <c r="D29" s="1">
         <v>0.335999995470047</v>
@@ -101327,21 +107909,21 @@
       </c>
       <c r="G29" s="1"/>
       <c r="H29" t="s">
-        <v>33253</v>
+        <v>35447</v>
       </c>
       <c r="I29" t="s">
-        <v>33294</v>
+        <v>35488</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>33145</v>
+        <v>35339</v>
       </c>
       <c r="B30" t="s">
-        <v>33186</v>
+        <v>35380</v>
       </c>
       <c r="C30" t="s">
-        <v>33227</v>
+        <v>35421</v>
       </c>
       <c r="D30" s="1">
         <v>0.74000000953674316</v>
@@ -101354,21 +107936,21 @@
       </c>
       <c r="G30" s="1"/>
       <c r="H30" t="s">
-        <v>33254</v>
+        <v>35448</v>
       </c>
       <c r="I30" t="s">
-        <v>33295</v>
+        <v>35489</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>33145</v>
+        <v>35339</v>
       </c>
       <c r="B31" t="s">
-        <v>33187</v>
+        <v>35381</v>
       </c>
       <c r="C31" t="s">
-        <v>33227</v>
+        <v>35421</v>
       </c>
       <c r="D31" s="1">
         <v>0.75999999046325684</v>
@@ -101381,21 +107963,21 @@
       </c>
       <c r="G31" s="1"/>
       <c r="H31" t="s">
-        <v>33254</v>
+        <v>35448</v>
       </c>
       <c r="I31" t="s">
-        <v>33296</v>
+        <v>35490</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>33146</v>
+        <v>35340</v>
       </c>
       <c r="B32" t="s">
-        <v>33188</v>
+        <v>35382</v>
       </c>
       <c r="C32" t="s">
-        <v>33227</v>
+        <v>35421</v>
       </c>
       <c r="D32" s="1">
         <v>0.75</v>
@@ -101408,21 +107990,21 @@
       </c>
       <c r="G32" s="1"/>
       <c r="H32" t="s">
-        <v>33255</v>
+        <v>35449</v>
       </c>
       <c r="I32" t="s">
-        <v>33297</v>
+        <v>35491</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>33146</v>
+        <v>35340</v>
       </c>
       <c r="B33" t="s">
-        <v>33189</v>
+        <v>35383</v>
       </c>
       <c r="C33" t="s">
-        <v>33227</v>
+        <v>35421</v>
       </c>
       <c r="D33" s="1">
         <v>0.54000002145767212</v>
@@ -101435,21 +108017,21 @@
       </c>
       <c r="G33" s="1"/>
       <c r="H33" t="s">
-        <v>33255</v>
+        <v>35449</v>
       </c>
       <c r="I33" t="s">
-        <v>33298</v>
+        <v>35492</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>33146</v>
+        <v>35340</v>
       </c>
       <c r="B34" t="s">
-        <v>33190</v>
+        <v>35384</v>
       </c>
       <c r="C34" t="s">
-        <v>33228</v>
+        <v>35422</v>
       </c>
       <c r="D34" s="1">
         <v>1.6699999570846558</v>
@@ -101462,21 +108044,21 @@
       </c>
       <c r="G34" s="1"/>
       <c r="H34" t="s">
-        <v>33256</v>
+        <v>35450</v>
       </c>
       <c r="I34" t="s">
-        <v>33299</v>
+        <v>35493</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>33146</v>
+        <v>35340</v>
       </c>
       <c r="B35" t="s">
-        <v>33191</v>
+        <v>35385</v>
       </c>
       <c r="C35" t="s">
-        <v>33228</v>
+        <v>35422</v>
       </c>
       <c r="D35" s="1">
         <v>2.3299999237060547</v>
@@ -101489,21 +108071,21 @@
       </c>
       <c r="G35" s="1"/>
       <c r="H35" t="s">
-        <v>33256</v>
+        <v>35450</v>
       </c>
       <c r="I35" t="s">
-        <v>33300</v>
+        <v>35494</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>33147</v>
+        <v>35341</v>
       </c>
       <c r="B36" t="s">
-        <v>33192</v>
+        <v>35386</v>
       </c>
       <c r="C36" t="s">
-        <v>33229</v>
+        <v>35423</v>
       </c>
       <c r="D36" s="1">
         <v>0.15999999642372131</v>
@@ -101516,21 +108098,21 @@
       </c>
       <c r="G36" s="1"/>
       <c r="H36" t="s">
-        <v>33257</v>
+        <v>35451</v>
       </c>
       <c r="I36" t="s">
-        <v>33301</v>
+        <v>35495</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>33147</v>
+        <v>35341</v>
       </c>
       <c r="B37" t="s">
-        <v>33193</v>
+        <v>35387</v>
       </c>
       <c r="C37" t="s">
-        <v>33229</v>
+        <v>35423</v>
       </c>
       <c r="D37" s="1">
         <v>0.51999998092651367</v>
@@ -101543,21 +108125,21 @@
       </c>
       <c r="G37" s="1"/>
       <c r="H37" t="s">
-        <v>33257</v>
+        <v>35451</v>
       </c>
       <c r="I37" t="s">
-        <v>33302</v>
+        <v>35496</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>33147</v>
+        <v>35341</v>
       </c>
       <c r="B38" t="s">
-        <v>33194</v>
+        <v>35388</v>
       </c>
       <c r="C38" t="s">
-        <v>33229</v>
+        <v>35423</v>
       </c>
       <c r="D38" s="1">
         <v>0.62999999523162842</v>
@@ -101570,21 +108152,21 @@
       </c>
       <c r="G38" s="1"/>
       <c r="H38" t="s">
-        <v>33257</v>
+        <v>35451</v>
       </c>
       <c r="I38" t="s">
-        <v>33303</v>
+        <v>35497</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>33147</v>
+        <v>35341</v>
       </c>
       <c r="B39" t="s">
-        <v>33195</v>
+        <v>35389</v>
       </c>
       <c r="C39" t="s">
-        <v>33229</v>
+        <v>35423</v>
       </c>
       <c r="D39" s="1">
         <v>0.25999999046325684</v>
@@ -101597,21 +108179,21 @@
       </c>
       <c r="G39" s="1"/>
       <c r="H39" t="s">
-        <v>33257</v>
+        <v>35451</v>
       </c>
       <c r="I39" t="s">
-        <v>33304</v>
+        <v>35498</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>33148</v>
+        <v>35342</v>
       </c>
       <c r="B40" t="s">
-        <v>33196</v>
+        <v>35390</v>
       </c>
       <c r="C40" t="s">
-        <v>33229</v>
+        <v>35423</v>
       </c>
       <c r="D40" s="1">
         <v>0.2199999988079071</v>
@@ -101624,21 +108206,21 @@
       </c>
       <c r="G40" s="1"/>
       <c r="H40" t="s">
-        <v>33257</v>
+        <v>35451</v>
       </c>
       <c r="I40" t="s">
-        <v>33305</v>
+        <v>35499</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>33148</v>
+        <v>35342</v>
       </c>
       <c r="B41" t="s">
-        <v>33197</v>
+        <v>35391</v>
       </c>
       <c r="C41" t="s">
-        <v>33229</v>
+        <v>35423</v>
       </c>
       <c r="D41" s="1">
         <v>0.46000000834465027</v>
@@ -101651,21 +108233,21 @@
       </c>
       <c r="G41" s="1"/>
       <c r="H41" t="s">
-        <v>33257</v>
+        <v>35451</v>
       </c>
       <c r="I41" t="s">
-        <v>33306</v>
+        <v>35500</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>33148</v>
+        <v>35342</v>
       </c>
       <c r="B42" t="s">
-        <v>33198</v>
+        <v>35392</v>
       </c>
       <c r="C42" t="s">
-        <v>33229</v>
+        <v>35423</v>
       </c>
       <c r="D42" s="1">
         <v>0.60000002384185791</v>
@@ -101678,21 +108260,21 @@
       </c>
       <c r="G42" s="1"/>
       <c r="H42" t="s">
-        <v>33257</v>
+        <v>35451</v>
       </c>
       <c r="I42" t="s">
-        <v>33307</v>
+        <v>35501</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>33148</v>
+        <v>35342</v>
       </c>
       <c r="B43" t="s">
-        <v>33199</v>
+        <v>35393</v>
       </c>
       <c r="C43" t="s">
-        <v>33229</v>
+        <v>35423</v>
       </c>
       <c r="D43" s="1">
         <v>0.37000000476837158</v>
@@ -101705,21 +108287,21 @@
       </c>
       <c r="G43" s="1"/>
       <c r="H43" t="s">
-        <v>33257</v>
+        <v>35451</v>
       </c>
       <c r="I43" t="s">
-        <v>33308</v>
+        <v>35502</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>33149</v>
+        <v>35343</v>
       </c>
       <c r="B44" t="s">
-        <v>33200</v>
+        <v>35394</v>
       </c>
       <c r="C44" t="s">
-        <v>33229</v>
+        <v>35423</v>
       </c>
       <c r="D44" s="1">
         <v>0.5899999737739563</v>
@@ -101732,21 +108314,21 @@
       </c>
       <c r="G44" s="1"/>
       <c r="H44" t="s">
-        <v>33258</v>
+        <v>35452</v>
       </c>
       <c r="I44" t="s">
-        <v>33309</v>
+        <v>35503</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>33149</v>
+        <v>35343</v>
       </c>
       <c r="B45" t="s">
-        <v>33201</v>
+        <v>35395</v>
       </c>
       <c r="C45" t="s">
-        <v>33229</v>
+        <v>35423</v>
       </c>
       <c r="D45" s="1">
         <v>0.47999998927116394</v>
@@ -101759,21 +108341,21 @@
       </c>
       <c r="G45" s="1"/>
       <c r="H45" t="s">
-        <v>33258</v>
+        <v>35452</v>
       </c>
       <c r="I45" t="s">
-        <v>33310</v>
+        <v>35504</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>33150</v>
+        <v>35344</v>
       </c>
       <c r="B46" t="s">
-        <v>33202</v>
+        <v>35396</v>
       </c>
       <c r="C46" t="s">
-        <v>33230</v>
+        <v>35424</v>
       </c>
       <c r="D46" s="1">
         <v>0.77100002765655518</v>
@@ -101786,21 +108368,21 @@
       </c>
       <c r="G46" s="1"/>
       <c r="H46" t="s">
-        <v>33258</v>
+        <v>35452</v>
       </c>
       <c r="I46" t="s">
-        <v>33311</v>
+        <v>35505</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>33150</v>
+        <v>35344</v>
       </c>
       <c r="B47" t="s">
-        <v>33203</v>
+        <v>35397</v>
       </c>
       <c r="C47" t="s">
-        <v>33230</v>
+        <v>35424</v>
       </c>
       <c r="D47" s="1">
         <v>0.75199997425079346</v>
@@ -101813,21 +108395,21 @@
       </c>
       <c r="G47" s="1"/>
       <c r="H47" t="s">
-        <v>33258</v>
+        <v>35452</v>
       </c>
       <c r="I47" t="s">
-        <v>33312</v>
+        <v>35506</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>33151</v>
+        <v>35345</v>
       </c>
       <c r="B48" t="s">
-        <v>33204</v>
+        <v>35398</v>
       </c>
       <c r="C48" t="s">
-        <v>33231</v>
+        <v>35425</v>
       </c>
       <c r="D48" s="1">
         <v>0.54000002145767212</v>
@@ -101840,21 +108422,21 @@
       </c>
       <c r="G48" s="1"/>
       <c r="H48" t="s">
-        <v>33258</v>
+        <v>35452</v>
       </c>
       <c r="I48" t="s">
-        <v>33313</v>
+        <v>35507</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>33151</v>
+        <v>35345</v>
       </c>
       <c r="B49" t="s">
-        <v>33205</v>
+        <v>35399</v>
       </c>
       <c r="C49" t="s">
-        <v>33231</v>
+        <v>35425</v>
       </c>
       <c r="D49" s="1">
         <v>0.67000001668930054</v>
@@ -101867,21 +108449,21 @@
       </c>
       <c r="G49" s="1"/>
       <c r="H49" t="s">
-        <v>33258</v>
+        <v>35452</v>
       </c>
       <c r="I49" t="s">
-        <v>33314</v>
+        <v>35508</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>33151</v>
+        <v>35345</v>
       </c>
       <c r="B50" t="s">
-        <v>33206</v>
+        <v>35400</v>
       </c>
       <c r="C50" t="s">
-        <v>33231</v>
+        <v>35425</v>
       </c>
       <c r="D50" s="1">
         <v>0.60000002384185791</v>
@@ -101894,21 +108476,21 @@
       </c>
       <c r="G50" s="1"/>
       <c r="H50" t="s">
-        <v>33258</v>
+        <v>35452</v>
       </c>
       <c r="I50" t="s">
-        <v>33315</v>
+        <v>35509</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>33152</v>
+        <v>35346</v>
       </c>
       <c r="B51" t="s">
-        <v>33207</v>
+        <v>35401</v>
       </c>
       <c r="C51" t="s">
-        <v>33232</v>
+        <v>35426</v>
       </c>
       <c r="D51" s="1">
         <v>0.97600001096725464</v>
@@ -101921,21 +108503,21 @@
       </c>
       <c r="G51" s="1"/>
       <c r="H51" t="s">
-        <v>33259</v>
+        <v>35453</v>
       </c>
       <c r="I51" t="s">
-        <v>33316</v>
+        <v>35510</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>33152</v>
+        <v>35346</v>
       </c>
       <c r="B52" t="s">
-        <v>33208</v>
+        <v>35402</v>
       </c>
       <c r="C52" t="s">
-        <v>33232</v>
+        <v>35426</v>
       </c>
       <c r="D52" s="1">
         <v>0.92599999904632568</v>
@@ -101948,21 +108530,21 @@
       </c>
       <c r="G52" s="1"/>
       <c r="H52" t="s">
-        <v>33259</v>
+        <v>35453</v>
       </c>
       <c r="I52" t="s">
-        <v>33317</v>
+        <v>35511</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>33152</v>
+        <v>35346</v>
       </c>
       <c r="B53" t="s">
-        <v>33209</v>
+        <v>35403</v>
       </c>
       <c r="C53" t="s">
-        <v>33232</v>
+        <v>35426</v>
       </c>
       <c r="D53" s="1">
         <v>0.88300001621246338</v>
@@ -101975,21 +108557,21 @@
       </c>
       <c r="G53" s="1"/>
       <c r="H53" t="s">
-        <v>33259</v>
+        <v>35453</v>
       </c>
       <c r="I53" t="s">
-        <v>33318</v>
+        <v>35512</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>33153</v>
+        <v>35347</v>
       </c>
       <c r="B54" t="s">
-        <v>33210</v>
+        <v>35404</v>
       </c>
       <c r="C54" t="s">
-        <v>33233</v>
+        <v>35427</v>
       </c>
       <c r="D54" s="1">
         <v>0.6600000262260437</v>
@@ -102002,21 +108584,21 @@
       </c>
       <c r="G54" s="1"/>
       <c r="H54" t="s">
-        <v>33260</v>
+        <v>35454</v>
       </c>
       <c r="I54" t="s">
-        <v>33319</v>
+        <v>35513</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>33153</v>
+        <v>35347</v>
       </c>
       <c r="B55" t="s">
-        <v>33211</v>
+        <v>35405</v>
       </c>
       <c r="C55" t="s">
-        <v>33233</v>
+        <v>35427</v>
       </c>
       <c r="D55" s="1">
         <v>0.63999998569488525</v>
@@ -102029,21 +108611,21 @@
       </c>
       <c r="G55" s="1"/>
       <c r="H55" t="s">
-        <v>33260</v>
+        <v>35454</v>
       </c>
       <c r="I55" t="s">
-        <v>33320</v>
+        <v>35514</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>33154</v>
+        <v>35348</v>
       </c>
       <c r="B56" t="s">
-        <v>33212</v>
+        <v>35406</v>
       </c>
       <c r="C56" t="s">
-        <v>33234</v>
+        <v>35428</v>
       </c>
       <c r="D56" s="1">
         <v>0.89999997615814209</v>
@@ -102056,21 +108638,21 @@
       </c>
       <c r="G56" s="1"/>
       <c r="H56" t="s">
-        <v>33261</v>
+        <v>35455</v>
       </c>
       <c r="I56" t="s">
-        <v>33321</v>
+        <v>35515</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>33154</v>
+        <v>35348</v>
       </c>
       <c r="B57" t="s">
-        <v>33213</v>
+        <v>35407</v>
       </c>
       <c r="C57" t="s">
-        <v>33234</v>
+        <v>35428</v>
       </c>
       <c r="D57" s="1">
         <v>0.95999997854232788</v>
@@ -102083,21 +108665,21 @@
       </c>
       <c r="G57" s="1"/>
       <c r="H57" t="s">
-        <v>33261</v>
+        <v>35455</v>
       </c>
       <c r="I57" t="s">
-        <v>33322</v>
+        <v>35516</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>33155</v>
+        <v>35349</v>
       </c>
       <c r="B58" t="s">
-        <v>33214</v>
+        <v>35408</v>
       </c>
       <c r="C58" t="s">
-        <v>33235</v>
+        <v>35429</v>
       </c>
       <c r="D58" s="1">
         <v>0.4699999988079071</v>
@@ -102110,21 +108692,21 @@
       </c>
       <c r="G58" s="1"/>
       <c r="H58" t="s">
-        <v>33262</v>
+        <v>35456</v>
       </c>
       <c r="I58" t="s">
-        <v>33323</v>
+        <v>35517</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>33155</v>
+        <v>35349</v>
       </c>
       <c r="B59" t="s">
-        <v>33215</v>
+        <v>35409</v>
       </c>
       <c r="C59" t="s">
-        <v>33235</v>
+        <v>35429</v>
       </c>
       <c r="D59" s="1">
         <v>0.47999998927116394</v>
@@ -102137,21 +108719,21 @@
       </c>
       <c r="G59" s="1"/>
       <c r="H59" t="s">
-        <v>33262</v>
+        <v>35456</v>
       </c>
       <c r="I59" t="s">
-        <v>33324</v>
+        <v>35518</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>33155</v>
+        <v>35349</v>
       </c>
       <c r="B60" t="s">
-        <v>33216</v>
+        <v>35410</v>
       </c>
       <c r="C60" t="s">
-        <v>33236</v>
+        <v>35430</v>
       </c>
       <c r="D60" s="1">
         <v>0.43999999761581421</v>
@@ -102164,21 +108746,21 @@
       </c>
       <c r="G60" s="1"/>
       <c r="H60" t="s">
-        <v>33263</v>
+        <v>35457</v>
       </c>
       <c r="I60" t="s">
-        <v>33325</v>
+        <v>35519</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>33155</v>
+        <v>35349</v>
       </c>
       <c r="B61" t="s">
-        <v>33217</v>
+        <v>35411</v>
       </c>
       <c r="C61" t="s">
-        <v>33236</v>
+        <v>35430</v>
       </c>
       <c r="D61" s="1">
         <v>0.75999999046325684</v>
@@ -102191,21 +108773,21 @@
       </c>
       <c r="G61" s="1"/>
       <c r="H61" t="s">
-        <v>33263</v>
+        <v>35457</v>
       </c>
       <c r="I61" t="s">
-        <v>33326</v>
+        <v>35520</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>33156</v>
+        <v>35350</v>
       </c>
       <c r="B62" t="s">
-        <v>33218</v>
+        <v>35412</v>
       </c>
       <c r="C62" t="s">
-        <v>33236</v>
+        <v>35430</v>
       </c>
       <c r="D62" s="1">
         <v>0.81000000238418579</v>
@@ -102218,21 +108800,21 @@
       </c>
       <c r="G62" s="1"/>
       <c r="H62" t="s">
-        <v>33264</v>
+        <v>35458</v>
       </c>
       <c r="I62" t="s">
-        <v>33327</v>
+        <v>35521</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>33156</v>
+        <v>35350</v>
       </c>
       <c r="B63" t="s">
-        <v>33219</v>
+        <v>35413</v>
       </c>
       <c r="C63" t="s">
-        <v>33236</v>
+        <v>35430</v>
       </c>
       <c r="D63" s="1">
         <v>0.79000002145767212</v>
@@ -102245,21 +108827,21 @@
       </c>
       <c r="G63" s="1"/>
       <c r="H63" t="s">
-        <v>33264</v>
+        <v>35458</v>
       </c>
       <c r="I63" t="s">
-        <v>33328</v>
+        <v>35522</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>33157</v>
+        <v>35351</v>
       </c>
       <c r="B64" t="s">
-        <v>33220</v>
+        <v>35414</v>
       </c>
       <c r="C64" t="s">
-        <v>33237</v>
+        <v>35431</v>
       </c>
       <c r="D64" s="1">
         <v>0.6600000262260437</v>
@@ -102272,21 +108854,21 @@
       </c>
       <c r="G64" s="1"/>
       <c r="H64" t="s">
-        <v>33265</v>
+        <v>35459</v>
       </c>
       <c r="I64" t="s">
-        <v>33329</v>
+        <v>35523</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>33157</v>
+        <v>35351</v>
       </c>
       <c r="B65" t="s">
-        <v>33221</v>
+        <v>35415</v>
       </c>
       <c r="C65" t="s">
-        <v>33237</v>
+        <v>35431</v>
       </c>
       <c r="D65" s="1">
         <v>0.55000001192092896</v>
@@ -102299,10 +108881,10 @@
       </c>
       <c r="G65" s="1"/>
       <c r="H65" t="s">
-        <v>33265</v>
+        <v>35459</v>
       </c>
       <c r="I65" t="s">
-        <v>33330</v>
+        <v>35524</v>
       </c>
     </row>
   </sheetData>
@@ -102316,42 +108898,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>33331</v>
+        <v>35525</v>
       </c>
       <c r="B1" t="s">
-        <v>33353</v>
+        <v>35547</v>
       </c>
       <c r="C1" t="s">
-        <v>33400</v>
+        <v>35594</v>
       </c>
       <c r="D1" t="s">
-        <v>33410</v>
+        <v>35604</v>
       </c>
       <c r="E1" t="s">
-        <v>33411</v>
+        <v>35605</v>
       </c>
       <c r="F1" t="s">
-        <v>33412</v>
+        <v>35606</v>
       </c>
       <c r="G1" t="s">
-        <v>33413</v>
+        <v>35607</v>
       </c>
       <c r="H1" t="s">
-        <v>33425</v>
+        <v>35619</v>
       </c>
       <c r="I1" t="s">
-        <v>33446</v>
+        <v>35640</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>33332</v>
+        <v>35526</v>
       </c>
       <c r="B2" t="s">
-        <v>33354</v>
+        <v>35548</v>
       </c>
       <c r="C2" t="s">
-        <v>33401</v>
+        <v>35595</v>
       </c>
       <c r="D2" s="1">
         <v>0.5899999737739563</v>
@@ -102363,24 +108945,24 @@
         <v>0.81999999284744263</v>
       </c>
       <c r="G2" t="s">
-        <v>33414</v>
+        <v>35608</v>
       </c>
       <c r="H2" t="s">
-        <v>33426</v>
+        <v>35620</v>
       </c>
       <c r="I2" t="s">
-        <v>33447</v>
+        <v>35641</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>33332</v>
+        <v>35526</v>
       </c>
       <c r="B3" t="s">
-        <v>33355</v>
+        <v>35549</v>
       </c>
       <c r="C3" t="s">
-        <v>33401</v>
+        <v>35595</v>
       </c>
       <c r="D3" s="1">
         <v>0.18000000715255737</v>
@@ -102392,24 +108974,24 @@
         <v>1.4900000095367432</v>
       </c>
       <c r="G3" t="s">
-        <v>33414</v>
+        <v>35608</v>
       </c>
       <c r="H3" t="s">
-        <v>33426</v>
+        <v>35620</v>
       </c>
       <c r="I3" t="s">
-        <v>33448</v>
+        <v>35642</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>33333</v>
+        <v>35527</v>
       </c>
       <c r="B4" t="s">
-        <v>33356</v>
+        <v>35550</v>
       </c>
       <c r="C4" t="s">
-        <v>33401</v>
+        <v>35595</v>
       </c>
       <c r="D4" s="1">
         <v>0.37999999523162842</v>
@@ -102421,24 +109003,24 @@
         <v>0.6600000262260437</v>
       </c>
       <c r="G4" t="s">
-        <v>33414</v>
+        <v>35608</v>
       </c>
       <c r="H4" t="s">
-        <v>33427</v>
+        <v>35621</v>
       </c>
       <c r="I4" t="s">
-        <v>33449</v>
+        <v>35643</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>33333</v>
+        <v>35527</v>
       </c>
       <c r="B5" t="s">
-        <v>33357</v>
+        <v>35551</v>
       </c>
       <c r="C5" t="s">
-        <v>33401</v>
+        <v>35595</v>
       </c>
       <c r="D5" s="1">
         <v>0.44999998807907104</v>
@@ -102450,24 +109032,24 @@
         <v>0.57999998331069946</v>
       </c>
       <c r="G5" t="s">
-        <v>33414</v>
+        <v>35608</v>
       </c>
       <c r="H5" t="s">
-        <v>33427</v>
+        <v>35621</v>
       </c>
       <c r="I5" t="s">
-        <v>33450</v>
+        <v>35644</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>33334</v>
+        <v>35528</v>
       </c>
       <c r="B6" t="s">
-        <v>33358</v>
+        <v>35552</v>
       </c>
       <c r="C6" t="s">
-        <v>33401</v>
+        <v>35595</v>
       </c>
       <c r="D6" s="1">
         <v>0.75700002908706665</v>
@@ -102479,24 +109061,24 @@
         <v>0.96299999952316284</v>
       </c>
       <c r="G6" t="s">
-        <v>33415</v>
+        <v>35609</v>
       </c>
       <c r="H6" t="s">
-        <v>33428</v>
+        <v>35622</v>
       </c>
       <c r="I6" t="s">
-        <v>33451</v>
+        <v>35645</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>33334</v>
+        <v>35528</v>
       </c>
       <c r="B7" t="s">
-        <v>33359</v>
+        <v>35553</v>
       </c>
       <c r="C7" t="s">
-        <v>33401</v>
+        <v>35595</v>
       </c>
       <c r="D7" s="1">
         <v>0.92599999904632568</v>
@@ -102508,24 +109090,24 @@
         <v>1.2790000438690186</v>
       </c>
       <c r="G7" t="s">
-        <v>33416</v>
+        <v>35610</v>
       </c>
       <c r="H7" t="s">
-        <v>33428</v>
+        <v>35622</v>
       </c>
       <c r="I7" t="s">
-        <v>33452</v>
+        <v>35646</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>33335</v>
+        <v>35529</v>
       </c>
       <c r="B8" t="s">
-        <v>33360</v>
+        <v>35554</v>
       </c>
       <c r="C8" t="s">
-        <v>33401</v>
+        <v>35595</v>
       </c>
       <c r="D8" s="1">
         <v>0.43999999761581421</v>
@@ -102537,24 +109119,24 @@
         <v>0.56000000238418579</v>
       </c>
       <c r="G8" t="s">
-        <v>33417</v>
+        <v>35611</v>
       </c>
       <c r="H8" t="s">
-        <v>33429</v>
+        <v>35623</v>
       </c>
       <c r="I8" t="s">
-        <v>33453</v>
+        <v>35647</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>33335</v>
+        <v>35529</v>
       </c>
       <c r="B9" t="s">
-        <v>33361</v>
+        <v>35555</v>
       </c>
       <c r="C9" t="s">
-        <v>33401</v>
+        <v>35595</v>
       </c>
       <c r="D9" s="1">
         <v>0.80000001192092896</v>
@@ -102566,24 +109148,24 @@
         <v>1.1100000143051147</v>
       </c>
       <c r="G9" t="s">
-        <v>33417</v>
+        <v>35611</v>
       </c>
       <c r="H9" t="s">
-        <v>33429</v>
+        <v>35623</v>
       </c>
       <c r="I9" t="s">
-        <v>33454</v>
+        <v>35648</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>33336</v>
+        <v>35530</v>
       </c>
       <c r="B10" t="s">
-        <v>33362</v>
+        <v>35556</v>
       </c>
       <c r="C10" t="s">
-        <v>33401</v>
+        <v>35595</v>
       </c>
       <c r="D10" s="1">
         <v>0.56000000238418579</v>
@@ -102595,24 +109177,24 @@
         <v>0.97000002861022949</v>
       </c>
       <c r="G10" t="s">
-        <v>33417</v>
+        <v>35611</v>
       </c>
       <c r="H10" t="s">
-        <v>33430</v>
+        <v>35624</v>
       </c>
       <c r="I10" t="s">
-        <v>33455</v>
+        <v>35649</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>33336</v>
+        <v>35530</v>
       </c>
       <c r="B11" t="s">
-        <v>33363</v>
+        <v>35557</v>
       </c>
       <c r="C11" t="s">
-        <v>33401</v>
+        <v>35595</v>
       </c>
       <c r="D11" s="1">
         <v>0.50999999046325684</v>
@@ -102624,24 +109206,24 @@
         <v>1.190000057220459</v>
       </c>
       <c r="G11" t="s">
-        <v>33417</v>
+        <v>35611</v>
       </c>
       <c r="H11" t="s">
-        <v>33430</v>
+        <v>35624</v>
       </c>
       <c r="I11" t="s">
-        <v>33456</v>
+        <v>35650</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>33337</v>
+        <v>35531</v>
       </c>
       <c r="B12" t="s">
-        <v>33364</v>
+        <v>35558</v>
       </c>
       <c r="C12" t="s">
-        <v>33401</v>
+        <v>35595</v>
       </c>
       <c r="D12" s="1">
         <v>0.36000001430511475</v>
@@ -102653,24 +109235,24 @@
         <v>0.82999998331069946</v>
       </c>
       <c r="G12" t="s">
-        <v>33417</v>
+        <v>35611</v>
       </c>
       <c r="H12" t="s">
-        <v>33431</v>
+        <v>35625</v>
       </c>
       <c r="I12" t="s">
-        <v>33457</v>
+        <v>35651</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>33337</v>
+        <v>35531</v>
       </c>
       <c r="B13" t="s">
-        <v>33365</v>
+        <v>35559</v>
       </c>
       <c r="C13" t="s">
-        <v>33401</v>
+        <v>35595</v>
       </c>
       <c r="D13" s="1">
         <v>0.6600000262260437</v>
@@ -102682,24 +109264,24 @@
         <v>0.89999997615814209</v>
       </c>
       <c r="G13" t="s">
-        <v>33417</v>
+        <v>35611</v>
       </c>
       <c r="H13" t="s">
-        <v>33431</v>
+        <v>35625</v>
       </c>
       <c r="I13" t="s">
-        <v>33458</v>
+        <v>35652</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>33338</v>
+        <v>35532</v>
       </c>
       <c r="B14" t="s">
-        <v>33366</v>
+        <v>35560</v>
       </c>
       <c r="C14" t="s">
-        <v>33401</v>
+        <v>35595</v>
       </c>
       <c r="D14" s="1">
         <v>0.55299997329711914</v>
@@ -102711,24 +109293,24 @@
         <v>0.9309999942779541</v>
       </c>
       <c r="G14" t="s">
-        <v>33418</v>
+        <v>35612</v>
       </c>
       <c r="H14" t="s">
-        <v>33432</v>
+        <v>35626</v>
       </c>
       <c r="I14" t="s">
-        <v>33459</v>
+        <v>35653</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>33338</v>
+        <v>35532</v>
       </c>
       <c r="B15" t="s">
-        <v>33367</v>
+        <v>35561</v>
       </c>
       <c r="C15" t="s">
-        <v>33401</v>
+        <v>35595</v>
       </c>
       <c r="D15" s="1">
         <v>0.76599997282028198</v>
@@ -102740,24 +109322,24 @@
         <v>3.9639999866485596</v>
       </c>
       <c r="G15" t="s">
-        <v>33418</v>
+        <v>35612</v>
       </c>
       <c r="H15" t="s">
-        <v>33432</v>
+        <v>35626</v>
       </c>
       <c r="I15" t="s">
-        <v>33460</v>
+        <v>35654</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>33338</v>
+        <v>35532</v>
       </c>
       <c r="B16" t="s">
-        <v>33368</v>
+        <v>35562</v>
       </c>
       <c r="C16" t="s">
-        <v>33402</v>
+        <v>35596</v>
       </c>
       <c r="D16" s="1">
         <v>0.39800000190734863</v>
@@ -102769,24 +109351,24 @@
         <v>0.71899998188018799</v>
       </c>
       <c r="G16" t="s">
-        <v>33418</v>
+        <v>35612</v>
       </c>
       <c r="H16" t="s">
-        <v>33433</v>
+        <v>35627</v>
       </c>
       <c r="I16" t="s">
-        <v>33461</v>
+        <v>35655</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>33338</v>
+        <v>35532</v>
       </c>
       <c r="B17" t="s">
-        <v>33369</v>
+        <v>35563</v>
       </c>
       <c r="C17" t="s">
-        <v>33402</v>
+        <v>35596</v>
       </c>
       <c r="D17" s="1">
         <v>0.49799999594688416</v>
@@ -102798,24 +109380,24 @@
         <v>2.4030001163482666</v>
       </c>
       <c r="G17" t="s">
-        <v>33418</v>
+        <v>35612</v>
       </c>
       <c r="H17" t="s">
-        <v>33433</v>
+        <v>35627</v>
       </c>
       <c r="I17" t="s">
-        <v>33462</v>
+        <v>35656</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>33339</v>
+        <v>35533</v>
       </c>
       <c r="B18" t="s">
-        <v>33370</v>
+        <v>35564</v>
       </c>
       <c r="C18" t="s">
-        <v>33403</v>
+        <v>35597</v>
       </c>
       <c r="D18" s="1">
         <v>0.87000000476837158</v>
@@ -102827,24 +109409,24 @@
         <v>1.2899999618530273</v>
       </c>
       <c r="G18" t="s">
-        <v>33419</v>
+        <v>35613</v>
       </c>
       <c r="H18" t="s">
-        <v>33434</v>
+        <v>35628</v>
       </c>
       <c r="I18" t="s">
-        <v>33463</v>
+        <v>35657</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>33339</v>
+        <v>35533</v>
       </c>
       <c r="B19" t="s">
-        <v>33371</v>
+        <v>35565</v>
       </c>
       <c r="C19" t="s">
-        <v>33403</v>
+        <v>35597</v>
       </c>
       <c r="D19" s="1">
         <v>0.38999998569488525</v>
@@ -102856,24 +109438,24 @@
         <v>0.80000001192092896</v>
       </c>
       <c r="G19" t="s">
-        <v>33419</v>
+        <v>35613</v>
       </c>
       <c r="H19" t="s">
-        <v>33434</v>
+        <v>35628</v>
       </c>
       <c r="I19" t="s">
-        <v>33464</v>
+        <v>35658</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>33340</v>
+        <v>35534</v>
       </c>
       <c r="B20" t="s">
-        <v>33372</v>
+        <v>35566</v>
       </c>
       <c r="C20" t="s">
-        <v>33403</v>
+        <v>35597</v>
       </c>
       <c r="D20" s="1">
         <v>0.61000001430511475</v>
@@ -102885,24 +109467,24 @@
         <v>1.1699999570846558</v>
       </c>
       <c r="G20" t="s">
-        <v>33419</v>
+        <v>35613</v>
       </c>
       <c r="H20" t="s">
-        <v>33435</v>
+        <v>35629</v>
       </c>
       <c r="I20" t="s">
-        <v>33465</v>
+        <v>35659</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>33340</v>
+        <v>35534</v>
       </c>
       <c r="B21" t="s">
-        <v>33373</v>
+        <v>35567</v>
       </c>
       <c r="C21" t="s">
-        <v>33403</v>
+        <v>35597</v>
       </c>
       <c r="D21" s="1">
         <v>0.75</v>
@@ -102914,24 +109496,24 @@
         <v>1.3600000143051147</v>
       </c>
       <c r="G21" t="s">
-        <v>33419</v>
+        <v>35613</v>
       </c>
       <c r="H21" t="s">
-        <v>33435</v>
+        <v>35629</v>
       </c>
       <c r="I21" t="s">
-        <v>33466</v>
+        <v>35660</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>33340</v>
+        <v>35534</v>
       </c>
       <c r="B22" t="s">
-        <v>33374</v>
+        <v>35568</v>
       </c>
       <c r="C22" t="s">
-        <v>33404</v>
+        <v>35598</v>
       </c>
       <c r="D22" s="1">
         <v>5.9000000953674316</v>
@@ -102943,24 +109525,24 @@
         <v>46.099998474121094</v>
       </c>
       <c r="G22" t="s">
-        <v>33419</v>
+        <v>35613</v>
       </c>
       <c r="H22" t="s">
-        <v>33436</v>
+        <v>35630</v>
       </c>
       <c r="I22" t="s">
-        <v>33467</v>
+        <v>35661</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>33340</v>
+        <v>35534</v>
       </c>
       <c r="B23" t="s">
-        <v>33375</v>
+        <v>35569</v>
       </c>
       <c r="C23" t="s">
-        <v>33404</v>
+        <v>35598</v>
       </c>
       <c r="D23" s="1">
         <v>1.8200000524520874</v>
@@ -102972,24 +109554,24 @@
         <v>5.1399998664855957</v>
       </c>
       <c r="G23" t="s">
-        <v>33419</v>
+        <v>35613</v>
       </c>
       <c r="H23" t="s">
-        <v>33436</v>
+        <v>35630</v>
       </c>
       <c r="I23" t="s">
-        <v>33468</v>
+        <v>35662</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>33341</v>
+        <v>35535</v>
       </c>
       <c r="B24" t="s">
-        <v>33376</v>
+        <v>35570</v>
       </c>
       <c r="C24" t="s">
-        <v>33405</v>
+        <v>35599</v>
       </c>
       <c r="D24" s="1">
         <v>0.5899999737739563</v>
@@ -103001,24 +109583,24 @@
         <v>1.3999999761581421</v>
       </c>
       <c r="G24" t="s">
-        <v>33419</v>
+        <v>35613</v>
       </c>
       <c r="H24" t="s">
-        <v>33437</v>
+        <v>35631</v>
       </c>
       <c r="I24" t="s">
-        <v>33469</v>
+        <v>35663</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>33341</v>
+        <v>35535</v>
       </c>
       <c r="B25" t="s">
-        <v>33377</v>
+        <v>35571</v>
       </c>
       <c r="C25" t="s">
-        <v>33405</v>
+        <v>35599</v>
       </c>
       <c r="D25" s="1">
         <v>0.69999998807907104</v>
@@ -103030,24 +109612,24 @@
         <v>0.87000000476837158</v>
       </c>
       <c r="G25" t="s">
-        <v>33419</v>
+        <v>35613</v>
       </c>
       <c r="H25" t="s">
-        <v>33437</v>
+        <v>35631</v>
       </c>
       <c r="I25" t="s">
-        <v>33470</v>
+        <v>35664</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>33342</v>
+        <v>35536</v>
       </c>
       <c r="B26" t="s">
-        <v>33378</v>
+        <v>35572</v>
       </c>
       <c r="C26" t="s">
-        <v>33405</v>
+        <v>35599</v>
       </c>
       <c r="D26" s="1">
         <v>0.38999998569488525</v>
@@ -103059,24 +109641,24 @@
         <v>0.68999999761581421</v>
       </c>
       <c r="G26" t="s">
-        <v>33419</v>
+        <v>35613</v>
       </c>
       <c r="H26" t="s">
-        <v>33438</v>
+        <v>35632</v>
       </c>
       <c r="I26" t="s">
-        <v>33471</v>
+        <v>35665</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>33342</v>
+        <v>35536</v>
       </c>
       <c r="B27" t="s">
-        <v>33379</v>
+        <v>35573</v>
       </c>
       <c r="C27" t="s">
-        <v>33405</v>
+        <v>35599</v>
       </c>
       <c r="D27" s="1">
         <v>0.15999999642372131</v>
@@ -103088,24 +109670,24 @@
         <v>0.40000000596046448</v>
       </c>
       <c r="G27" t="s">
-        <v>33419</v>
+        <v>35613</v>
       </c>
       <c r="H27" t="s">
-        <v>33438</v>
+        <v>35632</v>
       </c>
       <c r="I27" t="s">
-        <v>33472</v>
+        <v>35666</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>33343</v>
+        <v>35537</v>
       </c>
       <c r="B28" t="s">
-        <v>33380</v>
+        <v>35574</v>
       </c>
       <c r="C28" t="s">
-        <v>33405</v>
+        <v>35599</v>
       </c>
       <c r="D28" s="1">
         <v>0.46000000834465027</v>
@@ -103117,24 +109699,24 @@
         <v>0.6600000262260437</v>
       </c>
       <c r="G28" t="s">
-        <v>33419</v>
+        <v>35613</v>
       </c>
       <c r="H28" t="s">
-        <v>33438</v>
+        <v>35632</v>
       </c>
       <c r="I28" t="s">
-        <v>33473</v>
+        <v>35667</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>33343</v>
+        <v>35537</v>
       </c>
       <c r="B29" t="s">
-        <v>33381</v>
+        <v>35575</v>
       </c>
       <c r="C29" t="s">
-        <v>33405</v>
+        <v>35599</v>
       </c>
       <c r="D29" s="1">
         <v>0.30000001192092896</v>
@@ -103146,24 +109728,24 @@
         <v>0.44999998807907104</v>
       </c>
       <c r="G29" t="s">
-        <v>33419</v>
+        <v>35613</v>
       </c>
       <c r="H29" t="s">
-        <v>33438</v>
+        <v>35632</v>
       </c>
       <c r="I29" t="s">
-        <v>33474</v>
+        <v>35668</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>33344</v>
+        <v>35538</v>
       </c>
       <c r="B30" t="s">
-        <v>33382</v>
+        <v>35576</v>
       </c>
       <c r="C30" t="s">
-        <v>33405</v>
+        <v>35599</v>
       </c>
       <c r="D30" s="1">
         <v>0.5</v>
@@ -103175,24 +109757,24 @@
         <v>1.059999942779541</v>
       </c>
       <c r="G30" t="s">
-        <v>33419</v>
+        <v>35613</v>
       </c>
       <c r="H30" t="s">
-        <v>33439</v>
+        <v>35633</v>
       </c>
       <c r="I30" t="s">
-        <v>33475</v>
+        <v>35669</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>33344</v>
+        <v>35538</v>
       </c>
       <c r="B31" t="s">
-        <v>33383</v>
+        <v>35577</v>
       </c>
       <c r="C31" t="s">
-        <v>33405</v>
+        <v>35599</v>
       </c>
       <c r="D31" s="1">
         <v>0.47999998927116394</v>
@@ -103204,24 +109786,24 @@
         <v>0.76999998092651367</v>
       </c>
       <c r="G31" t="s">
-        <v>33419</v>
+        <v>35613</v>
       </c>
       <c r="H31" t="s">
-        <v>33439</v>
+        <v>35633</v>
       </c>
       <c r="I31" t="s">
-        <v>33476</v>
+        <v>35670</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>33345</v>
+        <v>35539</v>
       </c>
       <c r="B32" t="s">
-        <v>33384</v>
+        <v>35578</v>
       </c>
       <c r="C32" t="s">
-        <v>33405</v>
+        <v>35599</v>
       </c>
       <c r="D32" s="1">
         <v>1.6200000047683716</v>
@@ -103233,24 +109815,24 @@
         <v>2.4100000858306885</v>
       </c>
       <c r="G32" t="s">
-        <v>33419</v>
+        <v>35613</v>
       </c>
       <c r="H32" t="s">
-        <v>33439</v>
+        <v>35633</v>
       </c>
       <c r="I32" t="s">
-        <v>33477</v>
+        <v>35671</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>33345</v>
+        <v>35539</v>
       </c>
       <c r="B33" t="s">
-        <v>33385</v>
+        <v>35579</v>
       </c>
       <c r="C33" t="s">
-        <v>33405</v>
+        <v>35599</v>
       </c>
       <c r="D33" s="1">
         <v>2.0099999904632568</v>
@@ -103262,24 +109844,24 @@
         <v>2.8399999141693115</v>
       </c>
       <c r="G33" t="s">
-        <v>33419</v>
+        <v>35613</v>
       </c>
       <c r="H33" t="s">
-        <v>33439</v>
+        <v>35633</v>
       </c>
       <c r="I33" t="s">
-        <v>33478</v>
+        <v>35672</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>33346</v>
+        <v>35540</v>
       </c>
       <c r="B34" t="s">
-        <v>33386</v>
+        <v>35580</v>
       </c>
       <c r="C34" t="s">
-        <v>33406</v>
+        <v>35600</v>
       </c>
       <c r="D34" s="1">
         <v>0.95999997854232788</v>
@@ -103291,24 +109873,24 @@
         <v>1.2560000419616699</v>
       </c>
       <c r="G34" t="s">
-        <v>33420</v>
+        <v>35614</v>
       </c>
       <c r="H34" t="s">
-        <v>33440</v>
+        <v>35634</v>
       </c>
       <c r="I34" t="s">
-        <v>33479</v>
+        <v>35673</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>33346</v>
+        <v>35540</v>
       </c>
       <c r="B35" t="s">
-        <v>33387</v>
+        <v>35581</v>
       </c>
       <c r="C35" t="s">
-        <v>33406</v>
+        <v>35600</v>
       </c>
       <c r="D35" s="1">
         <v>1.0800000429153442</v>
@@ -103320,24 +109902,24 @@
         <v>1.3609999418258667</v>
       </c>
       <c r="G35" t="s">
-        <v>33420</v>
+        <v>35614</v>
       </c>
       <c r="H35" t="s">
-        <v>33440</v>
+        <v>35634</v>
       </c>
       <c r="I35" t="s">
-        <v>33480</v>
+        <v>35674</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>33347</v>
+        <v>35541</v>
       </c>
       <c r="B36" t="s">
-        <v>33388</v>
+        <v>35582</v>
       </c>
       <c r="C36" t="s">
-        <v>33406</v>
+        <v>35600</v>
       </c>
       <c r="D36" s="1">
         <v>0.87699997425079346</v>
@@ -103349,24 +109931,24 @@
         <v>1.156000018119812</v>
       </c>
       <c r="G36" t="s">
-        <v>33421</v>
+        <v>35615</v>
       </c>
       <c r="H36" t="s">
-        <v>33441</v>
+        <v>35635</v>
       </c>
       <c r="I36" t="s">
-        <v>33481</v>
+        <v>35675</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>33347</v>
+        <v>35541</v>
       </c>
       <c r="B37" t="s">
-        <v>33389</v>
+        <v>35583</v>
       </c>
       <c r="C37" t="s">
-        <v>33406</v>
+        <v>35600</v>
       </c>
       <c r="D37" s="1">
         <v>0.68400001525878906</v>
@@ -103378,24 +109960,24 @@
         <v>0.875</v>
       </c>
       <c r="G37" t="s">
-        <v>33421</v>
+        <v>35615</v>
       </c>
       <c r="H37" t="s">
-        <v>33441</v>
+        <v>35635</v>
       </c>
       <c r="I37" t="s">
-        <v>33482</v>
+        <v>35676</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>33347</v>
+        <v>35541</v>
       </c>
       <c r="B38" t="s">
-        <v>33390</v>
+        <v>35584</v>
       </c>
       <c r="C38" t="s">
-        <v>33406</v>
+        <v>35600</v>
       </c>
       <c r="D38" s="1">
         <v>0.85699999332427979</v>
@@ -103407,24 +109989,24 @@
         <v>1.1779999732971191</v>
       </c>
       <c r="G38" t="s">
-        <v>33421</v>
+        <v>35615</v>
       </c>
       <c r="H38" t="s">
-        <v>33441</v>
+        <v>35635</v>
       </c>
       <c r="I38" t="s">
-        <v>33483</v>
+        <v>35677</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>33348</v>
+        <v>35542</v>
       </c>
       <c r="B39" t="s">
-        <v>33390</v>
+        <v>35584</v>
       </c>
       <c r="C39" t="s">
-        <v>33407</v>
+        <v>35601</v>
       </c>
       <c r="D39" s="1">
         <v>0.64999997615814209</v>
@@ -103436,24 +110018,24 @@
         <v>0.8399999737739563</v>
       </c>
       <c r="G39" t="s">
-        <v>33422</v>
+        <v>35616</v>
       </c>
       <c r="H39" t="s">
-        <v>33441</v>
+        <v>35635</v>
       </c>
       <c r="I39" t="s">
-        <v>33484</v>
+        <v>35678</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>33348</v>
+        <v>35542</v>
       </c>
       <c r="B40" t="s">
-        <v>33391</v>
+        <v>35585</v>
       </c>
       <c r="C40" t="s">
-        <v>33407</v>
+        <v>35601</v>
       </c>
       <c r="D40" s="1">
         <v>0.47999998927116394</v>
@@ -103465,24 +110047,24 @@
         <v>0.75</v>
       </c>
       <c r="G40" t="s">
-        <v>33422</v>
+        <v>35616</v>
       </c>
       <c r="H40" t="s">
-        <v>33441</v>
+        <v>35635</v>
       </c>
       <c r="I40" t="s">
-        <v>33485</v>
+        <v>35679</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>33349</v>
+        <v>35543</v>
       </c>
       <c r="B41" t="s">
-        <v>33392</v>
+        <v>35586</v>
       </c>
       <c r="C41" t="s">
-        <v>33408</v>
+        <v>35602</v>
       </c>
       <c r="D41" s="1">
         <v>0.78100001811981201</v>
@@ -103494,24 +110076,24 @@
         <v>1.3220000267028809</v>
       </c>
       <c r="G41" t="s">
-        <v>33423</v>
+        <v>35617</v>
       </c>
       <c r="H41" t="s">
-        <v>33442</v>
+        <v>35636</v>
       </c>
       <c r="I41" t="s">
-        <v>33486</v>
+        <v>35680</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>33349</v>
+        <v>35543</v>
       </c>
       <c r="B42" t="s">
-        <v>33393</v>
+        <v>35587</v>
       </c>
       <c r="C42" t="s">
-        <v>33408</v>
+        <v>35602</v>
       </c>
       <c r="D42" s="1">
         <v>0.97500002384185791</v>
@@ -103523,24 +110105,24 @@
         <v>1.1829999685287476</v>
       </c>
       <c r="G42" t="s">
-        <v>33423</v>
+        <v>35617</v>
       </c>
       <c r="H42" t="s">
-        <v>33442</v>
+        <v>35636</v>
       </c>
       <c r="I42" t="s">
-        <v>33487</v>
+        <v>35681</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>33350</v>
+        <v>35544</v>
       </c>
       <c r="B43" t="s">
-        <v>33394</v>
+        <v>35588</v>
       </c>
       <c r="C43" t="s">
-        <v>33408</v>
+        <v>35602</v>
       </c>
       <c r="D43" s="1">
         <v>0.93000000715255737</v>
@@ -103552,24 +110134,24 @@
         <v>1.309999942779541</v>
       </c>
       <c r="G43" t="s">
-        <v>33424</v>
+        <v>35618</v>
       </c>
       <c r="H43" t="s">
-        <v>33443</v>
+        <v>35637</v>
       </c>
       <c r="I43" t="s">
-        <v>33488</v>
+        <v>35682</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>33350</v>
+        <v>35544</v>
       </c>
       <c r="B44" t="s">
-        <v>33395</v>
+        <v>35589</v>
       </c>
       <c r="C44" t="s">
-        <v>33408</v>
+        <v>35602</v>
       </c>
       <c r="D44" s="1">
         <v>0.93999999761581421</v>
@@ -103581,24 +110163,24 @@
         <v>1.190000057220459</v>
       </c>
       <c r="G44" t="s">
-        <v>33424</v>
+        <v>35618</v>
       </c>
       <c r="H44" t="s">
-        <v>33443</v>
+        <v>35637</v>
       </c>
       <c r="I44" t="s">
-        <v>33489</v>
+        <v>35683</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>33351</v>
+        <v>35545</v>
       </c>
       <c r="B45" t="s">
-        <v>33396</v>
+        <v>35590</v>
       </c>
       <c r="C45" t="s">
-        <v>33409</v>
+        <v>35603</v>
       </c>
       <c r="D45" s="1">
         <v>0.63999998569488525</v>
@@ -103610,24 +110192,24 @@
         <v>0.9100000262260437</v>
       </c>
       <c r="G45" t="s">
-        <v>33424</v>
+        <v>35618</v>
       </c>
       <c r="H45" t="s">
-        <v>33444</v>
+        <v>35638</v>
       </c>
       <c r="I45" t="s">
-        <v>33490</v>
+        <v>35684</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>33351</v>
+        <v>35545</v>
       </c>
       <c r="B46" t="s">
-        <v>33397</v>
+        <v>35591</v>
       </c>
       <c r="C46" t="s">
-        <v>33409</v>
+        <v>35603</v>
       </c>
       <c r="D46" s="1">
         <v>0.72000002861022949</v>
@@ -103639,24 +110221,24 @@
         <v>0.89999997615814209</v>
       </c>
       <c r="G46" t="s">
-        <v>33424</v>
+        <v>35618</v>
       </c>
       <c r="H46" t="s">
-        <v>33444</v>
+        <v>35638</v>
       </c>
       <c r="I46" t="s">
-        <v>33491</v>
+        <v>35685</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>33352</v>
+        <v>35546</v>
       </c>
       <c r="B47" t="s">
-        <v>33398</v>
+        <v>35592</v>
       </c>
       <c r="C47" t="s">
-        <v>33409</v>
+        <v>35603</v>
       </c>
       <c r="D47" s="1">
         <v>0.46000000834465027</v>
@@ -103668,24 +110250,24 @@
         <v>0.73000001907348633</v>
       </c>
       <c r="G47" t="s">
-        <v>33424</v>
+        <v>35618</v>
       </c>
       <c r="H47" t="s">
-        <v>33445</v>
+        <v>35639</v>
       </c>
       <c r="I47" t="s">
-        <v>33492</v>
+        <v>35686</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>33352</v>
+        <v>35546</v>
       </c>
       <c r="B48" t="s">
-        <v>33399</v>
+        <v>35593</v>
       </c>
       <c r="C48" t="s">
-        <v>33409</v>
+        <v>35603</v>
       </c>
       <c r="D48" s="1">
         <v>0.62999999523162842</v>
@@ -103697,13 +110279,13 @@
         <v>0.89999997615814209</v>
       </c>
       <c r="G48" t="s">
-        <v>33424</v>
+        <v>35618</v>
       </c>
       <c r="H48" t="s">
-        <v>33445</v>
+        <v>35639</v>
       </c>
       <c r="I48" t="s">
-        <v>33493</v>
+        <v>35687</v>
       </c>
     </row>
   </sheetData>

--- a/products/Exported Data.xlsx
+++ b/products/Exported Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60875" uniqueCount="35688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62115" uniqueCount="36408">
   <si>
     <t>Study</t>
   </si>
@@ -101537,6 +101537,2166 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Study: Treatment 1 vs Treatment 2</t>
+  </si>
+  <si>
+    <t>Attal 2019 (ICARIA-MM): IsPd vs Pd</t>
+  </si>
+  <si>
+    <t>Bahlis 2020 (POLLUX): DRd vs Rd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2013 (VANTAGE 088): VorV vs V</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2016 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-3): EPd vs Pd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2020 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2021 (APOLLO): DPd vs Pd</t>
+  </si>
+  <si>
+    <t>Grosicki 2020 (BOSTON): SeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Hou 2017 (China Cont.): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>Jakubowiak 2016 (NCT01478048): EVd vs Vd</t>
+  </si>
+  <si>
+    <t>Kumar 2020 (BELLINI): VeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Lu 2021 (LEPUS): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Mateos 2020 (CASTOR): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Moreau 2021 (IKEMA): IsKd vs Kd</t>
+  </si>
+  <si>
+    <t>Orlowski 2019 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2019 (OPTIMISMM): PVd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2021 (TOURMALINE-MM1): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2014 (PANORAMA-1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2016 (PANORAMA 1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2013 (MM-003): Pd vs GC</t>
+  </si>
+  <si>
+    <t>Siegel 2018 (ASPIRE): KRd vs Rd</t>
+  </si>
+  <si>
+    <t>Usamani 2022 (CANDOR): DKd vs Kd</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;=3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;=2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Lower 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>Upper 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t>Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      AT 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t>Data Extraction Errors</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Study: Treatment 1 vs Treatment 2</t>
+  </si>
+  <si>
+    <t>Attal 2019 (ICARIA-MM): IsPd vs Pd</t>
+  </si>
+  <si>
+    <t>Bahlis 2020 (POLLUX): DRd vs Rd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2013 (VANTAGE 088): VorV vs V</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2016 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-3): EPd vs Pd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2021 (APOLLO): DPd vs Pd</t>
+  </si>
+  <si>
+    <t>Hou 2017 (China Cont.): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>Jakubowiak 2016 (NCT01478048): EVd vs Vd</t>
+  </si>
+  <si>
+    <t>Kumar 2020 (BELLINI): VeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Lonial 2015 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Lu 2021 (LEPUS): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Mateos 2020 (CASTOR): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Moreau 2021 (IKEMA): IsKd vs Kd</t>
+  </si>
+  <si>
+    <t>Orlowski 2007 (NCT00103506): V vs DoxV</t>
+  </si>
+  <si>
+    <t>Orlowski 2016 (NCT00103506): V vs DoxV</t>
+  </si>
+  <si>
+    <t>Orlowski 2019 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2019 (OPTIMISMM): PVd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2021 (TOURMALINE-MM1): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2016 (PANORAMA 1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>Stewart 2015 (ASPIRE): KRd vs Rd</t>
+  </si>
+  <si>
+    <t>Usmani 2022 (CANDOR): DKd vs Kd</t>
+  </si>
+  <si>
+    <t>refract</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Ref. to R and a PI</t>
+  </si>
+  <si>
+    <t>Not ref. to R and a PI</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous R or T use</t>
+  </si>
+  <si>
+    <t>No previous R or T use</t>
+  </si>
+  <si>
+    <t>Previous R or T use</t>
+  </si>
+  <si>
+    <t>No previous R or T use</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Refractory to T</t>
+  </si>
+  <si>
+    <t>Not refractory to T</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No previous IMiD use</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Lower 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>Upper 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0230</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .       Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t>Data Extraction Errors</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Study: Treatment 1 vs Treatment 2</t>
+  </si>
+  <si>
+    <t>Attal 2019 (ICARIA-MM): IsPd vs Pd</t>
+  </si>
+  <si>
+    <t>Bahlis 2020 (POLLUX): DRd vs Rd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2013 (VANTAGE 088): VorV vs V</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2016 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-3): EPd vs Pd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2020 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2021 (APOLLO): DPd vs Pd</t>
+  </si>
+  <si>
+    <t>Grosicki 2020 (BOSTON): SeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Hou 2017 (China Cont.): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>Jakubowiak 2016 (NCT01478048): EVd vs Vd</t>
+  </si>
+  <si>
+    <t>Kumar 2020 (BELLINI): VeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Lu 2021 (LEPUS): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Mateos 2020 (CASTOR): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Moreau 2021 (IKEMA): IsKd vs Kd</t>
+  </si>
+  <si>
+    <t>Orlowski 2019 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2019 (OPTIMISMM): PVd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2021 (TOURMALINE-MM1): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2014 (PANORAMA-1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2016 (PANORAMA 1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2013 (MM-003): Pd vs GC</t>
+  </si>
+  <si>
+    <t>Siegel 2018 (ASPIRE): KRd vs Rd</t>
+  </si>
+  <si>
+    <t>Usamani 2022 (CANDOR): DKd vs Kd</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;=3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;=2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Lower 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>Upper 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t>Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      AT 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t>Data Extraction Errors</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Study: Treatment 1 vs Treatment 2</t>
+  </si>
+  <si>
+    <t>Attal 2019 (ICARIA-MM): IsPd vs Pd</t>
+  </si>
+  <si>
+    <t>Bahlis 2020 (POLLUX): DRd vs Rd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2013 (VANTAGE 088): VorV vs V</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2016 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-3): EPd vs Pd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2021 (APOLLO): DPd vs Pd</t>
+  </si>
+  <si>
+    <t>Hou 2017 (China Cont.): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>Jakubowiak 2016 (NCT01478048): EVd vs Vd</t>
+  </si>
+  <si>
+    <t>Kumar 2020 (BELLINI): VeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Lonial 2015 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Lu 2021 (LEPUS): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Mateos 2020 (CASTOR): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Moreau 2021 (IKEMA): IsKd vs Kd</t>
+  </si>
+  <si>
+    <t>Orlowski 2007 (NCT00103506): V vs DoxV</t>
+  </si>
+  <si>
+    <t>Orlowski 2016 (NCT00103506): V vs DoxV</t>
+  </si>
+  <si>
+    <t>Orlowski 2019 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2019 (OPTIMISMM): PVd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2021 (TOURMALINE-MM1): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2016 (PANORAMA 1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>Stewart 2015 (ASPIRE): KRd vs Rd</t>
+  </si>
+  <si>
+    <t>Usmani 2022 (CANDOR): DKd vs Kd</t>
+  </si>
+  <si>
+    <t>refract</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Ref. to R and a PI</t>
+  </si>
+  <si>
+    <t>Not ref. to R and a PI</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous R or T use</t>
+  </si>
+  <si>
+    <t>No previous R or T use</t>
+  </si>
+  <si>
+    <t>Previous R or T use</t>
+  </si>
+  <si>
+    <t>No previous R or T use</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Refractory to T</t>
+  </si>
+  <si>
+    <t>Not refractory to T</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No previous IMiD use</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Lower 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>Upper 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0230</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .       Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t>Data Extraction Errors</t>
   </si>
   <si>
     <t/>
@@ -107128,42 +109288,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>35328</v>
+        <v>36048</v>
       </c>
       <c r="B1" t="s">
-        <v>35352</v>
+        <v>36072</v>
       </c>
       <c r="C1" t="s">
-        <v>35416</v>
+        <v>36136</v>
       </c>
       <c r="D1" t="s">
-        <v>35432</v>
+        <v>36152</v>
       </c>
       <c r="E1" t="s">
-        <v>35433</v>
+        <v>36153</v>
       </c>
       <c r="F1" t="s">
-        <v>35434</v>
+        <v>36154</v>
       </c>
       <c r="G1" t="s">
-        <v>35435</v>
+        <v>36155</v>
       </c>
       <c r="H1" t="s">
-        <v>35436</v>
+        <v>36156</v>
       </c>
       <c r="I1" t="s">
-        <v>35460</v>
+        <v>36180</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>35329</v>
+        <v>36049</v>
       </c>
       <c r="B2" t="s">
-        <v>35353</v>
+        <v>36073</v>
       </c>
       <c r="C2" t="s">
-        <v>35417</v>
+        <v>36137</v>
       </c>
       <c r="D2" s="1">
         <v>0.5899999737739563</v>
@@ -107176,21 +109336,21 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" t="s">
-        <v>35437</v>
+        <v>36157</v>
       </c>
       <c r="I2" t="s">
-        <v>35461</v>
+        <v>36181</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>35329</v>
+        <v>36049</v>
       </c>
       <c r="B3" t="s">
-        <v>35354</v>
+        <v>36074</v>
       </c>
       <c r="C3" t="s">
-        <v>35417</v>
+        <v>36137</v>
       </c>
       <c r="D3" s="1">
         <v>0.5899999737739563</v>
@@ -107203,21 +109363,21 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" t="s">
-        <v>35437</v>
+        <v>36157</v>
       </c>
       <c r="I3" t="s">
-        <v>35462</v>
+        <v>36182</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>35330</v>
+        <v>36050</v>
       </c>
       <c r="B4" t="s">
-        <v>35355</v>
+        <v>36075</v>
       </c>
       <c r="C4" t="s">
-        <v>35417</v>
+        <v>36137</v>
       </c>
       <c r="D4" s="1">
         <v>0.41999998688697815</v>
@@ -107230,21 +109390,21 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" t="s">
-        <v>35438</v>
+        <v>36158</v>
       </c>
       <c r="I4" t="s">
-        <v>35463</v>
+        <v>36183</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>35330</v>
+        <v>36050</v>
       </c>
       <c r="B5" t="s">
-        <v>35356</v>
+        <v>36076</v>
       </c>
       <c r="C5" t="s">
-        <v>35417</v>
+        <v>36137</v>
       </c>
       <c r="D5" s="1">
         <v>0.38999998569488525</v>
@@ -107257,21 +109417,21 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" t="s">
-        <v>35438</v>
+        <v>36158</v>
       </c>
       <c r="I5" t="s">
-        <v>35464</v>
+        <v>36184</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>35330</v>
+        <v>36050</v>
       </c>
       <c r="B6" t="s">
-        <v>35357</v>
+        <v>36077</v>
       </c>
       <c r="C6" t="s">
-        <v>35417</v>
+        <v>36137</v>
       </c>
       <c r="D6" s="1">
         <v>0.47999998927116394</v>
@@ -107284,21 +109444,21 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" t="s">
-        <v>35438</v>
+        <v>36158</v>
       </c>
       <c r="I6" t="s">
-        <v>35465</v>
+        <v>36185</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>35330</v>
+        <v>36050</v>
       </c>
       <c r="B7" t="s">
-        <v>35358</v>
+        <v>36078</v>
       </c>
       <c r="C7" t="s">
-        <v>35417</v>
+        <v>36137</v>
       </c>
       <c r="D7" s="1">
         <v>0.74000000953674316</v>
@@ -107311,21 +109471,21 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" t="s">
-        <v>35438</v>
+        <v>36158</v>
       </c>
       <c r="I7" t="s">
-        <v>35466</v>
+        <v>36186</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>35331</v>
+        <v>36051</v>
       </c>
       <c r="B8" t="s">
-        <v>35359</v>
+        <v>36079</v>
       </c>
       <c r="C8" t="s">
-        <v>35417</v>
+        <v>36137</v>
       </c>
       <c r="D8" s="1">
         <v>0.68699997663497925</v>
@@ -107340,21 +109500,21 @@
         <v>0.015200000256299973</v>
       </c>
       <c r="H8" t="s">
-        <v>35439</v>
+        <v>36159</v>
       </c>
       <c r="I8" t="s">
-        <v>35467</v>
+        <v>36187</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>35331</v>
+        <v>36051</v>
       </c>
       <c r="B9" t="s">
-        <v>35360</v>
+        <v>36080</v>
       </c>
       <c r="C9" t="s">
-        <v>35417</v>
+        <v>36137</v>
       </c>
       <c r="D9" s="1">
         <v>0.91600000858306885</v>
@@ -107369,21 +109529,21 @@
         <v>0.48710000514984131</v>
       </c>
       <c r="H9" t="s">
-        <v>35440</v>
+        <v>36160</v>
       </c>
       <c r="I9" t="s">
-        <v>35468</v>
+        <v>36188</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>35332</v>
+        <v>36052</v>
       </c>
       <c r="B10" t="s">
-        <v>35361</v>
+        <v>36081</v>
       </c>
       <c r="C10" t="s">
-        <v>35417</v>
+        <v>36137</v>
       </c>
       <c r="D10" s="1">
         <v>0.44999998807907104</v>
@@ -107396,21 +109556,21 @@
       </c>
       <c r="G10" s="1"/>
       <c r="H10" t="s">
-        <v>35441</v>
+        <v>36161</v>
       </c>
       <c r="I10" t="s">
-        <v>35469</v>
+        <v>36189</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>35332</v>
+        <v>36052</v>
       </c>
       <c r="B11" t="s">
-        <v>35362</v>
+        <v>36082</v>
       </c>
       <c r="C11" t="s">
-        <v>35417</v>
+        <v>36137</v>
       </c>
       <c r="D11" s="1">
         <v>0.60000002384185791</v>
@@ -107423,21 +109583,21 @@
       </c>
       <c r="G11" s="1"/>
       <c r="H11" t="s">
-        <v>35441</v>
+        <v>36161</v>
       </c>
       <c r="I11" t="s">
-        <v>35470</v>
+        <v>36190</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>35333</v>
+        <v>36053</v>
       </c>
       <c r="B12" t="s">
-        <v>35362</v>
+        <v>36082</v>
       </c>
       <c r="C12" t="s">
-        <v>35417</v>
+        <v>36137</v>
       </c>
       <c r="D12" s="1">
         <v>0.55000001192092896</v>
@@ -107450,21 +109610,21 @@
       </c>
       <c r="G12" s="1"/>
       <c r="H12" t="s">
-        <v>35442</v>
+        <v>36162</v>
       </c>
       <c r="I12" t="s">
-        <v>35471</v>
+        <v>36191</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>35333</v>
+        <v>36053</v>
       </c>
       <c r="B13" t="s">
-        <v>35363</v>
+        <v>36083</v>
       </c>
       <c r="C13" t="s">
-        <v>35417</v>
+        <v>36137</v>
       </c>
       <c r="D13" s="1">
         <v>0.50999999046325684</v>
@@ -107477,21 +109637,21 @@
       </c>
       <c r="G13" s="1"/>
       <c r="H13" t="s">
-        <v>35442</v>
+        <v>36162</v>
       </c>
       <c r="I13" t="s">
-        <v>35472</v>
+        <v>36192</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>35334</v>
+        <v>36054</v>
       </c>
       <c r="B14" t="s">
-        <v>35364</v>
+        <v>36084</v>
       </c>
       <c r="C14" t="s">
-        <v>35417</v>
+        <v>36137</v>
       </c>
       <c r="D14" s="1">
         <v>0.76999998092651367</v>
@@ -107504,21 +109664,21 @@
       </c>
       <c r="G14" s="1"/>
       <c r="H14" t="s">
-        <v>35443</v>
+        <v>36163</v>
       </c>
       <c r="I14" t="s">
-        <v>35473</v>
+        <v>36193</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>35334</v>
+        <v>36054</v>
       </c>
       <c r="B15" t="s">
-        <v>35365</v>
+        <v>36085</v>
       </c>
       <c r="C15" t="s">
-        <v>35417</v>
+        <v>36137</v>
       </c>
       <c r="D15" s="1">
         <v>0.68000000715255737</v>
@@ -107531,21 +109691,21 @@
       </c>
       <c r="G15" s="1"/>
       <c r="H15" t="s">
-        <v>35443</v>
+        <v>36163</v>
       </c>
       <c r="I15" t="s">
-        <v>35474</v>
+        <v>36194</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>35335</v>
+        <v>36055</v>
       </c>
       <c r="B16" t="s">
-        <v>35366</v>
+        <v>36086</v>
       </c>
       <c r="C16" t="s">
-        <v>35418</v>
+        <v>36138</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -107558,21 +109718,21 @@
       </c>
       <c r="G16" s="1"/>
       <c r="H16" t="s">
-        <v>35443</v>
+        <v>36163</v>
       </c>
       <c r="I16" t="s">
-        <v>35475</v>
+        <v>36195</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>35335</v>
+        <v>36055</v>
       </c>
       <c r="B17" t="s">
-        <v>35367</v>
+        <v>36087</v>
       </c>
       <c r="C17" t="s">
-        <v>35418</v>
+        <v>36138</v>
       </c>
       <c r="D17" s="1">
         <v>0.70999997854232788</v>
@@ -107585,21 +109745,21 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" t="s">
-        <v>35443</v>
+        <v>36163</v>
       </c>
       <c r="I17" t="s">
-        <v>35476</v>
+        <v>36196</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>35336</v>
+        <v>36056</v>
       </c>
       <c r="B18" t="s">
-        <v>35368</v>
+        <v>36088</v>
       </c>
       <c r="C18" t="s">
-        <v>35419</v>
+        <v>36139</v>
       </c>
       <c r="D18" s="1">
         <v>0.69999998807907104</v>
@@ -107612,21 +109772,21 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18" t="s">
-        <v>35444</v>
+        <v>36164</v>
       </c>
       <c r="I18" t="s">
-        <v>35477</v>
+        <v>36197</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>35336</v>
+        <v>36056</v>
       </c>
       <c r="B19" t="s">
-        <v>35369</v>
+        <v>36089</v>
       </c>
       <c r="C19" t="s">
-        <v>35419</v>
+        <v>36139</v>
       </c>
       <c r="D19" s="1">
         <v>0.6600000262260437</v>
@@ -107639,21 +109799,21 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" t="s">
-        <v>35444</v>
+        <v>36164</v>
       </c>
       <c r="I19" t="s">
-        <v>35478</v>
+        <v>36198</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>35336</v>
+        <v>36056</v>
       </c>
       <c r="B20" t="s">
-        <v>35370</v>
+        <v>36090</v>
       </c>
       <c r="C20" t="s">
-        <v>35419</v>
+        <v>36139</v>
       </c>
       <c r="D20" s="1">
         <v>0.40000000596046448</v>
@@ -107666,21 +109826,21 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" t="s">
-        <v>35444</v>
+        <v>36164</v>
       </c>
       <c r="I20" t="s">
-        <v>35479</v>
+        <v>36199</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>35337</v>
+        <v>36057</v>
       </c>
       <c r="B21" t="s">
-        <v>35371</v>
+        <v>36091</v>
       </c>
       <c r="C21" t="s">
-        <v>35419</v>
+        <v>36139</v>
       </c>
       <c r="D21" s="1">
         <v>0.62999999523162842</v>
@@ -107693,21 +109853,21 @@
       </c>
       <c r="G21" s="1"/>
       <c r="H21" t="s">
-        <v>35445</v>
+        <v>36165</v>
       </c>
       <c r="I21" t="s">
-        <v>35480</v>
+        <v>36200</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>35337</v>
+        <v>36057</v>
       </c>
       <c r="B22" t="s">
-        <v>35372</v>
+        <v>36092</v>
       </c>
       <c r="C22" t="s">
-        <v>35419</v>
+        <v>36139</v>
       </c>
       <c r="D22" s="1">
         <v>0.64999997615814209</v>
@@ -107720,21 +109880,21 @@
       </c>
       <c r="G22" s="1"/>
       <c r="H22" t="s">
-        <v>35445</v>
+        <v>36165</v>
       </c>
       <c r="I22" t="s">
-        <v>35481</v>
+        <v>36201</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>35337</v>
+        <v>36057</v>
       </c>
       <c r="B23" t="s">
-        <v>35373</v>
+        <v>36093</v>
       </c>
       <c r="C23" t="s">
-        <v>35419</v>
+        <v>36139</v>
       </c>
       <c r="D23" s="1">
         <v>0.81999999284744263</v>
@@ -107747,21 +109907,21 @@
       </c>
       <c r="G23" s="1"/>
       <c r="H23" t="s">
-        <v>35445</v>
+        <v>36165</v>
       </c>
       <c r="I23" t="s">
-        <v>35482</v>
+        <v>36202</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35338</v>
+        <v>36058</v>
       </c>
       <c r="B24" t="s">
-        <v>35374</v>
+        <v>36094</v>
       </c>
       <c r="C24" t="s">
-        <v>35419</v>
+        <v>36139</v>
       </c>
       <c r="D24" s="1">
         <v>0.84700000286102295</v>
@@ -107774,21 +109934,21 @@
       </c>
       <c r="G24" s="1"/>
       <c r="H24" t="s">
-        <v>35446</v>
+        <v>36166</v>
       </c>
       <c r="I24" t="s">
-        <v>35483</v>
+        <v>36203</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>35338</v>
+        <v>36058</v>
       </c>
       <c r="B25" t="s">
-        <v>35375</v>
+        <v>36095</v>
       </c>
       <c r="C25" t="s">
-        <v>35419</v>
+        <v>36139</v>
       </c>
       <c r="D25" s="1">
         <v>0.37000000476837158</v>
@@ -107801,21 +109961,21 @@
       </c>
       <c r="G25" s="1"/>
       <c r="H25" t="s">
-        <v>35446</v>
+        <v>36166</v>
       </c>
       <c r="I25" t="s">
-        <v>35484</v>
+        <v>36204</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>35338</v>
+        <v>36058</v>
       </c>
       <c r="B26" t="s">
-        <v>35376</v>
+        <v>36096</v>
       </c>
       <c r="C26" t="s">
-        <v>35419</v>
+        <v>36139</v>
       </c>
       <c r="D26" s="1">
         <v>0.70200002193450928</v>
@@ -107828,21 +109988,21 @@
       </c>
       <c r="G26" s="1"/>
       <c r="H26" t="s">
-        <v>35446</v>
+        <v>36166</v>
       </c>
       <c r="I26" t="s">
-        <v>35485</v>
+        <v>36205</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>35338</v>
+        <v>36058</v>
       </c>
       <c r="B27" t="s">
-        <v>35377</v>
+        <v>36097</v>
       </c>
       <c r="C27" t="s">
-        <v>35420</v>
+        <v>36140</v>
       </c>
       <c r="D27" s="1">
         <v>0.52100002765655518</v>
@@ -107855,21 +110015,21 @@
       </c>
       <c r="G27" s="1"/>
       <c r="H27" t="s">
-        <v>35447</v>
+        <v>36167</v>
       </c>
       <c r="I27" t="s">
-        <v>35486</v>
+        <v>36206</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35338</v>
+        <v>36058</v>
       </c>
       <c r="B28" t="s">
-        <v>35378</v>
+        <v>36098</v>
       </c>
       <c r="C28" t="s">
-        <v>35420</v>
+        <v>36140</v>
       </c>
       <c r="D28" s="1">
         <v>0.38600000739097595</v>
@@ -107882,21 +110042,21 @@
       </c>
       <c r="G28" s="1"/>
       <c r="H28" t="s">
-        <v>35447</v>
+        <v>36167</v>
       </c>
       <c r="I28" t="s">
-        <v>35487</v>
+        <v>36207</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>35338</v>
+        <v>36058</v>
       </c>
       <c r="B29" t="s">
-        <v>35379</v>
+        <v>36099</v>
       </c>
       <c r="C29" t="s">
-        <v>35420</v>
+        <v>36140</v>
       </c>
       <c r="D29" s="1">
         <v>0.335999995470047</v>
@@ -107909,21 +110069,21 @@
       </c>
       <c r="G29" s="1"/>
       <c r="H29" t="s">
-        <v>35447</v>
+        <v>36167</v>
       </c>
       <c r="I29" t="s">
-        <v>35488</v>
+        <v>36208</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>35339</v>
+        <v>36059</v>
       </c>
       <c r="B30" t="s">
-        <v>35380</v>
+        <v>36100</v>
       </c>
       <c r="C30" t="s">
-        <v>35421</v>
+        <v>36141</v>
       </c>
       <c r="D30" s="1">
         <v>0.74000000953674316</v>
@@ -107936,21 +110096,21 @@
       </c>
       <c r="G30" s="1"/>
       <c r="H30" t="s">
-        <v>35448</v>
+        <v>36168</v>
       </c>
       <c r="I30" t="s">
-        <v>35489</v>
+        <v>36209</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>35339</v>
+        <v>36059</v>
       </c>
       <c r="B31" t="s">
-        <v>35381</v>
+        <v>36101</v>
       </c>
       <c r="C31" t="s">
-        <v>35421</v>
+        <v>36141</v>
       </c>
       <c r="D31" s="1">
         <v>0.75999999046325684</v>
@@ -107963,21 +110123,21 @@
       </c>
       <c r="G31" s="1"/>
       <c r="H31" t="s">
-        <v>35448</v>
+        <v>36168</v>
       </c>
       <c r="I31" t="s">
-        <v>35490</v>
+        <v>36210</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>35340</v>
+        <v>36060</v>
       </c>
       <c r="B32" t="s">
-        <v>35382</v>
+        <v>36102</v>
       </c>
       <c r="C32" t="s">
-        <v>35421</v>
+        <v>36141</v>
       </c>
       <c r="D32" s="1">
         <v>0.75</v>
@@ -107990,21 +110150,21 @@
       </c>
       <c r="G32" s="1"/>
       <c r="H32" t="s">
-        <v>35449</v>
+        <v>36169</v>
       </c>
       <c r="I32" t="s">
-        <v>35491</v>
+        <v>36211</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>35340</v>
+        <v>36060</v>
       </c>
       <c r="B33" t="s">
-        <v>35383</v>
+        <v>36103</v>
       </c>
       <c r="C33" t="s">
-        <v>35421</v>
+        <v>36141</v>
       </c>
       <c r="D33" s="1">
         <v>0.54000002145767212</v>
@@ -108017,21 +110177,21 @@
       </c>
       <c r="G33" s="1"/>
       <c r="H33" t="s">
-        <v>35449</v>
+        <v>36169</v>
       </c>
       <c r="I33" t="s">
-        <v>35492</v>
+        <v>36212</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>35340</v>
+        <v>36060</v>
       </c>
       <c r="B34" t="s">
-        <v>35384</v>
+        <v>36104</v>
       </c>
       <c r="C34" t="s">
-        <v>35422</v>
+        <v>36142</v>
       </c>
       <c r="D34" s="1">
         <v>1.6699999570846558</v>
@@ -108044,21 +110204,21 @@
       </c>
       <c r="G34" s="1"/>
       <c r="H34" t="s">
-        <v>35450</v>
+        <v>36170</v>
       </c>
       <c r="I34" t="s">
-        <v>35493</v>
+        <v>36213</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>35340</v>
+        <v>36060</v>
       </c>
       <c r="B35" t="s">
-        <v>35385</v>
+        <v>36105</v>
       </c>
       <c r="C35" t="s">
-        <v>35422</v>
+        <v>36142</v>
       </c>
       <c r="D35" s="1">
         <v>2.3299999237060547</v>
@@ -108071,21 +110231,21 @@
       </c>
       <c r="G35" s="1"/>
       <c r="H35" t="s">
-        <v>35450</v>
+        <v>36170</v>
       </c>
       <c r="I35" t="s">
-        <v>35494</v>
+        <v>36214</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>35341</v>
+        <v>36061</v>
       </c>
       <c r="B36" t="s">
-        <v>35386</v>
+        <v>36106</v>
       </c>
       <c r="C36" t="s">
-        <v>35423</v>
+        <v>36143</v>
       </c>
       <c r="D36" s="1">
         <v>0.15999999642372131</v>
@@ -108098,21 +110258,21 @@
       </c>
       <c r="G36" s="1"/>
       <c r="H36" t="s">
-        <v>35451</v>
+        <v>36171</v>
       </c>
       <c r="I36" t="s">
-        <v>35495</v>
+        <v>36215</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>35341</v>
+        <v>36061</v>
       </c>
       <c r="B37" t="s">
-        <v>35387</v>
+        <v>36107</v>
       </c>
       <c r="C37" t="s">
-        <v>35423</v>
+        <v>36143</v>
       </c>
       <c r="D37" s="1">
         <v>0.51999998092651367</v>
@@ -108125,21 +110285,21 @@
       </c>
       <c r="G37" s="1"/>
       <c r="H37" t="s">
-        <v>35451</v>
+        <v>36171</v>
       </c>
       <c r="I37" t="s">
-        <v>35496</v>
+        <v>36216</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>35341</v>
+        <v>36061</v>
       </c>
       <c r="B38" t="s">
-        <v>35388</v>
+        <v>36108</v>
       </c>
       <c r="C38" t="s">
-        <v>35423</v>
+        <v>36143</v>
       </c>
       <c r="D38" s="1">
         <v>0.62999999523162842</v>
@@ -108152,21 +110312,21 @@
       </c>
       <c r="G38" s="1"/>
       <c r="H38" t="s">
-        <v>35451</v>
+        <v>36171</v>
       </c>
       <c r="I38" t="s">
-        <v>35497</v>
+        <v>36217</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>35341</v>
+        <v>36061</v>
       </c>
       <c r="B39" t="s">
-        <v>35389</v>
+        <v>36109</v>
       </c>
       <c r="C39" t="s">
-        <v>35423</v>
+        <v>36143</v>
       </c>
       <c r="D39" s="1">
         <v>0.25999999046325684</v>
@@ -108179,21 +110339,21 @@
       </c>
       <c r="G39" s="1"/>
       <c r="H39" t="s">
-        <v>35451</v>
+        <v>36171</v>
       </c>
       <c r="I39" t="s">
-        <v>35498</v>
+        <v>36218</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>35342</v>
+        <v>36062</v>
       </c>
       <c r="B40" t="s">
-        <v>35390</v>
+        <v>36110</v>
       </c>
       <c r="C40" t="s">
-        <v>35423</v>
+        <v>36143</v>
       </c>
       <c r="D40" s="1">
         <v>0.2199999988079071</v>
@@ -108206,21 +110366,21 @@
       </c>
       <c r="G40" s="1"/>
       <c r="H40" t="s">
-        <v>35451</v>
+        <v>36171</v>
       </c>
       <c r="I40" t="s">
-        <v>35499</v>
+        <v>36219</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>35342</v>
+        <v>36062</v>
       </c>
       <c r="B41" t="s">
-        <v>35391</v>
+        <v>36111</v>
       </c>
       <c r="C41" t="s">
-        <v>35423</v>
+        <v>36143</v>
       </c>
       <c r="D41" s="1">
         <v>0.46000000834465027</v>
@@ -108233,21 +110393,21 @@
       </c>
       <c r="G41" s="1"/>
       <c r="H41" t="s">
-        <v>35451</v>
+        <v>36171</v>
       </c>
       <c r="I41" t="s">
-        <v>35500</v>
+        <v>36220</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>35342</v>
+        <v>36062</v>
       </c>
       <c r="B42" t="s">
-        <v>35392</v>
+        <v>36112</v>
       </c>
       <c r="C42" t="s">
-        <v>35423</v>
+        <v>36143</v>
       </c>
       <c r="D42" s="1">
         <v>0.60000002384185791</v>
@@ -108260,21 +110420,21 @@
       </c>
       <c r="G42" s="1"/>
       <c r="H42" t="s">
-        <v>35451</v>
+        <v>36171</v>
       </c>
       <c r="I42" t="s">
-        <v>35501</v>
+        <v>36221</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>35342</v>
+        <v>36062</v>
       </c>
       <c r="B43" t="s">
-        <v>35393</v>
+        <v>36113</v>
       </c>
       <c r="C43" t="s">
-        <v>35423</v>
+        <v>36143</v>
       </c>
       <c r="D43" s="1">
         <v>0.37000000476837158</v>
@@ -108287,21 +110447,21 @@
       </c>
       <c r="G43" s="1"/>
       <c r="H43" t="s">
-        <v>35451</v>
+        <v>36171</v>
       </c>
       <c r="I43" t="s">
-        <v>35502</v>
+        <v>36222</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>35343</v>
+        <v>36063</v>
       </c>
       <c r="B44" t="s">
-        <v>35394</v>
+        <v>36114</v>
       </c>
       <c r="C44" t="s">
-        <v>35423</v>
+        <v>36143</v>
       </c>
       <c r="D44" s="1">
         <v>0.5899999737739563</v>
@@ -108314,21 +110474,21 @@
       </c>
       <c r="G44" s="1"/>
       <c r="H44" t="s">
-        <v>35452</v>
+        <v>36172</v>
       </c>
       <c r="I44" t="s">
-        <v>35503</v>
+        <v>36223</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>35343</v>
+        <v>36063</v>
       </c>
       <c r="B45" t="s">
-        <v>35395</v>
+        <v>36115</v>
       </c>
       <c r="C45" t="s">
-        <v>35423</v>
+        <v>36143</v>
       </c>
       <c r="D45" s="1">
         <v>0.47999998927116394</v>
@@ -108341,21 +110501,21 @@
       </c>
       <c r="G45" s="1"/>
       <c r="H45" t="s">
-        <v>35452</v>
+        <v>36172</v>
       </c>
       <c r="I45" t="s">
-        <v>35504</v>
+        <v>36224</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>35344</v>
+        <v>36064</v>
       </c>
       <c r="B46" t="s">
-        <v>35396</v>
+        <v>36116</v>
       </c>
       <c r="C46" t="s">
-        <v>35424</v>
+        <v>36144</v>
       </c>
       <c r="D46" s="1">
         <v>0.77100002765655518</v>
@@ -108368,21 +110528,21 @@
       </c>
       <c r="G46" s="1"/>
       <c r="H46" t="s">
-        <v>35452</v>
+        <v>36172</v>
       </c>
       <c r="I46" t="s">
-        <v>35505</v>
+        <v>36225</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>35344</v>
+        <v>36064</v>
       </c>
       <c r="B47" t="s">
-        <v>35397</v>
+        <v>36117</v>
       </c>
       <c r="C47" t="s">
-        <v>35424</v>
+        <v>36144</v>
       </c>
       <c r="D47" s="1">
         <v>0.75199997425079346</v>
@@ -108395,21 +110555,21 @@
       </c>
       <c r="G47" s="1"/>
       <c r="H47" t="s">
-        <v>35452</v>
+        <v>36172</v>
       </c>
       <c r="I47" t="s">
-        <v>35506</v>
+        <v>36226</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>35345</v>
+        <v>36065</v>
       </c>
       <c r="B48" t="s">
-        <v>35398</v>
+        <v>36118</v>
       </c>
       <c r="C48" t="s">
-        <v>35425</v>
+        <v>36145</v>
       </c>
       <c r="D48" s="1">
         <v>0.54000002145767212</v>
@@ -108422,21 +110582,21 @@
       </c>
       <c r="G48" s="1"/>
       <c r="H48" t="s">
-        <v>35452</v>
+        <v>36172</v>
       </c>
       <c r="I48" t="s">
-        <v>35507</v>
+        <v>36227</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>35345</v>
+        <v>36065</v>
       </c>
       <c r="B49" t="s">
-        <v>35399</v>
+        <v>36119</v>
       </c>
       <c r="C49" t="s">
-        <v>35425</v>
+        <v>36145</v>
       </c>
       <c r="D49" s="1">
         <v>0.67000001668930054</v>
@@ -108449,21 +110609,21 @@
       </c>
       <c r="G49" s="1"/>
       <c r="H49" t="s">
-        <v>35452</v>
+        <v>36172</v>
       </c>
       <c r="I49" t="s">
-        <v>35508</v>
+        <v>36228</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>35345</v>
+        <v>36065</v>
       </c>
       <c r="B50" t="s">
-        <v>35400</v>
+        <v>36120</v>
       </c>
       <c r="C50" t="s">
-        <v>35425</v>
+        <v>36145</v>
       </c>
       <c r="D50" s="1">
         <v>0.60000002384185791</v>
@@ -108476,21 +110636,21 @@
       </c>
       <c r="G50" s="1"/>
       <c r="H50" t="s">
-        <v>35452</v>
+        <v>36172</v>
       </c>
       <c r="I50" t="s">
-        <v>35509</v>
+        <v>36229</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>35346</v>
+        <v>36066</v>
       </c>
       <c r="B51" t="s">
-        <v>35401</v>
+        <v>36121</v>
       </c>
       <c r="C51" t="s">
-        <v>35426</v>
+        <v>36146</v>
       </c>
       <c r="D51" s="1">
         <v>0.97600001096725464</v>
@@ -108503,21 +110663,21 @@
       </c>
       <c r="G51" s="1"/>
       <c r="H51" t="s">
-        <v>35453</v>
+        <v>36173</v>
       </c>
       <c r="I51" t="s">
-        <v>35510</v>
+        <v>36230</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>35346</v>
+        <v>36066</v>
       </c>
       <c r="B52" t="s">
-        <v>35402</v>
+        <v>36122</v>
       </c>
       <c r="C52" t="s">
-        <v>35426</v>
+        <v>36146</v>
       </c>
       <c r="D52" s="1">
         <v>0.92599999904632568</v>
@@ -108530,21 +110690,21 @@
       </c>
       <c r="G52" s="1"/>
       <c r="H52" t="s">
-        <v>35453</v>
+        <v>36173</v>
       </c>
       <c r="I52" t="s">
-        <v>35511</v>
+        <v>36231</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>35346</v>
+        <v>36066</v>
       </c>
       <c r="B53" t="s">
-        <v>35403</v>
+        <v>36123</v>
       </c>
       <c r="C53" t="s">
-        <v>35426</v>
+        <v>36146</v>
       </c>
       <c r="D53" s="1">
         <v>0.88300001621246338</v>
@@ -108557,21 +110717,21 @@
       </c>
       <c r="G53" s="1"/>
       <c r="H53" t="s">
-        <v>35453</v>
+        <v>36173</v>
       </c>
       <c r="I53" t="s">
-        <v>35512</v>
+        <v>36232</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>35347</v>
+        <v>36067</v>
       </c>
       <c r="B54" t="s">
-        <v>35404</v>
+        <v>36124</v>
       </c>
       <c r="C54" t="s">
-        <v>35427</v>
+        <v>36147</v>
       </c>
       <c r="D54" s="1">
         <v>0.6600000262260437</v>
@@ -108584,21 +110744,21 @@
       </c>
       <c r="G54" s="1"/>
       <c r="H54" t="s">
-        <v>35454</v>
+        <v>36174</v>
       </c>
       <c r="I54" t="s">
-        <v>35513</v>
+        <v>36233</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>35347</v>
+        <v>36067</v>
       </c>
       <c r="B55" t="s">
-        <v>35405</v>
+        <v>36125</v>
       </c>
       <c r="C55" t="s">
-        <v>35427</v>
+        <v>36147</v>
       </c>
       <c r="D55" s="1">
         <v>0.63999998569488525</v>
@@ -108611,21 +110771,21 @@
       </c>
       <c r="G55" s="1"/>
       <c r="H55" t="s">
-        <v>35454</v>
+        <v>36174</v>
       </c>
       <c r="I55" t="s">
-        <v>35514</v>
+        <v>36234</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>35348</v>
+        <v>36068</v>
       </c>
       <c r="B56" t="s">
-        <v>35406</v>
+        <v>36126</v>
       </c>
       <c r="C56" t="s">
-        <v>35428</v>
+        <v>36148</v>
       </c>
       <c r="D56" s="1">
         <v>0.89999997615814209</v>
@@ -108638,21 +110798,21 @@
       </c>
       <c r="G56" s="1"/>
       <c r="H56" t="s">
-        <v>35455</v>
+        <v>36175</v>
       </c>
       <c r="I56" t="s">
-        <v>35515</v>
+        <v>36235</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>35348</v>
+        <v>36068</v>
       </c>
       <c r="B57" t="s">
-        <v>35407</v>
+        <v>36127</v>
       </c>
       <c r="C57" t="s">
-        <v>35428</v>
+        <v>36148</v>
       </c>
       <c r="D57" s="1">
         <v>0.95999997854232788</v>
@@ -108665,21 +110825,21 @@
       </c>
       <c r="G57" s="1"/>
       <c r="H57" t="s">
-        <v>35455</v>
+        <v>36175</v>
       </c>
       <c r="I57" t="s">
-        <v>35516</v>
+        <v>36236</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>35349</v>
+        <v>36069</v>
       </c>
       <c r="B58" t="s">
-        <v>35408</v>
+        <v>36128</v>
       </c>
       <c r="C58" t="s">
-        <v>35429</v>
+        <v>36149</v>
       </c>
       <c r="D58" s="1">
         <v>0.4699999988079071</v>
@@ -108692,21 +110852,21 @@
       </c>
       <c r="G58" s="1"/>
       <c r="H58" t="s">
-        <v>35456</v>
+        <v>36176</v>
       </c>
       <c r="I58" t="s">
-        <v>35517</v>
+        <v>36237</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>35349</v>
+        <v>36069</v>
       </c>
       <c r="B59" t="s">
-        <v>35409</v>
+        <v>36129</v>
       </c>
       <c r="C59" t="s">
-        <v>35429</v>
+        <v>36149</v>
       </c>
       <c r="D59" s="1">
         <v>0.47999998927116394</v>
@@ -108719,21 +110879,21 @@
       </c>
       <c r="G59" s="1"/>
       <c r="H59" t="s">
-        <v>35456</v>
+        <v>36176</v>
       </c>
       <c r="I59" t="s">
-        <v>35518</v>
+        <v>36238</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>35349</v>
+        <v>36069</v>
       </c>
       <c r="B60" t="s">
-        <v>35410</v>
+        <v>36130</v>
       </c>
       <c r="C60" t="s">
-        <v>35430</v>
+        <v>36150</v>
       </c>
       <c r="D60" s="1">
         <v>0.43999999761581421</v>
@@ -108746,21 +110906,21 @@
       </c>
       <c r="G60" s="1"/>
       <c r="H60" t="s">
-        <v>35457</v>
+        <v>36177</v>
       </c>
       <c r="I60" t="s">
-        <v>35519</v>
+        <v>36239</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>35349</v>
+        <v>36069</v>
       </c>
       <c r="B61" t="s">
-        <v>35411</v>
+        <v>36131</v>
       </c>
       <c r="C61" t="s">
-        <v>35430</v>
+        <v>36150</v>
       </c>
       <c r="D61" s="1">
         <v>0.75999999046325684</v>
@@ -108773,21 +110933,21 @@
       </c>
       <c r="G61" s="1"/>
       <c r="H61" t="s">
-        <v>35457</v>
+        <v>36177</v>
       </c>
       <c r="I61" t="s">
-        <v>35520</v>
+        <v>36240</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>35350</v>
+        <v>36070</v>
       </c>
       <c r="B62" t="s">
-        <v>35412</v>
+        <v>36132</v>
       </c>
       <c r="C62" t="s">
-        <v>35430</v>
+        <v>36150</v>
       </c>
       <c r="D62" s="1">
         <v>0.81000000238418579</v>
@@ -108800,21 +110960,21 @@
       </c>
       <c r="G62" s="1"/>
       <c r="H62" t="s">
-        <v>35458</v>
+        <v>36178</v>
       </c>
       <c r="I62" t="s">
-        <v>35521</v>
+        <v>36241</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>35350</v>
+        <v>36070</v>
       </c>
       <c r="B63" t="s">
-        <v>35413</v>
+        <v>36133</v>
       </c>
       <c r="C63" t="s">
-        <v>35430</v>
+        <v>36150</v>
       </c>
       <c r="D63" s="1">
         <v>0.79000002145767212</v>
@@ -108827,21 +110987,21 @@
       </c>
       <c r="G63" s="1"/>
       <c r="H63" t="s">
-        <v>35458</v>
+        <v>36178</v>
       </c>
       <c r="I63" t="s">
-        <v>35522</v>
+        <v>36242</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>35351</v>
+        <v>36071</v>
       </c>
       <c r="B64" t="s">
-        <v>35414</v>
+        <v>36134</v>
       </c>
       <c r="C64" t="s">
-        <v>35431</v>
+        <v>36151</v>
       </c>
       <c r="D64" s="1">
         <v>0.6600000262260437</v>
@@ -108854,21 +111014,21 @@
       </c>
       <c r="G64" s="1"/>
       <c r="H64" t="s">
-        <v>35459</v>
+        <v>36179</v>
       </c>
       <c r="I64" t="s">
-        <v>35523</v>
+        <v>36243</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>35351</v>
+        <v>36071</v>
       </c>
       <c r="B65" t="s">
-        <v>35415</v>
+        <v>36135</v>
       </c>
       <c r="C65" t="s">
-        <v>35431</v>
+        <v>36151</v>
       </c>
       <c r="D65" s="1">
         <v>0.55000001192092896</v>
@@ -108881,10 +111041,10 @@
       </c>
       <c r="G65" s="1"/>
       <c r="H65" t="s">
-        <v>35459</v>
+        <v>36179</v>
       </c>
       <c r="I65" t="s">
-        <v>35524</v>
+        <v>36244</v>
       </c>
     </row>
   </sheetData>
@@ -108898,42 +111058,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>35525</v>
+        <v>36245</v>
       </c>
       <c r="B1" t="s">
-        <v>35547</v>
+        <v>36267</v>
       </c>
       <c r="C1" t="s">
-        <v>35594</v>
+        <v>36314</v>
       </c>
       <c r="D1" t="s">
-        <v>35604</v>
+        <v>36324</v>
       </c>
       <c r="E1" t="s">
-        <v>35605</v>
+        <v>36325</v>
       </c>
       <c r="F1" t="s">
-        <v>35606</v>
+        <v>36326</v>
       </c>
       <c r="G1" t="s">
-        <v>35607</v>
+        <v>36327</v>
       </c>
       <c r="H1" t="s">
-        <v>35619</v>
+        <v>36339</v>
       </c>
       <c r="I1" t="s">
-        <v>35640</v>
+        <v>36360</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>35526</v>
+        <v>36246</v>
       </c>
       <c r="B2" t="s">
-        <v>35548</v>
+        <v>36268</v>
       </c>
       <c r="C2" t="s">
-        <v>35595</v>
+        <v>36315</v>
       </c>
       <c r="D2" s="1">
         <v>0.5899999737739563</v>
@@ -108945,24 +111105,24 @@
         <v>0.81999999284744263</v>
       </c>
       <c r="G2" t="s">
-        <v>35608</v>
+        <v>36328</v>
       </c>
       <c r="H2" t="s">
-        <v>35620</v>
+        <v>36340</v>
       </c>
       <c r="I2" t="s">
-        <v>35641</v>
+        <v>36361</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>35526</v>
+        <v>36246</v>
       </c>
       <c r="B3" t="s">
-        <v>35549</v>
+        <v>36269</v>
       </c>
       <c r="C3" t="s">
-        <v>35595</v>
+        <v>36315</v>
       </c>
       <c r="D3" s="1">
         <v>0.18000000715255737</v>
@@ -108974,24 +111134,24 @@
         <v>1.4900000095367432</v>
       </c>
       <c r="G3" t="s">
-        <v>35608</v>
+        <v>36328</v>
       </c>
       <c r="H3" t="s">
-        <v>35620</v>
+        <v>36340</v>
       </c>
       <c r="I3" t="s">
-        <v>35642</v>
+        <v>36362</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>35527</v>
+        <v>36247</v>
       </c>
       <c r="B4" t="s">
-        <v>35550</v>
+        <v>36270</v>
       </c>
       <c r="C4" t="s">
-        <v>35595</v>
+        <v>36315</v>
       </c>
       <c r="D4" s="1">
         <v>0.37999999523162842</v>
@@ -109003,24 +111163,24 @@
         <v>0.6600000262260437</v>
       </c>
       <c r="G4" t="s">
-        <v>35608</v>
+        <v>36328</v>
       </c>
       <c r="H4" t="s">
-        <v>35621</v>
+        <v>36341</v>
       </c>
       <c r="I4" t="s">
-        <v>35643</v>
+        <v>36363</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>35527</v>
+        <v>36247</v>
       </c>
       <c r="B5" t="s">
-        <v>35551</v>
+        <v>36271</v>
       </c>
       <c r="C5" t="s">
-        <v>35595</v>
+        <v>36315</v>
       </c>
       <c r="D5" s="1">
         <v>0.44999998807907104</v>
@@ -109032,24 +111192,24 @@
         <v>0.57999998331069946</v>
       </c>
       <c r="G5" t="s">
-        <v>35608</v>
+        <v>36328</v>
       </c>
       <c r="H5" t="s">
-        <v>35621</v>
+        <v>36341</v>
       </c>
       <c r="I5" t="s">
-        <v>35644</v>
+        <v>36364</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>35528</v>
+        <v>36248</v>
       </c>
       <c r="B6" t="s">
-        <v>35552</v>
+        <v>36272</v>
       </c>
       <c r="C6" t="s">
-        <v>35595</v>
+        <v>36315</v>
       </c>
       <c r="D6" s="1">
         <v>0.75700002908706665</v>
@@ -109061,24 +111221,24 @@
         <v>0.96299999952316284</v>
       </c>
       <c r="G6" t="s">
-        <v>35609</v>
+        <v>36329</v>
       </c>
       <c r="H6" t="s">
-        <v>35622</v>
+        <v>36342</v>
       </c>
       <c r="I6" t="s">
-        <v>35645</v>
+        <v>36365</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>35528</v>
+        <v>36248</v>
       </c>
       <c r="B7" t="s">
-        <v>35553</v>
+        <v>36273</v>
       </c>
       <c r="C7" t="s">
-        <v>35595</v>
+        <v>36315</v>
       </c>
       <c r="D7" s="1">
         <v>0.92599999904632568</v>
@@ -109090,24 +111250,24 @@
         <v>1.2790000438690186</v>
       </c>
       <c r="G7" t="s">
-        <v>35610</v>
+        <v>36330</v>
       </c>
       <c r="H7" t="s">
-        <v>35622</v>
+        <v>36342</v>
       </c>
       <c r="I7" t="s">
-        <v>35646</v>
+        <v>36366</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>35529</v>
+        <v>36249</v>
       </c>
       <c r="B8" t="s">
-        <v>35554</v>
+        <v>36274</v>
       </c>
       <c r="C8" t="s">
-        <v>35595</v>
+        <v>36315</v>
       </c>
       <c r="D8" s="1">
         <v>0.43999999761581421</v>
@@ -109119,24 +111279,24 @@
         <v>0.56000000238418579</v>
       </c>
       <c r="G8" t="s">
-        <v>35611</v>
+        <v>36331</v>
       </c>
       <c r="H8" t="s">
-        <v>35623</v>
+        <v>36343</v>
       </c>
       <c r="I8" t="s">
-        <v>35647</v>
+        <v>36367</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>35529</v>
+        <v>36249</v>
       </c>
       <c r="B9" t="s">
-        <v>35555</v>
+        <v>36275</v>
       </c>
       <c r="C9" t="s">
-        <v>35595</v>
+        <v>36315</v>
       </c>
       <c r="D9" s="1">
         <v>0.80000001192092896</v>
@@ -109148,24 +111308,24 @@
         <v>1.1100000143051147</v>
       </c>
       <c r="G9" t="s">
-        <v>35611</v>
+        <v>36331</v>
       </c>
       <c r="H9" t="s">
-        <v>35623</v>
+        <v>36343</v>
       </c>
       <c r="I9" t="s">
-        <v>35648</v>
+        <v>36368</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>35530</v>
+        <v>36250</v>
       </c>
       <c r="B10" t="s">
-        <v>35556</v>
+        <v>36276</v>
       </c>
       <c r="C10" t="s">
-        <v>35595</v>
+        <v>36315</v>
       </c>
       <c r="D10" s="1">
         <v>0.56000000238418579</v>
@@ -109177,24 +111337,24 @@
         <v>0.97000002861022949</v>
       </c>
       <c r="G10" t="s">
-        <v>35611</v>
+        <v>36331</v>
       </c>
       <c r="H10" t="s">
-        <v>35624</v>
+        <v>36344</v>
       </c>
       <c r="I10" t="s">
-        <v>35649</v>
+        <v>36369</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>35530</v>
+        <v>36250</v>
       </c>
       <c r="B11" t="s">
-        <v>35557</v>
+        <v>36277</v>
       </c>
       <c r="C11" t="s">
-        <v>35595</v>
+        <v>36315</v>
       </c>
       <c r="D11" s="1">
         <v>0.50999999046325684</v>
@@ -109206,24 +111366,24 @@
         <v>1.190000057220459</v>
       </c>
       <c r="G11" t="s">
-        <v>35611</v>
+        <v>36331</v>
       </c>
       <c r="H11" t="s">
-        <v>35624</v>
+        <v>36344</v>
       </c>
       <c r="I11" t="s">
-        <v>35650</v>
+        <v>36370</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>35531</v>
+        <v>36251</v>
       </c>
       <c r="B12" t="s">
-        <v>35558</v>
+        <v>36278</v>
       </c>
       <c r="C12" t="s">
-        <v>35595</v>
+        <v>36315</v>
       </c>
       <c r="D12" s="1">
         <v>0.36000001430511475</v>
@@ -109235,24 +111395,24 @@
         <v>0.82999998331069946</v>
       </c>
       <c r="G12" t="s">
-        <v>35611</v>
+        <v>36331</v>
       </c>
       <c r="H12" t="s">
-        <v>35625</v>
+        <v>36345</v>
       </c>
       <c r="I12" t="s">
-        <v>35651</v>
+        <v>36371</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>35531</v>
+        <v>36251</v>
       </c>
       <c r="B13" t="s">
-        <v>35559</v>
+        <v>36279</v>
       </c>
       <c r="C13" t="s">
-        <v>35595</v>
+        <v>36315</v>
       </c>
       <c r="D13" s="1">
         <v>0.6600000262260437</v>
@@ -109264,24 +111424,24 @@
         <v>0.89999997615814209</v>
       </c>
       <c r="G13" t="s">
-        <v>35611</v>
+        <v>36331</v>
       </c>
       <c r="H13" t="s">
-        <v>35625</v>
+        <v>36345</v>
       </c>
       <c r="I13" t="s">
-        <v>35652</v>
+        <v>36372</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>35532</v>
+        <v>36252</v>
       </c>
       <c r="B14" t="s">
-        <v>35560</v>
+        <v>36280</v>
       </c>
       <c r="C14" t="s">
-        <v>35595</v>
+        <v>36315</v>
       </c>
       <c r="D14" s="1">
         <v>0.55299997329711914</v>
@@ -109293,24 +111453,24 @@
         <v>0.9309999942779541</v>
       </c>
       <c r="G14" t="s">
-        <v>35612</v>
+        <v>36332</v>
       </c>
       <c r="H14" t="s">
-        <v>35626</v>
+        <v>36346</v>
       </c>
       <c r="I14" t="s">
-        <v>35653</v>
+        <v>36373</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>35532</v>
+        <v>36252</v>
       </c>
       <c r="B15" t="s">
-        <v>35561</v>
+        <v>36281</v>
       </c>
       <c r="C15" t="s">
-        <v>35595</v>
+        <v>36315</v>
       </c>
       <c r="D15" s="1">
         <v>0.76599997282028198</v>
@@ -109322,24 +111482,24 @@
         <v>3.9639999866485596</v>
       </c>
       <c r="G15" t="s">
-        <v>35612</v>
+        <v>36332</v>
       </c>
       <c r="H15" t="s">
-        <v>35626</v>
+        <v>36346</v>
       </c>
       <c r="I15" t="s">
-        <v>35654</v>
+        <v>36374</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>35532</v>
+        <v>36252</v>
       </c>
       <c r="B16" t="s">
-        <v>35562</v>
+        <v>36282</v>
       </c>
       <c r="C16" t="s">
-        <v>35596</v>
+        <v>36316</v>
       </c>
       <c r="D16" s="1">
         <v>0.39800000190734863</v>
@@ -109351,24 +111511,24 @@
         <v>0.71899998188018799</v>
       </c>
       <c r="G16" t="s">
-        <v>35612</v>
+        <v>36332</v>
       </c>
       <c r="H16" t="s">
-        <v>35627</v>
+        <v>36347</v>
       </c>
       <c r="I16" t="s">
-        <v>35655</v>
+        <v>36375</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>35532</v>
+        <v>36252</v>
       </c>
       <c r="B17" t="s">
-        <v>35563</v>
+        <v>36283</v>
       </c>
       <c r="C17" t="s">
-        <v>35596</v>
+        <v>36316</v>
       </c>
       <c r="D17" s="1">
         <v>0.49799999594688416</v>
@@ -109380,24 +111540,24 @@
         <v>2.4030001163482666</v>
       </c>
       <c r="G17" t="s">
-        <v>35612</v>
+        <v>36332</v>
       </c>
       <c r="H17" t="s">
-        <v>35627</v>
+        <v>36347</v>
       </c>
       <c r="I17" t="s">
-        <v>35656</v>
+        <v>36376</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>35533</v>
+        <v>36253</v>
       </c>
       <c r="B18" t="s">
-        <v>35564</v>
+        <v>36284</v>
       </c>
       <c r="C18" t="s">
-        <v>35597</v>
+        <v>36317</v>
       </c>
       <c r="D18" s="1">
         <v>0.87000000476837158</v>
@@ -109409,24 +111569,24 @@
         <v>1.2899999618530273</v>
       </c>
       <c r="G18" t="s">
-        <v>35613</v>
+        <v>36333</v>
       </c>
       <c r="H18" t="s">
-        <v>35628</v>
+        <v>36348</v>
       </c>
       <c r="I18" t="s">
-        <v>35657</v>
+        <v>36377</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>35533</v>
+        <v>36253</v>
       </c>
       <c r="B19" t="s">
-        <v>35565</v>
+        <v>36285</v>
       </c>
       <c r="C19" t="s">
-        <v>35597</v>
+        <v>36317</v>
       </c>
       <c r="D19" s="1">
         <v>0.38999998569488525</v>
@@ -109438,24 +111598,24 @@
         <v>0.80000001192092896</v>
       </c>
       <c r="G19" t="s">
-        <v>35613</v>
+        <v>36333</v>
       </c>
       <c r="H19" t="s">
-        <v>35628</v>
+        <v>36348</v>
       </c>
       <c r="I19" t="s">
-        <v>35658</v>
+        <v>36378</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>35534</v>
+        <v>36254</v>
       </c>
       <c r="B20" t="s">
-        <v>35566</v>
+        <v>36286</v>
       </c>
       <c r="C20" t="s">
-        <v>35597</v>
+        <v>36317</v>
       </c>
       <c r="D20" s="1">
         <v>0.61000001430511475</v>
@@ -109467,24 +111627,24 @@
         <v>1.1699999570846558</v>
       </c>
       <c r="G20" t="s">
-        <v>35613</v>
+        <v>36333</v>
       </c>
       <c r="H20" t="s">
-        <v>35629</v>
+        <v>36349</v>
       </c>
       <c r="I20" t="s">
-        <v>35659</v>
+        <v>36379</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>35534</v>
+        <v>36254</v>
       </c>
       <c r="B21" t="s">
-        <v>35567</v>
+        <v>36287</v>
       </c>
       <c r="C21" t="s">
-        <v>35597</v>
+        <v>36317</v>
       </c>
       <c r="D21" s="1">
         <v>0.75</v>
@@ -109496,24 +111656,24 @@
         <v>1.3600000143051147</v>
       </c>
       <c r="G21" t="s">
-        <v>35613</v>
+        <v>36333</v>
       </c>
       <c r="H21" t="s">
-        <v>35629</v>
+        <v>36349</v>
       </c>
       <c r="I21" t="s">
-        <v>35660</v>
+        <v>36380</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>35534</v>
+        <v>36254</v>
       </c>
       <c r="B22" t="s">
-        <v>35568</v>
+        <v>36288</v>
       </c>
       <c r="C22" t="s">
-        <v>35598</v>
+        <v>36318</v>
       </c>
       <c r="D22" s="1">
         <v>5.9000000953674316</v>
@@ -109525,24 +111685,24 @@
         <v>46.099998474121094</v>
       </c>
       <c r="G22" t="s">
-        <v>35613</v>
+        <v>36333</v>
       </c>
       <c r="H22" t="s">
-        <v>35630</v>
+        <v>36350</v>
       </c>
       <c r="I22" t="s">
-        <v>35661</v>
+        <v>36381</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>35534</v>
+        <v>36254</v>
       </c>
       <c r="B23" t="s">
-        <v>35569</v>
+        <v>36289</v>
       </c>
       <c r="C23" t="s">
-        <v>35598</v>
+        <v>36318</v>
       </c>
       <c r="D23" s="1">
         <v>1.8200000524520874</v>
@@ -109554,24 +111714,24 @@
         <v>5.1399998664855957</v>
       </c>
       <c r="G23" t="s">
-        <v>35613</v>
+        <v>36333</v>
       </c>
       <c r="H23" t="s">
-        <v>35630</v>
+        <v>36350</v>
       </c>
       <c r="I23" t="s">
-        <v>35662</v>
+        <v>36382</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35535</v>
+        <v>36255</v>
       </c>
       <c r="B24" t="s">
-        <v>35570</v>
+        <v>36290</v>
       </c>
       <c r="C24" t="s">
-        <v>35599</v>
+        <v>36319</v>
       </c>
       <c r="D24" s="1">
         <v>0.5899999737739563</v>
@@ -109583,24 +111743,24 @@
         <v>1.3999999761581421</v>
       </c>
       <c r="G24" t="s">
-        <v>35613</v>
+        <v>36333</v>
       </c>
       <c r="H24" t="s">
-        <v>35631</v>
+        <v>36351</v>
       </c>
       <c r="I24" t="s">
-        <v>35663</v>
+        <v>36383</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>35535</v>
+        <v>36255</v>
       </c>
       <c r="B25" t="s">
-        <v>35571</v>
+        <v>36291</v>
       </c>
       <c r="C25" t="s">
-        <v>35599</v>
+        <v>36319</v>
       </c>
       <c r="D25" s="1">
         <v>0.69999998807907104</v>
@@ -109612,24 +111772,24 @@
         <v>0.87000000476837158</v>
       </c>
       <c r="G25" t="s">
-        <v>35613</v>
+        <v>36333</v>
       </c>
       <c r="H25" t="s">
-        <v>35631</v>
+        <v>36351</v>
       </c>
       <c r="I25" t="s">
-        <v>35664</v>
+        <v>36384</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>35536</v>
+        <v>36256</v>
       </c>
       <c r="B26" t="s">
-        <v>35572</v>
+        <v>36292</v>
       </c>
       <c r="C26" t="s">
-        <v>35599</v>
+        <v>36319</v>
       </c>
       <c r="D26" s="1">
         <v>0.38999998569488525</v>
@@ -109641,24 +111801,24 @@
         <v>0.68999999761581421</v>
       </c>
       <c r="G26" t="s">
-        <v>35613</v>
+        <v>36333</v>
       </c>
       <c r="H26" t="s">
-        <v>35632</v>
+        <v>36352</v>
       </c>
       <c r="I26" t="s">
-        <v>35665</v>
+        <v>36385</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>35536</v>
+        <v>36256</v>
       </c>
       <c r="B27" t="s">
-        <v>35573</v>
+        <v>36293</v>
       </c>
       <c r="C27" t="s">
-        <v>35599</v>
+        <v>36319</v>
       </c>
       <c r="D27" s="1">
         <v>0.15999999642372131</v>
@@ -109670,24 +111830,24 @@
         <v>0.40000000596046448</v>
       </c>
       <c r="G27" t="s">
-        <v>35613</v>
+        <v>36333</v>
       </c>
       <c r="H27" t="s">
-        <v>35632</v>
+        <v>36352</v>
       </c>
       <c r="I27" t="s">
-        <v>35666</v>
+        <v>36386</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35537</v>
+        <v>36257</v>
       </c>
       <c r="B28" t="s">
-        <v>35574</v>
+        <v>36294</v>
       </c>
       <c r="C28" t="s">
-        <v>35599</v>
+        <v>36319</v>
       </c>
       <c r="D28" s="1">
         <v>0.46000000834465027</v>
@@ -109699,24 +111859,24 @@
         <v>0.6600000262260437</v>
       </c>
       <c r="G28" t="s">
-        <v>35613</v>
+        <v>36333</v>
       </c>
       <c r="H28" t="s">
-        <v>35632</v>
+        <v>36352</v>
       </c>
       <c r="I28" t="s">
-        <v>35667</v>
+        <v>36387</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>35537</v>
+        <v>36257</v>
       </c>
       <c r="B29" t="s">
-        <v>35575</v>
+        <v>36295</v>
       </c>
       <c r="C29" t="s">
-        <v>35599</v>
+        <v>36319</v>
       </c>
       <c r="D29" s="1">
         <v>0.30000001192092896</v>
@@ -109728,24 +111888,24 @@
         <v>0.44999998807907104</v>
       </c>
       <c r="G29" t="s">
-        <v>35613</v>
+        <v>36333</v>
       </c>
       <c r="H29" t="s">
-        <v>35632</v>
+        <v>36352</v>
       </c>
       <c r="I29" t="s">
-        <v>35668</v>
+        <v>36388</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>35538</v>
+        <v>36258</v>
       </c>
       <c r="B30" t="s">
-        <v>35576</v>
+        <v>36296</v>
       </c>
       <c r="C30" t="s">
-        <v>35599</v>
+        <v>36319</v>
       </c>
       <c r="D30" s="1">
         <v>0.5</v>
@@ -109757,24 +111917,24 @@
         <v>1.059999942779541</v>
       </c>
       <c r="G30" t="s">
-        <v>35613</v>
+        <v>36333</v>
       </c>
       <c r="H30" t="s">
-        <v>35633</v>
+        <v>36353</v>
       </c>
       <c r="I30" t="s">
-        <v>35669</v>
+        <v>36389</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>35538</v>
+        <v>36258</v>
       </c>
       <c r="B31" t="s">
-        <v>35577</v>
+        <v>36297</v>
       </c>
       <c r="C31" t="s">
-        <v>35599</v>
+        <v>36319</v>
       </c>
       <c r="D31" s="1">
         <v>0.47999998927116394</v>
@@ -109786,24 +111946,24 @@
         <v>0.76999998092651367</v>
       </c>
       <c r="G31" t="s">
-        <v>35613</v>
+        <v>36333</v>
       </c>
       <c r="H31" t="s">
-        <v>35633</v>
+        <v>36353</v>
       </c>
       <c r="I31" t="s">
-        <v>35670</v>
+        <v>36390</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>35539</v>
+        <v>36259</v>
       </c>
       <c r="B32" t="s">
-        <v>35578</v>
+        <v>36298</v>
       </c>
       <c r="C32" t="s">
-        <v>35599</v>
+        <v>36319</v>
       </c>
       <c r="D32" s="1">
         <v>1.6200000047683716</v>
@@ -109815,24 +111975,24 @@
         <v>2.4100000858306885</v>
       </c>
       <c r="G32" t="s">
-        <v>35613</v>
+        <v>36333</v>
       </c>
       <c r="H32" t="s">
-        <v>35633</v>
+        <v>36353</v>
       </c>
       <c r="I32" t="s">
-        <v>35671</v>
+        <v>36391</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>35539</v>
+        <v>36259</v>
       </c>
       <c r="B33" t="s">
-        <v>35579</v>
+        <v>36299</v>
       </c>
       <c r="C33" t="s">
-        <v>35599</v>
+        <v>36319</v>
       </c>
       <c r="D33" s="1">
         <v>2.0099999904632568</v>
@@ -109844,24 +112004,24 @@
         <v>2.8399999141693115</v>
       </c>
       <c r="G33" t="s">
-        <v>35613</v>
+        <v>36333</v>
       </c>
       <c r="H33" t="s">
-        <v>35633</v>
+        <v>36353</v>
       </c>
       <c r="I33" t="s">
-        <v>35672</v>
+        <v>36392</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>35540</v>
+        <v>36260</v>
       </c>
       <c r="B34" t="s">
-        <v>35580</v>
+        <v>36300</v>
       </c>
       <c r="C34" t="s">
-        <v>35600</v>
+        <v>36320</v>
       </c>
       <c r="D34" s="1">
         <v>0.95999997854232788</v>
@@ -109873,24 +112033,24 @@
         <v>1.2560000419616699</v>
       </c>
       <c r="G34" t="s">
-        <v>35614</v>
+        <v>36334</v>
       </c>
       <c r="H34" t="s">
-        <v>35634</v>
+        <v>36354</v>
       </c>
       <c r="I34" t="s">
-        <v>35673</v>
+        <v>36393</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>35540</v>
+        <v>36260</v>
       </c>
       <c r="B35" t="s">
-        <v>35581</v>
+        <v>36301</v>
       </c>
       <c r="C35" t="s">
-        <v>35600</v>
+        <v>36320</v>
       </c>
       <c r="D35" s="1">
         <v>1.0800000429153442</v>
@@ -109902,24 +112062,24 @@
         <v>1.3609999418258667</v>
       </c>
       <c r="G35" t="s">
-        <v>35614</v>
+        <v>36334</v>
       </c>
       <c r="H35" t="s">
-        <v>35634</v>
+        <v>36354</v>
       </c>
       <c r="I35" t="s">
-        <v>35674</v>
+        <v>36394</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>35541</v>
+        <v>36261</v>
       </c>
       <c r="B36" t="s">
-        <v>35582</v>
+        <v>36302</v>
       </c>
       <c r="C36" t="s">
-        <v>35600</v>
+        <v>36320</v>
       </c>
       <c r="D36" s="1">
         <v>0.87699997425079346</v>
@@ -109931,24 +112091,24 @@
         <v>1.156000018119812</v>
       </c>
       <c r="G36" t="s">
-        <v>35615</v>
+        <v>36335</v>
       </c>
       <c r="H36" t="s">
-        <v>35635</v>
+        <v>36355</v>
       </c>
       <c r="I36" t="s">
-        <v>35675</v>
+        <v>36395</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>35541</v>
+        <v>36261</v>
       </c>
       <c r="B37" t="s">
-        <v>35583</v>
+        <v>36303</v>
       </c>
       <c r="C37" t="s">
-        <v>35600</v>
+        <v>36320</v>
       </c>
       <c r="D37" s="1">
         <v>0.68400001525878906</v>
@@ -109960,24 +112120,24 @@
         <v>0.875</v>
       </c>
       <c r="G37" t="s">
-        <v>35615</v>
+        <v>36335</v>
       </c>
       <c r="H37" t="s">
-        <v>35635</v>
+        <v>36355</v>
       </c>
       <c r="I37" t="s">
-        <v>35676</v>
+        <v>36396</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>35541</v>
+        <v>36261</v>
       </c>
       <c r="B38" t="s">
-        <v>35584</v>
+        <v>36304</v>
       </c>
       <c r="C38" t="s">
-        <v>35600</v>
+        <v>36320</v>
       </c>
       <c r="D38" s="1">
         <v>0.85699999332427979</v>
@@ -109989,24 +112149,24 @@
         <v>1.1779999732971191</v>
       </c>
       <c r="G38" t="s">
-        <v>35615</v>
+        <v>36335</v>
       </c>
       <c r="H38" t="s">
-        <v>35635</v>
+        <v>36355</v>
       </c>
       <c r="I38" t="s">
-        <v>35677</v>
+        <v>36397</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>35542</v>
+        <v>36262</v>
       </c>
       <c r="B39" t="s">
-        <v>35584</v>
+        <v>36304</v>
       </c>
       <c r="C39" t="s">
-        <v>35601</v>
+        <v>36321</v>
       </c>
       <c r="D39" s="1">
         <v>0.64999997615814209</v>
@@ -110018,24 +112178,24 @@
         <v>0.8399999737739563</v>
       </c>
       <c r="G39" t="s">
-        <v>35616</v>
+        <v>36336</v>
       </c>
       <c r="H39" t="s">
-        <v>35635</v>
+        <v>36355</v>
       </c>
       <c r="I39" t="s">
-        <v>35678</v>
+        <v>36398</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>35542</v>
+        <v>36262</v>
       </c>
       <c r="B40" t="s">
-        <v>35585</v>
+        <v>36305</v>
       </c>
       <c r="C40" t="s">
-        <v>35601</v>
+        <v>36321</v>
       </c>
       <c r="D40" s="1">
         <v>0.47999998927116394</v>
@@ -110047,24 +112207,24 @@
         <v>0.75</v>
       </c>
       <c r="G40" t="s">
-        <v>35616</v>
+        <v>36336</v>
       </c>
       <c r="H40" t="s">
-        <v>35635</v>
+        <v>36355</v>
       </c>
       <c r="I40" t="s">
-        <v>35679</v>
+        <v>36399</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>35543</v>
+        <v>36263</v>
       </c>
       <c r="B41" t="s">
-        <v>35586</v>
+        <v>36306</v>
       </c>
       <c r="C41" t="s">
-        <v>35602</v>
+        <v>36322</v>
       </c>
       <c r="D41" s="1">
         <v>0.78100001811981201</v>
@@ -110076,24 +112236,24 @@
         <v>1.3220000267028809</v>
       </c>
       <c r="G41" t="s">
-        <v>35617</v>
+        <v>36337</v>
       </c>
       <c r="H41" t="s">
-        <v>35636</v>
+        <v>36356</v>
       </c>
       <c r="I41" t="s">
-        <v>35680</v>
+        <v>36400</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>35543</v>
+        <v>36263</v>
       </c>
       <c r="B42" t="s">
-        <v>35587</v>
+        <v>36307</v>
       </c>
       <c r="C42" t="s">
-        <v>35602</v>
+        <v>36322</v>
       </c>
       <c r="D42" s="1">
         <v>0.97500002384185791</v>
@@ -110105,24 +112265,24 @@
         <v>1.1829999685287476</v>
       </c>
       <c r="G42" t="s">
-        <v>35617</v>
+        <v>36337</v>
       </c>
       <c r="H42" t="s">
-        <v>35636</v>
+        <v>36356</v>
       </c>
       <c r="I42" t="s">
-        <v>35681</v>
+        <v>36401</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>35544</v>
+        <v>36264</v>
       </c>
       <c r="B43" t="s">
-        <v>35588</v>
+        <v>36308</v>
       </c>
       <c r="C43" t="s">
-        <v>35602</v>
+        <v>36322</v>
       </c>
       <c r="D43" s="1">
         <v>0.93000000715255737</v>
@@ -110134,24 +112294,24 @@
         <v>1.309999942779541</v>
       </c>
       <c r="G43" t="s">
-        <v>35618</v>
+        <v>36338</v>
       </c>
       <c r="H43" t="s">
-        <v>35637</v>
+        <v>36357</v>
       </c>
       <c r="I43" t="s">
-        <v>35682</v>
+        <v>36402</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>35544</v>
+        <v>36264</v>
       </c>
       <c r="B44" t="s">
-        <v>35589</v>
+        <v>36309</v>
       </c>
       <c r="C44" t="s">
-        <v>35602</v>
+        <v>36322</v>
       </c>
       <c r="D44" s="1">
         <v>0.93999999761581421</v>
@@ -110163,24 +112323,24 @@
         <v>1.190000057220459</v>
       </c>
       <c r="G44" t="s">
-        <v>35618</v>
+        <v>36338</v>
       </c>
       <c r="H44" t="s">
-        <v>35637</v>
+        <v>36357</v>
       </c>
       <c r="I44" t="s">
-        <v>35683</v>
+        <v>36403</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>35545</v>
+        <v>36265</v>
       </c>
       <c r="B45" t="s">
-        <v>35590</v>
+        <v>36310</v>
       </c>
       <c r="C45" t="s">
-        <v>35603</v>
+        <v>36323</v>
       </c>
       <c r="D45" s="1">
         <v>0.63999998569488525</v>
@@ -110192,24 +112352,24 @@
         <v>0.9100000262260437</v>
       </c>
       <c r="G45" t="s">
-        <v>35618</v>
+        <v>36338</v>
       </c>
       <c r="H45" t="s">
-        <v>35638</v>
+        <v>36358</v>
       </c>
       <c r="I45" t="s">
-        <v>35684</v>
+        <v>36404</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>35545</v>
+        <v>36265</v>
       </c>
       <c r="B46" t="s">
-        <v>35591</v>
+        <v>36311</v>
       </c>
       <c r="C46" t="s">
-        <v>35603</v>
+        <v>36323</v>
       </c>
       <c r="D46" s="1">
         <v>0.72000002861022949</v>
@@ -110221,24 +112381,24 @@
         <v>0.89999997615814209</v>
       </c>
       <c r="G46" t="s">
-        <v>35618</v>
+        <v>36338</v>
       </c>
       <c r="H46" t="s">
-        <v>35638</v>
+        <v>36358</v>
       </c>
       <c r="I46" t="s">
-        <v>35685</v>
+        <v>36405</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>35546</v>
+        <v>36266</v>
       </c>
       <c r="B47" t="s">
-        <v>35592</v>
+        <v>36312</v>
       </c>
       <c r="C47" t="s">
-        <v>35603</v>
+        <v>36323</v>
       </c>
       <c r="D47" s="1">
         <v>0.46000000834465027</v>
@@ -110250,24 +112410,24 @@
         <v>0.73000001907348633</v>
       </c>
       <c r="G47" t="s">
-        <v>35618</v>
+        <v>36338</v>
       </c>
       <c r="H47" t="s">
-        <v>35639</v>
+        <v>36359</v>
       </c>
       <c r="I47" t="s">
-        <v>35686</v>
+        <v>36406</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>35546</v>
+        <v>36266</v>
       </c>
       <c r="B48" t="s">
-        <v>35593</v>
+        <v>36313</v>
       </c>
       <c r="C48" t="s">
-        <v>35603</v>
+        <v>36323</v>
       </c>
       <c r="D48" s="1">
         <v>0.62999999523162842</v>
@@ -110279,13 +112439,13 @@
         <v>0.89999997615814209</v>
       </c>
       <c r="G48" t="s">
-        <v>35618</v>
+        <v>36338</v>
       </c>
       <c r="H48" t="s">
-        <v>35639</v>
+        <v>36359</v>
       </c>
       <c r="I48" t="s">
-        <v>35687</v>
+        <v>36407</v>
       </c>
     </row>
   </sheetData>

--- a/products/Exported Data.xlsx
+++ b/products/Exported Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62115" uniqueCount="36408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63975" uniqueCount="37488">
   <si>
     <t>Study</t>
   </si>
@@ -101537,6 +101537,3246 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Study: Treatment 1 vs Treatment 2</t>
+  </si>
+  <si>
+    <t>Attal 2019 (ICARIA-MM): IsPd vs Pd</t>
+  </si>
+  <si>
+    <t>Bahlis 2020 (POLLUX): DRd vs Rd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2013 (VANTAGE 088): VorV vs V</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2016 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-3): EPd vs Pd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2020 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2021 (APOLLO): DPd vs Pd</t>
+  </si>
+  <si>
+    <t>Grosicki 2020 (BOSTON): SeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Hou 2017 (China Cont.): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>Jakubowiak 2016 (NCT01478048): EVd vs Vd</t>
+  </si>
+  <si>
+    <t>Kumar 2020 (BELLINI): VeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Lu 2021 (LEPUS): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Mateos 2020 (CASTOR): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Moreau 2021 (IKEMA): IsKd vs Kd</t>
+  </si>
+  <si>
+    <t>Orlowski 2019 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2019 (OPTIMISMM): PVd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2021 (TOURMALINE-MM1): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2014 (PANORAMA-1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2016 (PANORAMA 1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2013 (MM-003): Pd vs GC</t>
+  </si>
+  <si>
+    <t>Siegel 2018 (ASPIRE): KRd vs Rd</t>
+  </si>
+  <si>
+    <t>Usamani 2022 (CANDOR): DKd vs Kd</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;=3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;=2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Lower 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>Upper 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t>Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      AT 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t>Data Extraction Errors</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Study: Treatment 1 vs Treatment 2</t>
+  </si>
+  <si>
+    <t>Attal 2019 (ICARIA-MM): IsPd vs Pd</t>
+  </si>
+  <si>
+    <t>Bahlis 2020 (POLLUX): DRd vs Rd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2013 (VANTAGE 088): VorV vs V</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2016 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-3): EPd vs Pd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2021 (APOLLO): DPd vs Pd</t>
+  </si>
+  <si>
+    <t>Hou 2017 (China Cont.): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>Jakubowiak 2016 (NCT01478048): EVd vs Vd</t>
+  </si>
+  <si>
+    <t>Kumar 2020 (BELLINI): VeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Lonial 2015 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Lu 2021 (LEPUS): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Mateos 2020 (CASTOR): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Moreau 2021 (IKEMA): IsKd vs Kd</t>
+  </si>
+  <si>
+    <t>Orlowski 2007 (NCT00103506): V vs DoxV</t>
+  </si>
+  <si>
+    <t>Orlowski 2016 (NCT00103506): V vs DoxV</t>
+  </si>
+  <si>
+    <t>Orlowski 2019 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2019 (OPTIMISMM): PVd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2021 (TOURMALINE-MM1): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2016 (PANORAMA 1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>Stewart 2015 (ASPIRE): KRd vs Rd</t>
+  </si>
+  <si>
+    <t>Usmani 2022 (CANDOR): DKd vs Kd</t>
+  </si>
+  <si>
+    <t>refract</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Ref. to R and a PI</t>
+  </si>
+  <si>
+    <t>Not ref. to R and a PI</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous R or T use</t>
+  </si>
+  <si>
+    <t>No previous R or T use</t>
+  </si>
+  <si>
+    <t>Previous R or T use</t>
+  </si>
+  <si>
+    <t>No previous R or T use</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Refractory to T</t>
+  </si>
+  <si>
+    <t>Not refractory to T</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No previous IMiD use</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Lower 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>Upper 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0230</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .       Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t>Data Extraction Errors</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Study: Treatment 1 vs Treatment 2</t>
+  </si>
+  <si>
+    <t>Attal 2019 (ICARIA-MM): IsPd vs Pd</t>
+  </si>
+  <si>
+    <t>Bahlis 2020 (POLLUX): DRd vs Rd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2013 (VANTAGE 088): VorV vs V</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2016 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-3): EPd vs Pd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2020 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2021 (APOLLO): DPd vs Pd</t>
+  </si>
+  <si>
+    <t>Grosicki 2020 (BOSTON): SeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Hou 2017 (China Cont.): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>Jakubowiak 2016 (NCT01478048): EVd vs Vd</t>
+  </si>
+  <si>
+    <t>Kumar 2020 (BELLINI): VeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Lu 2021 (LEPUS): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Mateos 2020 (CASTOR): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Moreau 2021 (IKEMA): IsKd vs Kd</t>
+  </si>
+  <si>
+    <t>Orlowski 2019 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2019 (OPTIMISMM): PVd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2021 (TOURMALINE-MM1): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2014 (PANORAMA-1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2016 (PANORAMA 1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2013 (MM-003): Pd vs GC</t>
+  </si>
+  <si>
+    <t>Siegel 2018 (ASPIRE): KRd vs Rd</t>
+  </si>
+  <si>
+    <t>Usamani 2022 (CANDOR): DKd vs Kd</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;=3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;=2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Lower 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>Upper 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t>Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      AT 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t>Data Extraction Errors</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Study: Treatment 1 vs Treatment 2</t>
+  </si>
+  <si>
+    <t>Attal 2019 (ICARIA-MM): IsPd vs Pd</t>
+  </si>
+  <si>
+    <t>Bahlis 2020 (POLLUX): DRd vs Rd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2013 (VANTAGE 088): VorV vs V</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2016 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-3): EPd vs Pd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2021 (APOLLO): DPd vs Pd</t>
+  </si>
+  <si>
+    <t>Hou 2017 (China Cont.): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>Jakubowiak 2016 (NCT01478048): EVd vs Vd</t>
+  </si>
+  <si>
+    <t>Kumar 2020 (BELLINI): VeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Lonial 2015 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Lu 2021 (LEPUS): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Mateos 2020 (CASTOR): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Moreau 2021 (IKEMA): IsKd vs Kd</t>
+  </si>
+  <si>
+    <t>Orlowski 2007 (NCT00103506): V vs DoxV</t>
+  </si>
+  <si>
+    <t>Orlowski 2016 (NCT00103506): V vs DoxV</t>
+  </si>
+  <si>
+    <t>Orlowski 2019 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2019 (OPTIMISMM): PVd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2021 (TOURMALINE-MM1): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2016 (PANORAMA 1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>Stewart 2015 (ASPIRE): KRd vs Rd</t>
+  </si>
+  <si>
+    <t>Usmani 2022 (CANDOR): DKd vs Kd</t>
+  </si>
+  <si>
+    <t>refract</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Ref. to R and a PI</t>
+  </si>
+  <si>
+    <t>Not ref. to R and a PI</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous R or T use</t>
+  </si>
+  <si>
+    <t>No previous R or T use</t>
+  </si>
+  <si>
+    <t>Previous R or T use</t>
+  </si>
+  <si>
+    <t>No previous R or T use</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Refractory to T</t>
+  </si>
+  <si>
+    <t>Not refractory to T</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No previous IMiD use</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Lower 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>Upper 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0230</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .       Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t>Data Extraction Errors</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Study: Treatment 1 vs Treatment 2</t>
+  </si>
+  <si>
+    <t>Attal 2019 (ICARIA-MM): IsPd vs Pd</t>
+  </si>
+  <si>
+    <t>Bahlis 2020 (POLLUX): DRd vs Rd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2013 (VANTAGE 088): VorV vs V</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2016 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-3): EPd vs Pd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2020 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2021 (APOLLO): DPd vs Pd</t>
+  </si>
+  <si>
+    <t>Grosicki 2020 (BOSTON): SeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Hou 2017 (China Cont.): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>Jakubowiak 2016 (NCT01478048): EVd vs Vd</t>
+  </si>
+  <si>
+    <t>Kumar 2020 (BELLINI): VeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Lu 2021 (LEPUS): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Mateos 2020 (CASTOR): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Moreau 2021 (IKEMA): IsKd vs Kd</t>
+  </si>
+  <si>
+    <t>Orlowski 2019 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2019 (OPTIMISMM): PVd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2021 (TOURMALINE-MM1): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2014 (PANORAMA-1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2016 (PANORAMA 1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2013 (MM-003): Pd vs GC</t>
+  </si>
+  <si>
+    <t>Siegel 2018 (ASPIRE): KRd vs Rd</t>
+  </si>
+  <si>
+    <t>Usamani 2022 (CANDOR): DKd vs Kd</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;=3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;=2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Lower 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>Upper 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t>Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      AT 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t>Data Extraction Errors</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Study: Treatment 1 vs Treatment 2</t>
+  </si>
+  <si>
+    <t>Attal 2019 (ICARIA-MM): IsPd vs Pd</t>
+  </si>
+  <si>
+    <t>Bahlis 2020 (POLLUX): DRd vs Rd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2013 (VANTAGE 088): VorV vs V</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2016 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-3): EPd vs Pd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2021 (APOLLO): DPd vs Pd</t>
+  </si>
+  <si>
+    <t>Hou 2017 (China Cont.): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>Jakubowiak 2016 (NCT01478048): EVd vs Vd</t>
+  </si>
+  <si>
+    <t>Kumar 2020 (BELLINI): VeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Lonial 2015 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Lu 2021 (LEPUS): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Mateos 2020 (CASTOR): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Moreau 2021 (IKEMA): IsKd vs Kd</t>
+  </si>
+  <si>
+    <t>Orlowski 2007 (NCT00103506): V vs DoxV</t>
+  </si>
+  <si>
+    <t>Orlowski 2016 (NCT00103506): V vs DoxV</t>
+  </si>
+  <si>
+    <t>Orlowski 2019 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2019 (OPTIMISMM): PVd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2021 (TOURMALINE-MM1): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2016 (PANORAMA 1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>Stewart 2015 (ASPIRE): KRd vs Rd</t>
+  </si>
+  <si>
+    <t>Usmani 2022 (CANDOR): DKd vs Kd</t>
+  </si>
+  <si>
+    <t>refract</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Ref. to R and a PI</t>
+  </si>
+  <si>
+    <t>Not ref. to R and a PI</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous R or T use</t>
+  </si>
+  <si>
+    <t>No previous R or T use</t>
+  </si>
+  <si>
+    <t>Previous R or T use</t>
+  </si>
+  <si>
+    <t>No previous R or T use</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Refractory to T</t>
+  </si>
+  <si>
+    <t>Not refractory to T</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No previous IMiD use</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Lower 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>Upper 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0230</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .       Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t>Data Extraction Errors</t>
   </si>
   <si>
     <t/>
@@ -109288,42 +112528,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>36048</v>
+        <v>37128</v>
       </c>
       <c r="B1" t="s">
-        <v>36072</v>
+        <v>37152</v>
       </c>
       <c r="C1" t="s">
-        <v>36136</v>
+        <v>37216</v>
       </c>
       <c r="D1" t="s">
-        <v>36152</v>
+        <v>37232</v>
       </c>
       <c r="E1" t="s">
-        <v>36153</v>
+        <v>37233</v>
       </c>
       <c r="F1" t="s">
-        <v>36154</v>
+        <v>37234</v>
       </c>
       <c r="G1" t="s">
-        <v>36155</v>
+        <v>37235</v>
       </c>
       <c r="H1" t="s">
-        <v>36156</v>
+        <v>37236</v>
       </c>
       <c r="I1" t="s">
-        <v>36180</v>
+        <v>37260</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>36049</v>
+        <v>37129</v>
       </c>
       <c r="B2" t="s">
-        <v>36073</v>
+        <v>37153</v>
       </c>
       <c r="C2" t="s">
-        <v>36137</v>
+        <v>37217</v>
       </c>
       <c r="D2" s="1">
         <v>0.5899999737739563</v>
@@ -109336,21 +112576,21 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" t="s">
-        <v>36157</v>
+        <v>37237</v>
       </c>
       <c r="I2" t="s">
-        <v>36181</v>
+        <v>37261</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>36049</v>
+        <v>37129</v>
       </c>
       <c r="B3" t="s">
-        <v>36074</v>
+        <v>37154</v>
       </c>
       <c r="C3" t="s">
-        <v>36137</v>
+        <v>37217</v>
       </c>
       <c r="D3" s="1">
         <v>0.5899999737739563</v>
@@ -109363,21 +112603,21 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" t="s">
-        <v>36157</v>
+        <v>37237</v>
       </c>
       <c r="I3" t="s">
-        <v>36182</v>
+        <v>37262</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>36050</v>
+        <v>37130</v>
       </c>
       <c r="B4" t="s">
-        <v>36075</v>
+        <v>37155</v>
       </c>
       <c r="C4" t="s">
-        <v>36137</v>
+        <v>37217</v>
       </c>
       <c r="D4" s="1">
         <v>0.41999998688697815</v>
@@ -109390,21 +112630,21 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" t="s">
-        <v>36158</v>
+        <v>37238</v>
       </c>
       <c r="I4" t="s">
-        <v>36183</v>
+        <v>37263</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>36050</v>
+        <v>37130</v>
       </c>
       <c r="B5" t="s">
-        <v>36076</v>
+        <v>37156</v>
       </c>
       <c r="C5" t="s">
-        <v>36137</v>
+        <v>37217</v>
       </c>
       <c r="D5" s="1">
         <v>0.38999998569488525</v>
@@ -109417,21 +112657,21 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" t="s">
-        <v>36158</v>
+        <v>37238</v>
       </c>
       <c r="I5" t="s">
-        <v>36184</v>
+        <v>37264</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>36050</v>
+        <v>37130</v>
       </c>
       <c r="B6" t="s">
-        <v>36077</v>
+        <v>37157</v>
       </c>
       <c r="C6" t="s">
-        <v>36137</v>
+        <v>37217</v>
       </c>
       <c r="D6" s="1">
         <v>0.47999998927116394</v>
@@ -109444,21 +112684,21 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" t="s">
-        <v>36158</v>
+        <v>37238</v>
       </c>
       <c r="I6" t="s">
-        <v>36185</v>
+        <v>37265</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>36050</v>
+        <v>37130</v>
       </c>
       <c r="B7" t="s">
-        <v>36078</v>
+        <v>37158</v>
       </c>
       <c r="C7" t="s">
-        <v>36137</v>
+        <v>37217</v>
       </c>
       <c r="D7" s="1">
         <v>0.74000000953674316</v>
@@ -109471,21 +112711,21 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" t="s">
-        <v>36158</v>
+        <v>37238</v>
       </c>
       <c r="I7" t="s">
-        <v>36186</v>
+        <v>37266</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>36051</v>
+        <v>37131</v>
       </c>
       <c r="B8" t="s">
-        <v>36079</v>
+        <v>37159</v>
       </c>
       <c r="C8" t="s">
-        <v>36137</v>
+        <v>37217</v>
       </c>
       <c r="D8" s="1">
         <v>0.68699997663497925</v>
@@ -109500,21 +112740,21 @@
         <v>0.015200000256299973</v>
       </c>
       <c r="H8" t="s">
-        <v>36159</v>
+        <v>37239</v>
       </c>
       <c r="I8" t="s">
-        <v>36187</v>
+        <v>37267</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>36051</v>
+        <v>37131</v>
       </c>
       <c r="B9" t="s">
-        <v>36080</v>
+        <v>37160</v>
       </c>
       <c r="C9" t="s">
-        <v>36137</v>
+        <v>37217</v>
       </c>
       <c r="D9" s="1">
         <v>0.91600000858306885</v>
@@ -109529,21 +112769,21 @@
         <v>0.48710000514984131</v>
       </c>
       <c r="H9" t="s">
-        <v>36160</v>
+        <v>37240</v>
       </c>
       <c r="I9" t="s">
-        <v>36188</v>
+        <v>37268</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>36052</v>
+        <v>37132</v>
       </c>
       <c r="B10" t="s">
-        <v>36081</v>
+        <v>37161</v>
       </c>
       <c r="C10" t="s">
-        <v>36137</v>
+        <v>37217</v>
       </c>
       <c r="D10" s="1">
         <v>0.44999998807907104</v>
@@ -109556,21 +112796,21 @@
       </c>
       <c r="G10" s="1"/>
       <c r="H10" t="s">
-        <v>36161</v>
+        <v>37241</v>
       </c>
       <c r="I10" t="s">
-        <v>36189</v>
+        <v>37269</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>36052</v>
+        <v>37132</v>
       </c>
       <c r="B11" t="s">
-        <v>36082</v>
+        <v>37162</v>
       </c>
       <c r="C11" t="s">
-        <v>36137</v>
+        <v>37217</v>
       </c>
       <c r="D11" s="1">
         <v>0.60000002384185791</v>
@@ -109583,21 +112823,21 @@
       </c>
       <c r="G11" s="1"/>
       <c r="H11" t="s">
-        <v>36161</v>
+        <v>37241</v>
       </c>
       <c r="I11" t="s">
-        <v>36190</v>
+        <v>37270</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>36053</v>
+        <v>37133</v>
       </c>
       <c r="B12" t="s">
-        <v>36082</v>
+        <v>37162</v>
       </c>
       <c r="C12" t="s">
-        <v>36137</v>
+        <v>37217</v>
       </c>
       <c r="D12" s="1">
         <v>0.55000001192092896</v>
@@ -109610,21 +112850,21 @@
       </c>
       <c r="G12" s="1"/>
       <c r="H12" t="s">
-        <v>36162</v>
+        <v>37242</v>
       </c>
       <c r="I12" t="s">
-        <v>36191</v>
+        <v>37271</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>36053</v>
+        <v>37133</v>
       </c>
       <c r="B13" t="s">
-        <v>36083</v>
+        <v>37163</v>
       </c>
       <c r="C13" t="s">
-        <v>36137</v>
+        <v>37217</v>
       </c>
       <c r="D13" s="1">
         <v>0.50999999046325684</v>
@@ -109637,21 +112877,21 @@
       </c>
       <c r="G13" s="1"/>
       <c r="H13" t="s">
-        <v>36162</v>
+        <v>37242</v>
       </c>
       <c r="I13" t="s">
-        <v>36192</v>
+        <v>37272</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>36054</v>
+        <v>37134</v>
       </c>
       <c r="B14" t="s">
-        <v>36084</v>
+        <v>37164</v>
       </c>
       <c r="C14" t="s">
-        <v>36137</v>
+        <v>37217</v>
       </c>
       <c r="D14" s="1">
         <v>0.76999998092651367</v>
@@ -109664,21 +112904,21 @@
       </c>
       <c r="G14" s="1"/>
       <c r="H14" t="s">
-        <v>36163</v>
+        <v>37243</v>
       </c>
       <c r="I14" t="s">
-        <v>36193</v>
+        <v>37273</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>36054</v>
+        <v>37134</v>
       </c>
       <c r="B15" t="s">
-        <v>36085</v>
+        <v>37165</v>
       </c>
       <c r="C15" t="s">
-        <v>36137</v>
+        <v>37217</v>
       </c>
       <c r="D15" s="1">
         <v>0.68000000715255737</v>
@@ -109691,21 +112931,21 @@
       </c>
       <c r="G15" s="1"/>
       <c r="H15" t="s">
-        <v>36163</v>
+        <v>37243</v>
       </c>
       <c r="I15" t="s">
-        <v>36194</v>
+        <v>37274</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>36055</v>
+        <v>37135</v>
       </c>
       <c r="B16" t="s">
-        <v>36086</v>
+        <v>37166</v>
       </c>
       <c r="C16" t="s">
-        <v>36138</v>
+        <v>37218</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -109718,21 +112958,21 @@
       </c>
       <c r="G16" s="1"/>
       <c r="H16" t="s">
-        <v>36163</v>
+        <v>37243</v>
       </c>
       <c r="I16" t="s">
-        <v>36195</v>
+        <v>37275</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>36055</v>
+        <v>37135</v>
       </c>
       <c r="B17" t="s">
-        <v>36087</v>
+        <v>37167</v>
       </c>
       <c r="C17" t="s">
-        <v>36138</v>
+        <v>37218</v>
       </c>
       <c r="D17" s="1">
         <v>0.70999997854232788</v>
@@ -109745,21 +112985,21 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" t="s">
-        <v>36163</v>
+        <v>37243</v>
       </c>
       <c r="I17" t="s">
-        <v>36196</v>
+        <v>37276</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>36056</v>
+        <v>37136</v>
       </c>
       <c r="B18" t="s">
-        <v>36088</v>
+        <v>37168</v>
       </c>
       <c r="C18" t="s">
-        <v>36139</v>
+        <v>37219</v>
       </c>
       <c r="D18" s="1">
         <v>0.69999998807907104</v>
@@ -109772,21 +113012,21 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18" t="s">
-        <v>36164</v>
+        <v>37244</v>
       </c>
       <c r="I18" t="s">
-        <v>36197</v>
+        <v>37277</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>36056</v>
+        <v>37136</v>
       </c>
       <c r="B19" t="s">
-        <v>36089</v>
+        <v>37169</v>
       </c>
       <c r="C19" t="s">
-        <v>36139</v>
+        <v>37219</v>
       </c>
       <c r="D19" s="1">
         <v>0.6600000262260437</v>
@@ -109799,21 +113039,21 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" t="s">
-        <v>36164</v>
+        <v>37244</v>
       </c>
       <c r="I19" t="s">
-        <v>36198</v>
+        <v>37278</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>36056</v>
+        <v>37136</v>
       </c>
       <c r="B20" t="s">
-        <v>36090</v>
+        <v>37170</v>
       </c>
       <c r="C20" t="s">
-        <v>36139</v>
+        <v>37219</v>
       </c>
       <c r="D20" s="1">
         <v>0.40000000596046448</v>
@@ -109826,21 +113066,21 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" t="s">
-        <v>36164</v>
+        <v>37244</v>
       </c>
       <c r="I20" t="s">
-        <v>36199</v>
+        <v>37279</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>36057</v>
+        <v>37137</v>
       </c>
       <c r="B21" t="s">
-        <v>36091</v>
+        <v>37171</v>
       </c>
       <c r="C21" t="s">
-        <v>36139</v>
+        <v>37219</v>
       </c>
       <c r="D21" s="1">
         <v>0.62999999523162842</v>
@@ -109853,21 +113093,21 @@
       </c>
       <c r="G21" s="1"/>
       <c r="H21" t="s">
-        <v>36165</v>
+        <v>37245</v>
       </c>
       <c r="I21" t="s">
-        <v>36200</v>
+        <v>37280</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>36057</v>
+        <v>37137</v>
       </c>
       <c r="B22" t="s">
-        <v>36092</v>
+        <v>37172</v>
       </c>
       <c r="C22" t="s">
-        <v>36139</v>
+        <v>37219</v>
       </c>
       <c r="D22" s="1">
         <v>0.64999997615814209</v>
@@ -109880,21 +113120,21 @@
       </c>
       <c r="G22" s="1"/>
       <c r="H22" t="s">
-        <v>36165</v>
+        <v>37245</v>
       </c>
       <c r="I22" t="s">
-        <v>36201</v>
+        <v>37281</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>36057</v>
+        <v>37137</v>
       </c>
       <c r="B23" t="s">
-        <v>36093</v>
+        <v>37173</v>
       </c>
       <c r="C23" t="s">
-        <v>36139</v>
+        <v>37219</v>
       </c>
       <c r="D23" s="1">
         <v>0.81999999284744263</v>
@@ -109907,21 +113147,21 @@
       </c>
       <c r="G23" s="1"/>
       <c r="H23" t="s">
-        <v>36165</v>
+        <v>37245</v>
       </c>
       <c r="I23" t="s">
-        <v>36202</v>
+        <v>37282</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>36058</v>
+        <v>37138</v>
       </c>
       <c r="B24" t="s">
-        <v>36094</v>
+        <v>37174</v>
       </c>
       <c r="C24" t="s">
-        <v>36139</v>
+        <v>37219</v>
       </c>
       <c r="D24" s="1">
         <v>0.84700000286102295</v>
@@ -109934,21 +113174,21 @@
       </c>
       <c r="G24" s="1"/>
       <c r="H24" t="s">
-        <v>36166</v>
+        <v>37246</v>
       </c>
       <c r="I24" t="s">
-        <v>36203</v>
+        <v>37283</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>36058</v>
+        <v>37138</v>
       </c>
       <c r="B25" t="s">
-        <v>36095</v>
+        <v>37175</v>
       </c>
       <c r="C25" t="s">
-        <v>36139</v>
+        <v>37219</v>
       </c>
       <c r="D25" s="1">
         <v>0.37000000476837158</v>
@@ -109961,21 +113201,21 @@
       </c>
       <c r="G25" s="1"/>
       <c r="H25" t="s">
-        <v>36166</v>
+        <v>37246</v>
       </c>
       <c r="I25" t="s">
-        <v>36204</v>
+        <v>37284</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>36058</v>
+        <v>37138</v>
       </c>
       <c r="B26" t="s">
-        <v>36096</v>
+        <v>37176</v>
       </c>
       <c r="C26" t="s">
-        <v>36139</v>
+        <v>37219</v>
       </c>
       <c r="D26" s="1">
         <v>0.70200002193450928</v>
@@ -109988,21 +113228,21 @@
       </c>
       <c r="G26" s="1"/>
       <c r="H26" t="s">
-        <v>36166</v>
+        <v>37246</v>
       </c>
       <c r="I26" t="s">
-        <v>36205</v>
+        <v>37285</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>36058</v>
+        <v>37138</v>
       </c>
       <c r="B27" t="s">
-        <v>36097</v>
+        <v>37177</v>
       </c>
       <c r="C27" t="s">
-        <v>36140</v>
+        <v>37220</v>
       </c>
       <c r="D27" s="1">
         <v>0.52100002765655518</v>
@@ -110015,21 +113255,21 @@
       </c>
       <c r="G27" s="1"/>
       <c r="H27" t="s">
-        <v>36167</v>
+        <v>37247</v>
       </c>
       <c r="I27" t="s">
-        <v>36206</v>
+        <v>37286</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>36058</v>
+        <v>37138</v>
       </c>
       <c r="B28" t="s">
-        <v>36098</v>
+        <v>37178</v>
       </c>
       <c r="C28" t="s">
-        <v>36140</v>
+        <v>37220</v>
       </c>
       <c r="D28" s="1">
         <v>0.38600000739097595</v>
@@ -110042,21 +113282,21 @@
       </c>
       <c r="G28" s="1"/>
       <c r="H28" t="s">
-        <v>36167</v>
+        <v>37247</v>
       </c>
       <c r="I28" t="s">
-        <v>36207</v>
+        <v>37287</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>36058</v>
+        <v>37138</v>
       </c>
       <c r="B29" t="s">
-        <v>36099</v>
+        <v>37179</v>
       </c>
       <c r="C29" t="s">
-        <v>36140</v>
+        <v>37220</v>
       </c>
       <c r="D29" s="1">
         <v>0.335999995470047</v>
@@ -110069,21 +113309,21 @@
       </c>
       <c r="G29" s="1"/>
       <c r="H29" t="s">
-        <v>36167</v>
+        <v>37247</v>
       </c>
       <c r="I29" t="s">
-        <v>36208</v>
+        <v>37288</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>36059</v>
+        <v>37139</v>
       </c>
       <c r="B30" t="s">
-        <v>36100</v>
+        <v>37180</v>
       </c>
       <c r="C30" t="s">
-        <v>36141</v>
+        <v>37221</v>
       </c>
       <c r="D30" s="1">
         <v>0.74000000953674316</v>
@@ -110096,21 +113336,21 @@
       </c>
       <c r="G30" s="1"/>
       <c r="H30" t="s">
-        <v>36168</v>
+        <v>37248</v>
       </c>
       <c r="I30" t="s">
-        <v>36209</v>
+        <v>37289</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>36059</v>
+        <v>37139</v>
       </c>
       <c r="B31" t="s">
-        <v>36101</v>
+        <v>37181</v>
       </c>
       <c r="C31" t="s">
-        <v>36141</v>
+        <v>37221</v>
       </c>
       <c r="D31" s="1">
         <v>0.75999999046325684</v>
@@ -110123,21 +113363,21 @@
       </c>
       <c r="G31" s="1"/>
       <c r="H31" t="s">
-        <v>36168</v>
+        <v>37248</v>
       </c>
       <c r="I31" t="s">
-        <v>36210</v>
+        <v>37290</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>36060</v>
+        <v>37140</v>
       </c>
       <c r="B32" t="s">
-        <v>36102</v>
+        <v>37182</v>
       </c>
       <c r="C32" t="s">
-        <v>36141</v>
+        <v>37221</v>
       </c>
       <c r="D32" s="1">
         <v>0.75</v>
@@ -110150,21 +113390,21 @@
       </c>
       <c r="G32" s="1"/>
       <c r="H32" t="s">
-        <v>36169</v>
+        <v>37249</v>
       </c>
       <c r="I32" t="s">
-        <v>36211</v>
+        <v>37291</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>36060</v>
+        <v>37140</v>
       </c>
       <c r="B33" t="s">
-        <v>36103</v>
+        <v>37183</v>
       </c>
       <c r="C33" t="s">
-        <v>36141</v>
+        <v>37221</v>
       </c>
       <c r="D33" s="1">
         <v>0.54000002145767212</v>
@@ -110177,21 +113417,21 @@
       </c>
       <c r="G33" s="1"/>
       <c r="H33" t="s">
-        <v>36169</v>
+        <v>37249</v>
       </c>
       <c r="I33" t="s">
-        <v>36212</v>
+        <v>37292</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>36060</v>
+        <v>37140</v>
       </c>
       <c r="B34" t="s">
-        <v>36104</v>
+        <v>37184</v>
       </c>
       <c r="C34" t="s">
-        <v>36142</v>
+        <v>37222</v>
       </c>
       <c r="D34" s="1">
         <v>1.6699999570846558</v>
@@ -110204,21 +113444,21 @@
       </c>
       <c r="G34" s="1"/>
       <c r="H34" t="s">
-        <v>36170</v>
+        <v>37250</v>
       </c>
       <c r="I34" t="s">
-        <v>36213</v>
+        <v>37293</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>36060</v>
+        <v>37140</v>
       </c>
       <c r="B35" t="s">
-        <v>36105</v>
+        <v>37185</v>
       </c>
       <c r="C35" t="s">
-        <v>36142</v>
+        <v>37222</v>
       </c>
       <c r="D35" s="1">
         <v>2.3299999237060547</v>
@@ -110231,21 +113471,21 @@
       </c>
       <c r="G35" s="1"/>
       <c r="H35" t="s">
-        <v>36170</v>
+        <v>37250</v>
       </c>
       <c r="I35" t="s">
-        <v>36214</v>
+        <v>37294</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>36061</v>
+        <v>37141</v>
       </c>
       <c r="B36" t="s">
-        <v>36106</v>
+        <v>37186</v>
       </c>
       <c r="C36" t="s">
-        <v>36143</v>
+        <v>37223</v>
       </c>
       <c r="D36" s="1">
         <v>0.15999999642372131</v>
@@ -110258,21 +113498,21 @@
       </c>
       <c r="G36" s="1"/>
       <c r="H36" t="s">
-        <v>36171</v>
+        <v>37251</v>
       </c>
       <c r="I36" t="s">
-        <v>36215</v>
+        <v>37295</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>36061</v>
+        <v>37141</v>
       </c>
       <c r="B37" t="s">
-        <v>36107</v>
+        <v>37187</v>
       </c>
       <c r="C37" t="s">
-        <v>36143</v>
+        <v>37223</v>
       </c>
       <c r="D37" s="1">
         <v>0.51999998092651367</v>
@@ -110285,21 +113525,21 @@
       </c>
       <c r="G37" s="1"/>
       <c r="H37" t="s">
-        <v>36171</v>
+        <v>37251</v>
       </c>
       <c r="I37" t="s">
-        <v>36216</v>
+        <v>37296</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>36061</v>
+        <v>37141</v>
       </c>
       <c r="B38" t="s">
-        <v>36108</v>
+        <v>37188</v>
       </c>
       <c r="C38" t="s">
-        <v>36143</v>
+        <v>37223</v>
       </c>
       <c r="D38" s="1">
         <v>0.62999999523162842</v>
@@ -110312,21 +113552,21 @@
       </c>
       <c r="G38" s="1"/>
       <c r="H38" t="s">
-        <v>36171</v>
+        <v>37251</v>
       </c>
       <c r="I38" t="s">
-        <v>36217</v>
+        <v>37297</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>36061</v>
+        <v>37141</v>
       </c>
       <c r="B39" t="s">
-        <v>36109</v>
+        <v>37189</v>
       </c>
       <c r="C39" t="s">
-        <v>36143</v>
+        <v>37223</v>
       </c>
       <c r="D39" s="1">
         <v>0.25999999046325684</v>
@@ -110339,21 +113579,21 @@
       </c>
       <c r="G39" s="1"/>
       <c r="H39" t="s">
-        <v>36171</v>
+        <v>37251</v>
       </c>
       <c r="I39" t="s">
-        <v>36218</v>
+        <v>37298</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>36062</v>
+        <v>37142</v>
       </c>
       <c r="B40" t="s">
-        <v>36110</v>
+        <v>37190</v>
       </c>
       <c r="C40" t="s">
-        <v>36143</v>
+        <v>37223</v>
       </c>
       <c r="D40" s="1">
         <v>0.2199999988079071</v>
@@ -110366,21 +113606,21 @@
       </c>
       <c r="G40" s="1"/>
       <c r="H40" t="s">
-        <v>36171</v>
+        <v>37251</v>
       </c>
       <c r="I40" t="s">
-        <v>36219</v>
+        <v>37299</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>36062</v>
+        <v>37142</v>
       </c>
       <c r="B41" t="s">
-        <v>36111</v>
+        <v>37191</v>
       </c>
       <c r="C41" t="s">
-        <v>36143</v>
+        <v>37223</v>
       </c>
       <c r="D41" s="1">
         <v>0.46000000834465027</v>
@@ -110393,21 +113633,21 @@
       </c>
       <c r="G41" s="1"/>
       <c r="H41" t="s">
-        <v>36171</v>
+        <v>37251</v>
       </c>
       <c r="I41" t="s">
-        <v>36220</v>
+        <v>37300</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>36062</v>
+        <v>37142</v>
       </c>
       <c r="B42" t="s">
-        <v>36112</v>
+        <v>37192</v>
       </c>
       <c r="C42" t="s">
-        <v>36143</v>
+        <v>37223</v>
       </c>
       <c r="D42" s="1">
         <v>0.60000002384185791</v>
@@ -110420,21 +113660,21 @@
       </c>
       <c r="G42" s="1"/>
       <c r="H42" t="s">
-        <v>36171</v>
+        <v>37251</v>
       </c>
       <c r="I42" t="s">
-        <v>36221</v>
+        <v>37301</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>36062</v>
+        <v>37142</v>
       </c>
       <c r="B43" t="s">
-        <v>36113</v>
+        <v>37193</v>
       </c>
       <c r="C43" t="s">
-        <v>36143</v>
+        <v>37223</v>
       </c>
       <c r="D43" s="1">
         <v>0.37000000476837158</v>
@@ -110447,21 +113687,21 @@
       </c>
       <c r="G43" s="1"/>
       <c r="H43" t="s">
-        <v>36171</v>
+        <v>37251</v>
       </c>
       <c r="I43" t="s">
-        <v>36222</v>
+        <v>37302</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>36063</v>
+        <v>37143</v>
       </c>
       <c r="B44" t="s">
-        <v>36114</v>
+        <v>37194</v>
       </c>
       <c r="C44" t="s">
-        <v>36143</v>
+        <v>37223</v>
       </c>
       <c r="D44" s="1">
         <v>0.5899999737739563</v>
@@ -110474,21 +113714,21 @@
       </c>
       <c r="G44" s="1"/>
       <c r="H44" t="s">
-        <v>36172</v>
+        <v>37252</v>
       </c>
       <c r="I44" t="s">
-        <v>36223</v>
+        <v>37303</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>36063</v>
+        <v>37143</v>
       </c>
       <c r="B45" t="s">
-        <v>36115</v>
+        <v>37195</v>
       </c>
       <c r="C45" t="s">
-        <v>36143</v>
+        <v>37223</v>
       </c>
       <c r="D45" s="1">
         <v>0.47999998927116394</v>
@@ -110501,21 +113741,21 @@
       </c>
       <c r="G45" s="1"/>
       <c r="H45" t="s">
-        <v>36172</v>
+        <v>37252</v>
       </c>
       <c r="I45" t="s">
-        <v>36224</v>
+        <v>37304</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>36064</v>
+        <v>37144</v>
       </c>
       <c r="B46" t="s">
-        <v>36116</v>
+        <v>37196</v>
       </c>
       <c r="C46" t="s">
-        <v>36144</v>
+        <v>37224</v>
       </c>
       <c r="D46" s="1">
         <v>0.77100002765655518</v>
@@ -110528,21 +113768,21 @@
       </c>
       <c r="G46" s="1"/>
       <c r="H46" t="s">
-        <v>36172</v>
+        <v>37252</v>
       </c>
       <c r="I46" t="s">
-        <v>36225</v>
+        <v>37305</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>36064</v>
+        <v>37144</v>
       </c>
       <c r="B47" t="s">
-        <v>36117</v>
+        <v>37197</v>
       </c>
       <c r="C47" t="s">
-        <v>36144</v>
+        <v>37224</v>
       </c>
       <c r="D47" s="1">
         <v>0.75199997425079346</v>
@@ -110555,21 +113795,21 @@
       </c>
       <c r="G47" s="1"/>
       <c r="H47" t="s">
-        <v>36172</v>
+        <v>37252</v>
       </c>
       <c r="I47" t="s">
-        <v>36226</v>
+        <v>37306</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>36065</v>
+        <v>37145</v>
       </c>
       <c r="B48" t="s">
-        <v>36118</v>
+        <v>37198</v>
       </c>
       <c r="C48" t="s">
-        <v>36145</v>
+        <v>37225</v>
       </c>
       <c r="D48" s="1">
         <v>0.54000002145767212</v>
@@ -110582,21 +113822,21 @@
       </c>
       <c r="G48" s="1"/>
       <c r="H48" t="s">
-        <v>36172</v>
+        <v>37252</v>
       </c>
       <c r="I48" t="s">
-        <v>36227</v>
+        <v>37307</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>36065</v>
+        <v>37145</v>
       </c>
       <c r="B49" t="s">
-        <v>36119</v>
+        <v>37199</v>
       </c>
       <c r="C49" t="s">
-        <v>36145</v>
+        <v>37225</v>
       </c>
       <c r="D49" s="1">
         <v>0.67000001668930054</v>
@@ -110609,21 +113849,21 @@
       </c>
       <c r="G49" s="1"/>
       <c r="H49" t="s">
-        <v>36172</v>
+        <v>37252</v>
       </c>
       <c r="I49" t="s">
-        <v>36228</v>
+        <v>37308</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>36065</v>
+        <v>37145</v>
       </c>
       <c r="B50" t="s">
-        <v>36120</v>
+        <v>37200</v>
       </c>
       <c r="C50" t="s">
-        <v>36145</v>
+        <v>37225</v>
       </c>
       <c r="D50" s="1">
         <v>0.60000002384185791</v>
@@ -110636,21 +113876,21 @@
       </c>
       <c r="G50" s="1"/>
       <c r="H50" t="s">
-        <v>36172</v>
+        <v>37252</v>
       </c>
       <c r="I50" t="s">
-        <v>36229</v>
+        <v>37309</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>36066</v>
+        <v>37146</v>
       </c>
       <c r="B51" t="s">
-        <v>36121</v>
+        <v>37201</v>
       </c>
       <c r="C51" t="s">
-        <v>36146</v>
+        <v>37226</v>
       </c>
       <c r="D51" s="1">
         <v>0.97600001096725464</v>
@@ -110663,21 +113903,21 @@
       </c>
       <c r="G51" s="1"/>
       <c r="H51" t="s">
-        <v>36173</v>
+        <v>37253</v>
       </c>
       <c r="I51" t="s">
-        <v>36230</v>
+        <v>37310</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>36066</v>
+        <v>37146</v>
       </c>
       <c r="B52" t="s">
-        <v>36122</v>
+        <v>37202</v>
       </c>
       <c r="C52" t="s">
-        <v>36146</v>
+        <v>37226</v>
       </c>
       <c r="D52" s="1">
         <v>0.92599999904632568</v>
@@ -110690,21 +113930,21 @@
       </c>
       <c r="G52" s="1"/>
       <c r="H52" t="s">
-        <v>36173</v>
+        <v>37253</v>
       </c>
       <c r="I52" t="s">
-        <v>36231</v>
+        <v>37311</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>36066</v>
+        <v>37146</v>
       </c>
       <c r="B53" t="s">
-        <v>36123</v>
+        <v>37203</v>
       </c>
       <c r="C53" t="s">
-        <v>36146</v>
+        <v>37226</v>
       </c>
       <c r="D53" s="1">
         <v>0.88300001621246338</v>
@@ -110717,21 +113957,21 @@
       </c>
       <c r="G53" s="1"/>
       <c r="H53" t="s">
-        <v>36173</v>
+        <v>37253</v>
       </c>
       <c r="I53" t="s">
-        <v>36232</v>
+        <v>37312</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>36067</v>
+        <v>37147</v>
       </c>
       <c r="B54" t="s">
-        <v>36124</v>
+        <v>37204</v>
       </c>
       <c r="C54" t="s">
-        <v>36147</v>
+        <v>37227</v>
       </c>
       <c r="D54" s="1">
         <v>0.6600000262260437</v>
@@ -110744,21 +113984,21 @@
       </c>
       <c r="G54" s="1"/>
       <c r="H54" t="s">
-        <v>36174</v>
+        <v>37254</v>
       </c>
       <c r="I54" t="s">
-        <v>36233</v>
+        <v>37313</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>36067</v>
+        <v>37147</v>
       </c>
       <c r="B55" t="s">
-        <v>36125</v>
+        <v>37205</v>
       </c>
       <c r="C55" t="s">
-        <v>36147</v>
+        <v>37227</v>
       </c>
       <c r="D55" s="1">
         <v>0.63999998569488525</v>
@@ -110771,21 +114011,21 @@
       </c>
       <c r="G55" s="1"/>
       <c r="H55" t="s">
-        <v>36174</v>
+        <v>37254</v>
       </c>
       <c r="I55" t="s">
-        <v>36234</v>
+        <v>37314</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>36068</v>
+        <v>37148</v>
       </c>
       <c r="B56" t="s">
-        <v>36126</v>
+        <v>37206</v>
       </c>
       <c r="C56" t="s">
-        <v>36148</v>
+        <v>37228</v>
       </c>
       <c r="D56" s="1">
         <v>0.89999997615814209</v>
@@ -110798,21 +114038,21 @@
       </c>
       <c r="G56" s="1"/>
       <c r="H56" t="s">
-        <v>36175</v>
+        <v>37255</v>
       </c>
       <c r="I56" t="s">
-        <v>36235</v>
+        <v>37315</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>36068</v>
+        <v>37148</v>
       </c>
       <c r="B57" t="s">
-        <v>36127</v>
+        <v>37207</v>
       </c>
       <c r="C57" t="s">
-        <v>36148</v>
+        <v>37228</v>
       </c>
       <c r="D57" s="1">
         <v>0.95999997854232788</v>
@@ -110825,21 +114065,21 @@
       </c>
       <c r="G57" s="1"/>
       <c r="H57" t="s">
-        <v>36175</v>
+        <v>37255</v>
       </c>
       <c r="I57" t="s">
-        <v>36236</v>
+        <v>37316</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>36069</v>
+        <v>37149</v>
       </c>
       <c r="B58" t="s">
-        <v>36128</v>
+        <v>37208</v>
       </c>
       <c r="C58" t="s">
-        <v>36149</v>
+        <v>37229</v>
       </c>
       <c r="D58" s="1">
         <v>0.4699999988079071</v>
@@ -110852,21 +114092,21 @@
       </c>
       <c r="G58" s="1"/>
       <c r="H58" t="s">
-        <v>36176</v>
+        <v>37256</v>
       </c>
       <c r="I58" t="s">
-        <v>36237</v>
+        <v>37317</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>36069</v>
+        <v>37149</v>
       </c>
       <c r="B59" t="s">
-        <v>36129</v>
+        <v>37209</v>
       </c>
       <c r="C59" t="s">
-        <v>36149</v>
+        <v>37229</v>
       </c>
       <c r="D59" s="1">
         <v>0.47999998927116394</v>
@@ -110879,21 +114119,21 @@
       </c>
       <c r="G59" s="1"/>
       <c r="H59" t="s">
-        <v>36176</v>
+        <v>37256</v>
       </c>
       <c r="I59" t="s">
-        <v>36238</v>
+        <v>37318</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>36069</v>
+        <v>37149</v>
       </c>
       <c r="B60" t="s">
-        <v>36130</v>
+        <v>37210</v>
       </c>
       <c r="C60" t="s">
-        <v>36150</v>
+        <v>37230</v>
       </c>
       <c r="D60" s="1">
         <v>0.43999999761581421</v>
@@ -110906,21 +114146,21 @@
       </c>
       <c r="G60" s="1"/>
       <c r="H60" t="s">
-        <v>36177</v>
+        <v>37257</v>
       </c>
       <c r="I60" t="s">
-        <v>36239</v>
+        <v>37319</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>36069</v>
+        <v>37149</v>
       </c>
       <c r="B61" t="s">
-        <v>36131</v>
+        <v>37211</v>
       </c>
       <c r="C61" t="s">
-        <v>36150</v>
+        <v>37230</v>
       </c>
       <c r="D61" s="1">
         <v>0.75999999046325684</v>
@@ -110933,21 +114173,21 @@
       </c>
       <c r="G61" s="1"/>
       <c r="H61" t="s">
-        <v>36177</v>
+        <v>37257</v>
       </c>
       <c r="I61" t="s">
-        <v>36240</v>
+        <v>37320</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>36070</v>
+        <v>37150</v>
       </c>
       <c r="B62" t="s">
-        <v>36132</v>
+        <v>37212</v>
       </c>
       <c r="C62" t="s">
-        <v>36150</v>
+        <v>37230</v>
       </c>
       <c r="D62" s="1">
         <v>0.81000000238418579</v>
@@ -110960,21 +114200,21 @@
       </c>
       <c r="G62" s="1"/>
       <c r="H62" t="s">
-        <v>36178</v>
+        <v>37258</v>
       </c>
       <c r="I62" t="s">
-        <v>36241</v>
+        <v>37321</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>36070</v>
+        <v>37150</v>
       </c>
       <c r="B63" t="s">
-        <v>36133</v>
+        <v>37213</v>
       </c>
       <c r="C63" t="s">
-        <v>36150</v>
+        <v>37230</v>
       </c>
       <c r="D63" s="1">
         <v>0.79000002145767212</v>
@@ -110987,21 +114227,21 @@
       </c>
       <c r="G63" s="1"/>
       <c r="H63" t="s">
-        <v>36178</v>
+        <v>37258</v>
       </c>
       <c r="I63" t="s">
-        <v>36242</v>
+        <v>37322</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>36071</v>
+        <v>37151</v>
       </c>
       <c r="B64" t="s">
-        <v>36134</v>
+        <v>37214</v>
       </c>
       <c r="C64" t="s">
-        <v>36151</v>
+        <v>37231</v>
       </c>
       <c r="D64" s="1">
         <v>0.6600000262260437</v>
@@ -111014,21 +114254,21 @@
       </c>
       <c r="G64" s="1"/>
       <c r="H64" t="s">
-        <v>36179</v>
+        <v>37259</v>
       </c>
       <c r="I64" t="s">
-        <v>36243</v>
+        <v>37323</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>36071</v>
+        <v>37151</v>
       </c>
       <c r="B65" t="s">
-        <v>36135</v>
+        <v>37215</v>
       </c>
       <c r="C65" t="s">
-        <v>36151</v>
+        <v>37231</v>
       </c>
       <c r="D65" s="1">
         <v>0.55000001192092896</v>
@@ -111041,10 +114281,10 @@
       </c>
       <c r="G65" s="1"/>
       <c r="H65" t="s">
-        <v>36179</v>
+        <v>37259</v>
       </c>
       <c r="I65" t="s">
-        <v>36244</v>
+        <v>37324</v>
       </c>
     </row>
   </sheetData>
@@ -111058,42 +114298,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>36245</v>
+        <v>37325</v>
       </c>
       <c r="B1" t="s">
-        <v>36267</v>
+        <v>37347</v>
       </c>
       <c r="C1" t="s">
-        <v>36314</v>
+        <v>37394</v>
       </c>
       <c r="D1" t="s">
-        <v>36324</v>
+        <v>37404</v>
       </c>
       <c r="E1" t="s">
-        <v>36325</v>
+        <v>37405</v>
       </c>
       <c r="F1" t="s">
-        <v>36326</v>
+        <v>37406</v>
       </c>
       <c r="G1" t="s">
-        <v>36327</v>
+        <v>37407</v>
       </c>
       <c r="H1" t="s">
-        <v>36339</v>
+        <v>37419</v>
       </c>
       <c r="I1" t="s">
-        <v>36360</v>
+        <v>37440</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>36246</v>
+        <v>37326</v>
       </c>
       <c r="B2" t="s">
-        <v>36268</v>
+        <v>37348</v>
       </c>
       <c r="C2" t="s">
-        <v>36315</v>
+        <v>37395</v>
       </c>
       <c r="D2" s="1">
         <v>0.5899999737739563</v>
@@ -111105,24 +114345,24 @@
         <v>0.81999999284744263</v>
       </c>
       <c r="G2" t="s">
-        <v>36328</v>
+        <v>37408</v>
       </c>
       <c r="H2" t="s">
-        <v>36340</v>
+        <v>37420</v>
       </c>
       <c r="I2" t="s">
-        <v>36361</v>
+        <v>37441</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>36246</v>
+        <v>37326</v>
       </c>
       <c r="B3" t="s">
-        <v>36269</v>
+        <v>37349</v>
       </c>
       <c r="C3" t="s">
-        <v>36315</v>
+        <v>37395</v>
       </c>
       <c r="D3" s="1">
         <v>0.18000000715255737</v>
@@ -111134,24 +114374,24 @@
         <v>1.4900000095367432</v>
       </c>
       <c r="G3" t="s">
-        <v>36328</v>
+        <v>37408</v>
       </c>
       <c r="H3" t="s">
-        <v>36340</v>
+        <v>37420</v>
       </c>
       <c r="I3" t="s">
-        <v>36362</v>
+        <v>37442</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>36247</v>
+        <v>37327</v>
       </c>
       <c r="B4" t="s">
-        <v>36270</v>
+        <v>37350</v>
       </c>
       <c r="C4" t="s">
-        <v>36315</v>
+        <v>37395</v>
       </c>
       <c r="D4" s="1">
         <v>0.37999999523162842</v>
@@ -111163,24 +114403,24 @@
         <v>0.6600000262260437</v>
       </c>
       <c r="G4" t="s">
-        <v>36328</v>
+        <v>37408</v>
       </c>
       <c r="H4" t="s">
-        <v>36341</v>
+        <v>37421</v>
       </c>
       <c r="I4" t="s">
-        <v>36363</v>
+        <v>37443</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>36247</v>
+        <v>37327</v>
       </c>
       <c r="B5" t="s">
-        <v>36271</v>
+        <v>37351</v>
       </c>
       <c r="C5" t="s">
-        <v>36315</v>
+        <v>37395</v>
       </c>
       <c r="D5" s="1">
         <v>0.44999998807907104</v>
@@ -111192,24 +114432,24 @@
         <v>0.57999998331069946</v>
       </c>
       <c r="G5" t="s">
-        <v>36328</v>
+        <v>37408</v>
       </c>
       <c r="H5" t="s">
-        <v>36341</v>
+        <v>37421</v>
       </c>
       <c r="I5" t="s">
-        <v>36364</v>
+        <v>37444</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>36248</v>
+        <v>37328</v>
       </c>
       <c r="B6" t="s">
-        <v>36272</v>
+        <v>37352</v>
       </c>
       <c r="C6" t="s">
-        <v>36315</v>
+        <v>37395</v>
       </c>
       <c r="D6" s="1">
         <v>0.75700002908706665</v>
@@ -111221,24 +114461,24 @@
         <v>0.96299999952316284</v>
       </c>
       <c r="G6" t="s">
-        <v>36329</v>
+        <v>37409</v>
       </c>
       <c r="H6" t="s">
-        <v>36342</v>
+        <v>37422</v>
       </c>
       <c r="I6" t="s">
-        <v>36365</v>
+        <v>37445</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>36248</v>
+        <v>37328</v>
       </c>
       <c r="B7" t="s">
-        <v>36273</v>
+        <v>37353</v>
       </c>
       <c r="C7" t="s">
-        <v>36315</v>
+        <v>37395</v>
       </c>
       <c r="D7" s="1">
         <v>0.92599999904632568</v>
@@ -111250,24 +114490,24 @@
         <v>1.2790000438690186</v>
       </c>
       <c r="G7" t="s">
-        <v>36330</v>
+        <v>37410</v>
       </c>
       <c r="H7" t="s">
-        <v>36342</v>
+        <v>37422</v>
       </c>
       <c r="I7" t="s">
-        <v>36366</v>
+        <v>37446</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>36249</v>
+        <v>37329</v>
       </c>
       <c r="B8" t="s">
-        <v>36274</v>
+        <v>37354</v>
       </c>
       <c r="C8" t="s">
-        <v>36315</v>
+        <v>37395</v>
       </c>
       <c r="D8" s="1">
         <v>0.43999999761581421</v>
@@ -111279,24 +114519,24 @@
         <v>0.56000000238418579</v>
       </c>
       <c r="G8" t="s">
-        <v>36331</v>
+        <v>37411</v>
       </c>
       <c r="H8" t="s">
-        <v>36343</v>
+        <v>37423</v>
       </c>
       <c r="I8" t="s">
-        <v>36367</v>
+        <v>37447</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>36249</v>
+        <v>37329</v>
       </c>
       <c r="B9" t="s">
-        <v>36275</v>
+        <v>37355</v>
       </c>
       <c r="C9" t="s">
-        <v>36315</v>
+        <v>37395</v>
       </c>
       <c r="D9" s="1">
         <v>0.80000001192092896</v>
@@ -111308,24 +114548,24 @@
         <v>1.1100000143051147</v>
       </c>
       <c r="G9" t="s">
-        <v>36331</v>
+        <v>37411</v>
       </c>
       <c r="H9" t="s">
-        <v>36343</v>
+        <v>37423</v>
       </c>
       <c r="I9" t="s">
-        <v>36368</v>
+        <v>37448</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>36250</v>
+        <v>37330</v>
       </c>
       <c r="B10" t="s">
-        <v>36276</v>
+        <v>37356</v>
       </c>
       <c r="C10" t="s">
-        <v>36315</v>
+        <v>37395</v>
       </c>
       <c r="D10" s="1">
         <v>0.56000000238418579</v>
@@ -111337,24 +114577,24 @@
         <v>0.97000002861022949</v>
       </c>
       <c r="G10" t="s">
-        <v>36331</v>
+        <v>37411</v>
       </c>
       <c r="H10" t="s">
-        <v>36344</v>
+        <v>37424</v>
       </c>
       <c r="I10" t="s">
-        <v>36369</v>
+        <v>37449</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>36250</v>
+        <v>37330</v>
       </c>
       <c r="B11" t="s">
-        <v>36277</v>
+        <v>37357</v>
       </c>
       <c r="C11" t="s">
-        <v>36315</v>
+        <v>37395</v>
       </c>
       <c r="D11" s="1">
         <v>0.50999999046325684</v>
@@ -111366,82 +114606,82 @@
         <v>1.190000057220459</v>
       </c>
       <c r="G11" t="s">
-        <v>36331</v>
+        <v>37411</v>
       </c>
       <c r="H11" t="s">
-        <v>36344</v>
+        <v>37424</v>
       </c>
       <c r="I11" t="s">
-        <v>36370</v>
+        <v>37450</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>36251</v>
+        <v>37331</v>
       </c>
       <c r="B12" t="s">
-        <v>36278</v>
+        <v>37358</v>
       </c>
       <c r="C12" t="s">
-        <v>36315</v>
+        <v>37395</v>
       </c>
       <c r="D12" s="1">
-        <v>0.36000001430511475</v>
+        <v>0.6600000262260437</v>
       </c>
       <c r="E12" s="1">
-        <v>0.15000000596046448</v>
+        <v>0.49000000953674316</v>
       </c>
       <c r="F12" s="1">
-        <v>0.82999998331069946</v>
+        <v>0.89999997615814209</v>
       </c>
       <c r="G12" t="s">
-        <v>36331</v>
+        <v>37411</v>
       </c>
       <c r="H12" t="s">
-        <v>36345</v>
+        <v>37425</v>
       </c>
       <c r="I12" t="s">
-        <v>36371</v>
+        <v>37451</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>36251</v>
+        <v>37331</v>
       </c>
       <c r="B13" t="s">
-        <v>36279</v>
+        <v>37359</v>
       </c>
       <c r="C13" t="s">
-        <v>36315</v>
+        <v>37395</v>
       </c>
       <c r="D13" s="1">
-        <v>0.6600000262260437</v>
+        <v>0.36000001430511475</v>
       </c>
       <c r="E13" s="1">
-        <v>0.49000000953674316</v>
+        <v>0.15000000596046448</v>
       </c>
       <c r="F13" s="1">
-        <v>0.89999997615814209</v>
+        <v>0.82999998331069946</v>
       </c>
       <c r="G13" t="s">
-        <v>36331</v>
+        <v>37411</v>
       </c>
       <c r="H13" t="s">
-        <v>36345</v>
+        <v>37425</v>
       </c>
       <c r="I13" t="s">
-        <v>36372</v>
+        <v>37452</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>36252</v>
+        <v>37332</v>
       </c>
       <c r="B14" t="s">
-        <v>36280</v>
+        <v>37360</v>
       </c>
       <c r="C14" t="s">
-        <v>36315</v>
+        <v>37395</v>
       </c>
       <c r="D14" s="1">
         <v>0.55299997329711914</v>
@@ -111453,24 +114693,24 @@
         <v>0.9309999942779541</v>
       </c>
       <c r="G14" t="s">
-        <v>36332</v>
+        <v>37412</v>
       </c>
       <c r="H14" t="s">
-        <v>36346</v>
+        <v>37426</v>
       </c>
       <c r="I14" t="s">
-        <v>36373</v>
+        <v>37453</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>36252</v>
+        <v>37332</v>
       </c>
       <c r="B15" t="s">
-        <v>36281</v>
+        <v>37361</v>
       </c>
       <c r="C15" t="s">
-        <v>36315</v>
+        <v>37395</v>
       </c>
       <c r="D15" s="1">
         <v>0.76599997282028198</v>
@@ -111482,24 +114722,24 @@
         <v>3.9639999866485596</v>
       </c>
       <c r="G15" t="s">
-        <v>36332</v>
+        <v>37412</v>
       </c>
       <c r="H15" t="s">
-        <v>36346</v>
+        <v>37426</v>
       </c>
       <c r="I15" t="s">
-        <v>36374</v>
+        <v>37454</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>36252</v>
+        <v>37332</v>
       </c>
       <c r="B16" t="s">
-        <v>36282</v>
+        <v>37362</v>
       </c>
       <c r="C16" t="s">
-        <v>36316</v>
+        <v>37396</v>
       </c>
       <c r="D16" s="1">
         <v>0.39800000190734863</v>
@@ -111511,24 +114751,24 @@
         <v>0.71899998188018799</v>
       </c>
       <c r="G16" t="s">
-        <v>36332</v>
+        <v>37412</v>
       </c>
       <c r="H16" t="s">
-        <v>36347</v>
+        <v>37427</v>
       </c>
       <c r="I16" t="s">
-        <v>36375</v>
+        <v>37455</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>36252</v>
+        <v>37332</v>
       </c>
       <c r="B17" t="s">
-        <v>36283</v>
+        <v>37363</v>
       </c>
       <c r="C17" t="s">
-        <v>36316</v>
+        <v>37396</v>
       </c>
       <c r="D17" s="1">
         <v>0.49799999594688416</v>
@@ -111540,24 +114780,24 @@
         <v>2.4030001163482666</v>
       </c>
       <c r="G17" t="s">
-        <v>36332</v>
+        <v>37412</v>
       </c>
       <c r="H17" t="s">
-        <v>36347</v>
+        <v>37427</v>
       </c>
       <c r="I17" t="s">
-        <v>36376</v>
+        <v>37456</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>36253</v>
+        <v>37333</v>
       </c>
       <c r="B18" t="s">
-        <v>36284</v>
+        <v>37364</v>
       </c>
       <c r="C18" t="s">
-        <v>36317</v>
+        <v>37397</v>
       </c>
       <c r="D18" s="1">
         <v>0.87000000476837158</v>
@@ -111569,24 +114809,24 @@
         <v>1.2899999618530273</v>
       </c>
       <c r="G18" t="s">
-        <v>36333</v>
+        <v>37413</v>
       </c>
       <c r="H18" t="s">
-        <v>36348</v>
+        <v>37428</v>
       </c>
       <c r="I18" t="s">
-        <v>36377</v>
+        <v>37457</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>36253</v>
+        <v>37333</v>
       </c>
       <c r="B19" t="s">
-        <v>36285</v>
+        <v>37365</v>
       </c>
       <c r="C19" t="s">
-        <v>36317</v>
+        <v>37397</v>
       </c>
       <c r="D19" s="1">
         <v>0.38999998569488525</v>
@@ -111598,24 +114838,24 @@
         <v>0.80000001192092896</v>
       </c>
       <c r="G19" t="s">
-        <v>36333</v>
+        <v>37413</v>
       </c>
       <c r="H19" t="s">
-        <v>36348</v>
+        <v>37428</v>
       </c>
       <c r="I19" t="s">
-        <v>36378</v>
+        <v>37458</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>36254</v>
+        <v>37334</v>
       </c>
       <c r="B20" t="s">
-        <v>36286</v>
+        <v>37366</v>
       </c>
       <c r="C20" t="s">
-        <v>36317</v>
+        <v>37397</v>
       </c>
       <c r="D20" s="1">
         <v>0.61000001430511475</v>
@@ -111627,24 +114867,24 @@
         <v>1.1699999570846558</v>
       </c>
       <c r="G20" t="s">
-        <v>36333</v>
+        <v>37413</v>
       </c>
       <c r="H20" t="s">
-        <v>36349</v>
+        <v>37429</v>
       </c>
       <c r="I20" t="s">
-        <v>36379</v>
+        <v>37459</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>36254</v>
+        <v>37334</v>
       </c>
       <c r="B21" t="s">
-        <v>36287</v>
+        <v>37367</v>
       </c>
       <c r="C21" t="s">
-        <v>36317</v>
+        <v>37397</v>
       </c>
       <c r="D21" s="1">
         <v>0.75</v>
@@ -111656,24 +114896,24 @@
         <v>1.3600000143051147</v>
       </c>
       <c r="G21" t="s">
-        <v>36333</v>
+        <v>37413</v>
       </c>
       <c r="H21" t="s">
-        <v>36349</v>
+        <v>37429</v>
       </c>
       <c r="I21" t="s">
-        <v>36380</v>
+        <v>37460</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>36254</v>
+        <v>37334</v>
       </c>
       <c r="B22" t="s">
-        <v>36288</v>
+        <v>37368</v>
       </c>
       <c r="C22" t="s">
-        <v>36318</v>
+        <v>37398</v>
       </c>
       <c r="D22" s="1">
         <v>5.9000000953674316</v>
@@ -111685,24 +114925,24 @@
         <v>46.099998474121094</v>
       </c>
       <c r="G22" t="s">
-        <v>36333</v>
+        <v>37413</v>
       </c>
       <c r="H22" t="s">
-        <v>36350</v>
+        <v>37430</v>
       </c>
       <c r="I22" t="s">
-        <v>36381</v>
+        <v>37461</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>36254</v>
+        <v>37334</v>
       </c>
       <c r="B23" t="s">
-        <v>36289</v>
+        <v>37369</v>
       </c>
       <c r="C23" t="s">
-        <v>36318</v>
+        <v>37398</v>
       </c>
       <c r="D23" s="1">
         <v>1.8200000524520874</v>
@@ -111714,24 +114954,24 @@
         <v>5.1399998664855957</v>
       </c>
       <c r="G23" t="s">
-        <v>36333</v>
+        <v>37413</v>
       </c>
       <c r="H23" t="s">
-        <v>36350</v>
+        <v>37430</v>
       </c>
       <c r="I23" t="s">
-        <v>36382</v>
+        <v>37462</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>36255</v>
+        <v>37335</v>
       </c>
       <c r="B24" t="s">
-        <v>36290</v>
+        <v>37370</v>
       </c>
       <c r="C24" t="s">
-        <v>36319</v>
+        <v>37399</v>
       </c>
       <c r="D24" s="1">
         <v>0.5899999737739563</v>
@@ -111743,24 +114983,24 @@
         <v>1.3999999761581421</v>
       </c>
       <c r="G24" t="s">
-        <v>36333</v>
+        <v>37413</v>
       </c>
       <c r="H24" t="s">
-        <v>36351</v>
+        <v>37431</v>
       </c>
       <c r="I24" t="s">
-        <v>36383</v>
+        <v>37463</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>36255</v>
+        <v>37335</v>
       </c>
       <c r="B25" t="s">
-        <v>36291</v>
+        <v>37371</v>
       </c>
       <c r="C25" t="s">
-        <v>36319</v>
+        <v>37399</v>
       </c>
       <c r="D25" s="1">
         <v>0.69999998807907104</v>
@@ -111772,24 +115012,24 @@
         <v>0.87000000476837158</v>
       </c>
       <c r="G25" t="s">
-        <v>36333</v>
+        <v>37413</v>
       </c>
       <c r="H25" t="s">
-        <v>36351</v>
+        <v>37431</v>
       </c>
       <c r="I25" t="s">
-        <v>36384</v>
+        <v>37464</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>36256</v>
+        <v>37336</v>
       </c>
       <c r="B26" t="s">
-        <v>36292</v>
+        <v>37372</v>
       </c>
       <c r="C26" t="s">
-        <v>36319</v>
+        <v>37399</v>
       </c>
       <c r="D26" s="1">
         <v>0.38999998569488525</v>
@@ -111801,24 +115041,24 @@
         <v>0.68999999761581421</v>
       </c>
       <c r="G26" t="s">
-        <v>36333</v>
+        <v>37413</v>
       </c>
       <c r="H26" t="s">
-        <v>36352</v>
+        <v>37432</v>
       </c>
       <c r="I26" t="s">
-        <v>36385</v>
+        <v>37465</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>36256</v>
+        <v>37336</v>
       </c>
       <c r="B27" t="s">
-        <v>36293</v>
+        <v>37373</v>
       </c>
       <c r="C27" t="s">
-        <v>36319</v>
+        <v>37399</v>
       </c>
       <c r="D27" s="1">
         <v>0.15999999642372131</v>
@@ -111830,24 +115070,24 @@
         <v>0.40000000596046448</v>
       </c>
       <c r="G27" t="s">
-        <v>36333</v>
+        <v>37413</v>
       </c>
       <c r="H27" t="s">
-        <v>36352</v>
+        <v>37432</v>
       </c>
       <c r="I27" t="s">
-        <v>36386</v>
+        <v>37466</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>36257</v>
+        <v>37337</v>
       </c>
       <c r="B28" t="s">
-        <v>36294</v>
+        <v>37374</v>
       </c>
       <c r="C28" t="s">
-        <v>36319</v>
+        <v>37399</v>
       </c>
       <c r="D28" s="1">
         <v>0.46000000834465027</v>
@@ -111859,24 +115099,24 @@
         <v>0.6600000262260437</v>
       </c>
       <c r="G28" t="s">
-        <v>36333</v>
+        <v>37413</v>
       </c>
       <c r="H28" t="s">
-        <v>36352</v>
+        <v>37432</v>
       </c>
       <c r="I28" t="s">
-        <v>36387</v>
+        <v>37467</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>36257</v>
+        <v>37337</v>
       </c>
       <c r="B29" t="s">
-        <v>36295</v>
+        <v>37375</v>
       </c>
       <c r="C29" t="s">
-        <v>36319</v>
+        <v>37399</v>
       </c>
       <c r="D29" s="1">
         <v>0.30000001192092896</v>
@@ -111888,27 +115128,27 @@
         <v>0.44999998807907104</v>
       </c>
       <c r="G29" t="s">
-        <v>36333</v>
+        <v>37413</v>
       </c>
       <c r="H29" t="s">
-        <v>36352</v>
+        <v>37432</v>
       </c>
       <c r="I29" t="s">
-        <v>36388</v>
+        <v>37468</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>36258</v>
+        <v>37338</v>
       </c>
       <c r="B30" t="s">
-        <v>36296</v>
+        <v>37376</v>
       </c>
       <c r="C30" t="s">
-        <v>36319</v>
+        <v>37399</v>
       </c>
       <c r="D30" s="1">
-        <v>0.5</v>
+        <v>0.60000002384185791</v>
       </c>
       <c r="E30" s="1">
         <v>0.34000000357627869</v>
@@ -111917,53 +115157,53 @@
         <v>1.059999942779541</v>
       </c>
       <c r="G30" t="s">
-        <v>36333</v>
+        <v>37413</v>
       </c>
       <c r="H30" t="s">
-        <v>36353</v>
+        <v>37433</v>
       </c>
       <c r="I30" t="s">
-        <v>36389</v>
+        <v>37469</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>36258</v>
+        <v>37338</v>
       </c>
       <c r="B31" t="s">
-        <v>36297</v>
+        <v>37377</v>
       </c>
       <c r="C31" t="s">
-        <v>36319</v>
+        <v>37399</v>
       </c>
       <c r="D31" s="1">
         <v>0.47999998927116394</v>
       </c>
       <c r="E31" s="1">
-        <v>0.30000001192092896</v>
+        <v>0.2800000011920929</v>
       </c>
       <c r="F31" s="1">
-        <v>0.76999998092651367</v>
+        <v>0.81999999284744263</v>
       </c>
       <c r="G31" t="s">
-        <v>36333</v>
+        <v>37413</v>
       </c>
       <c r="H31" t="s">
-        <v>36353</v>
+        <v>37433</v>
       </c>
       <c r="I31" t="s">
-        <v>36390</v>
+        <v>37470</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>36259</v>
+        <v>37339</v>
       </c>
       <c r="B32" t="s">
-        <v>36298</v>
+        <v>37378</v>
       </c>
       <c r="C32" t="s">
-        <v>36319</v>
+        <v>37399</v>
       </c>
       <c r="D32" s="1">
         <v>1.6200000047683716</v>
@@ -111975,24 +115215,24 @@
         <v>2.4100000858306885</v>
       </c>
       <c r="G32" t="s">
-        <v>36333</v>
+        <v>37413</v>
       </c>
       <c r="H32" t="s">
-        <v>36353</v>
+        <v>37433</v>
       </c>
       <c r="I32" t="s">
-        <v>36391</v>
+        <v>37471</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>36259</v>
+        <v>37339</v>
       </c>
       <c r="B33" t="s">
-        <v>36299</v>
+        <v>37379</v>
       </c>
       <c r="C33" t="s">
-        <v>36319</v>
+        <v>37399</v>
       </c>
       <c r="D33" s="1">
         <v>2.0099999904632568</v>
@@ -112004,24 +115244,24 @@
         <v>2.8399999141693115</v>
       </c>
       <c r="G33" t="s">
-        <v>36333</v>
+        <v>37413</v>
       </c>
       <c r="H33" t="s">
-        <v>36353</v>
+        <v>37433</v>
       </c>
       <c r="I33" t="s">
-        <v>36392</v>
+        <v>37472</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>36260</v>
+        <v>37340</v>
       </c>
       <c r="B34" t="s">
-        <v>36300</v>
+        <v>37380</v>
       </c>
       <c r="C34" t="s">
-        <v>36320</v>
+        <v>37400</v>
       </c>
       <c r="D34" s="1">
         <v>0.95999997854232788</v>
@@ -112033,24 +115273,24 @@
         <v>1.2560000419616699</v>
       </c>
       <c r="G34" t="s">
-        <v>36334</v>
+        <v>37414</v>
       </c>
       <c r="H34" t="s">
-        <v>36354</v>
+        <v>37434</v>
       </c>
       <c r="I34" t="s">
-        <v>36393</v>
+        <v>37473</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>36260</v>
+        <v>37340</v>
       </c>
       <c r="B35" t="s">
-        <v>36301</v>
+        <v>37381</v>
       </c>
       <c r="C35" t="s">
-        <v>36320</v>
+        <v>37400</v>
       </c>
       <c r="D35" s="1">
         <v>1.0800000429153442</v>
@@ -112062,24 +115302,24 @@
         <v>1.3609999418258667</v>
       </c>
       <c r="G35" t="s">
-        <v>36334</v>
+        <v>37414</v>
       </c>
       <c r="H35" t="s">
-        <v>36354</v>
+        <v>37434</v>
       </c>
       <c r="I35" t="s">
-        <v>36394</v>
+        <v>37474</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>36261</v>
+        <v>37341</v>
       </c>
       <c r="B36" t="s">
-        <v>36302</v>
+        <v>37382</v>
       </c>
       <c r="C36" t="s">
-        <v>36320</v>
+        <v>37400</v>
       </c>
       <c r="D36" s="1">
         <v>0.87699997425079346</v>
@@ -112091,24 +115331,24 @@
         <v>1.156000018119812</v>
       </c>
       <c r="G36" t="s">
-        <v>36335</v>
+        <v>37415</v>
       </c>
       <c r="H36" t="s">
-        <v>36355</v>
+        <v>37435</v>
       </c>
       <c r="I36" t="s">
-        <v>36395</v>
+        <v>37475</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>36261</v>
+        <v>37341</v>
       </c>
       <c r="B37" t="s">
-        <v>36303</v>
+        <v>37383</v>
       </c>
       <c r="C37" t="s">
-        <v>36320</v>
+        <v>37400</v>
       </c>
       <c r="D37" s="1">
         <v>0.68400001525878906</v>
@@ -112120,24 +115360,24 @@
         <v>0.875</v>
       </c>
       <c r="G37" t="s">
-        <v>36335</v>
+        <v>37415</v>
       </c>
       <c r="H37" t="s">
-        <v>36355</v>
+        <v>37435</v>
       </c>
       <c r="I37" t="s">
-        <v>36396</v>
+        <v>37476</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>36261</v>
+        <v>37341</v>
       </c>
       <c r="B38" t="s">
-        <v>36304</v>
+        <v>37384</v>
       </c>
       <c r="C38" t="s">
-        <v>36320</v>
+        <v>37400</v>
       </c>
       <c r="D38" s="1">
         <v>0.85699999332427979</v>
@@ -112149,24 +115389,24 @@
         <v>1.1779999732971191</v>
       </c>
       <c r="G38" t="s">
-        <v>36335</v>
+        <v>37415</v>
       </c>
       <c r="H38" t="s">
-        <v>36355</v>
+        <v>37435</v>
       </c>
       <c r="I38" t="s">
-        <v>36397</v>
+        <v>37477</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>36262</v>
+        <v>37342</v>
       </c>
       <c r="B39" t="s">
-        <v>36304</v>
+        <v>37384</v>
       </c>
       <c r="C39" t="s">
-        <v>36321</v>
+        <v>37401</v>
       </c>
       <c r="D39" s="1">
         <v>0.64999997615814209</v>
@@ -112178,24 +115418,24 @@
         <v>0.8399999737739563</v>
       </c>
       <c r="G39" t="s">
-        <v>36336</v>
+        <v>37416</v>
       </c>
       <c r="H39" t="s">
-        <v>36355</v>
+        <v>37435</v>
       </c>
       <c r="I39" t="s">
-        <v>36398</v>
+        <v>37478</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>36262</v>
+        <v>37342</v>
       </c>
       <c r="B40" t="s">
-        <v>36305</v>
+        <v>37385</v>
       </c>
       <c r="C40" t="s">
-        <v>36321</v>
+        <v>37401</v>
       </c>
       <c r="D40" s="1">
         <v>0.47999998927116394</v>
@@ -112207,24 +115447,24 @@
         <v>0.75</v>
       </c>
       <c r="G40" t="s">
-        <v>36336</v>
+        <v>37416</v>
       </c>
       <c r="H40" t="s">
-        <v>36355</v>
+        <v>37435</v>
       </c>
       <c r="I40" t="s">
-        <v>36399</v>
+        <v>37479</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>36263</v>
+        <v>37343</v>
       </c>
       <c r="B41" t="s">
-        <v>36306</v>
+        <v>37386</v>
       </c>
       <c r="C41" t="s">
-        <v>36322</v>
+        <v>37402</v>
       </c>
       <c r="D41" s="1">
         <v>0.78100001811981201</v>
@@ -112236,24 +115476,24 @@
         <v>1.3220000267028809</v>
       </c>
       <c r="G41" t="s">
-        <v>36337</v>
+        <v>37417</v>
       </c>
       <c r="H41" t="s">
-        <v>36356</v>
+        <v>37436</v>
       </c>
       <c r="I41" t="s">
-        <v>36400</v>
+        <v>37480</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>36263</v>
+        <v>37343</v>
       </c>
       <c r="B42" t="s">
-        <v>36307</v>
+        <v>37387</v>
       </c>
       <c r="C42" t="s">
-        <v>36322</v>
+        <v>37402</v>
       </c>
       <c r="D42" s="1">
         <v>0.97500002384185791</v>
@@ -112265,24 +115505,24 @@
         <v>1.1829999685287476</v>
       </c>
       <c r="G42" t="s">
-        <v>36337</v>
+        <v>37417</v>
       </c>
       <c r="H42" t="s">
-        <v>36356</v>
+        <v>37436</v>
       </c>
       <c r="I42" t="s">
-        <v>36401</v>
+        <v>37481</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>36264</v>
+        <v>37344</v>
       </c>
       <c r="B43" t="s">
-        <v>36308</v>
+        <v>37388</v>
       </c>
       <c r="C43" t="s">
-        <v>36322</v>
+        <v>37402</v>
       </c>
       <c r="D43" s="1">
         <v>0.93000000715255737</v>
@@ -112294,24 +115534,24 @@
         <v>1.309999942779541</v>
       </c>
       <c r="G43" t="s">
-        <v>36338</v>
+        <v>37418</v>
       </c>
       <c r="H43" t="s">
-        <v>36357</v>
+        <v>37437</v>
       </c>
       <c r="I43" t="s">
-        <v>36402</v>
+        <v>37482</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>36264</v>
+        <v>37344</v>
       </c>
       <c r="B44" t="s">
-        <v>36309</v>
+        <v>37389</v>
       </c>
       <c r="C44" t="s">
-        <v>36322</v>
+        <v>37402</v>
       </c>
       <c r="D44" s="1">
         <v>0.93999999761581421</v>
@@ -112323,24 +115563,24 @@
         <v>1.190000057220459</v>
       </c>
       <c r="G44" t="s">
-        <v>36338</v>
+        <v>37418</v>
       </c>
       <c r="H44" t="s">
-        <v>36357</v>
+        <v>37437</v>
       </c>
       <c r="I44" t="s">
-        <v>36403</v>
+        <v>37483</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>36265</v>
+        <v>37345</v>
       </c>
       <c r="B45" t="s">
-        <v>36310</v>
+        <v>37390</v>
       </c>
       <c r="C45" t="s">
-        <v>36323</v>
+        <v>37403</v>
       </c>
       <c r="D45" s="1">
         <v>0.63999998569488525</v>
@@ -112352,24 +115592,24 @@
         <v>0.9100000262260437</v>
       </c>
       <c r="G45" t="s">
-        <v>36338</v>
+        <v>37418</v>
       </c>
       <c r="H45" t="s">
-        <v>36358</v>
+        <v>37438</v>
       </c>
       <c r="I45" t="s">
-        <v>36404</v>
+        <v>37484</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>36265</v>
+        <v>37345</v>
       </c>
       <c r="B46" t="s">
-        <v>36311</v>
+        <v>37391</v>
       </c>
       <c r="C46" t="s">
-        <v>36323</v>
+        <v>37403</v>
       </c>
       <c r="D46" s="1">
         <v>0.72000002861022949</v>
@@ -112381,24 +115621,24 @@
         <v>0.89999997615814209</v>
       </c>
       <c r="G46" t="s">
-        <v>36338</v>
+        <v>37418</v>
       </c>
       <c r="H46" t="s">
-        <v>36358</v>
+        <v>37438</v>
       </c>
       <c r="I46" t="s">
-        <v>36405</v>
+        <v>37485</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>36266</v>
+        <v>37346</v>
       </c>
       <c r="B47" t="s">
-        <v>36312</v>
+        <v>37392</v>
       </c>
       <c r="C47" t="s">
-        <v>36323</v>
+        <v>37403</v>
       </c>
       <c r="D47" s="1">
         <v>0.46000000834465027</v>
@@ -112410,24 +115650,24 @@
         <v>0.73000001907348633</v>
       </c>
       <c r="G47" t="s">
-        <v>36338</v>
+        <v>37418</v>
       </c>
       <c r="H47" t="s">
-        <v>36359</v>
+        <v>37439</v>
       </c>
       <c r="I47" t="s">
-        <v>36406</v>
+        <v>37486</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>36266</v>
+        <v>37346</v>
       </c>
       <c r="B48" t="s">
-        <v>36313</v>
+        <v>37393</v>
       </c>
       <c r="C48" t="s">
-        <v>36323</v>
+        <v>37403</v>
       </c>
       <c r="D48" s="1">
         <v>0.62999999523162842</v>
@@ -112439,13 +115679,13 @@
         <v>0.89999997615814209</v>
       </c>
       <c r="G48" t="s">
-        <v>36338</v>
+        <v>37418</v>
       </c>
       <c r="H48" t="s">
-        <v>36359</v>
+        <v>37439</v>
       </c>
       <c r="I48" t="s">
-        <v>36407</v>
+        <v>37487</v>
       </c>
     </row>
   </sheetData>

--- a/products/Exported Data.xlsx
+++ b/products/Exported Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63975" uniqueCount="37488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64595" uniqueCount="37848">
   <si>
     <t>Study</t>
   </si>
@@ -101537,6 +101537,1086 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Study: Treatment 1 vs Treatment 2</t>
+  </si>
+  <si>
+    <t>Attal 2019 (ICARIA-MM): IsPd vs Pd</t>
+  </si>
+  <si>
+    <t>Bahlis 2020 (POLLUX): DRd vs Rd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2013 (VANTAGE 088): VorV vs V</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2016 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-3): EPd vs Pd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2020 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2021 (APOLLO): DPd vs Pd</t>
+  </si>
+  <si>
+    <t>Grosicki 2020 (BOSTON): SeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Hou 2017 (China Cont.): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>Jakubowiak 2016 (NCT01478048): EVd vs Vd</t>
+  </si>
+  <si>
+    <t>Kumar 2020 (BELLINI): VeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Lu 2021 (LEPUS): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Mateos 2020 (CASTOR): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Moreau 2021 (IKEMA): IsKd vs Kd</t>
+  </si>
+  <si>
+    <t>Orlowski 2019 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2019 (OPTIMISMM): PVd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2021 (TOURMALINE-MM1): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2014 (PANORAMA-1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2016 (PANORAMA 1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2013 (MM-003): Pd vs GC</t>
+  </si>
+  <si>
+    <t>Siegel 2018 (ASPIRE): KRd vs Rd</t>
+  </si>
+  <si>
+    <t>Usamani 2022 (CANDOR): DKd vs Kd</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;=3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;=2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Lower 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>Upper 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t>Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      AT 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t>Data Extraction Errors</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Study: Treatment 1 vs Treatment 2</t>
+  </si>
+  <si>
+    <t>Attal 2019 (ICARIA-MM): IsPd vs Pd</t>
+  </si>
+  <si>
+    <t>Bahlis 2020 (POLLUX): DRd vs Rd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2013 (VANTAGE 088): VorV vs V</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2016 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-3): EPd vs Pd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2021 (APOLLO): DPd vs Pd</t>
+  </si>
+  <si>
+    <t>Hou 2017 (China Cont.): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>Jakubowiak 2016 (NCT01478048): EVd vs Vd</t>
+  </si>
+  <si>
+    <t>Kumar 2020 (BELLINI): VeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Lonial 2015 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Lu 2021 (LEPUS): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Mateos 2020 (CASTOR): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Moreau 2021 (IKEMA): IsKd vs Kd</t>
+  </si>
+  <si>
+    <t>Orlowski 2007 (NCT00103506): V vs DoxV</t>
+  </si>
+  <si>
+    <t>Orlowski 2016 (NCT00103506): V vs DoxV</t>
+  </si>
+  <si>
+    <t>Orlowski 2019 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2019 (OPTIMISMM): PVd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2021 (TOURMALINE-MM1): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2016 (PANORAMA 1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>Stewart 2015 (ASPIRE): KRd vs Rd</t>
+  </si>
+  <si>
+    <t>Usmani 2022 (CANDOR): DKd vs Kd</t>
+  </si>
+  <si>
+    <t>refract</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Ref. to R and a PI</t>
+  </si>
+  <si>
+    <t>Not ref. to R and a PI</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous R or T use</t>
+  </si>
+  <si>
+    <t>No previous R or T use</t>
+  </si>
+  <si>
+    <t>Previous R or T use</t>
+  </si>
+  <si>
+    <t>No previous R or T use</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Refractory to T</t>
+  </si>
+  <si>
+    <t>Not refractory to T</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No previous IMiD use</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Lower 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>Upper 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0230</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .       Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t>Data Extraction Errors</t>
   </si>
   <si>
     <t/>
@@ -112528,42 +113608,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>37128</v>
+        <v>37488</v>
       </c>
       <c r="B1" t="s">
-        <v>37152</v>
+        <v>37512</v>
       </c>
       <c r="C1" t="s">
-        <v>37216</v>
+        <v>37576</v>
       </c>
       <c r="D1" t="s">
-        <v>37232</v>
+        <v>37592</v>
       </c>
       <c r="E1" t="s">
-        <v>37233</v>
+        <v>37593</v>
       </c>
       <c r="F1" t="s">
-        <v>37234</v>
+        <v>37594</v>
       </c>
       <c r="G1" t="s">
-        <v>37235</v>
+        <v>37595</v>
       </c>
       <c r="H1" t="s">
-        <v>37236</v>
+        <v>37596</v>
       </c>
       <c r="I1" t="s">
-        <v>37260</v>
+        <v>37620</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>37129</v>
+        <v>37489</v>
       </c>
       <c r="B2" t="s">
-        <v>37153</v>
+        <v>37513</v>
       </c>
       <c r="C2" t="s">
-        <v>37217</v>
+        <v>37577</v>
       </c>
       <c r="D2" s="1">
         <v>0.5899999737739563</v>
@@ -112576,21 +113656,21 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" t="s">
-        <v>37237</v>
+        <v>37597</v>
       </c>
       <c r="I2" t="s">
-        <v>37261</v>
+        <v>37621</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>37129</v>
+        <v>37489</v>
       </c>
       <c r="B3" t="s">
-        <v>37154</v>
+        <v>37514</v>
       </c>
       <c r="C3" t="s">
-        <v>37217</v>
+        <v>37577</v>
       </c>
       <c r="D3" s="1">
         <v>0.5899999737739563</v>
@@ -112603,21 +113683,21 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" t="s">
-        <v>37237</v>
+        <v>37597</v>
       </c>
       <c r="I3" t="s">
-        <v>37262</v>
+        <v>37622</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>37130</v>
+        <v>37490</v>
       </c>
       <c r="B4" t="s">
-        <v>37155</v>
+        <v>37515</v>
       </c>
       <c r="C4" t="s">
-        <v>37217</v>
+        <v>37577</v>
       </c>
       <c r="D4" s="1">
         <v>0.41999998688697815</v>
@@ -112630,21 +113710,21 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" t="s">
-        <v>37238</v>
+        <v>37598</v>
       </c>
       <c r="I4" t="s">
-        <v>37263</v>
+        <v>37623</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>37130</v>
+        <v>37490</v>
       </c>
       <c r="B5" t="s">
-        <v>37156</v>
+        <v>37516</v>
       </c>
       <c r="C5" t="s">
-        <v>37217</v>
+        <v>37577</v>
       </c>
       <c r="D5" s="1">
         <v>0.38999998569488525</v>
@@ -112657,21 +113737,21 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" t="s">
-        <v>37238</v>
+        <v>37598</v>
       </c>
       <c r="I5" t="s">
-        <v>37264</v>
+        <v>37624</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>37130</v>
+        <v>37490</v>
       </c>
       <c r="B6" t="s">
-        <v>37157</v>
+        <v>37517</v>
       </c>
       <c r="C6" t="s">
-        <v>37217</v>
+        <v>37577</v>
       </c>
       <c r="D6" s="1">
         <v>0.47999998927116394</v>
@@ -112684,21 +113764,21 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" t="s">
-        <v>37238</v>
+        <v>37598</v>
       </c>
       <c r="I6" t="s">
-        <v>37265</v>
+        <v>37625</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>37130</v>
+        <v>37490</v>
       </c>
       <c r="B7" t="s">
-        <v>37158</v>
+        <v>37518</v>
       </c>
       <c r="C7" t="s">
-        <v>37217</v>
+        <v>37577</v>
       </c>
       <c r="D7" s="1">
         <v>0.74000000953674316</v>
@@ -112711,21 +113791,21 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" t="s">
-        <v>37238</v>
+        <v>37598</v>
       </c>
       <c r="I7" t="s">
-        <v>37266</v>
+        <v>37626</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>37131</v>
+        <v>37491</v>
       </c>
       <c r="B8" t="s">
-        <v>37159</v>
+        <v>37519</v>
       </c>
       <c r="C8" t="s">
-        <v>37217</v>
+        <v>37577</v>
       </c>
       <c r="D8" s="1">
         <v>0.68699997663497925</v>
@@ -112740,21 +113820,21 @@
         <v>0.015200000256299973</v>
       </c>
       <c r="H8" t="s">
-        <v>37239</v>
+        <v>37599</v>
       </c>
       <c r="I8" t="s">
-        <v>37267</v>
+        <v>37627</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>37131</v>
+        <v>37491</v>
       </c>
       <c r="B9" t="s">
-        <v>37160</v>
+        <v>37520</v>
       </c>
       <c r="C9" t="s">
-        <v>37217</v>
+        <v>37577</v>
       </c>
       <c r="D9" s="1">
         <v>0.91600000858306885</v>
@@ -112769,21 +113849,21 @@
         <v>0.48710000514984131</v>
       </c>
       <c r="H9" t="s">
-        <v>37240</v>
+        <v>37600</v>
       </c>
       <c r="I9" t="s">
-        <v>37268</v>
+        <v>37628</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>37132</v>
+        <v>37492</v>
       </c>
       <c r="B10" t="s">
-        <v>37161</v>
+        <v>37521</v>
       </c>
       <c r="C10" t="s">
-        <v>37217</v>
+        <v>37577</v>
       </c>
       <c r="D10" s="1">
         <v>0.44999998807907104</v>
@@ -112796,21 +113876,21 @@
       </c>
       <c r="G10" s="1"/>
       <c r="H10" t="s">
-        <v>37241</v>
+        <v>37601</v>
       </c>
       <c r="I10" t="s">
-        <v>37269</v>
+        <v>37629</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>37132</v>
+        <v>37492</v>
       </c>
       <c r="B11" t="s">
-        <v>37162</v>
+        <v>37522</v>
       </c>
       <c r="C11" t="s">
-        <v>37217</v>
+        <v>37577</v>
       </c>
       <c r="D11" s="1">
         <v>0.60000002384185791</v>
@@ -112823,21 +113903,21 @@
       </c>
       <c r="G11" s="1"/>
       <c r="H11" t="s">
-        <v>37241</v>
+        <v>37601</v>
       </c>
       <c r="I11" t="s">
-        <v>37270</v>
+        <v>37630</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>37133</v>
+        <v>37493</v>
       </c>
       <c r="B12" t="s">
-        <v>37162</v>
+        <v>37522</v>
       </c>
       <c r="C12" t="s">
-        <v>37217</v>
+        <v>37577</v>
       </c>
       <c r="D12" s="1">
         <v>0.55000001192092896</v>
@@ -112850,21 +113930,21 @@
       </c>
       <c r="G12" s="1"/>
       <c r="H12" t="s">
-        <v>37242</v>
+        <v>37602</v>
       </c>
       <c r="I12" t="s">
-        <v>37271</v>
+        <v>37631</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>37133</v>
+        <v>37493</v>
       </c>
       <c r="B13" t="s">
-        <v>37163</v>
+        <v>37523</v>
       </c>
       <c r="C13" t="s">
-        <v>37217</v>
+        <v>37577</v>
       </c>
       <c r="D13" s="1">
         <v>0.50999999046325684</v>
@@ -112877,21 +113957,21 @@
       </c>
       <c r="G13" s="1"/>
       <c r="H13" t="s">
-        <v>37242</v>
+        <v>37602</v>
       </c>
       <c r="I13" t="s">
-        <v>37272</v>
+        <v>37632</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>37134</v>
+        <v>37494</v>
       </c>
       <c r="B14" t="s">
-        <v>37164</v>
+        <v>37524</v>
       </c>
       <c r="C14" t="s">
-        <v>37217</v>
+        <v>37577</v>
       </c>
       <c r="D14" s="1">
         <v>0.76999998092651367</v>
@@ -112904,21 +113984,21 @@
       </c>
       <c r="G14" s="1"/>
       <c r="H14" t="s">
-        <v>37243</v>
+        <v>37603</v>
       </c>
       <c r="I14" t="s">
-        <v>37273</v>
+        <v>37633</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>37134</v>
+        <v>37494</v>
       </c>
       <c r="B15" t="s">
-        <v>37165</v>
+        <v>37525</v>
       </c>
       <c r="C15" t="s">
-        <v>37217</v>
+        <v>37577</v>
       </c>
       <c r="D15" s="1">
         <v>0.68000000715255737</v>
@@ -112931,21 +114011,21 @@
       </c>
       <c r="G15" s="1"/>
       <c r="H15" t="s">
-        <v>37243</v>
+        <v>37603</v>
       </c>
       <c r="I15" t="s">
-        <v>37274</v>
+        <v>37634</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>37135</v>
+        <v>37495</v>
       </c>
       <c r="B16" t="s">
-        <v>37166</v>
+        <v>37526</v>
       </c>
       <c r="C16" t="s">
-        <v>37218</v>
+        <v>37578</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -112958,21 +114038,21 @@
       </c>
       <c r="G16" s="1"/>
       <c r="H16" t="s">
-        <v>37243</v>
+        <v>37603</v>
       </c>
       <c r="I16" t="s">
-        <v>37275</v>
+        <v>37635</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>37135</v>
+        <v>37495</v>
       </c>
       <c r="B17" t="s">
-        <v>37167</v>
+        <v>37527</v>
       </c>
       <c r="C17" t="s">
-        <v>37218</v>
+        <v>37578</v>
       </c>
       <c r="D17" s="1">
         <v>0.70999997854232788</v>
@@ -112985,21 +114065,21 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" t="s">
-        <v>37243</v>
+        <v>37603</v>
       </c>
       <c r="I17" t="s">
-        <v>37276</v>
+        <v>37636</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>37136</v>
+        <v>37496</v>
       </c>
       <c r="B18" t="s">
-        <v>37168</v>
+        <v>37528</v>
       </c>
       <c r="C18" t="s">
-        <v>37219</v>
+        <v>37579</v>
       </c>
       <c r="D18" s="1">
         <v>0.69999998807907104</v>
@@ -113012,21 +114092,21 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18" t="s">
-        <v>37244</v>
+        <v>37604</v>
       </c>
       <c r="I18" t="s">
-        <v>37277</v>
+        <v>37637</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>37136</v>
+        <v>37496</v>
       </c>
       <c r="B19" t="s">
-        <v>37169</v>
+        <v>37529</v>
       </c>
       <c r="C19" t="s">
-        <v>37219</v>
+        <v>37579</v>
       </c>
       <c r="D19" s="1">
         <v>0.6600000262260437</v>
@@ -113039,21 +114119,21 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" t="s">
-        <v>37244</v>
+        <v>37604</v>
       </c>
       <c r="I19" t="s">
-        <v>37278</v>
+        <v>37638</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>37136</v>
+        <v>37496</v>
       </c>
       <c r="B20" t="s">
-        <v>37170</v>
+        <v>37530</v>
       </c>
       <c r="C20" t="s">
-        <v>37219</v>
+        <v>37579</v>
       </c>
       <c r="D20" s="1">
         <v>0.40000000596046448</v>
@@ -113066,21 +114146,21 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" t="s">
-        <v>37244</v>
+        <v>37604</v>
       </c>
       <c r="I20" t="s">
-        <v>37279</v>
+        <v>37639</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>37137</v>
+        <v>37497</v>
       </c>
       <c r="B21" t="s">
-        <v>37171</v>
+        <v>37531</v>
       </c>
       <c r="C21" t="s">
-        <v>37219</v>
+        <v>37579</v>
       </c>
       <c r="D21" s="1">
         <v>0.62999999523162842</v>
@@ -113093,21 +114173,21 @@
       </c>
       <c r="G21" s="1"/>
       <c r="H21" t="s">
-        <v>37245</v>
+        <v>37605</v>
       </c>
       <c r="I21" t="s">
-        <v>37280</v>
+        <v>37640</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>37137</v>
+        <v>37497</v>
       </c>
       <c r="B22" t="s">
-        <v>37172</v>
+        <v>37532</v>
       </c>
       <c r="C22" t="s">
-        <v>37219</v>
+        <v>37579</v>
       </c>
       <c r="D22" s="1">
         <v>0.64999997615814209</v>
@@ -113120,21 +114200,21 @@
       </c>
       <c r="G22" s="1"/>
       <c r="H22" t="s">
-        <v>37245</v>
+        <v>37605</v>
       </c>
       <c r="I22" t="s">
-        <v>37281</v>
+        <v>37641</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>37137</v>
+        <v>37497</v>
       </c>
       <c r="B23" t="s">
-        <v>37173</v>
+        <v>37533</v>
       </c>
       <c r="C23" t="s">
-        <v>37219</v>
+        <v>37579</v>
       </c>
       <c r="D23" s="1">
         <v>0.81999999284744263</v>
@@ -113147,21 +114227,21 @@
       </c>
       <c r="G23" s="1"/>
       <c r="H23" t="s">
-        <v>37245</v>
+        <v>37605</v>
       </c>
       <c r="I23" t="s">
-        <v>37282</v>
+        <v>37642</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>37138</v>
+        <v>37498</v>
       </c>
       <c r="B24" t="s">
-        <v>37174</v>
+        <v>37534</v>
       </c>
       <c r="C24" t="s">
-        <v>37219</v>
+        <v>37579</v>
       </c>
       <c r="D24" s="1">
         <v>0.84700000286102295</v>
@@ -113174,21 +114254,21 @@
       </c>
       <c r="G24" s="1"/>
       <c r="H24" t="s">
-        <v>37246</v>
+        <v>37606</v>
       </c>
       <c r="I24" t="s">
-        <v>37283</v>
+        <v>37643</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>37138</v>
+        <v>37498</v>
       </c>
       <c r="B25" t="s">
-        <v>37175</v>
+        <v>37535</v>
       </c>
       <c r="C25" t="s">
-        <v>37219</v>
+        <v>37579</v>
       </c>
       <c r="D25" s="1">
         <v>0.37000000476837158</v>
@@ -113201,21 +114281,21 @@
       </c>
       <c r="G25" s="1"/>
       <c r="H25" t="s">
-        <v>37246</v>
+        <v>37606</v>
       </c>
       <c r="I25" t="s">
-        <v>37284</v>
+        <v>37644</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>37138</v>
+        <v>37498</v>
       </c>
       <c r="B26" t="s">
-        <v>37176</v>
+        <v>37536</v>
       </c>
       <c r="C26" t="s">
-        <v>37219</v>
+        <v>37579</v>
       </c>
       <c r="D26" s="1">
         <v>0.70200002193450928</v>
@@ -113228,21 +114308,21 @@
       </c>
       <c r="G26" s="1"/>
       <c r="H26" t="s">
-        <v>37246</v>
+        <v>37606</v>
       </c>
       <c r="I26" t="s">
-        <v>37285</v>
+        <v>37645</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>37138</v>
+        <v>37498</v>
       </c>
       <c r="B27" t="s">
-        <v>37177</v>
+        <v>37537</v>
       </c>
       <c r="C27" t="s">
-        <v>37220</v>
+        <v>37580</v>
       </c>
       <c r="D27" s="1">
         <v>0.52100002765655518</v>
@@ -113255,21 +114335,21 @@
       </c>
       <c r="G27" s="1"/>
       <c r="H27" t="s">
-        <v>37247</v>
+        <v>37607</v>
       </c>
       <c r="I27" t="s">
-        <v>37286</v>
+        <v>37646</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>37138</v>
+        <v>37498</v>
       </c>
       <c r="B28" t="s">
-        <v>37178</v>
+        <v>37538</v>
       </c>
       <c r="C28" t="s">
-        <v>37220</v>
+        <v>37580</v>
       </c>
       <c r="D28" s="1">
         <v>0.38600000739097595</v>
@@ -113282,21 +114362,21 @@
       </c>
       <c r="G28" s="1"/>
       <c r="H28" t="s">
-        <v>37247</v>
+        <v>37607</v>
       </c>
       <c r="I28" t="s">
-        <v>37287</v>
+        <v>37647</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>37138</v>
+        <v>37498</v>
       </c>
       <c r="B29" t="s">
-        <v>37179</v>
+        <v>37539</v>
       </c>
       <c r="C29" t="s">
-        <v>37220</v>
+        <v>37580</v>
       </c>
       <c r="D29" s="1">
         <v>0.335999995470047</v>
@@ -113309,21 +114389,21 @@
       </c>
       <c r="G29" s="1"/>
       <c r="H29" t="s">
-        <v>37247</v>
+        <v>37607</v>
       </c>
       <c r="I29" t="s">
-        <v>37288</v>
+        <v>37648</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>37139</v>
+        <v>37499</v>
       </c>
       <c r="B30" t="s">
-        <v>37180</v>
+        <v>37540</v>
       </c>
       <c r="C30" t="s">
-        <v>37221</v>
+        <v>37581</v>
       </c>
       <c r="D30" s="1">
         <v>0.74000000953674316</v>
@@ -113336,21 +114416,21 @@
       </c>
       <c r="G30" s="1"/>
       <c r="H30" t="s">
-        <v>37248</v>
+        <v>37608</v>
       </c>
       <c r="I30" t="s">
-        <v>37289</v>
+        <v>37649</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>37139</v>
+        <v>37499</v>
       </c>
       <c r="B31" t="s">
-        <v>37181</v>
+        <v>37541</v>
       </c>
       <c r="C31" t="s">
-        <v>37221</v>
+        <v>37581</v>
       </c>
       <c r="D31" s="1">
         <v>0.75999999046325684</v>
@@ -113363,21 +114443,21 @@
       </c>
       <c r="G31" s="1"/>
       <c r="H31" t="s">
-        <v>37248</v>
+        <v>37608</v>
       </c>
       <c r="I31" t="s">
-        <v>37290</v>
+        <v>37650</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>37140</v>
+        <v>37500</v>
       </c>
       <c r="B32" t="s">
-        <v>37182</v>
+        <v>37542</v>
       </c>
       <c r="C32" t="s">
-        <v>37221</v>
+        <v>37581</v>
       </c>
       <c r="D32" s="1">
         <v>0.75</v>
@@ -113390,21 +114470,21 @@
       </c>
       <c r="G32" s="1"/>
       <c r="H32" t="s">
-        <v>37249</v>
+        <v>37609</v>
       </c>
       <c r="I32" t="s">
-        <v>37291</v>
+        <v>37651</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>37140</v>
+        <v>37500</v>
       </c>
       <c r="B33" t="s">
-        <v>37183</v>
+        <v>37543</v>
       </c>
       <c r="C33" t="s">
-        <v>37221</v>
+        <v>37581</v>
       </c>
       <c r="D33" s="1">
         <v>0.54000002145767212</v>
@@ -113417,21 +114497,21 @@
       </c>
       <c r="G33" s="1"/>
       <c r="H33" t="s">
-        <v>37249</v>
+        <v>37609</v>
       </c>
       <c r="I33" t="s">
-        <v>37292</v>
+        <v>37652</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>37140</v>
+        <v>37500</v>
       </c>
       <c r="B34" t="s">
-        <v>37184</v>
+        <v>37544</v>
       </c>
       <c r="C34" t="s">
-        <v>37222</v>
+        <v>37582</v>
       </c>
       <c r="D34" s="1">
         <v>1.6699999570846558</v>
@@ -113444,21 +114524,21 @@
       </c>
       <c r="G34" s="1"/>
       <c r="H34" t="s">
-        <v>37250</v>
+        <v>37610</v>
       </c>
       <c r="I34" t="s">
-        <v>37293</v>
+        <v>37653</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>37140</v>
+        <v>37500</v>
       </c>
       <c r="B35" t="s">
-        <v>37185</v>
+        <v>37545</v>
       </c>
       <c r="C35" t="s">
-        <v>37222</v>
+        <v>37582</v>
       </c>
       <c r="D35" s="1">
         <v>2.3299999237060547</v>
@@ -113471,21 +114551,21 @@
       </c>
       <c r="G35" s="1"/>
       <c r="H35" t="s">
-        <v>37250</v>
+        <v>37610</v>
       </c>
       <c r="I35" t="s">
-        <v>37294</v>
+        <v>37654</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>37141</v>
+        <v>37501</v>
       </c>
       <c r="B36" t="s">
-        <v>37186</v>
+        <v>37546</v>
       </c>
       <c r="C36" t="s">
-        <v>37223</v>
+        <v>37583</v>
       </c>
       <c r="D36" s="1">
         <v>0.15999999642372131</v>
@@ -113498,21 +114578,21 @@
       </c>
       <c r="G36" s="1"/>
       <c r="H36" t="s">
-        <v>37251</v>
+        <v>37611</v>
       </c>
       <c r="I36" t="s">
-        <v>37295</v>
+        <v>37655</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>37141</v>
+        <v>37501</v>
       </c>
       <c r="B37" t="s">
-        <v>37187</v>
+        <v>37547</v>
       </c>
       <c r="C37" t="s">
-        <v>37223</v>
+        <v>37583</v>
       </c>
       <c r="D37" s="1">
         <v>0.51999998092651367</v>
@@ -113525,21 +114605,21 @@
       </c>
       <c r="G37" s="1"/>
       <c r="H37" t="s">
-        <v>37251</v>
+        <v>37611</v>
       </c>
       <c r="I37" t="s">
-        <v>37296</v>
+        <v>37656</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>37141</v>
+        <v>37501</v>
       </c>
       <c r="B38" t="s">
-        <v>37188</v>
+        <v>37548</v>
       </c>
       <c r="C38" t="s">
-        <v>37223</v>
+        <v>37583</v>
       </c>
       <c r="D38" s="1">
         <v>0.62999999523162842</v>
@@ -113552,21 +114632,21 @@
       </c>
       <c r="G38" s="1"/>
       <c r="H38" t="s">
-        <v>37251</v>
+        <v>37611</v>
       </c>
       <c r="I38" t="s">
-        <v>37297</v>
+        <v>37657</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>37141</v>
+        <v>37501</v>
       </c>
       <c r="B39" t="s">
-        <v>37189</v>
+        <v>37549</v>
       </c>
       <c r="C39" t="s">
-        <v>37223</v>
+        <v>37583</v>
       </c>
       <c r="D39" s="1">
         <v>0.25999999046325684</v>
@@ -113579,21 +114659,21 @@
       </c>
       <c r="G39" s="1"/>
       <c r="H39" t="s">
-        <v>37251</v>
+        <v>37611</v>
       </c>
       <c r="I39" t="s">
-        <v>37298</v>
+        <v>37658</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>37142</v>
+        <v>37502</v>
       </c>
       <c r="B40" t="s">
-        <v>37190</v>
+        <v>37550</v>
       </c>
       <c r="C40" t="s">
-        <v>37223</v>
+        <v>37583</v>
       </c>
       <c r="D40" s="1">
         <v>0.2199999988079071</v>
@@ -113606,21 +114686,21 @@
       </c>
       <c r="G40" s="1"/>
       <c r="H40" t="s">
-        <v>37251</v>
+        <v>37611</v>
       </c>
       <c r="I40" t="s">
-        <v>37299</v>
+        <v>37659</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>37142</v>
+        <v>37502</v>
       </c>
       <c r="B41" t="s">
-        <v>37191</v>
+        <v>37551</v>
       </c>
       <c r="C41" t="s">
-        <v>37223</v>
+        <v>37583</v>
       </c>
       <c r="D41" s="1">
         <v>0.46000000834465027</v>
@@ -113633,21 +114713,21 @@
       </c>
       <c r="G41" s="1"/>
       <c r="H41" t="s">
-        <v>37251</v>
+        <v>37611</v>
       </c>
       <c r="I41" t="s">
-        <v>37300</v>
+        <v>37660</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>37142</v>
+        <v>37502</v>
       </c>
       <c r="B42" t="s">
-        <v>37192</v>
+        <v>37552</v>
       </c>
       <c r="C42" t="s">
-        <v>37223</v>
+        <v>37583</v>
       </c>
       <c r="D42" s="1">
         <v>0.60000002384185791</v>
@@ -113660,21 +114740,21 @@
       </c>
       <c r="G42" s="1"/>
       <c r="H42" t="s">
-        <v>37251</v>
+        <v>37611</v>
       </c>
       <c r="I42" t="s">
-        <v>37301</v>
+        <v>37661</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>37142</v>
+        <v>37502</v>
       </c>
       <c r="B43" t="s">
-        <v>37193</v>
+        <v>37553</v>
       </c>
       <c r="C43" t="s">
-        <v>37223</v>
+        <v>37583</v>
       </c>
       <c r="D43" s="1">
         <v>0.37000000476837158</v>
@@ -113687,21 +114767,21 @@
       </c>
       <c r="G43" s="1"/>
       <c r="H43" t="s">
-        <v>37251</v>
+        <v>37611</v>
       </c>
       <c r="I43" t="s">
-        <v>37302</v>
+        <v>37662</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>37143</v>
+        <v>37503</v>
       </c>
       <c r="B44" t="s">
-        <v>37194</v>
+        <v>37554</v>
       </c>
       <c r="C44" t="s">
-        <v>37223</v>
+        <v>37583</v>
       </c>
       <c r="D44" s="1">
         <v>0.5899999737739563</v>
@@ -113714,21 +114794,21 @@
       </c>
       <c r="G44" s="1"/>
       <c r="H44" t="s">
-        <v>37252</v>
+        <v>37612</v>
       </c>
       <c r="I44" t="s">
-        <v>37303</v>
+        <v>37663</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>37143</v>
+        <v>37503</v>
       </c>
       <c r="B45" t="s">
-        <v>37195</v>
+        <v>37555</v>
       </c>
       <c r="C45" t="s">
-        <v>37223</v>
+        <v>37583</v>
       </c>
       <c r="D45" s="1">
         <v>0.47999998927116394</v>
@@ -113741,21 +114821,21 @@
       </c>
       <c r="G45" s="1"/>
       <c r="H45" t="s">
-        <v>37252</v>
+        <v>37612</v>
       </c>
       <c r="I45" t="s">
-        <v>37304</v>
+        <v>37664</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>37144</v>
+        <v>37504</v>
       </c>
       <c r="B46" t="s">
-        <v>37196</v>
+        <v>37556</v>
       </c>
       <c r="C46" t="s">
-        <v>37224</v>
+        <v>37584</v>
       </c>
       <c r="D46" s="1">
         <v>0.77100002765655518</v>
@@ -113768,21 +114848,21 @@
       </c>
       <c r="G46" s="1"/>
       <c r="H46" t="s">
-        <v>37252</v>
+        <v>37612</v>
       </c>
       <c r="I46" t="s">
-        <v>37305</v>
+        <v>37665</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>37144</v>
+        <v>37504</v>
       </c>
       <c r="B47" t="s">
-        <v>37197</v>
+        <v>37557</v>
       </c>
       <c r="C47" t="s">
-        <v>37224</v>
+        <v>37584</v>
       </c>
       <c r="D47" s="1">
         <v>0.75199997425079346</v>
@@ -113795,21 +114875,21 @@
       </c>
       <c r="G47" s="1"/>
       <c r="H47" t="s">
-        <v>37252</v>
+        <v>37612</v>
       </c>
       <c r="I47" t="s">
-        <v>37306</v>
+        <v>37666</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>37145</v>
+        <v>37505</v>
       </c>
       <c r="B48" t="s">
-        <v>37198</v>
+        <v>37558</v>
       </c>
       <c r="C48" t="s">
-        <v>37225</v>
+        <v>37585</v>
       </c>
       <c r="D48" s="1">
         <v>0.54000002145767212</v>
@@ -113822,21 +114902,21 @@
       </c>
       <c r="G48" s="1"/>
       <c r="H48" t="s">
-        <v>37252</v>
+        <v>37612</v>
       </c>
       <c r="I48" t="s">
-        <v>37307</v>
+        <v>37667</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>37145</v>
+        <v>37505</v>
       </c>
       <c r="B49" t="s">
-        <v>37199</v>
+        <v>37559</v>
       </c>
       <c r="C49" t="s">
-        <v>37225</v>
+        <v>37585</v>
       </c>
       <c r="D49" s="1">
         <v>0.67000001668930054</v>
@@ -113849,21 +114929,21 @@
       </c>
       <c r="G49" s="1"/>
       <c r="H49" t="s">
-        <v>37252</v>
+        <v>37612</v>
       </c>
       <c r="I49" t="s">
-        <v>37308</v>
+        <v>37668</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>37145</v>
+        <v>37505</v>
       </c>
       <c r="B50" t="s">
-        <v>37200</v>
+        <v>37560</v>
       </c>
       <c r="C50" t="s">
-        <v>37225</v>
+        <v>37585</v>
       </c>
       <c r="D50" s="1">
         <v>0.60000002384185791</v>
@@ -113876,21 +114956,21 @@
       </c>
       <c r="G50" s="1"/>
       <c r="H50" t="s">
-        <v>37252</v>
+        <v>37612</v>
       </c>
       <c r="I50" t="s">
-        <v>37309</v>
+        <v>37669</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>37146</v>
+        <v>37506</v>
       </c>
       <c r="B51" t="s">
-        <v>37201</v>
+        <v>37561</v>
       </c>
       <c r="C51" t="s">
-        <v>37226</v>
+        <v>37586</v>
       </c>
       <c r="D51" s="1">
         <v>0.97600001096725464</v>
@@ -113903,21 +114983,21 @@
       </c>
       <c r="G51" s="1"/>
       <c r="H51" t="s">
-        <v>37253</v>
+        <v>37613</v>
       </c>
       <c r="I51" t="s">
-        <v>37310</v>
+        <v>37670</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>37146</v>
+        <v>37506</v>
       </c>
       <c r="B52" t="s">
-        <v>37202</v>
+        <v>37562</v>
       </c>
       <c r="C52" t="s">
-        <v>37226</v>
+        <v>37586</v>
       </c>
       <c r="D52" s="1">
         <v>0.92599999904632568</v>
@@ -113930,21 +115010,21 @@
       </c>
       <c r="G52" s="1"/>
       <c r="H52" t="s">
-        <v>37253</v>
+        <v>37613</v>
       </c>
       <c r="I52" t="s">
-        <v>37311</v>
+        <v>37671</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>37146</v>
+        <v>37506</v>
       </c>
       <c r="B53" t="s">
-        <v>37203</v>
+        <v>37563</v>
       </c>
       <c r="C53" t="s">
-        <v>37226</v>
+        <v>37586</v>
       </c>
       <c r="D53" s="1">
         <v>0.88300001621246338</v>
@@ -113957,21 +115037,21 @@
       </c>
       <c r="G53" s="1"/>
       <c r="H53" t="s">
-        <v>37253</v>
+        <v>37613</v>
       </c>
       <c r="I53" t="s">
-        <v>37312</v>
+        <v>37672</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>37147</v>
+        <v>37507</v>
       </c>
       <c r="B54" t="s">
-        <v>37204</v>
+        <v>37564</v>
       </c>
       <c r="C54" t="s">
-        <v>37227</v>
+        <v>37587</v>
       </c>
       <c r="D54" s="1">
         <v>0.6600000262260437</v>
@@ -113984,21 +115064,21 @@
       </c>
       <c r="G54" s="1"/>
       <c r="H54" t="s">
-        <v>37254</v>
+        <v>37614</v>
       </c>
       <c r="I54" t="s">
-        <v>37313</v>
+        <v>37673</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>37147</v>
+        <v>37507</v>
       </c>
       <c r="B55" t="s">
-        <v>37205</v>
+        <v>37565</v>
       </c>
       <c r="C55" t="s">
-        <v>37227</v>
+        <v>37587</v>
       </c>
       <c r="D55" s="1">
         <v>0.63999998569488525</v>
@@ -114011,21 +115091,21 @@
       </c>
       <c r="G55" s="1"/>
       <c r="H55" t="s">
-        <v>37254</v>
+        <v>37614</v>
       </c>
       <c r="I55" t="s">
-        <v>37314</v>
+        <v>37674</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>37148</v>
+        <v>37508</v>
       </c>
       <c r="B56" t="s">
-        <v>37206</v>
+        <v>37566</v>
       </c>
       <c r="C56" t="s">
-        <v>37228</v>
+        <v>37588</v>
       </c>
       <c r="D56" s="1">
         <v>0.89999997615814209</v>
@@ -114038,21 +115118,21 @@
       </c>
       <c r="G56" s="1"/>
       <c r="H56" t="s">
-        <v>37255</v>
+        <v>37615</v>
       </c>
       <c r="I56" t="s">
-        <v>37315</v>
+        <v>37675</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>37148</v>
+        <v>37508</v>
       </c>
       <c r="B57" t="s">
-        <v>37207</v>
+        <v>37567</v>
       </c>
       <c r="C57" t="s">
-        <v>37228</v>
+        <v>37588</v>
       </c>
       <c r="D57" s="1">
         <v>0.95999997854232788</v>
@@ -114065,21 +115145,21 @@
       </c>
       <c r="G57" s="1"/>
       <c r="H57" t="s">
-        <v>37255</v>
+        <v>37615</v>
       </c>
       <c r="I57" t="s">
-        <v>37316</v>
+        <v>37676</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>37149</v>
+        <v>37509</v>
       </c>
       <c r="B58" t="s">
-        <v>37208</v>
+        <v>37568</v>
       </c>
       <c r="C58" t="s">
-        <v>37229</v>
+        <v>37589</v>
       </c>
       <c r="D58" s="1">
         <v>0.4699999988079071</v>
@@ -114092,21 +115172,21 @@
       </c>
       <c r="G58" s="1"/>
       <c r="H58" t="s">
-        <v>37256</v>
+        <v>37616</v>
       </c>
       <c r="I58" t="s">
-        <v>37317</v>
+        <v>37677</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>37149</v>
+        <v>37509</v>
       </c>
       <c r="B59" t="s">
-        <v>37209</v>
+        <v>37569</v>
       </c>
       <c r="C59" t="s">
-        <v>37229</v>
+        <v>37589</v>
       </c>
       <c r="D59" s="1">
         <v>0.47999998927116394</v>
@@ -114119,21 +115199,21 @@
       </c>
       <c r="G59" s="1"/>
       <c r="H59" t="s">
-        <v>37256</v>
+        <v>37616</v>
       </c>
       <c r="I59" t="s">
-        <v>37318</v>
+        <v>37678</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>37149</v>
+        <v>37509</v>
       </c>
       <c r="B60" t="s">
-        <v>37210</v>
+        <v>37570</v>
       </c>
       <c r="C60" t="s">
-        <v>37230</v>
+        <v>37590</v>
       </c>
       <c r="D60" s="1">
         <v>0.43999999761581421</v>
@@ -114146,21 +115226,21 @@
       </c>
       <c r="G60" s="1"/>
       <c r="H60" t="s">
-        <v>37257</v>
+        <v>37617</v>
       </c>
       <c r="I60" t="s">
-        <v>37319</v>
+        <v>37679</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>37149</v>
+        <v>37509</v>
       </c>
       <c r="B61" t="s">
-        <v>37211</v>
+        <v>37571</v>
       </c>
       <c r="C61" t="s">
-        <v>37230</v>
+        <v>37590</v>
       </c>
       <c r="D61" s="1">
         <v>0.75999999046325684</v>
@@ -114173,21 +115253,21 @@
       </c>
       <c r="G61" s="1"/>
       <c r="H61" t="s">
-        <v>37257</v>
+        <v>37617</v>
       </c>
       <c r="I61" t="s">
-        <v>37320</v>
+        <v>37680</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>37150</v>
+        <v>37510</v>
       </c>
       <c r="B62" t="s">
-        <v>37212</v>
+        <v>37572</v>
       </c>
       <c r="C62" t="s">
-        <v>37230</v>
+        <v>37590</v>
       </c>
       <c r="D62" s="1">
         <v>0.81000000238418579</v>
@@ -114200,21 +115280,21 @@
       </c>
       <c r="G62" s="1"/>
       <c r="H62" t="s">
-        <v>37258</v>
+        <v>37618</v>
       </c>
       <c r="I62" t="s">
-        <v>37321</v>
+        <v>37681</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>37150</v>
+        <v>37510</v>
       </c>
       <c r="B63" t="s">
-        <v>37213</v>
+        <v>37573</v>
       </c>
       <c r="C63" t="s">
-        <v>37230</v>
+        <v>37590</v>
       </c>
       <c r="D63" s="1">
         <v>0.79000002145767212</v>
@@ -114227,21 +115307,21 @@
       </c>
       <c r="G63" s="1"/>
       <c r="H63" t="s">
-        <v>37258</v>
+        <v>37618</v>
       </c>
       <c r="I63" t="s">
-        <v>37322</v>
+        <v>37682</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>37151</v>
+        <v>37511</v>
       </c>
       <c r="B64" t="s">
-        <v>37214</v>
+        <v>37574</v>
       </c>
       <c r="C64" t="s">
-        <v>37231</v>
+        <v>37591</v>
       </c>
       <c r="D64" s="1">
         <v>0.6600000262260437</v>
@@ -114254,21 +115334,21 @@
       </c>
       <c r="G64" s="1"/>
       <c r="H64" t="s">
-        <v>37259</v>
+        <v>37619</v>
       </c>
       <c r="I64" t="s">
-        <v>37323</v>
+        <v>37683</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>37151</v>
+        <v>37511</v>
       </c>
       <c r="B65" t="s">
-        <v>37215</v>
+        <v>37575</v>
       </c>
       <c r="C65" t="s">
-        <v>37231</v>
+        <v>37591</v>
       </c>
       <c r="D65" s="1">
         <v>0.55000001192092896</v>
@@ -114281,10 +115361,10 @@
       </c>
       <c r="G65" s="1"/>
       <c r="H65" t="s">
-        <v>37259</v>
+        <v>37619</v>
       </c>
       <c r="I65" t="s">
-        <v>37324</v>
+        <v>37684</v>
       </c>
     </row>
   </sheetData>
@@ -114298,42 +115378,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>37325</v>
+        <v>37685</v>
       </c>
       <c r="B1" t="s">
-        <v>37347</v>
+        <v>37707</v>
       </c>
       <c r="C1" t="s">
-        <v>37394</v>
+        <v>37754</v>
       </c>
       <c r="D1" t="s">
-        <v>37404</v>
+        <v>37764</v>
       </c>
       <c r="E1" t="s">
-        <v>37405</v>
+        <v>37765</v>
       </c>
       <c r="F1" t="s">
-        <v>37406</v>
+        <v>37766</v>
       </c>
       <c r="G1" t="s">
-        <v>37407</v>
+        <v>37767</v>
       </c>
       <c r="H1" t="s">
-        <v>37419</v>
+        <v>37779</v>
       </c>
       <c r="I1" t="s">
-        <v>37440</v>
+        <v>37800</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>37326</v>
+        <v>37686</v>
       </c>
       <c r="B2" t="s">
-        <v>37348</v>
+        <v>37708</v>
       </c>
       <c r="C2" t="s">
-        <v>37395</v>
+        <v>37755</v>
       </c>
       <c r="D2" s="1">
         <v>0.5899999737739563</v>
@@ -114345,24 +115425,24 @@
         <v>0.81999999284744263</v>
       </c>
       <c r="G2" t="s">
-        <v>37408</v>
+        <v>37768</v>
       </c>
       <c r="H2" t="s">
-        <v>37420</v>
+        <v>37780</v>
       </c>
       <c r="I2" t="s">
-        <v>37441</v>
+        <v>37801</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>37326</v>
+        <v>37686</v>
       </c>
       <c r="B3" t="s">
-        <v>37349</v>
+        <v>37709</v>
       </c>
       <c r="C3" t="s">
-        <v>37395</v>
+        <v>37755</v>
       </c>
       <c r="D3" s="1">
         <v>0.18000000715255737</v>
@@ -114374,24 +115454,24 @@
         <v>1.4900000095367432</v>
       </c>
       <c r="G3" t="s">
-        <v>37408</v>
+        <v>37768</v>
       </c>
       <c r="H3" t="s">
-        <v>37420</v>
+        <v>37780</v>
       </c>
       <c r="I3" t="s">
-        <v>37442</v>
+        <v>37802</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>37327</v>
+        <v>37687</v>
       </c>
       <c r="B4" t="s">
-        <v>37350</v>
+        <v>37710</v>
       </c>
       <c r="C4" t="s">
-        <v>37395</v>
+        <v>37755</v>
       </c>
       <c r="D4" s="1">
         <v>0.37999999523162842</v>
@@ -114403,24 +115483,24 @@
         <v>0.6600000262260437</v>
       </c>
       <c r="G4" t="s">
-        <v>37408</v>
+        <v>37768</v>
       </c>
       <c r="H4" t="s">
-        <v>37421</v>
+        <v>37781</v>
       </c>
       <c r="I4" t="s">
-        <v>37443</v>
+        <v>37803</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>37327</v>
+        <v>37687</v>
       </c>
       <c r="B5" t="s">
-        <v>37351</v>
+        <v>37711</v>
       </c>
       <c r="C5" t="s">
-        <v>37395</v>
+        <v>37755</v>
       </c>
       <c r="D5" s="1">
         <v>0.44999998807907104</v>
@@ -114432,24 +115512,24 @@
         <v>0.57999998331069946</v>
       </c>
       <c r="G5" t="s">
-        <v>37408</v>
+        <v>37768</v>
       </c>
       <c r="H5" t="s">
-        <v>37421</v>
+        <v>37781</v>
       </c>
       <c r="I5" t="s">
-        <v>37444</v>
+        <v>37804</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>37328</v>
+        <v>37688</v>
       </c>
       <c r="B6" t="s">
-        <v>37352</v>
+        <v>37712</v>
       </c>
       <c r="C6" t="s">
-        <v>37395</v>
+        <v>37755</v>
       </c>
       <c r="D6" s="1">
         <v>0.75700002908706665</v>
@@ -114461,24 +115541,24 @@
         <v>0.96299999952316284</v>
       </c>
       <c r="G6" t="s">
-        <v>37409</v>
+        <v>37769</v>
       </c>
       <c r="H6" t="s">
-        <v>37422</v>
+        <v>37782</v>
       </c>
       <c r="I6" t="s">
-        <v>37445</v>
+        <v>37805</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>37328</v>
+        <v>37688</v>
       </c>
       <c r="B7" t="s">
-        <v>37353</v>
+        <v>37713</v>
       </c>
       <c r="C7" t="s">
-        <v>37395</v>
+        <v>37755</v>
       </c>
       <c r="D7" s="1">
         <v>0.92599999904632568</v>
@@ -114490,24 +115570,24 @@
         <v>1.2790000438690186</v>
       </c>
       <c r="G7" t="s">
-        <v>37410</v>
+        <v>37770</v>
       </c>
       <c r="H7" t="s">
-        <v>37422</v>
+        <v>37782</v>
       </c>
       <c r="I7" t="s">
-        <v>37446</v>
+        <v>37806</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>37329</v>
+        <v>37689</v>
       </c>
       <c r="B8" t="s">
-        <v>37354</v>
+        <v>37714</v>
       </c>
       <c r="C8" t="s">
-        <v>37395</v>
+        <v>37755</v>
       </c>
       <c r="D8" s="1">
         <v>0.43999999761581421</v>
@@ -114519,24 +115599,24 @@
         <v>0.56000000238418579</v>
       </c>
       <c r="G8" t="s">
-        <v>37411</v>
+        <v>37771</v>
       </c>
       <c r="H8" t="s">
-        <v>37423</v>
+        <v>37783</v>
       </c>
       <c r="I8" t="s">
-        <v>37447</v>
+        <v>37807</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>37329</v>
+        <v>37689</v>
       </c>
       <c r="B9" t="s">
-        <v>37355</v>
+        <v>37715</v>
       </c>
       <c r="C9" t="s">
-        <v>37395</v>
+        <v>37755</v>
       </c>
       <c r="D9" s="1">
         <v>0.80000001192092896</v>
@@ -114548,24 +115628,24 @@
         <v>1.1100000143051147</v>
       </c>
       <c r="G9" t="s">
-        <v>37411</v>
+        <v>37771</v>
       </c>
       <c r="H9" t="s">
-        <v>37423</v>
+        <v>37783</v>
       </c>
       <c r="I9" t="s">
-        <v>37448</v>
+        <v>37808</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>37330</v>
+        <v>37690</v>
       </c>
       <c r="B10" t="s">
-        <v>37356</v>
+        <v>37716</v>
       </c>
       <c r="C10" t="s">
-        <v>37395</v>
+        <v>37755</v>
       </c>
       <c r="D10" s="1">
         <v>0.56000000238418579</v>
@@ -114577,24 +115657,24 @@
         <v>0.97000002861022949</v>
       </c>
       <c r="G10" t="s">
-        <v>37411</v>
+        <v>37771</v>
       </c>
       <c r="H10" t="s">
-        <v>37424</v>
+        <v>37784</v>
       </c>
       <c r="I10" t="s">
-        <v>37449</v>
+        <v>37809</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>37330</v>
+        <v>37690</v>
       </c>
       <c r="B11" t="s">
-        <v>37357</v>
+        <v>37717</v>
       </c>
       <c r="C11" t="s">
-        <v>37395</v>
+        <v>37755</v>
       </c>
       <c r="D11" s="1">
         <v>0.50999999046325684</v>
@@ -114606,24 +115686,24 @@
         <v>1.190000057220459</v>
       </c>
       <c r="G11" t="s">
-        <v>37411</v>
+        <v>37771</v>
       </c>
       <c r="H11" t="s">
-        <v>37424</v>
+        <v>37784</v>
       </c>
       <c r="I11" t="s">
-        <v>37450</v>
+        <v>37810</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>37331</v>
+        <v>37691</v>
       </c>
       <c r="B12" t="s">
-        <v>37358</v>
+        <v>37718</v>
       </c>
       <c r="C12" t="s">
-        <v>37395</v>
+        <v>37755</v>
       </c>
       <c r="D12" s="1">
         <v>0.6600000262260437</v>
@@ -114635,24 +115715,24 @@
         <v>0.89999997615814209</v>
       </c>
       <c r="G12" t="s">
-        <v>37411</v>
+        <v>37771</v>
       </c>
       <c r="H12" t="s">
-        <v>37425</v>
+        <v>37785</v>
       </c>
       <c r="I12" t="s">
-        <v>37451</v>
+        <v>37811</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>37331</v>
+        <v>37691</v>
       </c>
       <c r="B13" t="s">
-        <v>37359</v>
+        <v>37719</v>
       </c>
       <c r="C13" t="s">
-        <v>37395</v>
+        <v>37755</v>
       </c>
       <c r="D13" s="1">
         <v>0.36000001430511475</v>
@@ -114664,24 +115744,24 @@
         <v>0.82999998331069946</v>
       </c>
       <c r="G13" t="s">
-        <v>37411</v>
+        <v>37771</v>
       </c>
       <c r="H13" t="s">
-        <v>37425</v>
+        <v>37785</v>
       </c>
       <c r="I13" t="s">
-        <v>37452</v>
+        <v>37812</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>37332</v>
+        <v>37692</v>
       </c>
       <c r="B14" t="s">
-        <v>37360</v>
+        <v>37720</v>
       </c>
       <c r="C14" t="s">
-        <v>37395</v>
+        <v>37755</v>
       </c>
       <c r="D14" s="1">
         <v>0.55299997329711914</v>
@@ -114693,24 +115773,24 @@
         <v>0.9309999942779541</v>
       </c>
       <c r="G14" t="s">
-        <v>37412</v>
+        <v>37772</v>
       </c>
       <c r="H14" t="s">
-        <v>37426</v>
+        <v>37786</v>
       </c>
       <c r="I14" t="s">
-        <v>37453</v>
+        <v>37813</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>37332</v>
+        <v>37692</v>
       </c>
       <c r="B15" t="s">
-        <v>37361</v>
+        <v>37721</v>
       </c>
       <c r="C15" t="s">
-        <v>37395</v>
+        <v>37755</v>
       </c>
       <c r="D15" s="1">
         <v>0.76599997282028198</v>
@@ -114722,24 +115802,24 @@
         <v>3.9639999866485596</v>
       </c>
       <c r="G15" t="s">
-        <v>37412</v>
+        <v>37772</v>
       </c>
       <c r="H15" t="s">
-        <v>37426</v>
+        <v>37786</v>
       </c>
       <c r="I15" t="s">
-        <v>37454</v>
+        <v>37814</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>37332</v>
+        <v>37692</v>
       </c>
       <c r="B16" t="s">
-        <v>37362</v>
+        <v>37722</v>
       </c>
       <c r="C16" t="s">
-        <v>37396</v>
+        <v>37756</v>
       </c>
       <c r="D16" s="1">
         <v>0.39800000190734863</v>
@@ -114751,24 +115831,24 @@
         <v>0.71899998188018799</v>
       </c>
       <c r="G16" t="s">
-        <v>37412</v>
+        <v>37772</v>
       </c>
       <c r="H16" t="s">
-        <v>37427</v>
+        <v>37787</v>
       </c>
       <c r="I16" t="s">
-        <v>37455</v>
+        <v>37815</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>37332</v>
+        <v>37692</v>
       </c>
       <c r="B17" t="s">
-        <v>37363</v>
+        <v>37723</v>
       </c>
       <c r="C17" t="s">
-        <v>37396</v>
+        <v>37756</v>
       </c>
       <c r="D17" s="1">
         <v>0.49799999594688416</v>
@@ -114780,24 +115860,24 @@
         <v>2.4030001163482666</v>
       </c>
       <c r="G17" t="s">
-        <v>37412</v>
+        <v>37772</v>
       </c>
       <c r="H17" t="s">
-        <v>37427</v>
+        <v>37787</v>
       </c>
       <c r="I17" t="s">
-        <v>37456</v>
+        <v>37816</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>37333</v>
+        <v>37693</v>
       </c>
       <c r="B18" t="s">
-        <v>37364</v>
+        <v>37724</v>
       </c>
       <c r="C18" t="s">
-        <v>37397</v>
+        <v>37757</v>
       </c>
       <c r="D18" s="1">
         <v>0.87000000476837158</v>
@@ -114809,24 +115889,24 @@
         <v>1.2899999618530273</v>
       </c>
       <c r="G18" t="s">
-        <v>37413</v>
+        <v>37773</v>
       </c>
       <c r="H18" t="s">
-        <v>37428</v>
+        <v>37788</v>
       </c>
       <c r="I18" t="s">
-        <v>37457</v>
+        <v>37817</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>37333</v>
+        <v>37693</v>
       </c>
       <c r="B19" t="s">
-        <v>37365</v>
+        <v>37725</v>
       </c>
       <c r="C19" t="s">
-        <v>37397</v>
+        <v>37757</v>
       </c>
       <c r="D19" s="1">
         <v>0.38999998569488525</v>
@@ -114838,24 +115918,24 @@
         <v>0.80000001192092896</v>
       </c>
       <c r="G19" t="s">
-        <v>37413</v>
+        <v>37773</v>
       </c>
       <c r="H19" t="s">
-        <v>37428</v>
+        <v>37788</v>
       </c>
       <c r="I19" t="s">
-        <v>37458</v>
+        <v>37818</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>37334</v>
+        <v>37694</v>
       </c>
       <c r="B20" t="s">
-        <v>37366</v>
+        <v>37726</v>
       </c>
       <c r="C20" t="s">
-        <v>37397</v>
+        <v>37757</v>
       </c>
       <c r="D20" s="1">
         <v>0.61000001430511475</v>
@@ -114867,24 +115947,24 @@
         <v>1.1699999570846558</v>
       </c>
       <c r="G20" t="s">
-        <v>37413</v>
+        <v>37773</v>
       </c>
       <c r="H20" t="s">
-        <v>37429</v>
+        <v>37789</v>
       </c>
       <c r="I20" t="s">
-        <v>37459</v>
+        <v>37819</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>37334</v>
+        <v>37694</v>
       </c>
       <c r="B21" t="s">
-        <v>37367</v>
+        <v>37727</v>
       </c>
       <c r="C21" t="s">
-        <v>37397</v>
+        <v>37757</v>
       </c>
       <c r="D21" s="1">
         <v>0.75</v>
@@ -114896,24 +115976,24 @@
         <v>1.3600000143051147</v>
       </c>
       <c r="G21" t="s">
-        <v>37413</v>
+        <v>37773</v>
       </c>
       <c r="H21" t="s">
-        <v>37429</v>
+        <v>37789</v>
       </c>
       <c r="I21" t="s">
-        <v>37460</v>
+        <v>37820</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>37334</v>
+        <v>37694</v>
       </c>
       <c r="B22" t="s">
-        <v>37368</v>
+        <v>37728</v>
       </c>
       <c r="C22" t="s">
-        <v>37398</v>
+        <v>37758</v>
       </c>
       <c r="D22" s="1">
         <v>5.9000000953674316</v>
@@ -114925,24 +116005,24 @@
         <v>46.099998474121094</v>
       </c>
       <c r="G22" t="s">
-        <v>37413</v>
+        <v>37773</v>
       </c>
       <c r="H22" t="s">
-        <v>37430</v>
+        <v>37790</v>
       </c>
       <c r="I22" t="s">
-        <v>37461</v>
+        <v>37821</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>37334</v>
+        <v>37694</v>
       </c>
       <c r="B23" t="s">
-        <v>37369</v>
+        <v>37729</v>
       </c>
       <c r="C23" t="s">
-        <v>37398</v>
+        <v>37758</v>
       </c>
       <c r="D23" s="1">
         <v>1.8200000524520874</v>
@@ -114954,24 +116034,24 @@
         <v>5.1399998664855957</v>
       </c>
       <c r="G23" t="s">
-        <v>37413</v>
+        <v>37773</v>
       </c>
       <c r="H23" t="s">
-        <v>37430</v>
+        <v>37790</v>
       </c>
       <c r="I23" t="s">
-        <v>37462</v>
+        <v>37822</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>37335</v>
+        <v>37695</v>
       </c>
       <c r="B24" t="s">
-        <v>37370</v>
+        <v>37730</v>
       </c>
       <c r="C24" t="s">
-        <v>37399</v>
+        <v>37759</v>
       </c>
       <c r="D24" s="1">
         <v>0.5899999737739563</v>
@@ -114983,24 +116063,24 @@
         <v>1.3999999761581421</v>
       </c>
       <c r="G24" t="s">
-        <v>37413</v>
+        <v>37773</v>
       </c>
       <c r="H24" t="s">
-        <v>37431</v>
+        <v>37791</v>
       </c>
       <c r="I24" t="s">
-        <v>37463</v>
+        <v>37823</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>37335</v>
+        <v>37695</v>
       </c>
       <c r="B25" t="s">
-        <v>37371</v>
+        <v>37731</v>
       </c>
       <c r="C25" t="s">
-        <v>37399</v>
+        <v>37759</v>
       </c>
       <c r="D25" s="1">
         <v>0.69999998807907104</v>
@@ -115012,24 +116092,24 @@
         <v>0.87000000476837158</v>
       </c>
       <c r="G25" t="s">
-        <v>37413</v>
+        <v>37773</v>
       </c>
       <c r="H25" t="s">
-        <v>37431</v>
+        <v>37791</v>
       </c>
       <c r="I25" t="s">
-        <v>37464</v>
+        <v>37824</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>37336</v>
+        <v>37696</v>
       </c>
       <c r="B26" t="s">
-        <v>37372</v>
+        <v>37732</v>
       </c>
       <c r="C26" t="s">
-        <v>37399</v>
+        <v>37759</v>
       </c>
       <c r="D26" s="1">
         <v>0.38999998569488525</v>
@@ -115041,24 +116121,24 @@
         <v>0.68999999761581421</v>
       </c>
       <c r="G26" t="s">
-        <v>37413</v>
+        <v>37773</v>
       </c>
       <c r="H26" t="s">
-        <v>37432</v>
+        <v>37792</v>
       </c>
       <c r="I26" t="s">
-        <v>37465</v>
+        <v>37825</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>37336</v>
+        <v>37696</v>
       </c>
       <c r="B27" t="s">
-        <v>37373</v>
+        <v>37733</v>
       </c>
       <c r="C27" t="s">
-        <v>37399</v>
+        <v>37759</v>
       </c>
       <c r="D27" s="1">
         <v>0.15999999642372131</v>
@@ -115070,24 +116150,24 @@
         <v>0.40000000596046448</v>
       </c>
       <c r="G27" t="s">
-        <v>37413</v>
+        <v>37773</v>
       </c>
       <c r="H27" t="s">
-        <v>37432</v>
+        <v>37792</v>
       </c>
       <c r="I27" t="s">
-        <v>37466</v>
+        <v>37826</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>37337</v>
+        <v>37697</v>
       </c>
       <c r="B28" t="s">
-        <v>37374</v>
+        <v>37734</v>
       </c>
       <c r="C28" t="s">
-        <v>37399</v>
+        <v>37759</v>
       </c>
       <c r="D28" s="1">
         <v>0.46000000834465027</v>
@@ -115099,24 +116179,24 @@
         <v>0.6600000262260437</v>
       </c>
       <c r="G28" t="s">
-        <v>37413</v>
+        <v>37773</v>
       </c>
       <c r="H28" t="s">
-        <v>37432</v>
+        <v>37792</v>
       </c>
       <c r="I28" t="s">
-        <v>37467</v>
+        <v>37827</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>37337</v>
+        <v>37697</v>
       </c>
       <c r="B29" t="s">
-        <v>37375</v>
+        <v>37735</v>
       </c>
       <c r="C29" t="s">
-        <v>37399</v>
+        <v>37759</v>
       </c>
       <c r="D29" s="1">
         <v>0.30000001192092896</v>
@@ -115128,24 +116208,24 @@
         <v>0.44999998807907104</v>
       </c>
       <c r="G29" t="s">
-        <v>37413</v>
+        <v>37773</v>
       </c>
       <c r="H29" t="s">
-        <v>37432</v>
+        <v>37792</v>
       </c>
       <c r="I29" t="s">
-        <v>37468</v>
+        <v>37828</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>37338</v>
+        <v>37698</v>
       </c>
       <c r="B30" t="s">
-        <v>37376</v>
+        <v>37736</v>
       </c>
       <c r="C30" t="s">
-        <v>37399</v>
+        <v>37759</v>
       </c>
       <c r="D30" s="1">
         <v>0.60000002384185791</v>
@@ -115157,24 +116237,24 @@
         <v>1.059999942779541</v>
       </c>
       <c r="G30" t="s">
-        <v>37413</v>
+        <v>37773</v>
       </c>
       <c r="H30" t="s">
-        <v>37433</v>
+        <v>37793</v>
       </c>
       <c r="I30" t="s">
-        <v>37469</v>
+        <v>37829</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>37338</v>
+        <v>37698</v>
       </c>
       <c r="B31" t="s">
-        <v>37377</v>
+        <v>37737</v>
       </c>
       <c r="C31" t="s">
-        <v>37399</v>
+        <v>37759</v>
       </c>
       <c r="D31" s="1">
         <v>0.47999998927116394</v>
@@ -115186,24 +116266,24 @@
         <v>0.81999999284744263</v>
       </c>
       <c r="G31" t="s">
-        <v>37413</v>
+        <v>37773</v>
       </c>
       <c r="H31" t="s">
-        <v>37433</v>
+        <v>37793</v>
       </c>
       <c r="I31" t="s">
-        <v>37470</v>
+        <v>37830</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>37339</v>
+        <v>37699</v>
       </c>
       <c r="B32" t="s">
-        <v>37378</v>
+        <v>37738</v>
       </c>
       <c r="C32" t="s">
-        <v>37399</v>
+        <v>37759</v>
       </c>
       <c r="D32" s="1">
         <v>1.6200000047683716</v>
@@ -115215,24 +116295,24 @@
         <v>2.4100000858306885</v>
       </c>
       <c r="G32" t="s">
-        <v>37413</v>
+        <v>37773</v>
       </c>
       <c r="H32" t="s">
-        <v>37433</v>
+        <v>37793</v>
       </c>
       <c r="I32" t="s">
-        <v>37471</v>
+        <v>37831</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>37339</v>
+        <v>37699</v>
       </c>
       <c r="B33" t="s">
-        <v>37379</v>
+        <v>37739</v>
       </c>
       <c r="C33" t="s">
-        <v>37399</v>
+        <v>37759</v>
       </c>
       <c r="D33" s="1">
         <v>2.0099999904632568</v>
@@ -115244,24 +116324,24 @@
         <v>2.8399999141693115</v>
       </c>
       <c r="G33" t="s">
-        <v>37413</v>
+        <v>37773</v>
       </c>
       <c r="H33" t="s">
-        <v>37433</v>
+        <v>37793</v>
       </c>
       <c r="I33" t="s">
-        <v>37472</v>
+        <v>37832</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>37340</v>
+        <v>37700</v>
       </c>
       <c r="B34" t="s">
-        <v>37380</v>
+        <v>37740</v>
       </c>
       <c r="C34" t="s">
-        <v>37400</v>
+        <v>37760</v>
       </c>
       <c r="D34" s="1">
         <v>0.95999997854232788</v>
@@ -115273,24 +116353,24 @@
         <v>1.2560000419616699</v>
       </c>
       <c r="G34" t="s">
-        <v>37414</v>
+        <v>37774</v>
       </c>
       <c r="H34" t="s">
-        <v>37434</v>
+        <v>37794</v>
       </c>
       <c r="I34" t="s">
-        <v>37473</v>
+        <v>37833</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>37340</v>
+        <v>37700</v>
       </c>
       <c r="B35" t="s">
-        <v>37381</v>
+        <v>37741</v>
       </c>
       <c r="C35" t="s">
-        <v>37400</v>
+        <v>37760</v>
       </c>
       <c r="D35" s="1">
         <v>1.0800000429153442</v>
@@ -115302,24 +116382,24 @@
         <v>1.3609999418258667</v>
       </c>
       <c r="G35" t="s">
-        <v>37414</v>
+        <v>37774</v>
       </c>
       <c r="H35" t="s">
-        <v>37434</v>
+        <v>37794</v>
       </c>
       <c r="I35" t="s">
-        <v>37474</v>
+        <v>37834</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>37341</v>
+        <v>37701</v>
       </c>
       <c r="B36" t="s">
-        <v>37382</v>
+        <v>37742</v>
       </c>
       <c r="C36" t="s">
-        <v>37400</v>
+        <v>37760</v>
       </c>
       <c r="D36" s="1">
         <v>0.87699997425079346</v>
@@ -115331,24 +116411,24 @@
         <v>1.156000018119812</v>
       </c>
       <c r="G36" t="s">
-        <v>37415</v>
+        <v>37775</v>
       </c>
       <c r="H36" t="s">
-        <v>37435</v>
+        <v>37795</v>
       </c>
       <c r="I36" t="s">
-        <v>37475</v>
+        <v>37835</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>37341</v>
+        <v>37701</v>
       </c>
       <c r="B37" t="s">
-        <v>37383</v>
+        <v>37743</v>
       </c>
       <c r="C37" t="s">
-        <v>37400</v>
+        <v>37760</v>
       </c>
       <c r="D37" s="1">
         <v>0.68400001525878906</v>
@@ -115360,24 +116440,24 @@
         <v>0.875</v>
       </c>
       <c r="G37" t="s">
-        <v>37415</v>
+        <v>37775</v>
       </c>
       <c r="H37" t="s">
-        <v>37435</v>
+        <v>37795</v>
       </c>
       <c r="I37" t="s">
-        <v>37476</v>
+        <v>37836</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>37341</v>
+        <v>37701</v>
       </c>
       <c r="B38" t="s">
-        <v>37384</v>
+        <v>37744</v>
       </c>
       <c r="C38" t="s">
-        <v>37400</v>
+        <v>37760</v>
       </c>
       <c r="D38" s="1">
         <v>0.85699999332427979</v>
@@ -115389,24 +116469,24 @@
         <v>1.1779999732971191</v>
       </c>
       <c r="G38" t="s">
-        <v>37415</v>
+        <v>37775</v>
       </c>
       <c r="H38" t="s">
-        <v>37435</v>
+        <v>37795</v>
       </c>
       <c r="I38" t="s">
-        <v>37477</v>
+        <v>37837</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>37342</v>
+        <v>37702</v>
       </c>
       <c r="B39" t="s">
-        <v>37384</v>
+        <v>37744</v>
       </c>
       <c r="C39" t="s">
-        <v>37401</v>
+        <v>37761</v>
       </c>
       <c r="D39" s="1">
         <v>0.64999997615814209</v>
@@ -115418,24 +116498,24 @@
         <v>0.8399999737739563</v>
       </c>
       <c r="G39" t="s">
-        <v>37416</v>
+        <v>37776</v>
       </c>
       <c r="H39" t="s">
-        <v>37435</v>
+        <v>37795</v>
       </c>
       <c r="I39" t="s">
-        <v>37478</v>
+        <v>37838</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>37342</v>
+        <v>37702</v>
       </c>
       <c r="B40" t="s">
-        <v>37385</v>
+        <v>37745</v>
       </c>
       <c r="C40" t="s">
-        <v>37401</v>
+        <v>37761</v>
       </c>
       <c r="D40" s="1">
         <v>0.47999998927116394</v>
@@ -115447,24 +116527,24 @@
         <v>0.75</v>
       </c>
       <c r="G40" t="s">
-        <v>37416</v>
+        <v>37776</v>
       </c>
       <c r="H40" t="s">
-        <v>37435</v>
+        <v>37795</v>
       </c>
       <c r="I40" t="s">
-        <v>37479</v>
+        <v>37839</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>37343</v>
+        <v>37703</v>
       </c>
       <c r="B41" t="s">
-        <v>37386</v>
+        <v>37746</v>
       </c>
       <c r="C41" t="s">
-        <v>37402</v>
+        <v>37762</v>
       </c>
       <c r="D41" s="1">
         <v>0.78100001811981201</v>
@@ -115476,24 +116556,24 @@
         <v>1.3220000267028809</v>
       </c>
       <c r="G41" t="s">
-        <v>37417</v>
+        <v>37777</v>
       </c>
       <c r="H41" t="s">
-        <v>37436</v>
+        <v>37796</v>
       </c>
       <c r="I41" t="s">
-        <v>37480</v>
+        <v>37840</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>37343</v>
+        <v>37703</v>
       </c>
       <c r="B42" t="s">
-        <v>37387</v>
+        <v>37747</v>
       </c>
       <c r="C42" t="s">
-        <v>37402</v>
+        <v>37762</v>
       </c>
       <c r="D42" s="1">
         <v>0.97500002384185791</v>
@@ -115505,82 +116585,82 @@
         <v>1.1829999685287476</v>
       </c>
       <c r="G42" t="s">
-        <v>37417</v>
+        <v>37777</v>
       </c>
       <c r="H42" t="s">
-        <v>37436</v>
+        <v>37796</v>
       </c>
       <c r="I42" t="s">
-        <v>37481</v>
+        <v>37841</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>37344</v>
+        <v>37704</v>
       </c>
       <c r="B43" t="s">
-        <v>37388</v>
+        <v>37748</v>
       </c>
       <c r="C43" t="s">
-        <v>37402</v>
+        <v>37762</v>
       </c>
       <c r="D43" s="1">
-        <v>0.93000000715255737</v>
+        <v>0.93999999761581421</v>
       </c>
       <c r="E43" s="1">
-        <v>0.6600000262260437</v>
+        <v>0.74000000953674316</v>
       </c>
       <c r="F43" s="1">
-        <v>1.309999942779541</v>
+        <v>1.190000057220459</v>
       </c>
       <c r="G43" t="s">
-        <v>37418</v>
+        <v>37778</v>
       </c>
       <c r="H43" t="s">
-        <v>37437</v>
+        <v>37797</v>
       </c>
       <c r="I43" t="s">
-        <v>37482</v>
+        <v>37842</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>37344</v>
+        <v>37704</v>
       </c>
       <c r="B44" t="s">
-        <v>37389</v>
+        <v>37749</v>
       </c>
       <c r="C44" t="s">
-        <v>37402</v>
+        <v>37762</v>
       </c>
       <c r="D44" s="1">
-        <v>0.93999999761581421</v>
+        <v>0.93000000715255737</v>
       </c>
       <c r="E44" s="1">
-        <v>0.74000000953674316</v>
+        <v>0.6600000262260437</v>
       </c>
       <c r="F44" s="1">
-        <v>1.190000057220459</v>
+        <v>1.309999942779541</v>
       </c>
       <c r="G44" t="s">
-        <v>37418</v>
+        <v>37778</v>
       </c>
       <c r="H44" t="s">
-        <v>37437</v>
+        <v>37797</v>
       </c>
       <c r="I44" t="s">
-        <v>37483</v>
+        <v>37843</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>37345</v>
+        <v>37705</v>
       </c>
       <c r="B45" t="s">
-        <v>37390</v>
+        <v>37750</v>
       </c>
       <c r="C45" t="s">
-        <v>37403</v>
+        <v>37763</v>
       </c>
       <c r="D45" s="1">
         <v>0.63999998569488525</v>
@@ -115592,24 +116672,24 @@
         <v>0.9100000262260437</v>
       </c>
       <c r="G45" t="s">
-        <v>37418</v>
+        <v>37778</v>
       </c>
       <c r="H45" t="s">
-        <v>37438</v>
+        <v>37798</v>
       </c>
       <c r="I45" t="s">
-        <v>37484</v>
+        <v>37844</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>37345</v>
+        <v>37705</v>
       </c>
       <c r="B46" t="s">
-        <v>37391</v>
+        <v>37751</v>
       </c>
       <c r="C46" t="s">
-        <v>37403</v>
+        <v>37763</v>
       </c>
       <c r="D46" s="1">
         <v>0.72000002861022949</v>
@@ -115621,24 +116701,24 @@
         <v>0.89999997615814209</v>
       </c>
       <c r="G46" t="s">
-        <v>37418</v>
+        <v>37778</v>
       </c>
       <c r="H46" t="s">
-        <v>37438</v>
+        <v>37798</v>
       </c>
       <c r="I46" t="s">
-        <v>37485</v>
+        <v>37845</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>37346</v>
+        <v>37706</v>
       </c>
       <c r="B47" t="s">
-        <v>37392</v>
+        <v>37752</v>
       </c>
       <c r="C47" t="s">
-        <v>37403</v>
+        <v>37763</v>
       </c>
       <c r="D47" s="1">
         <v>0.46000000834465027</v>
@@ -115650,24 +116730,24 @@
         <v>0.73000001907348633</v>
       </c>
       <c r="G47" t="s">
-        <v>37418</v>
+        <v>37778</v>
       </c>
       <c r="H47" t="s">
-        <v>37439</v>
+        <v>37799</v>
       </c>
       <c r="I47" t="s">
-        <v>37486</v>
+        <v>37846</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>37346</v>
+        <v>37706</v>
       </c>
       <c r="B48" t="s">
-        <v>37393</v>
+        <v>37753</v>
       </c>
       <c r="C48" t="s">
-        <v>37403</v>
+        <v>37763</v>
       </c>
       <c r="D48" s="1">
         <v>0.62999999523162842</v>
@@ -115679,13 +116759,13 @@
         <v>0.89999997615814209</v>
       </c>
       <c r="G48" t="s">
-        <v>37418</v>
+        <v>37778</v>
       </c>
       <c r="H48" t="s">
-        <v>37439</v>
+        <v>37799</v>
       </c>
       <c r="I48" t="s">
-        <v>37487</v>
+        <v>37847</v>
       </c>
     </row>
   </sheetData>

--- a/products/Exported Data.xlsx
+++ b/products/Exported Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64595" uniqueCount="37848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65215" uniqueCount="38208">
   <si>
     <t>Study</t>
   </si>
@@ -101537,6 +101537,1086 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Study: Treatment 1 vs Treatment 2</t>
+  </si>
+  <si>
+    <t>Attal 2019 (ICARIA-MM): IsPd vs Pd</t>
+  </si>
+  <si>
+    <t>Bahlis 2020 (POLLUX): DRd vs Rd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2013 (VANTAGE 088): VorV vs V</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2016 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-3): EPd vs Pd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2020 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2021 (APOLLO): DPd vs Pd</t>
+  </si>
+  <si>
+    <t>Grosicki 2020 (BOSTON): SeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Hou 2017 (China Cont.): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>Jakubowiak 2016 (NCT01478048): EVd vs Vd</t>
+  </si>
+  <si>
+    <t>Kumar 2020 (BELLINI): VeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Lu 2021 (LEPUS): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Mateos 2020 (CASTOR): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Moreau 2021 (IKEMA): IsKd vs Kd</t>
+  </si>
+  <si>
+    <t>Orlowski 2019 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2019 (OPTIMISMM): PVd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2021 (TOURMALINE-MM1): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2014 (PANORAMA-1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2016 (PANORAMA 1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2013 (MM-003): Pd vs GC</t>
+  </si>
+  <si>
+    <t>Siegel 2018 (ASPIRE): KRd vs Rd</t>
+  </si>
+  <si>
+    <t>Usamani 2022 (CANDOR): DKd vs Kd</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;=3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;=2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Lower 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>Upper 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t>Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      AT 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t>Data Extraction Errors</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Study: Treatment 1 vs Treatment 2</t>
+  </si>
+  <si>
+    <t>Attal 2019 (ICARIA-MM): IsPd vs Pd</t>
+  </si>
+  <si>
+    <t>Bahlis 2020 (POLLUX): DRd vs Rd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2013 (VANTAGE 088): VorV vs V</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2016 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-3): EPd vs Pd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2021 (APOLLO): DPd vs Pd</t>
+  </si>
+  <si>
+    <t>Hou 2017 (China Cont.): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>Jakubowiak 2016 (NCT01478048): EVd vs Vd</t>
+  </si>
+  <si>
+    <t>Kumar 2020 (BELLINI): VeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Lonial 2015 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Lu 2021 (LEPUS): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Mateos 2020 (CASTOR): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Moreau 2021 (IKEMA): IsKd vs Kd</t>
+  </si>
+  <si>
+    <t>Orlowski 2007 (NCT00103506): V vs DoxV</t>
+  </si>
+  <si>
+    <t>Orlowski 2016 (NCT00103506): V vs DoxV</t>
+  </si>
+  <si>
+    <t>Orlowski 2019 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2019 (OPTIMISMM): PVd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2021 (TOURMALINE-MM1): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2016 (PANORAMA 1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>Stewart 2015 (ASPIRE): KRd vs Rd</t>
+  </si>
+  <si>
+    <t>Usmani 2022 (CANDOR): DKd vs Kd</t>
+  </si>
+  <si>
+    <t>refract</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Ref. to R and a PI</t>
+  </si>
+  <si>
+    <t>Not ref. to R and a PI</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous R or T use</t>
+  </si>
+  <si>
+    <t>No previous R or T use</t>
+  </si>
+  <si>
+    <t>Previous R or T use</t>
+  </si>
+  <si>
+    <t>No previous R or T use</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Refractory to T</t>
+  </si>
+  <si>
+    <t>Not refractory to T</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No previous IMiD use</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Lower 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>Upper 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0230</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .       Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t>Data Extraction Errors</t>
   </si>
   <si>
     <t/>
@@ -113608,42 +114688,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>37488</v>
+        <v>37848</v>
       </c>
       <c r="B1" t="s">
-        <v>37512</v>
+        <v>37872</v>
       </c>
       <c r="C1" t="s">
-        <v>37576</v>
+        <v>37936</v>
       </c>
       <c r="D1" t="s">
-        <v>37592</v>
+        <v>37952</v>
       </c>
       <c r="E1" t="s">
-        <v>37593</v>
+        <v>37953</v>
       </c>
       <c r="F1" t="s">
-        <v>37594</v>
+        <v>37954</v>
       </c>
       <c r="G1" t="s">
-        <v>37595</v>
+        <v>37955</v>
       </c>
       <c r="H1" t="s">
-        <v>37596</v>
+        <v>37956</v>
       </c>
       <c r="I1" t="s">
-        <v>37620</v>
+        <v>37980</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>37489</v>
+        <v>37849</v>
       </c>
       <c r="B2" t="s">
-        <v>37513</v>
+        <v>37873</v>
       </c>
       <c r="C2" t="s">
-        <v>37577</v>
+        <v>37937</v>
       </c>
       <c r="D2" s="1">
         <v>0.5899999737739563</v>
@@ -113656,21 +114736,21 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" t="s">
-        <v>37597</v>
+        <v>37957</v>
       </c>
       <c r="I2" t="s">
-        <v>37621</v>
+        <v>37981</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>37489</v>
+        <v>37849</v>
       </c>
       <c r="B3" t="s">
-        <v>37514</v>
+        <v>37874</v>
       </c>
       <c r="C3" t="s">
-        <v>37577</v>
+        <v>37937</v>
       </c>
       <c r="D3" s="1">
         <v>0.5899999737739563</v>
@@ -113683,21 +114763,21 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" t="s">
-        <v>37597</v>
+        <v>37957</v>
       </c>
       <c r="I3" t="s">
-        <v>37622</v>
+        <v>37982</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>37490</v>
+        <v>37850</v>
       </c>
       <c r="B4" t="s">
-        <v>37515</v>
+        <v>37875</v>
       </c>
       <c r="C4" t="s">
-        <v>37577</v>
+        <v>37937</v>
       </c>
       <c r="D4" s="1">
         <v>0.41999998688697815</v>
@@ -113710,21 +114790,21 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" t="s">
-        <v>37598</v>
+        <v>37958</v>
       </c>
       <c r="I4" t="s">
-        <v>37623</v>
+        <v>37983</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>37490</v>
+        <v>37850</v>
       </c>
       <c r="B5" t="s">
-        <v>37516</v>
+        <v>37876</v>
       </c>
       <c r="C5" t="s">
-        <v>37577</v>
+        <v>37937</v>
       </c>
       <c r="D5" s="1">
         <v>0.38999998569488525</v>
@@ -113737,21 +114817,21 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" t="s">
-        <v>37598</v>
+        <v>37958</v>
       </c>
       <c r="I5" t="s">
-        <v>37624</v>
+        <v>37984</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>37490</v>
+        <v>37850</v>
       </c>
       <c r="B6" t="s">
-        <v>37517</v>
+        <v>37877</v>
       </c>
       <c r="C6" t="s">
-        <v>37577</v>
+        <v>37937</v>
       </c>
       <c r="D6" s="1">
         <v>0.47999998927116394</v>
@@ -113764,21 +114844,21 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" t="s">
-        <v>37598</v>
+        <v>37958</v>
       </c>
       <c r="I6" t="s">
-        <v>37625</v>
+        <v>37985</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>37490</v>
+        <v>37850</v>
       </c>
       <c r="B7" t="s">
-        <v>37518</v>
+        <v>37878</v>
       </c>
       <c r="C7" t="s">
-        <v>37577</v>
+        <v>37937</v>
       </c>
       <c r="D7" s="1">
         <v>0.74000000953674316</v>
@@ -113791,21 +114871,21 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" t="s">
-        <v>37598</v>
+        <v>37958</v>
       </c>
       <c r="I7" t="s">
-        <v>37626</v>
+        <v>37986</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>37491</v>
+        <v>37851</v>
       </c>
       <c r="B8" t="s">
-        <v>37519</v>
+        <v>37879</v>
       </c>
       <c r="C8" t="s">
-        <v>37577</v>
+        <v>37937</v>
       </c>
       <c r="D8" s="1">
         <v>0.68699997663497925</v>
@@ -113820,21 +114900,21 @@
         <v>0.015200000256299973</v>
       </c>
       <c r="H8" t="s">
-        <v>37599</v>
+        <v>37959</v>
       </c>
       <c r="I8" t="s">
-        <v>37627</v>
+        <v>37987</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>37491</v>
+        <v>37851</v>
       </c>
       <c r="B9" t="s">
-        <v>37520</v>
+        <v>37880</v>
       </c>
       <c r="C9" t="s">
-        <v>37577</v>
+        <v>37937</v>
       </c>
       <c r="D9" s="1">
         <v>0.91600000858306885</v>
@@ -113849,21 +114929,21 @@
         <v>0.48710000514984131</v>
       </c>
       <c r="H9" t="s">
-        <v>37600</v>
+        <v>37960</v>
       </c>
       <c r="I9" t="s">
-        <v>37628</v>
+        <v>37988</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>37492</v>
+        <v>37852</v>
       </c>
       <c r="B10" t="s">
-        <v>37521</v>
+        <v>37881</v>
       </c>
       <c r="C10" t="s">
-        <v>37577</v>
+        <v>37937</v>
       </c>
       <c r="D10" s="1">
         <v>0.44999998807907104</v>
@@ -113876,21 +114956,21 @@
       </c>
       <c r="G10" s="1"/>
       <c r="H10" t="s">
-        <v>37601</v>
+        <v>37961</v>
       </c>
       <c r="I10" t="s">
-        <v>37629</v>
+        <v>37989</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>37492</v>
+        <v>37852</v>
       </c>
       <c r="B11" t="s">
-        <v>37522</v>
+        <v>37882</v>
       </c>
       <c r="C11" t="s">
-        <v>37577</v>
+        <v>37937</v>
       </c>
       <c r="D11" s="1">
         <v>0.60000002384185791</v>
@@ -113903,21 +114983,21 @@
       </c>
       <c r="G11" s="1"/>
       <c r="H11" t="s">
-        <v>37601</v>
+        <v>37961</v>
       </c>
       <c r="I11" t="s">
-        <v>37630</v>
+        <v>37990</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>37493</v>
+        <v>37853</v>
       </c>
       <c r="B12" t="s">
-        <v>37522</v>
+        <v>37882</v>
       </c>
       <c r="C12" t="s">
-        <v>37577</v>
+        <v>37937</v>
       </c>
       <c r="D12" s="1">
         <v>0.55000001192092896</v>
@@ -113930,21 +115010,21 @@
       </c>
       <c r="G12" s="1"/>
       <c r="H12" t="s">
-        <v>37602</v>
+        <v>37962</v>
       </c>
       <c r="I12" t="s">
-        <v>37631</v>
+        <v>37991</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>37493</v>
+        <v>37853</v>
       </c>
       <c r="B13" t="s">
-        <v>37523</v>
+        <v>37883</v>
       </c>
       <c r="C13" t="s">
-        <v>37577</v>
+        <v>37937</v>
       </c>
       <c r="D13" s="1">
         <v>0.50999999046325684</v>
@@ -113957,21 +115037,21 @@
       </c>
       <c r="G13" s="1"/>
       <c r="H13" t="s">
-        <v>37602</v>
+        <v>37962</v>
       </c>
       <c r="I13" t="s">
-        <v>37632</v>
+        <v>37992</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>37494</v>
+        <v>37854</v>
       </c>
       <c r="B14" t="s">
-        <v>37524</v>
+        <v>37884</v>
       </c>
       <c r="C14" t="s">
-        <v>37577</v>
+        <v>37937</v>
       </c>
       <c r="D14" s="1">
         <v>0.76999998092651367</v>
@@ -113984,21 +115064,21 @@
       </c>
       <c r="G14" s="1"/>
       <c r="H14" t="s">
-        <v>37603</v>
+        <v>37963</v>
       </c>
       <c r="I14" t="s">
-        <v>37633</v>
+        <v>37993</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>37494</v>
+        <v>37854</v>
       </c>
       <c r="B15" t="s">
-        <v>37525</v>
+        <v>37885</v>
       </c>
       <c r="C15" t="s">
-        <v>37577</v>
+        <v>37937</v>
       </c>
       <c r="D15" s="1">
         <v>0.68000000715255737</v>
@@ -114011,21 +115091,21 @@
       </c>
       <c r="G15" s="1"/>
       <c r="H15" t="s">
-        <v>37603</v>
+        <v>37963</v>
       </c>
       <c r="I15" t="s">
-        <v>37634</v>
+        <v>37994</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>37495</v>
+        <v>37855</v>
       </c>
       <c r="B16" t="s">
-        <v>37526</v>
+        <v>37886</v>
       </c>
       <c r="C16" t="s">
-        <v>37578</v>
+        <v>37938</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -114038,21 +115118,21 @@
       </c>
       <c r="G16" s="1"/>
       <c r="H16" t="s">
-        <v>37603</v>
+        <v>37963</v>
       </c>
       <c r="I16" t="s">
-        <v>37635</v>
+        <v>37995</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>37495</v>
+        <v>37855</v>
       </c>
       <c r="B17" t="s">
-        <v>37527</v>
+        <v>37887</v>
       </c>
       <c r="C17" t="s">
-        <v>37578</v>
+        <v>37938</v>
       </c>
       <c r="D17" s="1">
         <v>0.70999997854232788</v>
@@ -114065,21 +115145,21 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" t="s">
-        <v>37603</v>
+        <v>37963</v>
       </c>
       <c r="I17" t="s">
-        <v>37636</v>
+        <v>37996</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>37496</v>
+        <v>37856</v>
       </c>
       <c r="B18" t="s">
-        <v>37528</v>
+        <v>37888</v>
       </c>
       <c r="C18" t="s">
-        <v>37579</v>
+        <v>37939</v>
       </c>
       <c r="D18" s="1">
         <v>0.69999998807907104</v>
@@ -114092,21 +115172,21 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18" t="s">
-        <v>37604</v>
+        <v>37964</v>
       </c>
       <c r="I18" t="s">
-        <v>37637</v>
+        <v>37997</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>37496</v>
+        <v>37856</v>
       </c>
       <c r="B19" t="s">
-        <v>37529</v>
+        <v>37889</v>
       </c>
       <c r="C19" t="s">
-        <v>37579</v>
+        <v>37939</v>
       </c>
       <c r="D19" s="1">
         <v>0.6600000262260437</v>
@@ -114119,21 +115199,21 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" t="s">
-        <v>37604</v>
+        <v>37964</v>
       </c>
       <c r="I19" t="s">
-        <v>37638</v>
+        <v>37998</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>37496</v>
+        <v>37856</v>
       </c>
       <c r="B20" t="s">
-        <v>37530</v>
+        <v>37890</v>
       </c>
       <c r="C20" t="s">
-        <v>37579</v>
+        <v>37939</v>
       </c>
       <c r="D20" s="1">
         <v>0.40000000596046448</v>
@@ -114146,21 +115226,21 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" t="s">
-        <v>37604</v>
+        <v>37964</v>
       </c>
       <c r="I20" t="s">
-        <v>37639</v>
+        <v>37999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>37497</v>
+        <v>37857</v>
       </c>
       <c r="B21" t="s">
-        <v>37531</v>
+        <v>37891</v>
       </c>
       <c r="C21" t="s">
-        <v>37579</v>
+        <v>37939</v>
       </c>
       <c r="D21" s="1">
         <v>0.62999999523162842</v>
@@ -114173,21 +115253,21 @@
       </c>
       <c r="G21" s="1"/>
       <c r="H21" t="s">
-        <v>37605</v>
+        <v>37965</v>
       </c>
       <c r="I21" t="s">
-        <v>37640</v>
+        <v>38000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>37497</v>
+        <v>37857</v>
       </c>
       <c r="B22" t="s">
-        <v>37532</v>
+        <v>37892</v>
       </c>
       <c r="C22" t="s">
-        <v>37579</v>
+        <v>37939</v>
       </c>
       <c r="D22" s="1">
         <v>0.64999997615814209</v>
@@ -114200,21 +115280,21 @@
       </c>
       <c r="G22" s="1"/>
       <c r="H22" t="s">
-        <v>37605</v>
+        <v>37965</v>
       </c>
       <c r="I22" t="s">
-        <v>37641</v>
+        <v>38001</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>37497</v>
+        <v>37857</v>
       </c>
       <c r="B23" t="s">
-        <v>37533</v>
+        <v>37893</v>
       </c>
       <c r="C23" t="s">
-        <v>37579</v>
+        <v>37939</v>
       </c>
       <c r="D23" s="1">
         <v>0.81999999284744263</v>
@@ -114227,21 +115307,21 @@
       </c>
       <c r="G23" s="1"/>
       <c r="H23" t="s">
-        <v>37605</v>
+        <v>37965</v>
       </c>
       <c r="I23" t="s">
-        <v>37642</v>
+        <v>38002</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>37498</v>
+        <v>37858</v>
       </c>
       <c r="B24" t="s">
-        <v>37534</v>
+        <v>37894</v>
       </c>
       <c r="C24" t="s">
-        <v>37579</v>
+        <v>37939</v>
       </c>
       <c r="D24" s="1">
         <v>0.84700000286102295</v>
@@ -114254,21 +115334,21 @@
       </c>
       <c r="G24" s="1"/>
       <c r="H24" t="s">
-        <v>37606</v>
+        <v>37966</v>
       </c>
       <c r="I24" t="s">
-        <v>37643</v>
+        <v>38003</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>37498</v>
+        <v>37858</v>
       </c>
       <c r="B25" t="s">
-        <v>37535</v>
+        <v>37895</v>
       </c>
       <c r="C25" t="s">
-        <v>37579</v>
+        <v>37939</v>
       </c>
       <c r="D25" s="1">
         <v>0.37000000476837158</v>
@@ -114281,21 +115361,21 @@
       </c>
       <c r="G25" s="1"/>
       <c r="H25" t="s">
-        <v>37606</v>
+        <v>37966</v>
       </c>
       <c r="I25" t="s">
-        <v>37644</v>
+        <v>38004</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>37498</v>
+        <v>37858</v>
       </c>
       <c r="B26" t="s">
-        <v>37536</v>
+        <v>37896</v>
       </c>
       <c r="C26" t="s">
-        <v>37579</v>
+        <v>37939</v>
       </c>
       <c r="D26" s="1">
         <v>0.70200002193450928</v>
@@ -114308,21 +115388,21 @@
       </c>
       <c r="G26" s="1"/>
       <c r="H26" t="s">
-        <v>37606</v>
+        <v>37966</v>
       </c>
       <c r="I26" t="s">
-        <v>37645</v>
+        <v>38005</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>37498</v>
+        <v>37858</v>
       </c>
       <c r="B27" t="s">
-        <v>37537</v>
+        <v>37897</v>
       </c>
       <c r="C27" t="s">
-        <v>37580</v>
+        <v>37940</v>
       </c>
       <c r="D27" s="1">
         <v>0.52100002765655518</v>
@@ -114335,21 +115415,21 @@
       </c>
       <c r="G27" s="1"/>
       <c r="H27" t="s">
-        <v>37607</v>
+        <v>37967</v>
       </c>
       <c r="I27" t="s">
-        <v>37646</v>
+        <v>38006</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>37498</v>
+        <v>37858</v>
       </c>
       <c r="B28" t="s">
-        <v>37538</v>
+        <v>37898</v>
       </c>
       <c r="C28" t="s">
-        <v>37580</v>
+        <v>37940</v>
       </c>
       <c r="D28" s="1">
         <v>0.38600000739097595</v>
@@ -114362,21 +115442,21 @@
       </c>
       <c r="G28" s="1"/>
       <c r="H28" t="s">
-        <v>37607</v>
+        <v>37967</v>
       </c>
       <c r="I28" t="s">
-        <v>37647</v>
+        <v>38007</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>37498</v>
+        <v>37858</v>
       </c>
       <c r="B29" t="s">
-        <v>37539</v>
+        <v>37899</v>
       </c>
       <c r="C29" t="s">
-        <v>37580</v>
+        <v>37940</v>
       </c>
       <c r="D29" s="1">
         <v>0.335999995470047</v>
@@ -114389,75 +115469,75 @@
       </c>
       <c r="G29" s="1"/>
       <c r="H29" t="s">
-        <v>37607</v>
+        <v>37967</v>
       </c>
       <c r="I29" t="s">
-        <v>37648</v>
+        <v>38008</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>37499</v>
+        <v>37859</v>
       </c>
       <c r="B30" t="s">
-        <v>37540</v>
+        <v>37900</v>
       </c>
       <c r="C30" t="s">
-        <v>37581</v>
+        <v>37941</v>
       </c>
       <c r="D30" s="1">
-        <v>0.74000000953674316</v>
+        <v>0.68000000715255737</v>
       </c>
       <c r="E30" s="1">
-        <v>0.47999998927116394</v>
+        <v>0.41999998688697815</v>
       </c>
       <c r="F30" s="1">
-        <v>1.1299999952316284</v>
+        <v>1.0900000333786011</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" t="s">
-        <v>37608</v>
+        <v>37968</v>
       </c>
       <c r="I30" t="s">
-        <v>37649</v>
+        <v>38009</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>37499</v>
+        <v>37859</v>
       </c>
       <c r="B31" t="s">
-        <v>37541</v>
+        <v>37901</v>
       </c>
       <c r="C31" t="s">
-        <v>37581</v>
+        <v>37941</v>
       </c>
       <c r="D31" s="1">
-        <v>0.75999999046325684</v>
+        <v>0.72000002861022949</v>
       </c>
       <c r="E31" s="1">
-        <v>0.43000000715255737</v>
+        <v>0.38999998569488525</v>
       </c>
       <c r="F31" s="1">
         <v>1.3500000238418579</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" t="s">
-        <v>37608</v>
+        <v>37968</v>
       </c>
       <c r="I31" t="s">
-        <v>37650</v>
+        <v>38010</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>37500</v>
+        <v>37860</v>
       </c>
       <c r="B32" t="s">
-        <v>37542</v>
+        <v>37902</v>
       </c>
       <c r="C32" t="s">
-        <v>37581</v>
+        <v>37941</v>
       </c>
       <c r="D32" s="1">
         <v>0.75</v>
@@ -114470,21 +115550,21 @@
       </c>
       <c r="G32" s="1"/>
       <c r="H32" t="s">
-        <v>37609</v>
+        <v>37969</v>
       </c>
       <c r="I32" t="s">
-        <v>37651</v>
+        <v>38011</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>37500</v>
+        <v>37860</v>
       </c>
       <c r="B33" t="s">
-        <v>37543</v>
+        <v>37903</v>
       </c>
       <c r="C33" t="s">
-        <v>37581</v>
+        <v>37941</v>
       </c>
       <c r="D33" s="1">
         <v>0.54000002145767212</v>
@@ -114497,21 +115577,21 @@
       </c>
       <c r="G33" s="1"/>
       <c r="H33" t="s">
-        <v>37609</v>
+        <v>37969</v>
       </c>
       <c r="I33" t="s">
-        <v>37652</v>
+        <v>38012</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>37500</v>
+        <v>37860</v>
       </c>
       <c r="B34" t="s">
-        <v>37544</v>
+        <v>37904</v>
       </c>
       <c r="C34" t="s">
-        <v>37582</v>
+        <v>37942</v>
       </c>
       <c r="D34" s="1">
         <v>1.6699999570846558</v>
@@ -114524,21 +115604,21 @@
       </c>
       <c r="G34" s="1"/>
       <c r="H34" t="s">
-        <v>37610</v>
+        <v>37970</v>
       </c>
       <c r="I34" t="s">
-        <v>37653</v>
+        <v>38013</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>37500</v>
+        <v>37860</v>
       </c>
       <c r="B35" t="s">
-        <v>37545</v>
+        <v>37905</v>
       </c>
       <c r="C35" t="s">
-        <v>37582</v>
+        <v>37942</v>
       </c>
       <c r="D35" s="1">
         <v>2.3299999237060547</v>
@@ -114551,21 +115631,21 @@
       </c>
       <c r="G35" s="1"/>
       <c r="H35" t="s">
-        <v>37610</v>
+        <v>37970</v>
       </c>
       <c r="I35" t="s">
-        <v>37654</v>
+        <v>38014</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>37501</v>
+        <v>37861</v>
       </c>
       <c r="B36" t="s">
-        <v>37546</v>
+        <v>37906</v>
       </c>
       <c r="C36" t="s">
-        <v>37583</v>
+        <v>37943</v>
       </c>
       <c r="D36" s="1">
         <v>0.15999999642372131</v>
@@ -114578,21 +115658,21 @@
       </c>
       <c r="G36" s="1"/>
       <c r="H36" t="s">
-        <v>37611</v>
+        <v>37971</v>
       </c>
       <c r="I36" t="s">
-        <v>37655</v>
+        <v>38015</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>37501</v>
+        <v>37861</v>
       </c>
       <c r="B37" t="s">
-        <v>37547</v>
+        <v>37907</v>
       </c>
       <c r="C37" t="s">
-        <v>37583</v>
+        <v>37943</v>
       </c>
       <c r="D37" s="1">
         <v>0.51999998092651367</v>
@@ -114605,21 +115685,21 @@
       </c>
       <c r="G37" s="1"/>
       <c r="H37" t="s">
-        <v>37611</v>
+        <v>37971</v>
       </c>
       <c r="I37" t="s">
-        <v>37656</v>
+        <v>38016</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>37501</v>
+        <v>37861</v>
       </c>
       <c r="B38" t="s">
-        <v>37548</v>
+        <v>37908</v>
       </c>
       <c r="C38" t="s">
-        <v>37583</v>
+        <v>37943</v>
       </c>
       <c r="D38" s="1">
         <v>0.62999999523162842</v>
@@ -114632,21 +115712,21 @@
       </c>
       <c r="G38" s="1"/>
       <c r="H38" t="s">
-        <v>37611</v>
+        <v>37971</v>
       </c>
       <c r="I38" t="s">
-        <v>37657</v>
+        <v>38017</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>37501</v>
+        <v>37861</v>
       </c>
       <c r="B39" t="s">
-        <v>37549</v>
+        <v>37909</v>
       </c>
       <c r="C39" t="s">
-        <v>37583</v>
+        <v>37943</v>
       </c>
       <c r="D39" s="1">
         <v>0.25999999046325684</v>
@@ -114659,21 +115739,21 @@
       </c>
       <c r="G39" s="1"/>
       <c r="H39" t="s">
-        <v>37611</v>
+        <v>37971</v>
       </c>
       <c r="I39" t="s">
-        <v>37658</v>
+        <v>38018</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>37502</v>
+        <v>37862</v>
       </c>
       <c r="B40" t="s">
-        <v>37550</v>
+        <v>37910</v>
       </c>
       <c r="C40" t="s">
-        <v>37583</v>
+        <v>37943</v>
       </c>
       <c r="D40" s="1">
         <v>0.2199999988079071</v>
@@ -114686,21 +115766,21 @@
       </c>
       <c r="G40" s="1"/>
       <c r="H40" t="s">
-        <v>37611</v>
+        <v>37971</v>
       </c>
       <c r="I40" t="s">
-        <v>37659</v>
+        <v>38019</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>37502</v>
+        <v>37862</v>
       </c>
       <c r="B41" t="s">
-        <v>37551</v>
+        <v>37911</v>
       </c>
       <c r="C41" t="s">
-        <v>37583</v>
+        <v>37943</v>
       </c>
       <c r="D41" s="1">
         <v>0.46000000834465027</v>
@@ -114713,21 +115793,21 @@
       </c>
       <c r="G41" s="1"/>
       <c r="H41" t="s">
-        <v>37611</v>
+        <v>37971</v>
       </c>
       <c r="I41" t="s">
-        <v>37660</v>
+        <v>38020</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>37502</v>
+        <v>37862</v>
       </c>
       <c r="B42" t="s">
-        <v>37552</v>
+        <v>37912</v>
       </c>
       <c r="C42" t="s">
-        <v>37583</v>
+        <v>37943</v>
       </c>
       <c r="D42" s="1">
         <v>0.60000002384185791</v>
@@ -114740,21 +115820,21 @@
       </c>
       <c r="G42" s="1"/>
       <c r="H42" t="s">
-        <v>37611</v>
+        <v>37971</v>
       </c>
       <c r="I42" t="s">
-        <v>37661</v>
+        <v>38021</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>37502</v>
+        <v>37862</v>
       </c>
       <c r="B43" t="s">
-        <v>37553</v>
+        <v>37913</v>
       </c>
       <c r="C43" t="s">
-        <v>37583</v>
+        <v>37943</v>
       </c>
       <c r="D43" s="1">
         <v>0.37000000476837158</v>
@@ -114767,21 +115847,21 @@
       </c>
       <c r="G43" s="1"/>
       <c r="H43" t="s">
-        <v>37611</v>
+        <v>37971</v>
       </c>
       <c r="I43" t="s">
-        <v>37662</v>
+        <v>38022</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>37503</v>
+        <v>37863</v>
       </c>
       <c r="B44" t="s">
-        <v>37554</v>
+        <v>37914</v>
       </c>
       <c r="C44" t="s">
-        <v>37583</v>
+        <v>37943</v>
       </c>
       <c r="D44" s="1">
         <v>0.5899999737739563</v>
@@ -114794,21 +115874,21 @@
       </c>
       <c r="G44" s="1"/>
       <c r="H44" t="s">
-        <v>37612</v>
+        <v>37972</v>
       </c>
       <c r="I44" t="s">
-        <v>37663</v>
+        <v>38023</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>37503</v>
+        <v>37863</v>
       </c>
       <c r="B45" t="s">
-        <v>37555</v>
+        <v>37915</v>
       </c>
       <c r="C45" t="s">
-        <v>37583</v>
+        <v>37943</v>
       </c>
       <c r="D45" s="1">
         <v>0.47999998927116394</v>
@@ -114821,21 +115901,21 @@
       </c>
       <c r="G45" s="1"/>
       <c r="H45" t="s">
-        <v>37612</v>
+        <v>37972</v>
       </c>
       <c r="I45" t="s">
-        <v>37664</v>
+        <v>38024</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>37504</v>
+        <v>37864</v>
       </c>
       <c r="B46" t="s">
-        <v>37556</v>
+        <v>37916</v>
       </c>
       <c r="C46" t="s">
-        <v>37584</v>
+        <v>37944</v>
       </c>
       <c r="D46" s="1">
         <v>0.77100002765655518</v>
@@ -114848,21 +115928,21 @@
       </c>
       <c r="G46" s="1"/>
       <c r="H46" t="s">
-        <v>37612</v>
+        <v>37972</v>
       </c>
       <c r="I46" t="s">
-        <v>37665</v>
+        <v>38025</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>37504</v>
+        <v>37864</v>
       </c>
       <c r="B47" t="s">
-        <v>37557</v>
+        <v>37917</v>
       </c>
       <c r="C47" t="s">
-        <v>37584</v>
+        <v>37944</v>
       </c>
       <c r="D47" s="1">
         <v>0.75199997425079346</v>
@@ -114875,21 +115955,21 @@
       </c>
       <c r="G47" s="1"/>
       <c r="H47" t="s">
-        <v>37612</v>
+        <v>37972</v>
       </c>
       <c r="I47" t="s">
-        <v>37666</v>
+        <v>38026</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>37505</v>
+        <v>37865</v>
       </c>
       <c r="B48" t="s">
-        <v>37558</v>
+        <v>37918</v>
       </c>
       <c r="C48" t="s">
-        <v>37585</v>
+        <v>37945</v>
       </c>
       <c r="D48" s="1">
         <v>0.54000002145767212</v>
@@ -114902,21 +115982,21 @@
       </c>
       <c r="G48" s="1"/>
       <c r="H48" t="s">
-        <v>37612</v>
+        <v>37972</v>
       </c>
       <c r="I48" t="s">
-        <v>37667</v>
+        <v>38027</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>37505</v>
+        <v>37865</v>
       </c>
       <c r="B49" t="s">
-        <v>37559</v>
+        <v>37919</v>
       </c>
       <c r="C49" t="s">
-        <v>37585</v>
+        <v>37945</v>
       </c>
       <c r="D49" s="1">
         <v>0.67000001668930054</v>
@@ -114929,21 +116009,21 @@
       </c>
       <c r="G49" s="1"/>
       <c r="H49" t="s">
-        <v>37612</v>
+        <v>37972</v>
       </c>
       <c r="I49" t="s">
-        <v>37668</v>
+        <v>38028</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>37505</v>
+        <v>37865</v>
       </c>
       <c r="B50" t="s">
-        <v>37560</v>
+        <v>37920</v>
       </c>
       <c r="C50" t="s">
-        <v>37585</v>
+        <v>37945</v>
       </c>
       <c r="D50" s="1">
         <v>0.60000002384185791</v>
@@ -114956,21 +116036,21 @@
       </c>
       <c r="G50" s="1"/>
       <c r="H50" t="s">
-        <v>37612</v>
+        <v>37972</v>
       </c>
       <c r="I50" t="s">
-        <v>37669</v>
+        <v>38029</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>37506</v>
+        <v>37866</v>
       </c>
       <c r="B51" t="s">
-        <v>37561</v>
+        <v>37921</v>
       </c>
       <c r="C51" t="s">
-        <v>37586</v>
+        <v>37946</v>
       </c>
       <c r="D51" s="1">
         <v>0.97600001096725464</v>
@@ -114983,21 +116063,21 @@
       </c>
       <c r="G51" s="1"/>
       <c r="H51" t="s">
-        <v>37613</v>
+        <v>37973</v>
       </c>
       <c r="I51" t="s">
-        <v>37670</v>
+        <v>38030</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>37506</v>
+        <v>37866</v>
       </c>
       <c r="B52" t="s">
-        <v>37562</v>
+        <v>37922</v>
       </c>
       <c r="C52" t="s">
-        <v>37586</v>
+        <v>37946</v>
       </c>
       <c r="D52" s="1">
         <v>0.92599999904632568</v>
@@ -115010,21 +116090,21 @@
       </c>
       <c r="G52" s="1"/>
       <c r="H52" t="s">
-        <v>37613</v>
+        <v>37973</v>
       </c>
       <c r="I52" t="s">
-        <v>37671</v>
+        <v>38031</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>37506</v>
+        <v>37866</v>
       </c>
       <c r="B53" t="s">
-        <v>37563</v>
+        <v>37923</v>
       </c>
       <c r="C53" t="s">
-        <v>37586</v>
+        <v>37946</v>
       </c>
       <c r="D53" s="1">
         <v>0.88300001621246338</v>
@@ -115037,21 +116117,21 @@
       </c>
       <c r="G53" s="1"/>
       <c r="H53" t="s">
-        <v>37613</v>
+        <v>37973</v>
       </c>
       <c r="I53" t="s">
-        <v>37672</v>
+        <v>38032</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>37507</v>
+        <v>37867</v>
       </c>
       <c r="B54" t="s">
-        <v>37564</v>
+        <v>37924</v>
       </c>
       <c r="C54" t="s">
-        <v>37587</v>
+        <v>37947</v>
       </c>
       <c r="D54" s="1">
         <v>0.6600000262260437</v>
@@ -115064,21 +116144,21 @@
       </c>
       <c r="G54" s="1"/>
       <c r="H54" t="s">
-        <v>37614</v>
+        <v>37974</v>
       </c>
       <c r="I54" t="s">
-        <v>37673</v>
+        <v>38033</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>37507</v>
+        <v>37867</v>
       </c>
       <c r="B55" t="s">
-        <v>37565</v>
+        <v>37925</v>
       </c>
       <c r="C55" t="s">
-        <v>37587</v>
+        <v>37947</v>
       </c>
       <c r="D55" s="1">
         <v>0.63999998569488525</v>
@@ -115091,21 +116171,21 @@
       </c>
       <c r="G55" s="1"/>
       <c r="H55" t="s">
-        <v>37614</v>
+        <v>37974</v>
       </c>
       <c r="I55" t="s">
-        <v>37674</v>
+        <v>38034</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>37508</v>
+        <v>37868</v>
       </c>
       <c r="B56" t="s">
-        <v>37566</v>
+        <v>37926</v>
       </c>
       <c r="C56" t="s">
-        <v>37588</v>
+        <v>37948</v>
       </c>
       <c r="D56" s="1">
         <v>0.89999997615814209</v>
@@ -115118,21 +116198,21 @@
       </c>
       <c r="G56" s="1"/>
       <c r="H56" t="s">
-        <v>37615</v>
+        <v>37975</v>
       </c>
       <c r="I56" t="s">
-        <v>37675</v>
+        <v>38035</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>37508</v>
+        <v>37868</v>
       </c>
       <c r="B57" t="s">
-        <v>37567</v>
+        <v>37927</v>
       </c>
       <c r="C57" t="s">
-        <v>37588</v>
+        <v>37948</v>
       </c>
       <c r="D57" s="1">
         <v>0.95999997854232788</v>
@@ -115145,21 +116225,21 @@
       </c>
       <c r="G57" s="1"/>
       <c r="H57" t="s">
-        <v>37615</v>
+        <v>37975</v>
       </c>
       <c r="I57" t="s">
-        <v>37676</v>
+        <v>38036</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>37509</v>
+        <v>37869</v>
       </c>
       <c r="B58" t="s">
-        <v>37568</v>
+        <v>37928</v>
       </c>
       <c r="C58" t="s">
-        <v>37589</v>
+        <v>37949</v>
       </c>
       <c r="D58" s="1">
         <v>0.4699999988079071</v>
@@ -115172,21 +116252,21 @@
       </c>
       <c r="G58" s="1"/>
       <c r="H58" t="s">
-        <v>37616</v>
+        <v>37976</v>
       </c>
       <c r="I58" t="s">
-        <v>37677</v>
+        <v>38037</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>37509</v>
+        <v>37869</v>
       </c>
       <c r="B59" t="s">
-        <v>37569</v>
+        <v>37929</v>
       </c>
       <c r="C59" t="s">
-        <v>37589</v>
+        <v>37949</v>
       </c>
       <c r="D59" s="1">
         <v>0.47999998927116394</v>
@@ -115199,21 +116279,21 @@
       </c>
       <c r="G59" s="1"/>
       <c r="H59" t="s">
-        <v>37616</v>
+        <v>37976</v>
       </c>
       <c r="I59" t="s">
-        <v>37678</v>
+        <v>38038</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>37509</v>
+        <v>37869</v>
       </c>
       <c r="B60" t="s">
-        <v>37570</v>
+        <v>37930</v>
       </c>
       <c r="C60" t="s">
-        <v>37590</v>
+        <v>37950</v>
       </c>
       <c r="D60" s="1">
         <v>0.43999999761581421</v>
@@ -115226,21 +116306,21 @@
       </c>
       <c r="G60" s="1"/>
       <c r="H60" t="s">
-        <v>37617</v>
+        <v>37977</v>
       </c>
       <c r="I60" t="s">
-        <v>37679</v>
+        <v>38039</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>37509</v>
+        <v>37869</v>
       </c>
       <c r="B61" t="s">
-        <v>37571</v>
+        <v>37931</v>
       </c>
       <c r="C61" t="s">
-        <v>37590</v>
+        <v>37950</v>
       </c>
       <c r="D61" s="1">
         <v>0.75999999046325684</v>
@@ -115253,21 +116333,21 @@
       </c>
       <c r="G61" s="1"/>
       <c r="H61" t="s">
-        <v>37617</v>
+        <v>37977</v>
       </c>
       <c r="I61" t="s">
-        <v>37680</v>
+        <v>38040</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>37510</v>
+        <v>37870</v>
       </c>
       <c r="B62" t="s">
-        <v>37572</v>
+        <v>37932</v>
       </c>
       <c r="C62" t="s">
-        <v>37590</v>
+        <v>37950</v>
       </c>
       <c r="D62" s="1">
         <v>0.81000000238418579</v>
@@ -115280,21 +116360,21 @@
       </c>
       <c r="G62" s="1"/>
       <c r="H62" t="s">
-        <v>37618</v>
+        <v>37978</v>
       </c>
       <c r="I62" t="s">
-        <v>37681</v>
+        <v>38041</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>37510</v>
+        <v>37870</v>
       </c>
       <c r="B63" t="s">
-        <v>37573</v>
+        <v>37933</v>
       </c>
       <c r="C63" t="s">
-        <v>37590</v>
+        <v>37950</v>
       </c>
       <c r="D63" s="1">
         <v>0.79000002145767212</v>
@@ -115307,21 +116387,21 @@
       </c>
       <c r="G63" s="1"/>
       <c r="H63" t="s">
-        <v>37618</v>
+        <v>37978</v>
       </c>
       <c r="I63" t="s">
-        <v>37682</v>
+        <v>38042</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>37511</v>
+        <v>37871</v>
       </c>
       <c r="B64" t="s">
-        <v>37574</v>
+        <v>37934</v>
       </c>
       <c r="C64" t="s">
-        <v>37591</v>
+        <v>37951</v>
       </c>
       <c r="D64" s="1">
         <v>0.6600000262260437</v>
@@ -115334,21 +116414,21 @@
       </c>
       <c r="G64" s="1"/>
       <c r="H64" t="s">
-        <v>37619</v>
+        <v>37979</v>
       </c>
       <c r="I64" t="s">
-        <v>37683</v>
+        <v>38043</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>37511</v>
+        <v>37871</v>
       </c>
       <c r="B65" t="s">
-        <v>37575</v>
+        <v>37935</v>
       </c>
       <c r="C65" t="s">
-        <v>37591</v>
+        <v>37951</v>
       </c>
       <c r="D65" s="1">
         <v>0.55000001192092896</v>
@@ -115361,10 +116441,10 @@
       </c>
       <c r="G65" s="1"/>
       <c r="H65" t="s">
-        <v>37619</v>
+        <v>37979</v>
       </c>
       <c r="I65" t="s">
-        <v>37684</v>
+        <v>38044</v>
       </c>
     </row>
   </sheetData>
@@ -115378,42 +116458,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>37685</v>
+        <v>38045</v>
       </c>
       <c r="B1" t="s">
-        <v>37707</v>
+        <v>38067</v>
       </c>
       <c r="C1" t="s">
-        <v>37754</v>
+        <v>38114</v>
       </c>
       <c r="D1" t="s">
-        <v>37764</v>
+        <v>38124</v>
       </c>
       <c r="E1" t="s">
-        <v>37765</v>
+        <v>38125</v>
       </c>
       <c r="F1" t="s">
-        <v>37766</v>
+        <v>38126</v>
       </c>
       <c r="G1" t="s">
-        <v>37767</v>
+        <v>38127</v>
       </c>
       <c r="H1" t="s">
-        <v>37779</v>
+        <v>38139</v>
       </c>
       <c r="I1" t="s">
-        <v>37800</v>
+        <v>38160</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>37686</v>
+        <v>38046</v>
       </c>
       <c r="B2" t="s">
-        <v>37708</v>
+        <v>38068</v>
       </c>
       <c r="C2" t="s">
-        <v>37755</v>
+        <v>38115</v>
       </c>
       <c r="D2" s="1">
         <v>0.5899999737739563</v>
@@ -115425,24 +116505,24 @@
         <v>0.81999999284744263</v>
       </c>
       <c r="G2" t="s">
-        <v>37768</v>
+        <v>38128</v>
       </c>
       <c r="H2" t="s">
-        <v>37780</v>
+        <v>38140</v>
       </c>
       <c r="I2" t="s">
-        <v>37801</v>
+        <v>38161</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>37686</v>
+        <v>38046</v>
       </c>
       <c r="B3" t="s">
-        <v>37709</v>
+        <v>38069</v>
       </c>
       <c r="C3" t="s">
-        <v>37755</v>
+        <v>38115</v>
       </c>
       <c r="D3" s="1">
         <v>0.18000000715255737</v>
@@ -115454,24 +116534,24 @@
         <v>1.4900000095367432</v>
       </c>
       <c r="G3" t="s">
-        <v>37768</v>
+        <v>38128</v>
       </c>
       <c r="H3" t="s">
-        <v>37780</v>
+        <v>38140</v>
       </c>
       <c r="I3" t="s">
-        <v>37802</v>
+        <v>38162</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>37687</v>
+        <v>38047</v>
       </c>
       <c r="B4" t="s">
-        <v>37710</v>
+        <v>38070</v>
       </c>
       <c r="C4" t="s">
-        <v>37755</v>
+        <v>38115</v>
       </c>
       <c r="D4" s="1">
         <v>0.37999999523162842</v>
@@ -115483,24 +116563,24 @@
         <v>0.6600000262260437</v>
       </c>
       <c r="G4" t="s">
-        <v>37768</v>
+        <v>38128</v>
       </c>
       <c r="H4" t="s">
-        <v>37781</v>
+        <v>38141</v>
       </c>
       <c r="I4" t="s">
-        <v>37803</v>
+        <v>38163</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>37687</v>
+        <v>38047</v>
       </c>
       <c r="B5" t="s">
-        <v>37711</v>
+        <v>38071</v>
       </c>
       <c r="C5" t="s">
-        <v>37755</v>
+        <v>38115</v>
       </c>
       <c r="D5" s="1">
         <v>0.44999998807907104</v>
@@ -115512,24 +116592,24 @@
         <v>0.57999998331069946</v>
       </c>
       <c r="G5" t="s">
-        <v>37768</v>
+        <v>38128</v>
       </c>
       <c r="H5" t="s">
-        <v>37781</v>
+        <v>38141</v>
       </c>
       <c r="I5" t="s">
-        <v>37804</v>
+        <v>38164</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>37688</v>
+        <v>38048</v>
       </c>
       <c r="B6" t="s">
-        <v>37712</v>
+        <v>38072</v>
       </c>
       <c r="C6" t="s">
-        <v>37755</v>
+        <v>38115</v>
       </c>
       <c r="D6" s="1">
         <v>0.75700002908706665</v>
@@ -115541,24 +116621,24 @@
         <v>0.96299999952316284</v>
       </c>
       <c r="G6" t="s">
-        <v>37769</v>
+        <v>38129</v>
       </c>
       <c r="H6" t="s">
-        <v>37782</v>
+        <v>38142</v>
       </c>
       <c r="I6" t="s">
-        <v>37805</v>
+        <v>38165</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>37688</v>
+        <v>38048</v>
       </c>
       <c r="B7" t="s">
-        <v>37713</v>
+        <v>38073</v>
       </c>
       <c r="C7" t="s">
-        <v>37755</v>
+        <v>38115</v>
       </c>
       <c r="D7" s="1">
         <v>0.92599999904632568</v>
@@ -115570,24 +116650,24 @@
         <v>1.2790000438690186</v>
       </c>
       <c r="G7" t="s">
-        <v>37770</v>
+        <v>38130</v>
       </c>
       <c r="H7" t="s">
-        <v>37782</v>
+        <v>38142</v>
       </c>
       <c r="I7" t="s">
-        <v>37806</v>
+        <v>38166</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>37689</v>
+        <v>38049</v>
       </c>
       <c r="B8" t="s">
-        <v>37714</v>
+        <v>38074</v>
       </c>
       <c r="C8" t="s">
-        <v>37755</v>
+        <v>38115</v>
       </c>
       <c r="D8" s="1">
         <v>0.43999999761581421</v>
@@ -115599,24 +116679,24 @@
         <v>0.56000000238418579</v>
       </c>
       <c r="G8" t="s">
-        <v>37771</v>
+        <v>38131</v>
       </c>
       <c r="H8" t="s">
-        <v>37783</v>
+        <v>38143</v>
       </c>
       <c r="I8" t="s">
-        <v>37807</v>
+        <v>38167</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>37689</v>
+        <v>38049</v>
       </c>
       <c r="B9" t="s">
-        <v>37715</v>
+        <v>38075</v>
       </c>
       <c r="C9" t="s">
-        <v>37755</v>
+        <v>38115</v>
       </c>
       <c r="D9" s="1">
         <v>0.80000001192092896</v>
@@ -115628,24 +116708,24 @@
         <v>1.1100000143051147</v>
       </c>
       <c r="G9" t="s">
-        <v>37771</v>
+        <v>38131</v>
       </c>
       <c r="H9" t="s">
-        <v>37783</v>
+        <v>38143</v>
       </c>
       <c r="I9" t="s">
-        <v>37808</v>
+        <v>38168</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>37690</v>
+        <v>38050</v>
       </c>
       <c r="B10" t="s">
-        <v>37716</v>
+        <v>38076</v>
       </c>
       <c r="C10" t="s">
-        <v>37755</v>
+        <v>38115</v>
       </c>
       <c r="D10" s="1">
         <v>0.56000000238418579</v>
@@ -115657,24 +116737,24 @@
         <v>0.97000002861022949</v>
       </c>
       <c r="G10" t="s">
-        <v>37771</v>
+        <v>38131</v>
       </c>
       <c r="H10" t="s">
-        <v>37784</v>
+        <v>38144</v>
       </c>
       <c r="I10" t="s">
-        <v>37809</v>
+        <v>38169</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>37690</v>
+        <v>38050</v>
       </c>
       <c r="B11" t="s">
-        <v>37717</v>
+        <v>38077</v>
       </c>
       <c r="C11" t="s">
-        <v>37755</v>
+        <v>38115</v>
       </c>
       <c r="D11" s="1">
         <v>0.50999999046325684</v>
@@ -115686,24 +116766,24 @@
         <v>1.190000057220459</v>
       </c>
       <c r="G11" t="s">
-        <v>37771</v>
+        <v>38131</v>
       </c>
       <c r="H11" t="s">
-        <v>37784</v>
+        <v>38144</v>
       </c>
       <c r="I11" t="s">
-        <v>37810</v>
+        <v>38170</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>37691</v>
+        <v>38051</v>
       </c>
       <c r="B12" t="s">
-        <v>37718</v>
+        <v>38078</v>
       </c>
       <c r="C12" t="s">
-        <v>37755</v>
+        <v>38115</v>
       </c>
       <c r="D12" s="1">
         <v>0.6600000262260437</v>
@@ -115715,24 +116795,24 @@
         <v>0.89999997615814209</v>
       </c>
       <c r="G12" t="s">
-        <v>37771</v>
+        <v>38131</v>
       </c>
       <c r="H12" t="s">
-        <v>37785</v>
+        <v>38145</v>
       </c>
       <c r="I12" t="s">
-        <v>37811</v>
+        <v>38171</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>37691</v>
+        <v>38051</v>
       </c>
       <c r="B13" t="s">
-        <v>37719</v>
+        <v>38079</v>
       </c>
       <c r="C13" t="s">
-        <v>37755</v>
+        <v>38115</v>
       </c>
       <c r="D13" s="1">
         <v>0.36000001430511475</v>
@@ -115744,24 +116824,24 @@
         <v>0.82999998331069946</v>
       </c>
       <c r="G13" t="s">
-        <v>37771</v>
+        <v>38131</v>
       </c>
       <c r="H13" t="s">
-        <v>37785</v>
+        <v>38145</v>
       </c>
       <c r="I13" t="s">
-        <v>37812</v>
+        <v>38172</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>37692</v>
+        <v>38052</v>
       </c>
       <c r="B14" t="s">
-        <v>37720</v>
+        <v>38080</v>
       </c>
       <c r="C14" t="s">
-        <v>37755</v>
+        <v>38115</v>
       </c>
       <c r="D14" s="1">
         <v>0.55299997329711914</v>
@@ -115773,24 +116853,24 @@
         <v>0.9309999942779541</v>
       </c>
       <c r="G14" t="s">
-        <v>37772</v>
+        <v>38132</v>
       </c>
       <c r="H14" t="s">
-        <v>37786</v>
+        <v>38146</v>
       </c>
       <c r="I14" t="s">
-        <v>37813</v>
+        <v>38173</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>37692</v>
+        <v>38052</v>
       </c>
       <c r="B15" t="s">
-        <v>37721</v>
+        <v>38081</v>
       </c>
       <c r="C15" t="s">
-        <v>37755</v>
+        <v>38115</v>
       </c>
       <c r="D15" s="1">
         <v>0.76599997282028198</v>
@@ -115802,24 +116882,24 @@
         <v>3.9639999866485596</v>
       </c>
       <c r="G15" t="s">
-        <v>37772</v>
+        <v>38132</v>
       </c>
       <c r="H15" t="s">
-        <v>37786</v>
+        <v>38146</v>
       </c>
       <c r="I15" t="s">
-        <v>37814</v>
+        <v>38174</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>37692</v>
+        <v>38052</v>
       </c>
       <c r="B16" t="s">
-        <v>37722</v>
+        <v>38082</v>
       </c>
       <c r="C16" t="s">
-        <v>37756</v>
+        <v>38116</v>
       </c>
       <c r="D16" s="1">
         <v>0.39800000190734863</v>
@@ -115831,24 +116911,24 @@
         <v>0.71899998188018799</v>
       </c>
       <c r="G16" t="s">
-        <v>37772</v>
+        <v>38132</v>
       </c>
       <c r="H16" t="s">
-        <v>37787</v>
+        <v>38147</v>
       </c>
       <c r="I16" t="s">
-        <v>37815</v>
+        <v>38175</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>37692</v>
+        <v>38052</v>
       </c>
       <c r="B17" t="s">
-        <v>37723</v>
+        <v>38083</v>
       </c>
       <c r="C17" t="s">
-        <v>37756</v>
+        <v>38116</v>
       </c>
       <c r="D17" s="1">
         <v>0.49799999594688416</v>
@@ -115860,24 +116940,24 @@
         <v>2.4030001163482666</v>
       </c>
       <c r="G17" t="s">
-        <v>37772</v>
+        <v>38132</v>
       </c>
       <c r="H17" t="s">
-        <v>37787</v>
+        <v>38147</v>
       </c>
       <c r="I17" t="s">
-        <v>37816</v>
+        <v>38176</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>37693</v>
+        <v>38053</v>
       </c>
       <c r="B18" t="s">
-        <v>37724</v>
+        <v>38084</v>
       </c>
       <c r="C18" t="s">
-        <v>37757</v>
+        <v>38117</v>
       </c>
       <c r="D18" s="1">
         <v>0.87000000476837158</v>
@@ -115889,24 +116969,24 @@
         <v>1.2899999618530273</v>
       </c>
       <c r="G18" t="s">
-        <v>37773</v>
+        <v>38133</v>
       </c>
       <c r="H18" t="s">
-        <v>37788</v>
+        <v>38148</v>
       </c>
       <c r="I18" t="s">
-        <v>37817</v>
+        <v>38177</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>37693</v>
+        <v>38053</v>
       </c>
       <c r="B19" t="s">
-        <v>37725</v>
+        <v>38085</v>
       </c>
       <c r="C19" t="s">
-        <v>37757</v>
+        <v>38117</v>
       </c>
       <c r="D19" s="1">
         <v>0.38999998569488525</v>
@@ -115918,24 +116998,24 @@
         <v>0.80000001192092896</v>
       </c>
       <c r="G19" t="s">
-        <v>37773</v>
+        <v>38133</v>
       </c>
       <c r="H19" t="s">
-        <v>37788</v>
+        <v>38148</v>
       </c>
       <c r="I19" t="s">
-        <v>37818</v>
+        <v>38178</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>37694</v>
+        <v>38054</v>
       </c>
       <c r="B20" t="s">
-        <v>37726</v>
+        <v>38086</v>
       </c>
       <c r="C20" t="s">
-        <v>37757</v>
+        <v>38117</v>
       </c>
       <c r="D20" s="1">
         <v>0.61000001430511475</v>
@@ -115947,24 +117027,24 @@
         <v>1.1699999570846558</v>
       </c>
       <c r="G20" t="s">
-        <v>37773</v>
+        <v>38133</v>
       </c>
       <c r="H20" t="s">
-        <v>37789</v>
+        <v>38149</v>
       </c>
       <c r="I20" t="s">
-        <v>37819</v>
+        <v>38179</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>37694</v>
+        <v>38054</v>
       </c>
       <c r="B21" t="s">
-        <v>37727</v>
+        <v>38087</v>
       </c>
       <c r="C21" t="s">
-        <v>37757</v>
+        <v>38117</v>
       </c>
       <c r="D21" s="1">
         <v>0.75</v>
@@ -115976,24 +117056,24 @@
         <v>1.3600000143051147</v>
       </c>
       <c r="G21" t="s">
-        <v>37773</v>
+        <v>38133</v>
       </c>
       <c r="H21" t="s">
-        <v>37789</v>
+        <v>38149</v>
       </c>
       <c r="I21" t="s">
-        <v>37820</v>
+        <v>38180</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>37694</v>
+        <v>38054</v>
       </c>
       <c r="B22" t="s">
-        <v>37728</v>
+        <v>38088</v>
       </c>
       <c r="C22" t="s">
-        <v>37758</v>
+        <v>38118</v>
       </c>
       <c r="D22" s="1">
         <v>5.9000000953674316</v>
@@ -116005,24 +117085,24 @@
         <v>46.099998474121094</v>
       </c>
       <c r="G22" t="s">
-        <v>37773</v>
+        <v>38133</v>
       </c>
       <c r="H22" t="s">
-        <v>37790</v>
+        <v>38150</v>
       </c>
       <c r="I22" t="s">
-        <v>37821</v>
+        <v>38181</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>37694</v>
+        <v>38054</v>
       </c>
       <c r="B23" t="s">
-        <v>37729</v>
+        <v>38089</v>
       </c>
       <c r="C23" t="s">
-        <v>37758</v>
+        <v>38118</v>
       </c>
       <c r="D23" s="1">
         <v>1.8200000524520874</v>
@@ -116034,24 +117114,24 @@
         <v>5.1399998664855957</v>
       </c>
       <c r="G23" t="s">
-        <v>37773</v>
+        <v>38133</v>
       </c>
       <c r="H23" t="s">
-        <v>37790</v>
+        <v>38150</v>
       </c>
       <c r="I23" t="s">
-        <v>37822</v>
+        <v>38182</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>37695</v>
+        <v>38055</v>
       </c>
       <c r="B24" t="s">
-        <v>37730</v>
+        <v>38090</v>
       </c>
       <c r="C24" t="s">
-        <v>37759</v>
+        <v>38119</v>
       </c>
       <c r="D24" s="1">
         <v>0.5899999737739563</v>
@@ -116063,24 +117143,24 @@
         <v>1.3999999761581421</v>
       </c>
       <c r="G24" t="s">
-        <v>37773</v>
+        <v>38133</v>
       </c>
       <c r="H24" t="s">
-        <v>37791</v>
+        <v>38151</v>
       </c>
       <c r="I24" t="s">
-        <v>37823</v>
+        <v>38183</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>37695</v>
+        <v>38055</v>
       </c>
       <c r="B25" t="s">
-        <v>37731</v>
+        <v>38091</v>
       </c>
       <c r="C25" t="s">
-        <v>37759</v>
+        <v>38119</v>
       </c>
       <c r="D25" s="1">
         <v>0.69999998807907104</v>
@@ -116092,24 +117172,24 @@
         <v>0.87000000476837158</v>
       </c>
       <c r="G25" t="s">
-        <v>37773</v>
+        <v>38133</v>
       </c>
       <c r="H25" t="s">
-        <v>37791</v>
+        <v>38151</v>
       </c>
       <c r="I25" t="s">
-        <v>37824</v>
+        <v>38184</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>37696</v>
+        <v>38056</v>
       </c>
       <c r="B26" t="s">
-        <v>37732</v>
+        <v>38092</v>
       </c>
       <c r="C26" t="s">
-        <v>37759</v>
+        <v>38119</v>
       </c>
       <c r="D26" s="1">
         <v>0.38999998569488525</v>
@@ -116121,24 +117201,24 @@
         <v>0.68999999761581421</v>
       </c>
       <c r="G26" t="s">
-        <v>37773</v>
+        <v>38133</v>
       </c>
       <c r="H26" t="s">
-        <v>37792</v>
+        <v>38152</v>
       </c>
       <c r="I26" t="s">
-        <v>37825</v>
+        <v>38185</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>37696</v>
+        <v>38056</v>
       </c>
       <c r="B27" t="s">
-        <v>37733</v>
+        <v>38093</v>
       </c>
       <c r="C27" t="s">
-        <v>37759</v>
+        <v>38119</v>
       </c>
       <c r="D27" s="1">
         <v>0.15999999642372131</v>
@@ -116150,24 +117230,24 @@
         <v>0.40000000596046448</v>
       </c>
       <c r="G27" t="s">
-        <v>37773</v>
+        <v>38133</v>
       </c>
       <c r="H27" t="s">
-        <v>37792</v>
+        <v>38152</v>
       </c>
       <c r="I27" t="s">
-        <v>37826</v>
+        <v>38186</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>37697</v>
+        <v>38057</v>
       </c>
       <c r="B28" t="s">
-        <v>37734</v>
+        <v>38094</v>
       </c>
       <c r="C28" t="s">
-        <v>37759</v>
+        <v>38119</v>
       </c>
       <c r="D28" s="1">
         <v>0.46000000834465027</v>
@@ -116179,24 +117259,24 @@
         <v>0.6600000262260437</v>
       </c>
       <c r="G28" t="s">
-        <v>37773</v>
+        <v>38133</v>
       </c>
       <c r="H28" t="s">
-        <v>37792</v>
+        <v>38152</v>
       </c>
       <c r="I28" t="s">
-        <v>37827</v>
+        <v>38187</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>37697</v>
+        <v>38057</v>
       </c>
       <c r="B29" t="s">
-        <v>37735</v>
+        <v>38095</v>
       </c>
       <c r="C29" t="s">
-        <v>37759</v>
+        <v>38119</v>
       </c>
       <c r="D29" s="1">
         <v>0.30000001192092896</v>
@@ -116208,24 +117288,24 @@
         <v>0.44999998807907104</v>
       </c>
       <c r="G29" t="s">
-        <v>37773</v>
+        <v>38133</v>
       </c>
       <c r="H29" t="s">
-        <v>37792</v>
+        <v>38152</v>
       </c>
       <c r="I29" t="s">
-        <v>37828</v>
+        <v>38188</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>37698</v>
+        <v>38058</v>
       </c>
       <c r="B30" t="s">
-        <v>37736</v>
+        <v>38096</v>
       </c>
       <c r="C30" t="s">
-        <v>37759</v>
+        <v>38119</v>
       </c>
       <c r="D30" s="1">
         <v>0.60000002384185791</v>
@@ -116237,24 +117317,24 @@
         <v>1.059999942779541</v>
       </c>
       <c r="G30" t="s">
-        <v>37773</v>
+        <v>38133</v>
       </c>
       <c r="H30" t="s">
-        <v>37793</v>
+        <v>38153</v>
       </c>
       <c r="I30" t="s">
-        <v>37829</v>
+        <v>38189</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>37698</v>
+        <v>38058</v>
       </c>
       <c r="B31" t="s">
-        <v>37737</v>
+        <v>38097</v>
       </c>
       <c r="C31" t="s">
-        <v>37759</v>
+        <v>38119</v>
       </c>
       <c r="D31" s="1">
         <v>0.47999998927116394</v>
@@ -116266,24 +117346,24 @@
         <v>0.81999999284744263</v>
       </c>
       <c r="G31" t="s">
-        <v>37773</v>
+        <v>38133</v>
       </c>
       <c r="H31" t="s">
-        <v>37793</v>
+        <v>38153</v>
       </c>
       <c r="I31" t="s">
-        <v>37830</v>
+        <v>38190</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>37699</v>
+        <v>38059</v>
       </c>
       <c r="B32" t="s">
-        <v>37738</v>
+        <v>38098</v>
       </c>
       <c r="C32" t="s">
-        <v>37759</v>
+        <v>38119</v>
       </c>
       <c r="D32" s="1">
         <v>1.6200000047683716</v>
@@ -116295,24 +117375,24 @@
         <v>2.4100000858306885</v>
       </c>
       <c r="G32" t="s">
-        <v>37773</v>
+        <v>38133</v>
       </c>
       <c r="H32" t="s">
-        <v>37793</v>
+        <v>38153</v>
       </c>
       <c r="I32" t="s">
-        <v>37831</v>
+        <v>38191</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>37699</v>
+        <v>38059</v>
       </c>
       <c r="B33" t="s">
-        <v>37739</v>
+        <v>38099</v>
       </c>
       <c r="C33" t="s">
-        <v>37759</v>
+        <v>38119</v>
       </c>
       <c r="D33" s="1">
         <v>2.0099999904632568</v>
@@ -116324,24 +117404,24 @@
         <v>2.8399999141693115</v>
       </c>
       <c r="G33" t="s">
-        <v>37773</v>
+        <v>38133</v>
       </c>
       <c r="H33" t="s">
-        <v>37793</v>
+        <v>38153</v>
       </c>
       <c r="I33" t="s">
-        <v>37832</v>
+        <v>38192</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>37700</v>
+        <v>38060</v>
       </c>
       <c r="B34" t="s">
-        <v>37740</v>
+        <v>38100</v>
       </c>
       <c r="C34" t="s">
-        <v>37760</v>
+        <v>38120</v>
       </c>
       <c r="D34" s="1">
         <v>0.95999997854232788</v>
@@ -116353,24 +117433,24 @@
         <v>1.2560000419616699</v>
       </c>
       <c r="G34" t="s">
-        <v>37774</v>
+        <v>38134</v>
       </c>
       <c r="H34" t="s">
-        <v>37794</v>
+        <v>38154</v>
       </c>
       <c r="I34" t="s">
-        <v>37833</v>
+        <v>38193</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>37700</v>
+        <v>38060</v>
       </c>
       <c r="B35" t="s">
-        <v>37741</v>
+        <v>38101</v>
       </c>
       <c r="C35" t="s">
-        <v>37760</v>
+        <v>38120</v>
       </c>
       <c r="D35" s="1">
         <v>1.0800000429153442</v>
@@ -116382,24 +117462,24 @@
         <v>1.3609999418258667</v>
       </c>
       <c r="G35" t="s">
-        <v>37774</v>
+        <v>38134</v>
       </c>
       <c r="H35" t="s">
-        <v>37794</v>
+        <v>38154</v>
       </c>
       <c r="I35" t="s">
-        <v>37834</v>
+        <v>38194</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>37701</v>
+        <v>38061</v>
       </c>
       <c r="B36" t="s">
-        <v>37742</v>
+        <v>38102</v>
       </c>
       <c r="C36" t="s">
-        <v>37760</v>
+        <v>38120</v>
       </c>
       <c r="D36" s="1">
         <v>0.87699997425079346</v>
@@ -116411,24 +117491,24 @@
         <v>1.156000018119812</v>
       </c>
       <c r="G36" t="s">
-        <v>37775</v>
+        <v>38135</v>
       </c>
       <c r="H36" t="s">
-        <v>37795</v>
+        <v>38155</v>
       </c>
       <c r="I36" t="s">
-        <v>37835</v>
+        <v>38195</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>37701</v>
+        <v>38061</v>
       </c>
       <c r="B37" t="s">
-        <v>37743</v>
+        <v>38103</v>
       </c>
       <c r="C37" t="s">
-        <v>37760</v>
+        <v>38120</v>
       </c>
       <c r="D37" s="1">
         <v>0.68400001525878906</v>
@@ -116440,24 +117520,24 @@
         <v>0.875</v>
       </c>
       <c r="G37" t="s">
-        <v>37775</v>
+        <v>38135</v>
       </c>
       <c r="H37" t="s">
-        <v>37795</v>
+        <v>38155</v>
       </c>
       <c r="I37" t="s">
-        <v>37836</v>
+        <v>38196</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>37701</v>
+        <v>38061</v>
       </c>
       <c r="B38" t="s">
-        <v>37744</v>
+        <v>38104</v>
       </c>
       <c r="C38" t="s">
-        <v>37760</v>
+        <v>38120</v>
       </c>
       <c r="D38" s="1">
         <v>0.85699999332427979</v>
@@ -116469,24 +117549,24 @@
         <v>1.1779999732971191</v>
       </c>
       <c r="G38" t="s">
-        <v>37775</v>
+        <v>38135</v>
       </c>
       <c r="H38" t="s">
-        <v>37795</v>
+        <v>38155</v>
       </c>
       <c r="I38" t="s">
-        <v>37837</v>
+        <v>38197</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>37702</v>
+        <v>38062</v>
       </c>
       <c r="B39" t="s">
-        <v>37744</v>
+        <v>38104</v>
       </c>
       <c r="C39" t="s">
-        <v>37761</v>
+        <v>38121</v>
       </c>
       <c r="D39" s="1">
         <v>0.64999997615814209</v>
@@ -116498,24 +117578,24 @@
         <v>0.8399999737739563</v>
       </c>
       <c r="G39" t="s">
-        <v>37776</v>
+        <v>38136</v>
       </c>
       <c r="H39" t="s">
-        <v>37795</v>
+        <v>38155</v>
       </c>
       <c r="I39" t="s">
-        <v>37838</v>
+        <v>38198</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>37702</v>
+        <v>38062</v>
       </c>
       <c r="B40" t="s">
-        <v>37745</v>
+        <v>38105</v>
       </c>
       <c r="C40" t="s">
-        <v>37761</v>
+        <v>38121</v>
       </c>
       <c r="D40" s="1">
         <v>0.47999998927116394</v>
@@ -116527,24 +117607,24 @@
         <v>0.75</v>
       </c>
       <c r="G40" t="s">
-        <v>37776</v>
+        <v>38136</v>
       </c>
       <c r="H40" t="s">
-        <v>37795</v>
+        <v>38155</v>
       </c>
       <c r="I40" t="s">
-        <v>37839</v>
+        <v>38199</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>37703</v>
+        <v>38063</v>
       </c>
       <c r="B41" t="s">
-        <v>37746</v>
+        <v>38106</v>
       </c>
       <c r="C41" t="s">
-        <v>37762</v>
+        <v>38122</v>
       </c>
       <c r="D41" s="1">
         <v>0.78100001811981201</v>
@@ -116556,24 +117636,24 @@
         <v>1.3220000267028809</v>
       </c>
       <c r="G41" t="s">
-        <v>37777</v>
+        <v>38137</v>
       </c>
       <c r="H41" t="s">
-        <v>37796</v>
+        <v>38156</v>
       </c>
       <c r="I41" t="s">
-        <v>37840</v>
+        <v>38200</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>37703</v>
+        <v>38063</v>
       </c>
       <c r="B42" t="s">
-        <v>37747</v>
+        <v>38107</v>
       </c>
       <c r="C42" t="s">
-        <v>37762</v>
+        <v>38122</v>
       </c>
       <c r="D42" s="1">
         <v>0.97500002384185791</v>
@@ -116585,24 +117665,24 @@
         <v>1.1829999685287476</v>
       </c>
       <c r="G42" t="s">
-        <v>37777</v>
+        <v>38137</v>
       </c>
       <c r="H42" t="s">
-        <v>37796</v>
+        <v>38156</v>
       </c>
       <c r="I42" t="s">
-        <v>37841</v>
+        <v>38201</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>37704</v>
+        <v>38064</v>
       </c>
       <c r="B43" t="s">
-        <v>37748</v>
+        <v>38108</v>
       </c>
       <c r="C43" t="s">
-        <v>37762</v>
+        <v>38122</v>
       </c>
       <c r="D43" s="1">
         <v>0.93999999761581421</v>
@@ -116614,24 +117694,24 @@
         <v>1.190000057220459</v>
       </c>
       <c r="G43" t="s">
-        <v>37778</v>
+        <v>38138</v>
       </c>
       <c r="H43" t="s">
-        <v>37797</v>
+        <v>38157</v>
       </c>
       <c r="I43" t="s">
-        <v>37842</v>
+        <v>38202</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>37704</v>
+        <v>38064</v>
       </c>
       <c r="B44" t="s">
-        <v>37749</v>
+        <v>38109</v>
       </c>
       <c r="C44" t="s">
-        <v>37762</v>
+        <v>38122</v>
       </c>
       <c r="D44" s="1">
         <v>0.93000000715255737</v>
@@ -116643,24 +117723,24 @@
         <v>1.309999942779541</v>
       </c>
       <c r="G44" t="s">
-        <v>37778</v>
+        <v>38138</v>
       </c>
       <c r="H44" t="s">
-        <v>37797</v>
+        <v>38157</v>
       </c>
       <c r="I44" t="s">
-        <v>37843</v>
+        <v>38203</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>37705</v>
+        <v>38065</v>
       </c>
       <c r="B45" t="s">
-        <v>37750</v>
+        <v>38110</v>
       </c>
       <c r="C45" t="s">
-        <v>37763</v>
+        <v>38123</v>
       </c>
       <c r="D45" s="1">
         <v>0.63999998569488525</v>
@@ -116672,24 +117752,24 @@
         <v>0.9100000262260437</v>
       </c>
       <c r="G45" t="s">
-        <v>37778</v>
+        <v>38138</v>
       </c>
       <c r="H45" t="s">
-        <v>37798</v>
+        <v>38158</v>
       </c>
       <c r="I45" t="s">
-        <v>37844</v>
+        <v>38204</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>37705</v>
+        <v>38065</v>
       </c>
       <c r="B46" t="s">
-        <v>37751</v>
+        <v>38111</v>
       </c>
       <c r="C46" t="s">
-        <v>37763</v>
+        <v>38123</v>
       </c>
       <c r="D46" s="1">
         <v>0.72000002861022949</v>
@@ -116701,24 +117781,24 @@
         <v>0.89999997615814209</v>
       </c>
       <c r="G46" t="s">
-        <v>37778</v>
+        <v>38138</v>
       </c>
       <c r="H46" t="s">
-        <v>37798</v>
+        <v>38158</v>
       </c>
       <c r="I46" t="s">
-        <v>37845</v>
+        <v>38205</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>37706</v>
+        <v>38066</v>
       </c>
       <c r="B47" t="s">
-        <v>37752</v>
+        <v>38112</v>
       </c>
       <c r="C47" t="s">
-        <v>37763</v>
+        <v>38123</v>
       </c>
       <c r="D47" s="1">
         <v>0.46000000834465027</v>
@@ -116730,24 +117810,24 @@
         <v>0.73000001907348633</v>
       </c>
       <c r="G47" t="s">
-        <v>37778</v>
+        <v>38138</v>
       </c>
       <c r="H47" t="s">
-        <v>37799</v>
+        <v>38159</v>
       </c>
       <c r="I47" t="s">
-        <v>37846</v>
+        <v>38206</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>37706</v>
+        <v>38066</v>
       </c>
       <c r="B48" t="s">
-        <v>37753</v>
+        <v>38113</v>
       </c>
       <c r="C48" t="s">
-        <v>37763</v>
+        <v>38123</v>
       </c>
       <c r="D48" s="1">
         <v>0.62999999523162842</v>
@@ -116759,13 +117839,13 @@
         <v>0.89999997615814209</v>
       </c>
       <c r="G48" t="s">
-        <v>37778</v>
+        <v>38138</v>
       </c>
       <c r="H48" t="s">
-        <v>37799</v>
+        <v>38159</v>
       </c>
       <c r="I48" t="s">
-        <v>37847</v>
+        <v>38207</v>
       </c>
     </row>
   </sheetData>

--- a/products/Exported Data.xlsx
+++ b/products/Exported Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62115" uniqueCount="36408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65215" uniqueCount="38208">
   <si>
     <t>Study</t>
   </si>
@@ -101537,6 +101537,5406 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Study: Treatment 1 vs Treatment 2</t>
+  </si>
+  <si>
+    <t>Attal 2019 (ICARIA-MM): IsPd vs Pd</t>
+  </si>
+  <si>
+    <t>Bahlis 2020 (POLLUX): DRd vs Rd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2013 (VANTAGE 088): VorV vs V</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2016 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-3): EPd vs Pd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2020 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2021 (APOLLO): DPd vs Pd</t>
+  </si>
+  <si>
+    <t>Grosicki 2020 (BOSTON): SeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Hou 2017 (China Cont.): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>Jakubowiak 2016 (NCT01478048): EVd vs Vd</t>
+  </si>
+  <si>
+    <t>Kumar 2020 (BELLINI): VeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Lu 2021 (LEPUS): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Mateos 2020 (CASTOR): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Moreau 2021 (IKEMA): IsKd vs Kd</t>
+  </si>
+  <si>
+    <t>Orlowski 2019 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2019 (OPTIMISMM): PVd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2021 (TOURMALINE-MM1): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2014 (PANORAMA-1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2016 (PANORAMA 1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2013 (MM-003): Pd vs GC</t>
+  </si>
+  <si>
+    <t>Siegel 2018 (ASPIRE): KRd vs Rd</t>
+  </si>
+  <si>
+    <t>Usamani 2022 (CANDOR): DKd vs Kd</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;=3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;=2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Lower 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>Upper 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t>Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      AT 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t>Data Extraction Errors</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Study: Treatment 1 vs Treatment 2</t>
+  </si>
+  <si>
+    <t>Attal 2019 (ICARIA-MM): IsPd vs Pd</t>
+  </si>
+  <si>
+    <t>Bahlis 2020 (POLLUX): DRd vs Rd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2013 (VANTAGE 088): VorV vs V</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2016 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-3): EPd vs Pd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2021 (APOLLO): DPd vs Pd</t>
+  </si>
+  <si>
+    <t>Hou 2017 (China Cont.): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>Jakubowiak 2016 (NCT01478048): EVd vs Vd</t>
+  </si>
+  <si>
+    <t>Kumar 2020 (BELLINI): VeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Lonial 2015 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Lu 2021 (LEPUS): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Mateos 2020 (CASTOR): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Moreau 2021 (IKEMA): IsKd vs Kd</t>
+  </si>
+  <si>
+    <t>Orlowski 2007 (NCT00103506): V vs DoxV</t>
+  </si>
+  <si>
+    <t>Orlowski 2016 (NCT00103506): V vs DoxV</t>
+  </si>
+  <si>
+    <t>Orlowski 2019 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2019 (OPTIMISMM): PVd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2021 (TOURMALINE-MM1): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2016 (PANORAMA 1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>Stewart 2015 (ASPIRE): KRd vs Rd</t>
+  </si>
+  <si>
+    <t>Usmani 2022 (CANDOR): DKd vs Kd</t>
+  </si>
+  <si>
+    <t>refract</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Ref. to R and a PI</t>
+  </si>
+  <si>
+    <t>Not ref. to R and a PI</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous R or T use</t>
+  </si>
+  <si>
+    <t>No previous R or T use</t>
+  </si>
+  <si>
+    <t>Previous R or T use</t>
+  </si>
+  <si>
+    <t>No previous R or T use</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Refractory to T</t>
+  </si>
+  <si>
+    <t>Not refractory to T</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No previous IMiD use</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Lower 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>Upper 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0230</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .       Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t>Data Extraction Errors</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Study: Treatment 1 vs Treatment 2</t>
+  </si>
+  <si>
+    <t>Attal 2019 (ICARIA-MM): IsPd vs Pd</t>
+  </si>
+  <si>
+    <t>Bahlis 2020 (POLLUX): DRd vs Rd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2013 (VANTAGE 088): VorV vs V</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2016 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-3): EPd vs Pd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2020 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2021 (APOLLO): DPd vs Pd</t>
+  </si>
+  <si>
+    <t>Grosicki 2020 (BOSTON): SeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Hou 2017 (China Cont.): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>Jakubowiak 2016 (NCT01478048): EVd vs Vd</t>
+  </si>
+  <si>
+    <t>Kumar 2020 (BELLINI): VeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Lu 2021 (LEPUS): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Mateos 2020 (CASTOR): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Moreau 2021 (IKEMA): IsKd vs Kd</t>
+  </si>
+  <si>
+    <t>Orlowski 2019 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2019 (OPTIMISMM): PVd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2021 (TOURMALINE-MM1): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2014 (PANORAMA-1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2016 (PANORAMA 1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2013 (MM-003): Pd vs GC</t>
+  </si>
+  <si>
+    <t>Siegel 2018 (ASPIRE): KRd vs Rd</t>
+  </si>
+  <si>
+    <t>Usamani 2022 (CANDOR): DKd vs Kd</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;=3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;=2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Lower 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>Upper 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t>Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      AT 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t>Data Extraction Errors</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Study: Treatment 1 vs Treatment 2</t>
+  </si>
+  <si>
+    <t>Attal 2019 (ICARIA-MM): IsPd vs Pd</t>
+  </si>
+  <si>
+    <t>Bahlis 2020 (POLLUX): DRd vs Rd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2013 (VANTAGE 088): VorV vs V</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2016 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-3): EPd vs Pd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2021 (APOLLO): DPd vs Pd</t>
+  </si>
+  <si>
+    <t>Hou 2017 (China Cont.): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>Jakubowiak 2016 (NCT01478048): EVd vs Vd</t>
+  </si>
+  <si>
+    <t>Kumar 2020 (BELLINI): VeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Lonial 2015 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Lu 2021 (LEPUS): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Mateos 2020 (CASTOR): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Moreau 2021 (IKEMA): IsKd vs Kd</t>
+  </si>
+  <si>
+    <t>Orlowski 2007 (NCT00103506): V vs DoxV</t>
+  </si>
+  <si>
+    <t>Orlowski 2016 (NCT00103506): V vs DoxV</t>
+  </si>
+  <si>
+    <t>Orlowski 2019 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2019 (OPTIMISMM): PVd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2021 (TOURMALINE-MM1): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2016 (PANORAMA 1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>Stewart 2015 (ASPIRE): KRd vs Rd</t>
+  </si>
+  <si>
+    <t>Usmani 2022 (CANDOR): DKd vs Kd</t>
+  </si>
+  <si>
+    <t>refract</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Ref. to R and a PI</t>
+  </si>
+  <si>
+    <t>Not ref. to R and a PI</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous R or T use</t>
+  </si>
+  <si>
+    <t>No previous R or T use</t>
+  </si>
+  <si>
+    <t>Previous R or T use</t>
+  </si>
+  <si>
+    <t>No previous R or T use</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Refractory to T</t>
+  </si>
+  <si>
+    <t>Not refractory to T</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No previous IMiD use</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Lower 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>Upper 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0230</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .       Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t>Data Extraction Errors</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Study: Treatment 1 vs Treatment 2</t>
+  </si>
+  <si>
+    <t>Attal 2019 (ICARIA-MM): IsPd vs Pd</t>
+  </si>
+  <si>
+    <t>Bahlis 2020 (POLLUX): DRd vs Rd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2013 (VANTAGE 088): VorV vs V</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2016 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-3): EPd vs Pd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2020 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2021 (APOLLO): DPd vs Pd</t>
+  </si>
+  <si>
+    <t>Grosicki 2020 (BOSTON): SeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Hou 2017 (China Cont.): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>Jakubowiak 2016 (NCT01478048): EVd vs Vd</t>
+  </si>
+  <si>
+    <t>Kumar 2020 (BELLINI): VeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Lu 2021 (LEPUS): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Mateos 2020 (CASTOR): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Moreau 2021 (IKEMA): IsKd vs Kd</t>
+  </si>
+  <si>
+    <t>Orlowski 2019 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2019 (OPTIMISMM): PVd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2021 (TOURMALINE-MM1): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2014 (PANORAMA-1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2016 (PANORAMA 1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2013 (MM-003): Pd vs GC</t>
+  </si>
+  <si>
+    <t>Siegel 2018 (ASPIRE): KRd vs Rd</t>
+  </si>
+  <si>
+    <t>Usamani 2022 (CANDOR): DKd vs Kd</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;=3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;=2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Lower 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>Upper 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t>Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      AT 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t>Data Extraction Errors</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Study: Treatment 1 vs Treatment 2</t>
+  </si>
+  <si>
+    <t>Attal 2019 (ICARIA-MM): IsPd vs Pd</t>
+  </si>
+  <si>
+    <t>Bahlis 2020 (POLLUX): DRd vs Rd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2013 (VANTAGE 088): VorV vs V</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2016 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-3): EPd vs Pd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2021 (APOLLO): DPd vs Pd</t>
+  </si>
+  <si>
+    <t>Hou 2017 (China Cont.): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>Jakubowiak 2016 (NCT01478048): EVd vs Vd</t>
+  </si>
+  <si>
+    <t>Kumar 2020 (BELLINI): VeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Lonial 2015 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Lu 2021 (LEPUS): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Mateos 2020 (CASTOR): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Moreau 2021 (IKEMA): IsKd vs Kd</t>
+  </si>
+  <si>
+    <t>Orlowski 2007 (NCT00103506): V vs DoxV</t>
+  </si>
+  <si>
+    <t>Orlowski 2016 (NCT00103506): V vs DoxV</t>
+  </si>
+  <si>
+    <t>Orlowski 2019 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2019 (OPTIMISMM): PVd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2021 (TOURMALINE-MM1): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2016 (PANORAMA 1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>Stewart 2015 (ASPIRE): KRd vs Rd</t>
+  </si>
+  <si>
+    <t>Usmani 2022 (CANDOR): DKd vs Kd</t>
+  </si>
+  <si>
+    <t>refract</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Ref. to R and a PI</t>
+  </si>
+  <si>
+    <t>Not ref. to R and a PI</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous R or T use</t>
+  </si>
+  <si>
+    <t>No previous R or T use</t>
+  </si>
+  <si>
+    <t>Previous R or T use</t>
+  </si>
+  <si>
+    <t>No previous R or T use</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Refractory to T</t>
+  </si>
+  <si>
+    <t>Not refractory to T</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No previous IMiD use</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Lower 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>Upper 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0230</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .       Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t>Data Extraction Errors</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Study: Treatment 1 vs Treatment 2</t>
+  </si>
+  <si>
+    <t>Attal 2019 (ICARIA-MM): IsPd vs Pd</t>
+  </si>
+  <si>
+    <t>Bahlis 2020 (POLLUX): DRd vs Rd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2013 (VANTAGE 088): VorV vs V</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2016 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-3): EPd vs Pd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2020 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2021 (APOLLO): DPd vs Pd</t>
+  </si>
+  <si>
+    <t>Grosicki 2020 (BOSTON): SeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Hou 2017 (China Cont.): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>Jakubowiak 2016 (NCT01478048): EVd vs Vd</t>
+  </si>
+  <si>
+    <t>Kumar 2020 (BELLINI): VeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Lu 2021 (LEPUS): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Mateos 2020 (CASTOR): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Moreau 2021 (IKEMA): IsKd vs Kd</t>
+  </si>
+  <si>
+    <t>Orlowski 2019 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2019 (OPTIMISMM): PVd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2021 (TOURMALINE-MM1): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2014 (PANORAMA-1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2016 (PANORAMA 1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2013 (MM-003): Pd vs GC</t>
+  </si>
+  <si>
+    <t>Siegel 2018 (ASPIRE): KRd vs Rd</t>
+  </si>
+  <si>
+    <t>Usamani 2022 (CANDOR): DKd vs Kd</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;=3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;=2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Lower 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>Upper 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t>Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      AT 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t>Data Extraction Errors</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Study: Treatment 1 vs Treatment 2</t>
+  </si>
+  <si>
+    <t>Attal 2019 (ICARIA-MM): IsPd vs Pd</t>
+  </si>
+  <si>
+    <t>Bahlis 2020 (POLLUX): DRd vs Rd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2013 (VANTAGE 088): VorV vs V</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2016 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-3): EPd vs Pd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2021 (APOLLO): DPd vs Pd</t>
+  </si>
+  <si>
+    <t>Hou 2017 (China Cont.): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>Jakubowiak 2016 (NCT01478048): EVd vs Vd</t>
+  </si>
+  <si>
+    <t>Kumar 2020 (BELLINI): VeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Lonial 2015 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Lu 2021 (LEPUS): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Mateos 2020 (CASTOR): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Moreau 2021 (IKEMA): IsKd vs Kd</t>
+  </si>
+  <si>
+    <t>Orlowski 2007 (NCT00103506): V vs DoxV</t>
+  </si>
+  <si>
+    <t>Orlowski 2016 (NCT00103506): V vs DoxV</t>
+  </si>
+  <si>
+    <t>Orlowski 2019 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2019 (OPTIMISMM): PVd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2021 (TOURMALINE-MM1): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2016 (PANORAMA 1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>Stewart 2015 (ASPIRE): KRd vs Rd</t>
+  </si>
+  <si>
+    <t>Usmani 2022 (CANDOR): DKd vs Kd</t>
+  </si>
+  <si>
+    <t>refract</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Ref. to R and a PI</t>
+  </si>
+  <si>
+    <t>Not ref. to R and a PI</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous R or T use</t>
+  </si>
+  <si>
+    <t>No previous R or T use</t>
+  </si>
+  <si>
+    <t>Previous R or T use</t>
+  </si>
+  <si>
+    <t>No previous R or T use</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Refractory to T</t>
+  </si>
+  <si>
+    <t>Not refractory to T</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No previous IMiD use</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Lower 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>Upper 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0230</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .       Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t>Data Extraction Errors</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Study: Treatment 1 vs Treatment 2</t>
+  </si>
+  <si>
+    <t>Attal 2019 (ICARIA-MM): IsPd vs Pd</t>
+  </si>
+  <si>
+    <t>Bahlis 2020 (POLLUX): DRd vs Rd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2013 (VANTAGE 088): VorV vs V</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2016 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-3): EPd vs Pd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2020 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2021 (APOLLO): DPd vs Pd</t>
+  </si>
+  <si>
+    <t>Grosicki 2020 (BOSTON): SeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Hou 2017 (China Cont.): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>Jakubowiak 2016 (NCT01478048): EVd vs Vd</t>
+  </si>
+  <si>
+    <t>Kumar 2020 (BELLINI): VeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Lu 2021 (LEPUS): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Mateos 2020 (CASTOR): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Moreau 2021 (IKEMA): IsKd vs Kd</t>
+  </si>
+  <si>
+    <t>Orlowski 2019 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2019 (OPTIMISMM): PVd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2021 (TOURMALINE-MM1): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2014 (PANORAMA-1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2016 (PANORAMA 1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2013 (MM-003): Pd vs GC</t>
+  </si>
+  <si>
+    <t>Siegel 2018 (ASPIRE): KRd vs Rd</t>
+  </si>
+  <si>
+    <t>Usamani 2022 (CANDOR): DKd vs Kd</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;=3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;=2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Lower 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>Upper 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t>Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      AT 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t>Data Extraction Errors</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Study: Treatment 1 vs Treatment 2</t>
+  </si>
+  <si>
+    <t>Attal 2019 (ICARIA-MM): IsPd vs Pd</t>
+  </si>
+  <si>
+    <t>Bahlis 2020 (POLLUX): DRd vs Rd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2013 (VANTAGE 088): VorV vs V</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2016 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-3): EPd vs Pd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2021 (APOLLO): DPd vs Pd</t>
+  </si>
+  <si>
+    <t>Hou 2017 (China Cont.): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>Jakubowiak 2016 (NCT01478048): EVd vs Vd</t>
+  </si>
+  <si>
+    <t>Kumar 2020 (BELLINI): VeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Lonial 2015 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Lu 2021 (LEPUS): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Mateos 2020 (CASTOR): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Moreau 2021 (IKEMA): IsKd vs Kd</t>
+  </si>
+  <si>
+    <t>Orlowski 2007 (NCT00103506): V vs DoxV</t>
+  </si>
+  <si>
+    <t>Orlowski 2016 (NCT00103506): V vs DoxV</t>
+  </si>
+  <si>
+    <t>Orlowski 2019 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2019 (OPTIMISMM): PVd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2021 (TOURMALINE-MM1): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2016 (PANORAMA 1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>Stewart 2015 (ASPIRE): KRd vs Rd</t>
+  </si>
+  <si>
+    <t>Usmani 2022 (CANDOR): DKd vs Kd</t>
+  </si>
+  <si>
+    <t>refract</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Ref. to R and a PI</t>
+  </si>
+  <si>
+    <t>Not ref. to R and a PI</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous R or T use</t>
+  </si>
+  <si>
+    <t>No previous R or T use</t>
+  </si>
+  <si>
+    <t>Previous R or T use</t>
+  </si>
+  <si>
+    <t>No previous R or T use</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Refractory to T</t>
+  </si>
+  <si>
+    <t>Not refractory to T</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No previous IMiD use</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Lower 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>Upper 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0230</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .       Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t>Data Extraction Errors</t>
   </si>
   <si>
     <t/>
@@ -109288,42 +114688,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>36048</v>
+        <v>37848</v>
       </c>
       <c r="B1" t="s">
-        <v>36072</v>
+        <v>37872</v>
       </c>
       <c r="C1" t="s">
-        <v>36136</v>
+        <v>37936</v>
       </c>
       <c r="D1" t="s">
-        <v>36152</v>
+        <v>37952</v>
       </c>
       <c r="E1" t="s">
-        <v>36153</v>
+        <v>37953</v>
       </c>
       <c r="F1" t="s">
-        <v>36154</v>
+        <v>37954</v>
       </c>
       <c r="G1" t="s">
-        <v>36155</v>
+        <v>37955</v>
       </c>
       <c r="H1" t="s">
-        <v>36156</v>
+        <v>37956</v>
       </c>
       <c r="I1" t="s">
-        <v>36180</v>
+        <v>37980</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>36049</v>
+        <v>37849</v>
       </c>
       <c r="B2" t="s">
-        <v>36073</v>
+        <v>37873</v>
       </c>
       <c r="C2" t="s">
-        <v>36137</v>
+        <v>37937</v>
       </c>
       <c r="D2" s="1">
         <v>0.5899999737739563</v>
@@ -109336,21 +114736,21 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" t="s">
-        <v>36157</v>
+        <v>37957</v>
       </c>
       <c r="I2" t="s">
-        <v>36181</v>
+        <v>37981</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>36049</v>
+        <v>37849</v>
       </c>
       <c r="B3" t="s">
-        <v>36074</v>
+        <v>37874</v>
       </c>
       <c r="C3" t="s">
-        <v>36137</v>
+        <v>37937</v>
       </c>
       <c r="D3" s="1">
         <v>0.5899999737739563</v>
@@ -109363,21 +114763,21 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" t="s">
-        <v>36157</v>
+        <v>37957</v>
       </c>
       <c r="I3" t="s">
-        <v>36182</v>
+        <v>37982</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>36050</v>
+        <v>37850</v>
       </c>
       <c r="B4" t="s">
-        <v>36075</v>
+        <v>37875</v>
       </c>
       <c r="C4" t="s">
-        <v>36137</v>
+        <v>37937</v>
       </c>
       <c r="D4" s="1">
         <v>0.41999998688697815</v>
@@ -109390,21 +114790,21 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" t="s">
-        <v>36158</v>
+        <v>37958</v>
       </c>
       <c r="I4" t="s">
-        <v>36183</v>
+        <v>37983</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>36050</v>
+        <v>37850</v>
       </c>
       <c r="B5" t="s">
-        <v>36076</v>
+        <v>37876</v>
       </c>
       <c r="C5" t="s">
-        <v>36137</v>
+        <v>37937</v>
       </c>
       <c r="D5" s="1">
         <v>0.38999998569488525</v>
@@ -109417,21 +114817,21 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" t="s">
-        <v>36158</v>
+        <v>37958</v>
       </c>
       <c r="I5" t="s">
-        <v>36184</v>
+        <v>37984</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>36050</v>
+        <v>37850</v>
       </c>
       <c r="B6" t="s">
-        <v>36077</v>
+        <v>37877</v>
       </c>
       <c r="C6" t="s">
-        <v>36137</v>
+        <v>37937</v>
       </c>
       <c r="D6" s="1">
         <v>0.47999998927116394</v>
@@ -109444,21 +114844,21 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" t="s">
-        <v>36158</v>
+        <v>37958</v>
       </c>
       <c r="I6" t="s">
-        <v>36185</v>
+        <v>37985</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>36050</v>
+        <v>37850</v>
       </c>
       <c r="B7" t="s">
-        <v>36078</v>
+        <v>37878</v>
       </c>
       <c r="C7" t="s">
-        <v>36137</v>
+        <v>37937</v>
       </c>
       <c r="D7" s="1">
         <v>0.74000000953674316</v>
@@ -109471,21 +114871,21 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" t="s">
-        <v>36158</v>
+        <v>37958</v>
       </c>
       <c r="I7" t="s">
-        <v>36186</v>
+        <v>37986</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>36051</v>
+        <v>37851</v>
       </c>
       <c r="B8" t="s">
-        <v>36079</v>
+        <v>37879</v>
       </c>
       <c r="C8" t="s">
-        <v>36137</v>
+        <v>37937</v>
       </c>
       <c r="D8" s="1">
         <v>0.68699997663497925</v>
@@ -109500,21 +114900,21 @@
         <v>0.015200000256299973</v>
       </c>
       <c r="H8" t="s">
-        <v>36159</v>
+        <v>37959</v>
       </c>
       <c r="I8" t="s">
-        <v>36187</v>
+        <v>37987</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>36051</v>
+        <v>37851</v>
       </c>
       <c r="B9" t="s">
-        <v>36080</v>
+        <v>37880</v>
       </c>
       <c r="C9" t="s">
-        <v>36137</v>
+        <v>37937</v>
       </c>
       <c r="D9" s="1">
         <v>0.91600000858306885</v>
@@ -109529,21 +114929,21 @@
         <v>0.48710000514984131</v>
       </c>
       <c r="H9" t="s">
-        <v>36160</v>
+        <v>37960</v>
       </c>
       <c r="I9" t="s">
-        <v>36188</v>
+        <v>37988</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>36052</v>
+        <v>37852</v>
       </c>
       <c r="B10" t="s">
-        <v>36081</v>
+        <v>37881</v>
       </c>
       <c r="C10" t="s">
-        <v>36137</v>
+        <v>37937</v>
       </c>
       <c r="D10" s="1">
         <v>0.44999998807907104</v>
@@ -109556,21 +114956,21 @@
       </c>
       <c r="G10" s="1"/>
       <c r="H10" t="s">
-        <v>36161</v>
+        <v>37961</v>
       </c>
       <c r="I10" t="s">
-        <v>36189</v>
+        <v>37989</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>36052</v>
+        <v>37852</v>
       </c>
       <c r="B11" t="s">
-        <v>36082</v>
+        <v>37882</v>
       </c>
       <c r="C11" t="s">
-        <v>36137</v>
+        <v>37937</v>
       </c>
       <c r="D11" s="1">
         <v>0.60000002384185791</v>
@@ -109583,21 +114983,21 @@
       </c>
       <c r="G11" s="1"/>
       <c r="H11" t="s">
-        <v>36161</v>
+        <v>37961</v>
       </c>
       <c r="I11" t="s">
-        <v>36190</v>
+        <v>37990</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>36053</v>
+        <v>37853</v>
       </c>
       <c r="B12" t="s">
-        <v>36082</v>
+        <v>37882</v>
       </c>
       <c r="C12" t="s">
-        <v>36137</v>
+        <v>37937</v>
       </c>
       <c r="D12" s="1">
         <v>0.55000001192092896</v>
@@ -109610,21 +115010,21 @@
       </c>
       <c r="G12" s="1"/>
       <c r="H12" t="s">
-        <v>36162</v>
+        <v>37962</v>
       </c>
       <c r="I12" t="s">
-        <v>36191</v>
+        <v>37991</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>36053</v>
+        <v>37853</v>
       </c>
       <c r="B13" t="s">
-        <v>36083</v>
+        <v>37883</v>
       </c>
       <c r="C13" t="s">
-        <v>36137</v>
+        <v>37937</v>
       </c>
       <c r="D13" s="1">
         <v>0.50999999046325684</v>
@@ -109637,21 +115037,21 @@
       </c>
       <c r="G13" s="1"/>
       <c r="H13" t="s">
-        <v>36162</v>
+        <v>37962</v>
       </c>
       <c r="I13" t="s">
-        <v>36192</v>
+        <v>37992</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>36054</v>
+        <v>37854</v>
       </c>
       <c r="B14" t="s">
-        <v>36084</v>
+        <v>37884</v>
       </c>
       <c r="C14" t="s">
-        <v>36137</v>
+        <v>37937</v>
       </c>
       <c r="D14" s="1">
         <v>0.76999998092651367</v>
@@ -109664,21 +115064,21 @@
       </c>
       <c r="G14" s="1"/>
       <c r="H14" t="s">
-        <v>36163</v>
+        <v>37963</v>
       </c>
       <c r="I14" t="s">
-        <v>36193</v>
+        <v>37993</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>36054</v>
+        <v>37854</v>
       </c>
       <c r="B15" t="s">
-        <v>36085</v>
+        <v>37885</v>
       </c>
       <c r="C15" t="s">
-        <v>36137</v>
+        <v>37937</v>
       </c>
       <c r="D15" s="1">
         <v>0.68000000715255737</v>
@@ -109691,21 +115091,21 @@
       </c>
       <c r="G15" s="1"/>
       <c r="H15" t="s">
-        <v>36163</v>
+        <v>37963</v>
       </c>
       <c r="I15" t="s">
-        <v>36194</v>
+        <v>37994</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>36055</v>
+        <v>37855</v>
       </c>
       <c r="B16" t="s">
-        <v>36086</v>
+        <v>37886</v>
       </c>
       <c r="C16" t="s">
-        <v>36138</v>
+        <v>37938</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -109718,21 +115118,21 @@
       </c>
       <c r="G16" s="1"/>
       <c r="H16" t="s">
-        <v>36163</v>
+        <v>37963</v>
       </c>
       <c r="I16" t="s">
-        <v>36195</v>
+        <v>37995</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>36055</v>
+        <v>37855</v>
       </c>
       <c r="B17" t="s">
-        <v>36087</v>
+        <v>37887</v>
       </c>
       <c r="C17" t="s">
-        <v>36138</v>
+        <v>37938</v>
       </c>
       <c r="D17" s="1">
         <v>0.70999997854232788</v>
@@ -109745,21 +115145,21 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" t="s">
-        <v>36163</v>
+        <v>37963</v>
       </c>
       <c r="I17" t="s">
-        <v>36196</v>
+        <v>37996</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>36056</v>
+        <v>37856</v>
       </c>
       <c r="B18" t="s">
-        <v>36088</v>
+        <v>37888</v>
       </c>
       <c r="C18" t="s">
-        <v>36139</v>
+        <v>37939</v>
       </c>
       <c r="D18" s="1">
         <v>0.69999998807907104</v>
@@ -109772,21 +115172,21 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18" t="s">
-        <v>36164</v>
+        <v>37964</v>
       </c>
       <c r="I18" t="s">
-        <v>36197</v>
+        <v>37997</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>36056</v>
+        <v>37856</v>
       </c>
       <c r="B19" t="s">
-        <v>36089</v>
+        <v>37889</v>
       </c>
       <c r="C19" t="s">
-        <v>36139</v>
+        <v>37939</v>
       </c>
       <c r="D19" s="1">
         <v>0.6600000262260437</v>
@@ -109799,21 +115199,21 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" t="s">
-        <v>36164</v>
+        <v>37964</v>
       </c>
       <c r="I19" t="s">
-        <v>36198</v>
+        <v>37998</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>36056</v>
+        <v>37856</v>
       </c>
       <c r="B20" t="s">
-        <v>36090</v>
+        <v>37890</v>
       </c>
       <c r="C20" t="s">
-        <v>36139</v>
+        <v>37939</v>
       </c>
       <c r="D20" s="1">
         <v>0.40000000596046448</v>
@@ -109826,21 +115226,21 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" t="s">
-        <v>36164</v>
+        <v>37964</v>
       </c>
       <c r="I20" t="s">
-        <v>36199</v>
+        <v>37999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>36057</v>
+        <v>37857</v>
       </c>
       <c r="B21" t="s">
-        <v>36091</v>
+        <v>37891</v>
       </c>
       <c r="C21" t="s">
-        <v>36139</v>
+        <v>37939</v>
       </c>
       <c r="D21" s="1">
         <v>0.62999999523162842</v>
@@ -109853,21 +115253,21 @@
       </c>
       <c r="G21" s="1"/>
       <c r="H21" t="s">
-        <v>36165</v>
+        <v>37965</v>
       </c>
       <c r="I21" t="s">
-        <v>36200</v>
+        <v>38000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>36057</v>
+        <v>37857</v>
       </c>
       <c r="B22" t="s">
-        <v>36092</v>
+        <v>37892</v>
       </c>
       <c r="C22" t="s">
-        <v>36139</v>
+        <v>37939</v>
       </c>
       <c r="D22" s="1">
         <v>0.64999997615814209</v>
@@ -109880,21 +115280,21 @@
       </c>
       <c r="G22" s="1"/>
       <c r="H22" t="s">
-        <v>36165</v>
+        <v>37965</v>
       </c>
       <c r="I22" t="s">
-        <v>36201</v>
+        <v>38001</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>36057</v>
+        <v>37857</v>
       </c>
       <c r="B23" t="s">
-        <v>36093</v>
+        <v>37893</v>
       </c>
       <c r="C23" t="s">
-        <v>36139</v>
+        <v>37939</v>
       </c>
       <c r="D23" s="1">
         <v>0.81999999284744263</v>
@@ -109907,21 +115307,21 @@
       </c>
       <c r="G23" s="1"/>
       <c r="H23" t="s">
-        <v>36165</v>
+        <v>37965</v>
       </c>
       <c r="I23" t="s">
-        <v>36202</v>
+        <v>38002</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>36058</v>
+        <v>37858</v>
       </c>
       <c r="B24" t="s">
-        <v>36094</v>
+        <v>37894</v>
       </c>
       <c r="C24" t="s">
-        <v>36139</v>
+        <v>37939</v>
       </c>
       <c r="D24" s="1">
         <v>0.84700000286102295</v>
@@ -109934,21 +115334,21 @@
       </c>
       <c r="G24" s="1"/>
       <c r="H24" t="s">
-        <v>36166</v>
+        <v>37966</v>
       </c>
       <c r="I24" t="s">
-        <v>36203</v>
+        <v>38003</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>36058</v>
+        <v>37858</v>
       </c>
       <c r="B25" t="s">
-        <v>36095</v>
+        <v>37895</v>
       </c>
       <c r="C25" t="s">
-        <v>36139</v>
+        <v>37939</v>
       </c>
       <c r="D25" s="1">
         <v>0.37000000476837158</v>
@@ -109961,21 +115361,21 @@
       </c>
       <c r="G25" s="1"/>
       <c r="H25" t="s">
-        <v>36166</v>
+        <v>37966</v>
       </c>
       <c r="I25" t="s">
-        <v>36204</v>
+        <v>38004</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>36058</v>
+        <v>37858</v>
       </c>
       <c r="B26" t="s">
-        <v>36096</v>
+        <v>37896</v>
       </c>
       <c r="C26" t="s">
-        <v>36139</v>
+        <v>37939</v>
       </c>
       <c r="D26" s="1">
         <v>0.70200002193450928</v>
@@ -109988,21 +115388,21 @@
       </c>
       <c r="G26" s="1"/>
       <c r="H26" t="s">
-        <v>36166</v>
+        <v>37966</v>
       </c>
       <c r="I26" t="s">
-        <v>36205</v>
+        <v>38005</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>36058</v>
+        <v>37858</v>
       </c>
       <c r="B27" t="s">
-        <v>36097</v>
+        <v>37897</v>
       </c>
       <c r="C27" t="s">
-        <v>36140</v>
+        <v>37940</v>
       </c>
       <c r="D27" s="1">
         <v>0.52100002765655518</v>
@@ -110015,21 +115415,21 @@
       </c>
       <c r="G27" s="1"/>
       <c r="H27" t="s">
-        <v>36167</v>
+        <v>37967</v>
       </c>
       <c r="I27" t="s">
-        <v>36206</v>
+        <v>38006</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>36058</v>
+        <v>37858</v>
       </c>
       <c r="B28" t="s">
-        <v>36098</v>
+        <v>37898</v>
       </c>
       <c r="C28" t="s">
-        <v>36140</v>
+        <v>37940</v>
       </c>
       <c r="D28" s="1">
         <v>0.38600000739097595</v>
@@ -110042,21 +115442,21 @@
       </c>
       <c r="G28" s="1"/>
       <c r="H28" t="s">
-        <v>36167</v>
+        <v>37967</v>
       </c>
       <c r="I28" t="s">
-        <v>36207</v>
+        <v>38007</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>36058</v>
+        <v>37858</v>
       </c>
       <c r="B29" t="s">
-        <v>36099</v>
+        <v>37899</v>
       </c>
       <c r="C29" t="s">
-        <v>36140</v>
+        <v>37940</v>
       </c>
       <c r="D29" s="1">
         <v>0.335999995470047</v>
@@ -110069,75 +115469,75 @@
       </c>
       <c r="G29" s="1"/>
       <c r="H29" t="s">
-        <v>36167</v>
+        <v>37967</v>
       </c>
       <c r="I29" t="s">
-        <v>36208</v>
+        <v>38008</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>36059</v>
+        <v>37859</v>
       </c>
       <c r="B30" t="s">
-        <v>36100</v>
+        <v>37900</v>
       </c>
       <c r="C30" t="s">
-        <v>36141</v>
+        <v>37941</v>
       </c>
       <c r="D30" s="1">
-        <v>0.74000000953674316</v>
+        <v>0.68000000715255737</v>
       </c>
       <c r="E30" s="1">
-        <v>0.47999998927116394</v>
+        <v>0.41999998688697815</v>
       </c>
       <c r="F30" s="1">
-        <v>1.1299999952316284</v>
+        <v>1.0900000333786011</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" t="s">
-        <v>36168</v>
+        <v>37968</v>
       </c>
       <c r="I30" t="s">
-        <v>36209</v>
+        <v>38009</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>36059</v>
+        <v>37859</v>
       </c>
       <c r="B31" t="s">
-        <v>36101</v>
+        <v>37901</v>
       </c>
       <c r="C31" t="s">
-        <v>36141</v>
+        <v>37941</v>
       </c>
       <c r="D31" s="1">
-        <v>0.75999999046325684</v>
+        <v>0.72000002861022949</v>
       </c>
       <c r="E31" s="1">
-        <v>0.43000000715255737</v>
+        <v>0.38999998569488525</v>
       </c>
       <c r="F31" s="1">
         <v>1.3500000238418579</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" t="s">
-        <v>36168</v>
+        <v>37968</v>
       </c>
       <c r="I31" t="s">
-        <v>36210</v>
+        <v>38010</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>36060</v>
+        <v>37860</v>
       </c>
       <c r="B32" t="s">
-        <v>36102</v>
+        <v>37902</v>
       </c>
       <c r="C32" t="s">
-        <v>36141</v>
+        <v>37941</v>
       </c>
       <c r="D32" s="1">
         <v>0.75</v>
@@ -110150,21 +115550,21 @@
       </c>
       <c r="G32" s="1"/>
       <c r="H32" t="s">
-        <v>36169</v>
+        <v>37969</v>
       </c>
       <c r="I32" t="s">
-        <v>36211</v>
+        <v>38011</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>36060</v>
+        <v>37860</v>
       </c>
       <c r="B33" t="s">
-        <v>36103</v>
+        <v>37903</v>
       </c>
       <c r="C33" t="s">
-        <v>36141</v>
+        <v>37941</v>
       </c>
       <c r="D33" s="1">
         <v>0.54000002145767212</v>
@@ -110177,21 +115577,21 @@
       </c>
       <c r="G33" s="1"/>
       <c r="H33" t="s">
-        <v>36169</v>
+        <v>37969</v>
       </c>
       <c r="I33" t="s">
-        <v>36212</v>
+        <v>38012</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>36060</v>
+        <v>37860</v>
       </c>
       <c r="B34" t="s">
-        <v>36104</v>
+        <v>37904</v>
       </c>
       <c r="C34" t="s">
-        <v>36142</v>
+        <v>37942</v>
       </c>
       <c r="D34" s="1">
         <v>1.6699999570846558</v>
@@ -110204,21 +115604,21 @@
       </c>
       <c r="G34" s="1"/>
       <c r="H34" t="s">
-        <v>36170</v>
+        <v>37970</v>
       </c>
       <c r="I34" t="s">
-        <v>36213</v>
+        <v>38013</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>36060</v>
+        <v>37860</v>
       </c>
       <c r="B35" t="s">
-        <v>36105</v>
+        <v>37905</v>
       </c>
       <c r="C35" t="s">
-        <v>36142</v>
+        <v>37942</v>
       </c>
       <c r="D35" s="1">
         <v>2.3299999237060547</v>
@@ -110231,21 +115631,21 @@
       </c>
       <c r="G35" s="1"/>
       <c r="H35" t="s">
-        <v>36170</v>
+        <v>37970</v>
       </c>
       <c r="I35" t="s">
-        <v>36214</v>
+        <v>38014</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>36061</v>
+        <v>37861</v>
       </c>
       <c r="B36" t="s">
-        <v>36106</v>
+        <v>37906</v>
       </c>
       <c r="C36" t="s">
-        <v>36143</v>
+        <v>37943</v>
       </c>
       <c r="D36" s="1">
         <v>0.15999999642372131</v>
@@ -110258,21 +115658,21 @@
       </c>
       <c r="G36" s="1"/>
       <c r="H36" t="s">
-        <v>36171</v>
+        <v>37971</v>
       </c>
       <c r="I36" t="s">
-        <v>36215</v>
+        <v>38015</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>36061</v>
+        <v>37861</v>
       </c>
       <c r="B37" t="s">
-        <v>36107</v>
+        <v>37907</v>
       </c>
       <c r="C37" t="s">
-        <v>36143</v>
+        <v>37943</v>
       </c>
       <c r="D37" s="1">
         <v>0.51999998092651367</v>
@@ -110285,21 +115685,21 @@
       </c>
       <c r="G37" s="1"/>
       <c r="H37" t="s">
-        <v>36171</v>
+        <v>37971</v>
       </c>
       <c r="I37" t="s">
-        <v>36216</v>
+        <v>38016</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>36061</v>
+        <v>37861</v>
       </c>
       <c r="B38" t="s">
-        <v>36108</v>
+        <v>37908</v>
       </c>
       <c r="C38" t="s">
-        <v>36143</v>
+        <v>37943</v>
       </c>
       <c r="D38" s="1">
         <v>0.62999999523162842</v>
@@ -110312,21 +115712,21 @@
       </c>
       <c r="G38" s="1"/>
       <c r="H38" t="s">
-        <v>36171</v>
+        <v>37971</v>
       </c>
       <c r="I38" t="s">
-        <v>36217</v>
+        <v>38017</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>36061</v>
+        <v>37861</v>
       </c>
       <c r="B39" t="s">
-        <v>36109</v>
+        <v>37909</v>
       </c>
       <c r="C39" t="s">
-        <v>36143</v>
+        <v>37943</v>
       </c>
       <c r="D39" s="1">
         <v>0.25999999046325684</v>
@@ -110339,21 +115739,21 @@
       </c>
       <c r="G39" s="1"/>
       <c r="H39" t="s">
-        <v>36171</v>
+        <v>37971</v>
       </c>
       <c r="I39" t="s">
-        <v>36218</v>
+        <v>38018</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>36062</v>
+        <v>37862</v>
       </c>
       <c r="B40" t="s">
-        <v>36110</v>
+        <v>37910</v>
       </c>
       <c r="C40" t="s">
-        <v>36143</v>
+        <v>37943</v>
       </c>
       <c r="D40" s="1">
         <v>0.2199999988079071</v>
@@ -110366,21 +115766,21 @@
       </c>
       <c r="G40" s="1"/>
       <c r="H40" t="s">
-        <v>36171</v>
+        <v>37971</v>
       </c>
       <c r="I40" t="s">
-        <v>36219</v>
+        <v>38019</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>36062</v>
+        <v>37862</v>
       </c>
       <c r="B41" t="s">
-        <v>36111</v>
+        <v>37911</v>
       </c>
       <c r="C41" t="s">
-        <v>36143</v>
+        <v>37943</v>
       </c>
       <c r="D41" s="1">
         <v>0.46000000834465027</v>
@@ -110393,21 +115793,21 @@
       </c>
       <c r="G41" s="1"/>
       <c r="H41" t="s">
-        <v>36171</v>
+        <v>37971</v>
       </c>
       <c r="I41" t="s">
-        <v>36220</v>
+        <v>38020</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>36062</v>
+        <v>37862</v>
       </c>
       <c r="B42" t="s">
-        <v>36112</v>
+        <v>37912</v>
       </c>
       <c r="C42" t="s">
-        <v>36143</v>
+        <v>37943</v>
       </c>
       <c r="D42" s="1">
         <v>0.60000002384185791</v>
@@ -110420,21 +115820,21 @@
       </c>
       <c r="G42" s="1"/>
       <c r="H42" t="s">
-        <v>36171</v>
+        <v>37971</v>
       </c>
       <c r="I42" t="s">
-        <v>36221</v>
+        <v>38021</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>36062</v>
+        <v>37862</v>
       </c>
       <c r="B43" t="s">
-        <v>36113</v>
+        <v>37913</v>
       </c>
       <c r="C43" t="s">
-        <v>36143</v>
+        <v>37943</v>
       </c>
       <c r="D43" s="1">
         <v>0.37000000476837158</v>
@@ -110447,21 +115847,21 @@
       </c>
       <c r="G43" s="1"/>
       <c r="H43" t="s">
-        <v>36171</v>
+        <v>37971</v>
       </c>
       <c r="I43" t="s">
-        <v>36222</v>
+        <v>38022</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>36063</v>
+        <v>37863</v>
       </c>
       <c r="B44" t="s">
-        <v>36114</v>
+        <v>37914</v>
       </c>
       <c r="C44" t="s">
-        <v>36143</v>
+        <v>37943</v>
       </c>
       <c r="D44" s="1">
         <v>0.5899999737739563</v>
@@ -110474,21 +115874,21 @@
       </c>
       <c r="G44" s="1"/>
       <c r="H44" t="s">
-        <v>36172</v>
+        <v>37972</v>
       </c>
       <c r="I44" t="s">
-        <v>36223</v>
+        <v>38023</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>36063</v>
+        <v>37863</v>
       </c>
       <c r="B45" t="s">
-        <v>36115</v>
+        <v>37915</v>
       </c>
       <c r="C45" t="s">
-        <v>36143</v>
+        <v>37943</v>
       </c>
       <c r="D45" s="1">
         <v>0.47999998927116394</v>
@@ -110501,21 +115901,21 @@
       </c>
       <c r="G45" s="1"/>
       <c r="H45" t="s">
-        <v>36172</v>
+        <v>37972</v>
       </c>
       <c r="I45" t="s">
-        <v>36224</v>
+        <v>38024</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>36064</v>
+        <v>37864</v>
       </c>
       <c r="B46" t="s">
-        <v>36116</v>
+        <v>37916</v>
       </c>
       <c r="C46" t="s">
-        <v>36144</v>
+        <v>37944</v>
       </c>
       <c r="D46" s="1">
         <v>0.77100002765655518</v>
@@ -110528,21 +115928,21 @@
       </c>
       <c r="G46" s="1"/>
       <c r="H46" t="s">
-        <v>36172</v>
+        <v>37972</v>
       </c>
       <c r="I46" t="s">
-        <v>36225</v>
+        <v>38025</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>36064</v>
+        <v>37864</v>
       </c>
       <c r="B47" t="s">
-        <v>36117</v>
+        <v>37917</v>
       </c>
       <c r="C47" t="s">
-        <v>36144</v>
+        <v>37944</v>
       </c>
       <c r="D47" s="1">
         <v>0.75199997425079346</v>
@@ -110555,21 +115955,21 @@
       </c>
       <c r="G47" s="1"/>
       <c r="H47" t="s">
-        <v>36172</v>
+        <v>37972</v>
       </c>
       <c r="I47" t="s">
-        <v>36226</v>
+        <v>38026</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>36065</v>
+        <v>37865</v>
       </c>
       <c r="B48" t="s">
-        <v>36118</v>
+        <v>37918</v>
       </c>
       <c r="C48" t="s">
-        <v>36145</v>
+        <v>37945</v>
       </c>
       <c r="D48" s="1">
         <v>0.54000002145767212</v>
@@ -110582,21 +115982,21 @@
       </c>
       <c r="G48" s="1"/>
       <c r="H48" t="s">
-        <v>36172</v>
+        <v>37972</v>
       </c>
       <c r="I48" t="s">
-        <v>36227</v>
+        <v>38027</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>36065</v>
+        <v>37865</v>
       </c>
       <c r="B49" t="s">
-        <v>36119</v>
+        <v>37919</v>
       </c>
       <c r="C49" t="s">
-        <v>36145</v>
+        <v>37945</v>
       </c>
       <c r="D49" s="1">
         <v>0.67000001668930054</v>
@@ -110609,21 +116009,21 @@
       </c>
       <c r="G49" s="1"/>
       <c r="H49" t="s">
-        <v>36172</v>
+        <v>37972</v>
       </c>
       <c r="I49" t="s">
-        <v>36228</v>
+        <v>38028</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>36065</v>
+        <v>37865</v>
       </c>
       <c r="B50" t="s">
-        <v>36120</v>
+        <v>37920</v>
       </c>
       <c r="C50" t="s">
-        <v>36145</v>
+        <v>37945</v>
       </c>
       <c r="D50" s="1">
         <v>0.60000002384185791</v>
@@ -110636,21 +116036,21 @@
       </c>
       <c r="G50" s="1"/>
       <c r="H50" t="s">
-        <v>36172</v>
+        <v>37972</v>
       </c>
       <c r="I50" t="s">
-        <v>36229</v>
+        <v>38029</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>36066</v>
+        <v>37866</v>
       </c>
       <c r="B51" t="s">
-        <v>36121</v>
+        <v>37921</v>
       </c>
       <c r="C51" t="s">
-        <v>36146</v>
+        <v>37946</v>
       </c>
       <c r="D51" s="1">
         <v>0.97600001096725464</v>
@@ -110663,21 +116063,21 @@
       </c>
       <c r="G51" s="1"/>
       <c r="H51" t="s">
-        <v>36173</v>
+        <v>37973</v>
       </c>
       <c r="I51" t="s">
-        <v>36230</v>
+        <v>38030</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>36066</v>
+        <v>37866</v>
       </c>
       <c r="B52" t="s">
-        <v>36122</v>
+        <v>37922</v>
       </c>
       <c r="C52" t="s">
-        <v>36146</v>
+        <v>37946</v>
       </c>
       <c r="D52" s="1">
         <v>0.92599999904632568</v>
@@ -110690,21 +116090,21 @@
       </c>
       <c r="G52" s="1"/>
       <c r="H52" t="s">
-        <v>36173</v>
+        <v>37973</v>
       </c>
       <c r="I52" t="s">
-        <v>36231</v>
+        <v>38031</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>36066</v>
+        <v>37866</v>
       </c>
       <c r="B53" t="s">
-        <v>36123</v>
+        <v>37923</v>
       </c>
       <c r="C53" t="s">
-        <v>36146</v>
+        <v>37946</v>
       </c>
       <c r="D53" s="1">
         <v>0.88300001621246338</v>
@@ -110717,21 +116117,21 @@
       </c>
       <c r="G53" s="1"/>
       <c r="H53" t="s">
-        <v>36173</v>
+        <v>37973</v>
       </c>
       <c r="I53" t="s">
-        <v>36232</v>
+        <v>38032</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>36067</v>
+        <v>37867</v>
       </c>
       <c r="B54" t="s">
-        <v>36124</v>
+        <v>37924</v>
       </c>
       <c r="C54" t="s">
-        <v>36147</v>
+        <v>37947</v>
       </c>
       <c r="D54" s="1">
         <v>0.6600000262260437</v>
@@ -110744,21 +116144,21 @@
       </c>
       <c r="G54" s="1"/>
       <c r="H54" t="s">
-        <v>36174</v>
+        <v>37974</v>
       </c>
       <c r="I54" t="s">
-        <v>36233</v>
+        <v>38033</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>36067</v>
+        <v>37867</v>
       </c>
       <c r="B55" t="s">
-        <v>36125</v>
+        <v>37925</v>
       </c>
       <c r="C55" t="s">
-        <v>36147</v>
+        <v>37947</v>
       </c>
       <c r="D55" s="1">
         <v>0.63999998569488525</v>
@@ -110771,21 +116171,21 @@
       </c>
       <c r="G55" s="1"/>
       <c r="H55" t="s">
-        <v>36174</v>
+        <v>37974</v>
       </c>
       <c r="I55" t="s">
-        <v>36234</v>
+        <v>38034</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>36068</v>
+        <v>37868</v>
       </c>
       <c r="B56" t="s">
-        <v>36126</v>
+        <v>37926</v>
       </c>
       <c r="C56" t="s">
-        <v>36148</v>
+        <v>37948</v>
       </c>
       <c r="D56" s="1">
         <v>0.89999997615814209</v>
@@ -110798,21 +116198,21 @@
       </c>
       <c r="G56" s="1"/>
       <c r="H56" t="s">
-        <v>36175</v>
+        <v>37975</v>
       </c>
       <c r="I56" t="s">
-        <v>36235</v>
+        <v>38035</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>36068</v>
+        <v>37868</v>
       </c>
       <c r="B57" t="s">
-        <v>36127</v>
+        <v>37927</v>
       </c>
       <c r="C57" t="s">
-        <v>36148</v>
+        <v>37948</v>
       </c>
       <c r="D57" s="1">
         <v>0.95999997854232788</v>
@@ -110825,21 +116225,21 @@
       </c>
       <c r="G57" s="1"/>
       <c r="H57" t="s">
-        <v>36175</v>
+        <v>37975</v>
       </c>
       <c r="I57" t="s">
-        <v>36236</v>
+        <v>38036</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>36069</v>
+        <v>37869</v>
       </c>
       <c r="B58" t="s">
-        <v>36128</v>
+        <v>37928</v>
       </c>
       <c r="C58" t="s">
-        <v>36149</v>
+        <v>37949</v>
       </c>
       <c r="D58" s="1">
         <v>0.4699999988079071</v>
@@ -110852,21 +116252,21 @@
       </c>
       <c r="G58" s="1"/>
       <c r="H58" t="s">
-        <v>36176</v>
+        <v>37976</v>
       </c>
       <c r="I58" t="s">
-        <v>36237</v>
+        <v>38037</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>36069</v>
+        <v>37869</v>
       </c>
       <c r="B59" t="s">
-        <v>36129</v>
+        <v>37929</v>
       </c>
       <c r="C59" t="s">
-        <v>36149</v>
+        <v>37949</v>
       </c>
       <c r="D59" s="1">
         <v>0.47999998927116394</v>
@@ -110879,21 +116279,21 @@
       </c>
       <c r="G59" s="1"/>
       <c r="H59" t="s">
-        <v>36176</v>
+        <v>37976</v>
       </c>
       <c r="I59" t="s">
-        <v>36238</v>
+        <v>38038</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>36069</v>
+        <v>37869</v>
       </c>
       <c r="B60" t="s">
-        <v>36130</v>
+        <v>37930</v>
       </c>
       <c r="C60" t="s">
-        <v>36150</v>
+        <v>37950</v>
       </c>
       <c r="D60" s="1">
         <v>0.43999999761581421</v>
@@ -110906,21 +116306,21 @@
       </c>
       <c r="G60" s="1"/>
       <c r="H60" t="s">
-        <v>36177</v>
+        <v>37977</v>
       </c>
       <c r="I60" t="s">
-        <v>36239</v>
+        <v>38039</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>36069</v>
+        <v>37869</v>
       </c>
       <c r="B61" t="s">
-        <v>36131</v>
+        <v>37931</v>
       </c>
       <c r="C61" t="s">
-        <v>36150</v>
+        <v>37950</v>
       </c>
       <c r="D61" s="1">
         <v>0.75999999046325684</v>
@@ -110933,21 +116333,21 @@
       </c>
       <c r="G61" s="1"/>
       <c r="H61" t="s">
-        <v>36177</v>
+        <v>37977</v>
       </c>
       <c r="I61" t="s">
-        <v>36240</v>
+        <v>38040</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>36070</v>
+        <v>37870</v>
       </c>
       <c r="B62" t="s">
-        <v>36132</v>
+        <v>37932</v>
       </c>
       <c r="C62" t="s">
-        <v>36150</v>
+        <v>37950</v>
       </c>
       <c r="D62" s="1">
         <v>0.81000000238418579</v>
@@ -110960,21 +116360,21 @@
       </c>
       <c r="G62" s="1"/>
       <c r="H62" t="s">
-        <v>36178</v>
+        <v>37978</v>
       </c>
       <c r="I62" t="s">
-        <v>36241</v>
+        <v>38041</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>36070</v>
+        <v>37870</v>
       </c>
       <c r="B63" t="s">
-        <v>36133</v>
+        <v>37933</v>
       </c>
       <c r="C63" t="s">
-        <v>36150</v>
+        <v>37950</v>
       </c>
       <c r="D63" s="1">
         <v>0.79000002145767212</v>
@@ -110987,21 +116387,21 @@
       </c>
       <c r="G63" s="1"/>
       <c r="H63" t="s">
-        <v>36178</v>
+        <v>37978</v>
       </c>
       <c r="I63" t="s">
-        <v>36242</v>
+        <v>38042</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>36071</v>
+        <v>37871</v>
       </c>
       <c r="B64" t="s">
-        <v>36134</v>
+        <v>37934</v>
       </c>
       <c r="C64" t="s">
-        <v>36151</v>
+        <v>37951</v>
       </c>
       <c r="D64" s="1">
         <v>0.6600000262260437</v>
@@ -111014,21 +116414,21 @@
       </c>
       <c r="G64" s="1"/>
       <c r="H64" t="s">
-        <v>36179</v>
+        <v>37979</v>
       </c>
       <c r="I64" t="s">
-        <v>36243</v>
+        <v>38043</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>36071</v>
+        <v>37871</v>
       </c>
       <c r="B65" t="s">
-        <v>36135</v>
+        <v>37935</v>
       </c>
       <c r="C65" t="s">
-        <v>36151</v>
+        <v>37951</v>
       </c>
       <c r="D65" s="1">
         <v>0.55000001192092896</v>
@@ -111041,10 +116441,10 @@
       </c>
       <c r="G65" s="1"/>
       <c r="H65" t="s">
-        <v>36179</v>
+        <v>37979</v>
       </c>
       <c r="I65" t="s">
-        <v>36244</v>
+        <v>38044</v>
       </c>
     </row>
   </sheetData>
@@ -111058,42 +116458,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>36245</v>
+        <v>38045</v>
       </c>
       <c r="B1" t="s">
-        <v>36267</v>
+        <v>38067</v>
       </c>
       <c r="C1" t="s">
-        <v>36314</v>
+        <v>38114</v>
       </c>
       <c r="D1" t="s">
-        <v>36324</v>
+        <v>38124</v>
       </c>
       <c r="E1" t="s">
-        <v>36325</v>
+        <v>38125</v>
       </c>
       <c r="F1" t="s">
-        <v>36326</v>
+        <v>38126</v>
       </c>
       <c r="G1" t="s">
-        <v>36327</v>
+        <v>38127</v>
       </c>
       <c r="H1" t="s">
-        <v>36339</v>
+        <v>38139</v>
       </c>
       <c r="I1" t="s">
-        <v>36360</v>
+        <v>38160</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>36246</v>
+        <v>38046</v>
       </c>
       <c r="B2" t="s">
-        <v>36268</v>
+        <v>38068</v>
       </c>
       <c r="C2" t="s">
-        <v>36315</v>
+        <v>38115</v>
       </c>
       <c r="D2" s="1">
         <v>0.5899999737739563</v>
@@ -111105,24 +116505,24 @@
         <v>0.81999999284744263</v>
       </c>
       <c r="G2" t="s">
-        <v>36328</v>
+        <v>38128</v>
       </c>
       <c r="H2" t="s">
-        <v>36340</v>
+        <v>38140</v>
       </c>
       <c r="I2" t="s">
-        <v>36361</v>
+        <v>38161</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>36246</v>
+        <v>38046</v>
       </c>
       <c r="B3" t="s">
-        <v>36269</v>
+        <v>38069</v>
       </c>
       <c r="C3" t="s">
-        <v>36315</v>
+        <v>38115</v>
       </c>
       <c r="D3" s="1">
         <v>0.18000000715255737</v>
@@ -111134,24 +116534,24 @@
         <v>1.4900000095367432</v>
       </c>
       <c r="G3" t="s">
-        <v>36328</v>
+        <v>38128</v>
       </c>
       <c r="H3" t="s">
-        <v>36340</v>
+        <v>38140</v>
       </c>
       <c r="I3" t="s">
-        <v>36362</v>
+        <v>38162</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>36247</v>
+        <v>38047</v>
       </c>
       <c r="B4" t="s">
-        <v>36270</v>
+        <v>38070</v>
       </c>
       <c r="C4" t="s">
-        <v>36315</v>
+        <v>38115</v>
       </c>
       <c r="D4" s="1">
         <v>0.37999999523162842</v>
@@ -111163,24 +116563,24 @@
         <v>0.6600000262260437</v>
       </c>
       <c r="G4" t="s">
-        <v>36328</v>
+        <v>38128</v>
       </c>
       <c r="H4" t="s">
-        <v>36341</v>
+        <v>38141</v>
       </c>
       <c r="I4" t="s">
-        <v>36363</v>
+        <v>38163</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>36247</v>
+        <v>38047</v>
       </c>
       <c r="B5" t="s">
-        <v>36271</v>
+        <v>38071</v>
       </c>
       <c r="C5" t="s">
-        <v>36315</v>
+        <v>38115</v>
       </c>
       <c r="D5" s="1">
         <v>0.44999998807907104</v>
@@ -111192,24 +116592,24 @@
         <v>0.57999998331069946</v>
       </c>
       <c r="G5" t="s">
-        <v>36328</v>
+        <v>38128</v>
       </c>
       <c r="H5" t="s">
-        <v>36341</v>
+        <v>38141</v>
       </c>
       <c r="I5" t="s">
-        <v>36364</v>
+        <v>38164</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>36248</v>
+        <v>38048</v>
       </c>
       <c r="B6" t="s">
-        <v>36272</v>
+        <v>38072</v>
       </c>
       <c r="C6" t="s">
-        <v>36315</v>
+        <v>38115</v>
       </c>
       <c r="D6" s="1">
         <v>0.75700002908706665</v>
@@ -111221,24 +116621,24 @@
         <v>0.96299999952316284</v>
       </c>
       <c r="G6" t="s">
-        <v>36329</v>
+        <v>38129</v>
       </c>
       <c r="H6" t="s">
-        <v>36342</v>
+        <v>38142</v>
       </c>
       <c r="I6" t="s">
-        <v>36365</v>
+        <v>38165</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>36248</v>
+        <v>38048</v>
       </c>
       <c r="B7" t="s">
-        <v>36273</v>
+        <v>38073</v>
       </c>
       <c r="C7" t="s">
-        <v>36315</v>
+        <v>38115</v>
       </c>
       <c r="D7" s="1">
         <v>0.92599999904632568</v>
@@ -111250,24 +116650,24 @@
         <v>1.2790000438690186</v>
       </c>
       <c r="G7" t="s">
-        <v>36330</v>
+        <v>38130</v>
       </c>
       <c r="H7" t="s">
-        <v>36342</v>
+        <v>38142</v>
       </c>
       <c r="I7" t="s">
-        <v>36366</v>
+        <v>38166</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>36249</v>
+        <v>38049</v>
       </c>
       <c r="B8" t="s">
-        <v>36274</v>
+        <v>38074</v>
       </c>
       <c r="C8" t="s">
-        <v>36315</v>
+        <v>38115</v>
       </c>
       <c r="D8" s="1">
         <v>0.43999999761581421</v>
@@ -111279,24 +116679,24 @@
         <v>0.56000000238418579</v>
       </c>
       <c r="G8" t="s">
-        <v>36331</v>
+        <v>38131</v>
       </c>
       <c r="H8" t="s">
-        <v>36343</v>
+        <v>38143</v>
       </c>
       <c r="I8" t="s">
-        <v>36367</v>
+        <v>38167</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>36249</v>
+        <v>38049</v>
       </c>
       <c r="B9" t="s">
-        <v>36275</v>
+        <v>38075</v>
       </c>
       <c r="C9" t="s">
-        <v>36315</v>
+        <v>38115</v>
       </c>
       <c r="D9" s="1">
         <v>0.80000001192092896</v>
@@ -111308,24 +116708,24 @@
         <v>1.1100000143051147</v>
       </c>
       <c r="G9" t="s">
-        <v>36331</v>
+        <v>38131</v>
       </c>
       <c r="H9" t="s">
-        <v>36343</v>
+        <v>38143</v>
       </c>
       <c r="I9" t="s">
-        <v>36368</v>
+        <v>38168</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>36250</v>
+        <v>38050</v>
       </c>
       <c r="B10" t="s">
-        <v>36276</v>
+        <v>38076</v>
       </c>
       <c r="C10" t="s">
-        <v>36315</v>
+        <v>38115</v>
       </c>
       <c r="D10" s="1">
         <v>0.56000000238418579</v>
@@ -111337,24 +116737,24 @@
         <v>0.97000002861022949</v>
       </c>
       <c r="G10" t="s">
-        <v>36331</v>
+        <v>38131</v>
       </c>
       <c r="H10" t="s">
-        <v>36344</v>
+        <v>38144</v>
       </c>
       <c r="I10" t="s">
-        <v>36369</v>
+        <v>38169</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>36250</v>
+        <v>38050</v>
       </c>
       <c r="B11" t="s">
-        <v>36277</v>
+        <v>38077</v>
       </c>
       <c r="C11" t="s">
-        <v>36315</v>
+        <v>38115</v>
       </c>
       <c r="D11" s="1">
         <v>0.50999999046325684</v>
@@ -111366,82 +116766,82 @@
         <v>1.190000057220459</v>
       </c>
       <c r="G11" t="s">
-        <v>36331</v>
+        <v>38131</v>
       </c>
       <c r="H11" t="s">
-        <v>36344</v>
+        <v>38144</v>
       </c>
       <c r="I11" t="s">
-        <v>36370</v>
+        <v>38170</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>36251</v>
+        <v>38051</v>
       </c>
       <c r="B12" t="s">
-        <v>36278</v>
+        <v>38078</v>
       </c>
       <c r="C12" t="s">
-        <v>36315</v>
+        <v>38115</v>
       </c>
       <c r="D12" s="1">
-        <v>0.36000001430511475</v>
+        <v>0.6600000262260437</v>
       </c>
       <c r="E12" s="1">
-        <v>0.15000000596046448</v>
+        <v>0.49000000953674316</v>
       </c>
       <c r="F12" s="1">
-        <v>0.82999998331069946</v>
+        <v>0.89999997615814209</v>
       </c>
       <c r="G12" t="s">
-        <v>36331</v>
+        <v>38131</v>
       </c>
       <c r="H12" t="s">
-        <v>36345</v>
+        <v>38145</v>
       </c>
       <c r="I12" t="s">
-        <v>36371</v>
+        <v>38171</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>36251</v>
+        <v>38051</v>
       </c>
       <c r="B13" t="s">
-        <v>36279</v>
+        <v>38079</v>
       </c>
       <c r="C13" t="s">
-        <v>36315</v>
+        <v>38115</v>
       </c>
       <c r="D13" s="1">
-        <v>0.6600000262260437</v>
+        <v>0.36000001430511475</v>
       </c>
       <c r="E13" s="1">
-        <v>0.49000000953674316</v>
+        <v>0.15000000596046448</v>
       </c>
       <c r="F13" s="1">
-        <v>0.89999997615814209</v>
+        <v>0.82999998331069946</v>
       </c>
       <c r="G13" t="s">
-        <v>36331</v>
+        <v>38131</v>
       </c>
       <c r="H13" t="s">
-        <v>36345</v>
+        <v>38145</v>
       </c>
       <c r="I13" t="s">
-        <v>36372</v>
+        <v>38172</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>36252</v>
+        <v>38052</v>
       </c>
       <c r="B14" t="s">
-        <v>36280</v>
+        <v>38080</v>
       </c>
       <c r="C14" t="s">
-        <v>36315</v>
+        <v>38115</v>
       </c>
       <c r="D14" s="1">
         <v>0.55299997329711914</v>
@@ -111453,24 +116853,24 @@
         <v>0.9309999942779541</v>
       </c>
       <c r="G14" t="s">
-        <v>36332</v>
+        <v>38132</v>
       </c>
       <c r="H14" t="s">
-        <v>36346</v>
+        <v>38146</v>
       </c>
       <c r="I14" t="s">
-        <v>36373</v>
+        <v>38173</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>36252</v>
+        <v>38052</v>
       </c>
       <c r="B15" t="s">
-        <v>36281</v>
+        <v>38081</v>
       </c>
       <c r="C15" t="s">
-        <v>36315</v>
+        <v>38115</v>
       </c>
       <c r="D15" s="1">
         <v>0.76599997282028198</v>
@@ -111482,24 +116882,24 @@
         <v>3.9639999866485596</v>
       </c>
       <c r="G15" t="s">
-        <v>36332</v>
+        <v>38132</v>
       </c>
       <c r="H15" t="s">
-        <v>36346</v>
+        <v>38146</v>
       </c>
       <c r="I15" t="s">
-        <v>36374</v>
+        <v>38174</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>36252</v>
+        <v>38052</v>
       </c>
       <c r="B16" t="s">
-        <v>36282</v>
+        <v>38082</v>
       </c>
       <c r="C16" t="s">
-        <v>36316</v>
+        <v>38116</v>
       </c>
       <c r="D16" s="1">
         <v>0.39800000190734863</v>
@@ -111511,24 +116911,24 @@
         <v>0.71899998188018799</v>
       </c>
       <c r="G16" t="s">
-        <v>36332</v>
+        <v>38132</v>
       </c>
       <c r="H16" t="s">
-        <v>36347</v>
+        <v>38147</v>
       </c>
       <c r="I16" t="s">
-        <v>36375</v>
+        <v>38175</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>36252</v>
+        <v>38052</v>
       </c>
       <c r="B17" t="s">
-        <v>36283</v>
+        <v>38083</v>
       </c>
       <c r="C17" t="s">
-        <v>36316</v>
+        <v>38116</v>
       </c>
       <c r="D17" s="1">
         <v>0.49799999594688416</v>
@@ -111540,24 +116940,24 @@
         <v>2.4030001163482666</v>
       </c>
       <c r="G17" t="s">
-        <v>36332</v>
+        <v>38132</v>
       </c>
       <c r="H17" t="s">
-        <v>36347</v>
+        <v>38147</v>
       </c>
       <c r="I17" t="s">
-        <v>36376</v>
+        <v>38176</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>36253</v>
+        <v>38053</v>
       </c>
       <c r="B18" t="s">
-        <v>36284</v>
+        <v>38084</v>
       </c>
       <c r="C18" t="s">
-        <v>36317</v>
+        <v>38117</v>
       </c>
       <c r="D18" s="1">
         <v>0.87000000476837158</v>
@@ -111569,24 +116969,24 @@
         <v>1.2899999618530273</v>
       </c>
       <c r="G18" t="s">
-        <v>36333</v>
+        <v>38133</v>
       </c>
       <c r="H18" t="s">
-        <v>36348</v>
+        <v>38148</v>
       </c>
       <c r="I18" t="s">
-        <v>36377</v>
+        <v>38177</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>36253</v>
+        <v>38053</v>
       </c>
       <c r="B19" t="s">
-        <v>36285</v>
+        <v>38085</v>
       </c>
       <c r="C19" t="s">
-        <v>36317</v>
+        <v>38117</v>
       </c>
       <c r="D19" s="1">
         <v>0.38999998569488525</v>
@@ -111598,24 +116998,24 @@
         <v>0.80000001192092896</v>
       </c>
       <c r="G19" t="s">
-        <v>36333</v>
+        <v>38133</v>
       </c>
       <c r="H19" t="s">
-        <v>36348</v>
+        <v>38148</v>
       </c>
       <c r="I19" t="s">
-        <v>36378</v>
+        <v>38178</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>36254</v>
+        <v>38054</v>
       </c>
       <c r="B20" t="s">
-        <v>36286</v>
+        <v>38086</v>
       </c>
       <c r="C20" t="s">
-        <v>36317</v>
+        <v>38117</v>
       </c>
       <c r="D20" s="1">
         <v>0.61000001430511475</v>
@@ -111627,24 +117027,24 @@
         <v>1.1699999570846558</v>
       </c>
       <c r="G20" t="s">
-        <v>36333</v>
+        <v>38133</v>
       </c>
       <c r="H20" t="s">
-        <v>36349</v>
+        <v>38149</v>
       </c>
       <c r="I20" t="s">
-        <v>36379</v>
+        <v>38179</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>36254</v>
+        <v>38054</v>
       </c>
       <c r="B21" t="s">
-        <v>36287</v>
+        <v>38087</v>
       </c>
       <c r="C21" t="s">
-        <v>36317</v>
+        <v>38117</v>
       </c>
       <c r="D21" s="1">
         <v>0.75</v>
@@ -111656,24 +117056,24 @@
         <v>1.3600000143051147</v>
       </c>
       <c r="G21" t="s">
-        <v>36333</v>
+        <v>38133</v>
       </c>
       <c r="H21" t="s">
-        <v>36349</v>
+        <v>38149</v>
       </c>
       <c r="I21" t="s">
-        <v>36380</v>
+        <v>38180</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>36254</v>
+        <v>38054</v>
       </c>
       <c r="B22" t="s">
-        <v>36288</v>
+        <v>38088</v>
       </c>
       <c r="C22" t="s">
-        <v>36318</v>
+        <v>38118</v>
       </c>
       <c r="D22" s="1">
         <v>5.9000000953674316</v>
@@ -111685,24 +117085,24 @@
         <v>46.099998474121094</v>
       </c>
       <c r="G22" t="s">
-        <v>36333</v>
+        <v>38133</v>
       </c>
       <c r="H22" t="s">
-        <v>36350</v>
+        <v>38150</v>
       </c>
       <c r="I22" t="s">
-        <v>36381</v>
+        <v>38181</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>36254</v>
+        <v>38054</v>
       </c>
       <c r="B23" t="s">
-        <v>36289</v>
+        <v>38089</v>
       </c>
       <c r="C23" t="s">
-        <v>36318</v>
+        <v>38118</v>
       </c>
       <c r="D23" s="1">
         <v>1.8200000524520874</v>
@@ -111714,24 +117114,24 @@
         <v>5.1399998664855957</v>
       </c>
       <c r="G23" t="s">
-        <v>36333</v>
+        <v>38133</v>
       </c>
       <c r="H23" t="s">
-        <v>36350</v>
+        <v>38150</v>
       </c>
       <c r="I23" t="s">
-        <v>36382</v>
+        <v>38182</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>36255</v>
+        <v>38055</v>
       </c>
       <c r="B24" t="s">
-        <v>36290</v>
+        <v>38090</v>
       </c>
       <c r="C24" t="s">
-        <v>36319</v>
+        <v>38119</v>
       </c>
       <c r="D24" s="1">
         <v>0.5899999737739563</v>
@@ -111743,24 +117143,24 @@
         <v>1.3999999761581421</v>
       </c>
       <c r="G24" t="s">
-        <v>36333</v>
+        <v>38133</v>
       </c>
       <c r="H24" t="s">
-        <v>36351</v>
+        <v>38151</v>
       </c>
       <c r="I24" t="s">
-        <v>36383</v>
+        <v>38183</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>36255</v>
+        <v>38055</v>
       </c>
       <c r="B25" t="s">
-        <v>36291</v>
+        <v>38091</v>
       </c>
       <c r="C25" t="s">
-        <v>36319</v>
+        <v>38119</v>
       </c>
       <c r="D25" s="1">
         <v>0.69999998807907104</v>
@@ -111772,24 +117172,24 @@
         <v>0.87000000476837158</v>
       </c>
       <c r="G25" t="s">
-        <v>36333</v>
+        <v>38133</v>
       </c>
       <c r="H25" t="s">
-        <v>36351</v>
+        <v>38151</v>
       </c>
       <c r="I25" t="s">
-        <v>36384</v>
+        <v>38184</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>36256</v>
+        <v>38056</v>
       </c>
       <c r="B26" t="s">
-        <v>36292</v>
+        <v>38092</v>
       </c>
       <c r="C26" t="s">
-        <v>36319</v>
+        <v>38119</v>
       </c>
       <c r="D26" s="1">
         <v>0.38999998569488525</v>
@@ -111801,24 +117201,24 @@
         <v>0.68999999761581421</v>
       </c>
       <c r="G26" t="s">
-        <v>36333</v>
+        <v>38133</v>
       </c>
       <c r="H26" t="s">
-        <v>36352</v>
+        <v>38152</v>
       </c>
       <c r="I26" t="s">
-        <v>36385</v>
+        <v>38185</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>36256</v>
+        <v>38056</v>
       </c>
       <c r="B27" t="s">
-        <v>36293</v>
+        <v>38093</v>
       </c>
       <c r="C27" t="s">
-        <v>36319</v>
+        <v>38119</v>
       </c>
       <c r="D27" s="1">
         <v>0.15999999642372131</v>
@@ -111830,24 +117230,24 @@
         <v>0.40000000596046448</v>
       </c>
       <c r="G27" t="s">
-        <v>36333</v>
+        <v>38133</v>
       </c>
       <c r="H27" t="s">
-        <v>36352</v>
+        <v>38152</v>
       </c>
       <c r="I27" t="s">
-        <v>36386</v>
+        <v>38186</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>36257</v>
+        <v>38057</v>
       </c>
       <c r="B28" t="s">
-        <v>36294</v>
+        <v>38094</v>
       </c>
       <c r="C28" t="s">
-        <v>36319</v>
+        <v>38119</v>
       </c>
       <c r="D28" s="1">
         <v>0.46000000834465027</v>
@@ -111859,24 +117259,24 @@
         <v>0.6600000262260437</v>
       </c>
       <c r="G28" t="s">
-        <v>36333</v>
+        <v>38133</v>
       </c>
       <c r="H28" t="s">
-        <v>36352</v>
+        <v>38152</v>
       </c>
       <c r="I28" t="s">
-        <v>36387</v>
+        <v>38187</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>36257</v>
+        <v>38057</v>
       </c>
       <c r="B29" t="s">
-        <v>36295</v>
+        <v>38095</v>
       </c>
       <c r="C29" t="s">
-        <v>36319</v>
+        <v>38119</v>
       </c>
       <c r="D29" s="1">
         <v>0.30000001192092896</v>
@@ -111888,27 +117288,27 @@
         <v>0.44999998807907104</v>
       </c>
       <c r="G29" t="s">
-        <v>36333</v>
+        <v>38133</v>
       </c>
       <c r="H29" t="s">
-        <v>36352</v>
+        <v>38152</v>
       </c>
       <c r="I29" t="s">
-        <v>36388</v>
+        <v>38188</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>36258</v>
+        <v>38058</v>
       </c>
       <c r="B30" t="s">
-        <v>36296</v>
+        <v>38096</v>
       </c>
       <c r="C30" t="s">
-        <v>36319</v>
+        <v>38119</v>
       </c>
       <c r="D30" s="1">
-        <v>0.5</v>
+        <v>0.60000002384185791</v>
       </c>
       <c r="E30" s="1">
         <v>0.34000000357627869</v>
@@ -111917,53 +117317,53 @@
         <v>1.059999942779541</v>
       </c>
       <c r="G30" t="s">
-        <v>36333</v>
+        <v>38133</v>
       </c>
       <c r="H30" t="s">
-        <v>36353</v>
+        <v>38153</v>
       </c>
       <c r="I30" t="s">
-        <v>36389</v>
+        <v>38189</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>36258</v>
+        <v>38058</v>
       </c>
       <c r="B31" t="s">
-        <v>36297</v>
+        <v>38097</v>
       </c>
       <c r="C31" t="s">
-        <v>36319</v>
+        <v>38119</v>
       </c>
       <c r="D31" s="1">
         <v>0.47999998927116394</v>
       </c>
       <c r="E31" s="1">
-        <v>0.30000001192092896</v>
+        <v>0.2800000011920929</v>
       </c>
       <c r="F31" s="1">
-        <v>0.76999998092651367</v>
+        <v>0.81999999284744263</v>
       </c>
       <c r="G31" t="s">
-        <v>36333</v>
+        <v>38133</v>
       </c>
       <c r="H31" t="s">
-        <v>36353</v>
+        <v>38153</v>
       </c>
       <c r="I31" t="s">
-        <v>36390</v>
+        <v>38190</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>36259</v>
+        <v>38059</v>
       </c>
       <c r="B32" t="s">
-        <v>36298</v>
+        <v>38098</v>
       </c>
       <c r="C32" t="s">
-        <v>36319</v>
+        <v>38119</v>
       </c>
       <c r="D32" s="1">
         <v>1.6200000047683716</v>
@@ -111975,24 +117375,24 @@
         <v>2.4100000858306885</v>
       </c>
       <c r="G32" t="s">
-        <v>36333</v>
+        <v>38133</v>
       </c>
       <c r="H32" t="s">
-        <v>36353</v>
+        <v>38153</v>
       </c>
       <c r="I32" t="s">
-        <v>36391</v>
+        <v>38191</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>36259</v>
+        <v>38059</v>
       </c>
       <c r="B33" t="s">
-        <v>36299</v>
+        <v>38099</v>
       </c>
       <c r="C33" t="s">
-        <v>36319</v>
+        <v>38119</v>
       </c>
       <c r="D33" s="1">
         <v>2.0099999904632568</v>
@@ -112004,24 +117404,24 @@
         <v>2.8399999141693115</v>
       </c>
       <c r="G33" t="s">
-        <v>36333</v>
+        <v>38133</v>
       </c>
       <c r="H33" t="s">
-        <v>36353</v>
+        <v>38153</v>
       </c>
       <c r="I33" t="s">
-        <v>36392</v>
+        <v>38192</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>36260</v>
+        <v>38060</v>
       </c>
       <c r="B34" t="s">
-        <v>36300</v>
+        <v>38100</v>
       </c>
       <c r="C34" t="s">
-        <v>36320</v>
+        <v>38120</v>
       </c>
       <c r="D34" s="1">
         <v>0.95999997854232788</v>
@@ -112033,24 +117433,24 @@
         <v>1.2560000419616699</v>
       </c>
       <c r="G34" t="s">
-        <v>36334</v>
+        <v>38134</v>
       </c>
       <c r="H34" t="s">
-        <v>36354</v>
+        <v>38154</v>
       </c>
       <c r="I34" t="s">
-        <v>36393</v>
+        <v>38193</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>36260</v>
+        <v>38060</v>
       </c>
       <c r="B35" t="s">
-        <v>36301</v>
+        <v>38101</v>
       </c>
       <c r="C35" t="s">
-        <v>36320</v>
+        <v>38120</v>
       </c>
       <c r="D35" s="1">
         <v>1.0800000429153442</v>
@@ -112062,24 +117462,24 @@
         <v>1.3609999418258667</v>
       </c>
       <c r="G35" t="s">
-        <v>36334</v>
+        <v>38134</v>
       </c>
       <c r="H35" t="s">
-        <v>36354</v>
+        <v>38154</v>
       </c>
       <c r="I35" t="s">
-        <v>36394</v>
+        <v>38194</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>36261</v>
+        <v>38061</v>
       </c>
       <c r="B36" t="s">
-        <v>36302</v>
+        <v>38102</v>
       </c>
       <c r="C36" t="s">
-        <v>36320</v>
+        <v>38120</v>
       </c>
       <c r="D36" s="1">
         <v>0.87699997425079346</v>
@@ -112091,24 +117491,24 @@
         <v>1.156000018119812</v>
       </c>
       <c r="G36" t="s">
-        <v>36335</v>
+        <v>38135</v>
       </c>
       <c r="H36" t="s">
-        <v>36355</v>
+        <v>38155</v>
       </c>
       <c r="I36" t="s">
-        <v>36395</v>
+        <v>38195</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>36261</v>
+        <v>38061</v>
       </c>
       <c r="B37" t="s">
-        <v>36303</v>
+        <v>38103</v>
       </c>
       <c r="C37" t="s">
-        <v>36320</v>
+        <v>38120</v>
       </c>
       <c r="D37" s="1">
         <v>0.68400001525878906</v>
@@ -112120,24 +117520,24 @@
         <v>0.875</v>
       </c>
       <c r="G37" t="s">
-        <v>36335</v>
+        <v>38135</v>
       </c>
       <c r="H37" t="s">
-        <v>36355</v>
+        <v>38155</v>
       </c>
       <c r="I37" t="s">
-        <v>36396</v>
+        <v>38196</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>36261</v>
+        <v>38061</v>
       </c>
       <c r="B38" t="s">
-        <v>36304</v>
+        <v>38104</v>
       </c>
       <c r="C38" t="s">
-        <v>36320</v>
+        <v>38120</v>
       </c>
       <c r="D38" s="1">
         <v>0.85699999332427979</v>
@@ -112149,24 +117549,24 @@
         <v>1.1779999732971191</v>
       </c>
       <c r="G38" t="s">
-        <v>36335</v>
+        <v>38135</v>
       </c>
       <c r="H38" t="s">
-        <v>36355</v>
+        <v>38155</v>
       </c>
       <c r="I38" t="s">
-        <v>36397</v>
+        <v>38197</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>36262</v>
+        <v>38062</v>
       </c>
       <c r="B39" t="s">
-        <v>36304</v>
+        <v>38104</v>
       </c>
       <c r="C39" t="s">
-        <v>36321</v>
+        <v>38121</v>
       </c>
       <c r="D39" s="1">
         <v>0.64999997615814209</v>
@@ -112178,24 +117578,24 @@
         <v>0.8399999737739563</v>
       </c>
       <c r="G39" t="s">
-        <v>36336</v>
+        <v>38136</v>
       </c>
       <c r="H39" t="s">
-        <v>36355</v>
+        <v>38155</v>
       </c>
       <c r="I39" t="s">
-        <v>36398</v>
+        <v>38198</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>36262</v>
+        <v>38062</v>
       </c>
       <c r="B40" t="s">
-        <v>36305</v>
+        <v>38105</v>
       </c>
       <c r="C40" t="s">
-        <v>36321</v>
+        <v>38121</v>
       </c>
       <c r="D40" s="1">
         <v>0.47999998927116394</v>
@@ -112207,24 +117607,24 @@
         <v>0.75</v>
       </c>
       <c r="G40" t="s">
-        <v>36336</v>
+        <v>38136</v>
       </c>
       <c r="H40" t="s">
-        <v>36355</v>
+        <v>38155</v>
       </c>
       <c r="I40" t="s">
-        <v>36399</v>
+        <v>38199</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>36263</v>
+        <v>38063</v>
       </c>
       <c r="B41" t="s">
-        <v>36306</v>
+        <v>38106</v>
       </c>
       <c r="C41" t="s">
-        <v>36322</v>
+        <v>38122</v>
       </c>
       <c r="D41" s="1">
         <v>0.78100001811981201</v>
@@ -112236,24 +117636,24 @@
         <v>1.3220000267028809</v>
       </c>
       <c r="G41" t="s">
-        <v>36337</v>
+        <v>38137</v>
       </c>
       <c r="H41" t="s">
-        <v>36356</v>
+        <v>38156</v>
       </c>
       <c r="I41" t="s">
-        <v>36400</v>
+        <v>38200</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>36263</v>
+        <v>38063</v>
       </c>
       <c r="B42" t="s">
-        <v>36307</v>
+        <v>38107</v>
       </c>
       <c r="C42" t="s">
-        <v>36322</v>
+        <v>38122</v>
       </c>
       <c r="D42" s="1">
         <v>0.97500002384185791</v>
@@ -112265,82 +117665,82 @@
         <v>1.1829999685287476</v>
       </c>
       <c r="G42" t="s">
-        <v>36337</v>
+        <v>38137</v>
       </c>
       <c r="H42" t="s">
-        <v>36356</v>
+        <v>38156</v>
       </c>
       <c r="I42" t="s">
-        <v>36401</v>
+        <v>38201</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>36264</v>
+        <v>38064</v>
       </c>
       <c r="B43" t="s">
-        <v>36308</v>
+        <v>38108</v>
       </c>
       <c r="C43" t="s">
-        <v>36322</v>
+        <v>38122</v>
       </c>
       <c r="D43" s="1">
-        <v>0.93000000715255737</v>
+        <v>0.93999999761581421</v>
       </c>
       <c r="E43" s="1">
-        <v>0.6600000262260437</v>
+        <v>0.74000000953674316</v>
       </c>
       <c r="F43" s="1">
-        <v>1.309999942779541</v>
+        <v>1.190000057220459</v>
       </c>
       <c r="G43" t="s">
-        <v>36338</v>
+        <v>38138</v>
       </c>
       <c r="H43" t="s">
-        <v>36357</v>
+        <v>38157</v>
       </c>
       <c r="I43" t="s">
-        <v>36402</v>
+        <v>38202</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>36264</v>
+        <v>38064</v>
       </c>
       <c r="B44" t="s">
-        <v>36309</v>
+        <v>38109</v>
       </c>
       <c r="C44" t="s">
-        <v>36322</v>
+        <v>38122</v>
       </c>
       <c r="D44" s="1">
-        <v>0.93999999761581421</v>
+        <v>0.93000000715255737</v>
       </c>
       <c r="E44" s="1">
-        <v>0.74000000953674316</v>
+        <v>0.6600000262260437</v>
       </c>
       <c r="F44" s="1">
-        <v>1.190000057220459</v>
+        <v>1.309999942779541</v>
       </c>
       <c r="G44" t="s">
-        <v>36338</v>
+        <v>38138</v>
       </c>
       <c r="H44" t="s">
-        <v>36357</v>
+        <v>38157</v>
       </c>
       <c r="I44" t="s">
-        <v>36403</v>
+        <v>38203</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>36265</v>
+        <v>38065</v>
       </c>
       <c r="B45" t="s">
-        <v>36310</v>
+        <v>38110</v>
       </c>
       <c r="C45" t="s">
-        <v>36323</v>
+        <v>38123</v>
       </c>
       <c r="D45" s="1">
         <v>0.63999998569488525</v>
@@ -112352,24 +117752,24 @@
         <v>0.9100000262260437</v>
       </c>
       <c r="G45" t="s">
-        <v>36338</v>
+        <v>38138</v>
       </c>
       <c r="H45" t="s">
-        <v>36358</v>
+        <v>38158</v>
       </c>
       <c r="I45" t="s">
-        <v>36404</v>
+        <v>38204</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>36265</v>
+        <v>38065</v>
       </c>
       <c r="B46" t="s">
-        <v>36311</v>
+        <v>38111</v>
       </c>
       <c r="C46" t="s">
-        <v>36323</v>
+        <v>38123</v>
       </c>
       <c r="D46" s="1">
         <v>0.72000002861022949</v>
@@ -112381,24 +117781,24 @@
         <v>0.89999997615814209</v>
       </c>
       <c r="G46" t="s">
-        <v>36338</v>
+        <v>38138</v>
       </c>
       <c r="H46" t="s">
-        <v>36358</v>
+        <v>38158</v>
       </c>
       <c r="I46" t="s">
-        <v>36405</v>
+        <v>38205</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>36266</v>
+        <v>38066</v>
       </c>
       <c r="B47" t="s">
-        <v>36312</v>
+        <v>38112</v>
       </c>
       <c r="C47" t="s">
-        <v>36323</v>
+        <v>38123</v>
       </c>
       <c r="D47" s="1">
         <v>0.46000000834465027</v>
@@ -112410,24 +117810,24 @@
         <v>0.73000001907348633</v>
       </c>
       <c r="G47" t="s">
-        <v>36338</v>
+        <v>38138</v>
       </c>
       <c r="H47" t="s">
-        <v>36359</v>
+        <v>38159</v>
       </c>
       <c r="I47" t="s">
-        <v>36406</v>
+        <v>38206</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>36266</v>
+        <v>38066</v>
       </c>
       <c r="B48" t="s">
-        <v>36313</v>
+        <v>38113</v>
       </c>
       <c r="C48" t="s">
-        <v>36323</v>
+        <v>38123</v>
       </c>
       <c r="D48" s="1">
         <v>0.62999999523162842</v>
@@ -112439,13 +117839,13 @@
         <v>0.89999997615814209</v>
       </c>
       <c r="G48" t="s">
-        <v>36338</v>
+        <v>38138</v>
       </c>
       <c r="H48" t="s">
-        <v>36359</v>
+        <v>38159</v>
       </c>
       <c r="I48" t="s">
-        <v>36407</v>
+        <v>38207</v>
       </c>
     </row>
   </sheetData>

--- a/products/Exported Data.xlsx
+++ b/products/Exported Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65215" uniqueCount="38208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65835" uniqueCount="38568">
   <si>
     <t>Study</t>
   </si>
@@ -101537,6 +101537,1086 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Study: Treatment 1 vs Treatment 2</t>
+  </si>
+  <si>
+    <t>Attal 2019 (ICARIA-MM): IsPd vs Pd</t>
+  </si>
+  <si>
+    <t>Bahlis 2020 (POLLUX): DRd vs Rd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2013 (VANTAGE 088): VorV vs V</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2016 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-3): EPd vs Pd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2020 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2021 (APOLLO): DPd vs Pd</t>
+  </si>
+  <si>
+    <t>Grosicki 2020 (BOSTON): SeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Hou 2017 (China Cont.): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>Jakubowiak 2016 (NCT01478048): EVd vs Vd</t>
+  </si>
+  <si>
+    <t>Kumar 2020 (BELLINI): VeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Lu 2021 (LEPUS): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Mateos 2020 (CASTOR): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Moreau 2021 (IKEMA): IsKd vs Kd</t>
+  </si>
+  <si>
+    <t>Orlowski 2019 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2019 (OPTIMISMM): PVd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2021 (TOURMALINE-MM1): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2014 (PANORAMA-1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2016 (PANORAMA 1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2013 (MM-003): Pd vs GC</t>
+  </si>
+  <si>
+    <t>Siegel 2018 (ASPIRE): KRd vs Rd</t>
+  </si>
+  <si>
+    <t>Usamani 2022 (CANDOR): DKd vs Kd</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;=3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;=2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Lower 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>Upper 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t>Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      AT 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t>Data Extraction Errors</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Study: Treatment 1 vs Treatment 2</t>
+  </si>
+  <si>
+    <t>Attal 2019 (ICARIA-MM): IsPd vs Pd</t>
+  </si>
+  <si>
+    <t>Bahlis 2020 (POLLUX): DRd vs Rd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2013 (VANTAGE 088): VorV vs V</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2016 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-3): EPd vs Pd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2021 (APOLLO): DPd vs Pd</t>
+  </si>
+  <si>
+    <t>Hou 2017 (China Cont.): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>Jakubowiak 2016 (NCT01478048): EVd vs Vd</t>
+  </si>
+  <si>
+    <t>Kumar 2020 (BELLINI): VeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Lonial 2015 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Lu 2021 (LEPUS): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Mateos 2020 (CASTOR): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Moreau 2021 (IKEMA): IsKd vs Kd</t>
+  </si>
+  <si>
+    <t>Orlowski 2007 (NCT00103506): V vs DoxV</t>
+  </si>
+  <si>
+    <t>Orlowski 2016 (NCT00103506): V vs DoxV</t>
+  </si>
+  <si>
+    <t>Orlowski 2019 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2019 (OPTIMISMM): PVd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2021 (TOURMALINE-MM1): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2016 (PANORAMA 1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>Stewart 2015 (ASPIRE): KRd vs Rd</t>
+  </si>
+  <si>
+    <t>Usmani 2022 (CANDOR): DKd vs Kd</t>
+  </si>
+  <si>
+    <t>refract</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Ref. to R and a PI</t>
+  </si>
+  <si>
+    <t>Not ref. to R and a PI</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous R or T use</t>
+  </si>
+  <si>
+    <t>No previous R or T use</t>
+  </si>
+  <si>
+    <t>Previous R or T use</t>
+  </si>
+  <si>
+    <t>No previous R or T use</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Refractory to T</t>
+  </si>
+  <si>
+    <t>Not refractory to T</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No previous IMiD use</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Lower 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>Upper 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0230</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .       Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t>Data Extraction Errors</t>
   </si>
   <si>
     <t/>
@@ -114688,42 +115768,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>37848</v>
+        <v>38208</v>
       </c>
       <c r="B1" t="s">
-        <v>37872</v>
+        <v>38232</v>
       </c>
       <c r="C1" t="s">
-        <v>37936</v>
+        <v>38296</v>
       </c>
       <c r="D1" t="s">
-        <v>37952</v>
+        <v>38312</v>
       </c>
       <c r="E1" t="s">
-        <v>37953</v>
+        <v>38313</v>
       </c>
       <c r="F1" t="s">
-        <v>37954</v>
+        <v>38314</v>
       </c>
       <c r="G1" t="s">
-        <v>37955</v>
+        <v>38315</v>
       </c>
       <c r="H1" t="s">
-        <v>37956</v>
+        <v>38316</v>
       </c>
       <c r="I1" t="s">
-        <v>37980</v>
+        <v>38340</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>37849</v>
+        <v>38209</v>
       </c>
       <c r="B2" t="s">
-        <v>37873</v>
+        <v>38233</v>
       </c>
       <c r="C2" t="s">
-        <v>37937</v>
+        <v>38297</v>
       </c>
       <c r="D2" s="1">
         <v>0.5899999737739563</v>
@@ -114736,21 +115816,21 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" t="s">
-        <v>37957</v>
+        <v>38317</v>
       </c>
       <c r="I2" t="s">
-        <v>37981</v>
+        <v>38341</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>37849</v>
+        <v>38209</v>
       </c>
       <c r="B3" t="s">
-        <v>37874</v>
+        <v>38234</v>
       </c>
       <c r="C3" t="s">
-        <v>37937</v>
+        <v>38297</v>
       </c>
       <c r="D3" s="1">
         <v>0.5899999737739563</v>
@@ -114763,21 +115843,21 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" t="s">
-        <v>37957</v>
+        <v>38317</v>
       </c>
       <c r="I3" t="s">
-        <v>37982</v>
+        <v>38342</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>37850</v>
+        <v>38210</v>
       </c>
       <c r="B4" t="s">
-        <v>37875</v>
+        <v>38235</v>
       </c>
       <c r="C4" t="s">
-        <v>37937</v>
+        <v>38297</v>
       </c>
       <c r="D4" s="1">
         <v>0.41999998688697815</v>
@@ -114790,21 +115870,21 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" t="s">
-        <v>37958</v>
+        <v>38318</v>
       </c>
       <c r="I4" t="s">
-        <v>37983</v>
+        <v>38343</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>37850</v>
+        <v>38210</v>
       </c>
       <c r="B5" t="s">
-        <v>37876</v>
+        <v>38236</v>
       </c>
       <c r="C5" t="s">
-        <v>37937</v>
+        <v>38297</v>
       </c>
       <c r="D5" s="1">
         <v>0.38999998569488525</v>
@@ -114817,21 +115897,21 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" t="s">
-        <v>37958</v>
+        <v>38318</v>
       </c>
       <c r="I5" t="s">
-        <v>37984</v>
+        <v>38344</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>37850</v>
+        <v>38210</v>
       </c>
       <c r="B6" t="s">
-        <v>37877</v>
+        <v>38237</v>
       </c>
       <c r="C6" t="s">
-        <v>37937</v>
+        <v>38297</v>
       </c>
       <c r="D6" s="1">
         <v>0.47999998927116394</v>
@@ -114844,21 +115924,21 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" t="s">
-        <v>37958</v>
+        <v>38318</v>
       </c>
       <c r="I6" t="s">
-        <v>37985</v>
+        <v>38345</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>37850</v>
+        <v>38210</v>
       </c>
       <c r="B7" t="s">
-        <v>37878</v>
+        <v>38238</v>
       </c>
       <c r="C7" t="s">
-        <v>37937</v>
+        <v>38297</v>
       </c>
       <c r="D7" s="1">
         <v>0.74000000953674316</v>
@@ -114871,21 +115951,21 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" t="s">
-        <v>37958</v>
+        <v>38318</v>
       </c>
       <c r="I7" t="s">
-        <v>37986</v>
+        <v>38346</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>37851</v>
+        <v>38211</v>
       </c>
       <c r="B8" t="s">
-        <v>37879</v>
+        <v>38239</v>
       </c>
       <c r="C8" t="s">
-        <v>37937</v>
+        <v>38297</v>
       </c>
       <c r="D8" s="1">
         <v>0.68699997663497925</v>
@@ -114900,21 +115980,21 @@
         <v>0.015200000256299973</v>
       </c>
       <c r="H8" t="s">
-        <v>37959</v>
+        <v>38319</v>
       </c>
       <c r="I8" t="s">
-        <v>37987</v>
+        <v>38347</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>37851</v>
+        <v>38211</v>
       </c>
       <c r="B9" t="s">
-        <v>37880</v>
+        <v>38240</v>
       </c>
       <c r="C9" t="s">
-        <v>37937</v>
+        <v>38297</v>
       </c>
       <c r="D9" s="1">
         <v>0.91600000858306885</v>
@@ -114929,21 +116009,21 @@
         <v>0.48710000514984131</v>
       </c>
       <c r="H9" t="s">
-        <v>37960</v>
+        <v>38320</v>
       </c>
       <c r="I9" t="s">
-        <v>37988</v>
+        <v>38348</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>37852</v>
+        <v>38212</v>
       </c>
       <c r="B10" t="s">
-        <v>37881</v>
+        <v>38241</v>
       </c>
       <c r="C10" t="s">
-        <v>37937</v>
+        <v>38297</v>
       </c>
       <c r="D10" s="1">
         <v>0.44999998807907104</v>
@@ -114956,21 +116036,21 @@
       </c>
       <c r="G10" s="1"/>
       <c r="H10" t="s">
-        <v>37961</v>
+        <v>38321</v>
       </c>
       <c r="I10" t="s">
-        <v>37989</v>
+        <v>38349</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>37852</v>
+        <v>38212</v>
       </c>
       <c r="B11" t="s">
-        <v>37882</v>
+        <v>38242</v>
       </c>
       <c r="C11" t="s">
-        <v>37937</v>
+        <v>38297</v>
       </c>
       <c r="D11" s="1">
         <v>0.60000002384185791</v>
@@ -114983,21 +116063,21 @@
       </c>
       <c r="G11" s="1"/>
       <c r="H11" t="s">
-        <v>37961</v>
+        <v>38321</v>
       </c>
       <c r="I11" t="s">
-        <v>37990</v>
+        <v>38350</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>37853</v>
+        <v>38213</v>
       </c>
       <c r="B12" t="s">
-        <v>37882</v>
+        <v>38242</v>
       </c>
       <c r="C12" t="s">
-        <v>37937</v>
+        <v>38297</v>
       </c>
       <c r="D12" s="1">
         <v>0.55000001192092896</v>
@@ -115010,21 +116090,21 @@
       </c>
       <c r="G12" s="1"/>
       <c r="H12" t="s">
-        <v>37962</v>
+        <v>38322</v>
       </c>
       <c r="I12" t="s">
-        <v>37991</v>
+        <v>38351</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>37853</v>
+        <v>38213</v>
       </c>
       <c r="B13" t="s">
-        <v>37883</v>
+        <v>38243</v>
       </c>
       <c r="C13" t="s">
-        <v>37937</v>
+        <v>38297</v>
       </c>
       <c r="D13" s="1">
         <v>0.50999999046325684</v>
@@ -115037,21 +116117,21 @@
       </c>
       <c r="G13" s="1"/>
       <c r="H13" t="s">
-        <v>37962</v>
+        <v>38322</v>
       </c>
       <c r="I13" t="s">
-        <v>37992</v>
+        <v>38352</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>37854</v>
+        <v>38214</v>
       </c>
       <c r="B14" t="s">
-        <v>37884</v>
+        <v>38244</v>
       </c>
       <c r="C14" t="s">
-        <v>37937</v>
+        <v>38297</v>
       </c>
       <c r="D14" s="1">
         <v>0.76999998092651367</v>
@@ -115064,21 +116144,21 @@
       </c>
       <c r="G14" s="1"/>
       <c r="H14" t="s">
-        <v>37963</v>
+        <v>38323</v>
       </c>
       <c r="I14" t="s">
-        <v>37993</v>
+        <v>38353</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>37854</v>
+        <v>38214</v>
       </c>
       <c r="B15" t="s">
-        <v>37885</v>
+        <v>38245</v>
       </c>
       <c r="C15" t="s">
-        <v>37937</v>
+        <v>38297</v>
       </c>
       <c r="D15" s="1">
         <v>0.68000000715255737</v>
@@ -115091,21 +116171,21 @@
       </c>
       <c r="G15" s="1"/>
       <c r="H15" t="s">
-        <v>37963</v>
+        <v>38323</v>
       </c>
       <c r="I15" t="s">
-        <v>37994</v>
+        <v>38354</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>37855</v>
+        <v>38215</v>
       </c>
       <c r="B16" t="s">
-        <v>37886</v>
+        <v>38246</v>
       </c>
       <c r="C16" t="s">
-        <v>37938</v>
+        <v>38298</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -115118,21 +116198,21 @@
       </c>
       <c r="G16" s="1"/>
       <c r="H16" t="s">
-        <v>37963</v>
+        <v>38323</v>
       </c>
       <c r="I16" t="s">
-        <v>37995</v>
+        <v>38355</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>37855</v>
+        <v>38215</v>
       </c>
       <c r="B17" t="s">
-        <v>37887</v>
+        <v>38247</v>
       </c>
       <c r="C17" t="s">
-        <v>37938</v>
+        <v>38298</v>
       </c>
       <c r="D17" s="1">
         <v>0.70999997854232788</v>
@@ -115145,21 +116225,21 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" t="s">
-        <v>37963</v>
+        <v>38323</v>
       </c>
       <c r="I17" t="s">
-        <v>37996</v>
+        <v>38356</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>37856</v>
+        <v>38216</v>
       </c>
       <c r="B18" t="s">
-        <v>37888</v>
+        <v>38248</v>
       </c>
       <c r="C18" t="s">
-        <v>37939</v>
+        <v>38299</v>
       </c>
       <c r="D18" s="1">
         <v>0.69999998807907104</v>
@@ -115172,21 +116252,21 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18" t="s">
-        <v>37964</v>
+        <v>38324</v>
       </c>
       <c r="I18" t="s">
-        <v>37997</v>
+        <v>38357</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>37856</v>
+        <v>38216</v>
       </c>
       <c r="B19" t="s">
-        <v>37889</v>
+        <v>38249</v>
       </c>
       <c r="C19" t="s">
-        <v>37939</v>
+        <v>38299</v>
       </c>
       <c r="D19" s="1">
         <v>0.6600000262260437</v>
@@ -115199,21 +116279,21 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" t="s">
-        <v>37964</v>
+        <v>38324</v>
       </c>
       <c r="I19" t="s">
-        <v>37998</v>
+        <v>38358</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>37856</v>
+        <v>38216</v>
       </c>
       <c r="B20" t="s">
-        <v>37890</v>
+        <v>38250</v>
       </c>
       <c r="C20" t="s">
-        <v>37939</v>
+        <v>38299</v>
       </c>
       <c r="D20" s="1">
         <v>0.40000000596046448</v>
@@ -115226,21 +116306,21 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" t="s">
-        <v>37964</v>
+        <v>38324</v>
       </c>
       <c r="I20" t="s">
-        <v>37999</v>
+        <v>38359</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>37857</v>
+        <v>38217</v>
       </c>
       <c r="B21" t="s">
-        <v>37891</v>
+        <v>38251</v>
       </c>
       <c r="C21" t="s">
-        <v>37939</v>
+        <v>38299</v>
       </c>
       <c r="D21" s="1">
         <v>0.62999999523162842</v>
@@ -115253,21 +116333,21 @@
       </c>
       <c r="G21" s="1"/>
       <c r="H21" t="s">
-        <v>37965</v>
+        <v>38325</v>
       </c>
       <c r="I21" t="s">
-        <v>38000</v>
+        <v>38360</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>37857</v>
+        <v>38217</v>
       </c>
       <c r="B22" t="s">
-        <v>37892</v>
+        <v>38252</v>
       </c>
       <c r="C22" t="s">
-        <v>37939</v>
+        <v>38299</v>
       </c>
       <c r="D22" s="1">
         <v>0.64999997615814209</v>
@@ -115280,21 +116360,21 @@
       </c>
       <c r="G22" s="1"/>
       <c r="H22" t="s">
-        <v>37965</v>
+        <v>38325</v>
       </c>
       <c r="I22" t="s">
-        <v>38001</v>
+        <v>38361</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>37857</v>
+        <v>38217</v>
       </c>
       <c r="B23" t="s">
-        <v>37893</v>
+        <v>38253</v>
       </c>
       <c r="C23" t="s">
-        <v>37939</v>
+        <v>38299</v>
       </c>
       <c r="D23" s="1">
         <v>0.81999999284744263</v>
@@ -115307,21 +116387,21 @@
       </c>
       <c r="G23" s="1"/>
       <c r="H23" t="s">
-        <v>37965</v>
+        <v>38325</v>
       </c>
       <c r="I23" t="s">
-        <v>38002</v>
+        <v>38362</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>37858</v>
+        <v>38218</v>
       </c>
       <c r="B24" t="s">
-        <v>37894</v>
+        <v>38254</v>
       </c>
       <c r="C24" t="s">
-        <v>37939</v>
+        <v>38299</v>
       </c>
       <c r="D24" s="1">
         <v>0.84700000286102295</v>
@@ -115334,21 +116414,21 @@
       </c>
       <c r="G24" s="1"/>
       <c r="H24" t="s">
-        <v>37966</v>
+        <v>38326</v>
       </c>
       <c r="I24" t="s">
-        <v>38003</v>
+        <v>38363</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>37858</v>
+        <v>38218</v>
       </c>
       <c r="B25" t="s">
-        <v>37895</v>
+        <v>38255</v>
       </c>
       <c r="C25" t="s">
-        <v>37939</v>
+        <v>38299</v>
       </c>
       <c r="D25" s="1">
         <v>0.37000000476837158</v>
@@ -115361,21 +116441,21 @@
       </c>
       <c r="G25" s="1"/>
       <c r="H25" t="s">
-        <v>37966</v>
+        <v>38326</v>
       </c>
       <c r="I25" t="s">
-        <v>38004</v>
+        <v>38364</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>37858</v>
+        <v>38218</v>
       </c>
       <c r="B26" t="s">
-        <v>37896</v>
+        <v>38256</v>
       </c>
       <c r="C26" t="s">
-        <v>37939</v>
+        <v>38299</v>
       </c>
       <c r="D26" s="1">
         <v>0.70200002193450928</v>
@@ -115388,21 +116468,21 @@
       </c>
       <c r="G26" s="1"/>
       <c r="H26" t="s">
-        <v>37966</v>
+        <v>38326</v>
       </c>
       <c r="I26" t="s">
-        <v>38005</v>
+        <v>38365</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>37858</v>
+        <v>38218</v>
       </c>
       <c r="B27" t="s">
-        <v>37897</v>
+        <v>38257</v>
       </c>
       <c r="C27" t="s">
-        <v>37940</v>
+        <v>38300</v>
       </c>
       <c r="D27" s="1">
         <v>0.52100002765655518</v>
@@ -115415,21 +116495,21 @@
       </c>
       <c r="G27" s="1"/>
       <c r="H27" t="s">
-        <v>37967</v>
+        <v>38327</v>
       </c>
       <c r="I27" t="s">
-        <v>38006</v>
+        <v>38366</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>37858</v>
+        <v>38218</v>
       </c>
       <c r="B28" t="s">
-        <v>37898</v>
+        <v>38258</v>
       </c>
       <c r="C28" t="s">
-        <v>37940</v>
+        <v>38300</v>
       </c>
       <c r="D28" s="1">
         <v>0.38600000739097595</v>
@@ -115442,21 +116522,21 @@
       </c>
       <c r="G28" s="1"/>
       <c r="H28" t="s">
-        <v>37967</v>
+        <v>38327</v>
       </c>
       <c r="I28" t="s">
-        <v>38007</v>
+        <v>38367</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>37858</v>
+        <v>38218</v>
       </c>
       <c r="B29" t="s">
-        <v>37899</v>
+        <v>38259</v>
       </c>
       <c r="C29" t="s">
-        <v>37940</v>
+        <v>38300</v>
       </c>
       <c r="D29" s="1">
         <v>0.335999995470047</v>
@@ -115469,21 +116549,21 @@
       </c>
       <c r="G29" s="1"/>
       <c r="H29" t="s">
-        <v>37967</v>
+        <v>38327</v>
       </c>
       <c r="I29" t="s">
-        <v>38008</v>
+        <v>38368</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>37859</v>
+        <v>38219</v>
       </c>
       <c r="B30" t="s">
-        <v>37900</v>
+        <v>38260</v>
       </c>
       <c r="C30" t="s">
-        <v>37941</v>
+        <v>38301</v>
       </c>
       <c r="D30" s="1">
         <v>0.68000000715255737</v>
@@ -115496,21 +116576,21 @@
       </c>
       <c r="G30" s="1"/>
       <c r="H30" t="s">
-        <v>37968</v>
+        <v>38328</v>
       </c>
       <c r="I30" t="s">
-        <v>38009</v>
+        <v>38369</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>37859</v>
+        <v>38219</v>
       </c>
       <c r="B31" t="s">
-        <v>37901</v>
+        <v>38261</v>
       </c>
       <c r="C31" t="s">
-        <v>37941</v>
+        <v>38301</v>
       </c>
       <c r="D31" s="1">
         <v>0.72000002861022949</v>
@@ -115523,21 +116603,21 @@
       </c>
       <c r="G31" s="1"/>
       <c r="H31" t="s">
-        <v>37968</v>
+        <v>38328</v>
       </c>
       <c r="I31" t="s">
-        <v>38010</v>
+        <v>38370</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>37860</v>
+        <v>38220</v>
       </c>
       <c r="B32" t="s">
-        <v>37902</v>
+        <v>38262</v>
       </c>
       <c r="C32" t="s">
-        <v>37941</v>
+        <v>38301</v>
       </c>
       <c r="D32" s="1">
         <v>0.75</v>
@@ -115550,21 +116630,21 @@
       </c>
       <c r="G32" s="1"/>
       <c r="H32" t="s">
-        <v>37969</v>
+        <v>38329</v>
       </c>
       <c r="I32" t="s">
-        <v>38011</v>
+        <v>38371</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>37860</v>
+        <v>38220</v>
       </c>
       <c r="B33" t="s">
-        <v>37903</v>
+        <v>38263</v>
       </c>
       <c r="C33" t="s">
-        <v>37941</v>
+        <v>38301</v>
       </c>
       <c r="D33" s="1">
         <v>0.54000002145767212</v>
@@ -115577,21 +116657,21 @@
       </c>
       <c r="G33" s="1"/>
       <c r="H33" t="s">
-        <v>37969</v>
+        <v>38329</v>
       </c>
       <c r="I33" t="s">
-        <v>38012</v>
+        <v>38372</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>37860</v>
+        <v>38220</v>
       </c>
       <c r="B34" t="s">
-        <v>37904</v>
+        <v>38264</v>
       </c>
       <c r="C34" t="s">
-        <v>37942</v>
+        <v>38302</v>
       </c>
       <c r="D34" s="1">
         <v>1.6699999570846558</v>
@@ -115604,21 +116684,21 @@
       </c>
       <c r="G34" s="1"/>
       <c r="H34" t="s">
-        <v>37970</v>
+        <v>38330</v>
       </c>
       <c r="I34" t="s">
-        <v>38013</v>
+        <v>38373</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>37860</v>
+        <v>38220</v>
       </c>
       <c r="B35" t="s">
-        <v>37905</v>
+        <v>38265</v>
       </c>
       <c r="C35" t="s">
-        <v>37942</v>
+        <v>38302</v>
       </c>
       <c r="D35" s="1">
         <v>2.3299999237060547</v>
@@ -115631,21 +116711,21 @@
       </c>
       <c r="G35" s="1"/>
       <c r="H35" t="s">
-        <v>37970</v>
+        <v>38330</v>
       </c>
       <c r="I35" t="s">
-        <v>38014</v>
+        <v>38374</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>37861</v>
+        <v>38221</v>
       </c>
       <c r="B36" t="s">
-        <v>37906</v>
+        <v>38266</v>
       </c>
       <c r="C36" t="s">
-        <v>37943</v>
+        <v>38303</v>
       </c>
       <c r="D36" s="1">
         <v>0.15999999642372131</v>
@@ -115658,21 +116738,21 @@
       </c>
       <c r="G36" s="1"/>
       <c r="H36" t="s">
-        <v>37971</v>
+        <v>38331</v>
       </c>
       <c r="I36" t="s">
-        <v>38015</v>
+        <v>38375</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>37861</v>
+        <v>38221</v>
       </c>
       <c r="B37" t="s">
-        <v>37907</v>
+        <v>38267</v>
       </c>
       <c r="C37" t="s">
-        <v>37943</v>
+        <v>38303</v>
       </c>
       <c r="D37" s="1">
         <v>0.51999998092651367</v>
@@ -115685,21 +116765,21 @@
       </c>
       <c r="G37" s="1"/>
       <c r="H37" t="s">
-        <v>37971</v>
+        <v>38331</v>
       </c>
       <c r="I37" t="s">
-        <v>38016</v>
+        <v>38376</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>37861</v>
+        <v>38221</v>
       </c>
       <c r="B38" t="s">
-        <v>37908</v>
+        <v>38268</v>
       </c>
       <c r="C38" t="s">
-        <v>37943</v>
+        <v>38303</v>
       </c>
       <c r="D38" s="1">
         <v>0.62999999523162842</v>
@@ -115712,21 +116792,21 @@
       </c>
       <c r="G38" s="1"/>
       <c r="H38" t="s">
-        <v>37971</v>
+        <v>38331</v>
       </c>
       <c r="I38" t="s">
-        <v>38017</v>
+        <v>38377</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>37861</v>
+        <v>38221</v>
       </c>
       <c r="B39" t="s">
-        <v>37909</v>
+        <v>38269</v>
       </c>
       <c r="C39" t="s">
-        <v>37943</v>
+        <v>38303</v>
       </c>
       <c r="D39" s="1">
         <v>0.25999999046325684</v>
@@ -115739,21 +116819,21 @@
       </c>
       <c r="G39" s="1"/>
       <c r="H39" t="s">
-        <v>37971</v>
+        <v>38331</v>
       </c>
       <c r="I39" t="s">
-        <v>38018</v>
+        <v>38378</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>37862</v>
+        <v>38222</v>
       </c>
       <c r="B40" t="s">
-        <v>37910</v>
+        <v>38270</v>
       </c>
       <c r="C40" t="s">
-        <v>37943</v>
+        <v>38303</v>
       </c>
       <c r="D40" s="1">
         <v>0.2199999988079071</v>
@@ -115766,21 +116846,21 @@
       </c>
       <c r="G40" s="1"/>
       <c r="H40" t="s">
-        <v>37971</v>
+        <v>38331</v>
       </c>
       <c r="I40" t="s">
-        <v>38019</v>
+        <v>38379</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>37862</v>
+        <v>38222</v>
       </c>
       <c r="B41" t="s">
-        <v>37911</v>
+        <v>38271</v>
       </c>
       <c r="C41" t="s">
-        <v>37943</v>
+        <v>38303</v>
       </c>
       <c r="D41" s="1">
         <v>0.46000000834465027</v>
@@ -115793,21 +116873,21 @@
       </c>
       <c r="G41" s="1"/>
       <c r="H41" t="s">
-        <v>37971</v>
+        <v>38331</v>
       </c>
       <c r="I41" t="s">
-        <v>38020</v>
+        <v>38380</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>37862</v>
+        <v>38222</v>
       </c>
       <c r="B42" t="s">
-        <v>37912</v>
+        <v>38272</v>
       </c>
       <c r="C42" t="s">
-        <v>37943</v>
+        <v>38303</v>
       </c>
       <c r="D42" s="1">
         <v>0.60000002384185791</v>
@@ -115820,21 +116900,21 @@
       </c>
       <c r="G42" s="1"/>
       <c r="H42" t="s">
-        <v>37971</v>
+        <v>38331</v>
       </c>
       <c r="I42" t="s">
-        <v>38021</v>
+        <v>38381</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>37862</v>
+        <v>38222</v>
       </c>
       <c r="B43" t="s">
-        <v>37913</v>
+        <v>38273</v>
       </c>
       <c r="C43" t="s">
-        <v>37943</v>
+        <v>38303</v>
       </c>
       <c r="D43" s="1">
         <v>0.37000000476837158</v>
@@ -115847,21 +116927,21 @@
       </c>
       <c r="G43" s="1"/>
       <c r="H43" t="s">
-        <v>37971</v>
+        <v>38331</v>
       </c>
       <c r="I43" t="s">
-        <v>38022</v>
+        <v>38382</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>37863</v>
+        <v>38223</v>
       </c>
       <c r="B44" t="s">
-        <v>37914</v>
+        <v>38274</v>
       </c>
       <c r="C44" t="s">
-        <v>37943</v>
+        <v>38303</v>
       </c>
       <c r="D44" s="1">
         <v>0.5899999737739563</v>
@@ -115874,21 +116954,21 @@
       </c>
       <c r="G44" s="1"/>
       <c r="H44" t="s">
-        <v>37972</v>
+        <v>38332</v>
       </c>
       <c r="I44" t="s">
-        <v>38023</v>
+        <v>38383</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>37863</v>
+        <v>38223</v>
       </c>
       <c r="B45" t="s">
-        <v>37915</v>
+        <v>38275</v>
       </c>
       <c r="C45" t="s">
-        <v>37943</v>
+        <v>38303</v>
       </c>
       <c r="D45" s="1">
         <v>0.47999998927116394</v>
@@ -115901,21 +116981,21 @@
       </c>
       <c r="G45" s="1"/>
       <c r="H45" t="s">
-        <v>37972</v>
+        <v>38332</v>
       </c>
       <c r="I45" t="s">
-        <v>38024</v>
+        <v>38384</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>37864</v>
+        <v>38224</v>
       </c>
       <c r="B46" t="s">
-        <v>37916</v>
+        <v>38276</v>
       </c>
       <c r="C46" t="s">
-        <v>37944</v>
+        <v>38304</v>
       </c>
       <c r="D46" s="1">
         <v>0.77100002765655518</v>
@@ -115928,21 +117008,21 @@
       </c>
       <c r="G46" s="1"/>
       <c r="H46" t="s">
-        <v>37972</v>
+        <v>38332</v>
       </c>
       <c r="I46" t="s">
-        <v>38025</v>
+        <v>38385</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>37864</v>
+        <v>38224</v>
       </c>
       <c r="B47" t="s">
-        <v>37917</v>
+        <v>38277</v>
       </c>
       <c r="C47" t="s">
-        <v>37944</v>
+        <v>38304</v>
       </c>
       <c r="D47" s="1">
         <v>0.75199997425079346</v>
@@ -115955,21 +117035,21 @@
       </c>
       <c r="G47" s="1"/>
       <c r="H47" t="s">
-        <v>37972</v>
+        <v>38332</v>
       </c>
       <c r="I47" t="s">
-        <v>38026</v>
+        <v>38386</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>37865</v>
+        <v>38225</v>
       </c>
       <c r="B48" t="s">
-        <v>37918</v>
+        <v>38278</v>
       </c>
       <c r="C48" t="s">
-        <v>37945</v>
+        <v>38305</v>
       </c>
       <c r="D48" s="1">
         <v>0.54000002145767212</v>
@@ -115982,21 +117062,21 @@
       </c>
       <c r="G48" s="1"/>
       <c r="H48" t="s">
-        <v>37972</v>
+        <v>38332</v>
       </c>
       <c r="I48" t="s">
-        <v>38027</v>
+        <v>38387</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>37865</v>
+        <v>38225</v>
       </c>
       <c r="B49" t="s">
-        <v>37919</v>
+        <v>38279</v>
       </c>
       <c r="C49" t="s">
-        <v>37945</v>
+        <v>38305</v>
       </c>
       <c r="D49" s="1">
         <v>0.67000001668930054</v>
@@ -116009,21 +117089,21 @@
       </c>
       <c r="G49" s="1"/>
       <c r="H49" t="s">
-        <v>37972</v>
+        <v>38332</v>
       </c>
       <c r="I49" t="s">
-        <v>38028</v>
+        <v>38388</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>37865</v>
+        <v>38225</v>
       </c>
       <c r="B50" t="s">
-        <v>37920</v>
+        <v>38280</v>
       </c>
       <c r="C50" t="s">
-        <v>37945</v>
+        <v>38305</v>
       </c>
       <c r="D50" s="1">
         <v>0.60000002384185791</v>
@@ -116036,21 +117116,21 @@
       </c>
       <c r="G50" s="1"/>
       <c r="H50" t="s">
-        <v>37972</v>
+        <v>38332</v>
       </c>
       <c r="I50" t="s">
-        <v>38029</v>
+        <v>38389</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>37866</v>
+        <v>38226</v>
       </c>
       <c r="B51" t="s">
-        <v>37921</v>
+        <v>38281</v>
       </c>
       <c r="C51" t="s">
-        <v>37946</v>
+        <v>38306</v>
       </c>
       <c r="D51" s="1">
         <v>0.97600001096725464</v>
@@ -116063,21 +117143,21 @@
       </c>
       <c r="G51" s="1"/>
       <c r="H51" t="s">
-        <v>37973</v>
+        <v>38333</v>
       </c>
       <c r="I51" t="s">
-        <v>38030</v>
+        <v>38390</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>37866</v>
+        <v>38226</v>
       </c>
       <c r="B52" t="s">
-        <v>37922</v>
+        <v>38282</v>
       </c>
       <c r="C52" t="s">
-        <v>37946</v>
+        <v>38306</v>
       </c>
       <c r="D52" s="1">
         <v>0.92599999904632568</v>
@@ -116090,21 +117170,21 @@
       </c>
       <c r="G52" s="1"/>
       <c r="H52" t="s">
-        <v>37973</v>
+        <v>38333</v>
       </c>
       <c r="I52" t="s">
-        <v>38031</v>
+        <v>38391</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>37866</v>
+        <v>38226</v>
       </c>
       <c r="B53" t="s">
-        <v>37923</v>
+        <v>38283</v>
       </c>
       <c r="C53" t="s">
-        <v>37946</v>
+        <v>38306</v>
       </c>
       <c r="D53" s="1">
         <v>0.88300001621246338</v>
@@ -116117,21 +117197,21 @@
       </c>
       <c r="G53" s="1"/>
       <c r="H53" t="s">
-        <v>37973</v>
+        <v>38333</v>
       </c>
       <c r="I53" t="s">
-        <v>38032</v>
+        <v>38392</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>37867</v>
+        <v>38227</v>
       </c>
       <c r="B54" t="s">
-        <v>37924</v>
+        <v>38284</v>
       </c>
       <c r="C54" t="s">
-        <v>37947</v>
+        <v>38307</v>
       </c>
       <c r="D54" s="1">
         <v>0.6600000262260437</v>
@@ -116144,21 +117224,21 @@
       </c>
       <c r="G54" s="1"/>
       <c r="H54" t="s">
-        <v>37974</v>
+        <v>38334</v>
       </c>
       <c r="I54" t="s">
-        <v>38033</v>
+        <v>38393</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>37867</v>
+        <v>38227</v>
       </c>
       <c r="B55" t="s">
-        <v>37925</v>
+        <v>38285</v>
       </c>
       <c r="C55" t="s">
-        <v>37947</v>
+        <v>38307</v>
       </c>
       <c r="D55" s="1">
         <v>0.63999998569488525</v>
@@ -116171,21 +117251,21 @@
       </c>
       <c r="G55" s="1"/>
       <c r="H55" t="s">
-        <v>37974</v>
+        <v>38334</v>
       </c>
       <c r="I55" t="s">
-        <v>38034</v>
+        <v>38394</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>37868</v>
+        <v>38228</v>
       </c>
       <c r="B56" t="s">
-        <v>37926</v>
+        <v>38286</v>
       </c>
       <c r="C56" t="s">
-        <v>37948</v>
+        <v>38308</v>
       </c>
       <c r="D56" s="1">
         <v>0.89999997615814209</v>
@@ -116198,21 +117278,21 @@
       </c>
       <c r="G56" s="1"/>
       <c r="H56" t="s">
-        <v>37975</v>
+        <v>38335</v>
       </c>
       <c r="I56" t="s">
-        <v>38035</v>
+        <v>38395</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>37868</v>
+        <v>38228</v>
       </c>
       <c r="B57" t="s">
-        <v>37927</v>
+        <v>38287</v>
       </c>
       <c r="C57" t="s">
-        <v>37948</v>
+        <v>38308</v>
       </c>
       <c r="D57" s="1">
         <v>0.95999997854232788</v>
@@ -116225,21 +117305,21 @@
       </c>
       <c r="G57" s="1"/>
       <c r="H57" t="s">
-        <v>37975</v>
+        <v>38335</v>
       </c>
       <c r="I57" t="s">
-        <v>38036</v>
+        <v>38396</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>37869</v>
+        <v>38229</v>
       </c>
       <c r="B58" t="s">
-        <v>37928</v>
+        <v>38288</v>
       </c>
       <c r="C58" t="s">
-        <v>37949</v>
+        <v>38309</v>
       </c>
       <c r="D58" s="1">
         <v>0.4699999988079071</v>
@@ -116252,21 +117332,21 @@
       </c>
       <c r="G58" s="1"/>
       <c r="H58" t="s">
-        <v>37976</v>
+        <v>38336</v>
       </c>
       <c r="I58" t="s">
-        <v>38037</v>
+        <v>38397</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>37869</v>
+        <v>38229</v>
       </c>
       <c r="B59" t="s">
-        <v>37929</v>
+        <v>38289</v>
       </c>
       <c r="C59" t="s">
-        <v>37949</v>
+        <v>38309</v>
       </c>
       <c r="D59" s="1">
         <v>0.47999998927116394</v>
@@ -116279,21 +117359,21 @@
       </c>
       <c r="G59" s="1"/>
       <c r="H59" t="s">
-        <v>37976</v>
+        <v>38336</v>
       </c>
       <c r="I59" t="s">
-        <v>38038</v>
+        <v>38398</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>37869</v>
+        <v>38229</v>
       </c>
       <c r="B60" t="s">
-        <v>37930</v>
+        <v>38290</v>
       </c>
       <c r="C60" t="s">
-        <v>37950</v>
+        <v>38310</v>
       </c>
       <c r="D60" s="1">
         <v>0.43999999761581421</v>
@@ -116306,21 +117386,21 @@
       </c>
       <c r="G60" s="1"/>
       <c r="H60" t="s">
-        <v>37977</v>
+        <v>38337</v>
       </c>
       <c r="I60" t="s">
-        <v>38039</v>
+        <v>38399</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>37869</v>
+        <v>38229</v>
       </c>
       <c r="B61" t="s">
-        <v>37931</v>
+        <v>38291</v>
       </c>
       <c r="C61" t="s">
-        <v>37950</v>
+        <v>38310</v>
       </c>
       <c r="D61" s="1">
         <v>0.75999999046325684</v>
@@ -116333,21 +117413,21 @@
       </c>
       <c r="G61" s="1"/>
       <c r="H61" t="s">
-        <v>37977</v>
+        <v>38337</v>
       </c>
       <c r="I61" t="s">
-        <v>38040</v>
+        <v>38400</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>37870</v>
+        <v>38230</v>
       </c>
       <c r="B62" t="s">
-        <v>37932</v>
+        <v>38292</v>
       </c>
       <c r="C62" t="s">
-        <v>37950</v>
+        <v>38310</v>
       </c>
       <c r="D62" s="1">
         <v>0.81000000238418579</v>
@@ -116360,21 +117440,21 @@
       </c>
       <c r="G62" s="1"/>
       <c r="H62" t="s">
-        <v>37978</v>
+        <v>38338</v>
       </c>
       <c r="I62" t="s">
-        <v>38041</v>
+        <v>38401</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>37870</v>
+        <v>38230</v>
       </c>
       <c r="B63" t="s">
-        <v>37933</v>
+        <v>38293</v>
       </c>
       <c r="C63" t="s">
-        <v>37950</v>
+        <v>38310</v>
       </c>
       <c r="D63" s="1">
         <v>0.79000002145767212</v>
@@ -116387,21 +117467,21 @@
       </c>
       <c r="G63" s="1"/>
       <c r="H63" t="s">
-        <v>37978</v>
+        <v>38338</v>
       </c>
       <c r="I63" t="s">
-        <v>38042</v>
+        <v>38402</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>37871</v>
+        <v>38231</v>
       </c>
       <c r="B64" t="s">
-        <v>37934</v>
+        <v>38294</v>
       </c>
       <c r="C64" t="s">
-        <v>37951</v>
+        <v>38311</v>
       </c>
       <c r="D64" s="1">
         <v>0.6600000262260437</v>
@@ -116414,21 +117494,21 @@
       </c>
       <c r="G64" s="1"/>
       <c r="H64" t="s">
-        <v>37979</v>
+        <v>38339</v>
       </c>
       <c r="I64" t="s">
-        <v>38043</v>
+        <v>38403</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>37871</v>
+        <v>38231</v>
       </c>
       <c r="B65" t="s">
-        <v>37935</v>
+        <v>38295</v>
       </c>
       <c r="C65" t="s">
-        <v>37951</v>
+        <v>38311</v>
       </c>
       <c r="D65" s="1">
         <v>0.55000001192092896</v>
@@ -116441,10 +117521,10 @@
       </c>
       <c r="G65" s="1"/>
       <c r="H65" t="s">
-        <v>37979</v>
+        <v>38339</v>
       </c>
       <c r="I65" t="s">
-        <v>38044</v>
+        <v>38404</v>
       </c>
     </row>
   </sheetData>
@@ -116458,42 +117538,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>38045</v>
+        <v>38405</v>
       </c>
       <c r="B1" t="s">
-        <v>38067</v>
+        <v>38427</v>
       </c>
       <c r="C1" t="s">
-        <v>38114</v>
+        <v>38474</v>
       </c>
       <c r="D1" t="s">
-        <v>38124</v>
+        <v>38484</v>
       </c>
       <c r="E1" t="s">
-        <v>38125</v>
+        <v>38485</v>
       </c>
       <c r="F1" t="s">
-        <v>38126</v>
+        <v>38486</v>
       </c>
       <c r="G1" t="s">
-        <v>38127</v>
+        <v>38487</v>
       </c>
       <c r="H1" t="s">
-        <v>38139</v>
+        <v>38499</v>
       </c>
       <c r="I1" t="s">
-        <v>38160</v>
+        <v>38520</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>38046</v>
+        <v>38406</v>
       </c>
       <c r="B2" t="s">
-        <v>38068</v>
+        <v>38428</v>
       </c>
       <c r="C2" t="s">
-        <v>38115</v>
+        <v>38475</v>
       </c>
       <c r="D2" s="1">
         <v>0.5899999737739563</v>
@@ -116505,24 +117585,24 @@
         <v>0.81999999284744263</v>
       </c>
       <c r="G2" t="s">
-        <v>38128</v>
+        <v>38488</v>
       </c>
       <c r="H2" t="s">
-        <v>38140</v>
+        <v>38500</v>
       </c>
       <c r="I2" t="s">
-        <v>38161</v>
+        <v>38521</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>38046</v>
+        <v>38406</v>
       </c>
       <c r="B3" t="s">
-        <v>38069</v>
+        <v>38429</v>
       </c>
       <c r="C3" t="s">
-        <v>38115</v>
+        <v>38475</v>
       </c>
       <c r="D3" s="1">
         <v>0.18000000715255737</v>
@@ -116534,24 +117614,24 @@
         <v>1.4900000095367432</v>
       </c>
       <c r="G3" t="s">
-        <v>38128</v>
+        <v>38488</v>
       </c>
       <c r="H3" t="s">
-        <v>38140</v>
+        <v>38500</v>
       </c>
       <c r="I3" t="s">
-        <v>38162</v>
+        <v>38522</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>38047</v>
+        <v>38407</v>
       </c>
       <c r="B4" t="s">
-        <v>38070</v>
+        <v>38430</v>
       </c>
       <c r="C4" t="s">
-        <v>38115</v>
+        <v>38475</v>
       </c>
       <c r="D4" s="1">
         <v>0.37999999523162842</v>
@@ -116563,24 +117643,24 @@
         <v>0.6600000262260437</v>
       </c>
       <c r="G4" t="s">
-        <v>38128</v>
+        <v>38488</v>
       </c>
       <c r="H4" t="s">
-        <v>38141</v>
+        <v>38501</v>
       </c>
       <c r="I4" t="s">
-        <v>38163</v>
+        <v>38523</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>38047</v>
+        <v>38407</v>
       </c>
       <c r="B5" t="s">
-        <v>38071</v>
+        <v>38431</v>
       </c>
       <c r="C5" t="s">
-        <v>38115</v>
+        <v>38475</v>
       </c>
       <c r="D5" s="1">
         <v>0.44999998807907104</v>
@@ -116592,24 +117672,24 @@
         <v>0.57999998331069946</v>
       </c>
       <c r="G5" t="s">
-        <v>38128</v>
+        <v>38488</v>
       </c>
       <c r="H5" t="s">
-        <v>38141</v>
+        <v>38501</v>
       </c>
       <c r="I5" t="s">
-        <v>38164</v>
+        <v>38524</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>38048</v>
+        <v>38408</v>
       </c>
       <c r="B6" t="s">
-        <v>38072</v>
+        <v>38432</v>
       </c>
       <c r="C6" t="s">
-        <v>38115</v>
+        <v>38475</v>
       </c>
       <c r="D6" s="1">
         <v>0.75700002908706665</v>
@@ -116621,24 +117701,24 @@
         <v>0.96299999952316284</v>
       </c>
       <c r="G6" t="s">
-        <v>38129</v>
+        <v>38489</v>
       </c>
       <c r="H6" t="s">
-        <v>38142</v>
+        <v>38502</v>
       </c>
       <c r="I6" t="s">
-        <v>38165</v>
+        <v>38525</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>38048</v>
+        <v>38408</v>
       </c>
       <c r="B7" t="s">
-        <v>38073</v>
+        <v>38433</v>
       </c>
       <c r="C7" t="s">
-        <v>38115</v>
+        <v>38475</v>
       </c>
       <c r="D7" s="1">
         <v>0.92599999904632568</v>
@@ -116650,24 +117730,24 @@
         <v>1.2790000438690186</v>
       </c>
       <c r="G7" t="s">
-        <v>38130</v>
+        <v>38490</v>
       </c>
       <c r="H7" t="s">
-        <v>38142</v>
+        <v>38502</v>
       </c>
       <c r="I7" t="s">
-        <v>38166</v>
+        <v>38526</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>38049</v>
+        <v>38409</v>
       </c>
       <c r="B8" t="s">
-        <v>38074</v>
+        <v>38434</v>
       </c>
       <c r="C8" t="s">
-        <v>38115</v>
+        <v>38475</v>
       </c>
       <c r="D8" s="1">
         <v>0.43999999761581421</v>
@@ -116679,24 +117759,24 @@
         <v>0.56000000238418579</v>
       </c>
       <c r="G8" t="s">
-        <v>38131</v>
+        <v>38491</v>
       </c>
       <c r="H8" t="s">
-        <v>38143</v>
+        <v>38503</v>
       </c>
       <c r="I8" t="s">
-        <v>38167</v>
+        <v>38527</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>38049</v>
+        <v>38409</v>
       </c>
       <c r="B9" t="s">
-        <v>38075</v>
+        <v>38435</v>
       </c>
       <c r="C9" t="s">
-        <v>38115</v>
+        <v>38475</v>
       </c>
       <c r="D9" s="1">
         <v>0.80000001192092896</v>
@@ -116708,24 +117788,24 @@
         <v>1.1100000143051147</v>
       </c>
       <c r="G9" t="s">
-        <v>38131</v>
+        <v>38491</v>
       </c>
       <c r="H9" t="s">
-        <v>38143</v>
+        <v>38503</v>
       </c>
       <c r="I9" t="s">
-        <v>38168</v>
+        <v>38528</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>38050</v>
+        <v>38410</v>
       </c>
       <c r="B10" t="s">
-        <v>38076</v>
+        <v>38436</v>
       </c>
       <c r="C10" t="s">
-        <v>38115</v>
+        <v>38475</v>
       </c>
       <c r="D10" s="1">
         <v>0.56000000238418579</v>
@@ -116737,24 +117817,24 @@
         <v>0.97000002861022949</v>
       </c>
       <c r="G10" t="s">
-        <v>38131</v>
+        <v>38491</v>
       </c>
       <c r="H10" t="s">
-        <v>38144</v>
+        <v>38504</v>
       </c>
       <c r="I10" t="s">
-        <v>38169</v>
+        <v>38529</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38050</v>
+        <v>38410</v>
       </c>
       <c r="B11" t="s">
-        <v>38077</v>
+        <v>38437</v>
       </c>
       <c r="C11" t="s">
-        <v>38115</v>
+        <v>38475</v>
       </c>
       <c r="D11" s="1">
         <v>0.50999999046325684</v>
@@ -116766,24 +117846,24 @@
         <v>1.190000057220459</v>
       </c>
       <c r="G11" t="s">
-        <v>38131</v>
+        <v>38491</v>
       </c>
       <c r="H11" t="s">
-        <v>38144</v>
+        <v>38504</v>
       </c>
       <c r="I11" t="s">
-        <v>38170</v>
+        <v>38530</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>38051</v>
+        <v>38411</v>
       </c>
       <c r="B12" t="s">
-        <v>38078</v>
+        <v>38438</v>
       </c>
       <c r="C12" t="s">
-        <v>38115</v>
+        <v>38475</v>
       </c>
       <c r="D12" s="1">
         <v>0.6600000262260437</v>
@@ -116795,24 +117875,24 @@
         <v>0.89999997615814209</v>
       </c>
       <c r="G12" t="s">
-        <v>38131</v>
+        <v>38491</v>
       </c>
       <c r="H12" t="s">
-        <v>38145</v>
+        <v>38505</v>
       </c>
       <c r="I12" t="s">
-        <v>38171</v>
+        <v>38531</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>38051</v>
+        <v>38411</v>
       </c>
       <c r="B13" t="s">
-        <v>38079</v>
+        <v>38439</v>
       </c>
       <c r="C13" t="s">
-        <v>38115</v>
+        <v>38475</v>
       </c>
       <c r="D13" s="1">
         <v>0.36000001430511475</v>
@@ -116824,24 +117904,24 @@
         <v>0.82999998331069946</v>
       </c>
       <c r="G13" t="s">
-        <v>38131</v>
+        <v>38491</v>
       </c>
       <c r="H13" t="s">
-        <v>38145</v>
+        <v>38505</v>
       </c>
       <c r="I13" t="s">
-        <v>38172</v>
+        <v>38532</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>38052</v>
+        <v>38412</v>
       </c>
       <c r="B14" t="s">
-        <v>38080</v>
+        <v>38440</v>
       </c>
       <c r="C14" t="s">
-        <v>38115</v>
+        <v>38475</v>
       </c>
       <c r="D14" s="1">
         <v>0.55299997329711914</v>
@@ -116853,24 +117933,24 @@
         <v>0.9309999942779541</v>
       </c>
       <c r="G14" t="s">
-        <v>38132</v>
+        <v>38492</v>
       </c>
       <c r="H14" t="s">
-        <v>38146</v>
+        <v>38506</v>
       </c>
       <c r="I14" t="s">
-        <v>38173</v>
+        <v>38533</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>38052</v>
+        <v>38412</v>
       </c>
       <c r="B15" t="s">
-        <v>38081</v>
+        <v>38441</v>
       </c>
       <c r="C15" t="s">
-        <v>38115</v>
+        <v>38475</v>
       </c>
       <c r="D15" s="1">
         <v>0.76599997282028198</v>
@@ -116882,24 +117962,24 @@
         <v>3.9639999866485596</v>
       </c>
       <c r="G15" t="s">
-        <v>38132</v>
+        <v>38492</v>
       </c>
       <c r="H15" t="s">
-        <v>38146</v>
+        <v>38506</v>
       </c>
       <c r="I15" t="s">
-        <v>38174</v>
+        <v>38534</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>38052</v>
+        <v>38412</v>
       </c>
       <c r="B16" t="s">
-        <v>38082</v>
+        <v>38442</v>
       </c>
       <c r="C16" t="s">
-        <v>38116</v>
+        <v>38476</v>
       </c>
       <c r="D16" s="1">
         <v>0.39800000190734863</v>
@@ -116911,24 +117991,24 @@
         <v>0.71899998188018799</v>
       </c>
       <c r="G16" t="s">
-        <v>38132</v>
+        <v>38492</v>
       </c>
       <c r="H16" t="s">
-        <v>38147</v>
+        <v>38507</v>
       </c>
       <c r="I16" t="s">
-        <v>38175</v>
+        <v>38535</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>38052</v>
+        <v>38412</v>
       </c>
       <c r="B17" t="s">
-        <v>38083</v>
+        <v>38443</v>
       </c>
       <c r="C17" t="s">
-        <v>38116</v>
+        <v>38476</v>
       </c>
       <c r="D17" s="1">
         <v>0.49799999594688416</v>
@@ -116940,24 +118020,24 @@
         <v>2.4030001163482666</v>
       </c>
       <c r="G17" t="s">
-        <v>38132</v>
+        <v>38492</v>
       </c>
       <c r="H17" t="s">
-        <v>38147</v>
+        <v>38507</v>
       </c>
       <c r="I17" t="s">
-        <v>38176</v>
+        <v>38536</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>38053</v>
+        <v>38413</v>
       </c>
       <c r="B18" t="s">
-        <v>38084</v>
+        <v>38444</v>
       </c>
       <c r="C18" t="s">
-        <v>38117</v>
+        <v>38477</v>
       </c>
       <c r="D18" s="1">
         <v>0.87000000476837158</v>
@@ -116969,24 +118049,24 @@
         <v>1.2899999618530273</v>
       </c>
       <c r="G18" t="s">
-        <v>38133</v>
+        <v>38493</v>
       </c>
       <c r="H18" t="s">
-        <v>38148</v>
+        <v>38508</v>
       </c>
       <c r="I18" t="s">
-        <v>38177</v>
+        <v>38537</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>38053</v>
+        <v>38413</v>
       </c>
       <c r="B19" t="s">
-        <v>38085</v>
+        <v>38445</v>
       </c>
       <c r="C19" t="s">
-        <v>38117</v>
+        <v>38477</v>
       </c>
       <c r="D19" s="1">
         <v>0.38999998569488525</v>
@@ -116998,24 +118078,24 @@
         <v>0.80000001192092896</v>
       </c>
       <c r="G19" t="s">
-        <v>38133</v>
+        <v>38493</v>
       </c>
       <c r="H19" t="s">
-        <v>38148</v>
+        <v>38508</v>
       </c>
       <c r="I19" t="s">
-        <v>38178</v>
+        <v>38538</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>38054</v>
+        <v>38414</v>
       </c>
       <c r="B20" t="s">
-        <v>38086</v>
+        <v>38446</v>
       </c>
       <c r="C20" t="s">
-        <v>38117</v>
+        <v>38477</v>
       </c>
       <c r="D20" s="1">
         <v>0.61000001430511475</v>
@@ -117027,24 +118107,24 @@
         <v>1.1699999570846558</v>
       </c>
       <c r="G20" t="s">
-        <v>38133</v>
+        <v>38493</v>
       </c>
       <c r="H20" t="s">
-        <v>38149</v>
+        <v>38509</v>
       </c>
       <c r="I20" t="s">
-        <v>38179</v>
+        <v>38539</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>38054</v>
+        <v>38414</v>
       </c>
       <c r="B21" t="s">
-        <v>38087</v>
+        <v>38447</v>
       </c>
       <c r="C21" t="s">
-        <v>38117</v>
+        <v>38477</v>
       </c>
       <c r="D21" s="1">
         <v>0.75</v>
@@ -117056,24 +118136,24 @@
         <v>1.3600000143051147</v>
       </c>
       <c r="G21" t="s">
-        <v>38133</v>
+        <v>38493</v>
       </c>
       <c r="H21" t="s">
-        <v>38149</v>
+        <v>38509</v>
       </c>
       <c r="I21" t="s">
-        <v>38180</v>
+        <v>38540</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>38054</v>
+        <v>38414</v>
       </c>
       <c r="B22" t="s">
-        <v>38088</v>
+        <v>38448</v>
       </c>
       <c r="C22" t="s">
-        <v>38118</v>
+        <v>38478</v>
       </c>
       <c r="D22" s="1">
         <v>5.9000000953674316</v>
@@ -117085,24 +118165,24 @@
         <v>46.099998474121094</v>
       </c>
       <c r="G22" t="s">
-        <v>38133</v>
+        <v>38493</v>
       </c>
       <c r="H22" t="s">
-        <v>38150</v>
+        <v>38510</v>
       </c>
       <c r="I22" t="s">
-        <v>38181</v>
+        <v>38541</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>38054</v>
+        <v>38414</v>
       </c>
       <c r="B23" t="s">
-        <v>38089</v>
+        <v>38449</v>
       </c>
       <c r="C23" t="s">
-        <v>38118</v>
+        <v>38478</v>
       </c>
       <c r="D23" s="1">
         <v>1.8200000524520874</v>
@@ -117114,24 +118194,24 @@
         <v>5.1399998664855957</v>
       </c>
       <c r="G23" t="s">
-        <v>38133</v>
+        <v>38493</v>
       </c>
       <c r="H23" t="s">
-        <v>38150</v>
+        <v>38510</v>
       </c>
       <c r="I23" t="s">
-        <v>38182</v>
+        <v>38542</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>38055</v>
+        <v>38415</v>
       </c>
       <c r="B24" t="s">
-        <v>38090</v>
+        <v>38450</v>
       </c>
       <c r="C24" t="s">
-        <v>38119</v>
+        <v>38479</v>
       </c>
       <c r="D24" s="1">
         <v>0.5899999737739563</v>
@@ -117143,24 +118223,24 @@
         <v>1.3999999761581421</v>
       </c>
       <c r="G24" t="s">
-        <v>38133</v>
+        <v>38493</v>
       </c>
       <c r="H24" t="s">
-        <v>38151</v>
+        <v>38511</v>
       </c>
       <c r="I24" t="s">
-        <v>38183</v>
+        <v>38543</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>38055</v>
+        <v>38415</v>
       </c>
       <c r="B25" t="s">
-        <v>38091</v>
+        <v>38451</v>
       </c>
       <c r="C25" t="s">
-        <v>38119</v>
+        <v>38479</v>
       </c>
       <c r="D25" s="1">
         <v>0.69999998807907104</v>
@@ -117172,24 +118252,24 @@
         <v>0.87000000476837158</v>
       </c>
       <c r="G25" t="s">
-        <v>38133</v>
+        <v>38493</v>
       </c>
       <c r="H25" t="s">
-        <v>38151</v>
+        <v>38511</v>
       </c>
       <c r="I25" t="s">
-        <v>38184</v>
+        <v>38544</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>38056</v>
+        <v>38416</v>
       </c>
       <c r="B26" t="s">
-        <v>38092</v>
+        <v>38452</v>
       </c>
       <c r="C26" t="s">
-        <v>38119</v>
+        <v>38479</v>
       </c>
       <c r="D26" s="1">
         <v>0.38999998569488525</v>
@@ -117201,24 +118281,24 @@
         <v>0.68999999761581421</v>
       </c>
       <c r="G26" t="s">
-        <v>38133</v>
+        <v>38493</v>
       </c>
       <c r="H26" t="s">
-        <v>38152</v>
+        <v>38512</v>
       </c>
       <c r="I26" t="s">
-        <v>38185</v>
+        <v>38545</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>38056</v>
+        <v>38416</v>
       </c>
       <c r="B27" t="s">
-        <v>38093</v>
+        <v>38453</v>
       </c>
       <c r="C27" t="s">
-        <v>38119</v>
+        <v>38479</v>
       </c>
       <c r="D27" s="1">
         <v>0.15999999642372131</v>
@@ -117230,24 +118310,24 @@
         <v>0.40000000596046448</v>
       </c>
       <c r="G27" t="s">
-        <v>38133</v>
+        <v>38493</v>
       </c>
       <c r="H27" t="s">
-        <v>38152</v>
+        <v>38512</v>
       </c>
       <c r="I27" t="s">
-        <v>38186</v>
+        <v>38546</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>38057</v>
+        <v>38417</v>
       </c>
       <c r="B28" t="s">
-        <v>38094</v>
+        <v>38454</v>
       </c>
       <c r="C28" t="s">
-        <v>38119</v>
+        <v>38479</v>
       </c>
       <c r="D28" s="1">
         <v>0.46000000834465027</v>
@@ -117259,24 +118339,24 @@
         <v>0.6600000262260437</v>
       </c>
       <c r="G28" t="s">
-        <v>38133</v>
+        <v>38493</v>
       </c>
       <c r="H28" t="s">
-        <v>38152</v>
+        <v>38512</v>
       </c>
       <c r="I28" t="s">
-        <v>38187</v>
+        <v>38547</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>38057</v>
+        <v>38417</v>
       </c>
       <c r="B29" t="s">
-        <v>38095</v>
+        <v>38455</v>
       </c>
       <c r="C29" t="s">
-        <v>38119</v>
+        <v>38479</v>
       </c>
       <c r="D29" s="1">
         <v>0.30000001192092896</v>
@@ -117288,24 +118368,24 @@
         <v>0.44999998807907104</v>
       </c>
       <c r="G29" t="s">
-        <v>38133</v>
+        <v>38493</v>
       </c>
       <c r="H29" t="s">
-        <v>38152</v>
+        <v>38512</v>
       </c>
       <c r="I29" t="s">
-        <v>38188</v>
+        <v>38548</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>38058</v>
+        <v>38418</v>
       </c>
       <c r="B30" t="s">
-        <v>38096</v>
+        <v>38456</v>
       </c>
       <c r="C30" t="s">
-        <v>38119</v>
+        <v>38479</v>
       </c>
       <c r="D30" s="1">
         <v>0.60000002384185791</v>
@@ -117317,24 +118397,24 @@
         <v>1.059999942779541</v>
       </c>
       <c r="G30" t="s">
-        <v>38133</v>
+        <v>38493</v>
       </c>
       <c r="H30" t="s">
-        <v>38153</v>
+        <v>38513</v>
       </c>
       <c r="I30" t="s">
-        <v>38189</v>
+        <v>38549</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>38058</v>
+        <v>38418</v>
       </c>
       <c r="B31" t="s">
-        <v>38097</v>
+        <v>38457</v>
       </c>
       <c r="C31" t="s">
-        <v>38119</v>
+        <v>38479</v>
       </c>
       <c r="D31" s="1">
         <v>0.47999998927116394</v>
@@ -117346,24 +118426,24 @@
         <v>0.81999999284744263</v>
       </c>
       <c r="G31" t="s">
-        <v>38133</v>
+        <v>38493</v>
       </c>
       <c r="H31" t="s">
-        <v>38153</v>
+        <v>38513</v>
       </c>
       <c r="I31" t="s">
-        <v>38190</v>
+        <v>38550</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>38059</v>
+        <v>38419</v>
       </c>
       <c r="B32" t="s">
-        <v>38098</v>
+        <v>38458</v>
       </c>
       <c r="C32" t="s">
-        <v>38119</v>
+        <v>38479</v>
       </c>
       <c r="D32" s="1">
         <v>1.6200000047683716</v>
@@ -117375,24 +118455,24 @@
         <v>2.4100000858306885</v>
       </c>
       <c r="G32" t="s">
-        <v>38133</v>
+        <v>38493</v>
       </c>
       <c r="H32" t="s">
-        <v>38153</v>
+        <v>38513</v>
       </c>
       <c r="I32" t="s">
-        <v>38191</v>
+        <v>38551</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>38059</v>
+        <v>38419</v>
       </c>
       <c r="B33" t="s">
-        <v>38099</v>
+        <v>38459</v>
       </c>
       <c r="C33" t="s">
-        <v>38119</v>
+        <v>38479</v>
       </c>
       <c r="D33" s="1">
         <v>2.0099999904632568</v>
@@ -117404,24 +118484,24 @@
         <v>2.8399999141693115</v>
       </c>
       <c r="G33" t="s">
-        <v>38133</v>
+        <v>38493</v>
       </c>
       <c r="H33" t="s">
-        <v>38153</v>
+        <v>38513</v>
       </c>
       <c r="I33" t="s">
-        <v>38192</v>
+        <v>38552</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>38060</v>
+        <v>38420</v>
       </c>
       <c r="B34" t="s">
-        <v>38100</v>
+        <v>38460</v>
       </c>
       <c r="C34" t="s">
-        <v>38120</v>
+        <v>38480</v>
       </c>
       <c r="D34" s="1">
         <v>0.95999997854232788</v>
@@ -117433,24 +118513,24 @@
         <v>1.2560000419616699</v>
       </c>
       <c r="G34" t="s">
-        <v>38134</v>
+        <v>38494</v>
       </c>
       <c r="H34" t="s">
-        <v>38154</v>
+        <v>38514</v>
       </c>
       <c r="I34" t="s">
-        <v>38193</v>
+        <v>38553</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>38060</v>
+        <v>38420</v>
       </c>
       <c r="B35" t="s">
-        <v>38101</v>
+        <v>38461</v>
       </c>
       <c r="C35" t="s">
-        <v>38120</v>
+        <v>38480</v>
       </c>
       <c r="D35" s="1">
         <v>1.0800000429153442</v>
@@ -117462,24 +118542,24 @@
         <v>1.3609999418258667</v>
       </c>
       <c r="G35" t="s">
-        <v>38134</v>
+        <v>38494</v>
       </c>
       <c r="H35" t="s">
-        <v>38154</v>
+        <v>38514</v>
       </c>
       <c r="I35" t="s">
-        <v>38194</v>
+        <v>38554</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>38061</v>
+        <v>38421</v>
       </c>
       <c r="B36" t="s">
-        <v>38102</v>
+        <v>38462</v>
       </c>
       <c r="C36" t="s">
-        <v>38120</v>
+        <v>38480</v>
       </c>
       <c r="D36" s="1">
         <v>0.87699997425079346</v>
@@ -117491,24 +118571,24 @@
         <v>1.156000018119812</v>
       </c>
       <c r="G36" t="s">
-        <v>38135</v>
+        <v>38495</v>
       </c>
       <c r="H36" t="s">
-        <v>38155</v>
+        <v>38515</v>
       </c>
       <c r="I36" t="s">
-        <v>38195</v>
+        <v>38555</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>38061</v>
+        <v>38421</v>
       </c>
       <c r="B37" t="s">
-        <v>38103</v>
+        <v>38463</v>
       </c>
       <c r="C37" t="s">
-        <v>38120</v>
+        <v>38480</v>
       </c>
       <c r="D37" s="1">
         <v>0.68400001525878906</v>
@@ -117520,24 +118600,24 @@
         <v>0.875</v>
       </c>
       <c r="G37" t="s">
-        <v>38135</v>
+        <v>38495</v>
       </c>
       <c r="H37" t="s">
-        <v>38155</v>
+        <v>38515</v>
       </c>
       <c r="I37" t="s">
-        <v>38196</v>
+        <v>38556</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>38061</v>
+        <v>38421</v>
       </c>
       <c r="B38" t="s">
-        <v>38104</v>
+        <v>38464</v>
       </c>
       <c r="C38" t="s">
-        <v>38120</v>
+        <v>38480</v>
       </c>
       <c r="D38" s="1">
         <v>0.85699999332427979</v>
@@ -117549,24 +118629,24 @@
         <v>1.1779999732971191</v>
       </c>
       <c r="G38" t="s">
-        <v>38135</v>
+        <v>38495</v>
       </c>
       <c r="H38" t="s">
-        <v>38155</v>
+        <v>38515</v>
       </c>
       <c r="I38" t="s">
-        <v>38197</v>
+        <v>38557</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>38062</v>
+        <v>38422</v>
       </c>
       <c r="B39" t="s">
-        <v>38104</v>
+        <v>38464</v>
       </c>
       <c r="C39" t="s">
-        <v>38121</v>
+        <v>38481</v>
       </c>
       <c r="D39" s="1">
         <v>0.64999997615814209</v>
@@ -117578,24 +118658,24 @@
         <v>0.8399999737739563</v>
       </c>
       <c r="G39" t="s">
-        <v>38136</v>
+        <v>38496</v>
       </c>
       <c r="H39" t="s">
-        <v>38155</v>
+        <v>38515</v>
       </c>
       <c r="I39" t="s">
-        <v>38198</v>
+        <v>38558</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>38062</v>
+        <v>38422</v>
       </c>
       <c r="B40" t="s">
-        <v>38105</v>
+        <v>38465</v>
       </c>
       <c r="C40" t="s">
-        <v>38121</v>
+        <v>38481</v>
       </c>
       <c r="D40" s="1">
         <v>0.47999998927116394</v>
@@ -117607,24 +118687,24 @@
         <v>0.75</v>
       </c>
       <c r="G40" t="s">
-        <v>38136</v>
+        <v>38496</v>
       </c>
       <c r="H40" t="s">
-        <v>38155</v>
+        <v>38515</v>
       </c>
       <c r="I40" t="s">
-        <v>38199</v>
+        <v>38559</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>38063</v>
+        <v>38423</v>
       </c>
       <c r="B41" t="s">
-        <v>38106</v>
+        <v>38466</v>
       </c>
       <c r="C41" t="s">
-        <v>38122</v>
+        <v>38482</v>
       </c>
       <c r="D41" s="1">
         <v>0.78100001811981201</v>
@@ -117636,24 +118716,24 @@
         <v>1.3220000267028809</v>
       </c>
       <c r="G41" t="s">
-        <v>38137</v>
+        <v>38497</v>
       </c>
       <c r="H41" t="s">
-        <v>38156</v>
+        <v>38516</v>
       </c>
       <c r="I41" t="s">
-        <v>38200</v>
+        <v>38560</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>38063</v>
+        <v>38423</v>
       </c>
       <c r="B42" t="s">
-        <v>38107</v>
+        <v>38467</v>
       </c>
       <c r="C42" t="s">
-        <v>38122</v>
+        <v>38482</v>
       </c>
       <c r="D42" s="1">
         <v>0.97500002384185791</v>
@@ -117665,24 +118745,24 @@
         <v>1.1829999685287476</v>
       </c>
       <c r="G42" t="s">
-        <v>38137</v>
+        <v>38497</v>
       </c>
       <c r="H42" t="s">
-        <v>38156</v>
+        <v>38516</v>
       </c>
       <c r="I42" t="s">
-        <v>38201</v>
+        <v>38561</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>38064</v>
+        <v>38424</v>
       </c>
       <c r="B43" t="s">
-        <v>38108</v>
+        <v>38468</v>
       </c>
       <c r="C43" t="s">
-        <v>38122</v>
+        <v>38482</v>
       </c>
       <c r="D43" s="1">
         <v>0.93999999761581421</v>
@@ -117694,24 +118774,24 @@
         <v>1.190000057220459</v>
       </c>
       <c r="G43" t="s">
-        <v>38138</v>
+        <v>38498</v>
       </c>
       <c r="H43" t="s">
-        <v>38157</v>
+        <v>38517</v>
       </c>
       <c r="I43" t="s">
-        <v>38202</v>
+        <v>38562</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>38064</v>
+        <v>38424</v>
       </c>
       <c r="B44" t="s">
-        <v>38109</v>
+        <v>38469</v>
       </c>
       <c r="C44" t="s">
-        <v>38122</v>
+        <v>38482</v>
       </c>
       <c r="D44" s="1">
         <v>0.93000000715255737</v>
@@ -117723,24 +118803,24 @@
         <v>1.309999942779541</v>
       </c>
       <c r="G44" t="s">
-        <v>38138</v>
+        <v>38498</v>
       </c>
       <c r="H44" t="s">
-        <v>38157</v>
+        <v>38517</v>
       </c>
       <c r="I44" t="s">
-        <v>38203</v>
+        <v>38563</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>38065</v>
+        <v>38425</v>
       </c>
       <c r="B45" t="s">
-        <v>38110</v>
+        <v>38470</v>
       </c>
       <c r="C45" t="s">
-        <v>38123</v>
+        <v>38483</v>
       </c>
       <c r="D45" s="1">
         <v>0.63999998569488525</v>
@@ -117752,24 +118832,24 @@
         <v>0.9100000262260437</v>
       </c>
       <c r="G45" t="s">
-        <v>38138</v>
+        <v>38498</v>
       </c>
       <c r="H45" t="s">
-        <v>38158</v>
+        <v>38518</v>
       </c>
       <c r="I45" t="s">
-        <v>38204</v>
+        <v>38564</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>38065</v>
+        <v>38425</v>
       </c>
       <c r="B46" t="s">
-        <v>38111</v>
+        <v>38471</v>
       </c>
       <c r="C46" t="s">
-        <v>38123</v>
+        <v>38483</v>
       </c>
       <c r="D46" s="1">
         <v>0.72000002861022949</v>
@@ -117781,24 +118861,24 @@
         <v>0.89999997615814209</v>
       </c>
       <c r="G46" t="s">
-        <v>38138</v>
+        <v>38498</v>
       </c>
       <c r="H46" t="s">
-        <v>38158</v>
+        <v>38518</v>
       </c>
       <c r="I46" t="s">
-        <v>38205</v>
+        <v>38565</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>38066</v>
+        <v>38426</v>
       </c>
       <c r="B47" t="s">
-        <v>38112</v>
+        <v>38472</v>
       </c>
       <c r="C47" t="s">
-        <v>38123</v>
+        <v>38483</v>
       </c>
       <c r="D47" s="1">
         <v>0.46000000834465027</v>
@@ -117810,24 +118890,24 @@
         <v>0.73000001907348633</v>
       </c>
       <c r="G47" t="s">
-        <v>38138</v>
+        <v>38498</v>
       </c>
       <c r="H47" t="s">
-        <v>38159</v>
+        <v>38519</v>
       </c>
       <c r="I47" t="s">
-        <v>38206</v>
+        <v>38566</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>38066</v>
+        <v>38426</v>
       </c>
       <c r="B48" t="s">
-        <v>38113</v>
+        <v>38473</v>
       </c>
       <c r="C48" t="s">
-        <v>38123</v>
+        <v>38483</v>
       </c>
       <c r="D48" s="1">
         <v>0.62999999523162842</v>
@@ -117839,13 +118919,13 @@
         <v>0.89999997615814209</v>
       </c>
       <c r="G48" t="s">
-        <v>38138</v>
+        <v>38498</v>
       </c>
       <c r="H48" t="s">
-        <v>38159</v>
+        <v>38519</v>
       </c>
       <c r="I48" t="s">
-        <v>38207</v>
+        <v>38567</v>
       </c>
     </row>
   </sheetData>

--- a/products/Exported Data.xlsx
+++ b/products/Exported Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65835" uniqueCount="38568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67075" uniqueCount="39288">
   <si>
     <t>Study</t>
   </si>
@@ -101537,6 +101537,2166 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Study: Treatment 1 vs Treatment 2</t>
+  </si>
+  <si>
+    <t>Attal 2019 (ICARIA-MM): IsPd vs Pd</t>
+  </si>
+  <si>
+    <t>Bahlis 2020 (POLLUX): DRd vs Rd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2013 (VANTAGE 088): VorV vs V</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2016 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-3): EPd vs Pd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2020 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2021 (APOLLO): DPd vs Pd</t>
+  </si>
+  <si>
+    <t>Grosicki 2020 (BOSTON): SeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Hou 2017 (China Cont.): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>Jakubowiak 2016 (NCT01478048): EVd vs Vd</t>
+  </si>
+  <si>
+    <t>Kumar 2020 (BELLINI): VeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Lu 2021 (LEPUS): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Mateos 2020 (CASTOR): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Moreau 2021 (IKEMA): IsKd vs Kd</t>
+  </si>
+  <si>
+    <t>Orlowski 2019 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2019 (OPTIMISMM): PVd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2021 (TOURMALINE-MM1): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2014 (PANORAMA-1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2016 (PANORAMA 1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2013 (MM-003): Pd vs GC</t>
+  </si>
+  <si>
+    <t>Siegel 2018 (ASPIRE): KRd vs Rd</t>
+  </si>
+  <si>
+    <t>Usamani 2022 (CANDOR): DKd vs Kd</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;=3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;=2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Lower 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>Upper 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t>Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      AT 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t>Data Extraction Errors</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Study: Treatment 1 vs Treatment 2</t>
+  </si>
+  <si>
+    <t>Attal 2019 (ICARIA-MM): IsPd vs Pd</t>
+  </si>
+  <si>
+    <t>Bahlis 2020 (POLLUX): DRd vs Rd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2013 (VANTAGE 088): VorV vs V</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2016 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-3): EPd vs Pd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2021 (APOLLO): DPd vs Pd</t>
+  </si>
+  <si>
+    <t>Hou 2017 (China Cont.): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>Jakubowiak 2016 (NCT01478048): EVd vs Vd</t>
+  </si>
+  <si>
+    <t>Kumar 2020 (BELLINI): VeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Lonial 2015 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Lu 2021 (LEPUS): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Mateos 2020 (CASTOR): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Moreau 2021 (IKEMA): IsKd vs Kd</t>
+  </si>
+  <si>
+    <t>Orlowski 2007 (NCT00103506): V vs DoxV</t>
+  </si>
+  <si>
+    <t>Orlowski 2016 (NCT00103506): V vs DoxV</t>
+  </si>
+  <si>
+    <t>Orlowski 2019 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2019 (OPTIMISMM): PVd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2021 (TOURMALINE-MM1): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2016 (PANORAMA 1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>Stewart 2015 (ASPIRE): KRd vs Rd</t>
+  </si>
+  <si>
+    <t>Usmani 2022 (CANDOR): DKd vs Kd</t>
+  </si>
+  <si>
+    <t>refract</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Ref. to R and a PI</t>
+  </si>
+  <si>
+    <t>Not ref. to R and a PI</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous R or T use</t>
+  </si>
+  <si>
+    <t>No previous R or T use</t>
+  </si>
+  <si>
+    <t>Previous R or T use</t>
+  </si>
+  <si>
+    <t>No previous R or T use</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Refractory to T</t>
+  </si>
+  <si>
+    <t>Not refractory to T</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No previous IMiD use</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Lower 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>Upper 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0230</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .       Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t>Data Extraction Errors</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Study: Treatment 1 vs Treatment 2</t>
+  </si>
+  <si>
+    <t>Attal 2019 (ICARIA-MM): IsPd vs Pd</t>
+  </si>
+  <si>
+    <t>Bahlis 2020 (POLLUX): DRd vs Rd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2013 (VANTAGE 088): VorV vs V</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2016 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-3): EPd vs Pd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2020 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2021 (APOLLO): DPd vs Pd</t>
+  </si>
+  <si>
+    <t>Grosicki 2020 (BOSTON): SeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Hou 2017 (China Cont.): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>Jakubowiak 2016 (NCT01478048): EVd vs Vd</t>
+  </si>
+  <si>
+    <t>Kumar 2020 (BELLINI): VeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Lu 2021 (LEPUS): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Mateos 2020 (CASTOR): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Moreau 2021 (IKEMA): IsKd vs Kd</t>
+  </si>
+  <si>
+    <t>Orlowski 2019 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2019 (OPTIMISMM): PVd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2021 (TOURMALINE-MM1): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2014 (PANORAMA-1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2016 (PANORAMA 1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2013 (MM-003): Pd vs GC</t>
+  </si>
+  <si>
+    <t>Siegel 2018 (ASPIRE): KRd vs Rd</t>
+  </si>
+  <si>
+    <t>Usamani 2022 (CANDOR): DKd vs Kd</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;=3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;=2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Lower 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>Upper 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t>Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      AT 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t>Data Extraction Errors</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Study: Treatment 1 vs Treatment 2</t>
+  </si>
+  <si>
+    <t>Attal 2019 (ICARIA-MM): IsPd vs Pd</t>
+  </si>
+  <si>
+    <t>Bahlis 2020 (POLLUX): DRd vs Rd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2013 (VANTAGE 088): VorV vs V</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2016 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-3): EPd vs Pd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2021 (APOLLO): DPd vs Pd</t>
+  </si>
+  <si>
+    <t>Hou 2017 (China Cont.): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>Jakubowiak 2016 (NCT01478048): EVd vs Vd</t>
+  </si>
+  <si>
+    <t>Kumar 2020 (BELLINI): VeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Lonial 2015 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Lu 2021 (LEPUS): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Mateos 2020 (CASTOR): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Moreau 2021 (IKEMA): IsKd vs Kd</t>
+  </si>
+  <si>
+    <t>Orlowski 2007 (NCT00103506): V vs DoxV</t>
+  </si>
+  <si>
+    <t>Orlowski 2016 (NCT00103506): V vs DoxV</t>
+  </si>
+  <si>
+    <t>Orlowski 2019 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2019 (OPTIMISMM): PVd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2021 (TOURMALINE-MM1): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2016 (PANORAMA 1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>Stewart 2015 (ASPIRE): KRd vs Rd</t>
+  </si>
+  <si>
+    <t>Usmani 2022 (CANDOR): DKd vs Kd</t>
+  </si>
+  <si>
+    <t>refract</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Ref. to R and a PI</t>
+  </si>
+  <si>
+    <t>Not ref. to R and a PI</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous R or T use</t>
+  </si>
+  <si>
+    <t>No previous R or T use</t>
+  </si>
+  <si>
+    <t>Previous R or T use</t>
+  </si>
+  <si>
+    <t>No previous R or T use</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Refractory to T</t>
+  </si>
+  <si>
+    <t>Not refractory to T</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No previous IMiD use</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Lower 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>Upper 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0230</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .       Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t>Data Extraction Errors</t>
   </si>
   <si>
     <t/>
@@ -115768,42 +117928,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>38208</v>
+        <v>38928</v>
       </c>
       <c r="B1" t="s">
-        <v>38232</v>
+        <v>38952</v>
       </c>
       <c r="C1" t="s">
-        <v>38296</v>
+        <v>39016</v>
       </c>
       <c r="D1" t="s">
-        <v>38312</v>
+        <v>39032</v>
       </c>
       <c r="E1" t="s">
-        <v>38313</v>
+        <v>39033</v>
       </c>
       <c r="F1" t="s">
-        <v>38314</v>
+        <v>39034</v>
       </c>
       <c r="G1" t="s">
-        <v>38315</v>
+        <v>39035</v>
       </c>
       <c r="H1" t="s">
-        <v>38316</v>
+        <v>39036</v>
       </c>
       <c r="I1" t="s">
-        <v>38340</v>
+        <v>39060</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>38209</v>
+        <v>38929</v>
       </c>
       <c r="B2" t="s">
-        <v>38233</v>
+        <v>38953</v>
       </c>
       <c r="C2" t="s">
-        <v>38297</v>
+        <v>39017</v>
       </c>
       <c r="D2" s="1">
         <v>0.5899999737739563</v>
@@ -115816,21 +117976,21 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" t="s">
-        <v>38317</v>
+        <v>39037</v>
       </c>
       <c r="I2" t="s">
-        <v>38341</v>
+        <v>39061</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>38209</v>
+        <v>38929</v>
       </c>
       <c r="B3" t="s">
-        <v>38234</v>
+        <v>38954</v>
       </c>
       <c r="C3" t="s">
-        <v>38297</v>
+        <v>39017</v>
       </c>
       <c r="D3" s="1">
         <v>0.5899999737739563</v>
@@ -115843,21 +118003,21 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" t="s">
-        <v>38317</v>
+        <v>39037</v>
       </c>
       <c r="I3" t="s">
-        <v>38342</v>
+        <v>39062</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>38210</v>
+        <v>38930</v>
       </c>
       <c r="B4" t="s">
-        <v>38235</v>
+        <v>38955</v>
       </c>
       <c r="C4" t="s">
-        <v>38297</v>
+        <v>39017</v>
       </c>
       <c r="D4" s="1">
         <v>0.41999998688697815</v>
@@ -115870,21 +118030,21 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" t="s">
-        <v>38318</v>
+        <v>39038</v>
       </c>
       <c r="I4" t="s">
-        <v>38343</v>
+        <v>39063</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>38210</v>
+        <v>38930</v>
       </c>
       <c r="B5" t="s">
-        <v>38236</v>
+        <v>38956</v>
       </c>
       <c r="C5" t="s">
-        <v>38297</v>
+        <v>39017</v>
       </c>
       <c r="D5" s="1">
         <v>0.38999998569488525</v>
@@ -115897,21 +118057,21 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" t="s">
-        <v>38318</v>
+        <v>39038</v>
       </c>
       <c r="I5" t="s">
-        <v>38344</v>
+        <v>39064</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>38210</v>
+        <v>38930</v>
       </c>
       <c r="B6" t="s">
-        <v>38237</v>
+        <v>38957</v>
       </c>
       <c r="C6" t="s">
-        <v>38297</v>
+        <v>39017</v>
       </c>
       <c r="D6" s="1">
         <v>0.47999998927116394</v>
@@ -115924,21 +118084,21 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" t="s">
-        <v>38318</v>
+        <v>39038</v>
       </c>
       <c r="I6" t="s">
-        <v>38345</v>
+        <v>39065</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>38210</v>
+        <v>38930</v>
       </c>
       <c r="B7" t="s">
-        <v>38238</v>
+        <v>38958</v>
       </c>
       <c r="C7" t="s">
-        <v>38297</v>
+        <v>39017</v>
       </c>
       <c r="D7" s="1">
         <v>0.74000000953674316</v>
@@ -115951,21 +118111,21 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" t="s">
-        <v>38318</v>
+        <v>39038</v>
       </c>
       <c r="I7" t="s">
-        <v>38346</v>
+        <v>39066</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>38211</v>
+        <v>38931</v>
       </c>
       <c r="B8" t="s">
-        <v>38239</v>
+        <v>38959</v>
       </c>
       <c r="C8" t="s">
-        <v>38297</v>
+        <v>39017</v>
       </c>
       <c r="D8" s="1">
         <v>0.68699997663497925</v>
@@ -115980,21 +118140,21 @@
         <v>0.015200000256299973</v>
       </c>
       <c r="H8" t="s">
-        <v>38319</v>
+        <v>39039</v>
       </c>
       <c r="I8" t="s">
-        <v>38347</v>
+        <v>39067</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>38211</v>
+        <v>38931</v>
       </c>
       <c r="B9" t="s">
-        <v>38240</v>
+        <v>38960</v>
       </c>
       <c r="C9" t="s">
-        <v>38297</v>
+        <v>39017</v>
       </c>
       <c r="D9" s="1">
         <v>0.91600000858306885</v>
@@ -116009,21 +118169,21 @@
         <v>0.48710000514984131</v>
       </c>
       <c r="H9" t="s">
-        <v>38320</v>
+        <v>39040</v>
       </c>
       <c r="I9" t="s">
-        <v>38348</v>
+        <v>39068</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>38212</v>
+        <v>38932</v>
       </c>
       <c r="B10" t="s">
-        <v>38241</v>
+        <v>38961</v>
       </c>
       <c r="C10" t="s">
-        <v>38297</v>
+        <v>39017</v>
       </c>
       <c r="D10" s="1">
         <v>0.44999998807907104</v>
@@ -116036,21 +118196,21 @@
       </c>
       <c r="G10" s="1"/>
       <c r="H10" t="s">
-        <v>38321</v>
+        <v>39041</v>
       </c>
       <c r="I10" t="s">
-        <v>38349</v>
+        <v>39069</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38212</v>
+        <v>38932</v>
       </c>
       <c r="B11" t="s">
-        <v>38242</v>
+        <v>38962</v>
       </c>
       <c r="C11" t="s">
-        <v>38297</v>
+        <v>39017</v>
       </c>
       <c r="D11" s="1">
         <v>0.60000002384185791</v>
@@ -116063,21 +118223,21 @@
       </c>
       <c r="G11" s="1"/>
       <c r="H11" t="s">
-        <v>38321</v>
+        <v>39041</v>
       </c>
       <c r="I11" t="s">
-        <v>38350</v>
+        <v>39070</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>38213</v>
+        <v>38933</v>
       </c>
       <c r="B12" t="s">
-        <v>38242</v>
+        <v>38962</v>
       </c>
       <c r="C12" t="s">
-        <v>38297</v>
+        <v>39017</v>
       </c>
       <c r="D12" s="1">
         <v>0.55000001192092896</v>
@@ -116090,21 +118250,21 @@
       </c>
       <c r="G12" s="1"/>
       <c r="H12" t="s">
-        <v>38322</v>
+        <v>39042</v>
       </c>
       <c r="I12" t="s">
-        <v>38351</v>
+        <v>39071</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>38213</v>
+        <v>38933</v>
       </c>
       <c r="B13" t="s">
-        <v>38243</v>
+        <v>38963</v>
       </c>
       <c r="C13" t="s">
-        <v>38297</v>
+        <v>39017</v>
       </c>
       <c r="D13" s="1">
         <v>0.50999999046325684</v>
@@ -116117,21 +118277,21 @@
       </c>
       <c r="G13" s="1"/>
       <c r="H13" t="s">
-        <v>38322</v>
+        <v>39042</v>
       </c>
       <c r="I13" t="s">
-        <v>38352</v>
+        <v>39072</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>38214</v>
+        <v>38934</v>
       </c>
       <c r="B14" t="s">
-        <v>38244</v>
+        <v>38964</v>
       </c>
       <c r="C14" t="s">
-        <v>38297</v>
+        <v>39017</v>
       </c>
       <c r="D14" s="1">
         <v>0.76999998092651367</v>
@@ -116144,21 +118304,21 @@
       </c>
       <c r="G14" s="1"/>
       <c r="H14" t="s">
-        <v>38323</v>
+        <v>39043</v>
       </c>
       <c r="I14" t="s">
-        <v>38353</v>
+        <v>39073</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>38214</v>
+        <v>38934</v>
       </c>
       <c r="B15" t="s">
-        <v>38245</v>
+        <v>38965</v>
       </c>
       <c r="C15" t="s">
-        <v>38297</v>
+        <v>39017</v>
       </c>
       <c r="D15" s="1">
         <v>0.68000000715255737</v>
@@ -116171,21 +118331,21 @@
       </c>
       <c r="G15" s="1"/>
       <c r="H15" t="s">
-        <v>38323</v>
+        <v>39043</v>
       </c>
       <c r="I15" t="s">
-        <v>38354</v>
+        <v>39074</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>38215</v>
+        <v>38935</v>
       </c>
       <c r="B16" t="s">
-        <v>38246</v>
+        <v>38966</v>
       </c>
       <c r="C16" t="s">
-        <v>38298</v>
+        <v>39018</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -116198,21 +118358,21 @@
       </c>
       <c r="G16" s="1"/>
       <c r="H16" t="s">
-        <v>38323</v>
+        <v>39043</v>
       </c>
       <c r="I16" t="s">
-        <v>38355</v>
+        <v>39075</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>38215</v>
+        <v>38935</v>
       </c>
       <c r="B17" t="s">
-        <v>38247</v>
+        <v>38967</v>
       </c>
       <c r="C17" t="s">
-        <v>38298</v>
+        <v>39018</v>
       </c>
       <c r="D17" s="1">
         <v>0.70999997854232788</v>
@@ -116225,21 +118385,21 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" t="s">
-        <v>38323</v>
+        <v>39043</v>
       </c>
       <c r="I17" t="s">
-        <v>38356</v>
+        <v>39076</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>38216</v>
+        <v>38936</v>
       </c>
       <c r="B18" t="s">
-        <v>38248</v>
+        <v>38968</v>
       </c>
       <c r="C18" t="s">
-        <v>38299</v>
+        <v>39019</v>
       </c>
       <c r="D18" s="1">
         <v>0.69999998807907104</v>
@@ -116252,21 +118412,21 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18" t="s">
-        <v>38324</v>
+        <v>39044</v>
       </c>
       <c r="I18" t="s">
-        <v>38357</v>
+        <v>39077</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>38216</v>
+        <v>38936</v>
       </c>
       <c r="B19" t="s">
-        <v>38249</v>
+        <v>38969</v>
       </c>
       <c r="C19" t="s">
-        <v>38299</v>
+        <v>39019</v>
       </c>
       <c r="D19" s="1">
         <v>0.6600000262260437</v>
@@ -116279,21 +118439,21 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" t="s">
-        <v>38324</v>
+        <v>39044</v>
       </c>
       <c r="I19" t="s">
-        <v>38358</v>
+        <v>39078</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>38216</v>
+        <v>38936</v>
       </c>
       <c r="B20" t="s">
-        <v>38250</v>
+        <v>38970</v>
       </c>
       <c r="C20" t="s">
-        <v>38299</v>
+        <v>39019</v>
       </c>
       <c r="D20" s="1">
         <v>0.40000000596046448</v>
@@ -116306,21 +118466,21 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" t="s">
-        <v>38324</v>
+        <v>39044</v>
       </c>
       <c r="I20" t="s">
-        <v>38359</v>
+        <v>39079</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>38217</v>
+        <v>38937</v>
       </c>
       <c r="B21" t="s">
-        <v>38251</v>
+        <v>38971</v>
       </c>
       <c r="C21" t="s">
-        <v>38299</v>
+        <v>39019</v>
       </c>
       <c r="D21" s="1">
         <v>0.62999999523162842</v>
@@ -116333,21 +118493,21 @@
       </c>
       <c r="G21" s="1"/>
       <c r="H21" t="s">
-        <v>38325</v>
+        <v>39045</v>
       </c>
       <c r="I21" t="s">
-        <v>38360</v>
+        <v>39080</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>38217</v>
+        <v>38937</v>
       </c>
       <c r="B22" t="s">
-        <v>38252</v>
+        <v>38972</v>
       </c>
       <c r="C22" t="s">
-        <v>38299</v>
+        <v>39019</v>
       </c>
       <c r="D22" s="1">
         <v>0.64999997615814209</v>
@@ -116360,21 +118520,21 @@
       </c>
       <c r="G22" s="1"/>
       <c r="H22" t="s">
-        <v>38325</v>
+        <v>39045</v>
       </c>
       <c r="I22" t="s">
-        <v>38361</v>
+        <v>39081</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>38217</v>
+        <v>38937</v>
       </c>
       <c r="B23" t="s">
-        <v>38253</v>
+        <v>38973</v>
       </c>
       <c r="C23" t="s">
-        <v>38299</v>
+        <v>39019</v>
       </c>
       <c r="D23" s="1">
         <v>0.81999999284744263</v>
@@ -116387,21 +118547,21 @@
       </c>
       <c r="G23" s="1"/>
       <c r="H23" t="s">
-        <v>38325</v>
+        <v>39045</v>
       </c>
       <c r="I23" t="s">
-        <v>38362</v>
+        <v>39082</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>38218</v>
+        <v>38938</v>
       </c>
       <c r="B24" t="s">
-        <v>38254</v>
+        <v>38974</v>
       </c>
       <c r="C24" t="s">
-        <v>38299</v>
+        <v>39019</v>
       </c>
       <c r="D24" s="1">
         <v>0.84700000286102295</v>
@@ -116414,21 +118574,21 @@
       </c>
       <c r="G24" s="1"/>
       <c r="H24" t="s">
-        <v>38326</v>
+        <v>39046</v>
       </c>
       <c r="I24" t="s">
-        <v>38363</v>
+        <v>39083</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>38218</v>
+        <v>38938</v>
       </c>
       <c r="B25" t="s">
-        <v>38255</v>
+        <v>38975</v>
       </c>
       <c r="C25" t="s">
-        <v>38299</v>
+        <v>39019</v>
       </c>
       <c r="D25" s="1">
         <v>0.37000000476837158</v>
@@ -116441,21 +118601,21 @@
       </c>
       <c r="G25" s="1"/>
       <c r="H25" t="s">
-        <v>38326</v>
+        <v>39046</v>
       </c>
       <c r="I25" t="s">
-        <v>38364</v>
+        <v>39084</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>38218</v>
+        <v>38938</v>
       </c>
       <c r="B26" t="s">
-        <v>38256</v>
+        <v>38976</v>
       </c>
       <c r="C26" t="s">
-        <v>38299</v>
+        <v>39019</v>
       </c>
       <c r="D26" s="1">
         <v>0.70200002193450928</v>
@@ -116468,21 +118628,21 @@
       </c>
       <c r="G26" s="1"/>
       <c r="H26" t="s">
-        <v>38326</v>
+        <v>39046</v>
       </c>
       <c r="I26" t="s">
-        <v>38365</v>
+        <v>39085</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>38218</v>
+        <v>38938</v>
       </c>
       <c r="B27" t="s">
-        <v>38257</v>
+        <v>38977</v>
       </c>
       <c r="C27" t="s">
-        <v>38300</v>
+        <v>39020</v>
       </c>
       <c r="D27" s="1">
         <v>0.52100002765655518</v>
@@ -116495,21 +118655,21 @@
       </c>
       <c r="G27" s="1"/>
       <c r="H27" t="s">
-        <v>38327</v>
+        <v>39047</v>
       </c>
       <c r="I27" t="s">
-        <v>38366</v>
+        <v>39086</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>38218</v>
+        <v>38938</v>
       </c>
       <c r="B28" t="s">
-        <v>38258</v>
+        <v>38978</v>
       </c>
       <c r="C28" t="s">
-        <v>38300</v>
+        <v>39020</v>
       </c>
       <c r="D28" s="1">
         <v>0.38600000739097595</v>
@@ -116522,21 +118682,21 @@
       </c>
       <c r="G28" s="1"/>
       <c r="H28" t="s">
-        <v>38327</v>
+        <v>39047</v>
       </c>
       <c r="I28" t="s">
-        <v>38367</v>
+        <v>39087</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>38218</v>
+        <v>38938</v>
       </c>
       <c r="B29" t="s">
-        <v>38259</v>
+        <v>38979</v>
       </c>
       <c r="C29" t="s">
-        <v>38300</v>
+        <v>39020</v>
       </c>
       <c r="D29" s="1">
         <v>0.335999995470047</v>
@@ -116549,21 +118709,21 @@
       </c>
       <c r="G29" s="1"/>
       <c r="H29" t="s">
-        <v>38327</v>
+        <v>39047</v>
       </c>
       <c r="I29" t="s">
-        <v>38368</v>
+        <v>39088</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>38219</v>
+        <v>38939</v>
       </c>
       <c r="B30" t="s">
-        <v>38260</v>
+        <v>38980</v>
       </c>
       <c r="C30" t="s">
-        <v>38301</v>
+        <v>39021</v>
       </c>
       <c r="D30" s="1">
         <v>0.68000000715255737</v>
@@ -116576,21 +118736,21 @@
       </c>
       <c r="G30" s="1"/>
       <c r="H30" t="s">
-        <v>38328</v>
+        <v>39048</v>
       </c>
       <c r="I30" t="s">
-        <v>38369</v>
+        <v>39089</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>38219</v>
+        <v>38939</v>
       </c>
       <c r="B31" t="s">
-        <v>38261</v>
+        <v>38981</v>
       </c>
       <c r="C31" t="s">
-        <v>38301</v>
+        <v>39021</v>
       </c>
       <c r="D31" s="1">
         <v>0.72000002861022949</v>
@@ -116603,21 +118763,21 @@
       </c>
       <c r="G31" s="1"/>
       <c r="H31" t="s">
-        <v>38328</v>
+        <v>39048</v>
       </c>
       <c r="I31" t="s">
-        <v>38370</v>
+        <v>39090</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>38220</v>
+        <v>38940</v>
       </c>
       <c r="B32" t="s">
-        <v>38262</v>
+        <v>38982</v>
       </c>
       <c r="C32" t="s">
-        <v>38301</v>
+        <v>39021</v>
       </c>
       <c r="D32" s="1">
         <v>0.75</v>
@@ -116630,21 +118790,21 @@
       </c>
       <c r="G32" s="1"/>
       <c r="H32" t="s">
-        <v>38329</v>
+        <v>39049</v>
       </c>
       <c r="I32" t="s">
-        <v>38371</v>
+        <v>39091</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>38220</v>
+        <v>38940</v>
       </c>
       <c r="B33" t="s">
-        <v>38263</v>
+        <v>38983</v>
       </c>
       <c r="C33" t="s">
-        <v>38301</v>
+        <v>39021</v>
       </c>
       <c r="D33" s="1">
         <v>0.54000002145767212</v>
@@ -116657,21 +118817,21 @@
       </c>
       <c r="G33" s="1"/>
       <c r="H33" t="s">
-        <v>38329</v>
+        <v>39049</v>
       </c>
       <c r="I33" t="s">
-        <v>38372</v>
+        <v>39092</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>38220</v>
+        <v>38940</v>
       </c>
       <c r="B34" t="s">
-        <v>38264</v>
+        <v>38984</v>
       </c>
       <c r="C34" t="s">
-        <v>38302</v>
+        <v>39022</v>
       </c>
       <c r="D34" s="1">
         <v>1.6699999570846558</v>
@@ -116684,21 +118844,21 @@
       </c>
       <c r="G34" s="1"/>
       <c r="H34" t="s">
-        <v>38330</v>
+        <v>39050</v>
       </c>
       <c r="I34" t="s">
-        <v>38373</v>
+        <v>39093</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>38220</v>
+        <v>38940</v>
       </c>
       <c r="B35" t="s">
-        <v>38265</v>
+        <v>38985</v>
       </c>
       <c r="C35" t="s">
-        <v>38302</v>
+        <v>39022</v>
       </c>
       <c r="D35" s="1">
         <v>2.3299999237060547</v>
@@ -116711,21 +118871,21 @@
       </c>
       <c r="G35" s="1"/>
       <c r="H35" t="s">
-        <v>38330</v>
+        <v>39050</v>
       </c>
       <c r="I35" t="s">
-        <v>38374</v>
+        <v>39094</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>38221</v>
+        <v>38941</v>
       </c>
       <c r="B36" t="s">
-        <v>38266</v>
+        <v>38986</v>
       </c>
       <c r="C36" t="s">
-        <v>38303</v>
+        <v>39023</v>
       </c>
       <c r="D36" s="1">
         <v>0.15999999642372131</v>
@@ -116738,21 +118898,21 @@
       </c>
       <c r="G36" s="1"/>
       <c r="H36" t="s">
-        <v>38331</v>
+        <v>39051</v>
       </c>
       <c r="I36" t="s">
-        <v>38375</v>
+        <v>39095</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>38221</v>
+        <v>38941</v>
       </c>
       <c r="B37" t="s">
-        <v>38267</v>
+        <v>38987</v>
       </c>
       <c r="C37" t="s">
-        <v>38303</v>
+        <v>39023</v>
       </c>
       <c r="D37" s="1">
         <v>0.51999998092651367</v>
@@ -116765,21 +118925,21 @@
       </c>
       <c r="G37" s="1"/>
       <c r="H37" t="s">
-        <v>38331</v>
+        <v>39051</v>
       </c>
       <c r="I37" t="s">
-        <v>38376</v>
+        <v>39096</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>38221</v>
+        <v>38941</v>
       </c>
       <c r="B38" t="s">
-        <v>38268</v>
+        <v>38988</v>
       </c>
       <c r="C38" t="s">
-        <v>38303</v>
+        <v>39023</v>
       </c>
       <c r="D38" s="1">
         <v>0.62999999523162842</v>
@@ -116792,21 +118952,21 @@
       </c>
       <c r="G38" s="1"/>
       <c r="H38" t="s">
-        <v>38331</v>
+        <v>39051</v>
       </c>
       <c r="I38" t="s">
-        <v>38377</v>
+        <v>39097</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>38221</v>
+        <v>38941</v>
       </c>
       <c r="B39" t="s">
-        <v>38269</v>
+        <v>38989</v>
       </c>
       <c r="C39" t="s">
-        <v>38303</v>
+        <v>39023</v>
       </c>
       <c r="D39" s="1">
         <v>0.25999999046325684</v>
@@ -116819,21 +118979,21 @@
       </c>
       <c r="G39" s="1"/>
       <c r="H39" t="s">
-        <v>38331</v>
+        <v>39051</v>
       </c>
       <c r="I39" t="s">
-        <v>38378</v>
+        <v>39098</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>38222</v>
+        <v>38942</v>
       </c>
       <c r="B40" t="s">
-        <v>38270</v>
+        <v>38990</v>
       </c>
       <c r="C40" t="s">
-        <v>38303</v>
+        <v>39023</v>
       </c>
       <c r="D40" s="1">
         <v>0.2199999988079071</v>
@@ -116846,21 +119006,21 @@
       </c>
       <c r="G40" s="1"/>
       <c r="H40" t="s">
-        <v>38331</v>
+        <v>39051</v>
       </c>
       <c r="I40" t="s">
-        <v>38379</v>
+        <v>39099</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>38222</v>
+        <v>38942</v>
       </c>
       <c r="B41" t="s">
-        <v>38271</v>
+        <v>38991</v>
       </c>
       <c r="C41" t="s">
-        <v>38303</v>
+        <v>39023</v>
       </c>
       <c r="D41" s="1">
         <v>0.46000000834465027</v>
@@ -116873,21 +119033,21 @@
       </c>
       <c r="G41" s="1"/>
       <c r="H41" t="s">
-        <v>38331</v>
+        <v>39051</v>
       </c>
       <c r="I41" t="s">
-        <v>38380</v>
+        <v>39100</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>38222</v>
+        <v>38942</v>
       </c>
       <c r="B42" t="s">
-        <v>38272</v>
+        <v>38992</v>
       </c>
       <c r="C42" t="s">
-        <v>38303</v>
+        <v>39023</v>
       </c>
       <c r="D42" s="1">
         <v>0.60000002384185791</v>
@@ -116900,21 +119060,21 @@
       </c>
       <c r="G42" s="1"/>
       <c r="H42" t="s">
-        <v>38331</v>
+        <v>39051</v>
       </c>
       <c r="I42" t="s">
-        <v>38381</v>
+        <v>39101</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>38222</v>
+        <v>38942</v>
       </c>
       <c r="B43" t="s">
-        <v>38273</v>
+        <v>38993</v>
       </c>
       <c r="C43" t="s">
-        <v>38303</v>
+        <v>39023</v>
       </c>
       <c r="D43" s="1">
         <v>0.37000000476837158</v>
@@ -116927,21 +119087,21 @@
       </c>
       <c r="G43" s="1"/>
       <c r="H43" t="s">
-        <v>38331</v>
+        <v>39051</v>
       </c>
       <c r="I43" t="s">
-        <v>38382</v>
+        <v>39102</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>38223</v>
+        <v>38943</v>
       </c>
       <c r="B44" t="s">
-        <v>38274</v>
+        <v>38994</v>
       </c>
       <c r="C44" t="s">
-        <v>38303</v>
+        <v>39023</v>
       </c>
       <c r="D44" s="1">
         <v>0.5899999737739563</v>
@@ -116954,21 +119114,21 @@
       </c>
       <c r="G44" s="1"/>
       <c r="H44" t="s">
-        <v>38332</v>
+        <v>39052</v>
       </c>
       <c r="I44" t="s">
-        <v>38383</v>
+        <v>39103</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>38223</v>
+        <v>38943</v>
       </c>
       <c r="B45" t="s">
-        <v>38275</v>
+        <v>38995</v>
       </c>
       <c r="C45" t="s">
-        <v>38303</v>
+        <v>39023</v>
       </c>
       <c r="D45" s="1">
         <v>0.47999998927116394</v>
@@ -116981,21 +119141,21 @@
       </c>
       <c r="G45" s="1"/>
       <c r="H45" t="s">
-        <v>38332</v>
+        <v>39052</v>
       </c>
       <c r="I45" t="s">
-        <v>38384</v>
+        <v>39104</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>38224</v>
+        <v>38944</v>
       </c>
       <c r="B46" t="s">
-        <v>38276</v>
+        <v>38996</v>
       </c>
       <c r="C46" t="s">
-        <v>38304</v>
+        <v>39024</v>
       </c>
       <c r="D46" s="1">
         <v>0.77100002765655518</v>
@@ -117008,21 +119168,21 @@
       </c>
       <c r="G46" s="1"/>
       <c r="H46" t="s">
-        <v>38332</v>
+        <v>39052</v>
       </c>
       <c r="I46" t="s">
-        <v>38385</v>
+        <v>39105</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>38224</v>
+        <v>38944</v>
       </c>
       <c r="B47" t="s">
-        <v>38277</v>
+        <v>38997</v>
       </c>
       <c r="C47" t="s">
-        <v>38304</v>
+        <v>39024</v>
       </c>
       <c r="D47" s="1">
         <v>0.75199997425079346</v>
@@ -117035,21 +119195,21 @@
       </c>
       <c r="G47" s="1"/>
       <c r="H47" t="s">
-        <v>38332</v>
+        <v>39052</v>
       </c>
       <c r="I47" t="s">
-        <v>38386</v>
+        <v>39106</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>38225</v>
+        <v>38945</v>
       </c>
       <c r="B48" t="s">
-        <v>38278</v>
+        <v>38998</v>
       </c>
       <c r="C48" t="s">
-        <v>38305</v>
+        <v>39025</v>
       </c>
       <c r="D48" s="1">
         <v>0.54000002145767212</v>
@@ -117062,21 +119222,21 @@
       </c>
       <c r="G48" s="1"/>
       <c r="H48" t="s">
-        <v>38332</v>
+        <v>39052</v>
       </c>
       <c r="I48" t="s">
-        <v>38387</v>
+        <v>39107</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>38225</v>
+        <v>38945</v>
       </c>
       <c r="B49" t="s">
-        <v>38279</v>
+        <v>38999</v>
       </c>
       <c r="C49" t="s">
-        <v>38305</v>
+        <v>39025</v>
       </c>
       <c r="D49" s="1">
         <v>0.67000001668930054</v>
@@ -117089,21 +119249,21 @@
       </c>
       <c r="G49" s="1"/>
       <c r="H49" t="s">
-        <v>38332</v>
+        <v>39052</v>
       </c>
       <c r="I49" t="s">
-        <v>38388</v>
+        <v>39108</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>38225</v>
+        <v>38945</v>
       </c>
       <c r="B50" t="s">
-        <v>38280</v>
+        <v>39000</v>
       </c>
       <c r="C50" t="s">
-        <v>38305</v>
+        <v>39025</v>
       </c>
       <c r="D50" s="1">
         <v>0.60000002384185791</v>
@@ -117116,21 +119276,21 @@
       </c>
       <c r="G50" s="1"/>
       <c r="H50" t="s">
-        <v>38332</v>
+        <v>39052</v>
       </c>
       <c r="I50" t="s">
-        <v>38389</v>
+        <v>39109</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>38226</v>
+        <v>38946</v>
       </c>
       <c r="B51" t="s">
-        <v>38281</v>
+        <v>39001</v>
       </c>
       <c r="C51" t="s">
-        <v>38306</v>
+        <v>39026</v>
       </c>
       <c r="D51" s="1">
         <v>0.97600001096725464</v>
@@ -117143,21 +119303,21 @@
       </c>
       <c r="G51" s="1"/>
       <c r="H51" t="s">
-        <v>38333</v>
+        <v>39053</v>
       </c>
       <c r="I51" t="s">
-        <v>38390</v>
+        <v>39110</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>38226</v>
+        <v>38946</v>
       </c>
       <c r="B52" t="s">
-        <v>38282</v>
+        <v>39002</v>
       </c>
       <c r="C52" t="s">
-        <v>38306</v>
+        <v>39026</v>
       </c>
       <c r="D52" s="1">
         <v>0.92599999904632568</v>
@@ -117170,21 +119330,21 @@
       </c>
       <c r="G52" s="1"/>
       <c r="H52" t="s">
-        <v>38333</v>
+        <v>39053</v>
       </c>
       <c r="I52" t="s">
-        <v>38391</v>
+        <v>39111</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>38226</v>
+        <v>38946</v>
       </c>
       <c r="B53" t="s">
-        <v>38283</v>
+        <v>39003</v>
       </c>
       <c r="C53" t="s">
-        <v>38306</v>
+        <v>39026</v>
       </c>
       <c r="D53" s="1">
         <v>0.88300001621246338</v>
@@ -117197,21 +119357,21 @@
       </c>
       <c r="G53" s="1"/>
       <c r="H53" t="s">
-        <v>38333</v>
+        <v>39053</v>
       </c>
       <c r="I53" t="s">
-        <v>38392</v>
+        <v>39112</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>38227</v>
+        <v>38947</v>
       </c>
       <c r="B54" t="s">
-        <v>38284</v>
+        <v>39004</v>
       </c>
       <c r="C54" t="s">
-        <v>38307</v>
+        <v>39027</v>
       </c>
       <c r="D54" s="1">
         <v>0.6600000262260437</v>
@@ -117224,21 +119384,21 @@
       </c>
       <c r="G54" s="1"/>
       <c r="H54" t="s">
-        <v>38334</v>
+        <v>39054</v>
       </c>
       <c r="I54" t="s">
-        <v>38393</v>
+        <v>39113</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>38227</v>
+        <v>38947</v>
       </c>
       <c r="B55" t="s">
-        <v>38285</v>
+        <v>39005</v>
       </c>
       <c r="C55" t="s">
-        <v>38307</v>
+        <v>39027</v>
       </c>
       <c r="D55" s="1">
         <v>0.63999998569488525</v>
@@ -117251,21 +119411,21 @@
       </c>
       <c r="G55" s="1"/>
       <c r="H55" t="s">
-        <v>38334</v>
+        <v>39054</v>
       </c>
       <c r="I55" t="s">
-        <v>38394</v>
+        <v>39114</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>38228</v>
+        <v>38948</v>
       </c>
       <c r="B56" t="s">
-        <v>38286</v>
+        <v>39006</v>
       </c>
       <c r="C56" t="s">
-        <v>38308</v>
+        <v>39028</v>
       </c>
       <c r="D56" s="1">
         <v>0.89999997615814209</v>
@@ -117278,21 +119438,21 @@
       </c>
       <c r="G56" s="1"/>
       <c r="H56" t="s">
-        <v>38335</v>
+        <v>39055</v>
       </c>
       <c r="I56" t="s">
-        <v>38395</v>
+        <v>39115</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>38228</v>
+        <v>38948</v>
       </c>
       <c r="B57" t="s">
-        <v>38287</v>
+        <v>39007</v>
       </c>
       <c r="C57" t="s">
-        <v>38308</v>
+        <v>39028</v>
       </c>
       <c r="D57" s="1">
         <v>0.95999997854232788</v>
@@ -117305,21 +119465,21 @@
       </c>
       <c r="G57" s="1"/>
       <c r="H57" t="s">
-        <v>38335</v>
+        <v>39055</v>
       </c>
       <c r="I57" t="s">
-        <v>38396</v>
+        <v>39116</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>38229</v>
+        <v>38949</v>
       </c>
       <c r="B58" t="s">
-        <v>38288</v>
+        <v>39008</v>
       </c>
       <c r="C58" t="s">
-        <v>38309</v>
+        <v>39029</v>
       </c>
       <c r="D58" s="1">
         <v>0.4699999988079071</v>
@@ -117332,21 +119492,21 @@
       </c>
       <c r="G58" s="1"/>
       <c r="H58" t="s">
-        <v>38336</v>
+        <v>39056</v>
       </c>
       <c r="I58" t="s">
-        <v>38397</v>
+        <v>39117</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>38229</v>
+        <v>38949</v>
       </c>
       <c r="B59" t="s">
-        <v>38289</v>
+        <v>39009</v>
       </c>
       <c r="C59" t="s">
-        <v>38309</v>
+        <v>39029</v>
       </c>
       <c r="D59" s="1">
         <v>0.47999998927116394</v>
@@ -117359,21 +119519,21 @@
       </c>
       <c r="G59" s="1"/>
       <c r="H59" t="s">
-        <v>38336</v>
+        <v>39056</v>
       </c>
       <c r="I59" t="s">
-        <v>38398</v>
+        <v>39118</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>38229</v>
+        <v>38949</v>
       </c>
       <c r="B60" t="s">
-        <v>38290</v>
+        <v>39010</v>
       </c>
       <c r="C60" t="s">
-        <v>38310</v>
+        <v>39030</v>
       </c>
       <c r="D60" s="1">
         <v>0.43999999761581421</v>
@@ -117386,21 +119546,21 @@
       </c>
       <c r="G60" s="1"/>
       <c r="H60" t="s">
-        <v>38337</v>
+        <v>39057</v>
       </c>
       <c r="I60" t="s">
-        <v>38399</v>
+        <v>39119</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>38229</v>
+        <v>38949</v>
       </c>
       <c r="B61" t="s">
-        <v>38291</v>
+        <v>39011</v>
       </c>
       <c r="C61" t="s">
-        <v>38310</v>
+        <v>39030</v>
       </c>
       <c r="D61" s="1">
         <v>0.75999999046325684</v>
@@ -117413,21 +119573,21 @@
       </c>
       <c r="G61" s="1"/>
       <c r="H61" t="s">
-        <v>38337</v>
+        <v>39057</v>
       </c>
       <c r="I61" t="s">
-        <v>38400</v>
+        <v>39120</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>38230</v>
+        <v>38950</v>
       </c>
       <c r="B62" t="s">
-        <v>38292</v>
+        <v>39012</v>
       </c>
       <c r="C62" t="s">
-        <v>38310</v>
+        <v>39030</v>
       </c>
       <c r="D62" s="1">
         <v>0.81000000238418579</v>
@@ -117440,21 +119600,21 @@
       </c>
       <c r="G62" s="1"/>
       <c r="H62" t="s">
-        <v>38338</v>
+        <v>39058</v>
       </c>
       <c r="I62" t="s">
-        <v>38401</v>
+        <v>39121</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>38230</v>
+        <v>38950</v>
       </c>
       <c r="B63" t="s">
-        <v>38293</v>
+        <v>39013</v>
       </c>
       <c r="C63" t="s">
-        <v>38310</v>
+        <v>39030</v>
       </c>
       <c r="D63" s="1">
         <v>0.79000002145767212</v>
@@ -117467,21 +119627,21 @@
       </c>
       <c r="G63" s="1"/>
       <c r="H63" t="s">
-        <v>38338</v>
+        <v>39058</v>
       </c>
       <c r="I63" t="s">
-        <v>38402</v>
+        <v>39122</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>38231</v>
+        <v>38951</v>
       </c>
       <c r="B64" t="s">
-        <v>38294</v>
+        <v>39014</v>
       </c>
       <c r="C64" t="s">
-        <v>38311</v>
+        <v>39031</v>
       </c>
       <c r="D64" s="1">
         <v>0.6600000262260437</v>
@@ -117494,21 +119654,21 @@
       </c>
       <c r="G64" s="1"/>
       <c r="H64" t="s">
-        <v>38339</v>
+        <v>39059</v>
       </c>
       <c r="I64" t="s">
-        <v>38403</v>
+        <v>39123</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>38231</v>
+        <v>38951</v>
       </c>
       <c r="B65" t="s">
-        <v>38295</v>
+        <v>39015</v>
       </c>
       <c r="C65" t="s">
-        <v>38311</v>
+        <v>39031</v>
       </c>
       <c r="D65" s="1">
         <v>0.55000001192092896</v>
@@ -117521,10 +119681,10 @@
       </c>
       <c r="G65" s="1"/>
       <c r="H65" t="s">
-        <v>38339</v>
+        <v>39059</v>
       </c>
       <c r="I65" t="s">
-        <v>38404</v>
+        <v>39124</v>
       </c>
     </row>
   </sheetData>
@@ -117538,42 +119698,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>38405</v>
+        <v>39125</v>
       </c>
       <c r="B1" t="s">
-        <v>38427</v>
+        <v>39147</v>
       </c>
       <c r="C1" t="s">
-        <v>38474</v>
+        <v>39194</v>
       </c>
       <c r="D1" t="s">
-        <v>38484</v>
+        <v>39204</v>
       </c>
       <c r="E1" t="s">
-        <v>38485</v>
+        <v>39205</v>
       </c>
       <c r="F1" t="s">
-        <v>38486</v>
+        <v>39206</v>
       </c>
       <c r="G1" t="s">
-        <v>38487</v>
+        <v>39207</v>
       </c>
       <c r="H1" t="s">
-        <v>38499</v>
+        <v>39219</v>
       </c>
       <c r="I1" t="s">
-        <v>38520</v>
+        <v>39240</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>38406</v>
+        <v>39126</v>
       </c>
       <c r="B2" t="s">
-        <v>38428</v>
+        <v>39148</v>
       </c>
       <c r="C2" t="s">
-        <v>38475</v>
+        <v>39195</v>
       </c>
       <c r="D2" s="1">
         <v>0.5899999737739563</v>
@@ -117585,24 +119745,24 @@
         <v>0.81999999284744263</v>
       </c>
       <c r="G2" t="s">
-        <v>38488</v>
+        <v>39208</v>
       </c>
       <c r="H2" t="s">
-        <v>38500</v>
+        <v>39220</v>
       </c>
       <c r="I2" t="s">
-        <v>38521</v>
+        <v>39241</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>38406</v>
+        <v>39126</v>
       </c>
       <c r="B3" t="s">
-        <v>38429</v>
+        <v>39149</v>
       </c>
       <c r="C3" t="s">
-        <v>38475</v>
+        <v>39195</v>
       </c>
       <c r="D3" s="1">
         <v>0.18000000715255737</v>
@@ -117614,24 +119774,24 @@
         <v>1.4900000095367432</v>
       </c>
       <c r="G3" t="s">
-        <v>38488</v>
+        <v>39208</v>
       </c>
       <c r="H3" t="s">
-        <v>38500</v>
+        <v>39220</v>
       </c>
       <c r="I3" t="s">
-        <v>38522</v>
+        <v>39242</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>38407</v>
+        <v>39127</v>
       </c>
       <c r="B4" t="s">
-        <v>38430</v>
+        <v>39150</v>
       </c>
       <c r="C4" t="s">
-        <v>38475</v>
+        <v>39195</v>
       </c>
       <c r="D4" s="1">
         <v>0.37999999523162842</v>
@@ -117643,24 +119803,24 @@
         <v>0.6600000262260437</v>
       </c>
       <c r="G4" t="s">
-        <v>38488</v>
+        <v>39208</v>
       </c>
       <c r="H4" t="s">
-        <v>38501</v>
+        <v>39221</v>
       </c>
       <c r="I4" t="s">
-        <v>38523</v>
+        <v>39243</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>38407</v>
+        <v>39127</v>
       </c>
       <c r="B5" t="s">
-        <v>38431</v>
+        <v>39151</v>
       </c>
       <c r="C5" t="s">
-        <v>38475</v>
+        <v>39195</v>
       </c>
       <c r="D5" s="1">
         <v>0.44999998807907104</v>
@@ -117672,24 +119832,24 @@
         <v>0.57999998331069946</v>
       </c>
       <c r="G5" t="s">
-        <v>38488</v>
+        <v>39208</v>
       </c>
       <c r="H5" t="s">
-        <v>38501</v>
+        <v>39221</v>
       </c>
       <c r="I5" t="s">
-        <v>38524</v>
+        <v>39244</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>38408</v>
+        <v>39128</v>
       </c>
       <c r="B6" t="s">
-        <v>38432</v>
+        <v>39152</v>
       </c>
       <c r="C6" t="s">
-        <v>38475</v>
+        <v>39195</v>
       </c>
       <c r="D6" s="1">
         <v>0.75700002908706665</v>
@@ -117701,24 +119861,24 @@
         <v>0.96299999952316284</v>
       </c>
       <c r="G6" t="s">
-        <v>38489</v>
+        <v>39209</v>
       </c>
       <c r="H6" t="s">
-        <v>38502</v>
+        <v>39222</v>
       </c>
       <c r="I6" t="s">
-        <v>38525</v>
+        <v>39245</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>38408</v>
+        <v>39128</v>
       </c>
       <c r="B7" t="s">
-        <v>38433</v>
+        <v>39153</v>
       </c>
       <c r="C7" t="s">
-        <v>38475</v>
+        <v>39195</v>
       </c>
       <c r="D7" s="1">
         <v>0.92599999904632568</v>
@@ -117730,24 +119890,24 @@
         <v>1.2790000438690186</v>
       </c>
       <c r="G7" t="s">
-        <v>38490</v>
+        <v>39210</v>
       </c>
       <c r="H7" t="s">
-        <v>38502</v>
+        <v>39222</v>
       </c>
       <c r="I7" t="s">
-        <v>38526</v>
+        <v>39246</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>38409</v>
+        <v>39129</v>
       </c>
       <c r="B8" t="s">
-        <v>38434</v>
+        <v>39154</v>
       </c>
       <c r="C8" t="s">
-        <v>38475</v>
+        <v>39195</v>
       </c>
       <c r="D8" s="1">
         <v>0.43999999761581421</v>
@@ -117759,24 +119919,24 @@
         <v>0.56000000238418579</v>
       </c>
       <c r="G8" t="s">
-        <v>38491</v>
+        <v>39211</v>
       </c>
       <c r="H8" t="s">
-        <v>38503</v>
+        <v>39223</v>
       </c>
       <c r="I8" t="s">
-        <v>38527</v>
+        <v>39247</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>38409</v>
+        <v>39129</v>
       </c>
       <c r="B9" t="s">
-        <v>38435</v>
+        <v>39155</v>
       </c>
       <c r="C9" t="s">
-        <v>38475</v>
+        <v>39195</v>
       </c>
       <c r="D9" s="1">
         <v>0.80000001192092896</v>
@@ -117788,24 +119948,24 @@
         <v>1.1100000143051147</v>
       </c>
       <c r="G9" t="s">
-        <v>38491</v>
+        <v>39211</v>
       </c>
       <c r="H9" t="s">
-        <v>38503</v>
+        <v>39223</v>
       </c>
       <c r="I9" t="s">
-        <v>38528</v>
+        <v>39248</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>38410</v>
+        <v>39130</v>
       </c>
       <c r="B10" t="s">
-        <v>38436</v>
+        <v>39156</v>
       </c>
       <c r="C10" t="s">
-        <v>38475</v>
+        <v>39195</v>
       </c>
       <c r="D10" s="1">
         <v>0.56000000238418579</v>
@@ -117817,24 +119977,24 @@
         <v>0.97000002861022949</v>
       </c>
       <c r="G10" t="s">
-        <v>38491</v>
+        <v>39211</v>
       </c>
       <c r="H10" t="s">
-        <v>38504</v>
+        <v>39224</v>
       </c>
       <c r="I10" t="s">
-        <v>38529</v>
+        <v>39249</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38410</v>
+        <v>39130</v>
       </c>
       <c r="B11" t="s">
-        <v>38437</v>
+        <v>39157</v>
       </c>
       <c r="C11" t="s">
-        <v>38475</v>
+        <v>39195</v>
       </c>
       <c r="D11" s="1">
         <v>0.50999999046325684</v>
@@ -117846,24 +120006,24 @@
         <v>1.190000057220459</v>
       </c>
       <c r="G11" t="s">
-        <v>38491</v>
+        <v>39211</v>
       </c>
       <c r="H11" t="s">
-        <v>38504</v>
+        <v>39224</v>
       </c>
       <c r="I11" t="s">
-        <v>38530</v>
+        <v>39250</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>38411</v>
+        <v>39131</v>
       </c>
       <c r="B12" t="s">
-        <v>38438</v>
+        <v>39158</v>
       </c>
       <c r="C12" t="s">
-        <v>38475</v>
+        <v>39195</v>
       </c>
       <c r="D12" s="1">
         <v>0.6600000262260437</v>
@@ -117875,24 +120035,24 @@
         <v>0.89999997615814209</v>
       </c>
       <c r="G12" t="s">
-        <v>38491</v>
+        <v>39211</v>
       </c>
       <c r="H12" t="s">
-        <v>38505</v>
+        <v>39225</v>
       </c>
       <c r="I12" t="s">
-        <v>38531</v>
+        <v>39251</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>38411</v>
+        <v>39131</v>
       </c>
       <c r="B13" t="s">
-        <v>38439</v>
+        <v>39159</v>
       </c>
       <c r="C13" t="s">
-        <v>38475</v>
+        <v>39195</v>
       </c>
       <c r="D13" s="1">
         <v>0.36000001430511475</v>
@@ -117904,24 +120064,24 @@
         <v>0.82999998331069946</v>
       </c>
       <c r="G13" t="s">
-        <v>38491</v>
+        <v>39211</v>
       </c>
       <c r="H13" t="s">
-        <v>38505</v>
+        <v>39225</v>
       </c>
       <c r="I13" t="s">
-        <v>38532</v>
+        <v>39252</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>38412</v>
+        <v>39132</v>
       </c>
       <c r="B14" t="s">
-        <v>38440</v>
+        <v>39160</v>
       </c>
       <c r="C14" t="s">
-        <v>38475</v>
+        <v>39195</v>
       </c>
       <c r="D14" s="1">
         <v>0.55299997329711914</v>
@@ -117933,24 +120093,24 @@
         <v>0.9309999942779541</v>
       </c>
       <c r="G14" t="s">
-        <v>38492</v>
+        <v>39212</v>
       </c>
       <c r="H14" t="s">
-        <v>38506</v>
+        <v>39226</v>
       </c>
       <c r="I14" t="s">
-        <v>38533</v>
+        <v>39253</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>38412</v>
+        <v>39132</v>
       </c>
       <c r="B15" t="s">
-        <v>38441</v>
+        <v>39161</v>
       </c>
       <c r="C15" t="s">
-        <v>38475</v>
+        <v>39195</v>
       </c>
       <c r="D15" s="1">
         <v>0.76599997282028198</v>
@@ -117962,24 +120122,24 @@
         <v>3.9639999866485596</v>
       </c>
       <c r="G15" t="s">
-        <v>38492</v>
+        <v>39212</v>
       </c>
       <c r="H15" t="s">
-        <v>38506</v>
+        <v>39226</v>
       </c>
       <c r="I15" t="s">
-        <v>38534</v>
+        <v>39254</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>38412</v>
+        <v>39132</v>
       </c>
       <c r="B16" t="s">
-        <v>38442</v>
+        <v>39162</v>
       </c>
       <c r="C16" t="s">
-        <v>38476</v>
+        <v>39196</v>
       </c>
       <c r="D16" s="1">
         <v>0.39800000190734863</v>
@@ -117991,24 +120151,24 @@
         <v>0.71899998188018799</v>
       </c>
       <c r="G16" t="s">
-        <v>38492</v>
+        <v>39212</v>
       </c>
       <c r="H16" t="s">
-        <v>38507</v>
+        <v>39227</v>
       </c>
       <c r="I16" t="s">
-        <v>38535</v>
+        <v>39255</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>38412</v>
+        <v>39132</v>
       </c>
       <c r="B17" t="s">
-        <v>38443</v>
+        <v>39163</v>
       </c>
       <c r="C17" t="s">
-        <v>38476</v>
+        <v>39196</v>
       </c>
       <c r="D17" s="1">
         <v>0.49799999594688416</v>
@@ -118020,24 +120180,24 @@
         <v>2.4030001163482666</v>
       </c>
       <c r="G17" t="s">
-        <v>38492</v>
+        <v>39212</v>
       </c>
       <c r="H17" t="s">
-        <v>38507</v>
+        <v>39227</v>
       </c>
       <c r="I17" t="s">
-        <v>38536</v>
+        <v>39256</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>38413</v>
+        <v>39133</v>
       </c>
       <c r="B18" t="s">
-        <v>38444</v>
+        <v>39164</v>
       </c>
       <c r="C18" t="s">
-        <v>38477</v>
+        <v>39197</v>
       </c>
       <c r="D18" s="1">
         <v>0.87000000476837158</v>
@@ -118049,24 +120209,24 @@
         <v>1.2899999618530273</v>
       </c>
       <c r="G18" t="s">
-        <v>38493</v>
+        <v>39213</v>
       </c>
       <c r="H18" t="s">
-        <v>38508</v>
+        <v>39228</v>
       </c>
       <c r="I18" t="s">
-        <v>38537</v>
+        <v>39257</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>38413</v>
+        <v>39133</v>
       </c>
       <c r="B19" t="s">
-        <v>38445</v>
+        <v>39165</v>
       </c>
       <c r="C19" t="s">
-        <v>38477</v>
+        <v>39197</v>
       </c>
       <c r="D19" s="1">
         <v>0.38999998569488525</v>
@@ -118078,24 +120238,24 @@
         <v>0.80000001192092896</v>
       </c>
       <c r="G19" t="s">
-        <v>38493</v>
+        <v>39213</v>
       </c>
       <c r="H19" t="s">
-        <v>38508</v>
+        <v>39228</v>
       </c>
       <c r="I19" t="s">
-        <v>38538</v>
+        <v>39258</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>38414</v>
+        <v>39134</v>
       </c>
       <c r="B20" t="s">
-        <v>38446</v>
+        <v>39166</v>
       </c>
       <c r="C20" t="s">
-        <v>38477</v>
+        <v>39197</v>
       </c>
       <c r="D20" s="1">
         <v>0.61000001430511475</v>
@@ -118107,24 +120267,24 @@
         <v>1.1699999570846558</v>
       </c>
       <c r="G20" t="s">
-        <v>38493</v>
+        <v>39213</v>
       </c>
       <c r="H20" t="s">
-        <v>38509</v>
+        <v>39229</v>
       </c>
       <c r="I20" t="s">
-        <v>38539</v>
+        <v>39259</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>38414</v>
+        <v>39134</v>
       </c>
       <c r="B21" t="s">
-        <v>38447</v>
+        <v>39167</v>
       </c>
       <c r="C21" t="s">
-        <v>38477</v>
+        <v>39197</v>
       </c>
       <c r="D21" s="1">
         <v>0.75</v>
@@ -118136,24 +120296,24 @@
         <v>1.3600000143051147</v>
       </c>
       <c r="G21" t="s">
-        <v>38493</v>
+        <v>39213</v>
       </c>
       <c r="H21" t="s">
-        <v>38509</v>
+        <v>39229</v>
       </c>
       <c r="I21" t="s">
-        <v>38540</v>
+        <v>39260</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>38414</v>
+        <v>39134</v>
       </c>
       <c r="B22" t="s">
-        <v>38448</v>
+        <v>39168</v>
       </c>
       <c r="C22" t="s">
-        <v>38478</v>
+        <v>39198</v>
       </c>
       <c r="D22" s="1">
         <v>5.9000000953674316</v>
@@ -118165,24 +120325,24 @@
         <v>46.099998474121094</v>
       </c>
       <c r="G22" t="s">
-        <v>38493</v>
+        <v>39213</v>
       </c>
       <c r="H22" t="s">
-        <v>38510</v>
+        <v>39230</v>
       </c>
       <c r="I22" t="s">
-        <v>38541</v>
+        <v>39261</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>38414</v>
+        <v>39134</v>
       </c>
       <c r="B23" t="s">
-        <v>38449</v>
+        <v>39169</v>
       </c>
       <c r="C23" t="s">
-        <v>38478</v>
+        <v>39198</v>
       </c>
       <c r="D23" s="1">
         <v>1.8200000524520874</v>
@@ -118194,24 +120354,24 @@
         <v>5.1399998664855957</v>
       </c>
       <c r="G23" t="s">
-        <v>38493</v>
+        <v>39213</v>
       </c>
       <c r="H23" t="s">
-        <v>38510</v>
+        <v>39230</v>
       </c>
       <c r="I23" t="s">
-        <v>38542</v>
+        <v>39262</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>38415</v>
+        <v>39135</v>
       </c>
       <c r="B24" t="s">
-        <v>38450</v>
+        <v>39170</v>
       </c>
       <c r="C24" t="s">
-        <v>38479</v>
+        <v>39199</v>
       </c>
       <c r="D24" s="1">
         <v>0.5899999737739563</v>
@@ -118223,24 +120383,24 @@
         <v>1.3999999761581421</v>
       </c>
       <c r="G24" t="s">
-        <v>38493</v>
+        <v>39213</v>
       </c>
       <c r="H24" t="s">
-        <v>38511</v>
+        <v>39231</v>
       </c>
       <c r="I24" t="s">
-        <v>38543</v>
+        <v>39263</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>38415</v>
+        <v>39135</v>
       </c>
       <c r="B25" t="s">
-        <v>38451</v>
+        <v>39171</v>
       </c>
       <c r="C25" t="s">
-        <v>38479</v>
+        <v>39199</v>
       </c>
       <c r="D25" s="1">
         <v>0.69999998807907104</v>
@@ -118252,24 +120412,24 @@
         <v>0.87000000476837158</v>
       </c>
       <c r="G25" t="s">
-        <v>38493</v>
+        <v>39213</v>
       </c>
       <c r="H25" t="s">
-        <v>38511</v>
+        <v>39231</v>
       </c>
       <c r="I25" t="s">
-        <v>38544</v>
+        <v>39264</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>38416</v>
+        <v>39136</v>
       </c>
       <c r="B26" t="s">
-        <v>38452</v>
+        <v>39172</v>
       </c>
       <c r="C26" t="s">
-        <v>38479</v>
+        <v>39199</v>
       </c>
       <c r="D26" s="1">
         <v>0.38999998569488525</v>
@@ -118281,24 +120441,24 @@
         <v>0.68999999761581421</v>
       </c>
       <c r="G26" t="s">
-        <v>38493</v>
+        <v>39213</v>
       </c>
       <c r="H26" t="s">
-        <v>38512</v>
+        <v>39232</v>
       </c>
       <c r="I26" t="s">
-        <v>38545</v>
+        <v>39265</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>38416</v>
+        <v>39136</v>
       </c>
       <c r="B27" t="s">
-        <v>38453</v>
+        <v>39173</v>
       </c>
       <c r="C27" t="s">
-        <v>38479</v>
+        <v>39199</v>
       </c>
       <c r="D27" s="1">
         <v>0.15999999642372131</v>
@@ -118310,24 +120470,24 @@
         <v>0.40000000596046448</v>
       </c>
       <c r="G27" t="s">
-        <v>38493</v>
+        <v>39213</v>
       </c>
       <c r="H27" t="s">
-        <v>38512</v>
+        <v>39232</v>
       </c>
       <c r="I27" t="s">
-        <v>38546</v>
+        <v>39266</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>38417</v>
+        <v>39137</v>
       </c>
       <c r="B28" t="s">
-        <v>38454</v>
+        <v>39174</v>
       </c>
       <c r="C28" t="s">
-        <v>38479</v>
+        <v>39199</v>
       </c>
       <c r="D28" s="1">
         <v>0.46000000834465027</v>
@@ -118339,24 +120499,24 @@
         <v>0.6600000262260437</v>
       </c>
       <c r="G28" t="s">
-        <v>38493</v>
+        <v>39213</v>
       </c>
       <c r="H28" t="s">
-        <v>38512</v>
+        <v>39232</v>
       </c>
       <c r="I28" t="s">
-        <v>38547</v>
+        <v>39267</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>38417</v>
+        <v>39137</v>
       </c>
       <c r="B29" t="s">
-        <v>38455</v>
+        <v>39175</v>
       </c>
       <c r="C29" t="s">
-        <v>38479</v>
+        <v>39199</v>
       </c>
       <c r="D29" s="1">
         <v>0.30000001192092896</v>
@@ -118368,24 +120528,24 @@
         <v>0.44999998807907104</v>
       </c>
       <c r="G29" t="s">
-        <v>38493</v>
+        <v>39213</v>
       </c>
       <c r="H29" t="s">
-        <v>38512</v>
+        <v>39232</v>
       </c>
       <c r="I29" t="s">
-        <v>38548</v>
+        <v>39268</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>38418</v>
+        <v>39138</v>
       </c>
       <c r="B30" t="s">
-        <v>38456</v>
+        <v>39176</v>
       </c>
       <c r="C30" t="s">
-        <v>38479</v>
+        <v>39199</v>
       </c>
       <c r="D30" s="1">
         <v>0.60000002384185791</v>
@@ -118397,24 +120557,24 @@
         <v>1.059999942779541</v>
       </c>
       <c r="G30" t="s">
-        <v>38493</v>
+        <v>39213</v>
       </c>
       <c r="H30" t="s">
-        <v>38513</v>
+        <v>39233</v>
       </c>
       <c r="I30" t="s">
-        <v>38549</v>
+        <v>39269</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>38418</v>
+        <v>39138</v>
       </c>
       <c r="B31" t="s">
-        <v>38457</v>
+        <v>39177</v>
       </c>
       <c r="C31" t="s">
-        <v>38479</v>
+        <v>39199</v>
       </c>
       <c r="D31" s="1">
         <v>0.47999998927116394</v>
@@ -118426,24 +120586,24 @@
         <v>0.81999999284744263</v>
       </c>
       <c r="G31" t="s">
-        <v>38493</v>
+        <v>39213</v>
       </c>
       <c r="H31" t="s">
-        <v>38513</v>
+        <v>39233</v>
       </c>
       <c r="I31" t="s">
-        <v>38550</v>
+        <v>39270</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>38419</v>
+        <v>39139</v>
       </c>
       <c r="B32" t="s">
-        <v>38458</v>
+        <v>39178</v>
       </c>
       <c r="C32" t="s">
-        <v>38479</v>
+        <v>39199</v>
       </c>
       <c r="D32" s="1">
         <v>1.6200000047683716</v>
@@ -118455,24 +120615,24 @@
         <v>2.4100000858306885</v>
       </c>
       <c r="G32" t="s">
-        <v>38493</v>
+        <v>39213</v>
       </c>
       <c r="H32" t="s">
-        <v>38513</v>
+        <v>39233</v>
       </c>
       <c r="I32" t="s">
-        <v>38551</v>
+        <v>39271</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>38419</v>
+        <v>39139</v>
       </c>
       <c r="B33" t="s">
-        <v>38459</v>
+        <v>39179</v>
       </c>
       <c r="C33" t="s">
-        <v>38479</v>
+        <v>39199</v>
       </c>
       <c r="D33" s="1">
         <v>2.0099999904632568</v>
@@ -118484,24 +120644,24 @@
         <v>2.8399999141693115</v>
       </c>
       <c r="G33" t="s">
-        <v>38493</v>
+        <v>39213</v>
       </c>
       <c r="H33" t="s">
-        <v>38513</v>
+        <v>39233</v>
       </c>
       <c r="I33" t="s">
-        <v>38552</v>
+        <v>39272</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>38420</v>
+        <v>39140</v>
       </c>
       <c r="B34" t="s">
-        <v>38460</v>
+        <v>39180</v>
       </c>
       <c r="C34" t="s">
-        <v>38480</v>
+        <v>39200</v>
       </c>
       <c r="D34" s="1">
         <v>0.95999997854232788</v>
@@ -118513,24 +120673,24 @@
         <v>1.2560000419616699</v>
       </c>
       <c r="G34" t="s">
-        <v>38494</v>
+        <v>39214</v>
       </c>
       <c r="H34" t="s">
-        <v>38514</v>
+        <v>39234</v>
       </c>
       <c r="I34" t="s">
-        <v>38553</v>
+        <v>39273</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>38420</v>
+        <v>39140</v>
       </c>
       <c r="B35" t="s">
-        <v>38461</v>
+        <v>39181</v>
       </c>
       <c r="C35" t="s">
-        <v>38480</v>
+        <v>39200</v>
       </c>
       <c r="D35" s="1">
         <v>1.0800000429153442</v>
@@ -118542,24 +120702,24 @@
         <v>1.3609999418258667</v>
       </c>
       <c r="G35" t="s">
-        <v>38494</v>
+        <v>39214</v>
       </c>
       <c r="H35" t="s">
-        <v>38514</v>
+        <v>39234</v>
       </c>
       <c r="I35" t="s">
-        <v>38554</v>
+        <v>39274</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>38421</v>
+        <v>39141</v>
       </c>
       <c r="B36" t="s">
-        <v>38462</v>
+        <v>39182</v>
       </c>
       <c r="C36" t="s">
-        <v>38480</v>
+        <v>39200</v>
       </c>
       <c r="D36" s="1">
         <v>0.87699997425079346</v>
@@ -118571,24 +120731,24 @@
         <v>1.156000018119812</v>
       </c>
       <c r="G36" t="s">
-        <v>38495</v>
+        <v>39215</v>
       </c>
       <c r="H36" t="s">
-        <v>38515</v>
+        <v>39235</v>
       </c>
       <c r="I36" t="s">
-        <v>38555</v>
+        <v>39275</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>38421</v>
+        <v>39141</v>
       </c>
       <c r="B37" t="s">
-        <v>38463</v>
+        <v>39183</v>
       </c>
       <c r="C37" t="s">
-        <v>38480</v>
+        <v>39200</v>
       </c>
       <c r="D37" s="1">
         <v>0.68400001525878906</v>
@@ -118600,24 +120760,24 @@
         <v>0.875</v>
       </c>
       <c r="G37" t="s">
-        <v>38495</v>
+        <v>39215</v>
       </c>
       <c r="H37" t="s">
-        <v>38515</v>
+        <v>39235</v>
       </c>
       <c r="I37" t="s">
-        <v>38556</v>
+        <v>39276</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>38421</v>
+        <v>39141</v>
       </c>
       <c r="B38" t="s">
-        <v>38464</v>
+        <v>39184</v>
       </c>
       <c r="C38" t="s">
-        <v>38480</v>
+        <v>39200</v>
       </c>
       <c r="D38" s="1">
         <v>0.85699999332427979</v>
@@ -118629,24 +120789,24 @@
         <v>1.1779999732971191</v>
       </c>
       <c r="G38" t="s">
-        <v>38495</v>
+        <v>39215</v>
       </c>
       <c r="H38" t="s">
-        <v>38515</v>
+        <v>39235</v>
       </c>
       <c r="I38" t="s">
-        <v>38557</v>
+        <v>39277</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>38422</v>
+        <v>39142</v>
       </c>
       <c r="B39" t="s">
-        <v>38464</v>
+        <v>39184</v>
       </c>
       <c r="C39" t="s">
-        <v>38481</v>
+        <v>39201</v>
       </c>
       <c r="D39" s="1">
         <v>0.64999997615814209</v>
@@ -118658,24 +120818,24 @@
         <v>0.8399999737739563</v>
       </c>
       <c r="G39" t="s">
-        <v>38496</v>
+        <v>39216</v>
       </c>
       <c r="H39" t="s">
-        <v>38515</v>
+        <v>39235</v>
       </c>
       <c r="I39" t="s">
-        <v>38558</v>
+        <v>39278</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>38422</v>
+        <v>39142</v>
       </c>
       <c r="B40" t="s">
-        <v>38465</v>
+        <v>39185</v>
       </c>
       <c r="C40" t="s">
-        <v>38481</v>
+        <v>39201</v>
       </c>
       <c r="D40" s="1">
         <v>0.47999998927116394</v>
@@ -118687,24 +120847,24 @@
         <v>0.75</v>
       </c>
       <c r="G40" t="s">
-        <v>38496</v>
+        <v>39216</v>
       </c>
       <c r="H40" t="s">
-        <v>38515</v>
+        <v>39235</v>
       </c>
       <c r="I40" t="s">
-        <v>38559</v>
+        <v>39279</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>38423</v>
+        <v>39143</v>
       </c>
       <c r="B41" t="s">
-        <v>38466</v>
+        <v>39186</v>
       </c>
       <c r="C41" t="s">
-        <v>38482</v>
+        <v>39202</v>
       </c>
       <c r="D41" s="1">
         <v>0.78100001811981201</v>
@@ -118716,24 +120876,24 @@
         <v>1.3220000267028809</v>
       </c>
       <c r="G41" t="s">
-        <v>38497</v>
+        <v>39217</v>
       </c>
       <c r="H41" t="s">
-        <v>38516</v>
+        <v>39236</v>
       </c>
       <c r="I41" t="s">
-        <v>38560</v>
+        <v>39280</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>38423</v>
+        <v>39143</v>
       </c>
       <c r="B42" t="s">
-        <v>38467</v>
+        <v>39187</v>
       </c>
       <c r="C42" t="s">
-        <v>38482</v>
+        <v>39202</v>
       </c>
       <c r="D42" s="1">
         <v>0.97500002384185791</v>
@@ -118745,24 +120905,24 @@
         <v>1.1829999685287476</v>
       </c>
       <c r="G42" t="s">
-        <v>38497</v>
+        <v>39217</v>
       </c>
       <c r="H42" t="s">
-        <v>38516</v>
+        <v>39236</v>
       </c>
       <c r="I42" t="s">
-        <v>38561</v>
+        <v>39281</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>38424</v>
+        <v>39144</v>
       </c>
       <c r="B43" t="s">
-        <v>38468</v>
+        <v>39188</v>
       </c>
       <c r="C43" t="s">
-        <v>38482</v>
+        <v>39202</v>
       </c>
       <c r="D43" s="1">
         <v>0.93999999761581421</v>
@@ -118774,24 +120934,24 @@
         <v>1.190000057220459</v>
       </c>
       <c r="G43" t="s">
-        <v>38498</v>
+        <v>39218</v>
       </c>
       <c r="H43" t="s">
-        <v>38517</v>
+        <v>39237</v>
       </c>
       <c r="I43" t="s">
-        <v>38562</v>
+        <v>39282</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>38424</v>
+        <v>39144</v>
       </c>
       <c r="B44" t="s">
-        <v>38469</v>
+        <v>39189</v>
       </c>
       <c r="C44" t="s">
-        <v>38482</v>
+        <v>39202</v>
       </c>
       <c r="D44" s="1">
         <v>0.93000000715255737</v>
@@ -118803,24 +120963,24 @@
         <v>1.309999942779541</v>
       </c>
       <c r="G44" t="s">
-        <v>38498</v>
+        <v>39218</v>
       </c>
       <c r="H44" t="s">
-        <v>38517</v>
+        <v>39237</v>
       </c>
       <c r="I44" t="s">
-        <v>38563</v>
+        <v>39283</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>38425</v>
+        <v>39145</v>
       </c>
       <c r="B45" t="s">
-        <v>38470</v>
+        <v>39190</v>
       </c>
       <c r="C45" t="s">
-        <v>38483</v>
+        <v>39203</v>
       </c>
       <c r="D45" s="1">
         <v>0.63999998569488525</v>
@@ -118832,24 +120992,24 @@
         <v>0.9100000262260437</v>
       </c>
       <c r="G45" t="s">
-        <v>38498</v>
+        <v>39218</v>
       </c>
       <c r="H45" t="s">
-        <v>38518</v>
+        <v>39238</v>
       </c>
       <c r="I45" t="s">
-        <v>38564</v>
+        <v>39284</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>38425</v>
+        <v>39145</v>
       </c>
       <c r="B46" t="s">
-        <v>38471</v>
+        <v>39191</v>
       </c>
       <c r="C46" t="s">
-        <v>38483</v>
+        <v>39203</v>
       </c>
       <c r="D46" s="1">
         <v>0.72000002861022949</v>
@@ -118861,24 +121021,24 @@
         <v>0.89999997615814209</v>
       </c>
       <c r="G46" t="s">
-        <v>38498</v>
+        <v>39218</v>
       </c>
       <c r="H46" t="s">
-        <v>38518</v>
+        <v>39238</v>
       </c>
       <c r="I46" t="s">
-        <v>38565</v>
+        <v>39285</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>38426</v>
+        <v>39146</v>
       </c>
       <c r="B47" t="s">
-        <v>38472</v>
+        <v>39192</v>
       </c>
       <c r="C47" t="s">
-        <v>38483</v>
+        <v>39203</v>
       </c>
       <c r="D47" s="1">
         <v>0.46000000834465027</v>
@@ -118890,24 +121050,24 @@
         <v>0.73000001907348633</v>
       </c>
       <c r="G47" t="s">
-        <v>38498</v>
+        <v>39218</v>
       </c>
       <c r="H47" t="s">
-        <v>38519</v>
+        <v>39239</v>
       </c>
       <c r="I47" t="s">
-        <v>38566</v>
+        <v>39286</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>38426</v>
+        <v>39146</v>
       </c>
       <c r="B48" t="s">
-        <v>38473</v>
+        <v>39193</v>
       </c>
       <c r="C48" t="s">
-        <v>38483</v>
+        <v>39203</v>
       </c>
       <c r="D48" s="1">
         <v>0.62999999523162842</v>
@@ -118919,13 +121079,13 @@
         <v>0.89999997615814209</v>
       </c>
       <c r="G48" t="s">
-        <v>38498</v>
+        <v>39218</v>
       </c>
       <c r="H48" t="s">
-        <v>38519</v>
+        <v>39239</v>
       </c>
       <c r="I48" t="s">
-        <v>38567</v>
+        <v>39287</v>
       </c>
     </row>
   </sheetData>

--- a/products/Exported Data.xlsx
+++ b/products/Exported Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67075" uniqueCount="39288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67695" uniqueCount="39648">
   <si>
     <t>Study</t>
   </si>
@@ -101537,6 +101537,1086 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Study: Treatment 1 vs Treatment 2</t>
+  </si>
+  <si>
+    <t>Attal 2019 (ICARIA-MM): IsPd vs Pd</t>
+  </si>
+  <si>
+    <t>Bahlis 2020 (POLLUX): DRd vs Rd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2013 (VANTAGE 088): VorV vs V</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2016 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-3): EPd vs Pd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2020 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2021 (APOLLO): DPd vs Pd</t>
+  </si>
+  <si>
+    <t>Grosicki 2020 (BOSTON): SeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Hou 2017 (China Cont.): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>Jakubowiak 2016 (NCT01478048): EVd vs Vd</t>
+  </si>
+  <si>
+    <t>Kumar 2020 (BELLINI): VeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Lu 2021 (LEPUS): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Mateos 2020 (CASTOR): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Moreau 2021 (IKEMA): IsKd vs Kd</t>
+  </si>
+  <si>
+    <t>Orlowski 2019 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2019 (OPTIMISMM): PVd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2021 (TOURMALINE-MM1): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2014 (PANORAMA-1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2016 (PANORAMA 1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2013 (MM-003): Pd vs GC</t>
+  </si>
+  <si>
+    <t>Siegel 2018 (ASPIRE): KRd vs Rd</t>
+  </si>
+  <si>
+    <t>Usamani 2022 (CANDOR): DKd vs Kd</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;=3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;=2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Lower 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>Upper 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t>Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      AT 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t>Data Extraction Errors</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Study: Treatment 1 vs Treatment 2</t>
+  </si>
+  <si>
+    <t>Attal 2019 (ICARIA-MM): IsPd vs Pd</t>
+  </si>
+  <si>
+    <t>Bahlis 2020 (POLLUX): DRd vs Rd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2013 (VANTAGE 088): VorV vs V</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2016 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-3): EPd vs Pd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2021 (APOLLO): DPd vs Pd</t>
+  </si>
+  <si>
+    <t>Hou 2017 (China Cont.): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>Jakubowiak 2016 (NCT01478048): EVd vs Vd</t>
+  </si>
+  <si>
+    <t>Kumar 2020 (BELLINI): VeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Lonial 2015 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Lu 2021 (LEPUS): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Mateos 2020 (CASTOR): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Moreau 2021 (IKEMA): IsKd vs Kd</t>
+  </si>
+  <si>
+    <t>Orlowski 2007 (NCT00103506): V vs DoxV</t>
+  </si>
+  <si>
+    <t>Orlowski 2016 (NCT00103506): V vs DoxV</t>
+  </si>
+  <si>
+    <t>Orlowski 2019 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2019 (OPTIMISMM): PVd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2021 (TOURMALINE-MM1): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2016 (PANORAMA 1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>Stewart 2015 (ASPIRE): KRd vs Rd</t>
+  </si>
+  <si>
+    <t>Usmani 2022 (CANDOR): DKd vs Kd</t>
+  </si>
+  <si>
+    <t>refract</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Ref. to R and a PI</t>
+  </si>
+  <si>
+    <t>Not ref. to R and a PI</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous R or T use</t>
+  </si>
+  <si>
+    <t>No previous R or T use</t>
+  </si>
+  <si>
+    <t>Previous R or T use</t>
+  </si>
+  <si>
+    <t>No previous R or T use</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Refractory to T</t>
+  </si>
+  <si>
+    <t>Not refractory to T</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No previous IMiD use</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Lower 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>Upper 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0230</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .       Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t>Data Extraction Errors</t>
   </si>
   <si>
     <t/>
@@ -117928,42 +119008,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>38928</v>
+        <v>39288</v>
       </c>
       <c r="B1" t="s">
-        <v>38952</v>
+        <v>39312</v>
       </c>
       <c r="C1" t="s">
-        <v>39016</v>
+        <v>39376</v>
       </c>
       <c r="D1" t="s">
-        <v>39032</v>
+        <v>39392</v>
       </c>
       <c r="E1" t="s">
-        <v>39033</v>
+        <v>39393</v>
       </c>
       <c r="F1" t="s">
-        <v>39034</v>
+        <v>39394</v>
       </c>
       <c r="G1" t="s">
-        <v>39035</v>
+        <v>39395</v>
       </c>
       <c r="H1" t="s">
-        <v>39036</v>
+        <v>39396</v>
       </c>
       <c r="I1" t="s">
-        <v>39060</v>
+        <v>39420</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>38929</v>
+        <v>39289</v>
       </c>
       <c r="B2" t="s">
-        <v>38953</v>
+        <v>39313</v>
       </c>
       <c r="C2" t="s">
-        <v>39017</v>
+        <v>39377</v>
       </c>
       <c r="D2" s="1">
         <v>0.5899999737739563</v>
@@ -117976,21 +119056,21 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" t="s">
-        <v>39037</v>
+        <v>39397</v>
       </c>
       <c r="I2" t="s">
-        <v>39061</v>
+        <v>39421</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>38929</v>
+        <v>39289</v>
       </c>
       <c r="B3" t="s">
-        <v>38954</v>
+        <v>39314</v>
       </c>
       <c r="C3" t="s">
-        <v>39017</v>
+        <v>39377</v>
       </c>
       <c r="D3" s="1">
         <v>0.5899999737739563</v>
@@ -118003,21 +119083,21 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" t="s">
-        <v>39037</v>
+        <v>39397</v>
       </c>
       <c r="I3" t="s">
-        <v>39062</v>
+        <v>39422</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>38930</v>
+        <v>39290</v>
       </c>
       <c r="B4" t="s">
-        <v>38955</v>
+        <v>39315</v>
       </c>
       <c r="C4" t="s">
-        <v>39017</v>
+        <v>39377</v>
       </c>
       <c r="D4" s="1">
         <v>0.41999998688697815</v>
@@ -118030,21 +119110,21 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" t="s">
-        <v>39038</v>
+        <v>39398</v>
       </c>
       <c r="I4" t="s">
-        <v>39063</v>
+        <v>39423</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>38930</v>
+        <v>39290</v>
       </c>
       <c r="B5" t="s">
-        <v>38956</v>
+        <v>39316</v>
       </c>
       <c r="C5" t="s">
-        <v>39017</v>
+        <v>39377</v>
       </c>
       <c r="D5" s="1">
         <v>0.38999998569488525</v>
@@ -118057,21 +119137,21 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" t="s">
-        <v>39038</v>
+        <v>39398</v>
       </c>
       <c r="I5" t="s">
-        <v>39064</v>
+        <v>39424</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>38930</v>
+        <v>39290</v>
       </c>
       <c r="B6" t="s">
-        <v>38957</v>
+        <v>39317</v>
       </c>
       <c r="C6" t="s">
-        <v>39017</v>
+        <v>39377</v>
       </c>
       <c r="D6" s="1">
         <v>0.47999998927116394</v>
@@ -118084,21 +119164,21 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" t="s">
-        <v>39038</v>
+        <v>39398</v>
       </c>
       <c r="I6" t="s">
-        <v>39065</v>
+        <v>39425</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>38930</v>
+        <v>39290</v>
       </c>
       <c r="B7" t="s">
-        <v>38958</v>
+        <v>39318</v>
       </c>
       <c r="C7" t="s">
-        <v>39017</v>
+        <v>39377</v>
       </c>
       <c r="D7" s="1">
         <v>0.74000000953674316</v>
@@ -118111,21 +119191,21 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" t="s">
-        <v>39038</v>
+        <v>39398</v>
       </c>
       <c r="I7" t="s">
-        <v>39066</v>
+        <v>39426</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>38931</v>
+        <v>39291</v>
       </c>
       <c r="B8" t="s">
-        <v>38959</v>
+        <v>39319</v>
       </c>
       <c r="C8" t="s">
-        <v>39017</v>
+        <v>39377</v>
       </c>
       <c r="D8" s="1">
         <v>0.68699997663497925</v>
@@ -118140,21 +119220,21 @@
         <v>0.015200000256299973</v>
       </c>
       <c r="H8" t="s">
-        <v>39039</v>
+        <v>39399</v>
       </c>
       <c r="I8" t="s">
-        <v>39067</v>
+        <v>39427</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>38931</v>
+        <v>39291</v>
       </c>
       <c r="B9" t="s">
-        <v>38960</v>
+        <v>39320</v>
       </c>
       <c r="C9" t="s">
-        <v>39017</v>
+        <v>39377</v>
       </c>
       <c r="D9" s="1">
         <v>0.91600000858306885</v>
@@ -118169,21 +119249,21 @@
         <v>0.48710000514984131</v>
       </c>
       <c r="H9" t="s">
-        <v>39040</v>
+        <v>39400</v>
       </c>
       <c r="I9" t="s">
-        <v>39068</v>
+        <v>39428</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>38932</v>
+        <v>39292</v>
       </c>
       <c r="B10" t="s">
-        <v>38961</v>
+        <v>39321</v>
       </c>
       <c r="C10" t="s">
-        <v>39017</v>
+        <v>39377</v>
       </c>
       <c r="D10" s="1">
         <v>0.44999998807907104</v>
@@ -118196,21 +119276,21 @@
       </c>
       <c r="G10" s="1"/>
       <c r="H10" t="s">
-        <v>39041</v>
+        <v>39401</v>
       </c>
       <c r="I10" t="s">
-        <v>39069</v>
+        <v>39429</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38932</v>
+        <v>39292</v>
       </c>
       <c r="B11" t="s">
-        <v>38962</v>
+        <v>39322</v>
       </c>
       <c r="C11" t="s">
-        <v>39017</v>
+        <v>39377</v>
       </c>
       <c r="D11" s="1">
         <v>0.60000002384185791</v>
@@ -118223,21 +119303,21 @@
       </c>
       <c r="G11" s="1"/>
       <c r="H11" t="s">
-        <v>39041</v>
+        <v>39401</v>
       </c>
       <c r="I11" t="s">
-        <v>39070</v>
+        <v>39430</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>38933</v>
+        <v>39293</v>
       </c>
       <c r="B12" t="s">
-        <v>38962</v>
+        <v>39322</v>
       </c>
       <c r="C12" t="s">
-        <v>39017</v>
+        <v>39377</v>
       </c>
       <c r="D12" s="1">
         <v>0.55000001192092896</v>
@@ -118250,21 +119330,21 @@
       </c>
       <c r="G12" s="1"/>
       <c r="H12" t="s">
-        <v>39042</v>
+        <v>39402</v>
       </c>
       <c r="I12" t="s">
-        <v>39071</v>
+        <v>39431</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>38933</v>
+        <v>39293</v>
       </c>
       <c r="B13" t="s">
-        <v>38963</v>
+        <v>39323</v>
       </c>
       <c r="C13" t="s">
-        <v>39017</v>
+        <v>39377</v>
       </c>
       <c r="D13" s="1">
         <v>0.50999999046325684</v>
@@ -118277,21 +119357,21 @@
       </c>
       <c r="G13" s="1"/>
       <c r="H13" t="s">
-        <v>39042</v>
+        <v>39402</v>
       </c>
       <c r="I13" t="s">
-        <v>39072</v>
+        <v>39432</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>38934</v>
+        <v>39294</v>
       </c>
       <c r="B14" t="s">
-        <v>38964</v>
+        <v>39324</v>
       </c>
       <c r="C14" t="s">
-        <v>39017</v>
+        <v>39377</v>
       </c>
       <c r="D14" s="1">
         <v>0.76999998092651367</v>
@@ -118304,21 +119384,21 @@
       </c>
       <c r="G14" s="1"/>
       <c r="H14" t="s">
-        <v>39043</v>
+        <v>39403</v>
       </c>
       <c r="I14" t="s">
-        <v>39073</v>
+        <v>39433</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>38934</v>
+        <v>39294</v>
       </c>
       <c r="B15" t="s">
-        <v>38965</v>
+        <v>39325</v>
       </c>
       <c r="C15" t="s">
-        <v>39017</v>
+        <v>39377</v>
       </c>
       <c r="D15" s="1">
         <v>0.68000000715255737</v>
@@ -118331,21 +119411,21 @@
       </c>
       <c r="G15" s="1"/>
       <c r="H15" t="s">
-        <v>39043</v>
+        <v>39403</v>
       </c>
       <c r="I15" t="s">
-        <v>39074</v>
+        <v>39434</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>38935</v>
+        <v>39295</v>
       </c>
       <c r="B16" t="s">
-        <v>38966</v>
+        <v>39326</v>
       </c>
       <c r="C16" t="s">
-        <v>39018</v>
+        <v>39378</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -118358,21 +119438,21 @@
       </c>
       <c r="G16" s="1"/>
       <c r="H16" t="s">
-        <v>39043</v>
+        <v>39403</v>
       </c>
       <c r="I16" t="s">
-        <v>39075</v>
+        <v>39435</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>38935</v>
+        <v>39295</v>
       </c>
       <c r="B17" t="s">
-        <v>38967</v>
+        <v>39327</v>
       </c>
       <c r="C17" t="s">
-        <v>39018</v>
+        <v>39378</v>
       </c>
       <c r="D17" s="1">
         <v>0.70999997854232788</v>
@@ -118385,21 +119465,21 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" t="s">
-        <v>39043</v>
+        <v>39403</v>
       </c>
       <c r="I17" t="s">
-        <v>39076</v>
+        <v>39436</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>38936</v>
+        <v>39296</v>
       </c>
       <c r="B18" t="s">
-        <v>38968</v>
+        <v>39328</v>
       </c>
       <c r="C18" t="s">
-        <v>39019</v>
+        <v>39379</v>
       </c>
       <c r="D18" s="1">
         <v>0.69999998807907104</v>
@@ -118412,21 +119492,21 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18" t="s">
-        <v>39044</v>
+        <v>39404</v>
       </c>
       <c r="I18" t="s">
-        <v>39077</v>
+        <v>39437</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>38936</v>
+        <v>39296</v>
       </c>
       <c r="B19" t="s">
-        <v>38969</v>
+        <v>39329</v>
       </c>
       <c r="C19" t="s">
-        <v>39019</v>
+        <v>39379</v>
       </c>
       <c r="D19" s="1">
         <v>0.6600000262260437</v>
@@ -118439,21 +119519,21 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" t="s">
-        <v>39044</v>
+        <v>39404</v>
       </c>
       <c r="I19" t="s">
-        <v>39078</v>
+        <v>39438</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>38936</v>
+        <v>39296</v>
       </c>
       <c r="B20" t="s">
-        <v>38970</v>
+        <v>39330</v>
       </c>
       <c r="C20" t="s">
-        <v>39019</v>
+        <v>39379</v>
       </c>
       <c r="D20" s="1">
         <v>0.40000000596046448</v>
@@ -118466,21 +119546,21 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" t="s">
-        <v>39044</v>
+        <v>39404</v>
       </c>
       <c r="I20" t="s">
-        <v>39079</v>
+        <v>39439</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>38937</v>
+        <v>39297</v>
       </c>
       <c r="B21" t="s">
-        <v>38971</v>
+        <v>39331</v>
       </c>
       <c r="C21" t="s">
-        <v>39019</v>
+        <v>39379</v>
       </c>
       <c r="D21" s="1">
         <v>0.62999999523162842</v>
@@ -118493,21 +119573,21 @@
       </c>
       <c r="G21" s="1"/>
       <c r="H21" t="s">
-        <v>39045</v>
+        <v>39405</v>
       </c>
       <c r="I21" t="s">
-        <v>39080</v>
+        <v>39440</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>38937</v>
+        <v>39297</v>
       </c>
       <c r="B22" t="s">
-        <v>38972</v>
+        <v>39332</v>
       </c>
       <c r="C22" t="s">
-        <v>39019</v>
+        <v>39379</v>
       </c>
       <c r="D22" s="1">
         <v>0.64999997615814209</v>
@@ -118520,21 +119600,21 @@
       </c>
       <c r="G22" s="1"/>
       <c r="H22" t="s">
-        <v>39045</v>
+        <v>39405</v>
       </c>
       <c r="I22" t="s">
-        <v>39081</v>
+        <v>39441</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>38937</v>
+        <v>39297</v>
       </c>
       <c r="B23" t="s">
-        <v>38973</v>
+        <v>39333</v>
       </c>
       <c r="C23" t="s">
-        <v>39019</v>
+        <v>39379</v>
       </c>
       <c r="D23" s="1">
         <v>0.81999999284744263</v>
@@ -118547,21 +119627,21 @@
       </c>
       <c r="G23" s="1"/>
       <c r="H23" t="s">
-        <v>39045</v>
+        <v>39405</v>
       </c>
       <c r="I23" t="s">
-        <v>39082</v>
+        <v>39442</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>38938</v>
+        <v>39298</v>
       </c>
       <c r="B24" t="s">
-        <v>38974</v>
+        <v>39334</v>
       </c>
       <c r="C24" t="s">
-        <v>39019</v>
+        <v>39379</v>
       </c>
       <c r="D24" s="1">
         <v>0.84700000286102295</v>
@@ -118574,21 +119654,21 @@
       </c>
       <c r="G24" s="1"/>
       <c r="H24" t="s">
-        <v>39046</v>
+        <v>39406</v>
       </c>
       <c r="I24" t="s">
-        <v>39083</v>
+        <v>39443</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>38938</v>
+        <v>39298</v>
       </c>
       <c r="B25" t="s">
-        <v>38975</v>
+        <v>39335</v>
       </c>
       <c r="C25" t="s">
-        <v>39019</v>
+        <v>39379</v>
       </c>
       <c r="D25" s="1">
         <v>0.37000000476837158</v>
@@ -118601,21 +119681,21 @@
       </c>
       <c r="G25" s="1"/>
       <c r="H25" t="s">
-        <v>39046</v>
+        <v>39406</v>
       </c>
       <c r="I25" t="s">
-        <v>39084</v>
+        <v>39444</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>38938</v>
+        <v>39298</v>
       </c>
       <c r="B26" t="s">
-        <v>38976</v>
+        <v>39336</v>
       </c>
       <c r="C26" t="s">
-        <v>39019</v>
+        <v>39379</v>
       </c>
       <c r="D26" s="1">
         <v>0.70200002193450928</v>
@@ -118628,21 +119708,21 @@
       </c>
       <c r="G26" s="1"/>
       <c r="H26" t="s">
-        <v>39046</v>
+        <v>39406</v>
       </c>
       <c r="I26" t="s">
-        <v>39085</v>
+        <v>39445</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>38938</v>
+        <v>39298</v>
       </c>
       <c r="B27" t="s">
-        <v>38977</v>
+        <v>39337</v>
       </c>
       <c r="C27" t="s">
-        <v>39020</v>
+        <v>39380</v>
       </c>
       <c r="D27" s="1">
         <v>0.52100002765655518</v>
@@ -118655,21 +119735,21 @@
       </c>
       <c r="G27" s="1"/>
       <c r="H27" t="s">
-        <v>39047</v>
+        <v>39407</v>
       </c>
       <c r="I27" t="s">
-        <v>39086</v>
+        <v>39446</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>38938</v>
+        <v>39298</v>
       </c>
       <c r="B28" t="s">
-        <v>38978</v>
+        <v>39338</v>
       </c>
       <c r="C28" t="s">
-        <v>39020</v>
+        <v>39380</v>
       </c>
       <c r="D28" s="1">
         <v>0.38600000739097595</v>
@@ -118682,21 +119762,21 @@
       </c>
       <c r="G28" s="1"/>
       <c r="H28" t="s">
-        <v>39047</v>
+        <v>39407</v>
       </c>
       <c r="I28" t="s">
-        <v>39087</v>
+        <v>39447</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>38938</v>
+        <v>39298</v>
       </c>
       <c r="B29" t="s">
-        <v>38979</v>
+        <v>39339</v>
       </c>
       <c r="C29" t="s">
-        <v>39020</v>
+        <v>39380</v>
       </c>
       <c r="D29" s="1">
         <v>0.335999995470047</v>
@@ -118709,21 +119789,21 @@
       </c>
       <c r="G29" s="1"/>
       <c r="H29" t="s">
-        <v>39047</v>
+        <v>39407</v>
       </c>
       <c r="I29" t="s">
-        <v>39088</v>
+        <v>39448</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>38939</v>
+        <v>39299</v>
       </c>
       <c r="B30" t="s">
-        <v>38980</v>
+        <v>39340</v>
       </c>
       <c r="C30" t="s">
-        <v>39021</v>
+        <v>39381</v>
       </c>
       <c r="D30" s="1">
         <v>0.68000000715255737</v>
@@ -118736,21 +119816,21 @@
       </c>
       <c r="G30" s="1"/>
       <c r="H30" t="s">
-        <v>39048</v>
+        <v>39408</v>
       </c>
       <c r="I30" t="s">
-        <v>39089</v>
+        <v>39449</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>38939</v>
+        <v>39299</v>
       </c>
       <c r="B31" t="s">
-        <v>38981</v>
+        <v>39341</v>
       </c>
       <c r="C31" t="s">
-        <v>39021</v>
+        <v>39381</v>
       </c>
       <c r="D31" s="1">
         <v>0.72000002861022949</v>
@@ -118763,21 +119843,21 @@
       </c>
       <c r="G31" s="1"/>
       <c r="H31" t="s">
-        <v>39048</v>
+        <v>39408</v>
       </c>
       <c r="I31" t="s">
-        <v>39090</v>
+        <v>39450</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>38940</v>
+        <v>39300</v>
       </c>
       <c r="B32" t="s">
-        <v>38982</v>
+        <v>39342</v>
       </c>
       <c r="C32" t="s">
-        <v>39021</v>
+        <v>39381</v>
       </c>
       <c r="D32" s="1">
         <v>0.75</v>
@@ -118790,21 +119870,21 @@
       </c>
       <c r="G32" s="1"/>
       <c r="H32" t="s">
-        <v>39049</v>
+        <v>39409</v>
       </c>
       <c r="I32" t="s">
-        <v>39091</v>
+        <v>39451</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>38940</v>
+        <v>39300</v>
       </c>
       <c r="B33" t="s">
-        <v>38983</v>
+        <v>39343</v>
       </c>
       <c r="C33" t="s">
-        <v>39021</v>
+        <v>39381</v>
       </c>
       <c r="D33" s="1">
         <v>0.54000002145767212</v>
@@ -118817,21 +119897,21 @@
       </c>
       <c r="G33" s="1"/>
       <c r="H33" t="s">
-        <v>39049</v>
+        <v>39409</v>
       </c>
       <c r="I33" t="s">
-        <v>39092</v>
+        <v>39452</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>38940</v>
+        <v>39300</v>
       </c>
       <c r="B34" t="s">
-        <v>38984</v>
+        <v>39344</v>
       </c>
       <c r="C34" t="s">
-        <v>39022</v>
+        <v>39382</v>
       </c>
       <c r="D34" s="1">
         <v>1.6699999570846558</v>
@@ -118844,21 +119924,21 @@
       </c>
       <c r="G34" s="1"/>
       <c r="H34" t="s">
-        <v>39050</v>
+        <v>39410</v>
       </c>
       <c r="I34" t="s">
-        <v>39093</v>
+        <v>39453</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>38940</v>
+        <v>39300</v>
       </c>
       <c r="B35" t="s">
-        <v>38985</v>
+        <v>39345</v>
       </c>
       <c r="C35" t="s">
-        <v>39022</v>
+        <v>39382</v>
       </c>
       <c r="D35" s="1">
         <v>2.3299999237060547</v>
@@ -118871,21 +119951,21 @@
       </c>
       <c r="G35" s="1"/>
       <c r="H35" t="s">
-        <v>39050</v>
+        <v>39410</v>
       </c>
       <c r="I35" t="s">
-        <v>39094</v>
+        <v>39454</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>38941</v>
+        <v>39301</v>
       </c>
       <c r="B36" t="s">
-        <v>38986</v>
+        <v>39346</v>
       </c>
       <c r="C36" t="s">
-        <v>39023</v>
+        <v>39383</v>
       </c>
       <c r="D36" s="1">
         <v>0.15999999642372131</v>
@@ -118898,21 +119978,21 @@
       </c>
       <c r="G36" s="1"/>
       <c r="H36" t="s">
-        <v>39051</v>
+        <v>39411</v>
       </c>
       <c r="I36" t="s">
-        <v>39095</v>
+        <v>39455</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>38941</v>
+        <v>39301</v>
       </c>
       <c r="B37" t="s">
-        <v>38987</v>
+        <v>39347</v>
       </c>
       <c r="C37" t="s">
-        <v>39023</v>
+        <v>39383</v>
       </c>
       <c r="D37" s="1">
         <v>0.51999998092651367</v>
@@ -118925,21 +120005,21 @@
       </c>
       <c r="G37" s="1"/>
       <c r="H37" t="s">
-        <v>39051</v>
+        <v>39411</v>
       </c>
       <c r="I37" t="s">
-        <v>39096</v>
+        <v>39456</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>38941</v>
+        <v>39301</v>
       </c>
       <c r="B38" t="s">
-        <v>38988</v>
+        <v>39348</v>
       </c>
       <c r="C38" t="s">
-        <v>39023</v>
+        <v>39383</v>
       </c>
       <c r="D38" s="1">
         <v>0.62999999523162842</v>
@@ -118952,21 +120032,21 @@
       </c>
       <c r="G38" s="1"/>
       <c r="H38" t="s">
-        <v>39051</v>
+        <v>39411</v>
       </c>
       <c r="I38" t="s">
-        <v>39097</v>
+        <v>39457</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>38941</v>
+        <v>39301</v>
       </c>
       <c r="B39" t="s">
-        <v>38989</v>
+        <v>39349</v>
       </c>
       <c r="C39" t="s">
-        <v>39023</v>
+        <v>39383</v>
       </c>
       <c r="D39" s="1">
         <v>0.25999999046325684</v>
@@ -118979,21 +120059,21 @@
       </c>
       <c r="G39" s="1"/>
       <c r="H39" t="s">
-        <v>39051</v>
+        <v>39411</v>
       </c>
       <c r="I39" t="s">
-        <v>39098</v>
+        <v>39458</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>38942</v>
+        <v>39302</v>
       </c>
       <c r="B40" t="s">
-        <v>38990</v>
+        <v>39350</v>
       </c>
       <c r="C40" t="s">
-        <v>39023</v>
+        <v>39383</v>
       </c>
       <c r="D40" s="1">
         <v>0.2199999988079071</v>
@@ -119006,21 +120086,21 @@
       </c>
       <c r="G40" s="1"/>
       <c r="H40" t="s">
-        <v>39051</v>
+        <v>39411</v>
       </c>
       <c r="I40" t="s">
-        <v>39099</v>
+        <v>39459</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>38942</v>
+        <v>39302</v>
       </c>
       <c r="B41" t="s">
-        <v>38991</v>
+        <v>39351</v>
       </c>
       <c r="C41" t="s">
-        <v>39023</v>
+        <v>39383</v>
       </c>
       <c r="D41" s="1">
         <v>0.46000000834465027</v>
@@ -119033,21 +120113,21 @@
       </c>
       <c r="G41" s="1"/>
       <c r="H41" t="s">
-        <v>39051</v>
+        <v>39411</v>
       </c>
       <c r="I41" t="s">
-        <v>39100</v>
+        <v>39460</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>38942</v>
+        <v>39302</v>
       </c>
       <c r="B42" t="s">
-        <v>38992</v>
+        <v>39352</v>
       </c>
       <c r="C42" t="s">
-        <v>39023</v>
+        <v>39383</v>
       </c>
       <c r="D42" s="1">
         <v>0.60000002384185791</v>
@@ -119060,21 +120140,21 @@
       </c>
       <c r="G42" s="1"/>
       <c r="H42" t="s">
-        <v>39051</v>
+        <v>39411</v>
       </c>
       <c r="I42" t="s">
-        <v>39101</v>
+        <v>39461</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>38942</v>
+        <v>39302</v>
       </c>
       <c r="B43" t="s">
-        <v>38993</v>
+        <v>39353</v>
       </c>
       <c r="C43" t="s">
-        <v>39023</v>
+        <v>39383</v>
       </c>
       <c r="D43" s="1">
         <v>0.37000000476837158</v>
@@ -119087,21 +120167,21 @@
       </c>
       <c r="G43" s="1"/>
       <c r="H43" t="s">
-        <v>39051</v>
+        <v>39411</v>
       </c>
       <c r="I43" t="s">
-        <v>39102</v>
+        <v>39462</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>38943</v>
+        <v>39303</v>
       </c>
       <c r="B44" t="s">
-        <v>38994</v>
+        <v>39354</v>
       </c>
       <c r="C44" t="s">
-        <v>39023</v>
+        <v>39383</v>
       </c>
       <c r="D44" s="1">
         <v>0.5899999737739563</v>
@@ -119114,21 +120194,21 @@
       </c>
       <c r="G44" s="1"/>
       <c r="H44" t="s">
-        <v>39052</v>
+        <v>39412</v>
       </c>
       <c r="I44" t="s">
-        <v>39103</v>
+        <v>39463</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>38943</v>
+        <v>39303</v>
       </c>
       <c r="B45" t="s">
-        <v>38995</v>
+        <v>39355</v>
       </c>
       <c r="C45" t="s">
-        <v>39023</v>
+        <v>39383</v>
       </c>
       <c r="D45" s="1">
         <v>0.47999998927116394</v>
@@ -119141,21 +120221,21 @@
       </c>
       <c r="G45" s="1"/>
       <c r="H45" t="s">
-        <v>39052</v>
+        <v>39412</v>
       </c>
       <c r="I45" t="s">
-        <v>39104</v>
+        <v>39464</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>38944</v>
+        <v>39304</v>
       </c>
       <c r="B46" t="s">
-        <v>38996</v>
+        <v>39356</v>
       </c>
       <c r="C46" t="s">
-        <v>39024</v>
+        <v>39384</v>
       </c>
       <c r="D46" s="1">
         <v>0.77100002765655518</v>
@@ -119168,21 +120248,21 @@
       </c>
       <c r="G46" s="1"/>
       <c r="H46" t="s">
-        <v>39052</v>
+        <v>39412</v>
       </c>
       <c r="I46" t="s">
-        <v>39105</v>
+        <v>39465</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>38944</v>
+        <v>39304</v>
       </c>
       <c r="B47" t="s">
-        <v>38997</v>
+        <v>39357</v>
       </c>
       <c r="C47" t="s">
-        <v>39024</v>
+        <v>39384</v>
       </c>
       <c r="D47" s="1">
         <v>0.75199997425079346</v>
@@ -119195,21 +120275,21 @@
       </c>
       <c r="G47" s="1"/>
       <c r="H47" t="s">
-        <v>39052</v>
+        <v>39412</v>
       </c>
       <c r="I47" t="s">
-        <v>39106</v>
+        <v>39466</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>38945</v>
+        <v>39305</v>
       </c>
       <c r="B48" t="s">
-        <v>38998</v>
+        <v>39358</v>
       </c>
       <c r="C48" t="s">
-        <v>39025</v>
+        <v>39385</v>
       </c>
       <c r="D48" s="1">
         <v>0.54000002145767212</v>
@@ -119222,21 +120302,21 @@
       </c>
       <c r="G48" s="1"/>
       <c r="H48" t="s">
-        <v>39052</v>
+        <v>39412</v>
       </c>
       <c r="I48" t="s">
-        <v>39107</v>
+        <v>39467</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>38945</v>
+        <v>39305</v>
       </c>
       <c r="B49" t="s">
-        <v>38999</v>
+        <v>39359</v>
       </c>
       <c r="C49" t="s">
-        <v>39025</v>
+        <v>39385</v>
       </c>
       <c r="D49" s="1">
         <v>0.67000001668930054</v>
@@ -119249,21 +120329,21 @@
       </c>
       <c r="G49" s="1"/>
       <c r="H49" t="s">
-        <v>39052</v>
+        <v>39412</v>
       </c>
       <c r="I49" t="s">
-        <v>39108</v>
+        <v>39468</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>38945</v>
+        <v>39305</v>
       </c>
       <c r="B50" t="s">
-        <v>39000</v>
+        <v>39360</v>
       </c>
       <c r="C50" t="s">
-        <v>39025</v>
+        <v>39385</v>
       </c>
       <c r="D50" s="1">
         <v>0.60000002384185791</v>
@@ -119276,21 +120356,21 @@
       </c>
       <c r="G50" s="1"/>
       <c r="H50" t="s">
-        <v>39052</v>
+        <v>39412</v>
       </c>
       <c r="I50" t="s">
-        <v>39109</v>
+        <v>39469</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>38946</v>
+        <v>39306</v>
       </c>
       <c r="B51" t="s">
-        <v>39001</v>
+        <v>39361</v>
       </c>
       <c r="C51" t="s">
-        <v>39026</v>
+        <v>39386</v>
       </c>
       <c r="D51" s="1">
         <v>0.97600001096725464</v>
@@ -119303,21 +120383,21 @@
       </c>
       <c r="G51" s="1"/>
       <c r="H51" t="s">
-        <v>39053</v>
+        <v>39413</v>
       </c>
       <c r="I51" t="s">
-        <v>39110</v>
+        <v>39470</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>38946</v>
+        <v>39306</v>
       </c>
       <c r="B52" t="s">
-        <v>39002</v>
+        <v>39362</v>
       </c>
       <c r="C52" t="s">
-        <v>39026</v>
+        <v>39386</v>
       </c>
       <c r="D52" s="1">
         <v>0.92599999904632568</v>
@@ -119330,21 +120410,21 @@
       </c>
       <c r="G52" s="1"/>
       <c r="H52" t="s">
-        <v>39053</v>
+        <v>39413</v>
       </c>
       <c r="I52" t="s">
-        <v>39111</v>
+        <v>39471</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>38946</v>
+        <v>39306</v>
       </c>
       <c r="B53" t="s">
-        <v>39003</v>
+        <v>39363</v>
       </c>
       <c r="C53" t="s">
-        <v>39026</v>
+        <v>39386</v>
       </c>
       <c r="D53" s="1">
         <v>0.88300001621246338</v>
@@ -119357,21 +120437,21 @@
       </c>
       <c r="G53" s="1"/>
       <c r="H53" t="s">
-        <v>39053</v>
+        <v>39413</v>
       </c>
       <c r="I53" t="s">
-        <v>39112</v>
+        <v>39472</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>38947</v>
+        <v>39307</v>
       </c>
       <c r="B54" t="s">
-        <v>39004</v>
+        <v>39364</v>
       </c>
       <c r="C54" t="s">
-        <v>39027</v>
+        <v>39387</v>
       </c>
       <c r="D54" s="1">
         <v>0.6600000262260437</v>
@@ -119384,21 +120464,21 @@
       </c>
       <c r="G54" s="1"/>
       <c r="H54" t="s">
-        <v>39054</v>
+        <v>39414</v>
       </c>
       <c r="I54" t="s">
-        <v>39113</v>
+        <v>39473</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>38947</v>
+        <v>39307</v>
       </c>
       <c r="B55" t="s">
-        <v>39005</v>
+        <v>39365</v>
       </c>
       <c r="C55" t="s">
-        <v>39027</v>
+        <v>39387</v>
       </c>
       <c r="D55" s="1">
         <v>0.63999998569488525</v>
@@ -119411,21 +120491,21 @@
       </c>
       <c r="G55" s="1"/>
       <c r="H55" t="s">
-        <v>39054</v>
+        <v>39414</v>
       </c>
       <c r="I55" t="s">
-        <v>39114</v>
+        <v>39474</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>38948</v>
+        <v>39308</v>
       </c>
       <c r="B56" t="s">
-        <v>39006</v>
+        <v>39366</v>
       </c>
       <c r="C56" t="s">
-        <v>39028</v>
+        <v>39388</v>
       </c>
       <c r="D56" s="1">
         <v>0.89999997615814209</v>
@@ -119438,21 +120518,21 @@
       </c>
       <c r="G56" s="1"/>
       <c r="H56" t="s">
-        <v>39055</v>
+        <v>39415</v>
       </c>
       <c r="I56" t="s">
-        <v>39115</v>
+        <v>39475</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>38948</v>
+        <v>39308</v>
       </c>
       <c r="B57" t="s">
-        <v>39007</v>
+        <v>39367</v>
       </c>
       <c r="C57" t="s">
-        <v>39028</v>
+        <v>39388</v>
       </c>
       <c r="D57" s="1">
         <v>0.95999997854232788</v>
@@ -119465,21 +120545,21 @@
       </c>
       <c r="G57" s="1"/>
       <c r="H57" t="s">
-        <v>39055</v>
+        <v>39415</v>
       </c>
       <c r="I57" t="s">
-        <v>39116</v>
+        <v>39476</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>38949</v>
+        <v>39309</v>
       </c>
       <c r="B58" t="s">
-        <v>39008</v>
+        <v>39368</v>
       </c>
       <c r="C58" t="s">
-        <v>39029</v>
+        <v>39389</v>
       </c>
       <c r="D58" s="1">
         <v>0.4699999988079071</v>
@@ -119492,21 +120572,21 @@
       </c>
       <c r="G58" s="1"/>
       <c r="H58" t="s">
-        <v>39056</v>
+        <v>39416</v>
       </c>
       <c r="I58" t="s">
-        <v>39117</v>
+        <v>39477</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>38949</v>
+        <v>39309</v>
       </c>
       <c r="B59" t="s">
-        <v>39009</v>
+        <v>39369</v>
       </c>
       <c r="C59" t="s">
-        <v>39029</v>
+        <v>39389</v>
       </c>
       <c r="D59" s="1">
         <v>0.47999998927116394</v>
@@ -119519,21 +120599,21 @@
       </c>
       <c r="G59" s="1"/>
       <c r="H59" t="s">
-        <v>39056</v>
+        <v>39416</v>
       </c>
       <c r="I59" t="s">
-        <v>39118</v>
+        <v>39478</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>38949</v>
+        <v>39309</v>
       </c>
       <c r="B60" t="s">
-        <v>39010</v>
+        <v>39370</v>
       </c>
       <c r="C60" t="s">
-        <v>39030</v>
+        <v>39390</v>
       </c>
       <c r="D60" s="1">
         <v>0.43999999761581421</v>
@@ -119546,21 +120626,21 @@
       </c>
       <c r="G60" s="1"/>
       <c r="H60" t="s">
-        <v>39057</v>
+        <v>39417</v>
       </c>
       <c r="I60" t="s">
-        <v>39119</v>
+        <v>39479</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>38949</v>
+        <v>39309</v>
       </c>
       <c r="B61" t="s">
-        <v>39011</v>
+        <v>39371</v>
       </c>
       <c r="C61" t="s">
-        <v>39030</v>
+        <v>39390</v>
       </c>
       <c r="D61" s="1">
         <v>0.75999999046325684</v>
@@ -119573,21 +120653,21 @@
       </c>
       <c r="G61" s="1"/>
       <c r="H61" t="s">
-        <v>39057</v>
+        <v>39417</v>
       </c>
       <c r="I61" t="s">
-        <v>39120</v>
+        <v>39480</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>38950</v>
+        <v>39310</v>
       </c>
       <c r="B62" t="s">
-        <v>39012</v>
+        <v>39372</v>
       </c>
       <c r="C62" t="s">
-        <v>39030</v>
+        <v>39390</v>
       </c>
       <c r="D62" s="1">
         <v>0.81000000238418579</v>
@@ -119600,21 +120680,21 @@
       </c>
       <c r="G62" s="1"/>
       <c r="H62" t="s">
-        <v>39058</v>
+        <v>39418</v>
       </c>
       <c r="I62" t="s">
-        <v>39121</v>
+        <v>39481</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>38950</v>
+        <v>39310</v>
       </c>
       <c r="B63" t="s">
-        <v>39013</v>
+        <v>39373</v>
       </c>
       <c r="C63" t="s">
-        <v>39030</v>
+        <v>39390</v>
       </c>
       <c r="D63" s="1">
         <v>0.79000002145767212</v>
@@ -119627,21 +120707,21 @@
       </c>
       <c r="G63" s="1"/>
       <c r="H63" t="s">
-        <v>39058</v>
+        <v>39418</v>
       </c>
       <c r="I63" t="s">
-        <v>39122</v>
+        <v>39482</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>38951</v>
+        <v>39311</v>
       </c>
       <c r="B64" t="s">
-        <v>39014</v>
+        <v>39374</v>
       </c>
       <c r="C64" t="s">
-        <v>39031</v>
+        <v>39391</v>
       </c>
       <c r="D64" s="1">
         <v>0.6600000262260437</v>
@@ -119654,21 +120734,21 @@
       </c>
       <c r="G64" s="1"/>
       <c r="H64" t="s">
-        <v>39059</v>
+        <v>39419</v>
       </c>
       <c r="I64" t="s">
-        <v>39123</v>
+        <v>39483</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>38951</v>
+        <v>39311</v>
       </c>
       <c r="B65" t="s">
-        <v>39015</v>
+        <v>39375</v>
       </c>
       <c r="C65" t="s">
-        <v>39031</v>
+        <v>39391</v>
       </c>
       <c r="D65" s="1">
         <v>0.55000001192092896</v>
@@ -119681,10 +120761,10 @@
       </c>
       <c r="G65" s="1"/>
       <c r="H65" t="s">
-        <v>39059</v>
+        <v>39419</v>
       </c>
       <c r="I65" t="s">
-        <v>39124</v>
+        <v>39484</v>
       </c>
     </row>
   </sheetData>
@@ -119698,42 +120778,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>39125</v>
+        <v>39485</v>
       </c>
       <c r="B1" t="s">
-        <v>39147</v>
+        <v>39507</v>
       </c>
       <c r="C1" t="s">
-        <v>39194</v>
+        <v>39554</v>
       </c>
       <c r="D1" t="s">
-        <v>39204</v>
+        <v>39564</v>
       </c>
       <c r="E1" t="s">
-        <v>39205</v>
+        <v>39565</v>
       </c>
       <c r="F1" t="s">
-        <v>39206</v>
+        <v>39566</v>
       </c>
       <c r="G1" t="s">
-        <v>39207</v>
+        <v>39567</v>
       </c>
       <c r="H1" t="s">
-        <v>39219</v>
+        <v>39579</v>
       </c>
       <c r="I1" t="s">
-        <v>39240</v>
+        <v>39600</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>39126</v>
+        <v>39486</v>
       </c>
       <c r="B2" t="s">
-        <v>39148</v>
+        <v>39508</v>
       </c>
       <c r="C2" t="s">
-        <v>39195</v>
+        <v>39555</v>
       </c>
       <c r="D2" s="1">
         <v>0.5899999737739563</v>
@@ -119745,24 +120825,24 @@
         <v>0.81999999284744263</v>
       </c>
       <c r="G2" t="s">
-        <v>39208</v>
+        <v>39568</v>
       </c>
       <c r="H2" t="s">
-        <v>39220</v>
+        <v>39580</v>
       </c>
       <c r="I2" t="s">
-        <v>39241</v>
+        <v>39601</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>39126</v>
+        <v>39486</v>
       </c>
       <c r="B3" t="s">
-        <v>39149</v>
+        <v>39509</v>
       </c>
       <c r="C3" t="s">
-        <v>39195</v>
+        <v>39555</v>
       </c>
       <c r="D3" s="1">
         <v>0.18000000715255737</v>
@@ -119774,24 +120854,24 @@
         <v>1.4900000095367432</v>
       </c>
       <c r="G3" t="s">
-        <v>39208</v>
+        <v>39568</v>
       </c>
       <c r="H3" t="s">
-        <v>39220</v>
+        <v>39580</v>
       </c>
       <c r="I3" t="s">
-        <v>39242</v>
+        <v>39602</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>39127</v>
+        <v>39487</v>
       </c>
       <c r="B4" t="s">
-        <v>39150</v>
+        <v>39510</v>
       </c>
       <c r="C4" t="s">
-        <v>39195</v>
+        <v>39555</v>
       </c>
       <c r="D4" s="1">
         <v>0.37999999523162842</v>
@@ -119803,24 +120883,24 @@
         <v>0.6600000262260437</v>
       </c>
       <c r="G4" t="s">
-        <v>39208</v>
+        <v>39568</v>
       </c>
       <c r="H4" t="s">
-        <v>39221</v>
+        <v>39581</v>
       </c>
       <c r="I4" t="s">
-        <v>39243</v>
+        <v>39603</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>39127</v>
+        <v>39487</v>
       </c>
       <c r="B5" t="s">
-        <v>39151</v>
+        <v>39511</v>
       </c>
       <c r="C5" t="s">
-        <v>39195</v>
+        <v>39555</v>
       </c>
       <c r="D5" s="1">
         <v>0.44999998807907104</v>
@@ -119832,24 +120912,24 @@
         <v>0.57999998331069946</v>
       </c>
       <c r="G5" t="s">
-        <v>39208</v>
+        <v>39568</v>
       </c>
       <c r="H5" t="s">
-        <v>39221</v>
+        <v>39581</v>
       </c>
       <c r="I5" t="s">
-        <v>39244</v>
+        <v>39604</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>39128</v>
+        <v>39488</v>
       </c>
       <c r="B6" t="s">
-        <v>39152</v>
+        <v>39512</v>
       </c>
       <c r="C6" t="s">
-        <v>39195</v>
+        <v>39555</v>
       </c>
       <c r="D6" s="1">
         <v>0.75700002908706665</v>
@@ -119861,24 +120941,24 @@
         <v>0.96299999952316284</v>
       </c>
       <c r="G6" t="s">
-        <v>39209</v>
+        <v>39569</v>
       </c>
       <c r="H6" t="s">
-        <v>39222</v>
+        <v>39582</v>
       </c>
       <c r="I6" t="s">
-        <v>39245</v>
+        <v>39605</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>39128</v>
+        <v>39488</v>
       </c>
       <c r="B7" t="s">
-        <v>39153</v>
+        <v>39513</v>
       </c>
       <c r="C7" t="s">
-        <v>39195</v>
+        <v>39555</v>
       </c>
       <c r="D7" s="1">
         <v>0.92599999904632568</v>
@@ -119890,24 +120970,24 @@
         <v>1.2790000438690186</v>
       </c>
       <c r="G7" t="s">
-        <v>39210</v>
+        <v>39570</v>
       </c>
       <c r="H7" t="s">
-        <v>39222</v>
+        <v>39582</v>
       </c>
       <c r="I7" t="s">
-        <v>39246</v>
+        <v>39606</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>39129</v>
+        <v>39489</v>
       </c>
       <c r="B8" t="s">
-        <v>39154</v>
+        <v>39514</v>
       </c>
       <c r="C8" t="s">
-        <v>39195</v>
+        <v>39555</v>
       </c>
       <c r="D8" s="1">
         <v>0.43999999761581421</v>
@@ -119919,24 +120999,24 @@
         <v>0.56000000238418579</v>
       </c>
       <c r="G8" t="s">
-        <v>39211</v>
+        <v>39571</v>
       </c>
       <c r="H8" t="s">
-        <v>39223</v>
+        <v>39583</v>
       </c>
       <c r="I8" t="s">
-        <v>39247</v>
+        <v>39607</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>39129</v>
+        <v>39489</v>
       </c>
       <c r="B9" t="s">
-        <v>39155</v>
+        <v>39515</v>
       </c>
       <c r="C9" t="s">
-        <v>39195</v>
+        <v>39555</v>
       </c>
       <c r="D9" s="1">
         <v>0.80000001192092896</v>
@@ -119948,24 +121028,24 @@
         <v>1.1100000143051147</v>
       </c>
       <c r="G9" t="s">
-        <v>39211</v>
+        <v>39571</v>
       </c>
       <c r="H9" t="s">
-        <v>39223</v>
+        <v>39583</v>
       </c>
       <c r="I9" t="s">
-        <v>39248</v>
+        <v>39608</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>39130</v>
+        <v>39490</v>
       </c>
       <c r="B10" t="s">
-        <v>39156</v>
+        <v>39516</v>
       </c>
       <c r="C10" t="s">
-        <v>39195</v>
+        <v>39555</v>
       </c>
       <c r="D10" s="1">
         <v>0.56000000238418579</v>
@@ -119977,24 +121057,24 @@
         <v>0.97000002861022949</v>
       </c>
       <c r="G10" t="s">
-        <v>39211</v>
+        <v>39571</v>
       </c>
       <c r="H10" t="s">
-        <v>39224</v>
+        <v>39584</v>
       </c>
       <c r="I10" t="s">
-        <v>39249</v>
+        <v>39609</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>39130</v>
+        <v>39490</v>
       </c>
       <c r="B11" t="s">
-        <v>39157</v>
+        <v>39517</v>
       </c>
       <c r="C11" t="s">
-        <v>39195</v>
+        <v>39555</v>
       </c>
       <c r="D11" s="1">
         <v>0.50999999046325684</v>
@@ -120006,24 +121086,24 @@
         <v>1.190000057220459</v>
       </c>
       <c r="G11" t="s">
-        <v>39211</v>
+        <v>39571</v>
       </c>
       <c r="H11" t="s">
-        <v>39224</v>
+        <v>39584</v>
       </c>
       <c r="I11" t="s">
-        <v>39250</v>
+        <v>39610</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>39131</v>
+        <v>39491</v>
       </c>
       <c r="B12" t="s">
-        <v>39158</v>
+        <v>39518</v>
       </c>
       <c r="C12" t="s">
-        <v>39195</v>
+        <v>39555</v>
       </c>
       <c r="D12" s="1">
         <v>0.6600000262260437</v>
@@ -120035,24 +121115,24 @@
         <v>0.89999997615814209</v>
       </c>
       <c r="G12" t="s">
-        <v>39211</v>
+        <v>39571</v>
       </c>
       <c r="H12" t="s">
-        <v>39225</v>
+        <v>39585</v>
       </c>
       <c r="I12" t="s">
-        <v>39251</v>
+        <v>39611</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>39131</v>
+        <v>39491</v>
       </c>
       <c r="B13" t="s">
-        <v>39159</v>
+        <v>39519</v>
       </c>
       <c r="C13" t="s">
-        <v>39195</v>
+        <v>39555</v>
       </c>
       <c r="D13" s="1">
         <v>0.36000001430511475</v>
@@ -120064,24 +121144,24 @@
         <v>0.82999998331069946</v>
       </c>
       <c r="G13" t="s">
-        <v>39211</v>
+        <v>39571</v>
       </c>
       <c r="H13" t="s">
-        <v>39225</v>
+        <v>39585</v>
       </c>
       <c r="I13" t="s">
-        <v>39252</v>
+        <v>39612</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>39132</v>
+        <v>39492</v>
       </c>
       <c r="B14" t="s">
-        <v>39160</v>
+        <v>39520</v>
       </c>
       <c r="C14" t="s">
-        <v>39195</v>
+        <v>39555</v>
       </c>
       <c r="D14" s="1">
         <v>0.55299997329711914</v>
@@ -120093,24 +121173,24 @@
         <v>0.9309999942779541</v>
       </c>
       <c r="G14" t="s">
-        <v>39212</v>
+        <v>39572</v>
       </c>
       <c r="H14" t="s">
-        <v>39226</v>
+        <v>39586</v>
       </c>
       <c r="I14" t="s">
-        <v>39253</v>
+        <v>39613</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>39132</v>
+        <v>39492</v>
       </c>
       <c r="B15" t="s">
-        <v>39161</v>
+        <v>39521</v>
       </c>
       <c r="C15" t="s">
-        <v>39195</v>
+        <v>39555</v>
       </c>
       <c r="D15" s="1">
         <v>0.76599997282028198</v>
@@ -120122,24 +121202,24 @@
         <v>3.9639999866485596</v>
       </c>
       <c r="G15" t="s">
-        <v>39212</v>
+        <v>39572</v>
       </c>
       <c r="H15" t="s">
-        <v>39226</v>
+        <v>39586</v>
       </c>
       <c r="I15" t="s">
-        <v>39254</v>
+        <v>39614</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>39132</v>
+        <v>39492</v>
       </c>
       <c r="B16" t="s">
-        <v>39162</v>
+        <v>39522</v>
       </c>
       <c r="C16" t="s">
-        <v>39196</v>
+        <v>39556</v>
       </c>
       <c r="D16" s="1">
         <v>0.39800000190734863</v>
@@ -120151,24 +121231,24 @@
         <v>0.71899998188018799</v>
       </c>
       <c r="G16" t="s">
-        <v>39212</v>
+        <v>39572</v>
       </c>
       <c r="H16" t="s">
-        <v>39227</v>
+        <v>39587</v>
       </c>
       <c r="I16" t="s">
-        <v>39255</v>
+        <v>39615</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>39132</v>
+        <v>39492</v>
       </c>
       <c r="B17" t="s">
-        <v>39163</v>
+        <v>39523</v>
       </c>
       <c r="C17" t="s">
-        <v>39196</v>
+        <v>39556</v>
       </c>
       <c r="D17" s="1">
         <v>0.49799999594688416</v>
@@ -120180,24 +121260,24 @@
         <v>2.4030001163482666</v>
       </c>
       <c r="G17" t="s">
-        <v>39212</v>
+        <v>39572</v>
       </c>
       <c r="H17" t="s">
-        <v>39227</v>
+        <v>39587</v>
       </c>
       <c r="I17" t="s">
-        <v>39256</v>
+        <v>39616</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>39133</v>
+        <v>39493</v>
       </c>
       <c r="B18" t="s">
-        <v>39164</v>
+        <v>39524</v>
       </c>
       <c r="C18" t="s">
-        <v>39197</v>
+        <v>39557</v>
       </c>
       <c r="D18" s="1">
         <v>0.87000000476837158</v>
@@ -120209,24 +121289,24 @@
         <v>1.2899999618530273</v>
       </c>
       <c r="G18" t="s">
-        <v>39213</v>
+        <v>39573</v>
       </c>
       <c r="H18" t="s">
-        <v>39228</v>
+        <v>39588</v>
       </c>
       <c r="I18" t="s">
-        <v>39257</v>
+        <v>39617</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>39133</v>
+        <v>39493</v>
       </c>
       <c r="B19" t="s">
-        <v>39165</v>
+        <v>39525</v>
       </c>
       <c r="C19" t="s">
-        <v>39197</v>
+        <v>39557</v>
       </c>
       <c r="D19" s="1">
         <v>0.38999998569488525</v>
@@ -120238,24 +121318,24 @@
         <v>0.80000001192092896</v>
       </c>
       <c r="G19" t="s">
-        <v>39213</v>
+        <v>39573</v>
       </c>
       <c r="H19" t="s">
-        <v>39228</v>
+        <v>39588</v>
       </c>
       <c r="I19" t="s">
-        <v>39258</v>
+        <v>39618</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>39134</v>
+        <v>39494</v>
       </c>
       <c r="B20" t="s">
-        <v>39166</v>
+        <v>39526</v>
       </c>
       <c r="C20" t="s">
-        <v>39197</v>
+        <v>39557</v>
       </c>
       <c r="D20" s="1">
         <v>0.61000001430511475</v>
@@ -120267,24 +121347,24 @@
         <v>1.1699999570846558</v>
       </c>
       <c r="G20" t="s">
-        <v>39213</v>
+        <v>39573</v>
       </c>
       <c r="H20" t="s">
-        <v>39229</v>
+        <v>39589</v>
       </c>
       <c r="I20" t="s">
-        <v>39259</v>
+        <v>39619</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>39134</v>
+        <v>39494</v>
       </c>
       <c r="B21" t="s">
-        <v>39167</v>
+        <v>39527</v>
       </c>
       <c r="C21" t="s">
-        <v>39197</v>
+        <v>39557</v>
       </c>
       <c r="D21" s="1">
         <v>0.75</v>
@@ -120296,24 +121376,24 @@
         <v>1.3600000143051147</v>
       </c>
       <c r="G21" t="s">
-        <v>39213</v>
+        <v>39573</v>
       </c>
       <c r="H21" t="s">
-        <v>39229</v>
+        <v>39589</v>
       </c>
       <c r="I21" t="s">
-        <v>39260</v>
+        <v>39620</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>39134</v>
+        <v>39494</v>
       </c>
       <c r="B22" t="s">
-        <v>39168</v>
+        <v>39528</v>
       </c>
       <c r="C22" t="s">
-        <v>39198</v>
+        <v>39558</v>
       </c>
       <c r="D22" s="1">
         <v>5.9000000953674316</v>
@@ -120325,24 +121405,24 @@
         <v>46.099998474121094</v>
       </c>
       <c r="G22" t="s">
-        <v>39213</v>
+        <v>39573</v>
       </c>
       <c r="H22" t="s">
-        <v>39230</v>
+        <v>39590</v>
       </c>
       <c r="I22" t="s">
-        <v>39261</v>
+        <v>39621</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>39134</v>
+        <v>39494</v>
       </c>
       <c r="B23" t="s">
-        <v>39169</v>
+        <v>39529</v>
       </c>
       <c r="C23" t="s">
-        <v>39198</v>
+        <v>39558</v>
       </c>
       <c r="D23" s="1">
         <v>1.8200000524520874</v>
@@ -120354,24 +121434,24 @@
         <v>5.1399998664855957</v>
       </c>
       <c r="G23" t="s">
-        <v>39213</v>
+        <v>39573</v>
       </c>
       <c r="H23" t="s">
-        <v>39230</v>
+        <v>39590</v>
       </c>
       <c r="I23" t="s">
-        <v>39262</v>
+        <v>39622</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>39135</v>
+        <v>39495</v>
       </c>
       <c r="B24" t="s">
-        <v>39170</v>
+        <v>39530</v>
       </c>
       <c r="C24" t="s">
-        <v>39199</v>
+        <v>39559</v>
       </c>
       <c r="D24" s="1">
         <v>0.5899999737739563</v>
@@ -120383,24 +121463,24 @@
         <v>1.3999999761581421</v>
       </c>
       <c r="G24" t="s">
-        <v>39213</v>
+        <v>39573</v>
       </c>
       <c r="H24" t="s">
-        <v>39231</v>
+        <v>39591</v>
       </c>
       <c r="I24" t="s">
-        <v>39263</v>
+        <v>39623</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>39135</v>
+        <v>39495</v>
       </c>
       <c r="B25" t="s">
-        <v>39171</v>
+        <v>39531</v>
       </c>
       <c r="C25" t="s">
-        <v>39199</v>
+        <v>39559</v>
       </c>
       <c r="D25" s="1">
         <v>0.69999998807907104</v>
@@ -120412,24 +121492,24 @@
         <v>0.87000000476837158</v>
       </c>
       <c r="G25" t="s">
-        <v>39213</v>
+        <v>39573</v>
       </c>
       <c r="H25" t="s">
-        <v>39231</v>
+        <v>39591</v>
       </c>
       <c r="I25" t="s">
-        <v>39264</v>
+        <v>39624</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>39136</v>
+        <v>39496</v>
       </c>
       <c r="B26" t="s">
-        <v>39172</v>
+        <v>39532</v>
       </c>
       <c r="C26" t="s">
-        <v>39199</v>
+        <v>39559</v>
       </c>
       <c r="D26" s="1">
         <v>0.38999998569488525</v>
@@ -120441,24 +121521,24 @@
         <v>0.68999999761581421</v>
       </c>
       <c r="G26" t="s">
-        <v>39213</v>
+        <v>39573</v>
       </c>
       <c r="H26" t="s">
-        <v>39232</v>
+        <v>39592</v>
       </c>
       <c r="I26" t="s">
-        <v>39265</v>
+        <v>39625</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>39136</v>
+        <v>39496</v>
       </c>
       <c r="B27" t="s">
-        <v>39173</v>
+        <v>39533</v>
       </c>
       <c r="C27" t="s">
-        <v>39199</v>
+        <v>39559</v>
       </c>
       <c r="D27" s="1">
         <v>0.15999999642372131</v>
@@ -120470,24 +121550,24 @@
         <v>0.40000000596046448</v>
       </c>
       <c r="G27" t="s">
-        <v>39213</v>
+        <v>39573</v>
       </c>
       <c r="H27" t="s">
-        <v>39232</v>
+        <v>39592</v>
       </c>
       <c r="I27" t="s">
-        <v>39266</v>
+        <v>39626</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>39137</v>
+        <v>39497</v>
       </c>
       <c r="B28" t="s">
-        <v>39174</v>
+        <v>39534</v>
       </c>
       <c r="C28" t="s">
-        <v>39199</v>
+        <v>39559</v>
       </c>
       <c r="D28" s="1">
         <v>0.46000000834465027</v>
@@ -120499,24 +121579,24 @@
         <v>0.6600000262260437</v>
       </c>
       <c r="G28" t="s">
-        <v>39213</v>
+        <v>39573</v>
       </c>
       <c r="H28" t="s">
-        <v>39232</v>
+        <v>39592</v>
       </c>
       <c r="I28" t="s">
-        <v>39267</v>
+        <v>39627</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>39137</v>
+        <v>39497</v>
       </c>
       <c r="B29" t="s">
-        <v>39175</v>
+        <v>39535</v>
       </c>
       <c r="C29" t="s">
-        <v>39199</v>
+        <v>39559</v>
       </c>
       <c r="D29" s="1">
         <v>0.30000001192092896</v>
@@ -120528,24 +121608,24 @@
         <v>0.44999998807907104</v>
       </c>
       <c r="G29" t="s">
-        <v>39213</v>
+        <v>39573</v>
       </c>
       <c r="H29" t="s">
-        <v>39232</v>
+        <v>39592</v>
       </c>
       <c r="I29" t="s">
-        <v>39268</v>
+        <v>39628</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>39138</v>
+        <v>39498</v>
       </c>
       <c r="B30" t="s">
-        <v>39176</v>
+        <v>39536</v>
       </c>
       <c r="C30" t="s">
-        <v>39199</v>
+        <v>39559</v>
       </c>
       <c r="D30" s="1">
         <v>0.60000002384185791</v>
@@ -120557,24 +121637,24 @@
         <v>1.059999942779541</v>
       </c>
       <c r="G30" t="s">
-        <v>39213</v>
+        <v>39573</v>
       </c>
       <c r="H30" t="s">
-        <v>39233</v>
+        <v>39593</v>
       </c>
       <c r="I30" t="s">
-        <v>39269</v>
+        <v>39629</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>39138</v>
+        <v>39498</v>
       </c>
       <c r="B31" t="s">
-        <v>39177</v>
+        <v>39537</v>
       </c>
       <c r="C31" t="s">
-        <v>39199</v>
+        <v>39559</v>
       </c>
       <c r="D31" s="1">
         <v>0.47999998927116394</v>
@@ -120586,24 +121666,24 @@
         <v>0.81999999284744263</v>
       </c>
       <c r="G31" t="s">
-        <v>39213</v>
+        <v>39573</v>
       </c>
       <c r="H31" t="s">
-        <v>39233</v>
+        <v>39593</v>
       </c>
       <c r="I31" t="s">
-        <v>39270</v>
+        <v>39630</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>39139</v>
+        <v>39499</v>
       </c>
       <c r="B32" t="s">
-        <v>39178</v>
+        <v>39538</v>
       </c>
       <c r="C32" t="s">
-        <v>39199</v>
+        <v>39559</v>
       </c>
       <c r="D32" s="1">
         <v>1.6200000047683716</v>
@@ -120615,24 +121695,24 @@
         <v>2.4100000858306885</v>
       </c>
       <c r="G32" t="s">
-        <v>39213</v>
+        <v>39573</v>
       </c>
       <c r="H32" t="s">
-        <v>39233</v>
+        <v>39593</v>
       </c>
       <c r="I32" t="s">
-        <v>39271</v>
+        <v>39631</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>39139</v>
+        <v>39499</v>
       </c>
       <c r="B33" t="s">
-        <v>39179</v>
+        <v>39539</v>
       </c>
       <c r="C33" t="s">
-        <v>39199</v>
+        <v>39559</v>
       </c>
       <c r="D33" s="1">
         <v>2.0099999904632568</v>
@@ -120644,24 +121724,24 @@
         <v>2.8399999141693115</v>
       </c>
       <c r="G33" t="s">
-        <v>39213</v>
+        <v>39573</v>
       </c>
       <c r="H33" t="s">
-        <v>39233</v>
+        <v>39593</v>
       </c>
       <c r="I33" t="s">
-        <v>39272</v>
+        <v>39632</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>39140</v>
+        <v>39500</v>
       </c>
       <c r="B34" t="s">
-        <v>39180</v>
+        <v>39540</v>
       </c>
       <c r="C34" t="s">
-        <v>39200</v>
+        <v>39560</v>
       </c>
       <c r="D34" s="1">
         <v>0.95999997854232788</v>
@@ -120673,24 +121753,24 @@
         <v>1.2560000419616699</v>
       </c>
       <c r="G34" t="s">
-        <v>39214</v>
+        <v>39574</v>
       </c>
       <c r="H34" t="s">
-        <v>39234</v>
+        <v>39594</v>
       </c>
       <c r="I34" t="s">
-        <v>39273</v>
+        <v>39633</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>39140</v>
+        <v>39500</v>
       </c>
       <c r="B35" t="s">
-        <v>39181</v>
+        <v>39541</v>
       </c>
       <c r="C35" t="s">
-        <v>39200</v>
+        <v>39560</v>
       </c>
       <c r="D35" s="1">
         <v>1.0800000429153442</v>
@@ -120702,24 +121782,24 @@
         <v>1.3609999418258667</v>
       </c>
       <c r="G35" t="s">
-        <v>39214</v>
+        <v>39574</v>
       </c>
       <c r="H35" t="s">
-        <v>39234</v>
+        <v>39594</v>
       </c>
       <c r="I35" t="s">
-        <v>39274</v>
+        <v>39634</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>39141</v>
+        <v>39501</v>
       </c>
       <c r="B36" t="s">
-        <v>39182</v>
+        <v>39542</v>
       </c>
       <c r="C36" t="s">
-        <v>39200</v>
+        <v>39560</v>
       </c>
       <c r="D36" s="1">
         <v>0.87699997425079346</v>
@@ -120731,24 +121811,24 @@
         <v>1.156000018119812</v>
       </c>
       <c r="G36" t="s">
-        <v>39215</v>
+        <v>39575</v>
       </c>
       <c r="H36" t="s">
-        <v>39235</v>
+        <v>39595</v>
       </c>
       <c r="I36" t="s">
-        <v>39275</v>
+        <v>39635</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>39141</v>
+        <v>39501</v>
       </c>
       <c r="B37" t="s">
-        <v>39183</v>
+        <v>39543</v>
       </c>
       <c r="C37" t="s">
-        <v>39200</v>
+        <v>39560</v>
       </c>
       <c r="D37" s="1">
         <v>0.68400001525878906</v>
@@ -120760,24 +121840,24 @@
         <v>0.875</v>
       </c>
       <c r="G37" t="s">
-        <v>39215</v>
+        <v>39575</v>
       </c>
       <c r="H37" t="s">
-        <v>39235</v>
+        <v>39595</v>
       </c>
       <c r="I37" t="s">
-        <v>39276</v>
+        <v>39636</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>39141</v>
+        <v>39501</v>
       </c>
       <c r="B38" t="s">
-        <v>39184</v>
+        <v>39544</v>
       </c>
       <c r="C38" t="s">
-        <v>39200</v>
+        <v>39560</v>
       </c>
       <c r="D38" s="1">
         <v>0.85699999332427979</v>
@@ -120789,24 +121869,24 @@
         <v>1.1779999732971191</v>
       </c>
       <c r="G38" t="s">
-        <v>39215</v>
+        <v>39575</v>
       </c>
       <c r="H38" t="s">
-        <v>39235</v>
+        <v>39595</v>
       </c>
       <c r="I38" t="s">
-        <v>39277</v>
+        <v>39637</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>39142</v>
+        <v>39502</v>
       </c>
       <c r="B39" t="s">
-        <v>39184</v>
+        <v>39544</v>
       </c>
       <c r="C39" t="s">
-        <v>39201</v>
+        <v>39561</v>
       </c>
       <c r="D39" s="1">
         <v>0.64999997615814209</v>
@@ -120818,24 +121898,24 @@
         <v>0.8399999737739563</v>
       </c>
       <c r="G39" t="s">
-        <v>39216</v>
+        <v>39576</v>
       </c>
       <c r="H39" t="s">
-        <v>39235</v>
+        <v>39595</v>
       </c>
       <c r="I39" t="s">
-        <v>39278</v>
+        <v>39638</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>39142</v>
+        <v>39502</v>
       </c>
       <c r="B40" t="s">
-        <v>39185</v>
+        <v>39545</v>
       </c>
       <c r="C40" t="s">
-        <v>39201</v>
+        <v>39561</v>
       </c>
       <c r="D40" s="1">
         <v>0.47999998927116394</v>
@@ -120847,24 +121927,24 @@
         <v>0.75</v>
       </c>
       <c r="G40" t="s">
-        <v>39216</v>
+        <v>39576</v>
       </c>
       <c r="H40" t="s">
-        <v>39235</v>
+        <v>39595</v>
       </c>
       <c r="I40" t="s">
-        <v>39279</v>
+        <v>39639</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>39143</v>
+        <v>39503</v>
       </c>
       <c r="B41" t="s">
-        <v>39186</v>
+        <v>39546</v>
       </c>
       <c r="C41" t="s">
-        <v>39202</v>
+        <v>39562</v>
       </c>
       <c r="D41" s="1">
         <v>0.78100001811981201</v>
@@ -120876,24 +121956,24 @@
         <v>1.3220000267028809</v>
       </c>
       <c r="G41" t="s">
-        <v>39217</v>
+        <v>39577</v>
       </c>
       <c r="H41" t="s">
-        <v>39236</v>
+        <v>39596</v>
       </c>
       <c r="I41" t="s">
-        <v>39280</v>
+        <v>39640</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>39143</v>
+        <v>39503</v>
       </c>
       <c r="B42" t="s">
-        <v>39187</v>
+        <v>39547</v>
       </c>
       <c r="C42" t="s">
-        <v>39202</v>
+        <v>39562</v>
       </c>
       <c r="D42" s="1">
         <v>0.97500002384185791</v>
@@ -120905,24 +121985,24 @@
         <v>1.1829999685287476</v>
       </c>
       <c r="G42" t="s">
-        <v>39217</v>
+        <v>39577</v>
       </c>
       <c r="H42" t="s">
-        <v>39236</v>
+        <v>39596</v>
       </c>
       <c r="I42" t="s">
-        <v>39281</v>
+        <v>39641</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>39144</v>
+        <v>39504</v>
       </c>
       <c r="B43" t="s">
-        <v>39188</v>
+        <v>39548</v>
       </c>
       <c r="C43" t="s">
-        <v>39202</v>
+        <v>39562</v>
       </c>
       <c r="D43" s="1">
         <v>0.93999999761581421</v>
@@ -120934,24 +122014,24 @@
         <v>1.190000057220459</v>
       </c>
       <c r="G43" t="s">
-        <v>39218</v>
+        <v>39578</v>
       </c>
       <c r="H43" t="s">
-        <v>39237</v>
+        <v>39597</v>
       </c>
       <c r="I43" t="s">
-        <v>39282</v>
+        <v>39642</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>39144</v>
+        <v>39504</v>
       </c>
       <c r="B44" t="s">
-        <v>39189</v>
+        <v>39549</v>
       </c>
       <c r="C44" t="s">
-        <v>39202</v>
+        <v>39562</v>
       </c>
       <c r="D44" s="1">
         <v>0.93000000715255737</v>
@@ -120963,24 +122043,24 @@
         <v>1.309999942779541</v>
       </c>
       <c r="G44" t="s">
-        <v>39218</v>
+        <v>39578</v>
       </c>
       <c r="H44" t="s">
-        <v>39237</v>
+        <v>39597</v>
       </c>
       <c r="I44" t="s">
-        <v>39283</v>
+        <v>39643</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>39145</v>
+        <v>39505</v>
       </c>
       <c r="B45" t="s">
-        <v>39190</v>
+        <v>39550</v>
       </c>
       <c r="C45" t="s">
-        <v>39203</v>
+        <v>39563</v>
       </c>
       <c r="D45" s="1">
         <v>0.63999998569488525</v>
@@ -120992,24 +122072,24 @@
         <v>0.9100000262260437</v>
       </c>
       <c r="G45" t="s">
-        <v>39218</v>
+        <v>39578</v>
       </c>
       <c r="H45" t="s">
-        <v>39238</v>
+        <v>39598</v>
       </c>
       <c r="I45" t="s">
-        <v>39284</v>
+        <v>39644</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>39145</v>
+        <v>39505</v>
       </c>
       <c r="B46" t="s">
-        <v>39191</v>
+        <v>39551</v>
       </c>
       <c r="C46" t="s">
-        <v>39203</v>
+        <v>39563</v>
       </c>
       <c r="D46" s="1">
         <v>0.72000002861022949</v>
@@ -121021,24 +122101,24 @@
         <v>0.89999997615814209</v>
       </c>
       <c r="G46" t="s">
-        <v>39218</v>
+        <v>39578</v>
       </c>
       <c r="H46" t="s">
-        <v>39238</v>
+        <v>39598</v>
       </c>
       <c r="I46" t="s">
-        <v>39285</v>
+        <v>39645</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>39146</v>
+        <v>39506</v>
       </c>
       <c r="B47" t="s">
-        <v>39192</v>
+        <v>39552</v>
       </c>
       <c r="C47" t="s">
-        <v>39203</v>
+        <v>39563</v>
       </c>
       <c r="D47" s="1">
         <v>0.46000000834465027</v>
@@ -121050,24 +122130,24 @@
         <v>0.73000001907348633</v>
       </c>
       <c r="G47" t="s">
-        <v>39218</v>
+        <v>39578</v>
       </c>
       <c r="H47" t="s">
-        <v>39239</v>
+        <v>39599</v>
       </c>
       <c r="I47" t="s">
-        <v>39286</v>
+        <v>39646</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>39146</v>
+        <v>39506</v>
       </c>
       <c r="B48" t="s">
-        <v>39193</v>
+        <v>39553</v>
       </c>
       <c r="C48" t="s">
-        <v>39203</v>
+        <v>39563</v>
       </c>
       <c r="D48" s="1">
         <v>0.62999999523162842</v>
@@ -121079,13 +122159,13 @@
         <v>0.89999997615814209</v>
       </c>
       <c r="G48" t="s">
-        <v>39218</v>
+        <v>39578</v>
       </c>
       <c r="H48" t="s">
-        <v>39239</v>
+        <v>39599</v>
       </c>
       <c r="I48" t="s">
-        <v>39287</v>
+        <v>39647</v>
       </c>
     </row>
   </sheetData>

--- a/products/Exported Data.xlsx
+++ b/products/Exported Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65835" uniqueCount="38568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67695" uniqueCount="39648">
   <si>
     <t>Study</t>
   </si>
@@ -101537,6 +101537,3246 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Study: Treatment 1 vs Treatment 2</t>
+  </si>
+  <si>
+    <t>Attal 2019 (ICARIA-MM): IsPd vs Pd</t>
+  </si>
+  <si>
+    <t>Bahlis 2020 (POLLUX): DRd vs Rd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2013 (VANTAGE 088): VorV vs V</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2016 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-3): EPd vs Pd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2020 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2021 (APOLLO): DPd vs Pd</t>
+  </si>
+  <si>
+    <t>Grosicki 2020 (BOSTON): SeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Hou 2017 (China Cont.): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>Jakubowiak 2016 (NCT01478048): EVd vs Vd</t>
+  </si>
+  <si>
+    <t>Kumar 2020 (BELLINI): VeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Lu 2021 (LEPUS): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Mateos 2020 (CASTOR): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Moreau 2021 (IKEMA): IsKd vs Kd</t>
+  </si>
+  <si>
+    <t>Orlowski 2019 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2019 (OPTIMISMM): PVd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2021 (TOURMALINE-MM1): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2014 (PANORAMA-1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2016 (PANORAMA 1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2013 (MM-003): Pd vs GC</t>
+  </si>
+  <si>
+    <t>Siegel 2018 (ASPIRE): KRd vs Rd</t>
+  </si>
+  <si>
+    <t>Usamani 2022 (CANDOR): DKd vs Kd</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;=3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;=2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Lower 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>Upper 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t>Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      AT 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t>Data Extraction Errors</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Study: Treatment 1 vs Treatment 2</t>
+  </si>
+  <si>
+    <t>Attal 2019 (ICARIA-MM): IsPd vs Pd</t>
+  </si>
+  <si>
+    <t>Bahlis 2020 (POLLUX): DRd vs Rd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2013 (VANTAGE 088): VorV vs V</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2016 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-3): EPd vs Pd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2021 (APOLLO): DPd vs Pd</t>
+  </si>
+  <si>
+    <t>Hou 2017 (China Cont.): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>Jakubowiak 2016 (NCT01478048): EVd vs Vd</t>
+  </si>
+  <si>
+    <t>Kumar 2020 (BELLINI): VeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Lonial 2015 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Lu 2021 (LEPUS): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Mateos 2020 (CASTOR): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Moreau 2021 (IKEMA): IsKd vs Kd</t>
+  </si>
+  <si>
+    <t>Orlowski 2007 (NCT00103506): V vs DoxV</t>
+  </si>
+  <si>
+    <t>Orlowski 2016 (NCT00103506): V vs DoxV</t>
+  </si>
+  <si>
+    <t>Orlowski 2019 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2019 (OPTIMISMM): PVd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2021 (TOURMALINE-MM1): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2016 (PANORAMA 1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>Stewart 2015 (ASPIRE): KRd vs Rd</t>
+  </si>
+  <si>
+    <t>Usmani 2022 (CANDOR): DKd vs Kd</t>
+  </si>
+  <si>
+    <t>refract</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Ref. to R and a PI</t>
+  </si>
+  <si>
+    <t>Not ref. to R and a PI</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous R or T use</t>
+  </si>
+  <si>
+    <t>No previous R or T use</t>
+  </si>
+  <si>
+    <t>Previous R or T use</t>
+  </si>
+  <si>
+    <t>No previous R or T use</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Refractory to T</t>
+  </si>
+  <si>
+    <t>Not refractory to T</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No previous IMiD use</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Lower 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>Upper 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0230</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .       Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t>Data Extraction Errors</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Study: Treatment 1 vs Treatment 2</t>
+  </si>
+  <si>
+    <t>Attal 2019 (ICARIA-MM): IsPd vs Pd</t>
+  </si>
+  <si>
+    <t>Bahlis 2020 (POLLUX): DRd vs Rd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2013 (VANTAGE 088): VorV vs V</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2016 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-3): EPd vs Pd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2020 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2021 (APOLLO): DPd vs Pd</t>
+  </si>
+  <si>
+    <t>Grosicki 2020 (BOSTON): SeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Hou 2017 (China Cont.): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>Jakubowiak 2016 (NCT01478048): EVd vs Vd</t>
+  </si>
+  <si>
+    <t>Kumar 2020 (BELLINI): VeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Lu 2021 (LEPUS): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Mateos 2020 (CASTOR): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Moreau 2021 (IKEMA): IsKd vs Kd</t>
+  </si>
+  <si>
+    <t>Orlowski 2019 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2019 (OPTIMISMM): PVd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2021 (TOURMALINE-MM1): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2014 (PANORAMA-1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2016 (PANORAMA 1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2013 (MM-003): Pd vs GC</t>
+  </si>
+  <si>
+    <t>Siegel 2018 (ASPIRE): KRd vs Rd</t>
+  </si>
+  <si>
+    <t>Usamani 2022 (CANDOR): DKd vs Kd</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;=3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;=2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Lower 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>Upper 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t>Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      AT 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t>Data Extraction Errors</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Study: Treatment 1 vs Treatment 2</t>
+  </si>
+  <si>
+    <t>Attal 2019 (ICARIA-MM): IsPd vs Pd</t>
+  </si>
+  <si>
+    <t>Bahlis 2020 (POLLUX): DRd vs Rd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2013 (VANTAGE 088): VorV vs V</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2016 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-3): EPd vs Pd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2021 (APOLLO): DPd vs Pd</t>
+  </si>
+  <si>
+    <t>Hou 2017 (China Cont.): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>Jakubowiak 2016 (NCT01478048): EVd vs Vd</t>
+  </si>
+  <si>
+    <t>Kumar 2020 (BELLINI): VeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Lonial 2015 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Lu 2021 (LEPUS): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Mateos 2020 (CASTOR): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Moreau 2021 (IKEMA): IsKd vs Kd</t>
+  </si>
+  <si>
+    <t>Orlowski 2007 (NCT00103506): V vs DoxV</t>
+  </si>
+  <si>
+    <t>Orlowski 2016 (NCT00103506): V vs DoxV</t>
+  </si>
+  <si>
+    <t>Orlowski 2019 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2019 (OPTIMISMM): PVd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2021 (TOURMALINE-MM1): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2016 (PANORAMA 1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>Stewart 2015 (ASPIRE): KRd vs Rd</t>
+  </si>
+  <si>
+    <t>Usmani 2022 (CANDOR): DKd vs Kd</t>
+  </si>
+  <si>
+    <t>refract</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Ref. to R and a PI</t>
+  </si>
+  <si>
+    <t>Not ref. to R and a PI</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous R or T use</t>
+  </si>
+  <si>
+    <t>No previous R or T use</t>
+  </si>
+  <si>
+    <t>Previous R or T use</t>
+  </si>
+  <si>
+    <t>No previous R or T use</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Refractory to T</t>
+  </si>
+  <si>
+    <t>Not refractory to T</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No previous IMiD use</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Lower 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>Upper 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0230</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .       Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t>Data Extraction Errors</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Study: Treatment 1 vs Treatment 2</t>
+  </si>
+  <si>
+    <t>Attal 2019 (ICARIA-MM): IsPd vs Pd</t>
+  </si>
+  <si>
+    <t>Bahlis 2020 (POLLUX): DRd vs Rd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2013 (VANTAGE 088): VorV vs V</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2016 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-3): EPd vs Pd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2020 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2021 (APOLLO): DPd vs Pd</t>
+  </si>
+  <si>
+    <t>Grosicki 2020 (BOSTON): SeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Hou 2017 (China Cont.): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>Jakubowiak 2016 (NCT01478048): EVd vs Vd</t>
+  </si>
+  <si>
+    <t>Kumar 2020 (BELLINI): VeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Lu 2021 (LEPUS): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Mateos 2020 (CASTOR): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Moreau 2021 (IKEMA): IsKd vs Kd</t>
+  </si>
+  <si>
+    <t>Orlowski 2019 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2019 (OPTIMISMM): PVd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2021 (TOURMALINE-MM1): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2014 (PANORAMA-1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2016 (PANORAMA 1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2013 (MM-003): Pd vs GC</t>
+  </si>
+  <si>
+    <t>Siegel 2018 (ASPIRE): KRd vs Rd</t>
+  </si>
+  <si>
+    <t>Usamani 2022 (CANDOR): DKd vs Kd</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;=3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&gt;=2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Lower 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>Upper 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t>Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      AT 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t>Data Extraction Errors</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Study: Treatment 1 vs Treatment 2</t>
+  </si>
+  <si>
+    <t>Attal 2019 (ICARIA-MM): IsPd vs Pd</t>
+  </si>
+  <si>
+    <t>Bahlis 2020 (POLLUX): DRd vs Rd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2013 (VANTAGE 088): VorV vs V</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2016 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2018 (ELOQUENT-3): EPd vs Pd</t>
+  </si>
+  <si>
+    <t>Dimopoulos 2021 (APOLLO): DPd vs Pd</t>
+  </si>
+  <si>
+    <t>Hou 2017 (China Cont.): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>Jakubowiak 2016 (NCT01478048): EVd vs Vd</t>
+  </si>
+  <si>
+    <t>Kumar 2020 (BELLINI): VeVd vs Vd</t>
+  </si>
+  <si>
+    <t>Lonial 2015 (ELOQUENT-2): ELd vs Ld</t>
+  </si>
+  <si>
+    <t>Lu 2021 (LEPUS): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Mateos 2020 (CASTOR): DVd vs Vd</t>
+  </si>
+  <si>
+    <t>Moreau 2021 (IKEMA): IsKd vs Kd</t>
+  </si>
+  <si>
+    <t>Orlowski 2007 (NCT00103506): V vs DoxV</t>
+  </si>
+  <si>
+    <t>Orlowski 2016 (NCT00103506): V vs DoxV</t>
+  </si>
+  <si>
+    <t>Orlowski 2019 (ENDEAVOR): Kd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2019 (OPTIMISMM): PVd vs Vd</t>
+  </si>
+  <si>
+    <t>Richardson 2021 (TOURMALINE-MM1): IRd vs Rd</t>
+  </si>
+  <si>
+    <t>San-Miguel 2016 (PANORAMA 1): FVd vs Vd</t>
+  </si>
+  <si>
+    <t>Stewart 2015 (ASPIRE): KRd vs Rd</t>
+  </si>
+  <si>
+    <t>Usmani 2022 (CANDOR): DKd vs Kd</t>
+  </si>
+  <si>
+    <t>refract</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Ref. to R and a PI</t>
+  </si>
+  <si>
+    <t>Not ref. to R and a PI</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No IMiD use</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Previous R or T use</t>
+  </si>
+  <si>
+    <t>No previous R or T use</t>
+  </si>
+  <si>
+    <t>Previous R or T use</t>
+  </si>
+  <si>
+    <t>No previous R or T use</t>
+  </si>
+  <si>
+    <t>Previous R use</t>
+  </si>
+  <si>
+    <t>No previous R use</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Refractory to T</t>
+  </si>
+  <si>
+    <t>Not refractory to T</t>
+  </si>
+  <si>
+    <t>Previous IMiD use</t>
+  </si>
+  <si>
+    <t>No previous IMiD use</t>
+  </si>
+  <si>
+    <t>Refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Not refractory to IMiD</t>
+  </si>
+  <si>
+    <t>Refractory to R</t>
+  </si>
+  <si>
+    <t>Not refractory to R</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Lower 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>Upper 95% CI Bound on HR</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0230</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .       Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tab. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      p. 808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fig. 3</t>
+  </si>
+  <si>
+    <t>Data Extraction Errors</t>
   </si>
   <si>
     <t/>
@@ -115768,42 +119008,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>38208</v>
+        <v>39288</v>
       </c>
       <c r="B1" t="s">
-        <v>38232</v>
+        <v>39312</v>
       </c>
       <c r="C1" t="s">
-        <v>38296</v>
+        <v>39376</v>
       </c>
       <c r="D1" t="s">
-        <v>38312</v>
+        <v>39392</v>
       </c>
       <c r="E1" t="s">
-        <v>38313</v>
+        <v>39393</v>
       </c>
       <c r="F1" t="s">
-        <v>38314</v>
+        <v>39394</v>
       </c>
       <c r="G1" t="s">
-        <v>38315</v>
+        <v>39395</v>
       </c>
       <c r="H1" t="s">
-        <v>38316</v>
+        <v>39396</v>
       </c>
       <c r="I1" t="s">
-        <v>38340</v>
+        <v>39420</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>38209</v>
+        <v>39289</v>
       </c>
       <c r="B2" t="s">
-        <v>38233</v>
+        <v>39313</v>
       </c>
       <c r="C2" t="s">
-        <v>38297</v>
+        <v>39377</v>
       </c>
       <c r="D2" s="1">
         <v>0.5899999737739563</v>
@@ -115816,21 +119056,21 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" t="s">
-        <v>38317</v>
+        <v>39397</v>
       </c>
       <c r="I2" t="s">
-        <v>38341</v>
+        <v>39421</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>38209</v>
+        <v>39289</v>
       </c>
       <c r="B3" t="s">
-        <v>38234</v>
+        <v>39314</v>
       </c>
       <c r="C3" t="s">
-        <v>38297</v>
+        <v>39377</v>
       </c>
       <c r="D3" s="1">
         <v>0.5899999737739563</v>
@@ -115843,21 +119083,21 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" t="s">
-        <v>38317</v>
+        <v>39397</v>
       </c>
       <c r="I3" t="s">
-        <v>38342</v>
+        <v>39422</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>38210</v>
+        <v>39290</v>
       </c>
       <c r="B4" t="s">
-        <v>38235</v>
+        <v>39315</v>
       </c>
       <c r="C4" t="s">
-        <v>38297</v>
+        <v>39377</v>
       </c>
       <c r="D4" s="1">
         <v>0.41999998688697815</v>
@@ -115870,21 +119110,21 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" t="s">
-        <v>38318</v>
+        <v>39398</v>
       </c>
       <c r="I4" t="s">
-        <v>38343</v>
+        <v>39423</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>38210</v>
+        <v>39290</v>
       </c>
       <c r="B5" t="s">
-        <v>38236</v>
+        <v>39316</v>
       </c>
       <c r="C5" t="s">
-        <v>38297</v>
+        <v>39377</v>
       </c>
       <c r="D5" s="1">
         <v>0.38999998569488525</v>
@@ -115897,21 +119137,21 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" t="s">
-        <v>38318</v>
+        <v>39398</v>
       </c>
       <c r="I5" t="s">
-        <v>38344</v>
+        <v>39424</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>38210</v>
+        <v>39290</v>
       </c>
       <c r="B6" t="s">
-        <v>38237</v>
+        <v>39317</v>
       </c>
       <c r="C6" t="s">
-        <v>38297</v>
+        <v>39377</v>
       </c>
       <c r="D6" s="1">
         <v>0.47999998927116394</v>
@@ -115924,21 +119164,21 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" t="s">
-        <v>38318</v>
+        <v>39398</v>
       </c>
       <c r="I6" t="s">
-        <v>38345</v>
+        <v>39425</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>38210</v>
+        <v>39290</v>
       </c>
       <c r="B7" t="s">
-        <v>38238</v>
+        <v>39318</v>
       </c>
       <c r="C7" t="s">
-        <v>38297</v>
+        <v>39377</v>
       </c>
       <c r="D7" s="1">
         <v>0.74000000953674316</v>
@@ -115951,21 +119191,21 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" t="s">
-        <v>38318</v>
+        <v>39398</v>
       </c>
       <c r="I7" t="s">
-        <v>38346</v>
+        <v>39426</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>38211</v>
+        <v>39291</v>
       </c>
       <c r="B8" t="s">
-        <v>38239</v>
+        <v>39319</v>
       </c>
       <c r="C8" t="s">
-        <v>38297</v>
+        <v>39377</v>
       </c>
       <c r="D8" s="1">
         <v>0.68699997663497925</v>
@@ -115980,21 +119220,21 @@
         <v>0.015200000256299973</v>
       </c>
       <c r="H8" t="s">
-        <v>38319</v>
+        <v>39399</v>
       </c>
       <c r="I8" t="s">
-        <v>38347</v>
+        <v>39427</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>38211</v>
+        <v>39291</v>
       </c>
       <c r="B9" t="s">
-        <v>38240</v>
+        <v>39320</v>
       </c>
       <c r="C9" t="s">
-        <v>38297</v>
+        <v>39377</v>
       </c>
       <c r="D9" s="1">
         <v>0.91600000858306885</v>
@@ -116009,21 +119249,21 @@
         <v>0.48710000514984131</v>
       </c>
       <c r="H9" t="s">
-        <v>38320</v>
+        <v>39400</v>
       </c>
       <c r="I9" t="s">
-        <v>38348</v>
+        <v>39428</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>38212</v>
+        <v>39292</v>
       </c>
       <c r="B10" t="s">
-        <v>38241</v>
+        <v>39321</v>
       </c>
       <c r="C10" t="s">
-        <v>38297</v>
+        <v>39377</v>
       </c>
       <c r="D10" s="1">
         <v>0.44999998807907104</v>
@@ -116036,21 +119276,21 @@
       </c>
       <c r="G10" s="1"/>
       <c r="H10" t="s">
-        <v>38321</v>
+        <v>39401</v>
       </c>
       <c r="I10" t="s">
-        <v>38349</v>
+        <v>39429</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38212</v>
+        <v>39292</v>
       </c>
       <c r="B11" t="s">
-        <v>38242</v>
+        <v>39322</v>
       </c>
       <c r="C11" t="s">
-        <v>38297</v>
+        <v>39377</v>
       </c>
       <c r="D11" s="1">
         <v>0.60000002384185791</v>
@@ -116063,21 +119303,21 @@
       </c>
       <c r="G11" s="1"/>
       <c r="H11" t="s">
-        <v>38321</v>
+        <v>39401</v>
       </c>
       <c r="I11" t="s">
-        <v>38350</v>
+        <v>39430</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>38213</v>
+        <v>39293</v>
       </c>
       <c r="B12" t="s">
-        <v>38242</v>
+        <v>39322</v>
       </c>
       <c r="C12" t="s">
-        <v>38297</v>
+        <v>39377</v>
       </c>
       <c r="D12" s="1">
         <v>0.55000001192092896</v>
@@ -116090,21 +119330,21 @@
       </c>
       <c r="G12" s="1"/>
       <c r="H12" t="s">
-        <v>38322</v>
+        <v>39402</v>
       </c>
       <c r="I12" t="s">
-        <v>38351</v>
+        <v>39431</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>38213</v>
+        <v>39293</v>
       </c>
       <c r="B13" t="s">
-        <v>38243</v>
+        <v>39323</v>
       </c>
       <c r="C13" t="s">
-        <v>38297</v>
+        <v>39377</v>
       </c>
       <c r="D13" s="1">
         <v>0.50999999046325684</v>
@@ -116117,21 +119357,21 @@
       </c>
       <c r="G13" s="1"/>
       <c r="H13" t="s">
-        <v>38322</v>
+        <v>39402</v>
       </c>
       <c r="I13" t="s">
-        <v>38352</v>
+        <v>39432</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>38214</v>
+        <v>39294</v>
       </c>
       <c r="B14" t="s">
-        <v>38244</v>
+        <v>39324</v>
       </c>
       <c r="C14" t="s">
-        <v>38297</v>
+        <v>39377</v>
       </c>
       <c r="D14" s="1">
         <v>0.76999998092651367</v>
@@ -116144,21 +119384,21 @@
       </c>
       <c r="G14" s="1"/>
       <c r="H14" t="s">
-        <v>38323</v>
+        <v>39403</v>
       </c>
       <c r="I14" t="s">
-        <v>38353</v>
+        <v>39433</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>38214</v>
+        <v>39294</v>
       </c>
       <c r="B15" t="s">
-        <v>38245</v>
+        <v>39325</v>
       </c>
       <c r="C15" t="s">
-        <v>38297</v>
+        <v>39377</v>
       </c>
       <c r="D15" s="1">
         <v>0.68000000715255737</v>
@@ -116171,21 +119411,21 @@
       </c>
       <c r="G15" s="1"/>
       <c r="H15" t="s">
-        <v>38323</v>
+        <v>39403</v>
       </c>
       <c r="I15" t="s">
-        <v>38354</v>
+        <v>39434</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>38215</v>
+        <v>39295</v>
       </c>
       <c r="B16" t="s">
-        <v>38246</v>
+        <v>39326</v>
       </c>
       <c r="C16" t="s">
-        <v>38298</v>
+        <v>39378</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -116198,21 +119438,21 @@
       </c>
       <c r="G16" s="1"/>
       <c r="H16" t="s">
-        <v>38323</v>
+        <v>39403</v>
       </c>
       <c r="I16" t="s">
-        <v>38355</v>
+        <v>39435</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>38215</v>
+        <v>39295</v>
       </c>
       <c r="B17" t="s">
-        <v>38247</v>
+        <v>39327</v>
       </c>
       <c r="C17" t="s">
-        <v>38298</v>
+        <v>39378</v>
       </c>
       <c r="D17" s="1">
         <v>0.70999997854232788</v>
@@ -116225,21 +119465,21 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" t="s">
-        <v>38323</v>
+        <v>39403</v>
       </c>
       <c r="I17" t="s">
-        <v>38356</v>
+        <v>39436</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>38216</v>
+        <v>39296</v>
       </c>
       <c r="B18" t="s">
-        <v>38248</v>
+        <v>39328</v>
       </c>
       <c r="C18" t="s">
-        <v>38299</v>
+        <v>39379</v>
       </c>
       <c r="D18" s="1">
         <v>0.69999998807907104</v>
@@ -116252,21 +119492,21 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18" t="s">
-        <v>38324</v>
+        <v>39404</v>
       </c>
       <c r="I18" t="s">
-        <v>38357</v>
+        <v>39437</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>38216</v>
+        <v>39296</v>
       </c>
       <c r="B19" t="s">
-        <v>38249</v>
+        <v>39329</v>
       </c>
       <c r="C19" t="s">
-        <v>38299</v>
+        <v>39379</v>
       </c>
       <c r="D19" s="1">
         <v>0.6600000262260437</v>
@@ -116279,21 +119519,21 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" t="s">
-        <v>38324</v>
+        <v>39404</v>
       </c>
       <c r="I19" t="s">
-        <v>38358</v>
+        <v>39438</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>38216</v>
+        <v>39296</v>
       </c>
       <c r="B20" t="s">
-        <v>38250</v>
+        <v>39330</v>
       </c>
       <c r="C20" t="s">
-        <v>38299</v>
+        <v>39379</v>
       </c>
       <c r="D20" s="1">
         <v>0.40000000596046448</v>
@@ -116306,21 +119546,21 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" t="s">
-        <v>38324</v>
+        <v>39404</v>
       </c>
       <c r="I20" t="s">
-        <v>38359</v>
+        <v>39439</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>38217</v>
+        <v>39297</v>
       </c>
       <c r="B21" t="s">
-        <v>38251</v>
+        <v>39331</v>
       </c>
       <c r="C21" t="s">
-        <v>38299</v>
+        <v>39379</v>
       </c>
       <c r="D21" s="1">
         <v>0.62999999523162842</v>
@@ -116333,21 +119573,21 @@
       </c>
       <c r="G21" s="1"/>
       <c r="H21" t="s">
-        <v>38325</v>
+        <v>39405</v>
       </c>
       <c r="I21" t="s">
-        <v>38360</v>
+        <v>39440</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>38217</v>
+        <v>39297</v>
       </c>
       <c r="B22" t="s">
-        <v>38252</v>
+        <v>39332</v>
       </c>
       <c r="C22" t="s">
-        <v>38299</v>
+        <v>39379</v>
       </c>
       <c r="D22" s="1">
         <v>0.64999997615814209</v>
@@ -116360,21 +119600,21 @@
       </c>
       <c r="G22" s="1"/>
       <c r="H22" t="s">
-        <v>38325</v>
+        <v>39405</v>
       </c>
       <c r="I22" t="s">
-        <v>38361</v>
+        <v>39441</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>38217</v>
+        <v>39297</v>
       </c>
       <c r="B23" t="s">
-        <v>38253</v>
+        <v>39333</v>
       </c>
       <c r="C23" t="s">
-        <v>38299</v>
+        <v>39379</v>
       </c>
       <c r="D23" s="1">
         <v>0.81999999284744263</v>
@@ -116387,21 +119627,21 @@
       </c>
       <c r="G23" s="1"/>
       <c r="H23" t="s">
-        <v>38325</v>
+        <v>39405</v>
       </c>
       <c r="I23" t="s">
-        <v>38362</v>
+        <v>39442</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>38218</v>
+        <v>39298</v>
       </c>
       <c r="B24" t="s">
-        <v>38254</v>
+        <v>39334</v>
       </c>
       <c r="C24" t="s">
-        <v>38299</v>
+        <v>39379</v>
       </c>
       <c r="D24" s="1">
         <v>0.84700000286102295</v>
@@ -116414,21 +119654,21 @@
       </c>
       <c r="G24" s="1"/>
       <c r="H24" t="s">
-        <v>38326</v>
+        <v>39406</v>
       </c>
       <c r="I24" t="s">
-        <v>38363</v>
+        <v>39443</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>38218</v>
+        <v>39298</v>
       </c>
       <c r="B25" t="s">
-        <v>38255</v>
+        <v>39335</v>
       </c>
       <c r="C25" t="s">
-        <v>38299</v>
+        <v>39379</v>
       </c>
       <c r="D25" s="1">
         <v>0.37000000476837158</v>
@@ -116441,21 +119681,21 @@
       </c>
       <c r="G25" s="1"/>
       <c r="H25" t="s">
-        <v>38326</v>
+        <v>39406</v>
       </c>
       <c r="I25" t="s">
-        <v>38364</v>
+        <v>39444</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>38218</v>
+        <v>39298</v>
       </c>
       <c r="B26" t="s">
-        <v>38256</v>
+        <v>39336</v>
       </c>
       <c r="C26" t="s">
-        <v>38299</v>
+        <v>39379</v>
       </c>
       <c r="D26" s="1">
         <v>0.70200002193450928</v>
@@ -116468,21 +119708,21 @@
       </c>
       <c r="G26" s="1"/>
       <c r="H26" t="s">
-        <v>38326</v>
+        <v>39406</v>
       </c>
       <c r="I26" t="s">
-        <v>38365</v>
+        <v>39445</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>38218</v>
+        <v>39298</v>
       </c>
       <c r="B27" t="s">
-        <v>38257</v>
+        <v>39337</v>
       </c>
       <c r="C27" t="s">
-        <v>38300</v>
+        <v>39380</v>
       </c>
       <c r="D27" s="1">
         <v>0.52100002765655518</v>
@@ -116495,21 +119735,21 @@
       </c>
       <c r="G27" s="1"/>
       <c r="H27" t="s">
-        <v>38327</v>
+        <v>39407</v>
       </c>
       <c r="I27" t="s">
-        <v>38366</v>
+        <v>39446</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>38218</v>
+        <v>39298</v>
       </c>
       <c r="B28" t="s">
-        <v>38258</v>
+        <v>39338</v>
       </c>
       <c r="C28" t="s">
-        <v>38300</v>
+        <v>39380</v>
       </c>
       <c r="D28" s="1">
         <v>0.38600000739097595</v>
@@ -116522,21 +119762,21 @@
       </c>
       <c r="G28" s="1"/>
       <c r="H28" t="s">
-        <v>38327</v>
+        <v>39407</v>
       </c>
       <c r="I28" t="s">
-        <v>38367</v>
+        <v>39447</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>38218</v>
+        <v>39298</v>
       </c>
       <c r="B29" t="s">
-        <v>38259</v>
+        <v>39339</v>
       </c>
       <c r="C29" t="s">
-        <v>38300</v>
+        <v>39380</v>
       </c>
       <c r="D29" s="1">
         <v>0.335999995470047</v>
@@ -116549,21 +119789,21 @@
       </c>
       <c r="G29" s="1"/>
       <c r="H29" t="s">
-        <v>38327</v>
+        <v>39407</v>
       </c>
       <c r="I29" t="s">
-        <v>38368</v>
+        <v>39448</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>38219</v>
+        <v>39299</v>
       </c>
       <c r="B30" t="s">
-        <v>38260</v>
+        <v>39340</v>
       </c>
       <c r="C30" t="s">
-        <v>38301</v>
+        <v>39381</v>
       </c>
       <c r="D30" s="1">
         <v>0.68000000715255737</v>
@@ -116576,21 +119816,21 @@
       </c>
       <c r="G30" s="1"/>
       <c r="H30" t="s">
-        <v>38328</v>
+        <v>39408</v>
       </c>
       <c r="I30" t="s">
-        <v>38369</v>
+        <v>39449</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>38219</v>
+        <v>39299</v>
       </c>
       <c r="B31" t="s">
-        <v>38261</v>
+        <v>39341</v>
       </c>
       <c r="C31" t="s">
-        <v>38301</v>
+        <v>39381</v>
       </c>
       <c r="D31" s="1">
         <v>0.72000002861022949</v>
@@ -116603,21 +119843,21 @@
       </c>
       <c r="G31" s="1"/>
       <c r="H31" t="s">
-        <v>38328</v>
+        <v>39408</v>
       </c>
       <c r="I31" t="s">
-        <v>38370</v>
+        <v>39450</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>38220</v>
+        <v>39300</v>
       </c>
       <c r="B32" t="s">
-        <v>38262</v>
+        <v>39342</v>
       </c>
       <c r="C32" t="s">
-        <v>38301</v>
+        <v>39381</v>
       </c>
       <c r="D32" s="1">
         <v>0.75</v>
@@ -116630,21 +119870,21 @@
       </c>
       <c r="G32" s="1"/>
       <c r="H32" t="s">
-        <v>38329</v>
+        <v>39409</v>
       </c>
       <c r="I32" t="s">
-        <v>38371</v>
+        <v>39451</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>38220</v>
+        <v>39300</v>
       </c>
       <c r="B33" t="s">
-        <v>38263</v>
+        <v>39343</v>
       </c>
       <c r="C33" t="s">
-        <v>38301</v>
+        <v>39381</v>
       </c>
       <c r="D33" s="1">
         <v>0.54000002145767212</v>
@@ -116657,21 +119897,21 @@
       </c>
       <c r="G33" s="1"/>
       <c r="H33" t="s">
-        <v>38329</v>
+        <v>39409</v>
       </c>
       <c r="I33" t="s">
-        <v>38372</v>
+        <v>39452</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>38220</v>
+        <v>39300</v>
       </c>
       <c r="B34" t="s">
-        <v>38264</v>
+        <v>39344</v>
       </c>
       <c r="C34" t="s">
-        <v>38302</v>
+        <v>39382</v>
       </c>
       <c r="D34" s="1">
         <v>1.6699999570846558</v>
@@ -116684,21 +119924,21 @@
       </c>
       <c r="G34" s="1"/>
       <c r="H34" t="s">
-        <v>38330</v>
+        <v>39410</v>
       </c>
       <c r="I34" t="s">
-        <v>38373</v>
+        <v>39453</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>38220</v>
+        <v>39300</v>
       </c>
       <c r="B35" t="s">
-        <v>38265</v>
+        <v>39345</v>
       </c>
       <c r="C35" t="s">
-        <v>38302</v>
+        <v>39382</v>
       </c>
       <c r="D35" s="1">
         <v>2.3299999237060547</v>
@@ -116711,21 +119951,21 @@
       </c>
       <c r="G35" s="1"/>
       <c r="H35" t="s">
-        <v>38330</v>
+        <v>39410</v>
       </c>
       <c r="I35" t="s">
-        <v>38374</v>
+        <v>39454</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>38221</v>
+        <v>39301</v>
       </c>
       <c r="B36" t="s">
-        <v>38266</v>
+        <v>39346</v>
       </c>
       <c r="C36" t="s">
-        <v>38303</v>
+        <v>39383</v>
       </c>
       <c r="D36" s="1">
         <v>0.15999999642372131</v>
@@ -116738,21 +119978,21 @@
       </c>
       <c r="G36" s="1"/>
       <c r="H36" t="s">
-        <v>38331</v>
+        <v>39411</v>
       </c>
       <c r="I36" t="s">
-        <v>38375</v>
+        <v>39455</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>38221</v>
+        <v>39301</v>
       </c>
       <c r="B37" t="s">
-        <v>38267</v>
+        <v>39347</v>
       </c>
       <c r="C37" t="s">
-        <v>38303</v>
+        <v>39383</v>
       </c>
       <c r="D37" s="1">
         <v>0.51999998092651367</v>
@@ -116765,21 +120005,21 @@
       </c>
       <c r="G37" s="1"/>
       <c r="H37" t="s">
-        <v>38331</v>
+        <v>39411</v>
       </c>
       <c r="I37" t="s">
-        <v>38376</v>
+        <v>39456</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>38221</v>
+        <v>39301</v>
       </c>
       <c r="B38" t="s">
-        <v>38268</v>
+        <v>39348</v>
       </c>
       <c r="C38" t="s">
-        <v>38303</v>
+        <v>39383</v>
       </c>
       <c r="D38" s="1">
         <v>0.62999999523162842</v>
@@ -116792,21 +120032,21 @@
       </c>
       <c r="G38" s="1"/>
       <c r="H38" t="s">
-        <v>38331</v>
+        <v>39411</v>
       </c>
       <c r="I38" t="s">
-        <v>38377</v>
+        <v>39457</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>38221</v>
+        <v>39301</v>
       </c>
       <c r="B39" t="s">
-        <v>38269</v>
+        <v>39349</v>
       </c>
       <c r="C39" t="s">
-        <v>38303</v>
+        <v>39383</v>
       </c>
       <c r="D39" s="1">
         <v>0.25999999046325684</v>
@@ -116819,21 +120059,21 @@
       </c>
       <c r="G39" s="1"/>
       <c r="H39" t="s">
-        <v>38331</v>
+        <v>39411</v>
       </c>
       <c r="I39" t="s">
-        <v>38378</v>
+        <v>39458</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>38222</v>
+        <v>39302</v>
       </c>
       <c r="B40" t="s">
-        <v>38270</v>
+        <v>39350</v>
       </c>
       <c r="C40" t="s">
-        <v>38303</v>
+        <v>39383</v>
       </c>
       <c r="D40" s="1">
         <v>0.2199999988079071</v>
@@ -116846,21 +120086,21 @@
       </c>
       <c r="G40" s="1"/>
       <c r="H40" t="s">
-        <v>38331</v>
+        <v>39411</v>
       </c>
       <c r="I40" t="s">
-        <v>38379</v>
+        <v>39459</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>38222</v>
+        <v>39302</v>
       </c>
       <c r="B41" t="s">
-        <v>38271</v>
+        <v>39351</v>
       </c>
       <c r="C41" t="s">
-        <v>38303</v>
+        <v>39383</v>
       </c>
       <c r="D41" s="1">
         <v>0.46000000834465027</v>
@@ -116873,21 +120113,21 @@
       </c>
       <c r="G41" s="1"/>
       <c r="H41" t="s">
-        <v>38331</v>
+        <v>39411</v>
       </c>
       <c r="I41" t="s">
-        <v>38380</v>
+        <v>39460</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>38222</v>
+        <v>39302</v>
       </c>
       <c r="B42" t="s">
-        <v>38272</v>
+        <v>39352</v>
       </c>
       <c r="C42" t="s">
-        <v>38303</v>
+        <v>39383</v>
       </c>
       <c r="D42" s="1">
         <v>0.60000002384185791</v>
@@ -116900,21 +120140,21 @@
       </c>
       <c r="G42" s="1"/>
       <c r="H42" t="s">
-        <v>38331</v>
+        <v>39411</v>
       </c>
       <c r="I42" t="s">
-        <v>38381</v>
+        <v>39461</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>38222</v>
+        <v>39302</v>
       </c>
       <c r="B43" t="s">
-        <v>38273</v>
+        <v>39353</v>
       </c>
       <c r="C43" t="s">
-        <v>38303</v>
+        <v>39383</v>
       </c>
       <c r="D43" s="1">
         <v>0.37000000476837158</v>
@@ -116927,21 +120167,21 @@
       </c>
       <c r="G43" s="1"/>
       <c r="H43" t="s">
-        <v>38331</v>
+        <v>39411</v>
       </c>
       <c r="I43" t="s">
-        <v>38382</v>
+        <v>39462</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>38223</v>
+        <v>39303</v>
       </c>
       <c r="B44" t="s">
-        <v>38274</v>
+        <v>39354</v>
       </c>
       <c r="C44" t="s">
-        <v>38303</v>
+        <v>39383</v>
       </c>
       <c r="D44" s="1">
         <v>0.5899999737739563</v>
@@ -116954,21 +120194,21 @@
       </c>
       <c r="G44" s="1"/>
       <c r="H44" t="s">
-        <v>38332</v>
+        <v>39412</v>
       </c>
       <c r="I44" t="s">
-        <v>38383</v>
+        <v>39463</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>38223</v>
+        <v>39303</v>
       </c>
       <c r="B45" t="s">
-        <v>38275</v>
+        <v>39355</v>
       </c>
       <c r="C45" t="s">
-        <v>38303</v>
+        <v>39383</v>
       </c>
       <c r="D45" s="1">
         <v>0.47999998927116394</v>
@@ -116981,21 +120221,21 @@
       </c>
       <c r="G45" s="1"/>
       <c r="H45" t="s">
-        <v>38332</v>
+        <v>39412</v>
       </c>
       <c r="I45" t="s">
-        <v>38384</v>
+        <v>39464</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>38224</v>
+        <v>39304</v>
       </c>
       <c r="B46" t="s">
-        <v>38276</v>
+        <v>39356</v>
       </c>
       <c r="C46" t="s">
-        <v>38304</v>
+        <v>39384</v>
       </c>
       <c r="D46" s="1">
         <v>0.77100002765655518</v>
@@ -117008,21 +120248,21 @@
       </c>
       <c r="G46" s="1"/>
       <c r="H46" t="s">
-        <v>38332</v>
+        <v>39412</v>
       </c>
       <c r="I46" t="s">
-        <v>38385</v>
+        <v>39465</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>38224</v>
+        <v>39304</v>
       </c>
       <c r="B47" t="s">
-        <v>38277</v>
+        <v>39357</v>
       </c>
       <c r="C47" t="s">
-        <v>38304</v>
+        <v>39384</v>
       </c>
       <c r="D47" s="1">
         <v>0.75199997425079346</v>
@@ -117035,21 +120275,21 @@
       </c>
       <c r="G47" s="1"/>
       <c r="H47" t="s">
-        <v>38332</v>
+        <v>39412</v>
       </c>
       <c r="I47" t="s">
-        <v>38386</v>
+        <v>39466</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>38225</v>
+        <v>39305</v>
       </c>
       <c r="B48" t="s">
-        <v>38278</v>
+        <v>39358</v>
       </c>
       <c r="C48" t="s">
-        <v>38305</v>
+        <v>39385</v>
       </c>
       <c r="D48" s="1">
         <v>0.54000002145767212</v>
@@ -117062,21 +120302,21 @@
       </c>
       <c r="G48" s="1"/>
       <c r="H48" t="s">
-        <v>38332</v>
+        <v>39412</v>
       </c>
       <c r="I48" t="s">
-        <v>38387</v>
+        <v>39467</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>38225</v>
+        <v>39305</v>
       </c>
       <c r="B49" t="s">
-        <v>38279</v>
+        <v>39359</v>
       </c>
       <c r="C49" t="s">
-        <v>38305</v>
+        <v>39385</v>
       </c>
       <c r="D49" s="1">
         <v>0.67000001668930054</v>
@@ -117089,21 +120329,21 @@
       </c>
       <c r="G49" s="1"/>
       <c r="H49" t="s">
-        <v>38332</v>
+        <v>39412</v>
       </c>
       <c r="I49" t="s">
-        <v>38388</v>
+        <v>39468</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>38225</v>
+        <v>39305</v>
       </c>
       <c r="B50" t="s">
-        <v>38280</v>
+        <v>39360</v>
       </c>
       <c r="C50" t="s">
-        <v>38305</v>
+        <v>39385</v>
       </c>
       <c r="D50" s="1">
         <v>0.60000002384185791</v>
@@ -117116,21 +120356,21 @@
       </c>
       <c r="G50" s="1"/>
       <c r="H50" t="s">
-        <v>38332</v>
+        <v>39412</v>
       </c>
       <c r="I50" t="s">
-        <v>38389</v>
+        <v>39469</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>38226</v>
+        <v>39306</v>
       </c>
       <c r="B51" t="s">
-        <v>38281</v>
+        <v>39361</v>
       </c>
       <c r="C51" t="s">
-        <v>38306</v>
+        <v>39386</v>
       </c>
       <c r="D51" s="1">
         <v>0.97600001096725464</v>
@@ -117143,21 +120383,21 @@
       </c>
       <c r="G51" s="1"/>
       <c r="H51" t="s">
-        <v>38333</v>
+        <v>39413</v>
       </c>
       <c r="I51" t="s">
-        <v>38390</v>
+        <v>39470</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>38226</v>
+        <v>39306</v>
       </c>
       <c r="B52" t="s">
-        <v>38282</v>
+        <v>39362</v>
       </c>
       <c r="C52" t="s">
-        <v>38306</v>
+        <v>39386</v>
       </c>
       <c r="D52" s="1">
         <v>0.92599999904632568</v>
@@ -117170,21 +120410,21 @@
       </c>
       <c r="G52" s="1"/>
       <c r="H52" t="s">
-        <v>38333</v>
+        <v>39413</v>
       </c>
       <c r="I52" t="s">
-        <v>38391</v>
+        <v>39471</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>38226</v>
+        <v>39306</v>
       </c>
       <c r="B53" t="s">
-        <v>38283</v>
+        <v>39363</v>
       </c>
       <c r="C53" t="s">
-        <v>38306</v>
+        <v>39386</v>
       </c>
       <c r="D53" s="1">
         <v>0.88300001621246338</v>
@@ -117197,21 +120437,21 @@
       </c>
       <c r="G53" s="1"/>
       <c r="H53" t="s">
-        <v>38333</v>
+        <v>39413</v>
       </c>
       <c r="I53" t="s">
-        <v>38392</v>
+        <v>39472</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>38227</v>
+        <v>39307</v>
       </c>
       <c r="B54" t="s">
-        <v>38284</v>
+        <v>39364</v>
       </c>
       <c r="C54" t="s">
-        <v>38307</v>
+        <v>39387</v>
       </c>
       <c r="D54" s="1">
         <v>0.6600000262260437</v>
@@ -117224,21 +120464,21 @@
       </c>
       <c r="G54" s="1"/>
       <c r="H54" t="s">
-        <v>38334</v>
+        <v>39414</v>
       </c>
       <c r="I54" t="s">
-        <v>38393</v>
+        <v>39473</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>38227</v>
+        <v>39307</v>
       </c>
       <c r="B55" t="s">
-        <v>38285</v>
+        <v>39365</v>
       </c>
       <c r="C55" t="s">
-        <v>38307</v>
+        <v>39387</v>
       </c>
       <c r="D55" s="1">
         <v>0.63999998569488525</v>
@@ -117251,21 +120491,21 @@
       </c>
       <c r="G55" s="1"/>
       <c r="H55" t="s">
-        <v>38334</v>
+        <v>39414</v>
       </c>
       <c r="I55" t="s">
-        <v>38394</v>
+        <v>39474</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>38228</v>
+        <v>39308</v>
       </c>
       <c r="B56" t="s">
-        <v>38286</v>
+        <v>39366</v>
       </c>
       <c r="C56" t="s">
-        <v>38308</v>
+        <v>39388</v>
       </c>
       <c r="D56" s="1">
         <v>0.89999997615814209</v>
@@ -117278,21 +120518,21 @@
       </c>
       <c r="G56" s="1"/>
       <c r="H56" t="s">
-        <v>38335</v>
+        <v>39415</v>
       </c>
       <c r="I56" t="s">
-        <v>38395</v>
+        <v>39475</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>38228</v>
+        <v>39308</v>
       </c>
       <c r="B57" t="s">
-        <v>38287</v>
+        <v>39367</v>
       </c>
       <c r="C57" t="s">
-        <v>38308</v>
+        <v>39388</v>
       </c>
       <c r="D57" s="1">
         <v>0.95999997854232788</v>
@@ -117305,21 +120545,21 @@
       </c>
       <c r="G57" s="1"/>
       <c r="H57" t="s">
-        <v>38335</v>
+        <v>39415</v>
       </c>
       <c r="I57" t="s">
-        <v>38396</v>
+        <v>39476</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>38229</v>
+        <v>39309</v>
       </c>
       <c r="B58" t="s">
-        <v>38288</v>
+        <v>39368</v>
       </c>
       <c r="C58" t="s">
-        <v>38309</v>
+        <v>39389</v>
       </c>
       <c r="D58" s="1">
         <v>0.4699999988079071</v>
@@ -117332,21 +120572,21 @@
       </c>
       <c r="G58" s="1"/>
       <c r="H58" t="s">
-        <v>38336</v>
+        <v>39416</v>
       </c>
       <c r="I58" t="s">
-        <v>38397</v>
+        <v>39477</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>38229</v>
+        <v>39309</v>
       </c>
       <c r="B59" t="s">
-        <v>38289</v>
+        <v>39369</v>
       </c>
       <c r="C59" t="s">
-        <v>38309</v>
+        <v>39389</v>
       </c>
       <c r="D59" s="1">
         <v>0.47999998927116394</v>
@@ -117359,21 +120599,21 @@
       </c>
       <c r="G59" s="1"/>
       <c r="H59" t="s">
-        <v>38336</v>
+        <v>39416</v>
       </c>
       <c r="I59" t="s">
-        <v>38398</v>
+        <v>39478</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>38229</v>
+        <v>39309</v>
       </c>
       <c r="B60" t="s">
-        <v>38290</v>
+        <v>39370</v>
       </c>
       <c r="C60" t="s">
-        <v>38310</v>
+        <v>39390</v>
       </c>
       <c r="D60" s="1">
         <v>0.43999999761581421</v>
@@ -117386,21 +120626,21 @@
       </c>
       <c r="G60" s="1"/>
       <c r="H60" t="s">
-        <v>38337</v>
+        <v>39417</v>
       </c>
       <c r="I60" t="s">
-        <v>38399</v>
+        <v>39479</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>38229</v>
+        <v>39309</v>
       </c>
       <c r="B61" t="s">
-        <v>38291</v>
+        <v>39371</v>
       </c>
       <c r="C61" t="s">
-        <v>38310</v>
+        <v>39390</v>
       </c>
       <c r="D61" s="1">
         <v>0.75999999046325684</v>
@@ -117413,21 +120653,21 @@
       </c>
       <c r="G61" s="1"/>
       <c r="H61" t="s">
-        <v>38337</v>
+        <v>39417</v>
       </c>
       <c r="I61" t="s">
-        <v>38400</v>
+        <v>39480</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>38230</v>
+        <v>39310</v>
       </c>
       <c r="B62" t="s">
-        <v>38292</v>
+        <v>39372</v>
       </c>
       <c r="C62" t="s">
-        <v>38310</v>
+        <v>39390</v>
       </c>
       <c r="D62" s="1">
         <v>0.81000000238418579</v>
@@ -117440,21 +120680,21 @@
       </c>
       <c r="G62" s="1"/>
       <c r="H62" t="s">
-        <v>38338</v>
+        <v>39418</v>
       </c>
       <c r="I62" t="s">
-        <v>38401</v>
+        <v>39481</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>38230</v>
+        <v>39310</v>
       </c>
       <c r="B63" t="s">
-        <v>38293</v>
+        <v>39373</v>
       </c>
       <c r="C63" t="s">
-        <v>38310</v>
+        <v>39390</v>
       </c>
       <c r="D63" s="1">
         <v>0.79000002145767212</v>
@@ -117467,21 +120707,21 @@
       </c>
       <c r="G63" s="1"/>
       <c r="H63" t="s">
-        <v>38338</v>
+        <v>39418</v>
       </c>
       <c r="I63" t="s">
-        <v>38402</v>
+        <v>39482</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>38231</v>
+        <v>39311</v>
       </c>
       <c r="B64" t="s">
-        <v>38294</v>
+        <v>39374</v>
       </c>
       <c r="C64" t="s">
-        <v>38311</v>
+        <v>39391</v>
       </c>
       <c r="D64" s="1">
         <v>0.6600000262260437</v>
@@ -117494,21 +120734,21 @@
       </c>
       <c r="G64" s="1"/>
       <c r="H64" t="s">
-        <v>38339</v>
+        <v>39419</v>
       </c>
       <c r="I64" t="s">
-        <v>38403</v>
+        <v>39483</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>38231</v>
+        <v>39311</v>
       </c>
       <c r="B65" t="s">
-        <v>38295</v>
+        <v>39375</v>
       </c>
       <c r="C65" t="s">
-        <v>38311</v>
+        <v>39391</v>
       </c>
       <c r="D65" s="1">
         <v>0.55000001192092896</v>
@@ -117521,10 +120761,10 @@
       </c>
       <c r="G65" s="1"/>
       <c r="H65" t="s">
-        <v>38339</v>
+        <v>39419</v>
       </c>
       <c r="I65" t="s">
-        <v>38404</v>
+        <v>39484</v>
       </c>
     </row>
   </sheetData>
@@ -117538,42 +120778,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>38405</v>
+        <v>39485</v>
       </c>
       <c r="B1" t="s">
-        <v>38427</v>
+        <v>39507</v>
       </c>
       <c r="C1" t="s">
-        <v>38474</v>
+        <v>39554</v>
       </c>
       <c r="D1" t="s">
-        <v>38484</v>
+        <v>39564</v>
       </c>
       <c r="E1" t="s">
-        <v>38485</v>
+        <v>39565</v>
       </c>
       <c r="F1" t="s">
-        <v>38486</v>
+        <v>39566</v>
       </c>
       <c r="G1" t="s">
-        <v>38487</v>
+        <v>39567</v>
       </c>
       <c r="H1" t="s">
-        <v>38499</v>
+        <v>39579</v>
       </c>
       <c r="I1" t="s">
-        <v>38520</v>
+        <v>39600</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>38406</v>
+        <v>39486</v>
       </c>
       <c r="B2" t="s">
-        <v>38428</v>
+        <v>39508</v>
       </c>
       <c r="C2" t="s">
-        <v>38475</v>
+        <v>39555</v>
       </c>
       <c r="D2" s="1">
         <v>0.5899999737739563</v>
@@ -117585,24 +120825,24 @@
         <v>0.81999999284744263</v>
       </c>
       <c r="G2" t="s">
-        <v>38488</v>
+        <v>39568</v>
       </c>
       <c r="H2" t="s">
-        <v>38500</v>
+        <v>39580</v>
       </c>
       <c r="I2" t="s">
-        <v>38521</v>
+        <v>39601</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>38406</v>
+        <v>39486</v>
       </c>
       <c r="B3" t="s">
-        <v>38429</v>
+        <v>39509</v>
       </c>
       <c r="C3" t="s">
-        <v>38475</v>
+        <v>39555</v>
       </c>
       <c r="D3" s="1">
         <v>0.18000000715255737</v>
@@ -117614,24 +120854,24 @@
         <v>1.4900000095367432</v>
       </c>
       <c r="G3" t="s">
-        <v>38488</v>
+        <v>39568</v>
       </c>
       <c r="H3" t="s">
-        <v>38500</v>
+        <v>39580</v>
       </c>
       <c r="I3" t="s">
-        <v>38522</v>
+        <v>39602</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>38407</v>
+        <v>39487</v>
       </c>
       <c r="B4" t="s">
-        <v>38430</v>
+        <v>39510</v>
       </c>
       <c r="C4" t="s">
-        <v>38475</v>
+        <v>39555</v>
       </c>
       <c r="D4" s="1">
         <v>0.37999999523162842</v>
@@ -117643,24 +120883,24 @@
         <v>0.6600000262260437</v>
       </c>
       <c r="G4" t="s">
-        <v>38488</v>
+        <v>39568</v>
       </c>
       <c r="H4" t="s">
-        <v>38501</v>
+        <v>39581</v>
       </c>
       <c r="I4" t="s">
-        <v>38523</v>
+        <v>39603</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>38407</v>
+        <v>39487</v>
       </c>
       <c r="B5" t="s">
-        <v>38431</v>
+        <v>39511</v>
       </c>
       <c r="C5" t="s">
-        <v>38475</v>
+        <v>39555</v>
       </c>
       <c r="D5" s="1">
         <v>0.44999998807907104</v>
@@ -117672,24 +120912,24 @@
         <v>0.57999998331069946</v>
       </c>
       <c r="G5" t="s">
-        <v>38488</v>
+        <v>39568</v>
       </c>
       <c r="H5" t="s">
-        <v>38501</v>
+        <v>39581</v>
       </c>
       <c r="I5" t="s">
-        <v>38524</v>
+        <v>39604</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>38408</v>
+        <v>39488</v>
       </c>
       <c r="B6" t="s">
-        <v>38432</v>
+        <v>39512</v>
       </c>
       <c r="C6" t="s">
-        <v>38475</v>
+        <v>39555</v>
       </c>
       <c r="D6" s="1">
         <v>0.75700002908706665</v>
@@ -117701,24 +120941,24 @@
         <v>0.96299999952316284</v>
       </c>
       <c r="G6" t="s">
-        <v>38489</v>
+        <v>39569</v>
       </c>
       <c r="H6" t="s">
-        <v>38502</v>
+        <v>39582</v>
       </c>
       <c r="I6" t="s">
-        <v>38525</v>
+        <v>39605</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>38408</v>
+        <v>39488</v>
       </c>
       <c r="B7" t="s">
-        <v>38433</v>
+        <v>39513</v>
       </c>
       <c r="C7" t="s">
-        <v>38475</v>
+        <v>39555</v>
       </c>
       <c r="D7" s="1">
         <v>0.92599999904632568</v>
@@ -117730,24 +120970,24 @@
         <v>1.2790000438690186</v>
       </c>
       <c r="G7" t="s">
-        <v>38490</v>
+        <v>39570</v>
       </c>
       <c r="H7" t="s">
-        <v>38502</v>
+        <v>39582</v>
       </c>
       <c r="I7" t="s">
-        <v>38526</v>
+        <v>39606</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>38409</v>
+        <v>39489</v>
       </c>
       <c r="B8" t="s">
-        <v>38434</v>
+        <v>39514</v>
       </c>
       <c r="C8" t="s">
-        <v>38475</v>
+        <v>39555</v>
       </c>
       <c r="D8" s="1">
         <v>0.43999999761581421</v>
@@ -117759,24 +120999,24 @@
         <v>0.56000000238418579</v>
       </c>
       <c r="G8" t="s">
-        <v>38491</v>
+        <v>39571</v>
       </c>
       <c r="H8" t="s">
-        <v>38503</v>
+        <v>39583</v>
       </c>
       <c r="I8" t="s">
-        <v>38527</v>
+        <v>39607</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>38409</v>
+        <v>39489</v>
       </c>
       <c r="B9" t="s">
-        <v>38435</v>
+        <v>39515</v>
       </c>
       <c r="C9" t="s">
-        <v>38475</v>
+        <v>39555</v>
       </c>
       <c r="D9" s="1">
         <v>0.80000001192092896</v>
@@ -117788,24 +121028,24 @@
         <v>1.1100000143051147</v>
       </c>
       <c r="G9" t="s">
-        <v>38491</v>
+        <v>39571</v>
       </c>
       <c r="H9" t="s">
-        <v>38503</v>
+        <v>39583</v>
       </c>
       <c r="I9" t="s">
-        <v>38528</v>
+        <v>39608</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>38410</v>
+        <v>39490</v>
       </c>
       <c r="B10" t="s">
-        <v>38436</v>
+        <v>39516</v>
       </c>
       <c r="C10" t="s">
-        <v>38475</v>
+        <v>39555</v>
       </c>
       <c r="D10" s="1">
         <v>0.56000000238418579</v>
@@ -117817,24 +121057,24 @@
         <v>0.97000002861022949</v>
       </c>
       <c r="G10" t="s">
-        <v>38491</v>
+        <v>39571</v>
       </c>
       <c r="H10" t="s">
-        <v>38504</v>
+        <v>39584</v>
       </c>
       <c r="I10" t="s">
-        <v>38529</v>
+        <v>39609</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38410</v>
+        <v>39490</v>
       </c>
       <c r="B11" t="s">
-        <v>38437</v>
+        <v>39517</v>
       </c>
       <c r="C11" t="s">
-        <v>38475</v>
+        <v>39555</v>
       </c>
       <c r="D11" s="1">
         <v>0.50999999046325684</v>
@@ -117846,24 +121086,24 @@
         <v>1.190000057220459</v>
       </c>
       <c r="G11" t="s">
-        <v>38491</v>
+        <v>39571</v>
       </c>
       <c r="H11" t="s">
-        <v>38504</v>
+        <v>39584</v>
       </c>
       <c r="I11" t="s">
-        <v>38530</v>
+        <v>39610</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>38411</v>
+        <v>39491</v>
       </c>
       <c r="B12" t="s">
-        <v>38438</v>
+        <v>39518</v>
       </c>
       <c r="C12" t="s">
-        <v>38475</v>
+        <v>39555</v>
       </c>
       <c r="D12" s="1">
         <v>0.6600000262260437</v>
@@ -117875,24 +121115,24 @@
         <v>0.89999997615814209</v>
       </c>
       <c r="G12" t="s">
-        <v>38491</v>
+        <v>39571</v>
       </c>
       <c r="H12" t="s">
-        <v>38505</v>
+        <v>39585</v>
       </c>
       <c r="I12" t="s">
-        <v>38531</v>
+        <v>39611</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>38411</v>
+        <v>39491</v>
       </c>
       <c r="B13" t="s">
-        <v>38439</v>
+        <v>39519</v>
       </c>
       <c r="C13" t="s">
-        <v>38475</v>
+        <v>39555</v>
       </c>
       <c r="D13" s="1">
         <v>0.36000001430511475</v>
@@ -117904,24 +121144,24 @@
         <v>0.82999998331069946</v>
       </c>
       <c r="G13" t="s">
-        <v>38491</v>
+        <v>39571</v>
       </c>
       <c r="H13" t="s">
-        <v>38505</v>
+        <v>39585</v>
       </c>
       <c r="I13" t="s">
-        <v>38532</v>
+        <v>39612</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>38412</v>
+        <v>39492</v>
       </c>
       <c r="B14" t="s">
-        <v>38440</v>
+        <v>39520</v>
       </c>
       <c r="C14" t="s">
-        <v>38475</v>
+        <v>39555</v>
       </c>
       <c r="D14" s="1">
         <v>0.55299997329711914</v>
@@ -117933,24 +121173,24 @@
         <v>0.9309999942779541</v>
       </c>
       <c r="G14" t="s">
-        <v>38492</v>
+        <v>39572</v>
       </c>
       <c r="H14" t="s">
-        <v>38506</v>
+        <v>39586</v>
       </c>
       <c r="I14" t="s">
-        <v>38533</v>
+        <v>39613</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>38412</v>
+        <v>39492</v>
       </c>
       <c r="B15" t="s">
-        <v>38441</v>
+        <v>39521</v>
       </c>
       <c r="C15" t="s">
-        <v>38475</v>
+        <v>39555</v>
       </c>
       <c r="D15" s="1">
         <v>0.76599997282028198</v>
@@ -117962,24 +121202,24 @@
         <v>3.9639999866485596</v>
       </c>
       <c r="G15" t="s">
-        <v>38492</v>
+        <v>39572</v>
       </c>
       <c r="H15" t="s">
-        <v>38506</v>
+        <v>39586</v>
       </c>
       <c r="I15" t="s">
-        <v>38534</v>
+        <v>39614</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>38412</v>
+        <v>39492</v>
       </c>
       <c r="B16" t="s">
-        <v>38442</v>
+        <v>39522</v>
       </c>
       <c r="C16" t="s">
-        <v>38476</v>
+        <v>39556</v>
       </c>
       <c r="D16" s="1">
         <v>0.39800000190734863</v>
@@ -117991,24 +121231,24 @@
         <v>0.71899998188018799</v>
       </c>
       <c r="G16" t="s">
-        <v>38492</v>
+        <v>39572</v>
       </c>
       <c r="H16" t="s">
-        <v>38507</v>
+        <v>39587</v>
       </c>
       <c r="I16" t="s">
-        <v>38535</v>
+        <v>39615</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>38412</v>
+        <v>39492</v>
       </c>
       <c r="B17" t="s">
-        <v>38443</v>
+        <v>39523</v>
       </c>
       <c r="C17" t="s">
-        <v>38476</v>
+        <v>39556</v>
       </c>
       <c r="D17" s="1">
         <v>0.49799999594688416</v>
@@ -118020,24 +121260,24 @@
         <v>2.4030001163482666</v>
       </c>
       <c r="G17" t="s">
-        <v>38492</v>
+        <v>39572</v>
       </c>
       <c r="H17" t="s">
-        <v>38507</v>
+        <v>39587</v>
       </c>
       <c r="I17" t="s">
-        <v>38536</v>
+        <v>39616</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>38413</v>
+        <v>39493</v>
       </c>
       <c r="B18" t="s">
-        <v>38444</v>
+        <v>39524</v>
       </c>
       <c r="C18" t="s">
-        <v>38477</v>
+        <v>39557</v>
       </c>
       <c r="D18" s="1">
         <v>0.87000000476837158</v>
@@ -118049,24 +121289,24 @@
         <v>1.2899999618530273</v>
       </c>
       <c r="G18" t="s">
-        <v>38493</v>
+        <v>39573</v>
       </c>
       <c r="H18" t="s">
-        <v>38508</v>
+        <v>39588</v>
       </c>
       <c r="I18" t="s">
-        <v>38537</v>
+        <v>39617</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>38413</v>
+        <v>39493</v>
       </c>
       <c r="B19" t="s">
-        <v>38445</v>
+        <v>39525</v>
       </c>
       <c r="C19" t="s">
-        <v>38477</v>
+        <v>39557</v>
       </c>
       <c r="D19" s="1">
         <v>0.38999998569488525</v>
@@ -118078,24 +121318,24 @@
         <v>0.80000001192092896</v>
       </c>
       <c r="G19" t="s">
-        <v>38493</v>
+        <v>39573</v>
       </c>
       <c r="H19" t="s">
-        <v>38508</v>
+        <v>39588</v>
       </c>
       <c r="I19" t="s">
-        <v>38538</v>
+        <v>39618</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>38414</v>
+        <v>39494</v>
       </c>
       <c r="B20" t="s">
-        <v>38446</v>
+        <v>39526</v>
       </c>
       <c r="C20" t="s">
-        <v>38477</v>
+        <v>39557</v>
       </c>
       <c r="D20" s="1">
         <v>0.61000001430511475</v>
@@ -118107,24 +121347,24 @@
         <v>1.1699999570846558</v>
       </c>
       <c r="G20" t="s">
-        <v>38493</v>
+        <v>39573</v>
       </c>
       <c r="H20" t="s">
-        <v>38509</v>
+        <v>39589</v>
       </c>
       <c r="I20" t="s">
-        <v>38539</v>
+        <v>39619</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>38414</v>
+        <v>39494</v>
       </c>
       <c r="B21" t="s">
-        <v>38447</v>
+        <v>39527</v>
       </c>
       <c r="C21" t="s">
-        <v>38477</v>
+        <v>39557</v>
       </c>
       <c r="D21" s="1">
         <v>0.75</v>
@@ -118136,24 +121376,24 @@
         <v>1.3600000143051147</v>
       </c>
       <c r="G21" t="s">
-        <v>38493</v>
+        <v>39573</v>
       </c>
       <c r="H21" t="s">
-        <v>38509</v>
+        <v>39589</v>
       </c>
       <c r="I21" t="s">
-        <v>38540</v>
+        <v>39620</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>38414</v>
+        <v>39494</v>
       </c>
       <c r="B22" t="s">
-        <v>38448</v>
+        <v>39528</v>
       </c>
       <c r="C22" t="s">
-        <v>38478</v>
+        <v>39558</v>
       </c>
       <c r="D22" s="1">
         <v>5.9000000953674316</v>
@@ -118165,24 +121405,24 @@
         <v>46.099998474121094</v>
       </c>
       <c r="G22" t="s">
-        <v>38493</v>
+        <v>39573</v>
       </c>
       <c r="H22" t="s">
-        <v>38510</v>
+        <v>39590</v>
       </c>
       <c r="I22" t="s">
-        <v>38541</v>
+        <v>39621</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>38414</v>
+        <v>39494</v>
       </c>
       <c r="B23" t="s">
-        <v>38449</v>
+        <v>39529</v>
       </c>
       <c r="C23" t="s">
-        <v>38478</v>
+        <v>39558</v>
       </c>
       <c r="D23" s="1">
         <v>1.8200000524520874</v>
@@ -118194,24 +121434,24 @@
         <v>5.1399998664855957</v>
       </c>
       <c r="G23" t="s">
-        <v>38493</v>
+        <v>39573</v>
       </c>
       <c r="H23" t="s">
-        <v>38510</v>
+        <v>39590</v>
       </c>
       <c r="I23" t="s">
-        <v>38542</v>
+        <v>39622</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>38415</v>
+        <v>39495</v>
       </c>
       <c r="B24" t="s">
-        <v>38450</v>
+        <v>39530</v>
       </c>
       <c r="C24" t="s">
-        <v>38479</v>
+        <v>39559</v>
       </c>
       <c r="D24" s="1">
         <v>0.5899999737739563</v>
@@ -118223,24 +121463,24 @@
         <v>1.3999999761581421</v>
       </c>
       <c r="G24" t="s">
-        <v>38493</v>
+        <v>39573</v>
       </c>
       <c r="H24" t="s">
-        <v>38511</v>
+        <v>39591</v>
       </c>
       <c r="I24" t="s">
-        <v>38543</v>
+        <v>39623</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>38415</v>
+        <v>39495</v>
       </c>
       <c r="B25" t="s">
-        <v>38451</v>
+        <v>39531</v>
       </c>
       <c r="C25" t="s">
-        <v>38479</v>
+        <v>39559</v>
       </c>
       <c r="D25" s="1">
         <v>0.69999998807907104</v>
@@ -118252,24 +121492,24 @@
         <v>0.87000000476837158</v>
       </c>
       <c r="G25" t="s">
-        <v>38493</v>
+        <v>39573</v>
       </c>
       <c r="H25" t="s">
-        <v>38511</v>
+        <v>39591</v>
       </c>
       <c r="I25" t="s">
-        <v>38544</v>
+        <v>39624</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>38416</v>
+        <v>39496</v>
       </c>
       <c r="B26" t="s">
-        <v>38452</v>
+        <v>39532</v>
       </c>
       <c r="C26" t="s">
-        <v>38479</v>
+        <v>39559</v>
       </c>
       <c r="D26" s="1">
         <v>0.38999998569488525</v>
@@ -118281,24 +121521,24 @@
         <v>0.68999999761581421</v>
       </c>
       <c r="G26" t="s">
-        <v>38493</v>
+        <v>39573</v>
       </c>
       <c r="H26" t="s">
-        <v>38512</v>
+        <v>39592</v>
       </c>
       <c r="I26" t="s">
-        <v>38545</v>
+        <v>39625</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>38416</v>
+        <v>39496</v>
       </c>
       <c r="B27" t="s">
-        <v>38453</v>
+        <v>39533</v>
       </c>
       <c r="C27" t="s">
-        <v>38479</v>
+        <v>39559</v>
       </c>
       <c r="D27" s="1">
         <v>0.15999999642372131</v>
@@ -118310,24 +121550,24 @@
         <v>0.40000000596046448</v>
       </c>
       <c r="G27" t="s">
-        <v>38493</v>
+        <v>39573</v>
       </c>
       <c r="H27" t="s">
-        <v>38512</v>
+        <v>39592</v>
       </c>
       <c r="I27" t="s">
-        <v>38546</v>
+        <v>39626</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>38417</v>
+        <v>39497</v>
       </c>
       <c r="B28" t="s">
-        <v>38454</v>
+        <v>39534</v>
       </c>
       <c r="C28" t="s">
-        <v>38479</v>
+        <v>39559</v>
       </c>
       <c r="D28" s="1">
         <v>0.46000000834465027</v>
@@ -118339,24 +121579,24 @@
         <v>0.6600000262260437</v>
       </c>
       <c r="G28" t="s">
-        <v>38493</v>
+        <v>39573</v>
       </c>
       <c r="H28" t="s">
-        <v>38512</v>
+        <v>39592</v>
       </c>
       <c r="I28" t="s">
-        <v>38547</v>
+        <v>39627</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>38417</v>
+        <v>39497</v>
       </c>
       <c r="B29" t="s">
-        <v>38455</v>
+        <v>39535</v>
       </c>
       <c r="C29" t="s">
-        <v>38479</v>
+        <v>39559</v>
       </c>
       <c r="D29" s="1">
         <v>0.30000001192092896</v>
@@ -118368,24 +121608,24 @@
         <v>0.44999998807907104</v>
       </c>
       <c r="G29" t="s">
-        <v>38493</v>
+        <v>39573</v>
       </c>
       <c r="H29" t="s">
-        <v>38512</v>
+        <v>39592</v>
       </c>
       <c r="I29" t="s">
-        <v>38548</v>
+        <v>39628</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>38418</v>
+        <v>39498</v>
       </c>
       <c r="B30" t="s">
-        <v>38456</v>
+        <v>39536</v>
       </c>
       <c r="C30" t="s">
-        <v>38479</v>
+        <v>39559</v>
       </c>
       <c r="D30" s="1">
         <v>0.60000002384185791</v>
@@ -118397,24 +121637,24 @@
         <v>1.059999942779541</v>
       </c>
       <c r="G30" t="s">
-        <v>38493</v>
+        <v>39573</v>
       </c>
       <c r="H30" t="s">
-        <v>38513</v>
+        <v>39593</v>
       </c>
       <c r="I30" t="s">
-        <v>38549</v>
+        <v>39629</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>38418</v>
+        <v>39498</v>
       </c>
       <c r="B31" t="s">
-        <v>38457</v>
+        <v>39537</v>
       </c>
       <c r="C31" t="s">
-        <v>38479</v>
+        <v>39559</v>
       </c>
       <c r="D31" s="1">
         <v>0.47999998927116394</v>
@@ -118426,24 +121666,24 @@
         <v>0.81999999284744263</v>
       </c>
       <c r="G31" t="s">
-        <v>38493</v>
+        <v>39573</v>
       </c>
       <c r="H31" t="s">
-        <v>38513</v>
+        <v>39593</v>
       </c>
       <c r="I31" t="s">
-        <v>38550</v>
+        <v>39630</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>38419</v>
+        <v>39499</v>
       </c>
       <c r="B32" t="s">
-        <v>38458</v>
+        <v>39538</v>
       </c>
       <c r="C32" t="s">
-        <v>38479</v>
+        <v>39559</v>
       </c>
       <c r="D32" s="1">
         <v>1.6200000047683716</v>
@@ -118455,24 +121695,24 @@
         <v>2.4100000858306885</v>
       </c>
       <c r="G32" t="s">
-        <v>38493</v>
+        <v>39573</v>
       </c>
       <c r="H32" t="s">
-        <v>38513</v>
+        <v>39593</v>
       </c>
       <c r="I32" t="s">
-        <v>38551</v>
+        <v>39631</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>38419</v>
+        <v>39499</v>
       </c>
       <c r="B33" t="s">
-        <v>38459</v>
+        <v>39539</v>
       </c>
       <c r="C33" t="s">
-        <v>38479</v>
+        <v>39559</v>
       </c>
       <c r="D33" s="1">
         <v>2.0099999904632568</v>
@@ -118484,24 +121724,24 @@
         <v>2.8399999141693115</v>
       </c>
       <c r="G33" t="s">
-        <v>38493</v>
+        <v>39573</v>
       </c>
       <c r="H33" t="s">
-        <v>38513</v>
+        <v>39593</v>
       </c>
       <c r="I33" t="s">
-        <v>38552</v>
+        <v>39632</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>38420</v>
+        <v>39500</v>
       </c>
       <c r="B34" t="s">
-        <v>38460</v>
+        <v>39540</v>
       </c>
       <c r="C34" t="s">
-        <v>38480</v>
+        <v>39560</v>
       </c>
       <c r="D34" s="1">
         <v>0.95999997854232788</v>
@@ -118513,24 +121753,24 @@
         <v>1.2560000419616699</v>
       </c>
       <c r="G34" t="s">
-        <v>38494</v>
+        <v>39574</v>
       </c>
       <c r="H34" t="s">
-        <v>38514</v>
+        <v>39594</v>
       </c>
       <c r="I34" t="s">
-        <v>38553</v>
+        <v>39633</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>38420</v>
+        <v>39500</v>
       </c>
       <c r="B35" t="s">
-        <v>38461</v>
+        <v>39541</v>
       </c>
       <c r="C35" t="s">
-        <v>38480</v>
+        <v>39560</v>
       </c>
       <c r="D35" s="1">
         <v>1.0800000429153442</v>
@@ -118542,24 +121782,24 @@
         <v>1.3609999418258667</v>
       </c>
       <c r="G35" t="s">
-        <v>38494</v>
+        <v>39574</v>
       </c>
       <c r="H35" t="s">
-        <v>38514</v>
+        <v>39594</v>
       </c>
       <c r="I35" t="s">
-        <v>38554</v>
+        <v>39634</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>38421</v>
+        <v>39501</v>
       </c>
       <c r="B36" t="s">
-        <v>38462</v>
+        <v>39542</v>
       </c>
       <c r="C36" t="s">
-        <v>38480</v>
+        <v>39560</v>
       </c>
       <c r="D36" s="1">
         <v>0.87699997425079346</v>
@@ -118571,24 +121811,24 @@
         <v>1.156000018119812</v>
       </c>
       <c r="G36" t="s">
-        <v>38495</v>
+        <v>39575</v>
       </c>
       <c r="H36" t="s">
-        <v>38515</v>
+        <v>39595</v>
       </c>
       <c r="I36" t="s">
-        <v>38555</v>
+        <v>39635</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>38421</v>
+        <v>39501</v>
       </c>
       <c r="B37" t="s">
-        <v>38463</v>
+        <v>39543</v>
       </c>
       <c r="C37" t="s">
-        <v>38480</v>
+        <v>39560</v>
       </c>
       <c r="D37" s="1">
         <v>0.68400001525878906</v>
@@ -118600,24 +121840,24 @@
         <v>0.875</v>
       </c>
       <c r="G37" t="s">
-        <v>38495</v>
+        <v>39575</v>
       </c>
       <c r="H37" t="s">
-        <v>38515</v>
+        <v>39595</v>
       </c>
       <c r="I37" t="s">
-        <v>38556</v>
+        <v>39636</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>38421</v>
+        <v>39501</v>
       </c>
       <c r="B38" t="s">
-        <v>38464</v>
+        <v>39544</v>
       </c>
       <c r="C38" t="s">
-        <v>38480</v>
+        <v>39560</v>
       </c>
       <c r="D38" s="1">
         <v>0.85699999332427979</v>
@@ -118629,24 +121869,24 @@
         <v>1.1779999732971191</v>
       </c>
       <c r="G38" t="s">
-        <v>38495</v>
+        <v>39575</v>
       </c>
       <c r="H38" t="s">
-        <v>38515</v>
+        <v>39595</v>
       </c>
       <c r="I38" t="s">
-        <v>38557</v>
+        <v>39637</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>38422</v>
+        <v>39502</v>
       </c>
       <c r="B39" t="s">
-        <v>38464</v>
+        <v>39544</v>
       </c>
       <c r="C39" t="s">
-        <v>38481</v>
+        <v>39561</v>
       </c>
       <c r="D39" s="1">
         <v>0.64999997615814209</v>
@@ -118658,24 +121898,24 @@
         <v>0.8399999737739563</v>
       </c>
       <c r="G39" t="s">
-        <v>38496</v>
+        <v>39576</v>
       </c>
       <c r="H39" t="s">
-        <v>38515</v>
+        <v>39595</v>
       </c>
       <c r="I39" t="s">
-        <v>38558</v>
+        <v>39638</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>38422</v>
+        <v>39502</v>
       </c>
       <c r="B40" t="s">
-        <v>38465</v>
+        <v>39545</v>
       </c>
       <c r="C40" t="s">
-        <v>38481</v>
+        <v>39561</v>
       </c>
       <c r="D40" s="1">
         <v>0.47999998927116394</v>
@@ -118687,24 +121927,24 @@
         <v>0.75</v>
       </c>
       <c r="G40" t="s">
-        <v>38496</v>
+        <v>39576</v>
       </c>
       <c r="H40" t="s">
-        <v>38515</v>
+        <v>39595</v>
       </c>
       <c r="I40" t="s">
-        <v>38559</v>
+        <v>39639</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>38423</v>
+        <v>39503</v>
       </c>
       <c r="B41" t="s">
-        <v>38466</v>
+        <v>39546</v>
       </c>
       <c r="C41" t="s">
-        <v>38482</v>
+        <v>39562</v>
       </c>
       <c r="D41" s="1">
         <v>0.78100001811981201</v>
@@ -118716,24 +121956,24 @@
         <v>1.3220000267028809</v>
       </c>
       <c r="G41" t="s">
-        <v>38497</v>
+        <v>39577</v>
       </c>
       <c r="H41" t="s">
-        <v>38516</v>
+        <v>39596</v>
       </c>
       <c r="I41" t="s">
-        <v>38560</v>
+        <v>39640</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>38423</v>
+        <v>39503</v>
       </c>
       <c r="B42" t="s">
-        <v>38467</v>
+        <v>39547</v>
       </c>
       <c r="C42" t="s">
-        <v>38482</v>
+        <v>39562</v>
       </c>
       <c r="D42" s="1">
         <v>0.97500002384185791</v>
@@ -118745,24 +121985,24 @@
         <v>1.1829999685287476</v>
       </c>
       <c r="G42" t="s">
-        <v>38497</v>
+        <v>39577</v>
       </c>
       <c r="H42" t="s">
-        <v>38516</v>
+        <v>39596</v>
       </c>
       <c r="I42" t="s">
-        <v>38561</v>
+        <v>39641</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>38424</v>
+        <v>39504</v>
       </c>
       <c r="B43" t="s">
-        <v>38468</v>
+        <v>39548</v>
       </c>
       <c r="C43" t="s">
-        <v>38482</v>
+        <v>39562</v>
       </c>
       <c r="D43" s="1">
         <v>0.93999999761581421</v>
@@ -118774,24 +122014,24 @@
         <v>1.190000057220459</v>
       </c>
       <c r="G43" t="s">
-        <v>38498</v>
+        <v>39578</v>
       </c>
       <c r="H43" t="s">
-        <v>38517</v>
+        <v>39597</v>
       </c>
       <c r="I43" t="s">
-        <v>38562</v>
+        <v>39642</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>38424</v>
+        <v>39504</v>
       </c>
       <c r="B44" t="s">
-        <v>38469</v>
+        <v>39549</v>
       </c>
       <c r="C44" t="s">
-        <v>38482</v>
+        <v>39562</v>
       </c>
       <c r="D44" s="1">
         <v>0.93000000715255737</v>
@@ -118803,24 +122043,24 @@
         <v>1.309999942779541</v>
       </c>
       <c r="G44" t="s">
-        <v>38498</v>
+        <v>39578</v>
       </c>
       <c r="H44" t="s">
-        <v>38517</v>
+        <v>39597</v>
       </c>
       <c r="I44" t="s">
-        <v>38563</v>
+        <v>39643</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>38425</v>
+        <v>39505</v>
       </c>
       <c r="B45" t="s">
-        <v>38470</v>
+        <v>39550</v>
       </c>
       <c r="C45" t="s">
-        <v>38483</v>
+        <v>39563</v>
       </c>
       <c r="D45" s="1">
         <v>0.63999998569488525</v>
@@ -118832,24 +122072,24 @@
         <v>0.9100000262260437</v>
       </c>
       <c r="G45" t="s">
-        <v>38498</v>
+        <v>39578</v>
       </c>
       <c r="H45" t="s">
-        <v>38518</v>
+        <v>39598</v>
       </c>
       <c r="I45" t="s">
-        <v>38564</v>
+        <v>39644</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>38425</v>
+        <v>39505</v>
       </c>
       <c r="B46" t="s">
-        <v>38471</v>
+        <v>39551</v>
       </c>
       <c r="C46" t="s">
-        <v>38483</v>
+        <v>39563</v>
       </c>
       <c r="D46" s="1">
         <v>0.72000002861022949</v>
@@ -118861,24 +122101,24 @@
         <v>0.89999997615814209</v>
       </c>
       <c r="G46" t="s">
-        <v>38498</v>
+        <v>39578</v>
       </c>
       <c r="H46" t="s">
-        <v>38518</v>
+        <v>39598</v>
       </c>
       <c r="I46" t="s">
-        <v>38565</v>
+        <v>39645</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>38426</v>
+        <v>39506</v>
       </c>
       <c r="B47" t="s">
-        <v>38472</v>
+        <v>39552</v>
       </c>
       <c r="C47" t="s">
-        <v>38483</v>
+        <v>39563</v>
       </c>
       <c r="D47" s="1">
         <v>0.46000000834465027</v>
@@ -118890,24 +122130,24 @@
         <v>0.73000001907348633</v>
       </c>
       <c r="G47" t="s">
-        <v>38498</v>
+        <v>39578</v>
       </c>
       <c r="H47" t="s">
-        <v>38519</v>
+        <v>39599</v>
       </c>
       <c r="I47" t="s">
-        <v>38566</v>
+        <v>39646</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>38426</v>
+        <v>39506</v>
       </c>
       <c r="B48" t="s">
-        <v>38473</v>
+        <v>39553</v>
       </c>
       <c r="C48" t="s">
-        <v>38483</v>
+        <v>39563</v>
       </c>
       <c r="D48" s="1">
         <v>0.62999999523162842</v>
@@ -118919,13 +122159,13 @@
         <v>0.89999997615814209</v>
       </c>
       <c r="G48" t="s">
-        <v>38498</v>
+        <v>39578</v>
       </c>
       <c r="H48" t="s">
-        <v>38519</v>
+        <v>39599</v>
       </c>
       <c r="I48" t="s">
-        <v>38567</v>
+        <v>39647</v>
       </c>
     </row>
   </sheetData>
